--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -393,13 +393,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Devon Conway</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B2" t="str">
-        <v>NZ - WK (320 pts)</v>
+        <v>PAK - WK (337 pts)</v>
       </c>
       <c r="C2" t="str">
-        <v>(320 pts)</v>
+        <v>(337 pts)</v>
       </c>
     </row>
     <row r="3">
@@ -415,32 +415,32 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Matt Henry</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B4" t="str">
-        <v>NZ - BOWL (292 pts)</v>
+        <v>NZ - WK (320 pts)</v>
       </c>
       <c r="C4" t="str">
-        <v>(292 pts)</v>
+        <v>(320 pts)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Quinton de Kock</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B5" t="str">
-        <v>SA - WK (289 pts)</v>
+        <v>IND - BAT (292 pts)</v>
       </c>
       <c r="C5" t="str">
-        <v>(289 pts)</v>
+        <v>(292 pts)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B6" t="str">
-        <v>NZ - AR (289 pts)</v>
+        <v>SA - WK (289 pts)</v>
       </c>
       <c r="C6" t="str">
         <v>(289 pts)</v>
@@ -459,189 +459,189 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B8" t="str">
-        <v>PAK - WK (277 pts)</v>
+        <v>NZ - BOWL (292 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(277 pts)</v>
+        <v>(292 pts)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Kusal Mendis</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B9" t="str">
-        <v>SL - WK (276 pts)</v>
+        <v>NZ - AR (289 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(276 pts)</v>
+        <v>(289 pts)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Aiden Markram</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B10" t="str">
-        <v>SA - AR (229 pts)</v>
+        <v>SL - WK (276 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(229 pts)</v>
+        <v>(276 pts)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B11" t="str">
-        <v>BAN - AR (222 pts)</v>
+        <v>IND - BOWL (260 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(222 pts)</v>
+        <v>(260 pts)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B12" t="str">
-        <v>BAN - AR (227 pts)</v>
+        <v>SA - AR (229 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(227 pts)</v>
+        <v>(229 pts)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Dawid Malan</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B13" t="str">
-        <v>ENG - BAT (202 pts)</v>
+        <v>BAN - AR (227 pts)</v>
       </c>
       <c r="C13" t="str">
-        <v>(202 pts)</v>
+        <v>(227 pts)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Joe Root</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B14" t="str">
-        <v>ENG - BAT (195 pts)</v>
+        <v>BAN - AR (222 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(195 pts)</v>
+        <v>(222 pts)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B15" t="str">
-        <v>NZ - AR (198 pts)</v>
+        <v>IND - BAT (215 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(198 pts)</v>
+        <v>(215 pts)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Shoriful Islam</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B16" t="str">
-        <v>BAN - BOWL (183 pts)</v>
+        <v>PAK - BOWL (215 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(183 pts)</v>
+        <v>(215 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Virat Kohli</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B17" t="str">
-        <v>IND - BAT (192 pts)</v>
+        <v>NZ - AR (198 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(192 pts)</v>
+        <v>(198 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Joe Root</v>
       </c>
       <c r="B18" t="str">
-        <v>SL - WK (187 pts)</v>
+        <v>ENG - BAT (195 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(187 pts)</v>
+        <v>(195 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Rohit Sharma</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B19" t="str">
-        <v>IND - BAT (176 pts)</v>
+        <v>ENG - BAT (202 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(176 pts)</v>
+        <v>(202 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B20" t="str">
-        <v>IND - BOWL (174 pts)</v>
+        <v>IND - BOWL (191 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(174 pts)</v>
+        <v>(191 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B21" t="str">
-        <v>SA - BAT (177 pts)</v>
+        <v>PAK - BAT (186 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(177 pts)</v>
+        <v>(186 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B22" t="str">
-        <v>SA - BOWL (171 pts)</v>
+        <v>SL - WK (187 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(171 pts)</v>
+        <v>(187 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Marco Jansen</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B23" t="str">
-        <v>SA - AR (171 pts)</v>
+        <v>BAN - BOWL (183 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(171 pts)</v>
+        <v>(183 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B24" t="str">
-        <v>BAN - WK (169 pts)</v>
+        <v>IND - AR (175 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(169 pts)</v>
+        <v>(175 pts)</v>
       </c>
     </row>
     <row r="25">
@@ -649,65 +649,65 @@
         <v>Haris Rauf</v>
       </c>
       <c r="B25" t="str">
-        <v>PAK - BOWL (177 pts)</v>
+        <v>PAK - BOWL (181 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(177 pts)</v>
+        <v>(181 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Mitchell Starc</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B26" t="str">
-        <v>AUS - BOWL (159 pts)</v>
+        <v>SA - BAT (177 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(159 pts)</v>
+        <v>(177 pts)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Abdullah Shafique</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B27" t="str">
-        <v>PAK - BAT (159 pts)</v>
+        <v>IND - BAT (170 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(159 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>KL Rahul</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B28" t="str">
-        <v>IND - BAT (137 pts)</v>
+        <v>BAN - WK (169 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(137 pts)</v>
+        <v>(169 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B29" t="str">
-        <v>AFG - AR (137 pts)</v>
+        <v>SA - AR (171 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(137 pts)</v>
+        <v>(171 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Hasan Ali</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B30" t="str">
-        <v>PAK - BOWL (172 pts)</v>
+        <v>SA - BOWL (171 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(172 pts)</v>
+        <v>(171 pts)</v>
       </c>
     </row>
     <row r="31">
@@ -723,222 +723,222 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B32" t="str">
-        <v>BAN - AR (133 pts)</v>
+        <v>PAK - BOWL (151 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(133 pts)</v>
+        <v>(151 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Saud Shakeel</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B33" t="str">
-        <v>PAK - BAT (130 pts)</v>
+        <v>AUS - BOWL (159 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(130 pts)</v>
+        <v>(159 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Litton Das</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B34" t="str">
-        <v>BAN - WK (133 pts)</v>
+        <v>AFG - AR (137 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(133 pts)</v>
+        <v>(137 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B35" t="str">
-        <v>SA - BOWL (128 pts)</v>
+        <v>PAK - BAT (140 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(128 pts)</v>
+        <v>(140 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Tom Latham</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B36" t="str">
-        <v>NZ - WK (129 pts)</v>
+        <v>IND - AR (166 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(129 pts)</v>
+        <v>(166 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Reece Topley</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B37" t="str">
-        <v>ENG - BOWL (123 pts)</v>
+        <v>BAN - AR (133 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(123 pts)</v>
+        <v>(133 pts)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Glenn Phillips</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B38" t="str">
-        <v>NZ - AR (127 pts)</v>
+        <v>AUS - BOWL (133 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(127 pts)</v>
+        <v>(133 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Litton Das</v>
       </c>
       <c r="B39" t="str">
-        <v>ENG - WK (119 pts)</v>
+        <v>BAN - WK (133 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(119 pts)</v>
+        <v>(133 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B40" t="str">
-        <v>IND - BOWL (119 pts)</v>
+        <v>SA - BOWL (128 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(119 pts)</v>
+        <v>(128 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Jos Buttler</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B41" t="str">
-        <v>ENG - WK (118 pts)</v>
+        <v>NZ - WK (129 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(118 pts)</v>
+        <v>(129 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B42" t="str">
-        <v>AFG - BAT (120 pts)</v>
+        <v>NZ - AR (127 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(120 pts)</v>
+        <v>(127 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Dasun Shanaka</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B43" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>PAK - AR (127 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(114 pts)</v>
+        <v>(127 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B44" t="str">
-        <v>SL - BOWL (117 pts)</v>
+        <v>ENG - WK (119 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(117 pts)</v>
+        <v>(119 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B45" t="str">
-        <v>AUS - BOWL (133 pts)</v>
+        <v>IND - BAT (119 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(133 pts)</v>
+        <v>(119 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Aryan Dutt</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B46" t="str">
-        <v>NED - BOWL (113 pts)</v>
+        <v>ENG - WK (118 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(113 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Hardik Pandya</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B47" t="str">
-        <v>IND - AR (112 pts)</v>
+        <v>SL - BOWL (117 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(112 pts)</v>
+        <v>(117 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Charith Asalanka</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B48" t="str">
-        <v>SL - BAT (112 pts)</v>
+        <v>ENG - BOWL (123 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(112 pts)</v>
+        <v>(123 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B49" t="str">
-        <v>IND - AR (111 pts)</v>
+        <v>AFG - BAT (120 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(111 pts)</v>
+        <v>(120 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B50" t="str">
-        <v>PAK - AR (111 pts)</v>
+        <v>NED - BOWL (110 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(111 pts)</v>
+        <v>(110 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B51" t="str">
-        <v>NED - BOWL (110 pts)</v>
+        <v>PAK - AR (108 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(110 pts)</v>
+        <v>(108 pts)</v>
       </c>
     </row>
     <row r="52">
@@ -954,21 +954,21 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Trent Boult</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B53" t="str">
-        <v>NZ - BOWL (103 pts)</v>
+        <v>IND - BOWL (105 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(103 pts)</v>
+        <v>(105 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B54" t="str">
-        <v>SA - WK (103 pts)</v>
+        <v>NZ - BOWL (103 pts)</v>
       </c>
       <c r="C54" t="str">
         <v>(103 pts)</v>
@@ -976,54 +976,54 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Sam Curran</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B55" t="str">
-        <v>ENG - AR (98 pts)</v>
+        <v>PAK - BAT (103 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(98 pts)</v>
+        <v>(103 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Kane Williamson</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B56" t="str">
-        <v>NZ - BAT (96 pts)</v>
+        <v>SA - WK (103 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(96 pts)</v>
+        <v>(103 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B57" t="str">
-        <v>AUS - AR (95 pts)</v>
+        <v>BAN - BAT (101 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(95 pts)</v>
+        <v>(101 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Will Young</v>
       </c>
       <c r="B58" t="str">
-        <v>BAN - BAT (101 pts)</v>
+        <v>NZ - BAT (98 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(101 pts)</v>
+        <v>(98 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Will Young</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B59" t="str">
-        <v>NZ - BAT (98 pts)</v>
+        <v>ENG - AR (98 pts)</v>
       </c>
       <c r="C59" t="str">
         <v>(98 pts)</v>
@@ -1031,255 +1031,255 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B60" t="str">
-        <v>PAK - BOWL (95 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(95 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Shadab Khan</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B61" t="str">
-        <v>PAK - AR (94 pts)</v>
+        <v>AUS - AR (95 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(94 pts)</v>
+        <v>(95 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>David Warner</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B62" t="str">
-        <v>AUS - BAT (92 pts)</v>
+        <v>PAK - AR (94 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(92 pts)</v>
+        <v>(94 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B63" t="str">
-        <v>NZ - BOWL (91 pts)</v>
+        <v>SL - BAT (112 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(91 pts)</v>
+        <v>(112 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Scott Edwards</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B64" t="str">
-        <v>NED - WK (89 pts)</v>
+        <v>NZ - BAT (96 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(89 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>David Miller</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B65" t="str">
-        <v>SA - BAT (88 pts)</v>
+        <v>NED - BOWL (113 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(88 pts)</v>
+        <v>(113 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B66" t="str">
-        <v>AFG - WK (87 pts)</v>
+        <v>PAK - BAT (92 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(87 pts)</v>
+        <v>(92 pts)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Chris Woakes</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B67" t="str">
-        <v>ENG - AR (84 pts)</v>
+        <v>NZ - BOWL (91 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(84 pts)</v>
+        <v>(91 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Steven Smith</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B68" t="str">
-        <v>AUS - BAT (82 pts)</v>
+        <v>AFG - BOWL (93 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(82 pts)</v>
+        <v>(93 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Towhid Hridoy</v>
+        <v>David Warner</v>
       </c>
       <c r="B69" t="str">
-        <v>BAN - BAT (82 pts)</v>
+        <v>AUS - BAT (92 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(82 pts)</v>
+        <v>(92 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Vikram Singh</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B70" t="str">
-        <v>NED - AR (83 pts)</v>
+        <v>AUS - BAT (93 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(83 pts)</v>
+        <v>(93 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Adil Rashid</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B71" t="str">
-        <v>ENG - BOWL (80 pts)</v>
+        <v>NED - WK (89 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(80 pts)</v>
+        <v>(89 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Rashid Khan</v>
+        <v>David Miller</v>
       </c>
       <c r="B72" t="str">
-        <v>AFG - BOWL (93 pts)</v>
+        <v>SA - BAT (88 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(93 pts)</v>
+        <v>(88 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B73" t="str">
-        <v>SA - BOWL (77 pts)</v>
+        <v>AFG - WK (87 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(77 pts)</v>
+        <v>(87 pts)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B74" t="str">
-        <v>SL - BOWL (76 pts)</v>
+        <v>ENG - AR (84 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(76 pts)</v>
+        <v>(84 pts)</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B75" t="str">
-        <v>PAK - AR (77 pts)</v>
+        <v>NED - AR (83 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(77 pts)</v>
+        <v>(83 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Pat Cummins</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B76" t="str">
-        <v>AUS - BOWL (75 pts)</v>
+        <v>AUS - BAT (82 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(75 pts)</v>
+        <v>(82 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B77" t="str">
-        <v>SA - BOWL (76 pts)</v>
+        <v>BAN - BAT (82 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(76 pts)</v>
+        <v>(82 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B78" t="str">
-        <v>AUS - BAT (93 pts)</v>
+        <v>ENG - BOWL (80 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(93 pts)</v>
+        <v>(80 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Temba Bavuma</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B79" t="str">
-        <v>SA - BAT (71 pts)</v>
+        <v>SA - BOWL (77 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(71 pts)</v>
+        <v>(77 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Logan van Beek</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B80" t="str">
-        <v>NED - BOWL (70 pts)</v>
+        <v>SL - BOWL (76 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(70 pts)</v>
+        <v>(76 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B81" t="str">
-        <v>SL - BAT (69 pts)</v>
+        <v>SA - BOWL (76 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(69 pts)</v>
+        <v>(76 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B82" t="str">
-        <v>AFG - BAT (69 pts)</v>
+        <v>AUS - BOWL (75 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(69 pts)</v>
+        <v>(75 pts)</v>
       </c>
     </row>
     <row r="83">
@@ -1295,156 +1295,156 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Harry Brook</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B84" t="str">
-        <v>ENG - BAT (62 pts)</v>
+        <v>NED - AR (71 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(62 pts)</v>
+        <v>(71 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Liam Livingstone</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B85" t="str">
-        <v>ENG - AR (61 pts)</v>
+        <v>SA - BAT (71 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(61 pts)</v>
+        <v>(71 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Mark Wood</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B86" t="str">
-        <v>ENG - BOWL (59 pts)</v>
+        <v>NED - BOWL (70 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(59 pts)</v>
+        <v>(70 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B87" t="str">
-        <v>NED - AR (71 pts)</v>
+        <v>SL - BAT (69 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(71 pts)</v>
+        <v>(69 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B88" t="str">
-        <v>BAN - AR (55 pts)</v>
+        <v>AFG - BAT (69 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(55 pts)</v>
+        <v>(69 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B89" t="str">
-        <v>BAN - BAT (55 pts)</v>
+        <v>ENG - BAT (62 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(55 pts)</v>
+        <v>(62 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B90" t="str">
-        <v>SA - BOWL (54 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(54 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Rahmat Shah</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B91" t="str">
-        <v>AFG - AR (54 pts)</v>
+        <v>SL - AR (56 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(54 pts)</v>
+        <v>(56 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B92" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>ENG - AR (61 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(53 pts)</v>
+        <v>(61 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B93" t="str">
-        <v>IND - BAT (51 pts)</v>
+        <v>ENG - BOWL (59 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(51 pts)</v>
+        <v>(59 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Adam Zampa</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B94" t="str">
-        <v>AUS - BOWL (49 pts)</v>
+        <v>BAN - BAT (55 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(49 pts)</v>
+        <v>(55 pts)</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B95" t="str">
-        <v>SL - BOWL (48 pts)</v>
+        <v>BAN - AR (55 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(48 pts)</v>
+        <v>(55 pts)</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Fazalhaq Farooqi</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B96" t="str">
-        <v>AFG - BOWL (47 pts)</v>
+        <v>SA - BOWL (54 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(47 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B97" t="str">
-        <v>PAK - BAT (46 pts)</v>
+        <v>AFG - AR (54 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(46 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="98">
@@ -1452,161 +1452,161 @@
         <v>Shardul Thakur</v>
       </c>
       <c r="B98" t="str">
-        <v>IND - BOWL (45 pts)</v>
+        <v>IND - BOWL (49 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(45 pts)</v>
+        <v>(49 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B99" t="str">
-        <v>AFG - BOWL (43 pts)</v>
+        <v>SL - BOWL (48 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(43 pts)</v>
+        <v>(48 pts)</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Ishan Kishan</v>
+        <v>Fazalhaq Farooqi</v>
       </c>
       <c r="B100" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>AFG - BOWL (47 pts)</v>
       </c>
       <c r="C100" t="str">
-        <v>(63 pts)</v>
+        <v>(47 pts)</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B101" t="str">
-        <v>AFG - AR (42 pts)</v>
+        <v>AFG - BOWL (43 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(42 pts)</v>
+        <v>(43 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B102" t="str">
-        <v>NED - BAT (39 pts)</v>
+        <v>AFG - AR (42 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(39 pts)</v>
+        <v>(42 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B103" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>NED - BAT (39 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(37 pts)</v>
+        <v>(39 pts)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B104" t="str">
-        <v>NED - AR (36 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(36 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B105" t="str">
-        <v>PAK - BAT (35 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(35 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B106" t="str">
-        <v>IND - BOWL (35 pts)</v>
+        <v>AUS - BOWL (49 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(35 pts)</v>
+        <v>(49 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Max O'Dowd</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B107" t="str">
-        <v>NED - BAT (32 pts)</v>
+        <v>NED - AR (36 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(32 pts)</v>
+        <v>(36 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B108" t="str">
-        <v>SL - AR (56 pts)</v>
+        <v>PAK - BAT (35 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(56 pts)</v>
+        <v>(35 pts)</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B109" t="str">
-        <v>SL - BOWL (29 pts)</v>
+        <v>NED - AR (31 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(29 pts)</v>
+        <v>(31 pts)</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B110" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>SL - BOWL (29 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(27 pts)</v>
+        <v>(29 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Kusal Perera</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B111" t="str">
-        <v>SL - WK (21 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(21 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B112" t="str">
-        <v>AFG - BOWL (21 pts)</v>
+        <v>SL - WK (21 pts)</v>
       </c>
       <c r="C112" t="str">
         <v>(21 pts)</v>
@@ -1625,24 +1625,24 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Cameron Green</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B114" t="str">
-        <v>AUS - AR (18 pts)</v>
+        <v>IND - BAT (32 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(18 pts)</v>
+        <v>(32 pts)</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Mark Chapman</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B115" t="str">
-        <v>NZ - BAT (17 pts)</v>
+        <v>NED - BAT (32 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(17 pts)</v>
+        <v>(32 pts)</v>
       </c>
     </row>
     <row r="116">
@@ -1658,90 +1658,90 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Ryan Klein</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B117" t="str">
-        <v>NED - BOWL (16 pts)</v>
+        <v>AFG - BOWL (21 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(16 pts)</v>
+        <v>(21 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Babar Azam</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B118" t="str">
-        <v>PAK - BAT (38 pts)</v>
+        <v>AUS - AR (18 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(38 pts)</v>
+        <v>(18 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B119" t="str">
-        <v>NED - AR (31 pts)</v>
+        <v>NZ - BAT (17 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(31 pts)</v>
+        <v>(17 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Marcus Stoinis</v>
+        <v>James Neesham</v>
       </c>
       <c r="B120" t="str">
-        <v>AUS - AR (10 pts)</v>
+        <v>NZ - AR (2 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(10 pts)</v>
+        <v>(2 pts)</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>James Neesham</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B121" t="str">
-        <v>NZ - AR (2 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(2 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Alex Carey</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B122" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(1 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Tim Southee</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B123" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>AUS - AR (10 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(0 pts)</v>
+        <v>(10 pts)</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B124" t="str">
-        <v>SA - BAT (0 pts)</v>
+        <v>AUS - AR (12 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(0 pts)</v>
+        <v>(12 pts)</v>
       </c>
     </row>
     <row r="125">
@@ -1845,21 +1845,21 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B134" t="str">
-        <v>AUS - AR (12 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C134" t="str">
-        <v>(12 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Ashton Agar</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B135" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C135" t="str">
         <v>(0 pts)</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Ish Sodhi</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B136" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>SA - BAT (0 pts)</v>
       </c>
       <c r="C136" t="str">
         <v>(0 pts)</v>
@@ -1878,21 +1878,21 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Lizaad Williams</v>
+        <v>Ryan Klein</v>
       </c>
       <c r="B137" t="str">
-        <v>SA - BOWL (0 pts)</v>
+        <v>NED - BOWL (16 pts)</v>
       </c>
       <c r="C137" t="str">
-        <v>(0 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B138" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>SA - BOWL (0 pts)</v>
       </c>
       <c r="C138" t="str">
         <v>(0 pts)</v>
@@ -1900,10 +1900,10 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Travis Head</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B139" t="str">
-        <v>AUS - BAT (0 pts)</v>
+        <v>BAN - BOWL (0 pts)</v>
       </c>
       <c r="C139" t="str">
         <v>(0 pts)</v>
@@ -1911,10 +1911,10 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Axar Patel</v>
+        <v>Travis Head</v>
       </c>
       <c r="B140" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>AUS - BAT (0 pts)</v>
       </c>
       <c r="C140" t="str">
         <v>(0 pts)</v>
@@ -1922,10 +1922,10 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Binura Fernando</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B141" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C141" t="str">
         <v>(0 pts)</v>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Agha Salman</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B143" t="str">
-        <v>PAK - AR (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C143" t="str">
         <v>(0 pts)</v>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Sahan Arachchige</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B146" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>PAK - AR (0 pts)</v>
       </c>
       <c r="C146" t="str">
         <v>(0 pts)</v>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Sahan Arachchige</v>
       </c>
       <c r="B147" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C147" t="str">
         <v>(0 pts)</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Pramod Madushan</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B148" t="str">
         <v>SL - BOWL (0 pts)</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B149" t="str">
-        <v>AFG - WK (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C149" t="str">
         <v>(0 pts)</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Afif Hossain</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B150" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>BAN - BOWL (0 pts)</v>
       </c>
       <c r="C150" t="str">
         <v>(0 pts)</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Shubman Gill</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B151" t="str">
-        <v>IND - BAT (0 pts)</v>
+        <v>AFG - WK (0 pts)</v>
       </c>
       <c r="C151" t="str">
         <v>(0 pts)</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Pramod Madushan</v>
       </c>
       <c r="B152" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C152" t="str">
         <v>(0 pts)</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Mohammad Naim</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B157" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C157" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Noor Ahmad</v>
+        <v>Mohammad Naim</v>
       </c>
       <c r="B159" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B160" t="str">
-        <v>NED - BOWL (0 pts)</v>
+        <v>PAK - BOWL (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Shariz Ahmad</v>
       </c>
       <c r="B161" t="str">
-        <v>PAK - BOWL (0 pts)</v>
+        <v>NED - BOWL (0 pts)</v>
       </c>
       <c r="C161" t="str">
         <v>(0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -404,24 +404,24 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Mitchell Santner</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B3" t="str">
-        <v>NZ - AR (305 pts)</v>
+        <v>NZ - WK (320 pts)</v>
       </c>
       <c r="C3" t="str">
-        <v>(305 pts)</v>
+        <v>(320 pts)</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Devon Conway</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B4" t="str">
-        <v>NZ - WK (320 pts)</v>
+        <v>NZ - AR (305 pts)</v>
       </c>
       <c r="C4" t="str">
-        <v>(320 pts)</v>
+        <v>(305 pts)</v>
       </c>
     </row>
     <row r="5">
@@ -437,13 +437,13 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Quinton de Kock</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B6" t="str">
-        <v>SA - WK (289 pts)</v>
+        <v>NZ - BOWL (292 pts)</v>
       </c>
       <c r="C6" t="str">
-        <v>(289 pts)</v>
+        <v>(292 pts)</v>
       </c>
     </row>
     <row r="7">
@@ -459,57 +459,57 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Matt Henry</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B8" t="str">
-        <v>NZ - BOWL (292 pts)</v>
+        <v>NZ - AR (289 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(292 pts)</v>
+        <v>(289 pts)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Joe Root</v>
       </c>
       <c r="B9" t="str">
-        <v>NZ - AR (289 pts)</v>
+        <v>ENG - BAT (281 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(289 pts)</v>
+        <v>(281 pts)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Kusal Mendis</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B10" t="str">
-        <v>SL - WK (276 pts)</v>
+        <v>SA - WK (289 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(276 pts)</v>
+        <v>(289 pts)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B11" t="str">
-        <v>IND - BOWL (260 pts)</v>
+        <v>SL - WK (276 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(260 pts)</v>
+        <v>(276 pts)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Aiden Markram</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B12" t="str">
-        <v>SA - AR (229 pts)</v>
+        <v>IND - BOWL (260 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(229 pts)</v>
+        <v>(260 pts)</v>
       </c>
     </row>
     <row r="13">
@@ -536,57 +536,57 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Virat Kohli</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B15" t="str">
-        <v>IND - BAT (215 pts)</v>
+        <v>ENG - BAT (242 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(215 pts)</v>
+        <v>(242 pts)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Hasan Ali</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B16" t="str">
-        <v>PAK - BOWL (215 pts)</v>
+        <v>SA - AR (229 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(215 pts)</v>
+        <v>(229 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B17" t="str">
-        <v>NZ - AR (198 pts)</v>
+        <v>AFG - BOWL (220 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(198 pts)</v>
+        <v>(220 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Joe Root</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B18" t="str">
-        <v>ENG - BAT (195 pts)</v>
+        <v>NZ - AR (198 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(195 pts)</v>
+        <v>(198 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Dawid Malan</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B19" t="str">
-        <v>ENG - BAT (202 pts)</v>
+        <v>AFG - WK (197 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(202 pts)</v>
+        <v>(197 pts)</v>
       </c>
     </row>
     <row r="20">
@@ -602,13 +602,13 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B21" t="str">
-        <v>PAK - BAT (186 pts)</v>
+        <v>ENG - BOWL (187 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(186 pts)</v>
+        <v>(187 pts)</v>
       </c>
     </row>
     <row r="22">
@@ -624,123 +624,123 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Shoriful Islam</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B23" t="str">
-        <v>BAN - BOWL (183 pts)</v>
+        <v>PAK - BOWL (215 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(183 pts)</v>
+        <v>(215 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B24" t="str">
-        <v>IND - AR (175 pts)</v>
+        <v>IND - BAT (215 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(175 pts)</v>
+        <v>(215 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Haris Rauf</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B25" t="str">
-        <v>PAK - BOWL (181 pts)</v>
+        <v>PAK - BAT (186 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(181 pts)</v>
+        <v>(186 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B26" t="str">
-        <v>SA - BAT (177 pts)</v>
+        <v>PAK - BOWL (181 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(177 pts)</v>
+        <v>(181 pts)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>KL Rahul</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B27" t="str">
-        <v>IND - BAT (170 pts)</v>
+        <v>SA - BAT (177 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(170 pts)</v>
+        <v>(177 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B28" t="str">
-        <v>BAN - WK (169 pts)</v>
+        <v>BAN - BOWL (183 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(169 pts)</v>
+        <v>(183 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Marco Jansen</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B29" t="str">
-        <v>SA - AR (171 pts)</v>
+        <v>IND - AR (175 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(171 pts)</v>
+        <v>(175 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B30" t="str">
-        <v>SA - BOWL (171 pts)</v>
+        <v>ENG - BOWL (174 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(171 pts)</v>
+        <v>(174 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Colin Ackermann</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B31" t="str">
-        <v>NED - AR (166 pts)</v>
+        <v>SA - BOWL (171 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(166 pts)</v>
+        <v>(171 pts)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B32" t="str">
-        <v>PAK - BOWL (151 pts)</v>
+        <v>SA - AR (171 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(151 pts)</v>
+        <v>(171 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Mitchell Starc</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B33" t="str">
-        <v>AUS - BOWL (159 pts)</v>
+        <v>BAN - WK (169 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(159 pts)</v>
+        <v>(169 pts)</v>
       </c>
     </row>
     <row r="34">
@@ -748,21 +748,21 @@
         <v>Azmatullah Omarzai</v>
       </c>
       <c r="B34" t="str">
-        <v>AFG - AR (137 pts)</v>
+        <v>AFG - AR (163 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(137 pts)</v>
+        <v>(163 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Saud Shakeel</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B35" t="str">
-        <v>PAK - BAT (140 pts)</v>
+        <v>NED - AR (166 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(140 pts)</v>
+        <v>(166 pts)</v>
       </c>
     </row>
     <row r="36">
@@ -778,948 +778,948 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B37" t="str">
-        <v>BAN - AR (133 pts)</v>
+        <v>ENG - WK (162 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(133 pts)</v>
+        <v>(162 pts)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Josh Hazlewood</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B38" t="str">
-        <v>AUS - BOWL (133 pts)</v>
+        <v>IND - BAT (170 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(133 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Litton Das</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B39" t="str">
-        <v>BAN - WK (133 pts)</v>
+        <v>AUS - BOWL (159 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(133 pts)</v>
+        <v>(159 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B40" t="str">
-        <v>SA - BOWL (128 pts)</v>
+        <v>AFG - BOWL (153 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(128 pts)</v>
+        <v>(153 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Tom Latham</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B41" t="str">
-        <v>NZ - WK (129 pts)</v>
+        <v>ENG - BAT (147 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(129 pts)</v>
+        <v>(147 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Glenn Phillips</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B42" t="str">
-        <v>NZ - AR (127 pts)</v>
+        <v>PAK - BAT (140 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(127 pts)</v>
+        <v>(140 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B43" t="str">
-        <v>PAK - AR (127 pts)</v>
+        <v>PAK - BOWL (151 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(127 pts)</v>
+        <v>(151 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B44" t="str">
-        <v>ENG - WK (119 pts)</v>
+        <v>AUS - BOWL (133 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(119 pts)</v>
+        <v>(133 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Litton Das</v>
       </c>
       <c r="B45" t="str">
-        <v>IND - BAT (119 pts)</v>
+        <v>BAN - WK (133 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(119 pts)</v>
+        <v>(133 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Jos Buttler</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B46" t="str">
-        <v>ENG - WK (118 pts)</v>
+        <v>ENG - BOWL (134 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(118 pts)</v>
+        <v>(134 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B47" t="str">
-        <v>SL - BOWL (117 pts)</v>
+        <v>AFG - BAT (134 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(117 pts)</v>
+        <v>(134 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Reece Topley</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B48" t="str">
-        <v>ENG - BOWL (123 pts)</v>
+        <v>BAN - AR (133 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(123 pts)</v>
+        <v>(133 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B49" t="str">
-        <v>AFG - BAT (120 pts)</v>
+        <v>PAK - AR (127 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(120 pts)</v>
+        <v>(127 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B50" t="str">
-        <v>NED - BOWL (110 pts)</v>
+        <v>SA - BOWL (128 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(110 pts)</v>
+        <v>(128 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Shadab Khan</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B51" t="str">
-        <v>PAK - AR (108 pts)</v>
+        <v>NZ - WK (129 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(108 pts)</v>
+        <v>(129 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B52" t="str">
-        <v>BAN - BOWL (106 pts)</v>
+        <v>NZ - AR (127 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(106 pts)</v>
+        <v>(127 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B53" t="str">
-        <v>IND - BOWL (105 pts)</v>
+        <v>ENG - WK (125 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(105 pts)</v>
+        <v>(125 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Trent Boult</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B54" t="str">
-        <v>NZ - BOWL (103 pts)</v>
+        <v>IND - BAT (119 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(103 pts)</v>
+        <v>(119 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Babar Azam</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B55" t="str">
-        <v>PAK - BAT (103 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(103 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B56" t="str">
-        <v>SA - WK (103 pts)</v>
+        <v>SL - BOWL (117 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(103 pts)</v>
+        <v>(117 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B57" t="str">
-        <v>BAN - BAT (101 pts)</v>
+        <v>AFG - AR (118 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(101 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Will Young</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B58" t="str">
-        <v>NZ - BAT (98 pts)</v>
+        <v>NED - BOWL (113 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(98 pts)</v>
+        <v>(113 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Sam Curran</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B59" t="str">
-        <v>ENG - AR (98 pts)</v>
+        <v>SL - BAT (112 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(98 pts)</v>
+        <v>(112 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Dasun Shanaka</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B60" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>AFG - BAT (112 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(114 pts)</v>
+        <v>(112 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B61" t="str">
-        <v>AUS - AR (95 pts)</v>
+        <v>ENG - AR (105 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(95 pts)</v>
+        <v>(105 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B62" t="str">
-        <v>PAK - AR (94 pts)</v>
+        <v>PAK - AR (108 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(94 pts)</v>
+        <v>(108 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Charith Asalanka</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B63" t="str">
-        <v>SL - BAT (112 pts)</v>
+        <v>BAN - BOWL (106 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(112 pts)</v>
+        <v>(106 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Kane Williamson</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B64" t="str">
-        <v>NZ - BAT (96 pts)</v>
+        <v>IND - BOWL (105 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(96 pts)</v>
+        <v>(105 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Aryan Dutt</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B65" t="str">
-        <v>NED - BOWL (113 pts)</v>
+        <v>SA - WK (103 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(113 pts)</v>
+        <v>(103 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B66" t="str">
-        <v>PAK - BAT (92 pts)</v>
+        <v>NED - BOWL (110 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(92 pts)</v>
+        <v>(110 pts)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B67" t="str">
-        <v>NZ - BOWL (91 pts)</v>
+        <v>BAN - BAT (101 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(91 pts)</v>
+        <v>(101 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Rashid Khan</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B68" t="str">
-        <v>AFG - BOWL (93 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(93 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>David Warner</v>
+        <v>Will Young</v>
       </c>
       <c r="B69" t="str">
-        <v>AUS - BAT (92 pts)</v>
+        <v>NZ - BAT (98 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(92 pts)</v>
+        <v>(98 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B70" t="str">
-        <v>AUS - BAT (93 pts)</v>
+        <v>ENG - AR (102 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(93 pts)</v>
+        <v>(102 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Scott Edwards</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B71" t="str">
-        <v>NED - WK (89 pts)</v>
+        <v>NZ - BAT (96 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(89 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>David Miller</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B72" t="str">
-        <v>SA - BAT (88 pts)</v>
+        <v>NZ - BOWL (103 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(88 pts)</v>
+        <v>(103 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B73" t="str">
-        <v>AFG - WK (87 pts)</v>
+        <v>PAK - AR (94 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(87 pts)</v>
+        <v>(94 pts)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Chris Woakes</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B74" t="str">
-        <v>ENG - AR (84 pts)</v>
+        <v>AUS - BAT (93 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(84 pts)</v>
+        <v>(93 pts)</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Vikram Singh</v>
+        <v>David Warner</v>
       </c>
       <c r="B75" t="str">
-        <v>NED - AR (83 pts)</v>
+        <v>AUS - BAT (92 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(83 pts)</v>
+        <v>(92 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Steven Smith</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B76" t="str">
-        <v>AUS - BAT (82 pts)</v>
+        <v>PAK - BAT (92 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(82 pts)</v>
+        <v>(92 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B77" t="str">
-        <v>BAN - BAT (82 pts)</v>
+        <v>NZ - BOWL (91 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(82 pts)</v>
+        <v>(91 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Adil Rashid</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B78" t="str">
-        <v>ENG - BOWL (80 pts)</v>
+        <v>AUS - AR (95 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(80 pts)</v>
+        <v>(95 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B79" t="str">
-        <v>SA - BOWL (77 pts)</v>
+        <v>NED - WK (89 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(77 pts)</v>
+        <v>(89 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B80" t="str">
-        <v>SL - BOWL (76 pts)</v>
+        <v>PAK - BAT (103 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(76 pts)</v>
+        <v>(103 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Lungi Ngidi</v>
+        <v>David Miller</v>
       </c>
       <c r="B81" t="str">
-        <v>SA - BOWL (76 pts)</v>
+        <v>SA - BAT (88 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(76 pts)</v>
+        <v>(88 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Pat Cummins</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B82" t="str">
-        <v>AUS - BOWL (75 pts)</v>
+        <v>NED - AR (83 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(75 pts)</v>
+        <v>(83 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B83" t="str">
-        <v>BAN - BOWL (75 pts)</v>
+        <v>AUS - BAT (82 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(75 pts)</v>
+        <v>(82 pts)</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B84" t="str">
-        <v>NED - AR (71 pts)</v>
+        <v>BAN - BAT (82 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(71 pts)</v>
+        <v>(82 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Temba Bavuma</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B85" t="str">
-        <v>SA - BAT (71 pts)</v>
+        <v>AFG - BOWL (88 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(71 pts)</v>
+        <v>(88 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Logan van Beek</v>
+        <v>Fazalhaq Farooqi</v>
       </c>
       <c r="B86" t="str">
-        <v>NED - BOWL (70 pts)</v>
+        <v>AFG - BOWL (84 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(70 pts)</v>
+        <v>(84 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B87" t="str">
-        <v>SL - BAT (69 pts)</v>
+        <v>AFG - WK (81 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(69 pts)</v>
+        <v>(81 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B88" t="str">
-        <v>AFG - BAT (69 pts)</v>
+        <v>SA - BOWL (77 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(69 pts)</v>
+        <v>(77 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Harry Brook</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B89" t="str">
-        <v>ENG - BAT (62 pts)</v>
+        <v>SL - BOWL (76 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(62 pts)</v>
+        <v>(76 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Ishan Kishan</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B90" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>AUS - BOWL (75 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(63 pts)</v>
+        <v>(75 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B91" t="str">
-        <v>SL - AR (56 pts)</v>
+        <v>BAN - BOWL (75 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(56 pts)</v>
+        <v>(75 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Liam Livingstone</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B92" t="str">
-        <v>ENG - AR (61 pts)</v>
+        <v>NED - AR (71 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(61 pts)</v>
+        <v>(71 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Mark Wood</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B93" t="str">
-        <v>ENG - BOWL (59 pts)</v>
+        <v>SA - BAT (71 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(59 pts)</v>
+        <v>(71 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B94" t="str">
-        <v>BAN - BAT (55 pts)</v>
+        <v>SA - BOWL (76 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(55 pts)</v>
+        <v>(76 pts)</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B95" t="str">
-        <v>BAN - AR (55 pts)</v>
+        <v>NED - BOWL (70 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(55 pts)</v>
+        <v>(70 pts)</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B96" t="str">
-        <v>SA - BOWL (54 pts)</v>
+        <v>AFG - AR (69 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(54 pts)</v>
+        <v>(69 pts)</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Rahmat Shah</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B97" t="str">
-        <v>AFG - AR (54 pts)</v>
+        <v>SL - AR (56 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(54 pts)</v>
+        <v>(56 pts)</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Shardul Thakur</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B98" t="str">
-        <v>IND - BOWL (49 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(49 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B99" t="str">
-        <v>SL - BOWL (48 pts)</v>
+        <v>BAN - AR (55 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(48 pts)</v>
+        <v>(55 pts)</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Fazalhaq Farooqi</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B100" t="str">
-        <v>AFG - BOWL (47 pts)</v>
+        <v>SL - BAT (69 pts)</v>
       </c>
       <c r="C100" t="str">
-        <v>(47 pts)</v>
+        <v>(69 pts)</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B101" t="str">
-        <v>AFG - BOWL (43 pts)</v>
+        <v>BAN - BAT (55 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(43 pts)</v>
+        <v>(55 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B102" t="str">
-        <v>AFG - AR (42 pts)</v>
+        <v>SA - BOWL (54 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(42 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B103" t="str">
-        <v>NED - BAT (39 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(39 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B104" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>IND - BOWL (49 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(37 pts)</v>
+        <v>(49 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B105" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>SL - BOWL (48 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(53 pts)</v>
+        <v>(48 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Adam Zampa</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B106" t="str">
-        <v>AUS - BOWL (49 pts)</v>
+        <v>NED - BAT (39 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(49 pts)</v>
+        <v>(39 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B107" t="str">
-        <v>NED - AR (36 pts)</v>
+        <v>AUS - BOWL (49 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(36 pts)</v>
+        <v>(49 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B108" t="str">
-        <v>PAK - BAT (35 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(35 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B109" t="str">
-        <v>NED - AR (31 pts)</v>
+        <v>PAK - BAT (35 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(31 pts)</v>
+        <v>(35 pts)</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B110" t="str">
-        <v>SL - BOWL (29 pts)</v>
+        <v>NED - BAT (32 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(29 pts)</v>
+        <v>(32 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B111" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>IND - BAT (32 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(27 pts)</v>
+        <v>(32 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Kusal Perera</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B112" t="str">
-        <v>SL - WK (21 pts)</v>
+        <v>NED - AR (36 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(21 pts)</v>
+        <v>(36 pts)</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Josh Inglis</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B113" t="str">
-        <v>AUS - WK (18 pts)</v>
+        <v>SL - BOWL (29 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(18 pts)</v>
+        <v>(29 pts)</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Shubman Gill</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B114" t="str">
-        <v>IND - BAT (32 pts)</v>
+        <v>NED - AR (31 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(32 pts)</v>
+        <v>(31 pts)</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Max O'Dowd</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B115" t="str">
-        <v>NED - BAT (32 pts)</v>
+        <v>SL - WK (21 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(32 pts)</v>
+        <v>(21 pts)</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Moeen Ali</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B116" t="str">
-        <v>ENG - AR (16 pts)</v>
+        <v>AUS - WK (18 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(16 pts)</v>
+        <v>(18 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B117" t="str">
-        <v>AFG - BOWL (21 pts)</v>
+        <v>AUS - AR (18 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(21 pts)</v>
+        <v>(18 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Cameron Green</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B118" t="str">
-        <v>AUS - AR (18 pts)</v>
+        <v>NZ - BAT (17 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(18 pts)</v>
+        <v>(17 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Mark Chapman</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B119" t="str">
-        <v>NZ - BAT (17 pts)</v>
+        <v>ENG - AR (16 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(17 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>James Neesham</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B120" t="str">
-        <v>NZ - AR (2 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(2 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Alex Carey</v>
+        <v>Ryan Klein</v>
       </c>
       <c r="B121" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>NED - BOWL (16 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(1 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Tim Southee</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B122" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>AUS - AR (12 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(0 pts)</v>
+        <v>(12 pts)</v>
       </c>
     </row>
     <row r="123">
@@ -1735,21 +1735,21 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B124" t="str">
-        <v>AUS - AR (12 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(12 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Wesley Barresi</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B125" t="str">
-        <v>NED - WK (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C125" t="str">
         <v>(0 pts)</v>
@@ -1757,10 +1757,10 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Ben Stokes</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B126" t="str">
-        <v>ENG - AR (0 pts)</v>
+        <v>SA - BAT (0 pts)</v>
       </c>
       <c r="C126" t="str">
         <v>(0 pts)</v>
@@ -1768,10 +1768,10 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Anamul Haque</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B127" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>NED - WK (0 pts)</v>
       </c>
       <c r="C127" t="str">
         <v>(0 pts)</v>
@@ -1779,10 +1779,10 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B128" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C128" t="str">
         <v>(0 pts)</v>
@@ -1790,21 +1790,21 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>James Neesham</v>
       </c>
       <c r="B129" t="str">
-        <v>IND - BAT (0 pts)</v>
+        <v>NZ - AR (2 pts)</v>
       </c>
       <c r="C129" t="str">
-        <v>(0 pts)</v>
+        <v>(2 pts)</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Mohammad Shami</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B130" t="str">
-        <v>IND - BOWL (0 pts)</v>
+        <v>ENG - AR (0 pts)</v>
       </c>
       <c r="C130" t="str">
         <v>(0 pts)</v>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Jason Roy</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B131" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C131" t="str">
         <v>(0 pts)</v>
@@ -1823,10 +1823,10 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>David Willey</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B132" t="str">
-        <v>ENG - AR (0 pts)</v>
+        <v>IND - BAT (0 pts)</v>
       </c>
       <c r="C132" t="str">
         <v>(0 pts)</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Sean Abbott</v>
+        <v>David Willey</v>
       </c>
       <c r="B133" t="str">
-        <v>AUS - BOWL (0 pts)</v>
+        <v>ENG - AR (0 pts)</v>
       </c>
       <c r="C133" t="str">
         <v>(0 pts)</v>
@@ -1845,10 +1845,10 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Ashton Agar</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B134" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>AUS - BOWL (0 pts)</v>
       </c>
       <c r="C134" t="str">
         <v>(0 pts)</v>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Ish Sodhi</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B135" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C135" t="str">
         <v>(0 pts)</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B136" t="str">
-        <v>SA - BAT (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C136" t="str">
         <v>(0 pts)</v>
@@ -1878,21 +1878,21 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Ryan Klein</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B137" t="str">
-        <v>NED - BOWL (16 pts)</v>
+        <v>SA - BOWL (0 pts)</v>
       </c>
       <c r="C137" t="str">
-        <v>(16 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Lizaad Williams</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B138" t="str">
-        <v>SA - BOWL (0 pts)</v>
+        <v>BAN - BOWL (0 pts)</v>
       </c>
       <c r="C138" t="str">
         <v>(0 pts)</v>
@@ -1900,10 +1900,10 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Travis Head</v>
       </c>
       <c r="B139" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>AUS - BAT (0 pts)</v>
       </c>
       <c r="C139" t="str">
         <v>(0 pts)</v>
@@ -1911,10 +1911,10 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Travis Head</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B140" t="str">
-        <v>AUS - BAT (0 pts)</v>
+        <v>IND - BOWL (0 pts)</v>
       </c>
       <c r="C140" t="str">
         <v>(0 pts)</v>
@@ -1922,10 +1922,10 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Axar Patel</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B141" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C141" t="str">
         <v>(0 pts)</v>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Binura Fernando</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B143" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>PAK - AR (0 pts)</v>
       </c>
       <c r="C143" t="str">
         <v>(0 pts)</v>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Agha Salman</v>
+        <v>Sahan Arachchige</v>
       </c>
       <c r="B146" t="str">
-        <v>PAK - AR (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C146" t="str">
         <v>(0 pts)</v>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Sahan Arachchige</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B147" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C147" t="str">
         <v>(0 pts)</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Pramod Madushan</v>
       </c>
       <c r="B148" t="str">
         <v>SL - BOWL (0 pts)</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B151" t="str">
-        <v>AFG - WK (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C151" t="str">
         <v>(0 pts)</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Pramod Madushan</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B152" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>ENG - BOWL (0 pts)</v>
       </c>
       <c r="C152" t="str">
         <v>(0 pts)</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Riaz Hassan</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B153" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C153" t="str">
         <v>(0 pts)</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Gus Atkinson</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B154" t="str">
-        <v>ENG - BOWL (0 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Shamim Hossain</v>
+        <v>Tanzim Hasan Sakib</v>
       </c>
       <c r="B156" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>BAN - BOWL (0 pts)</v>
       </c>
       <c r="C156" t="str">
         <v>(0 pts)</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Tanzim Hasan Sakib</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B158" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C158" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Mohammad Naim</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B159" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>PAK - BOWL (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Mohammad Naim</v>
       </c>
       <c r="B160" t="str">
-        <v>PAK - BOWL (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -426,21 +426,21 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Rohit Sharma</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B5" t="str">
-        <v>IND - BAT (292 pts)</v>
+        <v>SL - WK (295 pts)</v>
       </c>
       <c r="C5" t="str">
-        <v>(292 pts)</v>
+        <v>(295 pts)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Matt Henry</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B6" t="str">
-        <v>NZ - BOWL (292 pts)</v>
+        <v>IND - BAT (292 pts)</v>
       </c>
       <c r="C6" t="str">
         <v>(292 pts)</v>
@@ -448,13 +448,13 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Bas de Leede</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B7" t="str">
-        <v>NED - AR (279 pts)</v>
+        <v>NZ - BOWL (292 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(279 pts)</v>
+        <v>(292 pts)</v>
       </c>
     </row>
     <row r="8">
@@ -470,35 +470,35 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Joe Root</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B9" t="str">
-        <v>ENG - BAT (281 pts)</v>
+        <v>SA - WK (289 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(281 pts)</v>
+        <v>(289 pts)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Quinton de Kock</v>
+        <v>Joe Root</v>
       </c>
       <c r="B10" t="str">
-        <v>SA - WK (289 pts)</v>
+        <v>ENG - BAT (281 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(289 pts)</v>
+        <v>(281 pts)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Kusal Mendis</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B11" t="str">
-        <v>SL - WK (276 pts)</v>
+        <v>NED - AR (279 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(276 pts)</v>
+        <v>(279 pts)</v>
       </c>
     </row>
     <row r="12">
@@ -514,35 +514,35 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B13" t="str">
-        <v>BAN - AR (227 pts)</v>
+        <v>ENG - BAT (242 pts)</v>
       </c>
       <c r="C13" t="str">
-        <v>(227 pts)</v>
+        <v>(242 pts)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B14" t="str">
-        <v>BAN - AR (222 pts)</v>
+        <v>AUS - BOWL (231 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(222 pts)</v>
+        <v>(231 pts)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Dawid Malan</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B15" t="str">
-        <v>ENG - BAT (242 pts)</v>
+        <v>BAN - AR (222 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(242 pts)</v>
+        <v>(222 pts)</v>
       </c>
     </row>
     <row r="16">
@@ -558,90 +558,90 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Rashid Khan</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B17" t="str">
-        <v>AFG - BOWL (220 pts)</v>
+        <v>IND - BAT (215 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(220 pts)</v>
+        <v>(215 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B18" t="str">
-        <v>NZ - AR (198 pts)</v>
+        <v>BAN - AR (227 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(198 pts)</v>
+        <v>(227 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B19" t="str">
-        <v>AFG - WK (197 pts)</v>
+        <v>AFG - BOWL (220 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(197 pts)</v>
+        <v>(220 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B20" t="str">
-        <v>IND - BOWL (191 pts)</v>
+        <v>PAK - BOWL (215 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(191 pts)</v>
+        <v>(215 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Adil Rashid</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B21" t="str">
-        <v>ENG - BOWL (187 pts)</v>
+        <v>SL - BOWL (222 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(187 pts)</v>
+        <v>(222 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B22" t="str">
-        <v>SL - WK (187 pts)</v>
+        <v>AFG - WK (197 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(187 pts)</v>
+        <v>(197 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Hasan Ali</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B23" t="str">
-        <v>PAK - BOWL (215 pts)</v>
+        <v>SL - WK (200 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(215 pts)</v>
+        <v>(200 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Virat Kohli</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B24" t="str">
-        <v>IND - BAT (215 pts)</v>
+        <v>ENG - BOWL (187 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(215 pts)</v>
+        <v>(187 pts)</v>
       </c>
     </row>
     <row r="25">
@@ -657,24 +657,24 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Haris Rauf</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B26" t="str">
-        <v>PAK - BOWL (181 pts)</v>
+        <v>IND - BOWL (191 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(181 pts)</v>
+        <v>(191 pts)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B27" t="str">
-        <v>SA - BAT (177 pts)</v>
+        <v>NZ - AR (198 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(177 pts)</v>
+        <v>(198 pts)</v>
       </c>
     </row>
     <row r="28">
@@ -690,475 +690,475 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B29" t="str">
-        <v>IND - AR (175 pts)</v>
+        <v>SA - BAT (177 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(175 pts)</v>
+        <v>(177 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Reece Topley</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B30" t="str">
-        <v>ENG - BOWL (174 pts)</v>
+        <v>PAK - BOWL (181 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(174 pts)</v>
+        <v>(181 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B31" t="str">
-        <v>SA - BOWL (171 pts)</v>
+        <v>AUS - BOWL (185 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(171 pts)</v>
+        <v>(185 pts)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Marco Jansen</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B32" t="str">
-        <v>SA - AR (171 pts)</v>
+        <v>IND - AR (175 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(171 pts)</v>
+        <v>(175 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B33" t="str">
-        <v>BAN - WK (169 pts)</v>
+        <v>ENG - BOWL (174 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(169 pts)</v>
+        <v>(174 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B34" t="str">
-        <v>AFG - AR (163 pts)</v>
+        <v>SA - BOWL (171 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(163 pts)</v>
+        <v>(171 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Colin Ackermann</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B35" t="str">
-        <v>NED - AR (166 pts)</v>
+        <v>AUS - AR (171 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(166 pts)</v>
+        <v>(171 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Hardik Pandya</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B36" t="str">
-        <v>IND - AR (166 pts)</v>
+        <v>SA - AR (171 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(166 pts)</v>
+        <v>(171 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Jos Buttler</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B37" t="str">
-        <v>ENG - WK (162 pts)</v>
+        <v>IND - BAT (170 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(162 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>KL Rahul</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B38" t="str">
-        <v>IND - BAT (170 pts)</v>
+        <v>NED - AR (166 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(170 pts)</v>
+        <v>(166 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Mitchell Starc</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B39" t="str">
-        <v>AUS - BOWL (159 pts)</v>
+        <v>IND - AR (166 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(159 pts)</v>
+        <v>(166 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B40" t="str">
-        <v>AFG - BOWL (153 pts)</v>
+        <v>AFG - AR (163 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(153 pts)</v>
+        <v>(163 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Harry Brook</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B41" t="str">
-        <v>ENG - BAT (147 pts)</v>
+        <v>BAN - WK (169 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(147 pts)</v>
+        <v>(169 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Saud Shakeel</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B42" t="str">
-        <v>PAK - BAT (140 pts)</v>
+        <v>PAK - BOWL (151 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(140 pts)</v>
+        <v>(151 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B43" t="str">
-        <v>PAK - BOWL (151 pts)</v>
+        <v>AFG - BOWL (153 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(151 pts)</v>
+        <v>(153 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B44" t="str">
-        <v>AUS - BOWL (133 pts)</v>
+        <v>ENG - WK (162 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(133 pts)</v>
+        <v>(162 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Litton Das</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B45" t="str">
-        <v>BAN - WK (133 pts)</v>
+        <v>AUS - BOWL (149 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(133 pts)</v>
+        <v>(149 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Mark Wood</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B46" t="str">
-        <v>ENG - BOWL (134 pts)</v>
+        <v>AUS - BAT (147 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(134 pts)</v>
+        <v>(147 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B47" t="str">
-        <v>AFG - BAT (134 pts)</v>
+        <v>ENG - BAT (147 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(134 pts)</v>
+        <v>(147 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B48" t="str">
-        <v>BAN - AR (133 pts)</v>
+        <v>SL - BAT (143 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(133 pts)</v>
+        <v>(143 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B49" t="str">
-        <v>PAK - AR (127 pts)</v>
+        <v>AUS - BOWL (141 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(127 pts)</v>
+        <v>(141 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B50" t="str">
-        <v>SA - BOWL (128 pts)</v>
+        <v>PAK - BAT (140 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(128 pts)</v>
+        <v>(140 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Tom Latham</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B51" t="str">
-        <v>NZ - WK (129 pts)</v>
+        <v>ENG - BOWL (134 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(129 pts)</v>
+        <v>(134 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Glenn Phillips</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B52" t="str">
-        <v>NZ - AR (127 pts)</v>
+        <v>AFG - BAT (134 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(127 pts)</v>
+        <v>(134 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Litton Das</v>
       </c>
       <c r="B53" t="str">
-        <v>ENG - WK (125 pts)</v>
+        <v>BAN - WK (133 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(125 pts)</v>
+        <v>(133 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B54" t="str">
-        <v>IND - BAT (119 pts)</v>
+        <v>SL - BAT (146 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(119 pts)</v>
+        <v>(146 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Dasun Shanaka</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B55" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>SA - BOWL (128 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(114 pts)</v>
+        <v>(128 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B56" t="str">
-        <v>SL - BOWL (117 pts)</v>
+        <v>NZ - WK (129 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(117 pts)</v>
+        <v>(129 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B57" t="str">
-        <v>AFG - AR (118 pts)</v>
+        <v>PAK - AR (127 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(118 pts)</v>
+        <v>(127 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Aryan Dutt</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B58" t="str">
-        <v>NED - BOWL (113 pts)</v>
+        <v>BAN - AR (133 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(113 pts)</v>
+        <v>(133 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Charith Asalanka</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B59" t="str">
-        <v>SL - BAT (112 pts)</v>
+        <v>ENG - WK (125 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(112 pts)</v>
+        <v>(125 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B60" t="str">
-        <v>AFG - BAT (112 pts)</v>
+        <v>SL - WK (119 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(112 pts)</v>
+        <v>(119 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Liam Livingstone</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B61" t="str">
-        <v>ENG - AR (105 pts)</v>
+        <v>IND - BAT (119 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(105 pts)</v>
+        <v>(119 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Shadab Khan</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B62" t="str">
-        <v>PAK - AR (108 pts)</v>
+        <v>AFG - AR (118 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(108 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Taskin Ahmed</v>
+        <v>David Warner</v>
       </c>
       <c r="B63" t="str">
-        <v>BAN - BOWL (106 pts)</v>
+        <v>AUS - BAT (125 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(106 pts)</v>
+        <v>(125 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B64" t="str">
-        <v>IND - BOWL (105 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(105 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B65" t="str">
-        <v>SA - WK (103 pts)</v>
+        <v>NED - BOWL (113 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(103 pts)</v>
+        <v>(113 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B66" t="str">
-        <v>NED - BOWL (110 pts)</v>
+        <v>AFG - BAT (112 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(110 pts)</v>
+        <v>(112 pts)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B67" t="str">
-        <v>BAN - BAT (101 pts)</v>
+        <v>NED - BOWL (110 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(101 pts)</v>
+        <v>(110 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Sam Curran</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B68" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>PAK - AR (108 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(118 pts)</v>
+        <v>(108 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Will Young</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B69" t="str">
-        <v>NZ - BAT (98 pts)</v>
+        <v>BAN - BOWL (106 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(98 pts)</v>
+        <v>(106 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Chris Woakes</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B70" t="str">
-        <v>ENG - AR (102 pts)</v>
+        <v>ENG - AR (105 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(102 pts)</v>
+        <v>(105 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Kane Williamson</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B71" t="str">
-        <v>NZ - BAT (96 pts)</v>
+        <v>IND - BOWL (105 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(96 pts)</v>
+        <v>(105 pts)</v>
       </c>
     </row>
     <row r="72">
@@ -1174,134 +1174,134 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B73" t="str">
-        <v>PAK - AR (94 pts)</v>
+        <v>PAK - BAT (103 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(94 pts)</v>
+        <v>(103 pts)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B74" t="str">
-        <v>AUS - BAT (93 pts)</v>
+        <v>SA - WK (103 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(93 pts)</v>
+        <v>(103 pts)</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>David Warner</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B75" t="str">
-        <v>AUS - BAT (92 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(92 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B76" t="str">
-        <v>PAK - BAT (92 pts)</v>
+        <v>NZ - AR (127 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(92 pts)</v>
+        <v>(127 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B77" t="str">
-        <v>NZ - BOWL (91 pts)</v>
+        <v>ENG - AR (102 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(91 pts)</v>
+        <v>(102 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B78" t="str">
-        <v>AUS - AR (95 pts)</v>
+        <v>BAN - BAT (101 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(95 pts)</v>
+        <v>(101 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Scott Edwards</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B79" t="str">
-        <v>NED - WK (89 pts)</v>
+        <v>NZ - BAT (96 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(89 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Babar Azam</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B80" t="str">
-        <v>PAK - BAT (103 pts)</v>
+        <v>PAK - AR (94 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(103 pts)</v>
+        <v>(94 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>David Miller</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B81" t="str">
-        <v>SA - BAT (88 pts)</v>
+        <v>PAK - BAT (92 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(88 pts)</v>
+        <v>(92 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Vikram Singh</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B82" t="str">
-        <v>NED - AR (83 pts)</v>
+        <v>NZ - BOWL (91 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(83 pts)</v>
+        <v>(91 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Steven Smith</v>
+        <v>Will Young</v>
       </c>
       <c r="B83" t="str">
-        <v>AUS - BAT (82 pts)</v>
+        <v>NZ - BAT (98 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(82 pts)</v>
+        <v>(98 pts)</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Towhid Hridoy</v>
+        <v>David Miller</v>
       </c>
       <c r="B84" t="str">
-        <v>BAN - BAT (82 pts)</v>
+        <v>SA - BAT (88 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(82 pts)</v>
+        <v>(88 pts)</v>
       </c>
     </row>
     <row r="85">
@@ -1328,277 +1328,277 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B87" t="str">
-        <v>AFG - WK (81 pts)</v>
+        <v>AUS - WK (91 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(81 pts)</v>
+        <v>(91 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B88" t="str">
-        <v>SA - BOWL (77 pts)</v>
+        <v>NED - WK (89 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(77 pts)</v>
+        <v>(89 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B89" t="str">
-        <v>SL - BOWL (76 pts)</v>
+        <v>AUS - AR (83 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(76 pts)</v>
+        <v>(83 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Pat Cummins</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B90" t="str">
-        <v>AUS - BOWL (75 pts)</v>
+        <v>NED - AR (83 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(75 pts)</v>
+        <v>(83 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B91" t="str">
-        <v>BAN - BOWL (75 pts)</v>
+        <v>AUS - BAT (83 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(75 pts)</v>
+        <v>(83 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B92" t="str">
-        <v>NED - AR (71 pts)</v>
+        <v>BAN - BAT (82 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(71 pts)</v>
+        <v>(82 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Temba Bavuma</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B93" t="str">
-        <v>SA - BAT (71 pts)</v>
+        <v>AFG - WK (81 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(71 pts)</v>
+        <v>(81 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B94" t="str">
-        <v>SA - BOWL (76 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(76 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Logan van Beek</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B95" t="str">
-        <v>NED - BOWL (70 pts)</v>
+        <v>SA - BOWL (77 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(70 pts)</v>
+        <v>(77 pts)</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Rahmat Shah</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B96" t="str">
-        <v>AFG - AR (69 pts)</v>
+        <v>SL - BOWL (76 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(69 pts)</v>
+        <v>(76 pts)</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B97" t="str">
-        <v>SL - AR (56 pts)</v>
+        <v>BAN - BOWL (75 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(56 pts)</v>
+        <v>(75 pts)</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Ishan Kishan</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B98" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>NED - AR (71 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(63 pts)</v>
+        <v>(71 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B99" t="str">
-        <v>BAN - AR (55 pts)</v>
+        <v>SA - BAT (71 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(55 pts)</v>
+        <v>(71 pts)</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B100" t="str">
-        <v>SL - BAT (69 pts)</v>
+        <v>SA - BOWL (76 pts)</v>
       </c>
       <c r="C100" t="str">
-        <v>(69 pts)</v>
+        <v>(76 pts)</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B101" t="str">
-        <v>BAN - BAT (55 pts)</v>
+        <v>SL - AR (68 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(55 pts)</v>
+        <v>(68 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B102" t="str">
-        <v>SA - BOWL (54 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(54 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B103" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>AFG - AR (69 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(53 pts)</v>
+        <v>(69 pts)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Shardul Thakur</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B104" t="str">
-        <v>IND - BOWL (49 pts)</v>
+        <v>NED - BOWL (70 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(49 pts)</v>
+        <v>(70 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B105" t="str">
-        <v>SL - BOWL (48 pts)</v>
+        <v>BAN - AR (55 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(48 pts)</v>
+        <v>(55 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B106" t="str">
-        <v>NED - BAT (39 pts)</v>
+        <v>BAN - BAT (55 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(39 pts)</v>
+        <v>(55 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Adam Zampa</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B107" t="str">
-        <v>AUS - BOWL (49 pts)</v>
+        <v>SA - BOWL (54 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(49 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B108" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(37 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B109" t="str">
-        <v>PAK - BAT (35 pts)</v>
+        <v>SL - BOWL (39 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(35 pts)</v>
+        <v>(39 pts)</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Max O'Dowd</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B110" t="str">
-        <v>NED - BAT (32 pts)</v>
+        <v>AUS - AR (38 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(32 pts)</v>
+        <v>(38 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Shubman Gill</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B111" t="str">
-        <v>IND - BAT (32 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(32 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="112">
@@ -1614,123 +1614,123 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B113" t="str">
-        <v>SL - BOWL (29 pts)</v>
+        <v>PAK - BAT (35 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(29 pts)</v>
+        <v>(35 pts)</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B114" t="str">
-        <v>NED - AR (31 pts)</v>
+        <v>NED - BAT (32 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(31 pts)</v>
+        <v>(32 pts)</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Kusal Perera</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B115" t="str">
-        <v>SL - WK (21 pts)</v>
+        <v>IND - BOWL (49 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(21 pts)</v>
+        <v>(49 pts)</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Josh Inglis</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B116" t="str">
-        <v>AUS - WK (18 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(18 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Cameron Green</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B117" t="str">
-        <v>AUS - AR (18 pts)</v>
+        <v>NED - BAT (39 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(18 pts)</v>
+        <v>(39 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Mark Chapman</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B118" t="str">
-        <v>NZ - BAT (17 pts)</v>
+        <v>IND - BAT (32 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(17 pts)</v>
+        <v>(32 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Moeen Ali</v>
+        <v>Chamika Karunaratne</v>
       </c>
       <c r="B119" t="str">
-        <v>ENG - AR (16 pts)</v>
+        <v>SL - AR (20 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(16 pts)</v>
+        <v>(20 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B120" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>NED - AR (31 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(27 pts)</v>
+        <v>(31 pts)</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Ryan Klein</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B121" t="str">
-        <v>NED - BOWL (16 pts)</v>
+        <v>AUS - AR (18 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(16 pts)</v>
+        <v>(18 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B122" t="str">
-        <v>AUS - AR (12 pts)</v>
+        <v>SL - BOWL (9 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(12 pts)</v>
+        <v>(9 pts)</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B123" t="str">
-        <v>AUS - AR (10 pts)</v>
+        <v>NZ - BAT (17 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(10 pts)</v>
+        <v>(17 pts)</v>
       </c>
     </row>
     <row r="124">
@@ -1746,21 +1746,21 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Tim Southee</v>
+        <v>Ryan Klein</v>
       </c>
       <c r="B125" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>NED - BOWL (16 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(0 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B126" t="str">
-        <v>SA - BAT (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C126" t="str">
         <v>(0 pts)</v>
@@ -1768,10 +1768,10 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Wesley Barresi</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B127" t="str">
-        <v>NED - WK (0 pts)</v>
+        <v>SA - BAT (0 pts)</v>
       </c>
       <c r="C127" t="str">
         <v>(0 pts)</v>
@@ -1779,10 +1779,10 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Anamul Haque</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B128" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>NED - WK (0 pts)</v>
       </c>
       <c r="C128" t="str">
         <v>(0 pts)</v>
@@ -1790,21 +1790,21 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>James Neesham</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B129" t="str">
-        <v>NZ - AR (2 pts)</v>
+        <v>ENG - AR (0 pts)</v>
       </c>
       <c r="C129" t="str">
-        <v>(2 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Ben Stokes</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B130" t="str">
-        <v>ENG - AR (0 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C130" t="str">
         <v>(0 pts)</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>David Willey</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B133" t="str">
-        <v>ENG - AR (0 pts)</v>
+        <v>IND - BOWL (0 pts)</v>
       </c>
       <c r="C133" t="str">
         <v>(0 pts)</v>
@@ -1845,10 +1845,10 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Sean Abbott</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B134" t="str">
-        <v>AUS - BOWL (0 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C134" t="str">
         <v>(0 pts)</v>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Ashton Agar</v>
+        <v>David Willey</v>
       </c>
       <c r="B135" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>ENG - AR (0 pts)</v>
       </c>
       <c r="C135" t="str">
         <v>(0 pts)</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Ish Sodhi</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B136" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>AUS - BOWL (0 pts)</v>
       </c>
       <c r="C136" t="str">
         <v>(0 pts)</v>
@@ -1878,10 +1878,10 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Lizaad Williams</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B137" t="str">
-        <v>SA - BOWL (0 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C137" t="str">
         <v>(0 pts)</v>
@@ -1889,32 +1889,32 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Nasum Ahmed</v>
+        <v>James Neesham</v>
       </c>
       <c r="B138" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>NZ - AR (2 pts)</v>
       </c>
       <c r="C138" t="str">
-        <v>(0 pts)</v>
+        <v>(2 pts)</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Travis Head</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B139" t="str">
-        <v>AUS - BAT (0 pts)</v>
+        <v>ENG - AR (16 pts)</v>
       </c>
       <c r="C139" t="str">
-        <v>(0 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Mohammad Shami</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B140" t="str">
-        <v>IND - BOWL (0 pts)</v>
+        <v>SA - BOWL (0 pts)</v>
       </c>
       <c r="C140" t="str">
         <v>(0 pts)</v>
@@ -1922,10 +1922,10 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Jason Roy</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B141" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>BAN - BOWL (0 pts)</v>
       </c>
       <c r="C141" t="str">
         <v>(0 pts)</v>
@@ -1933,10 +1933,10 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Usama Mir</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B142" t="str">
-        <v>PAK - BOWL (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C142" t="str">
         <v>(0 pts)</v>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Agha Salman</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B143" t="str">
-        <v>PAK - AR (0 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C143" t="str">
         <v>(0 pts)</v>
@@ -1955,10 +1955,10 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Andile Phehlukwayo</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B144" t="str">
-        <v>SA - AR (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C144" t="str">
         <v>(0 pts)</v>
@@ -1966,10 +1966,10 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Dushan Hemantha</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B145" t="str">
-        <v>SL - AR (0 pts)</v>
+        <v>PAK - BOWL (0 pts)</v>
       </c>
       <c r="C145" t="str">
         <v>(0 pts)</v>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Sahan Arachchige</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B146" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>PAK - AR (0 pts)</v>
       </c>
       <c r="C146" t="str">
         <v>(0 pts)</v>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Binura Fernando</v>
+        <v>Andile Phehlukwayo</v>
       </c>
       <c r="B147" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>SA - AR (0 pts)</v>
       </c>
       <c r="C147" t="str">
         <v>(0 pts)</v>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Pramod Madushan</v>
+        <v>Dushan Hemantha</v>
       </c>
       <c r="B148" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>SL - AR (0 pts)</v>
       </c>
       <c r="C148" t="str">
         <v>(0 pts)</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Afif Hossain</v>
+        <v>Sahan Arachchige</v>
       </c>
       <c r="B149" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C149" t="str">
         <v>(0 pts)</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Pramod Madushan</v>
       </c>
       <c r="B150" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C150" t="str">
         <v>(0 pts)</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Riaz Hassan</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B151" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C151" t="str">
         <v>(0 pts)</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Gus Atkinson</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B152" t="str">
-        <v>ENG - BOWL (0 pts)</v>
+        <v>BAN - BOWL (0 pts)</v>
       </c>
       <c r="C152" t="str">
         <v>(0 pts)</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B153" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C153" t="str">
         <v>(0 pts)</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Axar Patel</v>
+        <v>Travis Head</v>
       </c>
       <c r="B154" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>AUS - BAT (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Tanzim Hasan Sakib</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B156" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C156" t="str">
         <v>(0 pts)</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Noor Ahmad</v>
+        <v>Mohammad Naim</v>
       </c>
       <c r="B157" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C157" t="str">
         <v>(0 pts)</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Shamim Hossain</v>
+        <v>Tanzim Hasan Sakib</v>
       </c>
       <c r="B158" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>BAN - BOWL (0 pts)</v>
       </c>
       <c r="C158" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B159" t="str">
-        <v>PAK - BOWL (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Mohammad Naim</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B160" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>PAK - BOWL (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>
@@ -2142,18 +2142,40 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
+        <v>Gus Atkinson</v>
+      </c>
+      <c r="B161" t="str">
+        <v>ENG - BOWL (0 pts)</v>
+      </c>
+      <c r="C161" t="str">
+        <v>(0 pts)</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>Tom Blundell</v>
+      </c>
+      <c r="B162" t="str">
+        <v>NZ - WK (0 pts)</v>
+      </c>
+      <c r="C162" t="str">
+        <v>(0 pts)</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
         <v>Shariz Ahmad</v>
       </c>
-      <c r="B161" t="str">
+      <c r="B163" t="str">
         <v>NED - BOWL (0 pts)</v>
       </c>
-      <c r="C161" t="str">
+      <c r="C163" t="str">
         <v>(0 pts)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C161"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C163"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -393,112 +393,112 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B2" t="str">
-        <v>PAK - WK (337 pts)</v>
+        <v>SA - WK (344 pts)</v>
       </c>
       <c r="C2" t="str">
-        <v>(337 pts)</v>
+        <v>(344 pts)</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Devon Conway</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B3" t="str">
-        <v>NZ - WK (320 pts)</v>
+        <v>PAK - WK (337 pts)</v>
       </c>
       <c r="C3" t="str">
-        <v>(320 pts)</v>
+        <v>(337 pts)</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Mitchell Santner</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B4" t="str">
-        <v>NZ - AR (305 pts)</v>
+        <v>NED - AR (337 pts)</v>
       </c>
       <c r="C4" t="str">
-        <v>(305 pts)</v>
+        <v>(337 pts)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Kusal Mendis</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B5" t="str">
-        <v>SL - WK (295 pts)</v>
+        <v>NZ - WK (320 pts)</v>
       </c>
       <c r="C5" t="str">
-        <v>(295 pts)</v>
+        <v>(320 pts)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Rohit Sharma</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B6" t="str">
-        <v>IND - BAT (292 pts)</v>
+        <v>NZ - AR (305 pts)</v>
       </c>
       <c r="C6" t="str">
-        <v>(292 pts)</v>
+        <v>(305 pts)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Matt Henry</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B7" t="str">
-        <v>NZ - BOWL (292 pts)</v>
+        <v>SL - WK (295 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(292 pts)</v>
+        <v>(295 pts)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B8" t="str">
-        <v>NZ - AR (289 pts)</v>
+        <v>IND - BAT (292 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(289 pts)</v>
+        <v>(292 pts)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Quinton de Kock</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B9" t="str">
-        <v>SA - WK (289 pts)</v>
+        <v>NZ - BOWL (292 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(289 pts)</v>
+        <v>(292 pts)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Joe Root</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B10" t="str">
-        <v>ENG - BAT (281 pts)</v>
+        <v>NZ - AR (289 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(281 pts)</v>
+        <v>(289 pts)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Bas de Leede</v>
+        <v>Joe Root</v>
       </c>
       <c r="B11" t="str">
-        <v>NED - AR (279 pts)</v>
+        <v>ENG - BAT (281 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(279 pts)</v>
+        <v>(281 pts)</v>
       </c>
     </row>
     <row r="12">
@@ -525,145 +525,145 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Mitchell Starc</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B14" t="str">
-        <v>AUS - BOWL (231 pts)</v>
+        <v>SA - AR (254 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(231 pts)</v>
+        <v>(254 pts)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B15" t="str">
-        <v>BAN - AR (222 pts)</v>
+        <v>SA - AR (234 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(222 pts)</v>
+        <v>(234 pts)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Aiden Markram</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B16" t="str">
-        <v>SA - AR (229 pts)</v>
+        <v>AUS - BOWL (231 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(229 pts)</v>
+        <v>(231 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Virat Kohli</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B17" t="str">
-        <v>IND - BAT (215 pts)</v>
+        <v>BAN - AR (227 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(215 pts)</v>
+        <v>(227 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B18" t="str">
-        <v>BAN - AR (227 pts)</v>
+        <v>BAN - AR (222 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(227 pts)</v>
+        <v>(222 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Rashid Khan</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B19" t="str">
-        <v>AFG - BOWL (220 pts)</v>
+        <v>SA - BOWL (248 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(220 pts)</v>
+        <v>(248 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Hasan Ali</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B20" t="str">
-        <v>PAK - BOWL (215 pts)</v>
+        <v>NED - WK (217 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(215 pts)</v>
+        <v>(217 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B21" t="str">
-        <v>SL - BOWL (222 pts)</v>
+        <v>AFG - BOWL (220 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(222 pts)</v>
+        <v>(220 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B22" t="str">
-        <v>AFG - WK (197 pts)</v>
+        <v>SL - BOWL (222 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(197 pts)</v>
+        <v>(222 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B23" t="str">
-        <v>SL - WK (200 pts)</v>
+        <v>IND - BAT (215 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(200 pts)</v>
+        <v>(215 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Adil Rashid</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B24" t="str">
-        <v>ENG - BOWL (187 pts)</v>
+        <v>PAK - BOWL (215 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(187 pts)</v>
+        <v>(215 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B25" t="str">
-        <v>PAK - BAT (186 pts)</v>
+        <v>NED - AR (206 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(186 pts)</v>
+        <v>(206 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B26" t="str">
-        <v>IND - BOWL (191 pts)</v>
+        <v>SA - BOWL (206 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(191 pts)</v>
+        <v>(206 pts)</v>
       </c>
     </row>
     <row r="27">
@@ -679,607 +679,607 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Shoriful Islam</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B28" t="str">
-        <v>BAN - BOWL (183 pts)</v>
+        <v>SL - WK (200 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(183 pts)</v>
+        <v>(200 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B29" t="str">
-        <v>SA - BAT (177 pts)</v>
+        <v>AFG - WK (197 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(177 pts)</v>
+        <v>(197 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Haris Rauf</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B30" t="str">
-        <v>PAK - BOWL (181 pts)</v>
+        <v>ENG - BOWL (187 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(181 pts)</v>
+        <v>(187 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Adam Zampa</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B31" t="str">
-        <v>AUS - BOWL (185 pts)</v>
+        <v>IND - BOWL (191 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(185 pts)</v>
+        <v>(191 pts)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B32" t="str">
-        <v>IND - AR (175 pts)</v>
+        <v>PAK - BAT (186 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(175 pts)</v>
+        <v>(186 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Reece Topley</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B33" t="str">
-        <v>ENG - BOWL (174 pts)</v>
+        <v>AUS - BOWL (185 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(174 pts)</v>
+        <v>(185 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B34" t="str">
-        <v>SA - BOWL (171 pts)</v>
+        <v>SA - BAT (185 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(171 pts)</v>
+        <v>(185 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B35" t="str">
-        <v>AUS - AR (171 pts)</v>
+        <v>NED - BOWL (182 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(171 pts)</v>
+        <v>(182 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Marco Jansen</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B36" t="str">
-        <v>SA - AR (171 pts)</v>
+        <v>PAK - BOWL (181 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(171 pts)</v>
+        <v>(181 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>KL Rahul</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B37" t="str">
-        <v>IND - BAT (170 pts)</v>
+        <v>BAN - BOWL (183 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(170 pts)</v>
+        <v>(183 pts)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Colin Ackermann</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B38" t="str">
-        <v>NED - AR (166 pts)</v>
+        <v>IND - AR (175 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(166 pts)</v>
+        <v>(175 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Hardik Pandya</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B39" t="str">
-        <v>IND - AR (166 pts)</v>
+        <v>ENG - BOWL (174 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(166 pts)</v>
+        <v>(174 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B40" t="str">
-        <v>AFG - AR (163 pts)</v>
+        <v>AUS - AR (171 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(163 pts)</v>
+        <v>(171 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B41" t="str">
-        <v>BAN - WK (169 pts)</v>
+        <v>IND - BAT (170 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(169 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B42" t="str">
-        <v>PAK - BOWL (151 pts)</v>
+        <v>NED - AR (169 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(151 pts)</v>
+        <v>(169 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B43" t="str">
-        <v>AFG - BOWL (153 pts)</v>
+        <v>NED - BOWL (168 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(153 pts)</v>
+        <v>(168 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Jos Buttler</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B44" t="str">
-        <v>ENG - WK (162 pts)</v>
+        <v>IND - AR (166 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(162 pts)</v>
+        <v>(166 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Pat Cummins</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B45" t="str">
-        <v>AUS - BOWL (149 pts)</v>
+        <v>BAN - WK (169 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(149 pts)</v>
+        <v>(169 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B46" t="str">
-        <v>AUS - BAT (147 pts)</v>
+        <v>AFG - AR (163 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(147 pts)</v>
+        <v>(163 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Harry Brook</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B47" t="str">
-        <v>ENG - BAT (147 pts)</v>
+        <v>ENG - WK (162 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(147 pts)</v>
+        <v>(162 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Charith Asalanka</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B48" t="str">
-        <v>SL - BAT (143 pts)</v>
+        <v>NED - BOWL (160 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(143 pts)</v>
+        <v>(160 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B49" t="str">
-        <v>AUS - BOWL (141 pts)</v>
+        <v>AFG - BOWL (153 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(141 pts)</v>
+        <v>(153 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Saud Shakeel</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B50" t="str">
-        <v>PAK - BAT (140 pts)</v>
+        <v>PAK - BOWL (151 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(140 pts)</v>
+        <v>(151 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Mark Wood</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B51" t="str">
-        <v>ENG - BOWL (134 pts)</v>
+        <v>AUS - BOWL (149 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(134 pts)</v>
+        <v>(149 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B52" t="str">
-        <v>AFG - BAT (134 pts)</v>
+        <v>ENG - BAT (147 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(134 pts)</v>
+        <v>(147 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Litton Das</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B53" t="str">
-        <v>BAN - WK (133 pts)</v>
+        <v>SA - WK (149 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(133 pts)</v>
+        <v>(149 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B54" t="str">
-        <v>SL - BAT (146 pts)</v>
+        <v>AUS - BAT (147 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(146 pts)</v>
+        <v>(147 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B55" t="str">
-        <v>SA - BOWL (128 pts)</v>
+        <v>SL - BAT (143 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(128 pts)</v>
+        <v>(143 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Tom Latham</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B56" t="str">
-        <v>NZ - WK (129 pts)</v>
+        <v>SL - BAT (146 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(129 pts)</v>
+        <v>(146 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>David Miller</v>
       </c>
       <c r="B57" t="str">
-        <v>PAK - AR (127 pts)</v>
+        <v>SA - BAT (141 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(127 pts)</v>
+        <v>(141 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B58" t="str">
-        <v>BAN - AR (133 pts)</v>
+        <v>AUS - BOWL (141 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(133 pts)</v>
+        <v>(141 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B59" t="str">
-        <v>ENG - WK (125 pts)</v>
+        <v>SA - BOWL (141 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(125 pts)</v>
+        <v>(141 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Kusal Perera</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B60" t="str">
-        <v>SL - WK (119 pts)</v>
+        <v>PAK - BAT (140 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(119 pts)</v>
+        <v>(140 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B61" t="str">
-        <v>IND - BAT (119 pts)</v>
+        <v>ENG - BOWL (134 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(119 pts)</v>
+        <v>(134 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B62" t="str">
-        <v>AFG - AR (118 pts)</v>
+        <v>AFG - BAT (134 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(118 pts)</v>
+        <v>(134 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>David Warner</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B63" t="str">
-        <v>AUS - BAT (125 pts)</v>
+        <v>SA - BOWL (138 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(125 pts)</v>
+        <v>(138 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Dasun Shanaka</v>
+        <v>Litton Das</v>
       </c>
       <c r="B64" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>BAN - WK (133 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(114 pts)</v>
+        <v>(133 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Aryan Dutt</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B65" t="str">
-        <v>NED - BOWL (113 pts)</v>
+        <v>NZ - WK (129 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(113 pts)</v>
+        <v>(129 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B66" t="str">
-        <v>AFG - BAT (112 pts)</v>
+        <v>BAN - AR (133 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(112 pts)</v>
+        <v>(133 pts)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B67" t="str">
-        <v>NED - BOWL (110 pts)</v>
+        <v>PAK - AR (127 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(110 pts)</v>
+        <v>(127 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Shadab Khan</v>
+        <v>David Warner</v>
       </c>
       <c r="B68" t="str">
-        <v>PAK - AR (108 pts)</v>
+        <v>AUS - BAT (125 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(108 pts)</v>
+        <v>(125 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B69" t="str">
-        <v>BAN - BOWL (106 pts)</v>
+        <v>SL - WK (119 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(106 pts)</v>
+        <v>(119 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Liam Livingstone</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B70" t="str">
-        <v>ENG - AR (105 pts)</v>
+        <v>IND - BAT (119 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(105 pts)</v>
+        <v>(119 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B71" t="str">
-        <v>IND - BOWL (105 pts)</v>
+        <v>AFG - AR (118 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(105 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Trent Boult</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B72" t="str">
-        <v>NZ - BOWL (103 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(103 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Babar Azam</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B73" t="str">
-        <v>PAK - BAT (103 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(103 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B74" t="str">
-        <v>SA - WK (103 pts)</v>
+        <v>AFG - BAT (112 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(103 pts)</v>
+        <v>(112 pts)</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Sam Curran</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B75" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>PAK - AR (108 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(118 pts)</v>
+        <v>(108 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Glenn Phillips</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B76" t="str">
-        <v>NZ - AR (127 pts)</v>
+        <v>BAN - BOWL (106 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(127 pts)</v>
+        <v>(106 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Chris Woakes</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B77" t="str">
-        <v>ENG - AR (102 pts)</v>
+        <v>ENG - AR (105 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(102 pts)</v>
+        <v>(105 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B78" t="str">
-        <v>BAN - BAT (101 pts)</v>
+        <v>IND - BOWL (105 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(101 pts)</v>
+        <v>(105 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Kane Williamson</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B79" t="str">
-        <v>NZ - BAT (96 pts)</v>
+        <v>NZ - BOWL (103 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(96 pts)</v>
+        <v>(103 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B80" t="str">
-        <v>PAK - AR (94 pts)</v>
+        <v>PAK - BAT (103 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(94 pts)</v>
+        <v>(103 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B81" t="str">
-        <v>PAK - BAT (92 pts)</v>
+        <v>ENG - AR (102 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(92 pts)</v>
+        <v>(102 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B82" t="str">
-        <v>NZ - BOWL (91 pts)</v>
+        <v>ENG - WK (125 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(91 pts)</v>
+        <v>(125 pts)</v>
       </c>
     </row>
     <row r="83">
@@ -1295,186 +1295,186 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>David Miller</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B84" t="str">
-        <v>SA - BAT (88 pts)</v>
+        <v>NED - AR (97 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(88 pts)</v>
+        <v>(97 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B85" t="str">
-        <v>AFG - BOWL (88 pts)</v>
+        <v>NZ - BAT (96 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(88 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Fazalhaq Farooqi</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B86" t="str">
-        <v>AFG - BOWL (84 pts)</v>
+        <v>NZ - AR (127 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(84 pts)</v>
+        <v>(127 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Josh Inglis</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B87" t="str">
-        <v>AUS - WK (91 pts)</v>
+        <v>PAK - AR (94 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(91 pts)</v>
+        <v>(94 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Scott Edwards</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B88" t="str">
-        <v>NED - WK (89 pts)</v>
+        <v>SA - BAT (95 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(89 pts)</v>
+        <v>(95 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B89" t="str">
-        <v>AUS - AR (83 pts)</v>
+        <v>BAN - BAT (101 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(83 pts)</v>
+        <v>(101 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Vikram Singh</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B90" t="str">
-        <v>NED - AR (83 pts)</v>
+        <v>PAK - BAT (92 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(83 pts)</v>
+        <v>(92 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Steven Smith</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B91" t="str">
-        <v>AUS - BAT (83 pts)</v>
+        <v>NZ - BOWL (91 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(83 pts)</v>
+        <v>(91 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B92" t="str">
-        <v>BAN - BAT (82 pts)</v>
+        <v>AUS - WK (91 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(82 pts)</v>
+        <v>(91 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B93" t="str">
-        <v>AFG - WK (81 pts)</v>
+        <v>AFG - BOWL (88 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(81 pts)</v>
+        <v>(88 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Fazalhaq Farooqi</v>
       </c>
       <c r="B94" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>AFG - BOWL (84 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(79 pts)</v>
+        <v>(84 pts)</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B95" t="str">
-        <v>SA - BOWL (77 pts)</v>
+        <v>AUS - BAT (83 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(77 pts)</v>
+        <v>(83 pts)</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B96" t="str">
-        <v>SL - BOWL (76 pts)</v>
+        <v>AUS - AR (83 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(76 pts)</v>
+        <v>(83 pts)</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B97" t="str">
-        <v>BAN - BOWL (75 pts)</v>
+        <v>BAN - BAT (82 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(75 pts)</v>
+        <v>(82 pts)</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B98" t="str">
-        <v>NED - AR (71 pts)</v>
+        <v>AFG - WK (81 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(71 pts)</v>
+        <v>(81 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Temba Bavuma</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B99" t="str">
-        <v>SA - BAT (71 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(71 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B100" t="str">
-        <v>SA - BOWL (76 pts)</v>
+        <v>SL - BOWL (76 pts)</v>
       </c>
       <c r="C100" t="str">
         <v>(76 pts)</v>
@@ -1482,24 +1482,24 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B101" t="str">
-        <v>SL - AR (68 pts)</v>
+        <v>BAN - BOWL (75 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(68 pts)</v>
+        <v>(75 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Ishan Kishan</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B102" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>NED - AR (70 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(63 pts)</v>
+        <v>(70 pts)</v>
       </c>
     </row>
     <row r="103">
@@ -1515,189 +1515,189 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Logan van Beek</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B104" t="str">
-        <v>NED - BOWL (70 pts)</v>
+        <v>SL - AR (68 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(70 pts)</v>
+        <v>(68 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B105" t="str">
-        <v>BAN - AR (55 pts)</v>
+        <v>NED - BAT (66 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(55 pts)</v>
+        <v>(66 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B106" t="str">
-        <v>BAN - BAT (55 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(55 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B107" t="str">
-        <v>SA - BOWL (54 pts)</v>
+        <v>NED - BAT (58 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(54 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B108" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>BAN - AR (55 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(53 pts)</v>
+        <v>(55 pts)</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B109" t="str">
-        <v>SL - BOWL (39 pts)</v>
+        <v>BAN - BAT (55 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(39 pts)</v>
+        <v>(55 pts)</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B110" t="str">
-        <v>AUS - AR (38 pts)</v>
+        <v>SA - BOWL (54 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(38 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B111" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(37 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B112" t="str">
-        <v>NED - AR (36 pts)</v>
+        <v>IND - BOWL (49 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(36 pts)</v>
+        <v>(49 pts)</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B113" t="str">
-        <v>PAK - BAT (35 pts)</v>
+        <v>SL - BOWL (39 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(35 pts)</v>
+        <v>(39 pts)</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Max O'Dowd</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B114" t="str">
-        <v>NED - BAT (32 pts)</v>
+        <v>AUS - AR (38 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(32 pts)</v>
+        <v>(38 pts)</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Shardul Thakur</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B115" t="str">
-        <v>IND - BOWL (49 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(49 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B116" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>NED - AR (31 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(27 pts)</v>
+        <v>(31 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B117" t="str">
-        <v>NED - BAT (39 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(39 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Shubman Gill</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B118" t="str">
-        <v>IND - BAT (32 pts)</v>
+        <v>PAK - BAT (35 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(32 pts)</v>
+        <v>(35 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Chamika Karunaratne</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B119" t="str">
-        <v>SL - AR (20 pts)</v>
+        <v>IND - BAT (32 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(20 pts)</v>
+        <v>(32 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Chamika Karunaratne</v>
       </c>
       <c r="B120" t="str">
-        <v>NED - AR (31 pts)</v>
+        <v>SL - AR (20 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(31 pts)</v>
+        <v>(20 pts)</v>
       </c>
     </row>
     <row r="121">
@@ -1713,76 +1713,76 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B122" t="str">
-        <v>SL - BOWL (9 pts)</v>
+        <v>NZ - BAT (17 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(9 pts)</v>
+        <v>(17 pts)</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Mark Chapman</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B123" t="str">
-        <v>NZ - BAT (17 pts)</v>
+        <v>ENG - AR (16 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(17 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Alex Carey</v>
+        <v>James Neesham</v>
       </c>
       <c r="B124" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>NZ - AR (2 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(1 pts)</v>
+        <v>(2 pts)</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Ryan Klein</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B125" t="str">
-        <v>NED - BOWL (16 pts)</v>
+        <v>SL - BOWL (9 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(16 pts)</v>
+        <v>(9 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Tim Southee</v>
+        <v>Ryan Klein</v>
       </c>
       <c r="B126" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>NED - BOWL (16 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(0 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B127" t="str">
-        <v>SA - BAT (0 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(0 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Wesley Barresi</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B128" t="str">
-        <v>NED - WK (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C128" t="str">
         <v>(0 pts)</v>
@@ -1790,10 +1790,10 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Ben Stokes</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B129" t="str">
-        <v>ENG - AR (0 pts)</v>
+        <v>SA - BAT (0 pts)</v>
       </c>
       <c r="C129" t="str">
         <v>(0 pts)</v>
@@ -1801,10 +1801,10 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Anamul Haque</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B130" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>NED - WK (0 pts)</v>
       </c>
       <c r="C130" t="str">
         <v>(0 pts)</v>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B131" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>IND - BAT (0 pts)</v>
       </c>
       <c r="C131" t="str">
         <v>(0 pts)</v>
@@ -1823,10 +1823,10 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B132" t="str">
-        <v>IND - BAT (0 pts)</v>
+        <v>ENG - AR (0 pts)</v>
       </c>
       <c r="C132" t="str">
         <v>(0 pts)</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Mohammad Shami</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B133" t="str">
-        <v>IND - BOWL (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C133" t="str">
         <v>(0 pts)</v>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>David Willey</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B135" t="str">
-        <v>ENG - AR (0 pts)</v>
+        <v>IND - BOWL (0 pts)</v>
       </c>
       <c r="C135" t="str">
         <v>(0 pts)</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Sean Abbott</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B136" t="str">
-        <v>AUS - BOWL (0 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C136" t="str">
         <v>(0 pts)</v>
@@ -1878,10 +1878,10 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Ashton Agar</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B137" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C137" t="str">
         <v>(0 pts)</v>
@@ -1889,32 +1889,32 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>James Neesham</v>
+        <v>David Willey</v>
       </c>
       <c r="B138" t="str">
-        <v>NZ - AR (2 pts)</v>
+        <v>ENG - AR (0 pts)</v>
       </c>
       <c r="C138" t="str">
-        <v>(2 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Moeen Ali</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B139" t="str">
-        <v>ENG - AR (16 pts)</v>
+        <v>AUS - BOWL (0 pts)</v>
       </c>
       <c r="C139" t="str">
-        <v>(16 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Lizaad Williams</v>
+        <v>Travis Head</v>
       </c>
       <c r="B140" t="str">
-        <v>SA - BOWL (0 pts)</v>
+        <v>AUS - BAT (0 pts)</v>
       </c>
       <c r="C140" t="str">
         <v>(0 pts)</v>
@@ -1922,10 +1922,10 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B141" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>SA - BOWL (0 pts)</v>
       </c>
       <c r="C141" t="str">
         <v>(0 pts)</v>
@@ -1933,10 +1933,10 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Ish Sodhi</v>
+        <v>Tom Blundell</v>
       </c>
       <c r="B142" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>NZ - WK (0 pts)</v>
       </c>
       <c r="C142" t="str">
         <v>(0 pts)</v>
@@ -1955,10 +1955,10 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Binura Fernando</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B144" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C144" t="str">
         <v>(0 pts)</v>
@@ -1966,10 +1966,10 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Usama Mir</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B145" t="str">
-        <v>PAK - BOWL (0 pts)</v>
+        <v>BAN - BOWL (0 pts)</v>
       </c>
       <c r="C145" t="str">
         <v>(0 pts)</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Riaz Hassan</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B153" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>PAK - BOWL (0 pts)</v>
       </c>
       <c r="C153" t="str">
         <v>(0 pts)</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Travis Head</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B154" t="str">
-        <v>AUS - BAT (0 pts)</v>
+        <v>ENG - BOWL (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Gus Atkinson</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B161" t="str">
-        <v>ENG - BOWL (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C161" t="str">
         <v>(0 pts)</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Tom Blundell</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B162" t="str">
-        <v>NZ - WK (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C162" t="str">
         <v>(0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -393,35 +393,35 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Quinton de Kock</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B2" t="str">
-        <v>SA - WK (344 pts)</v>
+        <v>NZ - AR (416 pts)</v>
       </c>
       <c r="C2" t="str">
-        <v>(344 pts)</v>
+        <v>(416 pts)</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B3" t="str">
-        <v>PAK - WK (337 pts)</v>
+        <v>NZ - AR (362 pts)</v>
       </c>
       <c r="C3" t="str">
-        <v>(337 pts)</v>
+        <v>(362 pts)</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Bas de Leede</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B4" t="str">
-        <v>NED - AR (337 pts)</v>
+        <v>SA - WK (344 pts)</v>
       </c>
       <c r="C4" t="str">
-        <v>(337 pts)</v>
+        <v>(344 pts)</v>
       </c>
     </row>
     <row r="5">
@@ -429,21 +429,21 @@
         <v>Devon Conway</v>
       </c>
       <c r="B5" t="str">
-        <v>NZ - WK (320 pts)</v>
+        <v>NZ - WK (347 pts)</v>
       </c>
       <c r="C5" t="str">
-        <v>(320 pts)</v>
+        <v>(347 pts)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Mitchell Santner</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B6" t="str">
-        <v>NZ - AR (305 pts)</v>
+        <v>NED - AR (337 pts)</v>
       </c>
       <c r="C6" t="str">
-        <v>(305 pts)</v>
+        <v>(337 pts)</v>
       </c>
     </row>
     <row r="7">
@@ -470,145 +470,145 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Matt Henry</v>
+        <v>Joe Root</v>
       </c>
       <c r="B9" t="str">
-        <v>NZ - BOWL (292 pts)</v>
+        <v>ENG - BAT (281 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(292 pts)</v>
+        <v>(281 pts)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B10" t="str">
-        <v>NZ - AR (289 pts)</v>
+        <v>AFG - BOWL (269 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(289 pts)</v>
+        <v>(269 pts)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Joe Root</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B11" t="str">
-        <v>ENG - BAT (281 pts)</v>
+        <v>IND - BOWL (260 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(281 pts)</v>
+        <v>(260 pts)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B12" t="str">
-        <v>IND - BOWL (260 pts)</v>
+        <v>NZ - BOWL (341 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(260 pts)</v>
+        <v>(341 pts)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Dawid Malan</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B13" t="str">
-        <v>ENG - BAT (242 pts)</v>
+        <v>PAK - WK (337 pts)</v>
       </c>
       <c r="C13" t="str">
-        <v>(242 pts)</v>
+        <v>(337 pts)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Marco Jansen</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B14" t="str">
-        <v>SA - AR (254 pts)</v>
+        <v>AFG - AR (252 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(254 pts)</v>
+        <v>(252 pts)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Aiden Markram</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B15" t="str">
-        <v>SA - AR (234 pts)</v>
+        <v>SA - BOWL (248 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(234 pts)</v>
+        <v>(248 pts)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Mitchell Starc</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B16" t="str">
-        <v>AUS - BOWL (231 pts)</v>
+        <v>SA - AR (254 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(231 pts)</v>
+        <v>(254 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B17" t="str">
-        <v>BAN - AR (227 pts)</v>
+        <v>ENG - BAT (242 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(227 pts)</v>
+        <v>(242 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B18" t="str">
-        <v>BAN - AR (222 pts)</v>
+        <v>AUS - BOWL (231 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(222 pts)</v>
+        <v>(231 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B19" t="str">
-        <v>SA - BOWL (248 pts)</v>
+        <v>BAN - AR (227 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(248 pts)</v>
+        <v>(227 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Scott Edwards</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B20" t="str">
-        <v>NED - WK (217 pts)</v>
+        <v>SA - AR (234 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(217 pts)</v>
+        <v>(234 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Rashid Khan</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B21" t="str">
-        <v>AFG - BOWL (220 pts)</v>
+        <v>BAN - AR (222 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(220 pts)</v>
+        <v>(222 pts)</v>
       </c>
     </row>
     <row r="22">
@@ -624,68 +624,68 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Virat Kohli</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B23" t="str">
-        <v>IND - BAT (215 pts)</v>
+        <v>NZ - WK (220 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(215 pts)</v>
+        <v>(220 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Hasan Ali</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B24" t="str">
-        <v>PAK - BOWL (215 pts)</v>
+        <v>NED - WK (217 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(215 pts)</v>
+        <v>(217 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Colin Ackermann</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B25" t="str">
-        <v>NED - AR (206 pts)</v>
+        <v>NZ - AR (219 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(206 pts)</v>
+        <v>(219 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B26" t="str">
-        <v>SA - BOWL (206 pts)</v>
+        <v>NZ - AR (218 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(206 pts)</v>
+        <v>(218 pts)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B27" t="str">
-        <v>NZ - AR (198 pts)</v>
+        <v>IND - BAT (215 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(198 pts)</v>
+        <v>(215 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B28" t="str">
-        <v>SL - WK (200 pts)</v>
+        <v>PAK - BOWL (215 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(200 pts)</v>
+        <v>(215 pts)</v>
       </c>
     </row>
     <row r="29">
@@ -693,461 +693,461 @@
         <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B29" t="str">
-        <v>AFG - WK (197 pts)</v>
+        <v>AFG - WK (214 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(197 pts)</v>
+        <v>(214 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Adil Rashid</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B30" t="str">
-        <v>ENG - BOWL (187 pts)</v>
+        <v>NED - AR (206 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(187 pts)</v>
+        <v>(206 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B31" t="str">
-        <v>IND - BOWL (191 pts)</v>
+        <v>SA - BOWL (206 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(191 pts)</v>
+        <v>(206 pts)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B32" t="str">
-        <v>PAK - BAT (186 pts)</v>
+        <v>SL - WK (200 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(186 pts)</v>
+        <v>(200 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Adam Zampa</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B33" t="str">
-        <v>AUS - BOWL (185 pts)</v>
+        <v>AFG - BOWL (195 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(185 pts)</v>
+        <v>(195 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B34" t="str">
-        <v>SA - BAT (185 pts)</v>
+        <v>IND - BOWL (191 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(185 pts)</v>
+        <v>(191 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B35" t="str">
-        <v>NED - BOWL (182 pts)</v>
+        <v>ENG - BOWL (187 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(182 pts)</v>
+        <v>(187 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Haris Rauf</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B36" t="str">
-        <v>PAK - BOWL (181 pts)</v>
+        <v>AUS - BOWL (185 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(181 pts)</v>
+        <v>(185 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Shoriful Islam</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B37" t="str">
-        <v>BAN - BOWL (183 pts)</v>
+        <v>SA - BAT (185 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(183 pts)</v>
+        <v>(185 pts)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B38" t="str">
-        <v>IND - AR (175 pts)</v>
+        <v>BAN - BOWL (183 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(175 pts)</v>
+        <v>(183 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Reece Topley</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B39" t="str">
-        <v>ENG - BOWL (174 pts)</v>
+        <v>PAK - BOWL (181 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(174 pts)</v>
+        <v>(181 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Will Young</v>
       </c>
       <c r="B40" t="str">
-        <v>AUS - AR (171 pts)</v>
+        <v>NZ - BAT (178 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(171 pts)</v>
+        <v>(178 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>KL Rahul</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B41" t="str">
-        <v>IND - BAT (170 pts)</v>
+        <v>PAK - BAT (186 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(170 pts)</v>
+        <v>(186 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B42" t="str">
-        <v>NED - AR (169 pts)</v>
+        <v>IND - AR (175 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(169 pts)</v>
+        <v>(175 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Logan van Beek</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B43" t="str">
-        <v>NED - BOWL (168 pts)</v>
+        <v>NZ - BOWL (178 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(168 pts)</v>
+        <v>(178 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Hardik Pandya</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B44" t="str">
-        <v>IND - AR (166 pts)</v>
+        <v>AUS - AR (171 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(166 pts)</v>
+        <v>(171 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B45" t="str">
-        <v>BAN - WK (169 pts)</v>
+        <v>IND - BAT (170 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(169 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B46" t="str">
-        <v>AFG - AR (163 pts)</v>
+        <v>BAN - WK (169 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(163 pts)</v>
+        <v>(169 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Jos Buttler</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B47" t="str">
-        <v>ENG - WK (162 pts)</v>
+        <v>NED - AR (169 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(162 pts)</v>
+        <v>(169 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Aryan Dutt</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B48" t="str">
-        <v>NED - BOWL (160 pts)</v>
+        <v>NED - BOWL (168 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(160 pts)</v>
+        <v>(168 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B49" t="str">
-        <v>AFG - BOWL (153 pts)</v>
+        <v>IND - AR (166 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(153 pts)</v>
+        <v>(166 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B50" t="str">
-        <v>PAK - BOWL (151 pts)</v>
+        <v>NED - BOWL (182 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(151 pts)</v>
+        <v>(182 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Pat Cummins</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B51" t="str">
-        <v>AUS - BOWL (149 pts)</v>
+        <v>ENG - WK (162 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(149 pts)</v>
+        <v>(162 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Harry Brook</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B52" t="str">
-        <v>ENG - BAT (147 pts)</v>
+        <v>NED - BOWL (160 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(147 pts)</v>
+        <v>(160 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B53" t="str">
-        <v>SA - WK (149 pts)</v>
+        <v>PAK - BOWL (151 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(149 pts)</v>
+        <v>(151 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B54" t="str">
-        <v>AUS - BAT (147 pts)</v>
+        <v>AFG - BOWL (150 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(147 pts)</v>
+        <v>(150 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Charith Asalanka</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B55" t="str">
-        <v>SL - BAT (143 pts)</v>
+        <v>NZ - BOWL (165 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(143 pts)</v>
+        <v>(165 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B56" t="str">
-        <v>SL - BAT (146 pts)</v>
+        <v>AUS - BOWL (149 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(146 pts)</v>
+        <v>(149 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>David Miller</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B57" t="str">
-        <v>SA - BAT (141 pts)</v>
+        <v>AUS - BAT (147 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(141 pts)</v>
+        <v>(147 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B58" t="str">
-        <v>AUS - BOWL (141 pts)</v>
+        <v>ENG - BAT (147 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(141 pts)</v>
+        <v>(147 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B59" t="str">
-        <v>SA - BOWL (141 pts)</v>
+        <v>SL - BAT (146 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(141 pts)</v>
+        <v>(146 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Saud Shakeel</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B60" t="str">
-        <v>PAK - BAT (140 pts)</v>
+        <v>SL - BAT (143 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(140 pts)</v>
+        <v>(143 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Mark Wood</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B61" t="str">
-        <v>ENG - BOWL (134 pts)</v>
+        <v>AUS - BOWL (141 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(134 pts)</v>
+        <v>(141 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>David Miller</v>
       </c>
       <c r="B62" t="str">
-        <v>AFG - BAT (134 pts)</v>
+        <v>SA - BAT (141 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(134 pts)</v>
+        <v>(141 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B63" t="str">
-        <v>SA - BOWL (138 pts)</v>
+        <v>ENG - BOWL (174 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(138 pts)</v>
+        <v>(174 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Litton Das</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B64" t="str">
-        <v>BAN - WK (133 pts)</v>
+        <v>SA - WK (149 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(133 pts)</v>
+        <v>(149 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Tom Latham</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B65" t="str">
-        <v>NZ - WK (129 pts)</v>
+        <v>PAK - BAT (140 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(129 pts)</v>
+        <v>(140 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B66" t="str">
-        <v>BAN - AR (133 pts)</v>
+        <v>SA - BOWL (141 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(133 pts)</v>
+        <v>(141 pts)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B67" t="str">
-        <v>PAK - AR (127 pts)</v>
+        <v>AFG - BAT (141 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(127 pts)</v>
+        <v>(141 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>David Warner</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B68" t="str">
-        <v>AUS - BAT (125 pts)</v>
+        <v>AFG - BAT (140 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(125 pts)</v>
+        <v>(140 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Kusal Perera</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B69" t="str">
-        <v>SL - WK (119 pts)</v>
+        <v>ENG - BOWL (134 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(119 pts)</v>
+        <v>(134 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B70" t="str">
-        <v>IND - BAT (119 pts)</v>
+        <v>SA - BOWL (138 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(119 pts)</v>
+        <v>(138 pts)</v>
       </c>
     </row>
     <row r="71">
@@ -1155,263 +1155,263 @@
         <v>Mohammad Nabi</v>
       </c>
       <c r="B71" t="str">
-        <v>AFG - AR (118 pts)</v>
+        <v>AFG - AR (134 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(118 pts)</v>
+        <v>(134 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Sam Curran</v>
+        <v>Litton Das</v>
       </c>
       <c r="B72" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>BAN - WK (133 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(118 pts)</v>
+        <v>(133 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Dasun Shanaka</v>
+        <v>David Warner</v>
       </c>
       <c r="B73" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>AUS - BAT (125 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(114 pts)</v>
+        <v>(125 pts)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B74" t="str">
-        <v>AFG - BAT (112 pts)</v>
+        <v>PAK - AR (127 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(112 pts)</v>
+        <v>(127 pts)</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Shadab Khan</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B75" t="str">
-        <v>PAK - AR (108 pts)</v>
+        <v>BAN - AR (133 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(108 pts)</v>
+        <v>(133 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B76" t="str">
-        <v>BAN - BOWL (106 pts)</v>
+        <v>ENG - WK (125 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(106 pts)</v>
+        <v>(125 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Liam Livingstone</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B77" t="str">
-        <v>ENG - AR (105 pts)</v>
+        <v>AFG - WK (115 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(105 pts)</v>
+        <v>(115 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B78" t="str">
-        <v>IND - BOWL (105 pts)</v>
+        <v>SL - WK (119 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(105 pts)</v>
+        <v>(119 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Trent Boult</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B79" t="str">
-        <v>NZ - BOWL (103 pts)</v>
+        <v>IND - BAT (119 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(103 pts)</v>
+        <v>(119 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Babar Azam</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B80" t="str">
-        <v>PAK - BAT (103 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(103 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Chris Woakes</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B81" t="str">
-        <v>ENG - AR (102 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(102 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B82" t="str">
-        <v>ENG - WK (125 pts)</v>
+        <v>AFG - AR (110 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(125 pts)</v>
+        <v>(110 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Will Young</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B83" t="str">
-        <v>NZ - BAT (98 pts)</v>
+        <v>IND - BOWL (105 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(98 pts)</v>
+        <v>(105 pts)</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Vikram Singh</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B84" t="str">
-        <v>NED - AR (97 pts)</v>
+        <v>PAK - AR (108 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(97 pts)</v>
+        <v>(108 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Kane Williamson</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B85" t="str">
-        <v>NZ - BAT (96 pts)</v>
+        <v>PAK - BAT (103 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(96 pts)</v>
+        <v>(103 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Glenn Phillips</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B86" t="str">
-        <v>NZ - AR (127 pts)</v>
+        <v>BAN - BOWL (106 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(127 pts)</v>
+        <v>(106 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B87" t="str">
-        <v>PAK - AR (94 pts)</v>
+        <v>BAN - BAT (101 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(94 pts)</v>
+        <v>(101 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Temba Bavuma</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B88" t="str">
-        <v>SA - BAT (95 pts)</v>
+        <v>ENG - AR (105 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(95 pts)</v>
+        <v>(105 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B89" t="str">
-        <v>BAN - BAT (101 pts)</v>
+        <v>NZ - BAT (96 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(101 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B90" t="str">
-        <v>PAK - BAT (92 pts)</v>
+        <v>NED - AR (97 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(92 pts)</v>
+        <v>(97 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B91" t="str">
-        <v>NZ - BOWL (91 pts)</v>
+        <v>ENG - AR (102 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(91 pts)</v>
+        <v>(102 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Josh Inglis</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B92" t="str">
-        <v>AUS - WK (91 pts)</v>
+        <v>SA - BAT (95 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(91 pts)</v>
+        <v>(95 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B93" t="str">
-        <v>AFG - BOWL (88 pts)</v>
+        <v>PAK - AR (94 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(88 pts)</v>
+        <v>(94 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Fazalhaq Farooqi</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B94" t="str">
-        <v>AFG - BOWL (84 pts)</v>
+        <v>AUS - WK (91 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(84 pts)</v>
+        <v>(91 pts)</v>
       </c>
     </row>
     <row r="95">
@@ -1449,120 +1449,120 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B98" t="str">
-        <v>AFG - WK (81 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(81 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B99" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>SL - BOWL (76 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(79 pts)</v>
+        <v>(76 pts)</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B100" t="str">
-        <v>SL - BOWL (76 pts)</v>
+        <v>BAN - BOWL (75 pts)</v>
       </c>
       <c r="C100" t="str">
-        <v>(76 pts)</v>
+        <v>(75 pts)</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B101" t="str">
-        <v>BAN - BOWL (75 pts)</v>
+        <v>PAK - BAT (92 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(75 pts)</v>
+        <v>(92 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B102" t="str">
-        <v>NED - AR (70 pts)</v>
+        <v>SL - AR (68 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(70 pts)</v>
+        <v>(68 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Rahmat Shah</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B103" t="str">
-        <v>AFG - AR (69 pts)</v>
+        <v>NED - BAT (66 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(69 pts)</v>
+        <v>(66 pts)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B104" t="str">
-        <v>SL - AR (68 pts)</v>
+        <v>NED - AR (70 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(68 pts)</v>
+        <v>(70 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B105" t="str">
-        <v>NED - BAT (66 pts)</v>
+        <v>NZ - BAT (58 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(66 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Ishan Kishan</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B106" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>NED - BAT (58 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(63 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Max O'Dowd</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B107" t="str">
-        <v>NED - BAT (58 pts)</v>
+        <v>BAN - AR (55 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(58 pts)</v>
+        <v>(55 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B108" t="str">
-        <v>BAN - AR (55 pts)</v>
+        <v>BAN - BAT (55 pts)</v>
       </c>
       <c r="C108" t="str">
         <v>(55 pts)</v>
@@ -1570,156 +1570,156 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B109" t="str">
-        <v>BAN - BAT (55 pts)</v>
+        <v>SA - BOWL (54 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(55 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B110" t="str">
-        <v>SA - BOWL (54 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(54 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B111" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>IND - BOWL (49 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(53 pts)</v>
+        <v>(49 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Shardul Thakur</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B112" t="str">
-        <v>IND - BOWL (49 pts)</v>
+        <v>SL - BOWL (39 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(49 pts)</v>
+        <v>(39 pts)</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B113" t="str">
-        <v>SL - BOWL (39 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(39 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B114" t="str">
-        <v>AUS - AR (38 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(38 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B115" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>PAK - BAT (35 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(37 pts)</v>
+        <v>(35 pts)</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B116" t="str">
-        <v>NED - AR (31 pts)</v>
+        <v>IND - BAT (32 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(31 pts)</v>
+        <v>(32 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B117" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>NED - AR (31 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(27 pts)</v>
+        <v>(31 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B118" t="str">
-        <v>PAK - BAT (35 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(35 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Shubman Gill</v>
+        <v>Chamika Karunaratne</v>
       </c>
       <c r="B119" t="str">
-        <v>IND - BAT (32 pts)</v>
+        <v>SL - AR (20 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(32 pts)</v>
+        <v>(20 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Chamika Karunaratne</v>
+        <v>Fazalhaq Farooqi</v>
       </c>
       <c r="B120" t="str">
-        <v>SL - AR (20 pts)</v>
+        <v>AFG - BOWL (92 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(20 pts)</v>
+        <v>(92 pts)</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Cameron Green</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B121" t="str">
-        <v>AUS - AR (18 pts)</v>
+        <v>AUS - AR (38 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(18 pts)</v>
+        <v>(38 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Mark Chapman</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B122" t="str">
-        <v>NZ - BAT (17 pts)</v>
+        <v>AUS - AR (18 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(17 pts)</v>
+        <v>(18 pts)</v>
       </c>
     </row>
     <row r="123">
@@ -1746,54 +1746,54 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B125" t="str">
-        <v>SL - BOWL (9 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(9 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Ryan Klein</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B126" t="str">
-        <v>NED - BOWL (16 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(16 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Alex Carey</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B127" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>SA - BAT (0 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(1 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Tim Southee</v>
+        <v>Ryan Klein</v>
       </c>
       <c r="B128" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>NED - BOWL (16 pts)</v>
       </c>
       <c r="C128" t="str">
-        <v>(0 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B129" t="str">
-        <v>SA - BAT (0 pts)</v>
+        <v>ENG - AR (0 pts)</v>
       </c>
       <c r="C129" t="str">
         <v>(0 pts)</v>
@@ -1801,10 +1801,10 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Wesley Barresi</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B130" t="str">
-        <v>NED - WK (0 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C130" t="str">
         <v>(0 pts)</v>
@@ -1812,21 +1812,21 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B131" t="str">
-        <v>IND - BAT (0 pts)</v>
+        <v>SL - BOWL (9 pts)</v>
       </c>
       <c r="C131" t="str">
-        <v>(0 pts)</v>
+        <v>(9 pts)</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Ben Stokes</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B132" t="str">
-        <v>ENG - AR (0 pts)</v>
+        <v>IND - BAT (0 pts)</v>
       </c>
       <c r="C132" t="str">
         <v>(0 pts)</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B133" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>NED - WK (0 pts)</v>
       </c>
       <c r="C133" t="str">
         <v>(0 pts)</v>
@@ -1845,10 +1845,10 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Jason Roy</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B134" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C134" t="str">
         <v>(0 pts)</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Anamul Haque</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B136" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>AUS - BOWL (0 pts)</v>
       </c>
       <c r="C136" t="str">
         <v>(0 pts)</v>
@@ -1878,10 +1878,10 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Ish Sodhi</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B137" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C137" t="str">
         <v>(0 pts)</v>
@@ -1900,10 +1900,10 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Sean Abbott</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B139" t="str">
-        <v>AUS - BOWL (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C139" t="str">
         <v>(0 pts)</v>
@@ -1911,10 +1911,10 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Travis Head</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B140" t="str">
-        <v>AUS - BAT (0 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C140" t="str">
         <v>(0 pts)</v>
@@ -1922,10 +1922,10 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Lizaad Williams</v>
+        <v>Travis Head</v>
       </c>
       <c r="B141" t="str">
-        <v>SA - BOWL (0 pts)</v>
+        <v>AUS - BAT (0 pts)</v>
       </c>
       <c r="C141" t="str">
         <v>(0 pts)</v>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Axar Patel</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B143" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>BAN - BOWL (0 pts)</v>
       </c>
       <c r="C143" t="str">
         <v>(0 pts)</v>
@@ -1955,10 +1955,10 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Ashton Agar</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B144" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>SA - BOWL (0 pts)</v>
       </c>
       <c r="C144" t="str">
         <v>(0 pts)</v>
@@ -1966,10 +1966,10 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B145" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>PAK - BOWL (0 pts)</v>
       </c>
       <c r="C145" t="str">
         <v>(0 pts)</v>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Agha Salman</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B146" t="str">
-        <v>PAK - AR (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C146" t="str">
         <v>(0 pts)</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Pramod Madushan</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B150" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>PAK - AR (0 pts)</v>
       </c>
       <c r="C150" t="str">
         <v>(0 pts)</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Afif Hossain</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B151" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C151" t="str">
         <v>(0 pts)</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Pramod Madushan</v>
       </c>
       <c r="B152" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C152" t="str">
         <v>(0 pts)</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Usama Mir</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B153" t="str">
-        <v>PAK - BOWL (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C153" t="str">
         <v>(0 pts)</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Mohammad Naim</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B157" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>BAN - BOWL (0 pts)</v>
       </c>
       <c r="C157" t="str">
         <v>(0 pts)</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Tanzim Hasan Sakib</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B158" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C158" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Noor Ahmad</v>
+        <v>Mohammad Naim</v>
       </c>
       <c r="B159" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Tanzim Hasan Sakib</v>
       </c>
       <c r="B160" t="str">
-        <v>PAK - BOWL (0 pts)</v>
+        <v>BAN - BOWL (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Riaz Hassan</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B161" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C161" t="str">
         <v>(0 pts)</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Binura Fernando</v>
+        <v>Shariz Ahmad</v>
       </c>
       <c r="B162" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>NED - BOWL (0 pts)</v>
       </c>
       <c r="C162" t="str">
         <v>(0 pts)</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B163" t="str">
-        <v>NED - BOWL (0 pts)</v>
+        <v>PAK - BOWL (0 pts)</v>
       </c>
       <c r="C163" t="str">
         <v>(0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -404,673 +404,673 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B3" t="str">
-        <v>NZ - AR (362 pts)</v>
+        <v>PAK - WK (410 pts)</v>
       </c>
       <c r="C3" t="str">
-        <v>(362 pts)</v>
+        <v>(410 pts)</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Quinton de Kock</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B4" t="str">
-        <v>SA - WK (344 pts)</v>
+        <v>IND - BAT (357 pts)</v>
       </c>
       <c r="C4" t="str">
-        <v>(344 pts)</v>
+        <v>(357 pts)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Devon Conway</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B5" t="str">
-        <v>NZ - WK (347 pts)</v>
+        <v>NZ - AR (362 pts)</v>
       </c>
       <c r="C5" t="str">
-        <v>(347 pts)</v>
+        <v>(362 pts)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Bas de Leede</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B6" t="str">
-        <v>NED - AR (337 pts)</v>
+        <v>NZ - WK (347 pts)</v>
       </c>
       <c r="C6" t="str">
-        <v>(337 pts)</v>
+        <v>(347 pts)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Kusal Mendis</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B7" t="str">
-        <v>SL - WK (295 pts)</v>
+        <v>NZ - BOWL (341 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(295 pts)</v>
+        <v>(341 pts)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Rohit Sharma</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B8" t="str">
-        <v>IND - BAT (292 pts)</v>
+        <v>IND - BAT (346 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(292 pts)</v>
+        <v>(346 pts)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Joe Root</v>
+        <v>David Warner</v>
       </c>
       <c r="B9" t="str">
-        <v>ENG - BAT (281 pts)</v>
+        <v>AUS - BAT (336 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(281 pts)</v>
+        <v>(336 pts)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Rashid Khan</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B10" t="str">
-        <v>AFG - BOWL (269 pts)</v>
+        <v>SA - WK (344 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(269 pts)</v>
+        <v>(344 pts)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B11" t="str">
-        <v>IND - BOWL (260 pts)</v>
+        <v>NED - AR (337 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(260 pts)</v>
+        <v>(337 pts)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Matt Henry</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B12" t="str">
-        <v>NZ - BOWL (341 pts)</v>
+        <v>IND - BOWL (328 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(341 pts)</v>
+        <v>(328 pts)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B13" t="str">
-        <v>PAK - WK (337 pts)</v>
+        <v>PAK - BOWL (312 pts)</v>
       </c>
       <c r="C13" t="str">
-        <v>(337 pts)</v>
+        <v>(312 pts)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B14" t="str">
-        <v>AFG - AR (252 pts)</v>
+        <v>AUS - BOWL (310 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(252 pts)</v>
+        <v>(310 pts)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B15" t="str">
-        <v>SA - BOWL (248 pts)</v>
+        <v>PAK - BAT (271 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(248 pts)</v>
+        <v>(271 pts)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Marco Jansen</v>
+        <v>Joe Root</v>
       </c>
       <c r="B16" t="str">
-        <v>SA - AR (254 pts)</v>
+        <v>ENG - BAT (281 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(254 pts)</v>
+        <v>(281 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Dawid Malan</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B17" t="str">
-        <v>ENG - BAT (242 pts)</v>
+        <v>AFG - BOWL (269 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(242 pts)</v>
+        <v>(269 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Mitchell Starc</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B18" t="str">
-        <v>AUS - BOWL (231 pts)</v>
+        <v>BAN - AR (279 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(231 pts)</v>
+        <v>(279 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B19" t="str">
-        <v>BAN - AR (227 pts)</v>
+        <v>SA - AR (254 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(227 pts)</v>
+        <v>(254 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Aiden Markram</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B20" t="str">
-        <v>SA - AR (234 pts)</v>
+        <v>SL - WK (295 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(234 pts)</v>
+        <v>(295 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B21" t="str">
-        <v>BAN - AR (222 pts)</v>
+        <v>AUS - BOWL (274 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(222 pts)</v>
+        <v>(274 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B22" t="str">
-        <v>SL - BOWL (222 pts)</v>
+        <v>SA - BOWL (248 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(222 pts)</v>
+        <v>(248 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Tom Latham</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B23" t="str">
-        <v>NZ - WK (220 pts)</v>
+        <v>PAK - BOWL (254 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(220 pts)</v>
+        <v>(254 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Scott Edwards</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B24" t="str">
-        <v>NED - WK (217 pts)</v>
+        <v>AFG - AR (252 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(217 pts)</v>
+        <v>(252 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B25" t="str">
-        <v>NZ - AR (219 pts)</v>
+        <v>IND - AR (247 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(219 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Glenn Phillips</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B26" t="str">
-        <v>NZ - AR (218 pts)</v>
+        <v>ENG - BAT (242 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(218 pts)</v>
+        <v>(242 pts)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Virat Kohli</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B27" t="str">
-        <v>IND - BAT (215 pts)</v>
+        <v>AUS - AR (246 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(215 pts)</v>
+        <v>(246 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Hasan Ali</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B28" t="str">
-        <v>PAK - BOWL (215 pts)</v>
+        <v>IND - BAT (231 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(215 pts)</v>
+        <v>(231 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B29" t="str">
-        <v>AFG - WK (214 pts)</v>
+        <v>SA - AR (234 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(214 pts)</v>
+        <v>(234 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Colin Ackermann</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B30" t="str">
-        <v>NED - AR (206 pts)</v>
+        <v>BAN - AR (227 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(206 pts)</v>
+        <v>(227 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B31" t="str">
-        <v>SA - BOWL (206 pts)</v>
+        <v>IND - BOWL (228 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(206 pts)</v>
+        <v>(228 pts)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B32" t="str">
-        <v>SL - WK (200 pts)</v>
+        <v>SL - BOWL (222 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(200 pts)</v>
+        <v>(222 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B33" t="str">
-        <v>AFG - BOWL (195 pts)</v>
+        <v>NZ - WK (220 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(195 pts)</v>
+        <v>(220 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B34" t="str">
-        <v>IND - BOWL (191 pts)</v>
+        <v>NZ - AR (219 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(191 pts)</v>
+        <v>(219 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Adil Rashid</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B35" t="str">
-        <v>ENG - BOWL (187 pts)</v>
+        <v>PAK - BOWL (227 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(187 pts)</v>
+        <v>(227 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Adam Zampa</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B36" t="str">
-        <v>AUS - BOWL (185 pts)</v>
+        <v>NZ - AR (218 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(185 pts)</v>
+        <v>(218 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Litton Das</v>
       </c>
       <c r="B37" t="str">
-        <v>SA - BAT (185 pts)</v>
+        <v>BAN - WK (214 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(185 pts)</v>
+        <v>(214 pts)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Shoriful Islam</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B38" t="str">
-        <v>BAN - BOWL (183 pts)</v>
+        <v>AFG - WK (214 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(183 pts)</v>
+        <v>(214 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Haris Rauf</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B39" t="str">
-        <v>PAK - BOWL (181 pts)</v>
+        <v>NED - WK (217 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(181 pts)</v>
+        <v>(217 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Will Young</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B40" t="str">
-        <v>NZ - BAT (178 pts)</v>
+        <v>BAN - WK (214 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(178 pts)</v>
+        <v>(214 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B41" t="str">
-        <v>PAK - BAT (186 pts)</v>
+        <v>NED - AR (206 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(186 pts)</v>
+        <v>(206 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B42" t="str">
-        <v>IND - AR (175 pts)</v>
+        <v>SL - WK (200 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(175 pts)</v>
+        <v>(200 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B43" t="str">
-        <v>NZ - BOWL (178 pts)</v>
+        <v>AFG - BOWL (195 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(178 pts)</v>
+        <v>(195 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B44" t="str">
-        <v>AUS - AR (171 pts)</v>
+        <v>ENG - BOWL (187 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(171 pts)</v>
+        <v>(187 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>KL Rahul</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B45" t="str">
-        <v>IND - BAT (170 pts)</v>
+        <v>AUS - BOWL (213 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(170 pts)</v>
+        <v>(213 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B46" t="str">
-        <v>BAN - WK (169 pts)</v>
+        <v>PAK - BAT (187 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(169 pts)</v>
+        <v>(187 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B47" t="str">
-        <v>NED - AR (169 pts)</v>
+        <v>SA - BAT (185 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(169 pts)</v>
+        <v>(185 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Logan van Beek</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B48" t="str">
-        <v>NED - BOWL (168 pts)</v>
+        <v>NED - BOWL (182 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(168 pts)</v>
+        <v>(182 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Hardik Pandya</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B49" t="str">
-        <v>IND - AR (166 pts)</v>
+        <v>PAK - BAT (180 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(166 pts)</v>
+        <v>(180 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B50" t="str">
-        <v>NED - BOWL (182 pts)</v>
+        <v>AUS - AR (178 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(182 pts)</v>
+        <v>(178 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Jos Buttler</v>
+        <v>Will Young</v>
       </c>
       <c r="B51" t="str">
-        <v>ENG - WK (162 pts)</v>
+        <v>NZ - BAT (178 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(162 pts)</v>
+        <v>(178 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Aryan Dutt</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B52" t="str">
-        <v>NED - BOWL (160 pts)</v>
+        <v>NZ - BOWL (178 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(160 pts)</v>
+        <v>(178 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B53" t="str">
-        <v>PAK - BOWL (151 pts)</v>
+        <v>AUS - BOWL (176 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(151 pts)</v>
+        <v>(176 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B54" t="str">
-        <v>AFG - BOWL (150 pts)</v>
+        <v>ENG - BOWL (174 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(150 pts)</v>
+        <v>(174 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Trent Boult</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B55" t="str">
-        <v>NZ - BOWL (165 pts)</v>
+        <v>IND - AR (170 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(165 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Pat Cummins</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B56" t="str">
-        <v>AUS - BOWL (149 pts)</v>
+        <v>NED - AR (169 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(149 pts)</v>
+        <v>(169 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B57" t="str">
-        <v>AUS - BAT (147 pts)</v>
+        <v>NED - BOWL (168 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(147 pts)</v>
+        <v>(168 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Harry Brook</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B58" t="str">
-        <v>ENG - BAT (147 pts)</v>
+        <v>AUS - BAT (168 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(147 pts)</v>
+        <v>(168 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B59" t="str">
-        <v>SL - BAT (146 pts)</v>
+        <v>NZ - BOWL (165 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(146 pts)</v>
+        <v>(165 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Charith Asalanka</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B60" t="str">
-        <v>SL - BAT (143 pts)</v>
+        <v>ENG - WK (162 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(143 pts)</v>
+        <v>(162 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B61" t="str">
-        <v>AUS - BOWL (141 pts)</v>
+        <v>NED - BOWL (160 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(141 pts)</v>
+        <v>(160 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>David Miller</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B62" t="str">
-        <v>SA - BAT (141 pts)</v>
+        <v>SA - BOWL (206 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(141 pts)</v>
+        <v>(206 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Reece Topley</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B63" t="str">
-        <v>ENG - BOWL (174 pts)</v>
+        <v>AFG - BOWL (150 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(174 pts)</v>
+        <v>(150 pts)</v>
       </c>
     </row>
     <row r="64">
@@ -1086,725 +1086,725 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Saud Shakeel</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B65" t="str">
-        <v>PAK - BAT (140 pts)</v>
+        <v>PAK - AR (147 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(140 pts)</v>
+        <v>(147 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B66" t="str">
-        <v>SA - BOWL (141 pts)</v>
+        <v>ENG - BAT (147 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(141 pts)</v>
+        <v>(147 pts)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B67" t="str">
-        <v>AFG - BAT (141 pts)</v>
+        <v>SL - BAT (146 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(141 pts)</v>
+        <v>(146 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B68" t="str">
-        <v>AFG - BAT (140 pts)</v>
+        <v>IND - BAT (144 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(140 pts)</v>
+        <v>(144 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Mark Wood</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B69" t="str">
-        <v>ENG - BOWL (134 pts)</v>
+        <v>SL - BAT (143 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(134 pts)</v>
+        <v>(143 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Gerald Coetzee</v>
+        <v>David Miller</v>
       </c>
       <c r="B70" t="str">
-        <v>SA - BOWL (138 pts)</v>
+        <v>SA - BAT (141 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(138 pts)</v>
+        <v>(141 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B71" t="str">
-        <v>AFG - AR (134 pts)</v>
+        <v>AFG - BAT (141 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(134 pts)</v>
+        <v>(141 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Litton Das</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B72" t="str">
-        <v>BAN - WK (133 pts)</v>
+        <v>SA - BOWL (141 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(133 pts)</v>
+        <v>(141 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>David Warner</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B73" t="str">
-        <v>AUS - BAT (125 pts)</v>
+        <v>AFG - BAT (140 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(125 pts)</v>
+        <v>(140 pts)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B74" t="str">
-        <v>PAK - AR (127 pts)</v>
+        <v>SA - BOWL (138 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(127 pts)</v>
+        <v>(138 pts)</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B75" t="str">
-        <v>BAN - AR (133 pts)</v>
+        <v>PAK - BAT (136 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(133 pts)</v>
+        <v>(136 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B76" t="str">
-        <v>ENG - WK (125 pts)</v>
+        <v>BAN - AR (134 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(125 pts)</v>
+        <v>(134 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B77" t="str">
-        <v>AFG - WK (115 pts)</v>
+        <v>AFG - AR (134 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(115 pts)</v>
+        <v>(134 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Kusal Perera</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B78" t="str">
-        <v>SL - WK (119 pts)</v>
+        <v>BAN - BOWL (196 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(119 pts)</v>
+        <v>(196 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B79" t="str">
-        <v>IND - BAT (119 pts)</v>
+        <v>ENG - BOWL (134 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(119 pts)</v>
+        <v>(134 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Dasun Shanaka</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B80" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>BAN - AR (133 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(114 pts)</v>
+        <v>(133 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Sam Curran</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B81" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>AUS - WK (131 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(118 pts)</v>
+        <v>(131 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Rahmat Shah</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B82" t="str">
-        <v>AFG - AR (110 pts)</v>
+        <v>BAN - BAT (127 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(110 pts)</v>
+        <v>(127 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B83" t="str">
-        <v>IND - BOWL (105 pts)</v>
+        <v>ENG - WK (125 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(105 pts)</v>
+        <v>(125 pts)</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Shadab Khan</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B84" t="str">
-        <v>PAK - AR (108 pts)</v>
+        <v>AUS - AR (122 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(108 pts)</v>
+        <v>(122 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Babar Azam</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B85" t="str">
-        <v>PAK - BAT (103 pts)</v>
+        <v>IND - BOWL (159 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(103 pts)</v>
+        <v>(159 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B86" t="str">
-        <v>BAN - BOWL (106 pts)</v>
+        <v>PAK - AR (134 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(106 pts)</v>
+        <v>(134 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B87" t="str">
-        <v>BAN - BAT (101 pts)</v>
+        <v>SL - WK (119 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(101 pts)</v>
+        <v>(119 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Liam Livingstone</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B88" t="str">
-        <v>ENG - AR (105 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(105 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Kane Williamson</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B89" t="str">
-        <v>NZ - BAT (96 pts)</v>
+        <v>AFG - WK (115 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(96 pts)</v>
+        <v>(115 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Vikram Singh</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B90" t="str">
-        <v>NED - AR (97 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(97 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Chris Woakes</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B91" t="str">
-        <v>ENG - AR (102 pts)</v>
+        <v>BAN - BAT (113 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(102 pts)</v>
+        <v>(113 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Temba Bavuma</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B92" t="str">
-        <v>SA - BAT (95 pts)</v>
+        <v>AFG - AR (110 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(95 pts)</v>
+        <v>(110 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B93" t="str">
-        <v>PAK - AR (94 pts)</v>
+        <v>PAK - AR (108 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(94 pts)</v>
+        <v>(108 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Josh Inglis</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B94" t="str">
-        <v>AUS - WK (91 pts)</v>
+        <v>BAN - BAT (108 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(91 pts)</v>
+        <v>(108 pts)</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Steven Smith</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B95" t="str">
-        <v>AUS - BAT (83 pts)</v>
+        <v>BAN - BOWL (106 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(83 pts)</v>
+        <v>(106 pts)</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B96" t="str">
-        <v>AUS - AR (83 pts)</v>
+        <v>ENG - AR (105 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(83 pts)</v>
+        <v>(105 pts)</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B97" t="str">
-        <v>BAN - BAT (82 pts)</v>
+        <v>ENG - AR (102 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(82 pts)</v>
+        <v>(102 pts)</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B98" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>NED - AR (97 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(79 pts)</v>
+        <v>(97 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B99" t="str">
-        <v>SL - BOWL (76 pts)</v>
+        <v>NZ - BAT (96 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(76 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B100" t="str">
-        <v>BAN - BOWL (75 pts)</v>
+        <v>SA - BAT (95 pts)</v>
       </c>
       <c r="C100" t="str">
-        <v>(75 pts)</v>
+        <v>(95 pts)</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B101" t="str">
-        <v>PAK - BAT (92 pts)</v>
+        <v>AUS - BAT (94 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(92 pts)</v>
+        <v>(94 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Fazalhaq Farooqi</v>
       </c>
       <c r="B102" t="str">
-        <v>SL - AR (68 pts)</v>
+        <v>AFG - BOWL (92 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(68 pts)</v>
+        <v>(92 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B103" t="str">
-        <v>NED - BAT (66 pts)</v>
+        <v>BAN - BOWL (80 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(66 pts)</v>
+        <v>(80 pts)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B104" t="str">
-        <v>NED - AR (70 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(70 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Mark Chapman</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B105" t="str">
-        <v>NZ - BAT (58 pts)</v>
+        <v>IND - BOWL (78 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(58 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Max O'Dowd</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B106" t="str">
-        <v>NED - BAT (58 pts)</v>
+        <v>SL - BOWL (76 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(58 pts)</v>
+        <v>(76 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B107" t="str">
-        <v>BAN - AR (55 pts)</v>
+        <v>NED - AR (70 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(55 pts)</v>
+        <v>(70 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B108" t="str">
-        <v>BAN - BAT (55 pts)</v>
+        <v>SL - AR (68 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(55 pts)</v>
+        <v>(68 pts)</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B109" t="str">
-        <v>SA - BOWL (54 pts)</v>
+        <v>NED - BAT (66 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(54 pts)</v>
+        <v>(66 pts)</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B110" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(53 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Shardul Thakur</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B111" t="str">
-        <v>IND - BOWL (49 pts)</v>
+        <v>NZ - BAT (58 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(49 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B112" t="str">
-        <v>SL - BOWL (39 pts)</v>
+        <v>NED - BAT (58 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(39 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Ishan Kishan</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B113" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>SA - BOWL (54 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(63 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B114" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(37 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B115" t="str">
-        <v>PAK - BAT (35 pts)</v>
+        <v>PAK - BOWL (39 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(35 pts)</v>
+        <v>(39 pts)</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Shubman Gill</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B116" t="str">
-        <v>IND - BAT (32 pts)</v>
+        <v>SL - BOWL (39 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(32 pts)</v>
+        <v>(39 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B117" t="str">
-        <v>NED - AR (31 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(31 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B118" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>PAK - BAT (35 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(27 pts)</v>
+        <v>(35 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Chamika Karunaratne</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B119" t="str">
-        <v>SL - AR (20 pts)</v>
+        <v>NED - AR (31 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(20 pts)</v>
+        <v>(31 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Fazalhaq Farooqi</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B120" t="str">
-        <v>AFG - BOWL (92 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(92 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B121" t="str">
-        <v>AUS - AR (38 pts)</v>
+        <v>BAN - BOWL (25 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(38 pts)</v>
+        <v>(25 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Cameron Green</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B122" t="str">
-        <v>AUS - AR (18 pts)</v>
+        <v>BAN - BOWL (20 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(18 pts)</v>
+        <v>(20 pts)</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Moeen Ali</v>
+        <v>Chamika Karunaratne</v>
       </c>
       <c r="B123" t="str">
-        <v>ENG - AR (16 pts)</v>
+        <v>SL - AR (20 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(16 pts)</v>
+        <v>(20 pts)</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>James Neesham</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B124" t="str">
-        <v>NZ - AR (2 pts)</v>
+        <v>AUS - AR (18 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(2 pts)</v>
+        <v>(18 pts)</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Alex Carey</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B125" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>ENG - AR (16 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(1 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Tim Southee</v>
+        <v>Ryan Klein</v>
       </c>
       <c r="B126" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>NED - BOWL (16 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(0 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B127" t="str">
-        <v>SA - BAT (0 pts)</v>
+        <v>SL - BOWL (9 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(0 pts)</v>
+        <v>(9 pts)</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Ryan Klein</v>
+        <v>James Neesham</v>
       </c>
       <c r="B128" t="str">
-        <v>NED - BOWL (16 pts)</v>
+        <v>NZ - AR (2 pts)</v>
       </c>
       <c r="C128" t="str">
-        <v>(16 pts)</v>
+        <v>(2 pts)</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Ben Stokes</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B129" t="str">
-        <v>ENG - AR (0 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C129" t="str">
-        <v>(0 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Anamul Haque</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B130" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C130" t="str">
         <v>(0 pts)</v>
@@ -1812,21 +1812,21 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B131" t="str">
-        <v>SL - BOWL (9 pts)</v>
+        <v>SA - BAT (0 pts)</v>
       </c>
       <c r="C131" t="str">
-        <v>(9 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B132" t="str">
-        <v>IND - BAT (0 pts)</v>
+        <v>NED - WK (0 pts)</v>
       </c>
       <c r="C132" t="str">
         <v>(0 pts)</v>
@@ -1834,10 +1834,10 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Wesley Barresi</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B133" t="str">
-        <v>NED - WK (0 pts)</v>
+        <v>ENG - AR (0 pts)</v>
       </c>
       <c r="C133" t="str">
         <v>(0 pts)</v>
@@ -1845,10 +1845,10 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B134" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C134" t="str">
         <v>(0 pts)</v>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Mohammad Shami</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B135" t="str">
-        <v>IND - BOWL (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C135" t="str">
         <v>(0 pts)</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Sean Abbott</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B136" t="str">
-        <v>AUS - BOWL (0 pts)</v>
+        <v>IND - BAT (0 pts)</v>
       </c>
       <c r="C136" t="str">
         <v>(0 pts)</v>
@@ -1878,10 +1878,10 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Jason Roy</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B137" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>IND - BOWL (0 pts)</v>
       </c>
       <c r="C137" t="str">
         <v>(0 pts)</v>
@@ -1889,10 +1889,10 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>David Willey</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B138" t="str">
-        <v>ENG - AR (0 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C138" t="str">
         <v>(0 pts)</v>
@@ -1900,10 +1900,10 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Ish Sodhi</v>
+        <v>David Willey</v>
       </c>
       <c r="B139" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>ENG - AR (0 pts)</v>
       </c>
       <c r="C139" t="str">
         <v>(0 pts)</v>
@@ -1911,21 +1911,21 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Ashton Agar</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B140" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>IND - BAT (118 pts)</v>
       </c>
       <c r="C140" t="str">
-        <v>(0 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Travis Head</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B141" t="str">
-        <v>AUS - BAT (0 pts)</v>
+        <v>AUS - BOWL (0 pts)</v>
       </c>
       <c r="C141" t="str">
         <v>(0 pts)</v>
@@ -1933,10 +1933,10 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Tom Blundell</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B142" t="str">
-        <v>NZ - WK (0 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C142" t="str">
         <v>(0 pts)</v>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B143" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C143" t="str">
         <v>(0 pts)</v>
@@ -1966,10 +1966,10 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Usama Mir</v>
+        <v>Travis Head</v>
       </c>
       <c r="B145" t="str">
-        <v>PAK - BOWL (0 pts)</v>
+        <v>AUS - BAT (0 pts)</v>
       </c>
       <c r="C145" t="str">
         <v>(0 pts)</v>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Binura Fernando</v>
+        <v>Tom Blundell</v>
       </c>
       <c r="B146" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>NZ - WK (0 pts)</v>
       </c>
       <c r="C146" t="str">
         <v>(0 pts)</v>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Andile Phehlukwayo</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B147" t="str">
-        <v>SA - AR (0 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C147" t="str">
         <v>(0 pts)</v>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Dushan Hemantha</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B148" t="str">
-        <v>SL - AR (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C148" t="str">
         <v>(0 pts)</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Sahan Arachchige</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B149" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>PAK - AR (0 pts)</v>
       </c>
       <c r="C149" t="str">
         <v>(0 pts)</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Agha Salman</v>
+        <v>Andile Phehlukwayo</v>
       </c>
       <c r="B150" t="str">
-        <v>PAK - AR (0 pts)</v>
+        <v>SA - AR (0 pts)</v>
       </c>
       <c r="C150" t="str">
         <v>(0 pts)</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Axar Patel</v>
+        <v>Dushan Hemantha</v>
       </c>
       <c r="B151" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>SL - AR (0 pts)</v>
       </c>
       <c r="C151" t="str">
         <v>(0 pts)</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Pramod Madushan</v>
+        <v>Sahan Arachchige</v>
       </c>
       <c r="B152" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C152" t="str">
         <v>(0 pts)</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Afif Hossain</v>
+        <v>Pramod Madushan</v>
       </c>
       <c r="B153" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C153" t="str">
         <v>(0 pts)</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Gus Atkinson</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B154" t="str">
-        <v>ENG - BOWL (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Abdul Rahman</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B155" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C155" t="str">
         <v>(0 pts)</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Shamim Hossain</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B156" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>ENG - BOWL (0 pts)</v>
       </c>
       <c r="C156" t="str">
         <v>(0 pts)</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Mohammad Naim</v>
       </c>
       <c r="B157" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C157" t="str">
         <v>(0 pts)</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Riaz Hassan</v>
+        <v>Tanzim Hasan Sakib</v>
       </c>
       <c r="B158" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>BAN - BOWL (0 pts)</v>
       </c>
       <c r="C158" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Mohammad Naim</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B159" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>PAK - BOWL (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Tanzim Hasan Sakib</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B160" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Noor Ahmad</v>
+        <v>Abdul Rahman</v>
       </c>
       <c r="B161" t="str">
         <v>AFG - BOWL (0 pts)</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B163" t="str">
-        <v>PAK - BOWL (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C163" t="str">
         <v>(0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:C165"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,684 +415,684 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Rohit Sharma</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B4" t="str">
-        <v>IND - BAT (357 pts)</v>
+        <v>SA - AR (406 pts)</v>
       </c>
       <c r="C4" t="str">
-        <v>(357 pts)</v>
+        <v>(406 pts)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B5" t="str">
-        <v>NZ - AR (362 pts)</v>
+        <v>SA - WK (369 pts)</v>
       </c>
       <c r="C5" t="str">
-        <v>(362 pts)</v>
+        <v>(369 pts)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Devon Conway</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B6" t="str">
-        <v>NZ - WK (347 pts)</v>
+        <v>NZ - AR (362 pts)</v>
       </c>
       <c r="C6" t="str">
-        <v>(347 pts)</v>
+        <v>(362 pts)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Matt Henry</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B7" t="str">
-        <v>NZ - BOWL (341 pts)</v>
+        <v>IND - BAT (357 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(341 pts)</v>
+        <v>(357 pts)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Virat Kohli</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B8" t="str">
-        <v>IND - BAT (346 pts)</v>
+        <v>SL - BOWL (356 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(346 pts)</v>
+        <v>(356 pts)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>David Warner</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B9" t="str">
-        <v>AUS - BAT (336 pts)</v>
+        <v>NZ - WK (347 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(336 pts)</v>
+        <v>(347 pts)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Quinton de Kock</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B10" t="str">
-        <v>SA - WK (344 pts)</v>
+        <v>NED - AR (349 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(344 pts)</v>
+        <v>(349 pts)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Bas de Leede</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B11" t="str">
-        <v>NED - AR (337 pts)</v>
+        <v>IND - BAT (346 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(337 pts)</v>
+        <v>(346 pts)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B12" t="str">
-        <v>IND - BOWL (328 pts)</v>
+        <v>NZ - BOWL (341 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(328 pts)</v>
+        <v>(341 pts)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Shaheen Afridi</v>
+        <v>David Warner</v>
       </c>
       <c r="B13" t="str">
-        <v>PAK - BOWL (312 pts)</v>
+        <v>AUS - BAT (336 pts)</v>
       </c>
       <c r="C13" t="str">
-        <v>(312 pts)</v>
+        <v>(336 pts)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Adam Zampa</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B14" t="str">
-        <v>AUS - BOWL (310 pts)</v>
+        <v>SL - WK (334 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(310 pts)</v>
+        <v>(334 pts)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B15" t="str">
-        <v>PAK - BAT (271 pts)</v>
+        <v>IND - BOWL (328 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(271 pts)</v>
+        <v>(328 pts)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Joe Root</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B16" t="str">
-        <v>ENG - BAT (281 pts)</v>
+        <v>PAK - BOWL (312 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(281 pts)</v>
+        <v>(312 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Rashid Khan</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B17" t="str">
-        <v>AFG - BOWL (269 pts)</v>
+        <v>SA - BOWL (297 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(269 pts)</v>
+        <v>(297 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B18" t="str">
-        <v>BAN - AR (279 pts)</v>
+        <v>SL - WK (306 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(279 pts)</v>
+        <v>(306 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Marco Jansen</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B19" t="str">
-        <v>SA - AR (254 pts)</v>
+        <v>SA - WK (296 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(254 pts)</v>
+        <v>(296 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Kusal Mendis</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B20" t="str">
-        <v>SL - WK (295 pts)</v>
+        <v>SA - AR (284 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(295 pts)</v>
+        <v>(284 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Mitchell Starc</v>
+        <v>Joe Root</v>
       </c>
       <c r="B21" t="str">
-        <v>AUS - BOWL (274 pts)</v>
+        <v>ENG - BAT (285 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(274 pts)</v>
+        <v>(285 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B22" t="str">
-        <v>SA - BOWL (248 pts)</v>
+        <v>AUS - BOWL (310 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(248 pts)</v>
+        <v>(310 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Haris Rauf</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B23" t="str">
-        <v>PAK - BOWL (254 pts)</v>
+        <v>BAN - AR (279 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(254 pts)</v>
+        <v>(279 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B24" t="str">
-        <v>AFG - AR (252 pts)</v>
+        <v>NED - AR (277 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(252 pts)</v>
+        <v>(277 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B25" t="str">
-        <v>IND - AR (247 pts)</v>
+        <v>AUS - BOWL (274 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(247 pts)</v>
+        <v>(274 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Dawid Malan</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B26" t="str">
-        <v>ENG - BAT (242 pts)</v>
+        <v>PAK - BAT (271 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(242 pts)</v>
+        <v>(271 pts)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B27" t="str">
-        <v>AUS - AR (246 pts)</v>
+        <v>SA - BAT (269 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(246 pts)</v>
+        <v>(269 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>KL Rahul</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B28" t="str">
-        <v>IND - BAT (231 pts)</v>
+        <v>AFG - BOWL (269 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(231 pts)</v>
+        <v>(269 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Aiden Markram</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B29" t="str">
-        <v>SA - AR (234 pts)</v>
+        <v>PAK - BOWL (254 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(234 pts)</v>
+        <v>(254 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B30" t="str">
-        <v>BAN - AR (227 pts)</v>
+        <v>NED - BOWL (259 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(227 pts)</v>
+        <v>(259 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B31" t="str">
-        <v>IND - BOWL (228 pts)</v>
+        <v>AFG - AR (252 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(228 pts)</v>
+        <v>(252 pts)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B32" t="str">
-        <v>SL - BOWL (222 pts)</v>
+        <v>ENG - BOWL (260 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(222 pts)</v>
+        <v>(260 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Tom Latham</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B33" t="str">
-        <v>NZ - WK (220 pts)</v>
+        <v>ENG - BOWL (247 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(220 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B34" t="str">
-        <v>NZ - AR (219 pts)</v>
+        <v>IND - AR (247 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(219 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Hasan Ali</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B35" t="str">
-        <v>PAK - BOWL (227 pts)</v>
+        <v>NED - WK (245 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(227 pts)</v>
+        <v>(245 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Glenn Phillips</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B36" t="str">
-        <v>NZ - AR (218 pts)</v>
+        <v>ENG - BAT (253 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(218 pts)</v>
+        <v>(253 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Litton Das</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B37" t="str">
-        <v>BAN - WK (214 pts)</v>
+        <v>NED - BOWL (238 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(214 pts)</v>
+        <v>(238 pts)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B38" t="str">
-        <v>AFG - WK (214 pts)</v>
+        <v>IND - BAT (231 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(214 pts)</v>
+        <v>(231 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Scott Edwards</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B39" t="str">
-        <v>NED - WK (217 pts)</v>
+        <v>IND - BOWL (228 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(217 pts)</v>
+        <v>(228 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B40" t="str">
-        <v>BAN - WK (214 pts)</v>
+        <v>SA - BOWL (228 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(214 pts)</v>
+        <v>(228 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Colin Ackermann</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B41" t="str">
-        <v>NED - AR (206 pts)</v>
+        <v>BAN - AR (227 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(206 pts)</v>
+        <v>(227 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B42" t="str">
-        <v>SL - WK (200 pts)</v>
+        <v>NED - BOWL (227 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(200 pts)</v>
+        <v>(227 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B43" t="str">
-        <v>AFG - BOWL (195 pts)</v>
+        <v>AUS - AR (246 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(195 pts)</v>
+        <v>(246 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Adil Rashid</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B44" t="str">
-        <v>ENG - BOWL (187 pts)</v>
+        <v>NZ - WK (220 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(187 pts)</v>
+        <v>(220 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Pat Cummins</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B45" t="str">
-        <v>AUS - BOWL (213 pts)</v>
+        <v>PAK - BOWL (227 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(213 pts)</v>
+        <v>(227 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Saud Shakeel</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B46" t="str">
-        <v>PAK - BAT (187 pts)</v>
+        <v>SA - BOWL (244 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(187 pts)</v>
+        <v>(244 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B47" t="str">
-        <v>SA - BAT (185 pts)</v>
+        <v>NZ - AR (218 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(185 pts)</v>
+        <v>(218 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B48" t="str">
-        <v>NED - BOWL (182 pts)</v>
+        <v>BAN - WK (214 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(182 pts)</v>
+        <v>(214 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Litton Das</v>
       </c>
       <c r="B49" t="str">
-        <v>PAK - BAT (180 pts)</v>
+        <v>BAN - WK (214 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(180 pts)</v>
+        <v>(214 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B50" t="str">
-        <v>AUS - AR (178 pts)</v>
+        <v>AFG - WK (214 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(178 pts)</v>
+        <v>(214 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Will Young</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B51" t="str">
-        <v>NZ - BAT (178 pts)</v>
+        <v>SL - BAT (219 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(178 pts)</v>
+        <v>(219 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B52" t="str">
-        <v>NZ - BOWL (178 pts)</v>
+        <v>NZ - AR (219 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(178 pts)</v>
+        <v>(219 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B53" t="str">
-        <v>AUS - BOWL (176 pts)</v>
+        <v>AUS - BOWL (213 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(176 pts)</v>
+        <v>(213 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Reece Topley</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B54" t="str">
-        <v>ENG - BOWL (174 pts)</v>
+        <v>SL - BAT (203 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(174 pts)</v>
+        <v>(203 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Hardik Pandya</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B55" t="str">
-        <v>IND - AR (170 pts)</v>
+        <v>SL - BOWL (200 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(170 pts)</v>
+        <v>(200 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B56" t="str">
-        <v>NED - AR (169 pts)</v>
+        <v>SA - BOWL (199 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(169 pts)</v>
+        <v>(199 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Logan van Beek</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B57" t="str">
-        <v>NED - BOWL (168 pts)</v>
+        <v>BAN - BOWL (196 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(168 pts)</v>
+        <v>(196 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B58" t="str">
-        <v>AUS - BAT (168 pts)</v>
+        <v>AFG - BOWL (195 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(168 pts)</v>
+        <v>(195 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Trent Boult</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B59" t="str">
-        <v>NZ - BOWL (165 pts)</v>
+        <v>ENG - WK (193 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(165 pts)</v>
+        <v>(193 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Jos Buttler</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B60" t="str">
-        <v>ENG - WK (162 pts)</v>
+        <v>PAK - BAT (187 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(162 pts)</v>
+        <v>(187 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Aryan Dutt</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B61" t="str">
-        <v>NED - BOWL (160 pts)</v>
+        <v>NED - AR (180 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(160 pts)</v>
+        <v>(180 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B62" t="str">
-        <v>SA - BOWL (206 pts)</v>
+        <v>PAK - BAT (180 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(206 pts)</v>
+        <v>(180 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B63" t="str">
-        <v>AFG - BOWL (150 pts)</v>
+        <v>AUS - AR (178 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(150 pts)</v>
+        <v>(178 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Will Young</v>
       </c>
       <c r="B64" t="str">
-        <v>SA - WK (149 pts)</v>
+        <v>NZ - BAT (178 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(149 pts)</v>
+        <v>(178 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B65" t="str">
-        <v>PAK - AR (147 pts)</v>
+        <v>ENG - BOWL (187 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(147 pts)</v>
+        <v>(187 pts)</v>
       </c>
     </row>
     <row r="66">
@@ -1100,626 +1100,626 @@
         <v>Harry Brook</v>
       </c>
       <c r="B66" t="str">
-        <v>ENG - BAT (147 pts)</v>
+        <v>ENG - BAT (172 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(147 pts)</v>
+        <v>(172 pts)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B67" t="str">
-        <v>SL - BAT (146 pts)</v>
+        <v>NZ - BOWL (178 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(146 pts)</v>
+        <v>(178 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B68" t="str">
-        <v>IND - BAT (144 pts)</v>
+        <v>AUS - BOWL (176 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(144 pts)</v>
+        <v>(176 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Charith Asalanka</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B69" t="str">
-        <v>SL - BAT (143 pts)</v>
+        <v>IND - AR (170 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(143 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>David Miller</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B70" t="str">
-        <v>SA - BAT (141 pts)</v>
+        <v>AUS - BAT (168 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(141 pts)</v>
+        <v>(168 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B71" t="str">
-        <v>AFG - BAT (141 pts)</v>
+        <v>NZ - BOWL (165 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(141 pts)</v>
+        <v>(165 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B72" t="str">
-        <v>SA - BOWL (141 pts)</v>
+        <v>ENG - WK (158 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(141 pts)</v>
+        <v>(158 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B73" t="str">
-        <v>AFG - BAT (140 pts)</v>
+        <v>NED - AR (154 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(140 pts)</v>
+        <v>(154 pts)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Gerald Coetzee</v>
+        <v>David Miller</v>
       </c>
       <c r="B74" t="str">
-        <v>SA - BOWL (138 pts)</v>
+        <v>SA - BAT (159 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(138 pts)</v>
+        <v>(159 pts)</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Babar Azam</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B75" t="str">
-        <v>PAK - BAT (136 pts)</v>
+        <v>IND - BOWL (159 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(136 pts)</v>
+        <v>(159 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B76" t="str">
-        <v>BAN - AR (134 pts)</v>
+        <v>AFG - BOWL (150 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(134 pts)</v>
+        <v>(150 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B77" t="str">
-        <v>AFG - AR (134 pts)</v>
+        <v>PAK - AR (147 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(134 pts)</v>
+        <v>(147 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Shoriful Islam</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B78" t="str">
-        <v>BAN - BOWL (196 pts)</v>
+        <v>IND - BAT (144 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(196 pts)</v>
+        <v>(144 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Mark Wood</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B79" t="str">
-        <v>ENG - BOWL (134 pts)</v>
+        <v>AFG - BAT (141 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(134 pts)</v>
+        <v>(141 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B80" t="str">
-        <v>BAN - AR (133 pts)</v>
+        <v>AFG - BAT (140 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(133 pts)</v>
+        <v>(140 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Josh Inglis</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B81" t="str">
-        <v>AUS - WK (131 pts)</v>
+        <v>SL - WK (137 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(131 pts)</v>
+        <v>(137 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B82" t="str">
-        <v>BAN - BAT (127 pts)</v>
+        <v>PAK - BAT (136 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(127 pts)</v>
+        <v>(136 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B83" t="str">
-        <v>ENG - WK (125 pts)</v>
+        <v>BAN - AR (134 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(125 pts)</v>
+        <v>(134 pts)</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B84" t="str">
-        <v>AUS - AR (122 pts)</v>
+        <v>AFG - AR (134 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(122 pts)</v>
+        <v>(134 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B85" t="str">
-        <v>IND - BOWL (159 pts)</v>
+        <v>AUS - WK (131 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(159 pts)</v>
+        <v>(131 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B86" t="str">
-        <v>PAK - AR (134 pts)</v>
+        <v>BAN - AR (133 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(134 pts)</v>
+        <v>(133 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Kusal Perera</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B87" t="str">
-        <v>SL - WK (119 pts)</v>
+        <v>PAK - AR (134 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(119 pts)</v>
+        <v>(134 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Sam Curran</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B88" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>BAN - BAT (127 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(118 pts)</v>
+        <v>(127 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B89" t="str">
-        <v>AFG - WK (115 pts)</v>
+        <v>AUS - AR (122 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(115 pts)</v>
+        <v>(122 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Dasun Shanaka</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B90" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>IND - BAT (118 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(114 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B91" t="str">
-        <v>BAN - BAT (113 pts)</v>
+        <v>AFG - WK (115 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(113 pts)</v>
+        <v>(115 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Rahmat Shah</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B92" t="str">
-        <v>AFG - AR (110 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(110 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Shadab Khan</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B93" t="str">
-        <v>PAK - AR (108 pts)</v>
+        <v>BAN - BAT (113 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(108 pts)</v>
+        <v>(113 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B94" t="str">
-        <v>BAN - BAT (108 pts)</v>
+        <v>AFG - AR (110 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(108 pts)</v>
+        <v>(110 pts)</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B95" t="str">
-        <v>BAN - BOWL (106 pts)</v>
+        <v>PAK - AR (108 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(106 pts)</v>
+        <v>(108 pts)</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Liam Livingstone</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B96" t="str">
-        <v>ENG - AR (105 pts)</v>
+        <v>SA - BAT (118 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(105 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Chris Woakes</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B97" t="str">
-        <v>ENG - AR (102 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(102 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Vikram Singh</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B98" t="str">
-        <v>NED - AR (97 pts)</v>
+        <v>BAN - BAT (108 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(97 pts)</v>
+        <v>(108 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Kane Williamson</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B99" t="str">
-        <v>NZ - BAT (96 pts)</v>
+        <v>BAN - BOWL (106 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(96 pts)</v>
+        <v>(106 pts)</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Temba Bavuma</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B100" t="str">
-        <v>SA - BAT (95 pts)</v>
+        <v>NED - AR (106 pts)</v>
       </c>
       <c r="C100" t="str">
-        <v>(95 pts)</v>
+        <v>(106 pts)</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Steven Smith</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B101" t="str">
-        <v>AUS - BAT (94 pts)</v>
+        <v>ENG - AR (105 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(94 pts)</v>
+        <v>(105 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Fazalhaq Farooqi</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B102" t="str">
-        <v>AFG - BOWL (92 pts)</v>
+        <v>SL - AR (107 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(92 pts)</v>
+        <v>(107 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B103" t="str">
-        <v>BAN - BOWL (80 pts)</v>
+        <v>ENG - BOWL (104 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(80 pts)</v>
+        <v>(104 pts)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B104" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>ENG - AR (102 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(79 pts)</v>
+        <v>(102 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Shardul Thakur</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B105" t="str">
-        <v>IND - BOWL (78 pts)</v>
+        <v>NZ - BAT (96 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(78 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B106" t="str">
-        <v>SL - BOWL (76 pts)</v>
+        <v>SA - BAT (95 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(76 pts)</v>
+        <v>(95 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B107" t="str">
-        <v>NED - AR (70 pts)</v>
+        <v>AUS - BAT (94 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(70 pts)</v>
+        <v>(94 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Fazalhaq Farooqi</v>
       </c>
       <c r="B108" t="str">
-        <v>SL - AR (68 pts)</v>
+        <v>AFG - BOWL (92 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(68 pts)</v>
+        <v>(92 pts)</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B109" t="str">
-        <v>NED - BAT (66 pts)</v>
+        <v>NED - BAT (81 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(66 pts)</v>
+        <v>(81 pts)</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Ishan Kishan</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B110" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>BAN - BOWL (80 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(63 pts)</v>
+        <v>(80 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Mark Chapman</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B111" t="str">
-        <v>NZ - BAT (58 pts)</v>
+        <v>NED - BAT (79 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(58 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Max O'Dowd</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B112" t="str">
-        <v>NED - BAT (58 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(58 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B113" t="str">
-        <v>SA - BOWL (54 pts)</v>
+        <v>IND - BOWL (78 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(54 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B114" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>SL - BOWL (78 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(53 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Usama Mir</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B115" t="str">
-        <v>PAK - BOWL (39 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(39 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B116" t="str">
-        <v>SL - BOWL (39 pts)</v>
+        <v>NZ - BAT (58 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(39 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B117" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>SA - BOWL (54 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(37 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B118" t="str">
-        <v>PAK - BAT (35 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(35 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B119" t="str">
-        <v>NED - AR (31 pts)</v>
+        <v>PAK - BOWL (39 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(31 pts)</v>
+        <v>(39 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B120" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(27 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B121" t="str">
-        <v>BAN - BOWL (25 pts)</v>
+        <v>PAK - BAT (35 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(25 pts)</v>
+        <v>(35 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B122" t="str">
-        <v>BAN - BOWL (20 pts)</v>
+        <v>NED - AR (31 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(20 pts)</v>
+        <v>(31 pts)</v>
       </c>
     </row>
     <row r="123">
@@ -1727,150 +1727,150 @@
         <v>Chamika Karunaratne</v>
       </c>
       <c r="B123" t="str">
-        <v>SL - AR (20 pts)</v>
+        <v>SL - AR (28 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(20 pts)</v>
+        <v>(28 pts)</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Cameron Green</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B124" t="str">
-        <v>AUS - AR (18 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(18 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Moeen Ali</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B125" t="str">
-        <v>ENG - AR (16 pts)</v>
+        <v>BAN - BOWL (25 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(16 pts)</v>
+        <v>(25 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Ryan Klein</v>
+        <v>David Willey</v>
       </c>
       <c r="B126" t="str">
-        <v>NED - BOWL (16 pts)</v>
+        <v>ENG - AR (23 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(16 pts)</v>
+        <v>(23 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B127" t="str">
-        <v>SL - BOWL (9 pts)</v>
+        <v>BAN - BOWL (20 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(9 pts)</v>
+        <v>(20 pts)</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>James Neesham</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B128" t="str">
-        <v>NZ - AR (2 pts)</v>
+        <v>ENG - AR (18 pts)</v>
       </c>
       <c r="C128" t="str">
-        <v>(2 pts)</v>
+        <v>(18 pts)</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Alex Carey</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B129" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>AUS - AR (18 pts)</v>
       </c>
       <c r="C129" t="str">
-        <v>(1 pts)</v>
+        <v>(18 pts)</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Tim Southee</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B130" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>ENG - AR (16 pts)</v>
       </c>
       <c r="C130" t="str">
-        <v>(0 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Ryan Klein</v>
       </c>
       <c r="B131" t="str">
-        <v>SA - BAT (0 pts)</v>
+        <v>NED - BOWL (16 pts)</v>
       </c>
       <c r="C131" t="str">
-        <v>(0 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Wesley Barresi</v>
+        <v>Dushan Hemantha</v>
       </c>
       <c r="B132" t="str">
-        <v>NED - WK (0 pts)</v>
+        <v>SL - AR (9 pts)</v>
       </c>
       <c r="C132" t="str">
-        <v>(0 pts)</v>
+        <v>(9 pts)</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Ben Stokes</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B133" t="str">
-        <v>ENG - AR (0 pts)</v>
+        <v>SL - BOWL (9 pts)</v>
       </c>
       <c r="C133" t="str">
-        <v>(0 pts)</v>
+        <v>(9 pts)</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Anamul Haque</v>
+        <v>James Neesham</v>
       </c>
       <c r="B134" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>NZ - AR (2 pts)</v>
       </c>
       <c r="C134" t="str">
-        <v>(0 pts)</v>
+        <v>(2 pts)</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B135" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C135" t="str">
-        <v>(0 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B136" t="str">
-        <v>IND - BAT (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C136" t="str">
         <v>(0 pts)</v>
@@ -1878,10 +1878,10 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Mohammad Shami</v>
+        <v>Angelo Mathews</v>
       </c>
       <c r="B137" t="str">
-        <v>IND - BOWL (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C137" t="str">
         <v>(0 pts)</v>
@@ -1889,10 +1889,10 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Jason Roy</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B138" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>NED - WK (0 pts)</v>
       </c>
       <c r="C138" t="str">
         <v>(0 pts)</v>
@@ -1900,10 +1900,10 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>David Willey</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B139" t="str">
-        <v>ENG - AR (0 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C139" t="str">
         <v>(0 pts)</v>
@@ -1911,21 +1911,21 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Shubman Gill</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B140" t="str">
-        <v>IND - BAT (118 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C140" t="str">
-        <v>(118 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Sean Abbott</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B141" t="str">
-        <v>AUS - BOWL (0 pts)</v>
+        <v>IND - BAT (0 pts)</v>
       </c>
       <c r="C141" t="str">
         <v>(0 pts)</v>
@@ -1933,10 +1933,10 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Ashton Agar</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B142" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>IND - BOWL (0 pts)</v>
       </c>
       <c r="C142" t="str">
         <v>(0 pts)</v>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Ish Sodhi</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B143" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C143" t="str">
         <v>(0 pts)</v>
@@ -1955,10 +1955,10 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Lizaad Williams</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B144" t="str">
-        <v>SA - BOWL (0 pts)</v>
+        <v>AUS - BOWL (0 pts)</v>
       </c>
       <c r="C144" t="str">
         <v>(0 pts)</v>
@@ -1966,10 +1966,10 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Travis Head</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B145" t="str">
-        <v>AUS - BAT (0 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C145" t="str">
         <v>(0 pts)</v>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Tom Blundell</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B146" t="str">
-        <v>NZ - WK (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C146" t="str">
         <v>(0 pts)</v>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Axar Patel</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B147" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>SA - BOWL (0 pts)</v>
       </c>
       <c r="C147" t="str">
         <v>(0 pts)</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Binura Fernando</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B148" t="str">
         <v>SL - BOWL (0 pts)</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Agha Salman</v>
+        <v>Travis Head</v>
       </c>
       <c r="B149" t="str">
-        <v>PAK - AR (0 pts)</v>
+        <v>AUS - BAT (0 pts)</v>
       </c>
       <c r="C149" t="str">
         <v>(0 pts)</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Andile Phehlukwayo</v>
+        <v>Tom Blundell</v>
       </c>
       <c r="B150" t="str">
-        <v>SA - AR (0 pts)</v>
+        <v>NZ - WK (0 pts)</v>
       </c>
       <c r="C150" t="str">
         <v>(0 pts)</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Dushan Hemantha</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B151" t="str">
-        <v>SL - AR (0 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C151" t="str">
         <v>(0 pts)</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Sahan Arachchige</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B152" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C152" t="str">
         <v>(0 pts)</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Pramod Madushan</v>
+        <v>Sahan Arachchige</v>
       </c>
       <c r="B153" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C153" t="str">
         <v>(0 pts)</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Afif Hossain</v>
+        <v>Andile Phehlukwayo</v>
       </c>
       <c r="B154" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>SA - AR (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Riaz Hassan</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B155" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>PAK - AR (0 pts)</v>
       </c>
       <c r="C155" t="str">
         <v>(0 pts)</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Gus Atkinson</v>
+        <v>Pramod Madushan</v>
       </c>
       <c r="B156" t="str">
-        <v>ENG - BOWL (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C156" t="str">
         <v>(0 pts)</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Mohammad Naim</v>
+        <v>Abdul Rahman</v>
       </c>
       <c r="B157" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C157" t="str">
         <v>(0 pts)</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Tanzim Hasan Sakib</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B158" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C158" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Mohammad Naim</v>
       </c>
       <c r="B159" t="str">
-        <v>PAK - BOWL (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Shamim Hossain</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B160" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Abdul Rahman</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B161" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C161" t="str">
         <v>(0 pts)</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Tanzim Hasan Sakib</v>
       </c>
       <c r="B162" t="str">
-        <v>NED - BOWL (0 pts)</v>
+        <v>BAN - BOWL (0 pts)</v>
       </c>
       <c r="C162" t="str">
         <v>(0 pts)</v>
@@ -2164,18 +2164,40 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
+        <v>Shariz Ahmad</v>
+      </c>
+      <c r="B163" t="str">
+        <v>NED - BOWL (0 pts)</v>
+      </c>
+      <c r="C163" t="str">
+        <v>(0 pts)</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
         <v>Noor Ahmad</v>
       </c>
-      <c r="B163" t="str">
+      <c r="B164" t="str">
         <v>AFG - BOWL (0 pts)</v>
       </c>
-      <c r="C163" t="str">
+      <c r="C164" t="str">
+        <v>(0 pts)</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>Mohammad Wasim</v>
+      </c>
+      <c r="B165" t="str">
+        <v>PAK - BOWL (0 pts)</v>
+      </c>
+      <c r="C165" t="str">
         <v>(0 pts)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C163"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C165"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -393,112 +393,112 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Mitchell Santner</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B2" t="str">
-        <v>NZ - AR (416 pts)</v>
+        <v>IND - BAT (477 pts)</v>
       </c>
       <c r="C2" t="str">
-        <v>(416 pts)</v>
+        <v>(477 pts)</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B3" t="str">
-        <v>PAK - WK (410 pts)</v>
+        <v>NZ - AR (456 pts)</v>
       </c>
       <c r="C3" t="str">
-        <v>(410 pts)</v>
+        <v>(456 pts)</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Marco Jansen</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B4" t="str">
-        <v>SA - AR (406 pts)</v>
+        <v>IND - BAT (429 pts)</v>
       </c>
       <c r="C4" t="str">
-        <v>(406 pts)</v>
+        <v>(429 pts)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Quinton de Kock</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B5" t="str">
-        <v>SA - WK (369 pts)</v>
+        <v>NZ - AR (453 pts)</v>
       </c>
       <c r="C5" t="str">
-        <v>(369 pts)</v>
+        <v>(453 pts)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B6" t="str">
-        <v>NZ - AR (362 pts)</v>
+        <v>PAK - WK (410 pts)</v>
       </c>
       <c r="C6" t="str">
-        <v>(362 pts)</v>
+        <v>(410 pts)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Rohit Sharma</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B7" t="str">
-        <v>IND - BAT (357 pts)</v>
+        <v>SA - AR (406 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(357 pts)</v>
+        <v>(406 pts)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B8" t="str">
-        <v>SL - BOWL (356 pts)</v>
+        <v>NZ - AR (390 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(356 pts)</v>
+        <v>(390 pts)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Devon Conway</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B9" t="str">
-        <v>NZ - WK (347 pts)</v>
+        <v>IND - BOWL (363 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(347 pts)</v>
+        <v>(363 pts)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Bas de Leede</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B10" t="str">
-        <v>NED - AR (349 pts)</v>
+        <v>NZ - WK (356 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(349 pts)</v>
+        <v>(356 pts)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Virat Kohli</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B11" t="str">
-        <v>IND - BAT (346 pts)</v>
+        <v>SA - WK (369 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(346 pts)</v>
+        <v>(369 pts)</v>
       </c>
     </row>
     <row r="12">
@@ -506,370 +506,370 @@
         <v>Matt Henry</v>
       </c>
       <c r="B12" t="str">
-        <v>NZ - BOWL (341 pts)</v>
+        <v>NZ - BOWL (370 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(341 pts)</v>
+        <v>(370 pts)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>David Warner</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B13" t="str">
-        <v>AUS - BAT (336 pts)</v>
+        <v>SL - BOWL (356 pts)</v>
       </c>
       <c r="C13" t="str">
-        <v>(336 pts)</v>
+        <v>(356 pts)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Kusal Mendis</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B14" t="str">
-        <v>SL - WK (334 pts)</v>
+        <v>NED - AR (349 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(334 pts)</v>
+        <v>(349 pts)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>David Warner</v>
       </c>
       <c r="B15" t="str">
-        <v>IND - BOWL (328 pts)</v>
+        <v>AUS - BAT (336 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(328 pts)</v>
+        <v>(336 pts)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B16" t="str">
-        <v>PAK - BOWL (312 pts)</v>
+        <v>SL - WK (334 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(312 pts)</v>
+        <v>(334 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B17" t="str">
-        <v>SA - BOWL (297 pts)</v>
+        <v>AUS - BOWL (310 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(297 pts)</v>
+        <v>(310 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B18" t="str">
-        <v>SL - WK (306 pts)</v>
+        <v>PAK - BOWL (312 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(306 pts)</v>
+        <v>(312 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B19" t="str">
-        <v>SA - WK (296 pts)</v>
+        <v>SL - WK (306 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(296 pts)</v>
+        <v>(306 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Aiden Markram</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B20" t="str">
-        <v>SA - AR (284 pts)</v>
+        <v>SA - BOWL (297 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(284 pts)</v>
+        <v>(297 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Joe Root</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B21" t="str">
-        <v>ENG - BAT (285 pts)</v>
+        <v>SA - WK (296 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(285 pts)</v>
+        <v>(296 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Adam Zampa</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B22" t="str">
-        <v>AUS - BOWL (310 pts)</v>
+        <v>IND - AR (295 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(310 pts)</v>
+        <v>(295 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B23" t="str">
-        <v>BAN - AR (279 pts)</v>
+        <v>SA - AR (284 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(279 pts)</v>
+        <v>(284 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Colin Ackermann</v>
+        <v>Joe Root</v>
       </c>
       <c r="B24" t="str">
-        <v>NED - AR (277 pts)</v>
+        <v>ENG - BAT (285 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(277 pts)</v>
+        <v>(285 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Mitchell Starc</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B25" t="str">
-        <v>AUS - BOWL (274 pts)</v>
+        <v>BAN - AR (279 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(274 pts)</v>
+        <v>(279 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B26" t="str">
-        <v>PAK - BAT (271 pts)</v>
+        <v>IND - BOWL (288 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(271 pts)</v>
+        <v>(288 pts)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B27" t="str">
-        <v>SA - BAT (269 pts)</v>
+        <v>NED - AR (277 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(269 pts)</v>
+        <v>(277 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Rashid Khan</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B28" t="str">
-        <v>AFG - BOWL (269 pts)</v>
+        <v>IND - BAT (277 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(269 pts)</v>
+        <v>(277 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Haris Rauf</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B29" t="str">
-        <v>PAK - BOWL (254 pts)</v>
+        <v>AUS - BOWL (274 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(254 pts)</v>
+        <v>(274 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Aryan Dutt</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B30" t="str">
-        <v>NED - BOWL (259 pts)</v>
+        <v>AFG - BOWL (269 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(259 pts)</v>
+        <v>(269 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B31" t="str">
-        <v>AFG - AR (252 pts)</v>
+        <v>ENG - BOWL (260 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(252 pts)</v>
+        <v>(260 pts)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Adil Rashid</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B32" t="str">
-        <v>ENG - BOWL (260 pts)</v>
+        <v>SA - BAT (269 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(260 pts)</v>
+        <v>(269 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Reece Topley</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B33" t="str">
-        <v>ENG - BOWL (247 pts)</v>
+        <v>PAK - BAT (271 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(247 pts)</v>
+        <v>(271 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B34" t="str">
-        <v>IND - AR (247 pts)</v>
+        <v>PAK - BOWL (254 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(247 pts)</v>
+        <v>(254 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Scott Edwards</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B35" t="str">
-        <v>NED - WK (245 pts)</v>
+        <v>ENG - BAT (253 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(245 pts)</v>
+        <v>(253 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Dawid Malan</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B36" t="str">
-        <v>ENG - BAT (253 pts)</v>
+        <v>NZ - AR (255 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(253 pts)</v>
+        <v>(255 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Logan van Beek</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B37" t="str">
-        <v>NED - BOWL (238 pts)</v>
+        <v>ENG - BOWL (247 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(238 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>KL Rahul</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B38" t="str">
-        <v>IND - BAT (231 pts)</v>
+        <v>AUS - AR (246 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(231 pts)</v>
+        <v>(246 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B39" t="str">
-        <v>IND - BOWL (228 pts)</v>
+        <v>AFG - AR (252 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(228 pts)</v>
+        <v>(252 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B40" t="str">
-        <v>SA - BOWL (228 pts)</v>
+        <v>NED - BOWL (259 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(228 pts)</v>
+        <v>(259 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B41" t="str">
-        <v>BAN - AR (227 pts)</v>
+        <v>NED - WK (245 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(227 pts)</v>
+        <v>(245 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B42" t="str">
-        <v>NED - BOWL (227 pts)</v>
+        <v>NED - BOWL (238 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(227 pts)</v>
+        <v>(238 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B43" t="str">
-        <v>AUS - AR (246 pts)</v>
+        <v>NZ - WK (236 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(246 pts)</v>
+        <v>(236 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Tom Latham</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B44" t="str">
-        <v>NZ - WK (220 pts)</v>
+        <v>SA - BOWL (228 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(220 pts)</v>
+        <v>(228 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Hasan Ali</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B45" t="str">
-        <v>PAK - BOWL (227 pts)</v>
+        <v>BAN - AR (227 pts)</v>
       </c>
       <c r="C45" t="str">
         <v>(227 pts)</v>
@@ -877,40 +877,40 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B46" t="str">
-        <v>SA - BOWL (244 pts)</v>
+        <v>NED - BOWL (227 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(244 pts)</v>
+        <v>(227 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Glenn Phillips</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B47" t="str">
-        <v>NZ - AR (218 pts)</v>
+        <v>PAK - BOWL (227 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(218 pts)</v>
+        <v>(227 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B48" t="str">
-        <v>BAN - WK (214 pts)</v>
+        <v>SL - BAT (219 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(214 pts)</v>
+        <v>(219 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Litton Das</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B49" t="str">
         <v>BAN - WK (214 pts)</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Litton Das</v>
       </c>
       <c r="B50" t="str">
-        <v>AFG - WK (214 pts)</v>
+        <v>BAN - WK (214 pts)</v>
       </c>
       <c r="C50" t="str">
         <v>(214 pts)</v>
@@ -932,255 +932,255 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B51" t="str">
-        <v>SL - BAT (219 pts)</v>
+        <v>AFG - WK (214 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(219 pts)</v>
+        <v>(214 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B52" t="str">
-        <v>NZ - AR (219 pts)</v>
+        <v>AUS - BOWL (213 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(219 pts)</v>
+        <v>(213 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Pat Cummins</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B53" t="str">
-        <v>AUS - BOWL (213 pts)</v>
+        <v>NZ - BOWL (239 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(213 pts)</v>
+        <v>(239 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Charith Asalanka</v>
+        <v>Will Young</v>
       </c>
       <c r="B54" t="str">
-        <v>SL - BAT (203 pts)</v>
+        <v>NZ - BAT (202 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(203 pts)</v>
+        <v>(202 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B55" t="str">
-        <v>SL - BOWL (200 pts)</v>
+        <v>SL - BAT (203 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(200 pts)</v>
+        <v>(203 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B56" t="str">
-        <v>SA - BOWL (199 pts)</v>
+        <v>SA - BOWL (244 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(199 pts)</v>
+        <v>(244 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Shoriful Islam</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B57" t="str">
-        <v>BAN - BOWL (196 pts)</v>
+        <v>NZ - BOWL (200 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(196 pts)</v>
+        <v>(200 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B58" t="str">
-        <v>AFG - BOWL (195 pts)</v>
+        <v>SL - BOWL (200 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(195 pts)</v>
+        <v>(200 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Jos Buttler</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B59" t="str">
-        <v>ENG - WK (193 pts)</v>
+        <v>SA - BOWL (199 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(193 pts)</v>
+        <v>(199 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Saud Shakeel</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B60" t="str">
-        <v>PAK - BAT (187 pts)</v>
+        <v>IND - BAT (197 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(187 pts)</v>
+        <v>(197 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B61" t="str">
-        <v>NED - AR (180 pts)</v>
+        <v>BAN - BOWL (196 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(180 pts)</v>
+        <v>(196 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B62" t="str">
-        <v>PAK - BAT (180 pts)</v>
+        <v>AFG - BOWL (195 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(180 pts)</v>
+        <v>(195 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B63" t="str">
-        <v>AUS - AR (178 pts)</v>
+        <v>IND - BOWL (194 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(178 pts)</v>
+        <v>(194 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Will Young</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B64" t="str">
-        <v>NZ - BAT (178 pts)</v>
+        <v>ENG - BOWL (187 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(178 pts)</v>
+        <v>(187 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Mark Wood</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B65" t="str">
-        <v>ENG - BOWL (187 pts)</v>
+        <v>ENG - WK (193 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(187 pts)</v>
+        <v>(193 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Harry Brook</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B66" t="str">
-        <v>ENG - BAT (172 pts)</v>
+        <v>PAK - BAT (187 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(172 pts)</v>
+        <v>(187 pts)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B67" t="str">
-        <v>NZ - BOWL (178 pts)</v>
+        <v>PAK - BAT (180 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(178 pts)</v>
+        <v>(180 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B68" t="str">
-        <v>AUS - BOWL (176 pts)</v>
+        <v>AUS - AR (178 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(176 pts)</v>
+        <v>(178 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Hardik Pandya</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B69" t="str">
-        <v>IND - AR (170 pts)</v>
+        <v>AUS - BOWL (176 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(170 pts)</v>
+        <v>(176 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B70" t="str">
-        <v>AUS - BAT (168 pts)</v>
+        <v>NED - AR (180 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(168 pts)</v>
+        <v>(180 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Trent Boult</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B71" t="str">
-        <v>NZ - BOWL (165 pts)</v>
+        <v>ENG - BAT (172 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(165 pts)</v>
+        <v>(172 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B72" t="str">
-        <v>ENG - WK (158 pts)</v>
+        <v>IND - AR (170 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(158 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B73" t="str">
-        <v>NED - AR (154 pts)</v>
+        <v>AUS - BAT (168 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(154 pts)</v>
+        <v>(168 pts)</v>
       </c>
     </row>
     <row r="74">
@@ -1196,145 +1196,145 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B75" t="str">
-        <v>IND - BOWL (159 pts)</v>
+        <v>ENG - WK (158 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(159 pts)</v>
+        <v>(158 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B76" t="str">
-        <v>AFG - BOWL (150 pts)</v>
+        <v>IND - BOWL (162 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(150 pts)</v>
+        <v>(162 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B77" t="str">
-        <v>PAK - AR (147 pts)</v>
+        <v>IND - BAT (161 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(147 pts)</v>
+        <v>(161 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B78" t="str">
-        <v>IND - BAT (144 pts)</v>
+        <v>NED - AR (154 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(144 pts)</v>
+        <v>(154 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B79" t="str">
-        <v>AFG - BAT (141 pts)</v>
+        <v>AFG - BOWL (150 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(141 pts)</v>
+        <v>(150 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B80" t="str">
-        <v>AFG - BAT (140 pts)</v>
+        <v>PAK - AR (147 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(140 pts)</v>
+        <v>(147 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Kusal Perera</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B81" t="str">
-        <v>SL - WK (137 pts)</v>
+        <v>AFG - BAT (141 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(137 pts)</v>
+        <v>(141 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Babar Azam</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B82" t="str">
-        <v>PAK - BAT (136 pts)</v>
+        <v>AFG - BAT (140 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(136 pts)</v>
+        <v>(140 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B83" t="str">
-        <v>BAN - AR (134 pts)</v>
+        <v>SL - WK (137 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(134 pts)</v>
+        <v>(137 pts)</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B84" t="str">
-        <v>AFG - AR (134 pts)</v>
+        <v>PAK - BAT (136 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(134 pts)</v>
+        <v>(136 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Josh Inglis</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B85" t="str">
-        <v>AUS - WK (131 pts)</v>
+        <v>BAN - AR (134 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(131 pts)</v>
+        <v>(134 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B86" t="str">
-        <v>BAN - AR (133 pts)</v>
+        <v>AFG - AR (134 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(133 pts)</v>
+        <v>(134 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B87" t="str">
-        <v>PAK - AR (134 pts)</v>
+        <v>AUS - WK (131 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(134 pts)</v>
+        <v>(131 pts)</v>
       </c>
     </row>
     <row r="88">
@@ -1350,112 +1350,112 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B89" t="str">
-        <v>AUS - AR (122 pts)</v>
+        <v>PAK - AR (134 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(122 pts)</v>
+        <v>(134 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Shubman Gill</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B90" t="str">
-        <v>IND - BAT (118 pts)</v>
+        <v>BAN - AR (133 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(118 pts)</v>
+        <v>(133 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B91" t="str">
-        <v>AFG - WK (115 pts)</v>
+        <v>AUS - AR (122 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(115 pts)</v>
+        <v>(122 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Dasun Shanaka</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B92" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>SA - BAT (118 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(114 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B93" t="str">
-        <v>BAN - BAT (113 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(113 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Rahmat Shah</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B94" t="str">
-        <v>AFG - AR (110 pts)</v>
+        <v>BAN - BAT (113 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(110 pts)</v>
+        <v>(113 pts)</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Shadab Khan</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B95" t="str">
-        <v>PAK - AR (108 pts)</v>
+        <v>AFG - AR (110 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(108 pts)</v>
+        <v>(110 pts)</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B96" t="str">
-        <v>SA - BAT (118 pts)</v>
+        <v>AFG - WK (115 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(118 pts)</v>
+        <v>(115 pts)</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Sam Curran</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B97" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>BAN - BAT (108 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(118 pts)</v>
+        <v>(108 pts)</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B98" t="str">
-        <v>BAN - BAT (108 pts)</v>
+        <v>SL - AR (107 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(108 pts)</v>
+        <v>(107 pts)</v>
       </c>
     </row>
     <row r="99">
@@ -1482,131 +1482,131 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Liam Livingstone</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B101" t="str">
-        <v>ENG - AR (105 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(105 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B102" t="str">
-        <v>SL - AR (107 pts)</v>
+        <v>PAK - AR (108 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(107 pts)</v>
+        <v>(108 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Gus Atkinson</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B103" t="str">
-        <v>ENG - BOWL (104 pts)</v>
+        <v>ENG - AR (102 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(104 pts)</v>
+        <v>(102 pts)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Chris Woakes</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B104" t="str">
-        <v>ENG - AR (102 pts)</v>
+        <v>NZ - BAT (96 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(102 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Kane Williamson</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B105" t="str">
-        <v>NZ - BAT (96 pts)</v>
+        <v>SA - BAT (95 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(96 pts)</v>
+        <v>(95 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Temba Bavuma</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B106" t="str">
-        <v>SA - BAT (95 pts)</v>
+        <v>AUS - BAT (94 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(95 pts)</v>
+        <v>(94 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Steven Smith</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B107" t="str">
-        <v>AUS - BAT (94 pts)</v>
+        <v>ENG - BOWL (104 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(94 pts)</v>
+        <v>(104 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Fazalhaq Farooqi</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B108" t="str">
-        <v>AFG - BOWL (92 pts)</v>
+        <v>ENG - AR (105 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(92 pts)</v>
+        <v>(105 pts)</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Max O'Dowd</v>
+        <v>Fazalhaq Farooqi</v>
       </c>
       <c r="B109" t="str">
-        <v>NED - BAT (81 pts)</v>
+        <v>AFG - BOWL (92 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(81 pts)</v>
+        <v>(92 pts)</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B110" t="str">
-        <v>BAN - BOWL (80 pts)</v>
+        <v>NED - BAT (81 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(80 pts)</v>
+        <v>(81 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B111" t="str">
-        <v>NED - BAT (79 pts)</v>
+        <v>BAN - BOWL (80 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(79 pts)</v>
+        <v>(80 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B112" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>NED - BAT (79 pts)</v>
       </c>
       <c r="C112" t="str">
         <v>(79 pts)</v>
@@ -1614,24 +1614,24 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Shardul Thakur</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B113" t="str">
-        <v>IND - BOWL (78 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(78 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B114" t="str">
-        <v>SL - BOWL (78 pts)</v>
+        <v>NZ - BAT (68 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(78 pts)</v>
+        <v>(68 pts)</v>
       </c>
     </row>
     <row r="115">
@@ -1647,57 +1647,57 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Mark Chapman</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B116" t="str">
-        <v>NZ - BAT (58 pts)</v>
+        <v>SA - BOWL (54 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(58 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B117" t="str">
-        <v>SA - BOWL (54 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(54 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B118" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>SL - BOWL (78 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(53 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Usama Mir</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B119" t="str">
-        <v>PAK - BOWL (39 pts)</v>
+        <v>IND - BOWL (78 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(39 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B120" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>PAK - BOWL (39 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(37 pts)</v>
+        <v>(39 pts)</v>
       </c>
     </row>
     <row r="121">
@@ -1779,10 +1779,10 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Ben Stokes</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B128" t="str">
-        <v>ENG - AR (18 pts)</v>
+        <v>AUS - AR (18 pts)</v>
       </c>
       <c r="C128" t="str">
         <v>(18 pts)</v>
@@ -1790,13 +1790,13 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Cameron Green</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B129" t="str">
-        <v>AUS - AR (18 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C129" t="str">
-        <v>(18 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="130">
@@ -1845,43 +1845,43 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>James Neesham</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B134" t="str">
-        <v>NZ - AR (2 pts)</v>
+        <v>IND - BAT (6 pts)</v>
       </c>
       <c r="C134" t="str">
-        <v>(2 pts)</v>
+        <v>(6 pts)</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Alex Carey</v>
+        <v>James Neesham</v>
       </c>
       <c r="B135" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>NZ - AR (2 pts)</v>
       </c>
       <c r="C135" t="str">
-        <v>(1 pts)</v>
+        <v>(2 pts)</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Tim Southee</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B136" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C136" t="str">
-        <v>(0 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Angelo Mathews</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B137" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C137" t="str">
         <v>(0 pts)</v>
@@ -1889,10 +1889,10 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Wesley Barresi</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B138" t="str">
-        <v>NED - WK (0 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C138" t="str">
         <v>(0 pts)</v>
@@ -1900,10 +1900,10 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Anamul Haque</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B139" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>NED - WK (0 pts)</v>
       </c>
       <c r="C139" t="str">
         <v>(0 pts)</v>
@@ -1911,21 +1911,21 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B140" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>ENG - AR (18 pts)</v>
       </c>
       <c r="C140" t="str">
-        <v>(0 pts)</v>
+        <v>(18 pts)</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Angelo Mathews</v>
       </c>
       <c r="B141" t="str">
-        <v>IND - BAT (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C141" t="str">
         <v>(0 pts)</v>
@@ -1933,10 +1933,10 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Mohammad Shami</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B142" t="str">
-        <v>IND - BOWL (0 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C142" t="str">
         <v>(0 pts)</v>
@@ -1955,10 +1955,10 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Sean Abbott</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B144" t="str">
-        <v>AUS - BOWL (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C144" t="str">
         <v>(0 pts)</v>
@@ -1966,10 +1966,10 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Ashton Agar</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B145" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>SA - BOWL (0 pts)</v>
       </c>
       <c r="C145" t="str">
         <v>(0 pts)</v>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Ish Sodhi</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B146" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C146" t="str">
         <v>(0 pts)</v>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Lizaad Williams</v>
+        <v>Travis Head</v>
       </c>
       <c r="B147" t="str">
-        <v>SA - BOWL (0 pts)</v>
+        <v>AUS - BAT (0 pts)</v>
       </c>
       <c r="C147" t="str">
         <v>(0 pts)</v>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Tom Blundell</v>
       </c>
       <c r="B148" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>NZ - WK (0 pts)</v>
       </c>
       <c r="C148" t="str">
         <v>(0 pts)</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Travis Head</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B149" t="str">
-        <v>AUS - BAT (0 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C149" t="str">
         <v>(0 pts)</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Tom Blundell</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B150" t="str">
-        <v>NZ - WK (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C150" t="str">
         <v>(0 pts)</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Axar Patel</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B151" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>PAK - AR (0 pts)</v>
       </c>
       <c r="C151" t="str">
         <v>(0 pts)</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Binura Fernando</v>
+        <v>Andile Phehlukwayo</v>
       </c>
       <c r="B152" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>SA - AR (0 pts)</v>
       </c>
       <c r="C152" t="str">
         <v>(0 pts)</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Sahan Arachchige</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B153" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>AUS - BOWL (0 pts)</v>
       </c>
       <c r="C153" t="str">
         <v>(0 pts)</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Andile Phehlukwayo</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B154" t="str">
-        <v>SA - AR (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Agha Salman</v>
+        <v>Sahan Arachchige</v>
       </c>
       <c r="B155" t="str">
-        <v>PAK - AR (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C155" t="str">
         <v>(0 pts)</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Pramod Madushan</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B156" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C156" t="str">
         <v>(0 pts)</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Abdul Rahman</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B157" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C157" t="str">
         <v>(0 pts)</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Shamim Hossain</v>
+        <v>Pramod Madushan</v>
       </c>
       <c r="B158" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C158" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Mohammad Naim</v>
+        <v>Abdul Rahman</v>
       </c>
       <c r="B159" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Afif Hossain</v>
+        <v>Tanzim Hasan Sakib</v>
       </c>
       <c r="B160" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>BAN - BOWL (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Riaz Hassan</v>
+        <v>Mohammad Naim</v>
       </c>
       <c r="B161" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C161" t="str">
         <v>(0 pts)</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Tanzim Hasan Sakib</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B162" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C162" t="str">
         <v>(0 pts)</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B163" t="str">
-        <v>NED - BOWL (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C163" t="str">
         <v>(0 pts)</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Noor Ahmad</v>
+        <v>Shariz Ahmad</v>
       </c>
       <c r="B164" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>NED - BOWL (0 pts)</v>
       </c>
       <c r="C164" t="str">
         <v>(0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -415,35 +415,35 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Rohit Sharma</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B4" t="str">
-        <v>IND - BAT (429 pts)</v>
+        <v>NZ - AR (453 pts)</v>
       </c>
       <c r="C4" t="str">
-        <v>(429 pts)</v>
+        <v>(453 pts)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B5" t="str">
-        <v>NZ - AR (453 pts)</v>
+        <v>PAK - WK (432 pts)</v>
       </c>
       <c r="C5" t="str">
-        <v>(453 pts)</v>
+        <v>(432 pts)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B6" t="str">
-        <v>PAK - WK (410 pts)</v>
+        <v>IND - BAT (429 pts)</v>
       </c>
       <c r="C6" t="str">
-        <v>(410 pts)</v>
+        <v>(429 pts)</v>
       </c>
     </row>
     <row r="7">
@@ -470,46 +470,46 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B9" t="str">
-        <v>IND - BOWL (363 pts)</v>
+        <v>NZ - BOWL (370 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(363 pts)</v>
+        <v>(370 pts)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Devon Conway</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B10" t="str">
-        <v>NZ - WK (356 pts)</v>
+        <v>SA - WK (369 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(356 pts)</v>
+        <v>(369 pts)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Quinton de Kock</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B11" t="str">
-        <v>SA - WK (369 pts)</v>
+        <v>IND - BOWL (363 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(369 pts)</v>
+        <v>(363 pts)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Matt Henry</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B12" t="str">
-        <v>NZ - BOWL (370 pts)</v>
+        <v>NZ - WK (356 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(370 pts)</v>
+        <v>(356 pts)</v>
       </c>
     </row>
     <row r="13">
@@ -525,835 +525,835 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Bas de Leede</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B14" t="str">
-        <v>NED - AR (349 pts)</v>
+        <v>PAK - BAT (346 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(349 pts)</v>
+        <v>(346 pts)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>David Warner</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B15" t="str">
-        <v>AUS - BAT (336 pts)</v>
+        <v>NED - AR (349 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(336 pts)</v>
+        <v>(349 pts)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Kusal Mendis</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B16" t="str">
-        <v>SL - WK (334 pts)</v>
+        <v>PAK - BOWL (344 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(334 pts)</v>
+        <v>(344 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Adam Zampa</v>
+        <v>David Warner</v>
       </c>
       <c r="B17" t="str">
-        <v>AUS - BOWL (310 pts)</v>
+        <v>AUS - BAT (336 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(310 pts)</v>
+        <v>(336 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B18" t="str">
-        <v>PAK - BOWL (312 pts)</v>
+        <v>SL - WK (334 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(312 pts)</v>
+        <v>(334 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B19" t="str">
-        <v>SL - WK (306 pts)</v>
+        <v>AUS - BOWL (310 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(306 pts)</v>
+        <v>(310 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B20" t="str">
-        <v>SA - BOWL (297 pts)</v>
+        <v>SL - WK (306 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(297 pts)</v>
+        <v>(306 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B21" t="str">
-        <v>SA - WK (296 pts)</v>
+        <v>SA - BOWL (297 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(296 pts)</v>
+        <v>(297 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B22" t="str">
-        <v>IND - AR (295 pts)</v>
+        <v>AFG - WK (302 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(295 pts)</v>
+        <v>(302 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Aiden Markram</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B23" t="str">
-        <v>SA - AR (284 pts)</v>
+        <v>SA - WK (296 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(284 pts)</v>
+        <v>(296 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Joe Root</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B24" t="str">
-        <v>ENG - BAT (285 pts)</v>
+        <v>IND - AR (295 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(285 pts)</v>
+        <v>(295 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B25" t="str">
-        <v>BAN - AR (279 pts)</v>
+        <v>IND - BOWL (288 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(279 pts)</v>
+        <v>(288 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B26" t="str">
-        <v>IND - BOWL (288 pts)</v>
+        <v>SA - AR (284 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(288 pts)</v>
+        <v>(284 pts)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Colin Ackermann</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B27" t="str">
-        <v>NED - AR (277 pts)</v>
+        <v>AFG - AR (283 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(277 pts)</v>
+        <v>(283 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>KL Rahul</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B28" t="str">
-        <v>IND - BAT (277 pts)</v>
+        <v>BAN - AR (279 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(277 pts)</v>
+        <v>(279 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Mitchell Starc</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B29" t="str">
-        <v>AUS - BOWL (274 pts)</v>
+        <v>AFG - BOWL (283 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(274 pts)</v>
+        <v>(283 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Rashid Khan</v>
+        <v>Joe Root</v>
       </c>
       <c r="B30" t="str">
-        <v>AFG - BOWL (269 pts)</v>
+        <v>ENG - BAT (285 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(269 pts)</v>
+        <v>(285 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Adil Rashid</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B31" t="str">
-        <v>ENG - BOWL (260 pts)</v>
+        <v>NED - AR (277 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(260 pts)</v>
+        <v>(277 pts)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B32" t="str">
-        <v>SA - BAT (269 pts)</v>
+        <v>IND - BAT (277 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(269 pts)</v>
+        <v>(277 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B33" t="str">
-        <v>PAK - BAT (271 pts)</v>
+        <v>AUS - BOWL (274 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(271 pts)</v>
+        <v>(274 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Haris Rauf</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B34" t="str">
-        <v>PAK - BOWL (254 pts)</v>
+        <v>SA - BAT (269 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(254 pts)</v>
+        <v>(269 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Dawid Malan</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B35" t="str">
-        <v>ENG - BAT (253 pts)</v>
+        <v>PAK - BOWL (262 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(253 pts)</v>
+        <v>(262 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Glenn Phillips</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B36" t="str">
-        <v>NZ - AR (255 pts)</v>
+        <v>NED - BOWL (259 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(255 pts)</v>
+        <v>(259 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Reece Topley</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B37" t="str">
-        <v>ENG - BOWL (247 pts)</v>
+        <v>PAK - BOWL (262 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(247 pts)</v>
+        <v>(262 pts)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B38" t="str">
-        <v>AUS - AR (246 pts)</v>
+        <v>ENG - BOWL (260 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(246 pts)</v>
+        <v>(260 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B39" t="str">
-        <v>AFG - AR (252 pts)</v>
+        <v>ENG - BOWL (247 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(252 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Aryan Dutt</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B40" t="str">
-        <v>NED - BOWL (259 pts)</v>
+        <v>ENG - BAT (253 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(259 pts)</v>
+        <v>(253 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Scott Edwards</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B41" t="str">
-        <v>NED - WK (245 pts)</v>
+        <v>AUS - AR (246 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(245 pts)</v>
+        <v>(246 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Logan van Beek</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B42" t="str">
-        <v>NED - BOWL (238 pts)</v>
+        <v>NED - WK (245 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(238 pts)</v>
+        <v>(245 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Tom Latham</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B43" t="str">
-        <v>NZ - WK (236 pts)</v>
+        <v>NZ - AR (255 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(236 pts)</v>
+        <v>(255 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B44" t="str">
-        <v>SA - BOWL (228 pts)</v>
+        <v>AFG - BAT (245 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(228 pts)</v>
+        <v>(245 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B45" t="str">
-        <v>BAN - AR (227 pts)</v>
+        <v>SA - BOWL (244 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(227 pts)</v>
+        <v>(244 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B46" t="str">
-        <v>NED - BOWL (227 pts)</v>
+        <v>NZ - BOWL (239 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(227 pts)</v>
+        <v>(239 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Hasan Ali</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B47" t="str">
-        <v>PAK - BOWL (227 pts)</v>
+        <v>NED - BOWL (238 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(227 pts)</v>
+        <v>(238 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B48" t="str">
-        <v>SL - BAT (219 pts)</v>
+        <v>NZ - WK (236 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(219 pts)</v>
+        <v>(236 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B49" t="str">
-        <v>BAN - WK (214 pts)</v>
+        <v>BAN - AR (227 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(214 pts)</v>
+        <v>(227 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Litton Das</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B50" t="str">
-        <v>BAN - WK (214 pts)</v>
+        <v>SA - BOWL (228 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(214 pts)</v>
+        <v>(228 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B51" t="str">
-        <v>AFG - WK (214 pts)</v>
+        <v>PAK - BAT (224 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(214 pts)</v>
+        <v>(224 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Pat Cummins</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B52" t="str">
-        <v>AUS - BOWL (213 pts)</v>
+        <v>PAK - BAT (219 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(213 pts)</v>
+        <v>(219 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B53" t="str">
-        <v>NZ - BOWL (239 pts)</v>
+        <v>SL - BAT (219 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(239 pts)</v>
+        <v>(219 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Will Young</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B54" t="str">
-        <v>NZ - BAT (202 pts)</v>
+        <v>NED - BOWL (227 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(202 pts)</v>
+        <v>(227 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Charith Asalanka</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B55" t="str">
-        <v>SL - BAT (203 pts)</v>
+        <v>BAN - WK (214 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(203 pts)</v>
+        <v>(214 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Litton Das</v>
       </c>
       <c r="B56" t="str">
-        <v>SA - BOWL (244 pts)</v>
+        <v>BAN - WK (214 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(244 pts)</v>
+        <v>(214 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Trent Boult</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B57" t="str">
-        <v>NZ - BOWL (200 pts)</v>
+        <v>AUS - BOWL (213 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(200 pts)</v>
+        <v>(213 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B58" t="str">
-        <v>SL - BOWL (200 pts)</v>
+        <v>AFG - BOWL (210 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(200 pts)</v>
+        <v>(210 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B59" t="str">
-        <v>SA - BOWL (199 pts)</v>
+        <v>AFG - BOWL (207 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(199 pts)</v>
+        <v>(207 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B60" t="str">
-        <v>IND - BAT (197 pts)</v>
+        <v>AFG - AR (204 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(197 pts)</v>
+        <v>(204 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Shoriful Islam</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B61" t="str">
-        <v>BAN - BOWL (196 pts)</v>
+        <v>PAK - BAT (203 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(196 pts)</v>
+        <v>(203 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B62" t="str">
-        <v>AFG - BOWL (195 pts)</v>
+        <v>SL - BAT (203 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(195 pts)</v>
+        <v>(203 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Will Young</v>
       </c>
       <c r="B63" t="str">
-        <v>IND - BOWL (194 pts)</v>
+        <v>NZ - BAT (202 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(194 pts)</v>
+        <v>(202 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Mark Wood</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B64" t="str">
-        <v>ENG - BOWL (187 pts)</v>
+        <v>NZ - BOWL (200 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(187 pts)</v>
+        <v>(200 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Jos Buttler</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B65" t="str">
-        <v>ENG - WK (193 pts)</v>
+        <v>AFG - BAT (199 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(193 pts)</v>
+        <v>(199 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Saud Shakeel</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B66" t="str">
-        <v>PAK - BAT (187 pts)</v>
+        <v>SA - BOWL (199 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(187 pts)</v>
+        <v>(199 pts)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B67" t="str">
-        <v>PAK - BAT (180 pts)</v>
+        <v>IND - BAT (197 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(180 pts)</v>
+        <v>(197 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B68" t="str">
-        <v>AUS - AR (178 pts)</v>
+        <v>BAN - BOWL (196 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(178 pts)</v>
+        <v>(196 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B69" t="str">
-        <v>AUS - BOWL (176 pts)</v>
+        <v>PAK - AR (194 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(176 pts)</v>
+        <v>(194 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B70" t="str">
-        <v>NED - AR (180 pts)</v>
+        <v>IND - BOWL (194 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(180 pts)</v>
+        <v>(194 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Harry Brook</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B71" t="str">
-        <v>ENG - BAT (172 pts)</v>
+        <v>SL - BOWL (200 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(172 pts)</v>
+        <v>(200 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Hardik Pandya</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B72" t="str">
-        <v>IND - AR (170 pts)</v>
+        <v>ENG - BOWL (187 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(170 pts)</v>
+        <v>(187 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B73" t="str">
-        <v>AUS - BAT (168 pts)</v>
+        <v>ENG - WK (193 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(168 pts)</v>
+        <v>(193 pts)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>David Miller</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B74" t="str">
-        <v>SA - BAT (159 pts)</v>
+        <v>AFG - AR (183 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(159 pts)</v>
+        <v>(183 pts)</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B75" t="str">
-        <v>ENG - WK (158 pts)</v>
+        <v>NED - AR (180 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(158 pts)</v>
+        <v>(180 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Mohammad Shami</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B76" t="str">
-        <v>IND - BOWL (162 pts)</v>
+        <v>AUS - AR (178 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(162 pts)</v>
+        <v>(178 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Shubman Gill</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B77" t="str">
-        <v>IND - BAT (161 pts)</v>
+        <v>AUS - BOWL (176 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(161 pts)</v>
+        <v>(176 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B78" t="str">
-        <v>NED - AR (154 pts)</v>
+        <v>ENG - BAT (172 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(154 pts)</v>
+        <v>(172 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B79" t="str">
-        <v>AFG - BOWL (150 pts)</v>
+        <v>IND - AR (170 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(150 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B80" t="str">
-        <v>PAK - AR (147 pts)</v>
+        <v>AUS - BAT (168 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(147 pts)</v>
+        <v>(168 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B81" t="str">
-        <v>AFG - BAT (141 pts)</v>
+        <v>IND - BOWL (162 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(141 pts)</v>
+        <v>(162 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B82" t="str">
-        <v>AFG - BAT (140 pts)</v>
+        <v>IND - BAT (161 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(140 pts)</v>
+        <v>(161 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Kusal Perera</v>
+        <v>David Miller</v>
       </c>
       <c r="B83" t="str">
-        <v>SL - WK (137 pts)</v>
+        <v>SA - BAT (159 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(137 pts)</v>
+        <v>(159 pts)</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Babar Azam</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B84" t="str">
-        <v>PAK - BAT (136 pts)</v>
+        <v>ENG - WK (158 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(136 pts)</v>
+        <v>(158 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B85" t="str">
-        <v>BAN - AR (134 pts)</v>
+        <v>PAK - AR (157 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(134 pts)</v>
+        <v>(157 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B86" t="str">
-        <v>AFG - AR (134 pts)</v>
+        <v>NED - AR (154 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(134 pts)</v>
+        <v>(154 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Josh Inglis</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B87" t="str">
-        <v>AUS - WK (131 pts)</v>
+        <v>PAK - AR (147 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(131 pts)</v>
+        <v>(147 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B88" t="str">
-        <v>BAN - BAT (127 pts)</v>
+        <v>SL - WK (137 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(127 pts)</v>
+        <v>(137 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B89" t="str">
-        <v>PAK - AR (134 pts)</v>
+        <v>BAN - AR (134 pts)</v>
       </c>
       <c r="C89" t="str">
         <v>(134 pts)</v>
@@ -1372,200 +1372,200 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B91" t="str">
-        <v>AUS - AR (122 pts)</v>
+        <v>AUS - WK (131 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(122 pts)</v>
+        <v>(131 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B92" t="str">
-        <v>SA - BAT (118 pts)</v>
+        <v>BAN - BAT (127 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(118 pts)</v>
+        <v>(127 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Sam Curran</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B93" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>AUS - AR (122 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(118 pts)</v>
+        <v>(122 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B94" t="str">
-        <v>BAN - BAT (113 pts)</v>
+        <v>AFG - WK (119 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(113 pts)</v>
+        <v>(119 pts)</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Rahmat Shah</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B95" t="str">
-        <v>AFG - AR (110 pts)</v>
+        <v>SA - BAT (118 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(110 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B96" t="str">
-        <v>AFG - WK (115 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(115 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B97" t="str">
-        <v>BAN - BAT (108 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(108 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B98" t="str">
-        <v>SL - AR (107 pts)</v>
+        <v>BAN - BAT (113 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(107 pts)</v>
+        <v>(113 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B99" t="str">
-        <v>BAN - BOWL (106 pts)</v>
+        <v>BAN - BAT (108 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(106 pts)</v>
+        <v>(108 pts)</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Vikram Singh</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B100" t="str">
-        <v>NED - AR (106 pts)</v>
+        <v>SL - AR (107 pts)</v>
       </c>
       <c r="C100" t="str">
-        <v>(106 pts)</v>
+        <v>(107 pts)</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Dasun Shanaka</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B101" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>BAN - BOWL (106 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(114 pts)</v>
+        <v>(106 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Shadab Khan</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B102" t="str">
-        <v>PAK - AR (108 pts)</v>
+        <v>NED - AR (106 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(108 pts)</v>
+        <v>(106 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Chris Woakes</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B103" t="str">
-        <v>ENG - AR (102 pts)</v>
+        <v>ENG - AR (105 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(102 pts)</v>
+        <v>(105 pts)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Kane Williamson</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B104" t="str">
-        <v>NZ - BAT (96 pts)</v>
+        <v>ENG - BOWL (104 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(96 pts)</v>
+        <v>(104 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Temba Bavuma</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B105" t="str">
-        <v>SA - BAT (95 pts)</v>
+        <v>ENG - AR (102 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(95 pts)</v>
+        <v>(102 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Steven Smith</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B106" t="str">
-        <v>AUS - BAT (94 pts)</v>
+        <v>NZ - BAT (96 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(94 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Gus Atkinson</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B107" t="str">
-        <v>ENG - BOWL (104 pts)</v>
+        <v>SA - BAT (95 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(104 pts)</v>
+        <v>(95 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Liam Livingstone</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B108" t="str">
-        <v>ENG - AR (105 pts)</v>
+        <v>AUS - BAT (94 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(105 pts)</v>
+        <v>(94 pts)</v>
       </c>
     </row>
     <row r="109">
@@ -1581,43 +1581,43 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Max O'Dowd</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B110" t="str">
-        <v>NED - BAT (81 pts)</v>
+        <v>AFG - BOWL (87 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(81 pts)</v>
+        <v>(87 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B111" t="str">
-        <v>BAN - BOWL (80 pts)</v>
+        <v>NED - BAT (81 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(80 pts)</v>
+        <v>(81 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B112" t="str">
-        <v>NED - BAT (79 pts)</v>
+        <v>BAN - BOWL (80 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(79 pts)</v>
+        <v>(80 pts)</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B113" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>NED - BAT (79 pts)</v>
       </c>
       <c r="C113" t="str">
         <v>(79 pts)</v>
@@ -1625,90 +1625,90 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Mark Chapman</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B114" t="str">
-        <v>NZ - BAT (68 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(68 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Ishan Kishan</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B115" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>IND - BOWL (78 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(63 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B116" t="str">
-        <v>SA - BOWL (54 pts)</v>
+        <v>SL - BOWL (78 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(54 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B117" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>NZ - BAT (68 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(53 pts)</v>
+        <v>(68 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B118" t="str">
-        <v>SL - BOWL (78 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(78 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Shardul Thakur</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B119" t="str">
-        <v>IND - BOWL (78 pts)</v>
+        <v>SA - BOWL (54 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(78 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Usama Mir</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B120" t="str">
-        <v>PAK - BOWL (39 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(39 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B121" t="str">
-        <v>PAK - BAT (35 pts)</v>
+        <v>PAK - BOWL (51 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(35 pts)</v>
+        <v>(51 pts)</v>
       </c>
     </row>
     <row r="122">
@@ -1724,13 +1724,13 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Chamika Karunaratne</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B123" t="str">
-        <v>SL - AR (28 pts)</v>
+        <v>PAK - BAT (35 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(28 pts)</v>
+        <v>(35 pts)</v>
       </c>
     </row>
     <row r="124">
@@ -1768,21 +1768,21 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Chamika Karunaratne</v>
       </c>
       <c r="B127" t="str">
-        <v>BAN - BOWL (20 pts)</v>
+        <v>SL - AR (28 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(20 pts)</v>
+        <v>(28 pts)</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Cameron Green</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B128" t="str">
-        <v>AUS - AR (18 pts)</v>
+        <v>ENG - AR (18 pts)</v>
       </c>
       <c r="C128" t="str">
         <v>(18 pts)</v>
@@ -1790,32 +1790,32 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B129" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>AUS - AR (18 pts)</v>
       </c>
       <c r="C129" t="str">
-        <v>(37 pts)</v>
+        <v>(18 pts)</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Moeen Ali</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B130" t="str">
-        <v>ENG - AR (16 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C130" t="str">
-        <v>(16 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Ryan Klein</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B131" t="str">
-        <v>NED - BOWL (16 pts)</v>
+        <v>ENG - AR (16 pts)</v>
       </c>
       <c r="C131" t="str">
         <v>(16 pts)</v>
@@ -1823,76 +1823,76 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Dushan Hemantha</v>
+        <v>Ryan Klein</v>
       </c>
       <c r="B132" t="str">
-        <v>SL - AR (9 pts)</v>
+        <v>NED - BOWL (16 pts)</v>
       </c>
       <c r="C132" t="str">
-        <v>(9 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B133" t="str">
-        <v>SL - BOWL (9 pts)</v>
+        <v>BAN - BOWL (20 pts)</v>
       </c>
       <c r="C133" t="str">
-        <v>(9 pts)</v>
+        <v>(20 pts)</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Dushan Hemantha</v>
       </c>
       <c r="B134" t="str">
-        <v>IND - BAT (6 pts)</v>
+        <v>SL - AR (9 pts)</v>
       </c>
       <c r="C134" t="str">
-        <v>(6 pts)</v>
+        <v>(9 pts)</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>James Neesham</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B135" t="str">
-        <v>NZ - AR (2 pts)</v>
+        <v>SL - BOWL (9 pts)</v>
       </c>
       <c r="C135" t="str">
-        <v>(2 pts)</v>
+        <v>(9 pts)</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Alex Carey</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B136" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>IND - BAT (6 pts)</v>
       </c>
       <c r="C136" t="str">
-        <v>(1 pts)</v>
+        <v>(6 pts)</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Tim Southee</v>
+        <v>James Neesham</v>
       </c>
       <c r="B137" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>NZ - AR (2 pts)</v>
       </c>
       <c r="C137" t="str">
-        <v>(0 pts)</v>
+        <v>(2 pts)</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Anamul Haque</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B138" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C138" t="str">
         <v>(0 pts)</v>
@@ -1900,10 +1900,10 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Wesley Barresi</v>
+        <v>Angelo Mathews</v>
       </c>
       <c r="B139" t="str">
-        <v>NED - WK (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C139" t="str">
         <v>(0 pts)</v>
@@ -1911,32 +1911,32 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Ben Stokes</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B140" t="str">
-        <v>ENG - AR (18 pts)</v>
+        <v>NED - WK (0 pts)</v>
       </c>
       <c r="C140" t="str">
-        <v>(18 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Angelo Mathews</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B141" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C141" t="str">
-        <v>(0 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Ashton Agar</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B142" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C142" t="str">
         <v>(0 pts)</v>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Jason Roy</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B143" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C143" t="str">
         <v>(0 pts)</v>
@@ -1955,10 +1955,10 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Ish Sodhi</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B144" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C144" t="str">
         <v>(0 pts)</v>
@@ -1966,10 +1966,10 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Lizaad Williams</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B145" t="str">
-        <v>SA - BOWL (0 pts)</v>
+        <v>AUS - BOWL (0 pts)</v>
       </c>
       <c r="C145" t="str">
         <v>(0 pts)</v>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B146" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C146" t="str">
         <v>(0 pts)</v>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Travis Head</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B147" t="str">
-        <v>AUS - BAT (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C147" t="str">
         <v>(0 pts)</v>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Tom Blundell</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B148" t="str">
-        <v>NZ - WK (0 pts)</v>
+        <v>SA - BOWL (0 pts)</v>
       </c>
       <c r="C148" t="str">
         <v>(0 pts)</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Axar Patel</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B149" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C149" t="str">
         <v>(0 pts)</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Binura Fernando</v>
+        <v>Travis Head</v>
       </c>
       <c r="B150" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>AUS - BAT (0 pts)</v>
       </c>
       <c r="C150" t="str">
         <v>(0 pts)</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Agha Salman</v>
+        <v>Tom Blundell</v>
       </c>
       <c r="B151" t="str">
-        <v>PAK - AR (0 pts)</v>
+        <v>NZ - WK (0 pts)</v>
       </c>
       <c r="C151" t="str">
         <v>(0 pts)</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Andile Phehlukwayo</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B152" t="str">
-        <v>SA - AR (0 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C152" t="str">
         <v>(0 pts)</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Sean Abbott</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B153" t="str">
-        <v>AUS - BOWL (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C153" t="str">
         <v>(0 pts)</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B154" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>PAK - AR (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Sahan Arachchige</v>
+        <v>Andile Phehlukwayo</v>
       </c>
       <c r="B155" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>SA - AR (0 pts)</v>
       </c>
       <c r="C155" t="str">
         <v>(0 pts)</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Riaz Hassan</v>
+        <v>Sahan Arachchige</v>
       </c>
       <c r="B156" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C156" t="str">
         <v>(0 pts)</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Afif Hossain</v>
+        <v>Pramod Madushan</v>
       </c>
       <c r="B157" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C157" t="str">
         <v>(0 pts)</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Pramod Madushan</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B158" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C158" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Abdul Rahman</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B159" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Tanzim Hasan Sakib</v>
+        <v>Abdul Rahman</v>
       </c>
       <c r="B160" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Mohammad Naim</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B161" t="str">
         <v>BAN - BAT (0 pts)</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Shamim Hossain</v>
+        <v>Mohammad Naim</v>
       </c>
       <c r="B162" t="str">
         <v>BAN - BAT (0 pts)</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Noor Ahmad</v>
+        <v>Tanzim Hasan Sakib</v>
       </c>
       <c r="B163" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>BAN - BOWL (0 pts)</v>
       </c>
       <c r="C163" t="str">
         <v>(0 pts)</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B164" t="str">
-        <v>NED - BOWL (0 pts)</v>
+        <v>PAK - BOWL (0 pts)</v>
       </c>
       <c r="C164" t="str">
         <v>(0 pts)</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Shariz Ahmad</v>
       </c>
       <c r="B165" t="str">
-        <v>PAK - BOWL (0 pts)</v>
+        <v>NED - BOWL (0 pts)</v>
       </c>
       <c r="C165" t="str">
         <v>(0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -393,101 +393,101 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Virat Kohli</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B2" t="str">
-        <v>IND - BAT (477 pts)</v>
+        <v>SA - WK (588 pts)</v>
       </c>
       <c r="C2" t="str">
-        <v>(477 pts)</v>
+        <v>(588 pts)</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Mitchell Santner</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B3" t="str">
-        <v>NZ - AR (456 pts)</v>
+        <v>IND - BAT (477 pts)</v>
       </c>
       <c r="C3" t="str">
-        <v>(456 pts)</v>
+        <v>(477 pts)</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B4" t="str">
-        <v>NZ - AR (453 pts)</v>
+        <v>SA - AR (469 pts)</v>
       </c>
       <c r="C4" t="str">
-        <v>(453 pts)</v>
+        <v>(469 pts)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B5" t="str">
-        <v>PAK - WK (432 pts)</v>
+        <v>NZ - AR (456 pts)</v>
       </c>
       <c r="C5" t="str">
-        <v>(432 pts)</v>
+        <v>(456 pts)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Rohit Sharma</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B6" t="str">
-        <v>IND - BAT (429 pts)</v>
+        <v>NZ - AR (453 pts)</v>
       </c>
       <c r="C6" t="str">
-        <v>(429 pts)</v>
+        <v>(453 pts)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Marco Jansen</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B7" t="str">
-        <v>SA - AR (406 pts)</v>
+        <v>SA - WK (446 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(406 pts)</v>
+        <v>(446 pts)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B8" t="str">
-        <v>NZ - AR (390 pts)</v>
+        <v>IND - BAT (429 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(390 pts)</v>
+        <v>(429 pts)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Matt Henry</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B9" t="str">
-        <v>NZ - BOWL (370 pts)</v>
+        <v>PAK - WK (432 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(370 pts)</v>
+        <v>(432 pts)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Quinton de Kock</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B10" t="str">
-        <v>SA - WK (369 pts)</v>
+        <v>NZ - AR (390 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(369 pts)</v>
+        <v>(390 pts)</v>
       </c>
     </row>
     <row r="11">
@@ -503,21 +503,21 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Devon Conway</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B12" t="str">
-        <v>NZ - WK (356 pts)</v>
+        <v>SA - BOWL (365 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(356 pts)</v>
+        <v>(365 pts)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B13" t="str">
-        <v>SL - BOWL (356 pts)</v>
+        <v>NZ - WK (356 pts)</v>
       </c>
       <c r="C13" t="str">
         <v>(356 pts)</v>
@@ -525,167 +525,167 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B14" t="str">
-        <v>PAK - BAT (346 pts)</v>
+        <v>SL - BOWL (356 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(346 pts)</v>
+        <v>(356 pts)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Bas de Leede</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B15" t="str">
-        <v>NED - AR (349 pts)</v>
+        <v>SA - AR (359 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(349 pts)</v>
+        <v>(359 pts)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B16" t="str">
-        <v>PAK - BOWL (344 pts)</v>
+        <v>NZ - BOWL (370 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(344 pts)</v>
+        <v>(370 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>David Warner</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B17" t="str">
-        <v>AUS - BAT (336 pts)</v>
+        <v>NED - AR (349 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(336 pts)</v>
+        <v>(349 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Kusal Mendis</v>
+        <v>David Warner</v>
       </c>
       <c r="B18" t="str">
-        <v>SL - WK (334 pts)</v>
+        <v>AUS - BAT (336 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(334 pts)</v>
+        <v>(336 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Adam Zampa</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B19" t="str">
-        <v>AUS - BOWL (310 pts)</v>
+        <v>SA - BOWL (323 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(310 pts)</v>
+        <v>(323 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B20" t="str">
-        <v>SL - WK (306 pts)</v>
+        <v>PAK - BOWL (344 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(306 pts)</v>
+        <v>(344 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B21" t="str">
-        <v>SA - BOWL (297 pts)</v>
+        <v>SL - WK (334 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(297 pts)</v>
+        <v>(334 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B22" t="str">
-        <v>AFG - WK (302 pts)</v>
+        <v>PAK - BAT (346 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(302 pts)</v>
+        <v>(346 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B23" t="str">
-        <v>SA - WK (296 pts)</v>
+        <v>SL - WK (306 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(296 pts)</v>
+        <v>(306 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B24" t="str">
-        <v>IND - AR (295 pts)</v>
+        <v>AUS - BOWL (310 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(295 pts)</v>
+        <v>(310 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B25" t="str">
-        <v>IND - BOWL (288 pts)</v>
+        <v>BAN - AR (328 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(288 pts)</v>
+        <v>(328 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Aiden Markram</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B26" t="str">
-        <v>SA - AR (284 pts)</v>
+        <v>IND - BOWL (288 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(284 pts)</v>
+        <v>(288 pts)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B27" t="str">
-        <v>AFG - AR (283 pts)</v>
+        <v>BAN - AR (286 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(283 pts)</v>
+        <v>(286 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Joe Root</v>
       </c>
       <c r="B28" t="str">
-        <v>BAN - AR (279 pts)</v>
+        <v>ENG - BAT (285 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(279 pts)</v>
+        <v>(285 pts)</v>
       </c>
     </row>
     <row r="29">
@@ -701,13 +701,13 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Joe Root</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B30" t="str">
-        <v>ENG - BAT (285 pts)</v>
+        <v>AFG - AR (283 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(285 pts)</v>
+        <v>(283 pts)</v>
       </c>
     </row>
     <row r="31">
@@ -723,10 +723,10 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>KL Rahul</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B32" t="str">
-        <v>IND - BAT (277 pts)</v>
+        <v>SA - BOWL (277 pts)</v>
       </c>
       <c r="C32" t="str">
         <v>(277 pts)</v>
@@ -734,46 +734,46 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Mitchell Starc</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B33" t="str">
-        <v>AUS - BOWL (274 pts)</v>
+        <v>IND - BAT (277 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(274 pts)</v>
+        <v>(277 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B34" t="str">
-        <v>SA - BAT (269 pts)</v>
+        <v>AUS - BOWL (274 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(269 pts)</v>
+        <v>(274 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Hasan Ali</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B35" t="str">
-        <v>PAK - BOWL (262 pts)</v>
+        <v>SA - BAT (274 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(262 pts)</v>
+        <v>(274 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Aryan Dutt</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B36" t="str">
-        <v>NED - BOWL (259 pts)</v>
+        <v>PAK - BOWL (262 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(259 pts)</v>
+        <v>(262 pts)</v>
       </c>
     </row>
     <row r="37">
@@ -800,175 +800,175 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Reece Topley</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B39" t="str">
-        <v>ENG - BOWL (247 pts)</v>
+        <v>IND - AR (295 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(247 pts)</v>
+        <v>(295 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Dawid Malan</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B40" t="str">
-        <v>ENG - BAT (253 pts)</v>
+        <v>NED - BOWL (259 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(253 pts)</v>
+        <v>(259 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B41" t="str">
-        <v>AUS - AR (246 pts)</v>
+        <v>NZ - AR (255 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(246 pts)</v>
+        <v>(255 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Scott Edwards</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B42" t="str">
-        <v>NED - WK (245 pts)</v>
+        <v>BAN - AR (255 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(245 pts)</v>
+        <v>(255 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Glenn Phillips</v>
+        <v>Litton Das</v>
       </c>
       <c r="B43" t="str">
-        <v>NZ - AR (255 pts)</v>
+        <v>BAN - WK (251 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(255 pts)</v>
+        <v>(251 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B44" t="str">
-        <v>AFG - BAT (245 pts)</v>
+        <v>ENG - BAT (253 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(245 pts)</v>
+        <v>(253 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B45" t="str">
-        <v>SA - BOWL (244 pts)</v>
+        <v>AFG - WK (302 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(244 pts)</v>
+        <v>(302 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B46" t="str">
-        <v>NZ - BOWL (239 pts)</v>
+        <v>AFG - BAT (245 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(239 pts)</v>
+        <v>(245 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Logan van Beek</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B47" t="str">
-        <v>NED - BOWL (238 pts)</v>
+        <v>NED - WK (245 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(238 pts)</v>
+        <v>(245 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Tom Latham</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B48" t="str">
-        <v>NZ - WK (236 pts)</v>
+        <v>NZ - BOWL (239 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(236 pts)</v>
+        <v>(239 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B49" t="str">
-        <v>BAN - AR (227 pts)</v>
+        <v>NED - BOWL (238 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(227 pts)</v>
+        <v>(238 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B50" t="str">
-        <v>SA - BOWL (228 pts)</v>
+        <v>NZ - WK (236 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(228 pts)</v>
+        <v>(236 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Babar Azam</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B51" t="str">
-        <v>PAK - BAT (224 pts)</v>
+        <v>BAN - BOWL (236 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(224 pts)</v>
+        <v>(236 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Saud Shakeel</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B52" t="str">
-        <v>PAK - BAT (219 pts)</v>
+        <v>ENG - BOWL (247 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(219 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B53" t="str">
-        <v>SL - BAT (219 pts)</v>
+        <v>AUS - AR (246 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(219 pts)</v>
+        <v>(246 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B54" t="str">
-        <v>NED - BOWL (227 pts)</v>
+        <v>BAN - WK (227 pts)</v>
       </c>
       <c r="C54" t="str">
         <v>(227 pts)</v>
@@ -976,453 +976,453 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B55" t="str">
-        <v>BAN - WK (214 pts)</v>
+        <v>NED - BOWL (227 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(214 pts)</v>
+        <v>(227 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Litton Das</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B56" t="str">
-        <v>BAN - WK (214 pts)</v>
+        <v>PAK - BAT (224 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(214 pts)</v>
+        <v>(224 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Pat Cummins</v>
+        <v>David Miller</v>
       </c>
       <c r="B57" t="str">
-        <v>AUS - BOWL (213 pts)</v>
+        <v>SA - BAT (214 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(213 pts)</v>
+        <v>(214 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B58" t="str">
-        <v>AFG - BOWL (210 pts)</v>
+        <v>AUS - BOWL (213 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(210 pts)</v>
+        <v>(213 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B59" t="str">
-        <v>AFG - BOWL (207 pts)</v>
+        <v>AFG - BOWL (210 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(207 pts)</v>
+        <v>(210 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Rahmat Shah</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B60" t="str">
-        <v>AFG - AR (204 pts)</v>
+        <v>AFG - BOWL (207 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(204 pts)</v>
+        <v>(207 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B61" t="str">
-        <v>PAK - BAT (203 pts)</v>
+        <v>AFG - AR (204 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(203 pts)</v>
+        <v>(204 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Charith Asalanka</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B62" t="str">
-        <v>SL - BAT (203 pts)</v>
+        <v>SL - BAT (219 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(203 pts)</v>
+        <v>(219 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Will Young</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B63" t="str">
-        <v>NZ - BAT (202 pts)</v>
+        <v>PAK - BAT (219 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(202 pts)</v>
+        <v>(219 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Trent Boult</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B64" t="str">
-        <v>NZ - BOWL (200 pts)</v>
+        <v>PAK - BAT (203 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(200 pts)</v>
+        <v>(203 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B65" t="str">
-        <v>AFG - BAT (199 pts)</v>
+        <v>SL - BAT (203 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(199 pts)</v>
+        <v>(203 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Will Young</v>
       </c>
       <c r="B66" t="str">
-        <v>SA - BOWL (199 pts)</v>
+        <v>NZ - BAT (202 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(199 pts)</v>
+        <v>(202 pts)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B67" t="str">
-        <v>IND - BAT (197 pts)</v>
+        <v>AFG - BAT (199 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(197 pts)</v>
+        <v>(199 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Shoriful Islam</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B68" t="str">
-        <v>BAN - BOWL (196 pts)</v>
+        <v>NZ - BOWL (200 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(196 pts)</v>
+        <v>(200 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B69" t="str">
-        <v>PAK - AR (194 pts)</v>
+        <v>SL - BOWL (200 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(194 pts)</v>
+        <v>(200 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B70" t="str">
-        <v>IND - BOWL (194 pts)</v>
+        <v>SA - BOWL (199 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(194 pts)</v>
+        <v>(199 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B71" t="str">
-        <v>SL - BOWL (200 pts)</v>
+        <v>IND - BOWL (194 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(200 pts)</v>
+        <v>(194 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Mark Wood</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B72" t="str">
-        <v>ENG - BOWL (187 pts)</v>
+        <v>ENG - WK (193 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(187 pts)</v>
+        <v>(193 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Jos Buttler</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B73" t="str">
-        <v>ENG - WK (193 pts)</v>
+        <v>IND - BAT (197 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(193 pts)</v>
+        <v>(197 pts)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B74" t="str">
-        <v>AFG - AR (183 pts)</v>
+        <v>PAK - AR (194 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(183 pts)</v>
+        <v>(194 pts)</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B75" t="str">
-        <v>NED - AR (180 pts)</v>
+        <v>ENG - BOWL (187 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(180 pts)</v>
+        <v>(187 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B76" t="str">
-        <v>AUS - AR (178 pts)</v>
+        <v>AFG - AR (183 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(178 pts)</v>
+        <v>(183 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B77" t="str">
-        <v>AUS - BOWL (176 pts)</v>
+        <v>AUS - AR (178 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(176 pts)</v>
+        <v>(178 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Harry Brook</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B78" t="str">
-        <v>ENG - BAT (172 pts)</v>
+        <v>NED - AR (180 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(172 pts)</v>
+        <v>(180 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Hardik Pandya</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B79" t="str">
-        <v>IND - AR (170 pts)</v>
+        <v>AUS - BOWL (176 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(170 pts)</v>
+        <v>(176 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B80" t="str">
-        <v>AUS - BAT (168 pts)</v>
+        <v>ENG - BAT (172 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(168 pts)</v>
+        <v>(172 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Mohammad Shami</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B81" t="str">
-        <v>IND - BOWL (162 pts)</v>
+        <v>IND - AR (170 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(162 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Shubman Gill</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B82" t="str">
-        <v>IND - BAT (161 pts)</v>
+        <v>AUS - BAT (168 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(161 pts)</v>
+        <v>(168 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>David Miller</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B83" t="str">
-        <v>SA - BAT (159 pts)</v>
+        <v>IND - BOWL (162 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(159 pts)</v>
+        <v>(162 pts)</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B84" t="str">
-        <v>ENG - WK (158 pts)</v>
+        <v>IND - BAT (161 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(158 pts)</v>
+        <v>(161 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Shadab Khan</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B85" t="str">
-        <v>PAK - AR (157 pts)</v>
+        <v>ENG - WK (158 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(157 pts)</v>
+        <v>(158 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B86" t="str">
-        <v>NED - AR (154 pts)</v>
+        <v>PAK - AR (157 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(154 pts)</v>
+        <v>(157 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B87" t="str">
-        <v>PAK - AR (147 pts)</v>
+        <v>NED - AR (154 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(147 pts)</v>
+        <v>(154 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Kusal Perera</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B88" t="str">
-        <v>SL - WK (137 pts)</v>
+        <v>PAK - AR (147 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(137 pts)</v>
+        <v>(147 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B89" t="str">
-        <v>BAN - AR (134 pts)</v>
+        <v>BAN - BAT (144 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(134 pts)</v>
+        <v>(144 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B90" t="str">
-        <v>BAN - AR (133 pts)</v>
+        <v>SL - WK (137 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(133 pts)</v>
+        <v>(137 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Josh Inglis</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B91" t="str">
-        <v>AUS - WK (131 pts)</v>
+        <v>SA - BAT (135 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(131 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B92" t="str">
-        <v>BAN - BAT (127 pts)</v>
+        <v>BAN - AR (133 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(127 pts)</v>
+        <v>(133 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B93" t="str">
-        <v>AUS - AR (122 pts)</v>
+        <v>AUS - WK (131 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(122 pts)</v>
+        <v>(131 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B94" t="str">
-        <v>AFG - WK (119 pts)</v>
+        <v>AUS - AR (122 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(119 pts)</v>
+        <v>(122 pts)</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B95" t="str">
-        <v>SA - BAT (118 pts)</v>
+        <v>AFG - WK (119 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(118 pts)</v>
+        <v>(119 pts)</v>
       </c>
     </row>
     <row r="96">
@@ -1452,10 +1452,10 @@
         <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B98" t="str">
-        <v>BAN - BAT (113 pts)</v>
+        <v>BAN - BAT (114 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(113 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="99">
@@ -1482,13 +1482,13 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B101" t="str">
-        <v>BAN - BOWL (106 pts)</v>
+        <v>ENG - AR (105 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(106 pts)</v>
+        <v>(105 pts)</v>
       </c>
     </row>
     <row r="102">
@@ -1504,112 +1504,112 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Liam Livingstone</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B103" t="str">
-        <v>ENG - AR (105 pts)</v>
+        <v>BAN - BOWL (106 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(105 pts)</v>
+        <v>(106 pts)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Gus Atkinson</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B104" t="str">
-        <v>ENG - BOWL (104 pts)</v>
+        <v>NZ - BAT (96 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(104 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Chris Woakes</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B105" t="str">
-        <v>ENG - AR (102 pts)</v>
+        <v>SA - BAT (95 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(102 pts)</v>
+        <v>(95 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Kane Williamson</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B106" t="str">
-        <v>NZ - BAT (96 pts)</v>
+        <v>AUS - BAT (94 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(96 pts)</v>
+        <v>(94 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Temba Bavuma</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B107" t="str">
-        <v>SA - BAT (95 pts)</v>
+        <v>BAN - BOWL (93 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(95 pts)</v>
+        <v>(93 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Steven Smith</v>
+        <v>Fazalhaq Farooqi</v>
       </c>
       <c r="B108" t="str">
-        <v>AUS - BAT (94 pts)</v>
+        <v>AFG - BOWL (92 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(94 pts)</v>
+        <v>(92 pts)</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Fazalhaq Farooqi</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B109" t="str">
-        <v>AFG - BOWL (92 pts)</v>
+        <v>AFG - BOWL (87 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(92 pts)</v>
+        <v>(87 pts)</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Noor Ahmad</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B110" t="str">
-        <v>AFG - BOWL (87 pts)</v>
+        <v>ENG - AR (102 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(87 pts)</v>
+        <v>(102 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Max O'Dowd</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B111" t="str">
-        <v>NED - BAT (81 pts)</v>
+        <v>ENG - BOWL (104 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(81 pts)</v>
+        <v>(104 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B112" t="str">
-        <v>BAN - BOWL (80 pts)</v>
+        <v>NED - BAT (81 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(80 pts)</v>
+        <v>(81 pts)</v>
       </c>
     </row>
     <row r="113">
@@ -1625,175 +1625,175 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B114" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>IND - BOWL (78 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(79 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Shardul Thakur</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B115" t="str">
-        <v>IND - BOWL (78 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(78 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B116" t="str">
-        <v>SL - BOWL (78 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(78 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Mark Chapman</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B117" t="str">
-        <v>NZ - BAT (68 pts)</v>
+        <v>BAN - BOWL (90 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(68 pts)</v>
+        <v>(90 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Ishan Kishan</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B118" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>SL - BOWL (78 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(63 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B119" t="str">
-        <v>SA - BOWL (54 pts)</v>
+        <v>NZ - BAT (68 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(54 pts)</v>
+        <v>(68 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B120" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>BAN - BOWL (54 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(53 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Usama Mir</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B121" t="str">
-        <v>PAK - BOWL (51 pts)</v>
+        <v>SA - BOWL (58 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(51 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B122" t="str">
-        <v>NED - AR (31 pts)</v>
+        <v>PAK - BOWL (51 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(31 pts)</v>
+        <v>(51 pts)</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B123" t="str">
-        <v>PAK - BAT (35 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(35 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B124" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>PAK - BAT (35 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(27 pts)</v>
+        <v>(35 pts)</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B125" t="str">
-        <v>BAN - BOWL (25 pts)</v>
+        <v>NED - AR (31 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(25 pts)</v>
+        <v>(31 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>David Willey</v>
+        <v>Chamika Karunaratne</v>
       </c>
       <c r="B126" t="str">
-        <v>ENG - AR (23 pts)</v>
+        <v>SL - AR (28 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(23 pts)</v>
+        <v>(28 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Chamika Karunaratne</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B127" t="str">
-        <v>SL - AR (28 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(28 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Ben Stokes</v>
+        <v>David Willey</v>
       </c>
       <c r="B128" t="str">
-        <v>ENG - AR (18 pts)</v>
+        <v>ENG - AR (23 pts)</v>
       </c>
       <c r="C128" t="str">
-        <v>(18 pts)</v>
+        <v>(23 pts)</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Cameron Green</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B129" t="str">
-        <v>AUS - AR (18 pts)</v>
+        <v>ENG - AR (18 pts)</v>
       </c>
       <c r="C129" t="str">
         <v>(18 pts)</v>
@@ -1801,13 +1801,13 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B130" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C130" t="str">
-        <v>(37 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="131">
@@ -1834,21 +1834,21 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Dushan Hemantha</v>
       </c>
       <c r="B133" t="str">
-        <v>BAN - BOWL (20 pts)</v>
+        <v>SL - AR (9 pts)</v>
       </c>
       <c r="C133" t="str">
-        <v>(20 pts)</v>
+        <v>(9 pts)</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Dushan Hemantha</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B134" t="str">
-        <v>SL - AR (9 pts)</v>
+        <v>SL - BOWL (9 pts)</v>
       </c>
       <c r="C134" t="str">
         <v>(9 pts)</v>
@@ -1856,35 +1856,35 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B135" t="str">
-        <v>SL - BOWL (9 pts)</v>
+        <v>IND - BAT (6 pts)</v>
       </c>
       <c r="C135" t="str">
-        <v>(9 pts)</v>
+        <v>(6 pts)</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>James Neesham</v>
       </c>
       <c r="B136" t="str">
-        <v>IND - BAT (6 pts)</v>
+        <v>NZ - AR (2 pts)</v>
       </c>
       <c r="C136" t="str">
-        <v>(6 pts)</v>
+        <v>(2 pts)</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>James Neesham</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B137" t="str">
-        <v>NZ - AR (2 pts)</v>
+        <v>SA - BOWL (54 pts)</v>
       </c>
       <c r="C137" t="str">
-        <v>(2 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="138">
@@ -1911,43 +1911,43 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Wesley Barresi</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B140" t="str">
-        <v>NED - WK (0 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C140" t="str">
-        <v>(0 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Alex Carey</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B141" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C141" t="str">
-        <v>(1 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Anamul Haque</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B142" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>AUS - AR (18 pts)</v>
       </c>
       <c r="C142" t="str">
-        <v>(0 pts)</v>
+        <v>(18 pts)</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B143" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C143" t="str">
         <v>(0 pts)</v>
@@ -1955,10 +1955,10 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Jason Roy</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B144" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>AUS - BOWL (0 pts)</v>
       </c>
       <c r="C144" t="str">
         <v>(0 pts)</v>
@@ -1966,10 +1966,10 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Sean Abbott</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B145" t="str">
-        <v>AUS - BOWL (0 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C145" t="str">
         <v>(0 pts)</v>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Ashton Agar</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B146" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C146" t="str">
         <v>(0 pts)</v>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Ish Sodhi</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B147" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C147" t="str">
         <v>(0 pts)</v>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Lizaad Williams</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B148" t="str">
-        <v>SA - BOWL (0 pts)</v>
+        <v>NED - WK (0 pts)</v>
       </c>
       <c r="C148" t="str">
         <v>(0 pts)</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Travis Head</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B150" t="str">
-        <v>AUS - BAT (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C150" t="str">
         <v>(0 pts)</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Tom Blundell</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B151" t="str">
-        <v>NZ - WK (0 pts)</v>
+        <v>PAK - AR (0 pts)</v>
       </c>
       <c r="C151" t="str">
         <v>(0 pts)</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Axar Patel</v>
+        <v>Tom Blundell</v>
       </c>
       <c r="B152" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>NZ - WK (0 pts)</v>
       </c>
       <c r="C152" t="str">
         <v>(0 pts)</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Binura Fernando</v>
+        <v>Travis Head</v>
       </c>
       <c r="B153" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>AUS - BAT (0 pts)</v>
       </c>
       <c r="C153" t="str">
         <v>(0 pts)</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Agha Salman</v>
+        <v>Andile Phehlukwayo</v>
       </c>
       <c r="B154" t="str">
-        <v>PAK - AR (0 pts)</v>
+        <v>SA - AR (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Andile Phehlukwayo</v>
+        <v>Sahan Arachchige</v>
       </c>
       <c r="B155" t="str">
-        <v>SA - AR (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C155" t="str">
         <v>(0 pts)</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Sahan Arachchige</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B156" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C156" t="str">
         <v>(0 pts)</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Pramod Madushan</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B157" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C157" t="str">
         <v>(0 pts)</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Afif Hossain</v>
+        <v>Abdul Rahman</v>
       </c>
       <c r="B158" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C158" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Riaz Hassan</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B159" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Abdul Rahman</v>
+        <v>Mohammad Naim</v>
       </c>
       <c r="B160" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Shamim Hossain</v>
+        <v>Tanzim Hasan Sakib</v>
       </c>
       <c r="B161" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>BAN - BOWL (0 pts)</v>
       </c>
       <c r="C161" t="str">
         <v>(0 pts)</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Mohammad Naim</v>
+        <v>Pramod Madushan</v>
       </c>
       <c r="B162" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C162" t="str">
         <v>(0 pts)</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Tanzim Hasan Sakib</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B163" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C163" t="str">
         <v>(0 pts)</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Shariz Ahmad</v>
       </c>
       <c r="B164" t="str">
-        <v>PAK - BOWL (0 pts)</v>
+        <v>NED - BOWL (0 pts)</v>
       </c>
       <c r="C164" t="str">
         <v>(0 pts)</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B165" t="str">
-        <v>NED - BOWL (0 pts)</v>
+        <v>PAK - BOWL (0 pts)</v>
       </c>
       <c r="C165" t="str">
         <v>(0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -404,134 +404,134 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Virat Kohli</v>
+        <v>David Warner</v>
       </c>
       <c r="B3" t="str">
-        <v>IND - BAT (477 pts)</v>
+        <v>AUS - BAT (479 pts)</v>
       </c>
       <c r="C3" t="str">
-        <v>(477 pts)</v>
+        <v>(479 pts)</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Marco Jansen</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B4" t="str">
-        <v>SA - AR (469 pts)</v>
+        <v>IND - BAT (477 pts)</v>
       </c>
       <c r="C4" t="str">
-        <v>(469 pts)</v>
+        <v>(477 pts)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Mitchell Santner</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B5" t="str">
-        <v>NZ - AR (456 pts)</v>
+        <v>SA - AR (469 pts)</v>
       </c>
       <c r="C5" t="str">
-        <v>(456 pts)</v>
+        <v>(469 pts)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B6" t="str">
-        <v>NZ - AR (453 pts)</v>
+        <v>NZ - AR (456 pts)</v>
       </c>
       <c r="C6" t="str">
-        <v>(453 pts)</v>
+        <v>(456 pts)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B7" t="str">
-        <v>SA - WK (446 pts)</v>
+        <v>NZ - AR (453 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(446 pts)</v>
+        <v>(453 pts)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Rohit Sharma</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B8" t="str">
-        <v>IND - BAT (429 pts)</v>
+        <v>SA - WK (446 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(429 pts)</v>
+        <v>(446 pts)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B9" t="str">
-        <v>PAK - WK (432 pts)</v>
+        <v>AUS - BOWL (435 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(432 pts)</v>
+        <v>(435 pts)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B10" t="str">
-        <v>NZ - AR (390 pts)</v>
+        <v>PAK - WK (432 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(390 pts)</v>
+        <v>(432 pts)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B11" t="str">
-        <v>IND - BOWL (363 pts)</v>
+        <v>IND - BAT (429 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(363 pts)</v>
+        <v>(429 pts)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B12" t="str">
-        <v>SA - BOWL (365 pts)</v>
+        <v>NZ - AR (390 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(365 pts)</v>
+        <v>(390 pts)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Devon Conway</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B13" t="str">
-        <v>NZ - WK (356 pts)</v>
+        <v>NED - AR (402 pts)</v>
       </c>
       <c r="C13" t="str">
-        <v>(356 pts)</v>
+        <v>(402 pts)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B14" t="str">
-        <v>SL - BOWL (356 pts)</v>
+        <v>SA - BOWL (365 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(356 pts)</v>
+        <v>(365 pts)</v>
       </c>
     </row>
     <row r="15">
@@ -558,739 +558,739 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Bas de Leede</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B17" t="str">
-        <v>NED - AR (349 pts)</v>
+        <v>IND - BOWL (363 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(349 pts)</v>
+        <v>(363 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>David Warner</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B18" t="str">
-        <v>AUS - BAT (336 pts)</v>
+        <v>NZ - WK (356 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(336 pts)</v>
+        <v>(356 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B19" t="str">
-        <v>SA - BOWL (323 pts)</v>
+        <v>SL - BOWL (356 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(323 pts)</v>
+        <v>(356 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B20" t="str">
-        <v>PAK - BOWL (344 pts)</v>
+        <v>PAK - BAT (346 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(344 pts)</v>
+        <v>(346 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Kusal Mendis</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B21" t="str">
-        <v>SL - WK (334 pts)</v>
+        <v>PAK - BOWL (344 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(334 pts)</v>
+        <v>(344 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B22" t="str">
-        <v>PAK - BAT (346 pts)</v>
+        <v>NED - BOWL (344 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(346 pts)</v>
+        <v>(344 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B23" t="str">
-        <v>SL - WK (306 pts)</v>
+        <v>AUS - AR (339 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(306 pts)</v>
+        <v>(339 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Adam Zampa</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B24" t="str">
-        <v>AUS - BOWL (310 pts)</v>
+        <v>SA - BOWL (323 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(310 pts)</v>
+        <v>(323 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B25" t="str">
-        <v>BAN - AR (328 pts)</v>
+        <v>AUS - BOWL (311 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(328 pts)</v>
+        <v>(311 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B26" t="str">
-        <v>IND - BOWL (288 pts)</v>
+        <v>SL - WK (334 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(288 pts)</v>
+        <v>(334 pts)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B27" t="str">
-        <v>BAN - AR (286 pts)</v>
+        <v>NED - AR (309 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(286 pts)</v>
+        <v>(309 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Joe Root</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B28" t="str">
-        <v>ENG - BAT (285 pts)</v>
+        <v>SL - WK (306 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(285 pts)</v>
+        <v>(306 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Rashid Khan</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B29" t="str">
-        <v>AFG - BOWL (283 pts)</v>
+        <v>AFG - WK (302 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(283 pts)</v>
+        <v>(302 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B30" t="str">
-        <v>AFG - AR (283 pts)</v>
+        <v>AUS - AR (311 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(283 pts)</v>
+        <v>(311 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Colin Ackermann</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B31" t="str">
-        <v>NED - AR (277 pts)</v>
+        <v>IND - AR (295 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(277 pts)</v>
+        <v>(295 pts)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B32" t="str">
-        <v>SA - BOWL (277 pts)</v>
+        <v>NED - BOWL (301 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(277 pts)</v>
+        <v>(301 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>KL Rahul</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B33" t="str">
-        <v>IND - BAT (277 pts)</v>
+        <v>IND - BOWL (288 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(277 pts)</v>
+        <v>(288 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Mitchell Starc</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B34" t="str">
-        <v>AUS - BOWL (274 pts)</v>
+        <v>BAN - AR (328 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(274 pts)</v>
+        <v>(328 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B35" t="str">
-        <v>SA - BAT (274 pts)</v>
+        <v>BAN - AR (286 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(274 pts)</v>
+        <v>(286 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Hasan Ali</v>
+        <v>Joe Root</v>
       </c>
       <c r="B36" t="str">
-        <v>PAK - BOWL (262 pts)</v>
+        <v>ENG - BAT (285 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(262 pts)</v>
+        <v>(285 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Haris Rauf</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B37" t="str">
-        <v>PAK - BOWL (262 pts)</v>
+        <v>AFG - AR (283 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(262 pts)</v>
+        <v>(283 pts)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Adil Rashid</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B38" t="str">
-        <v>ENG - BOWL (260 pts)</v>
+        <v>SA - BOWL (277 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(260 pts)</v>
+        <v>(277 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B39" t="str">
-        <v>IND - AR (295 pts)</v>
+        <v>IND - BAT (277 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(295 pts)</v>
+        <v>(277 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Aryan Dutt</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B40" t="str">
-        <v>NED - BOWL (259 pts)</v>
+        <v>SA - BAT (274 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(259 pts)</v>
+        <v>(274 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Glenn Phillips</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B41" t="str">
-        <v>NZ - AR (255 pts)</v>
+        <v>AFG - BOWL (283 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(255 pts)</v>
+        <v>(283 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B42" t="str">
-        <v>BAN - AR (255 pts)</v>
+        <v>AUS - BOWL (264 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(255 pts)</v>
+        <v>(264 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Litton Das</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B43" t="str">
-        <v>BAN - WK (251 pts)</v>
+        <v>PAK - BOWL (262 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(251 pts)</v>
+        <v>(262 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Dawid Malan</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B44" t="str">
-        <v>ENG - BAT (253 pts)</v>
+        <v>PAK - BOWL (262 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(253 pts)</v>
+        <v>(262 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B45" t="str">
-        <v>AFG - WK (302 pts)</v>
+        <v>NED - WK (261 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(302 pts)</v>
+        <v>(261 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B46" t="str">
-        <v>AFG - BAT (245 pts)</v>
+        <v>ENG - BOWL (260 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(245 pts)</v>
+        <v>(260 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Scott Edwards</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B47" t="str">
-        <v>NED - WK (245 pts)</v>
+        <v>BAN - AR (255 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(245 pts)</v>
+        <v>(255 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Litton Das</v>
       </c>
       <c r="B48" t="str">
-        <v>NZ - BOWL (239 pts)</v>
+        <v>BAN - WK (251 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(239 pts)</v>
+        <v>(251 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Logan van Beek</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B49" t="str">
-        <v>NED - BOWL (238 pts)</v>
+        <v>NZ - AR (255 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(238 pts)</v>
+        <v>(255 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Tom Latham</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B50" t="str">
-        <v>NZ - WK (236 pts)</v>
+        <v>ENG - BOWL (247 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(236 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Shoriful Islam</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B51" t="str">
-        <v>BAN - BOWL (236 pts)</v>
+        <v>AFG - BAT (245 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(236 pts)</v>
+        <v>(245 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Reece Topley</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B52" t="str">
-        <v>ENG - BOWL (247 pts)</v>
+        <v>ENG - BAT (253 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(247 pts)</v>
+        <v>(253 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B53" t="str">
-        <v>AUS - AR (246 pts)</v>
+        <v>AUS - BAT (253 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(246 pts)</v>
+        <v>(253 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B54" t="str">
-        <v>BAN - WK (227 pts)</v>
+        <v>NZ - BOWL (239 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(227 pts)</v>
+        <v>(239 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B55" t="str">
-        <v>NED - BOWL (227 pts)</v>
+        <v>NZ - WK (236 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(227 pts)</v>
+        <v>(236 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Babar Azam</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B56" t="str">
-        <v>PAK - BAT (224 pts)</v>
+        <v>BAN - BOWL (236 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(224 pts)</v>
+        <v>(236 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>David Miller</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B57" t="str">
-        <v>SA - BAT (214 pts)</v>
+        <v>NED - BOWL (231 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(214 pts)</v>
+        <v>(231 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Pat Cummins</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B58" t="str">
-        <v>AUS - BOWL (213 pts)</v>
+        <v>BAN - WK (227 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(213 pts)</v>
+        <v>(227 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B59" t="str">
-        <v>AFG - BOWL (210 pts)</v>
+        <v>PAK - BAT (219 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(210 pts)</v>
+        <v>(219 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B60" t="str">
-        <v>AFG - BOWL (207 pts)</v>
+        <v>PAK - BAT (224 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(207 pts)</v>
+        <v>(224 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Rahmat Shah</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B61" t="str">
-        <v>AFG - AR (204 pts)</v>
+        <v>SL - BAT (219 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(204 pts)</v>
+        <v>(219 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B62" t="str">
-        <v>SL - BAT (219 pts)</v>
+        <v>AUS - BOWL (215 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(219 pts)</v>
+        <v>(215 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Saud Shakeel</v>
+        <v>David Miller</v>
       </c>
       <c r="B63" t="str">
-        <v>PAK - BAT (219 pts)</v>
+        <v>SA - BAT (214 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(219 pts)</v>
+        <v>(214 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B64" t="str">
-        <v>PAK - BAT (203 pts)</v>
+        <v>AFG - BOWL (210 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(203 pts)</v>
+        <v>(210 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Charith Asalanka</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B65" t="str">
-        <v>SL - BAT (203 pts)</v>
+        <v>AFG - BOWL (207 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(203 pts)</v>
+        <v>(207 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Will Young</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B66" t="str">
-        <v>NZ - BAT (202 pts)</v>
+        <v>PAK - BAT (203 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(202 pts)</v>
+        <v>(203 pts)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B67" t="str">
-        <v>AFG - BAT (199 pts)</v>
+        <v>SL - BAT (203 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(199 pts)</v>
+        <v>(203 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Trent Boult</v>
+        <v>Will Young</v>
       </c>
       <c r="B68" t="str">
-        <v>NZ - BOWL (200 pts)</v>
+        <v>NZ - BAT (202 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(200 pts)</v>
+        <v>(202 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B69" t="str">
-        <v>SL - BOWL (200 pts)</v>
+        <v>AFG - AR (204 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(200 pts)</v>
+        <v>(204 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B70" t="str">
-        <v>SA - BOWL (199 pts)</v>
+        <v>NZ - BOWL (200 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(199 pts)</v>
+        <v>(200 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B71" t="str">
-        <v>IND - BOWL (194 pts)</v>
+        <v>AFG - BAT (199 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(194 pts)</v>
+        <v>(199 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Jos Buttler</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B72" t="str">
-        <v>ENG - WK (193 pts)</v>
+        <v>SA - BOWL (199 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(193 pts)</v>
+        <v>(199 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B73" t="str">
-        <v>IND - BAT (197 pts)</v>
+        <v>NED - AR (198 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(197 pts)</v>
+        <v>(198 pts)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B74" t="str">
-        <v>PAK - AR (194 pts)</v>
+        <v>SL - BOWL (200 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(194 pts)</v>
+        <v>(200 pts)</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Mark Wood</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B75" t="str">
-        <v>ENG - BOWL (187 pts)</v>
+        <v>IND - BAT (197 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(187 pts)</v>
+        <v>(197 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B76" t="str">
-        <v>AFG - AR (183 pts)</v>
+        <v>IND - BOWL (194 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(183 pts)</v>
+        <v>(194 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B77" t="str">
-        <v>AUS - AR (178 pts)</v>
+        <v>ENG - BOWL (187 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(178 pts)</v>
+        <v>(187 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B78" t="str">
-        <v>NED - AR (180 pts)</v>
+        <v>AUS - BAT (186 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(180 pts)</v>
+        <v>(186 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B79" t="str">
-        <v>AUS - BOWL (176 pts)</v>
+        <v>NED - AR (185 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(176 pts)</v>
+        <v>(185 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Harry Brook</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B80" t="str">
-        <v>ENG - BAT (172 pts)</v>
+        <v>AFG - AR (183 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(172 pts)</v>
+        <v>(183 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Hardik Pandya</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B81" t="str">
-        <v>IND - AR (170 pts)</v>
+        <v>AUS - WK (180 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(170 pts)</v>
+        <v>(180 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B82" t="str">
-        <v>AUS - BAT (168 pts)</v>
+        <v>ENG - BAT (172 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(168 pts)</v>
+        <v>(172 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Mohammad Shami</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B83" t="str">
-        <v>IND - BOWL (162 pts)</v>
+        <v>PAK - AR (194 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(162 pts)</v>
+        <v>(194 pts)</v>
       </c>
     </row>
     <row r="84">
@@ -1317,24 +1317,24 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Shadab Khan</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B86" t="str">
-        <v>PAK - AR (157 pts)</v>
+        <v>ENG - WK (193 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(157 pts)</v>
+        <v>(193 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B87" t="str">
-        <v>NED - AR (154 pts)</v>
+        <v>IND - AR (170 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(154 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="88">
@@ -1372,68 +1372,68 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B91" t="str">
-        <v>SA - BAT (135 pts)</v>
+        <v>IND - BOWL (162 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(135 pts)</v>
+        <v>(162 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B92" t="str">
-        <v>BAN - AR (133 pts)</v>
+        <v>PAK - AR (157 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(133 pts)</v>
+        <v>(157 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Josh Inglis</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B93" t="str">
-        <v>AUS - WK (131 pts)</v>
+        <v>NED - AR (143 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(131 pts)</v>
+        <v>(143 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B94" t="str">
-        <v>AUS - AR (122 pts)</v>
+        <v>SA - BAT (135 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(122 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B95" t="str">
-        <v>AFG - WK (119 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(119 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Sam Curran</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B96" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>BAN - AR (133 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(118 pts)</v>
+        <v>(133 pts)</v>
       </c>
     </row>
     <row r="97">
@@ -1449,13 +1449,13 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B98" t="str">
-        <v>BAN - BAT (114 pts)</v>
+        <v>AUS - AR (122 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(114 pts)</v>
+        <v>(122 pts)</v>
       </c>
     </row>
     <row r="99">
@@ -1482,142 +1482,142 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Liam Livingstone</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B101" t="str">
-        <v>ENG - AR (105 pts)</v>
+        <v>AFG - WK (119 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(105 pts)</v>
+        <v>(119 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Vikram Singh</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B102" t="str">
-        <v>NED - AR (106 pts)</v>
+        <v>ENG - AR (105 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(106 pts)</v>
+        <v>(105 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B103" t="str">
-        <v>BAN - BOWL (106 pts)</v>
+        <v>ENG - BOWL (104 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(106 pts)</v>
+        <v>(104 pts)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Kane Williamson</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B104" t="str">
-        <v>NZ - BAT (96 pts)</v>
+        <v>ENG - AR (102 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(96 pts)</v>
+        <v>(102 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Temba Bavuma</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B105" t="str">
-        <v>SA - BAT (95 pts)</v>
+        <v>NED - BAT (99 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(95 pts)</v>
+        <v>(99 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Steven Smith</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B106" t="str">
-        <v>AUS - BAT (94 pts)</v>
+        <v>BAN - BOWL (106 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(94 pts)</v>
+        <v>(106 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B107" t="str">
-        <v>BAN - BOWL (93 pts)</v>
+        <v>BAN - BAT (114 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(93 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Fazalhaq Farooqi</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B108" t="str">
-        <v>AFG - BOWL (92 pts)</v>
+        <v>NZ - BAT (96 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(92 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Noor Ahmad</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B109" t="str">
-        <v>AFG - BOWL (87 pts)</v>
+        <v>SA - BAT (95 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(87 pts)</v>
+        <v>(95 pts)</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Chris Woakes</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B110" t="str">
-        <v>ENG - AR (102 pts)</v>
+        <v>BAN - BOWL (93 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(102 pts)</v>
+        <v>(93 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Gus Atkinson</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B111" t="str">
-        <v>ENG - BOWL (104 pts)</v>
+        <v>NED - BAT (92 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(104 pts)</v>
+        <v>(92 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Max O'Dowd</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B112" t="str">
-        <v>NED - BAT (81 pts)</v>
+        <v>AFG - BOWL (87 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(81 pts)</v>
+        <v>(87 pts)</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B113" t="str">
-        <v>NED - BAT (79 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C113" t="str">
         <v>(79 pts)</v>
@@ -1636,145 +1636,145 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Fazalhaq Farooqi</v>
       </c>
       <c r="B115" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>AFG - BOWL (92 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(79 pts)</v>
+        <v>(92 pts)</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Ishan Kishan</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B116" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>SL - BOWL (78 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(63 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B117" t="str">
-        <v>BAN - BOWL (90 pts)</v>
+        <v>NZ - BAT (68 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(90 pts)</v>
+        <v>(68 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B118" t="str">
-        <v>SL - BOWL (78 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(78 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Mark Chapman</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B119" t="str">
-        <v>NZ - BAT (68 pts)</v>
+        <v>SA - BOWL (58 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(68 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B120" t="str">
-        <v>BAN - BOWL (54 pts)</v>
+        <v>BAN - BOWL (90 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(54 pts)</v>
+        <v>(90 pts)</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Lizaad Williams</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B121" t="str">
-        <v>SA - BOWL (58 pts)</v>
+        <v>SA - BOWL (54 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(58 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Usama Mir</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B122" t="str">
-        <v>PAK - BOWL (51 pts)</v>
+        <v>BAN - BOWL (54 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(51 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B123" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(37 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B124" t="str">
-        <v>PAK - BAT (35 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(35 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B125" t="str">
-        <v>NED - AR (31 pts)</v>
+        <v>PAK - BOWL (51 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(31 pts)</v>
+        <v>(51 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Chamika Karunaratne</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B126" t="str">
-        <v>SL - AR (28 pts)</v>
+        <v>PAK - BAT (35 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(28 pts)</v>
+        <v>(35 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B127" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>AUS - AR (31 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(27 pts)</v>
+        <v>(31 pts)</v>
       </c>
     </row>
     <row r="128">
@@ -1801,24 +1801,24 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B130" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C130" t="str">
-        <v>(53 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Moeen Ali</v>
+        <v>Chamika Karunaratne</v>
       </c>
       <c r="B131" t="str">
-        <v>ENG - AR (16 pts)</v>
+        <v>SL - AR (28 pts)</v>
       </c>
       <c r="C131" t="str">
-        <v>(16 pts)</v>
+        <v>(28 pts)</v>
       </c>
     </row>
     <row r="132">
@@ -1878,13 +1878,13 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B137" t="str">
-        <v>SA - BOWL (54 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C137" t="str">
-        <v>(54 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="138">
@@ -1911,21 +1911,21 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Alex Carey</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B140" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C140" t="str">
-        <v>(1 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Anamul Haque</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B141" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>NED - WK (0 pts)</v>
       </c>
       <c r="C141" t="str">
         <v>(0 pts)</v>
@@ -1933,21 +1933,21 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Cameron Green</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B142" t="str">
-        <v>AUS - AR (18 pts)</v>
+        <v>NED - AR (31 pts)</v>
       </c>
       <c r="C142" t="str">
-        <v>(18 pts)</v>
+        <v>(31 pts)</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Jason Roy</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B143" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>AUS - BOWL (0 pts)</v>
       </c>
       <c r="C143" t="str">
         <v>(0 pts)</v>
@@ -1955,10 +1955,10 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Sean Abbott</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B144" t="str">
-        <v>AUS - BOWL (0 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C144" t="str">
         <v>(0 pts)</v>
@@ -1966,10 +1966,10 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Ashton Agar</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B145" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C145" t="str">
         <v>(0 pts)</v>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Ish Sodhi</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B146" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C146" t="str">
         <v>(0 pts)</v>
@@ -1988,21 +1988,21 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B147" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>ENG - AR (16 pts)</v>
       </c>
       <c r="C147" t="str">
-        <v>(0 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Wesley Barresi</v>
+        <v>Travis Head</v>
       </c>
       <c r="B148" t="str">
-        <v>NED - WK (0 pts)</v>
+        <v>AUS - BAT (0 pts)</v>
       </c>
       <c r="C148" t="str">
         <v>(0 pts)</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B149" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C149" t="str">
         <v>(0 pts)</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Tom Blundell</v>
+        <v>Andile Phehlukwayo</v>
       </c>
       <c r="B152" t="str">
-        <v>NZ - WK (0 pts)</v>
+        <v>SA - AR (0 pts)</v>
       </c>
       <c r="C152" t="str">
         <v>(0 pts)</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Travis Head</v>
+        <v>Sahan Arachchige</v>
       </c>
       <c r="B153" t="str">
-        <v>AUS - BAT (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C153" t="str">
         <v>(0 pts)</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Andile Phehlukwayo</v>
+        <v>Pramod Madushan</v>
       </c>
       <c r="B154" t="str">
-        <v>SA - AR (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Sahan Arachchige</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B155" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C155" t="str">
         <v>(0 pts)</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Axar Patel</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B156" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C156" t="str">
         <v>(0 pts)</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Afif Hossain</v>
+        <v>Abdul Rahman</v>
       </c>
       <c r="B157" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C157" t="str">
         <v>(0 pts)</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Abdul Rahman</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B158" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C158" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Shamim Hossain</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B159" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Mohammad Naim</v>
+        <v>Tom Blundell</v>
       </c>
       <c r="B160" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>NZ - WK (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Tanzim Hasan Sakib</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B161" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C161" t="str">
         <v>(0 pts)</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Pramod Madushan</v>
+        <v>Mohammad Naim</v>
       </c>
       <c r="B162" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C162" t="str">
         <v>(0 pts)</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Riaz Hassan</v>
+        <v>Tanzim Hasan Sakib</v>
       </c>
       <c r="B163" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>BAN - BOWL (0 pts)</v>
       </c>
       <c r="C163" t="str">
         <v>(0 pts)</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B164" t="str">
-        <v>NED - BOWL (0 pts)</v>
+        <v>PAK - BOWL (0 pts)</v>
       </c>
       <c r="C164" t="str">
         <v>(0 pts)</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Shariz Ahmad</v>
       </c>
       <c r="B165" t="str">
-        <v>PAK - BOWL (0 pts)</v>
+        <v>NED - BOWL (0 pts)</v>
       </c>
       <c r="C165" t="str">
         <v>(0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C165"/>
+  <dimension ref="A1:C166"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -404,57 +404,57 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>David Warner</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B3" t="str">
-        <v>AUS - BAT (479 pts)</v>
+        <v>NZ - AR (456 pts)</v>
       </c>
       <c r="C3" t="str">
-        <v>(479 pts)</v>
+        <v>(456 pts)</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Virat Kohli</v>
+        <v>David Warner</v>
       </c>
       <c r="B4" t="str">
-        <v>IND - BAT (477 pts)</v>
+        <v>AUS - BAT (479 pts)</v>
       </c>
       <c r="C4" t="str">
-        <v>(477 pts)</v>
+        <v>(479 pts)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Marco Jansen</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B5" t="str">
-        <v>SA - AR (469 pts)</v>
+        <v>IND - BAT (477 pts)</v>
       </c>
       <c r="C5" t="str">
-        <v>(469 pts)</v>
+        <v>(477 pts)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Mitchell Santner</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B6" t="str">
-        <v>NZ - AR (456 pts)</v>
+        <v>NZ - AR (453 pts)</v>
       </c>
       <c r="C6" t="str">
-        <v>(456 pts)</v>
+        <v>(453 pts)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B7" t="str">
-        <v>NZ - AR (453 pts)</v>
+        <v>SA - AR (469 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(453 pts)</v>
+        <v>(469 pts)</v>
       </c>
     </row>
     <row r="8">
@@ -481,24 +481,24 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B10" t="str">
-        <v>PAK - WK (432 pts)</v>
+        <v>IND - BAT (429 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(432 pts)</v>
+        <v>(429 pts)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Rohit Sharma</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B11" t="str">
-        <v>IND - BAT (429 pts)</v>
+        <v>NED - AR (402 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(429 pts)</v>
+        <v>(402 pts)</v>
       </c>
     </row>
     <row r="12">
@@ -514,211 +514,211 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Bas de Leede</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B13" t="str">
-        <v>NED - AR (402 pts)</v>
+        <v>NZ - BOWL (370 pts)</v>
       </c>
       <c r="C13" t="str">
-        <v>(402 pts)</v>
+        <v>(370 pts)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B14" t="str">
-        <v>SA - BOWL (365 pts)</v>
+        <v>SL - WK (400 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(365 pts)</v>
+        <v>(400 pts)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Aiden Markram</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B15" t="str">
-        <v>SA - AR (359 pts)</v>
+        <v>IND - BOWL (363 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(359 pts)</v>
+        <v>(363 pts)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Matt Henry</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B16" t="str">
-        <v>NZ - BOWL (370 pts)</v>
+        <v>SL - WK (397 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(370 pts)</v>
+        <v>(397 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B17" t="str">
-        <v>IND - BOWL (363 pts)</v>
+        <v>SA - AR (359 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(363 pts)</v>
+        <v>(359 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Devon Conway</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B18" t="str">
-        <v>NZ - WK (356 pts)</v>
+        <v>SL - BOWL (358 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(356 pts)</v>
+        <v>(358 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B19" t="str">
-        <v>SL - BOWL (356 pts)</v>
+        <v>PAK - WK (432 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(356 pts)</v>
+        <v>(432 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B20" t="str">
-        <v>PAK - BAT (346 pts)</v>
+        <v>SA - BOWL (365 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(346 pts)</v>
+        <v>(365 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B21" t="str">
-        <v>PAK - BOWL (344 pts)</v>
+        <v>NZ - WK (356 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(344 pts)</v>
+        <v>(356 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Logan van Beek</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B22" t="str">
-        <v>NED - BOWL (344 pts)</v>
+        <v>PAK - BAT (346 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(344 pts)</v>
+        <v>(346 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B23" t="str">
-        <v>AUS - AR (339 pts)</v>
+        <v>NED - BOWL (344 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(339 pts)</v>
+        <v>(344 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B24" t="str">
-        <v>SA - BOWL (323 pts)</v>
+        <v>PAK - BOWL (344 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(323 pts)</v>
+        <v>(344 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Mitchell Starc</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B25" t="str">
-        <v>AUS - BOWL (311 pts)</v>
+        <v>AUS - AR (339 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(311 pts)</v>
+        <v>(339 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Kusal Mendis</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B26" t="str">
-        <v>SL - WK (334 pts)</v>
+        <v>BAN - AR (328 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(334 pts)</v>
+        <v>(328 pts)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Colin Ackermann</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B27" t="str">
-        <v>NED - AR (309 pts)</v>
+        <v>SL - BAT (315 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(309 pts)</v>
+        <v>(315 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B28" t="str">
-        <v>SL - WK (306 pts)</v>
+        <v>AUS - BOWL (311 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(306 pts)</v>
+        <v>(311 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B29" t="str">
-        <v>AFG - WK (302 pts)</v>
+        <v>AUS - AR (311 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(302 pts)</v>
+        <v>(311 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B30" t="str">
-        <v>AUS - AR (311 pts)</v>
+        <v>SA - BOWL (323 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(311 pts)</v>
+        <v>(323 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B31" t="str">
-        <v>IND - AR (295 pts)</v>
+        <v>NED - AR (309 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(295 pts)</v>
+        <v>(309 pts)</v>
       </c>
     </row>
     <row r="32">
@@ -734,35 +734,35 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B33" t="str">
-        <v>IND - BOWL (288 pts)</v>
+        <v>IND - AR (295 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(288 pts)</v>
+        <v>(295 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B34" t="str">
-        <v>BAN - AR (328 pts)</v>
+        <v>ENG - BAT (293 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(328 pts)</v>
+        <v>(293 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B35" t="str">
-        <v>BAN - AR (286 pts)</v>
+        <v>AFG - WK (302 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(286 pts)</v>
+        <v>(302 pts)</v>
       </c>
     </row>
     <row r="36">
@@ -770,43 +770,43 @@
         <v>Joe Root</v>
       </c>
       <c r="B36" t="str">
-        <v>ENG - BAT (285 pts)</v>
+        <v>ENG - BAT (292 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(285 pts)</v>
+        <v>(292 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B37" t="str">
-        <v>AFG - AR (283 pts)</v>
+        <v>IND - BOWL (288 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(283 pts)</v>
+        <v>(288 pts)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B38" t="str">
-        <v>SA - BOWL (277 pts)</v>
+        <v>BAN - AR (286 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(277 pts)</v>
+        <v>(286 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>KL Rahul</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B39" t="str">
-        <v>IND - BAT (277 pts)</v>
+        <v>AFG - BOWL (283 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(277 pts)</v>
+        <v>(283 pts)</v>
       </c>
     </row>
     <row r="40">
@@ -822,13 +822,13 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Rashid Khan</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B41" t="str">
-        <v>AFG - BOWL (283 pts)</v>
+        <v>ENG - BOWL (266 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(283 pts)</v>
+        <v>(266 pts)</v>
       </c>
     </row>
     <row r="42">
@@ -844,68 +844,68 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Hasan Ali</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B43" t="str">
-        <v>PAK - BOWL (262 pts)</v>
+        <v>AFG - AR (283 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(262 pts)</v>
+        <v>(283 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Haris Rauf</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B44" t="str">
-        <v>PAK - BOWL (262 pts)</v>
+        <v>SA - BOWL (277 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(262 pts)</v>
+        <v>(277 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Scott Edwards</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B45" t="str">
-        <v>NED - WK (261 pts)</v>
+        <v>IND - BAT (277 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(261 pts)</v>
+        <v>(277 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Adil Rashid</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B46" t="str">
-        <v>ENG - BOWL (260 pts)</v>
+        <v>PAK - BOWL (262 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(260 pts)</v>
+        <v>(262 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B47" t="str">
-        <v>BAN - AR (255 pts)</v>
+        <v>PAK - BOWL (262 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(255 pts)</v>
+        <v>(262 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Litton Das</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B48" t="str">
-        <v>BAN - WK (251 pts)</v>
+        <v>NED - WK (261 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(251 pts)</v>
+        <v>(261 pts)</v>
       </c>
     </row>
     <row r="49">
@@ -932,54 +932,54 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B51" t="str">
-        <v>AFG - BAT (245 pts)</v>
+        <v>BAN - AR (255 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(245 pts)</v>
+        <v>(255 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Dawid Malan</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B52" t="str">
-        <v>ENG - BAT (253 pts)</v>
+        <v>NZ - BOWL (239 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(253 pts)</v>
+        <v>(239 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B53" t="str">
-        <v>AUS - BAT (253 pts)</v>
+        <v>AFG - BAT (245 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(253 pts)</v>
+        <v>(245 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B54" t="str">
-        <v>NZ - BOWL (239 pts)</v>
+        <v>NZ - WK (236 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(239 pts)</v>
+        <v>(236 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Tom Latham</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B55" t="str">
-        <v>NZ - WK (236 pts)</v>
+        <v>BAN - BOWL (236 pts)</v>
       </c>
       <c r="C55" t="str">
         <v>(236 pts)</v>
@@ -987,46 +987,46 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Shoriful Islam</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B56" t="str">
-        <v>BAN - BOWL (236 pts)</v>
+        <v>NED - BOWL (231 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(236 pts)</v>
+        <v>(231 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B57" t="str">
-        <v>NED - BOWL (231 pts)</v>
+        <v>SL - BOWL (254 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(231 pts)</v>
+        <v>(254 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Litton Das</v>
       </c>
       <c r="B58" t="str">
-        <v>BAN - WK (227 pts)</v>
+        <v>BAN - WK (251 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(227 pts)</v>
+        <v>(251 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Saud Shakeel</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B59" t="str">
-        <v>PAK - BAT (219 pts)</v>
+        <v>BAN - WK (227 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(219 pts)</v>
+        <v>(227 pts)</v>
       </c>
     </row>
     <row r="60">
@@ -1042,10 +1042,10 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B61" t="str">
-        <v>SL - BAT (219 pts)</v>
+        <v>PAK - BAT (219 pts)</v>
       </c>
       <c r="C61" t="str">
         <v>(219 pts)</v>
@@ -1053,57 +1053,57 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B62" t="str">
-        <v>AUS - BOWL (215 pts)</v>
+        <v>AUS - BAT (253 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(215 pts)</v>
+        <v>(253 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>David Miller</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B63" t="str">
-        <v>SA - BAT (214 pts)</v>
+        <v>AUS - BOWL (215 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(214 pts)</v>
+        <v>(215 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>David Miller</v>
       </c>
       <c r="B64" t="str">
-        <v>AFG - BOWL (210 pts)</v>
+        <v>SA - BAT (214 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(210 pts)</v>
+        <v>(214 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B65" t="str">
-        <v>AFG - BOWL (207 pts)</v>
+        <v>ENG - WK (214 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(207 pts)</v>
+        <v>(214 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B66" t="str">
-        <v>PAK - BAT (203 pts)</v>
+        <v>AFG - BOWL (210 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(203 pts)</v>
+        <v>(210 pts)</v>
       </c>
     </row>
     <row r="67">
@@ -1111,62 +1111,62 @@
         <v>Charith Asalanka</v>
       </c>
       <c r="B67" t="str">
-        <v>SL - BAT (203 pts)</v>
+        <v>SL - BAT (207 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(203 pts)</v>
+        <v>(207 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Will Young</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B68" t="str">
-        <v>NZ - BAT (202 pts)</v>
+        <v>AFG - BOWL (207 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(202 pts)</v>
+        <v>(207 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Rahmat Shah</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B69" t="str">
-        <v>AFG - AR (204 pts)</v>
+        <v>PAK - BAT (203 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(204 pts)</v>
+        <v>(203 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Trent Boult</v>
+        <v>Will Young</v>
       </c>
       <c r="B70" t="str">
-        <v>NZ - BOWL (200 pts)</v>
+        <v>NZ - BAT (202 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(200 pts)</v>
+        <v>(202 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B71" t="str">
-        <v>AFG - BAT (199 pts)</v>
+        <v>NZ - BOWL (200 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(199 pts)</v>
+        <v>(200 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B72" t="str">
-        <v>SA - BOWL (199 pts)</v>
+        <v>AFG - BAT (199 pts)</v>
       </c>
       <c r="C72" t="str">
         <v>(199 pts)</v>
@@ -1174,395 +1174,395 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B73" t="str">
-        <v>NED - AR (198 pts)</v>
+        <v>AFG - AR (204 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(198 pts)</v>
+        <v>(204 pts)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B74" t="str">
-        <v>SL - BOWL (200 pts)</v>
+        <v>SA - BOWL (199 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(200 pts)</v>
+        <v>(199 pts)</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B75" t="str">
-        <v>IND - BAT (197 pts)</v>
+        <v>NED - AR (198 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(197 pts)</v>
+        <v>(198 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B76" t="str">
-        <v>IND - BOWL (194 pts)</v>
+        <v>ENG - BOWL (197 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(194 pts)</v>
+        <v>(197 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Mark Wood</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B77" t="str">
-        <v>ENG - BOWL (187 pts)</v>
+        <v>ENG - WK (195 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(187 pts)</v>
+        <v>(195 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Steven Smith</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B78" t="str">
-        <v>AUS - BAT (186 pts)</v>
+        <v>PAK - AR (194 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(186 pts)</v>
+        <v>(194 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B79" t="str">
-        <v>NED - AR (185 pts)</v>
+        <v>AUS - BAT (186 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(185 pts)</v>
+        <v>(186 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B80" t="str">
-        <v>AFG - AR (183 pts)</v>
+        <v>IND - BAT (197 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(183 pts)</v>
+        <v>(197 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Josh Inglis</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B81" t="str">
-        <v>AUS - WK (180 pts)</v>
+        <v>IND - BOWL (194 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(180 pts)</v>
+        <v>(194 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Harry Brook</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B82" t="str">
-        <v>ENG - BAT (172 pts)</v>
+        <v>AFG - AR (183 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(172 pts)</v>
+        <v>(183 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B83" t="str">
-        <v>PAK - AR (194 pts)</v>
+        <v>ENG - BAT (172 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(194 pts)</v>
+        <v>(172 pts)</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Shubman Gill</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B84" t="str">
-        <v>IND - BAT (161 pts)</v>
+        <v>IND - AR (170 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(161 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B85" t="str">
-        <v>ENG - WK (158 pts)</v>
+        <v>AUS - WK (180 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(158 pts)</v>
+        <v>(180 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Jos Buttler</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B86" t="str">
-        <v>ENG - WK (193 pts)</v>
+        <v>IND - BAT (161 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(193 pts)</v>
+        <v>(161 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Hardik Pandya</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B87" t="str">
-        <v>IND - AR (170 pts)</v>
+        <v>PAK - AR (157 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(170 pts)</v>
+        <v>(157 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B88" t="str">
-        <v>PAK - AR (147 pts)</v>
+        <v>SL - WK (154 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(147 pts)</v>
+        <v>(154 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B89" t="str">
-        <v>BAN - BAT (144 pts)</v>
+        <v>PAK - AR (147 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(144 pts)</v>
+        <v>(147 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Kusal Perera</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B90" t="str">
-        <v>SL - WK (137 pts)</v>
+        <v>NED - AR (185 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(137 pts)</v>
+        <v>(185 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Mohammad Shami</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B91" t="str">
-        <v>IND - BOWL (162 pts)</v>
+        <v>NED - AR (143 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(162 pts)</v>
+        <v>(143 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Shadab Khan</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B92" t="str">
-        <v>PAK - AR (157 pts)</v>
+        <v>SA - BAT (135 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(157 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Vikram Singh</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B93" t="str">
-        <v>NED - AR (143 pts)</v>
+        <v>BAN - AR (133 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(143 pts)</v>
+        <v>(133 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B94" t="str">
-        <v>SA - BAT (135 pts)</v>
+        <v>AUS - AR (122 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(135 pts)</v>
+        <v>(122 pts)</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Sam Curran</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B95" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>SL - AR (119 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(118 pts)</v>
+        <v>(119 pts)</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B96" t="str">
-        <v>BAN - AR (133 pts)</v>
+        <v>AFG - WK (119 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(133 pts)</v>
+        <v>(119 pts)</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Dasun Shanaka</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B97" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(114 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B98" t="str">
-        <v>AUS - AR (122 pts)</v>
+        <v>SL - BOWL (115 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(122 pts)</v>
+        <v>(115 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B99" t="str">
-        <v>BAN - BAT (108 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(108 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B100" t="str">
-        <v>SL - AR (107 pts)</v>
+        <v>BAN - BAT (114 pts)</v>
       </c>
       <c r="C100" t="str">
-        <v>(107 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B101" t="str">
-        <v>AFG - WK (119 pts)</v>
+        <v>ENG - AR (110 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(119 pts)</v>
+        <v>(110 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Liam Livingstone</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B102" t="str">
-        <v>ENG - AR (105 pts)</v>
+        <v>BAN - BAT (108 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(105 pts)</v>
+        <v>(108 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Gus Atkinson</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B103" t="str">
-        <v>ENG - BOWL (104 pts)</v>
+        <v>BAN - BOWL (106 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(104 pts)</v>
+        <v>(106 pts)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Chris Woakes</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B104" t="str">
-        <v>ENG - AR (102 pts)</v>
+        <v>ENG - BOWL (104 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(102 pts)</v>
+        <v>(104 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B105" t="str">
-        <v>NED - BAT (99 pts)</v>
+        <v>ENG - AR (103 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(99 pts)</v>
+        <v>(103 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B106" t="str">
-        <v>BAN - BOWL (106 pts)</v>
+        <v>NED - BAT (99 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(106 pts)</v>
+        <v>(99 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B107" t="str">
-        <v>BAN - BAT (114 pts)</v>
+        <v>NZ - BAT (96 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(114 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Kane Williamson</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B108" t="str">
-        <v>NZ - BAT (96 pts)</v>
+        <v>SL - BOWL (96 pts)</v>
       </c>
       <c r="C108" t="str">
         <v>(96 pts)</v>
@@ -1581,57 +1581,57 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>David Willey</v>
       </c>
       <c r="B110" t="str">
-        <v>BAN - BOWL (93 pts)</v>
+        <v>ENG - AR (94 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(93 pts)</v>
+        <v>(94 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Max O'Dowd</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B111" t="str">
-        <v>NED - BAT (92 pts)</v>
+        <v>BAN - BOWL (93 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(92 pts)</v>
+        <v>(93 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Noor Ahmad</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B112" t="str">
-        <v>AFG - BOWL (87 pts)</v>
+        <v>IND - BOWL (162 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(87 pts)</v>
+        <v>(162 pts)</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B113" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>BAN - BAT (144 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(79 pts)</v>
+        <v>(144 pts)</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Shardul Thakur</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B114" t="str">
-        <v>IND - BOWL (78 pts)</v>
+        <v>NED - BAT (92 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(78 pts)</v>
+        <v>(92 pts)</v>
       </c>
     </row>
     <row r="115">
@@ -1647,285 +1647,285 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B116" t="str">
-        <v>SL - BOWL (78 pts)</v>
+        <v>AFG - BOWL (87 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(78 pts)</v>
+        <v>(87 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Mark Chapman</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B117" t="str">
-        <v>NZ - BAT (68 pts)</v>
+        <v>ENG - AR (79 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(68 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Ishan Kishan</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B118" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>BAN - BOWL (90 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(63 pts)</v>
+        <v>(90 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Lizaad Williams</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B119" t="str">
-        <v>SA - BOWL (58 pts)</v>
+        <v>IND - BOWL (78 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(58 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B120" t="str">
-        <v>BAN - BOWL (90 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(90 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B121" t="str">
-        <v>SA - BOWL (54 pts)</v>
+        <v>NZ - BAT (68 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(54 pts)</v>
+        <v>(68 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B122" t="str">
-        <v>BAN - BOWL (54 pts)</v>
+        <v>SA - BOWL (58 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(54 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Angelo Mathews</v>
       </c>
       <c r="B123" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>SL - BAT (68 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(53 pts)</v>
+        <v>(68 pts)</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B124" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>SA - BOWL (54 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(37 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Usama Mir</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B125" t="str">
-        <v>PAK - BOWL (51 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(51 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B126" t="str">
-        <v>PAK - BAT (35 pts)</v>
+        <v>PAK - BOWL (51 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(35 pts)</v>
+        <v>(51 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Cameron Green</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B127" t="str">
-        <v>AUS - AR (31 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(31 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>David Willey</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B128" t="str">
-        <v>ENG - AR (23 pts)</v>
+        <v>BAN - BOWL (54 pts)</v>
       </c>
       <c r="C128" t="str">
-        <v>(23 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Ben Stokes</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B129" t="str">
-        <v>ENG - AR (18 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C129" t="str">
-        <v>(18 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B130" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>ENG - AR (36 pts)</v>
       </c>
       <c r="C130" t="str">
-        <v>(27 pts)</v>
+        <v>(36 pts)</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Chamika Karunaratne</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B131" t="str">
-        <v>SL - AR (28 pts)</v>
+        <v>PAK - BAT (35 pts)</v>
       </c>
       <c r="C131" t="str">
-        <v>(28 pts)</v>
+        <v>(35 pts)</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Ryan Klein</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B132" t="str">
-        <v>NED - BOWL (16 pts)</v>
+        <v>AUS - AR (31 pts)</v>
       </c>
       <c r="C132" t="str">
-        <v>(16 pts)</v>
+        <v>(31 pts)</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Dushan Hemantha</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B133" t="str">
-        <v>SL - AR (9 pts)</v>
+        <v>NED - AR (31 pts)</v>
       </c>
       <c r="C133" t="str">
-        <v>(9 pts)</v>
+        <v>(31 pts)</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Chamika Karunaratne</v>
       </c>
       <c r="B134" t="str">
-        <v>SL - BOWL (9 pts)</v>
+        <v>SL - AR (28 pts)</v>
       </c>
       <c r="C134" t="str">
-        <v>(9 pts)</v>
+        <v>(28 pts)</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B135" t="str">
-        <v>IND - BAT (6 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C135" t="str">
-        <v>(6 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>James Neesham</v>
+        <v>Ryan Klein</v>
       </c>
       <c r="B136" t="str">
-        <v>NZ - AR (2 pts)</v>
+        <v>NED - BOWL (16 pts)</v>
       </c>
       <c r="C136" t="str">
-        <v>(2 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Alex Carey</v>
+        <v>Dushan Hemantha</v>
       </c>
       <c r="B137" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>SL - AR (9 pts)</v>
       </c>
       <c r="C137" t="str">
-        <v>(1 pts)</v>
+        <v>(9 pts)</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Tim Southee</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B138" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>IND - BAT (6 pts)</v>
       </c>
       <c r="C138" t="str">
-        <v>(0 pts)</v>
+        <v>(6 pts)</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Angelo Mathews</v>
+        <v>James Neesham</v>
       </c>
       <c r="B139" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>NZ - AR (2 pts)</v>
       </c>
       <c r="C139" t="str">
-        <v>(0 pts)</v>
+        <v>(2 pts)</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Anamul Haque</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B140" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C140" t="str">
-        <v>(0 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Wesley Barresi</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B141" t="str">
-        <v>NED - WK (0 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C141" t="str">
         <v>(0 pts)</v>
@@ -1933,21 +1933,21 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B142" t="str">
-        <v>NED - AR (31 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C142" t="str">
-        <v>(31 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Sean Abbott</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B143" t="str">
-        <v>AUS - BOWL (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C143" t="str">
         <v>(0 pts)</v>
@@ -1955,10 +1955,10 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Ashton Agar</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B144" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>AUS - BOWL (0 pts)</v>
       </c>
       <c r="C144" t="str">
         <v>(0 pts)</v>
@@ -1966,10 +1966,10 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Ish Sodhi</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B145" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C145" t="str">
         <v>(0 pts)</v>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B146" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>NED - WK (0 pts)</v>
       </c>
       <c r="C146" t="str">
         <v>(0 pts)</v>
@@ -1988,21 +1988,21 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Moeen Ali</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B147" t="str">
-        <v>ENG - AR (16 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C147" t="str">
-        <v>(16 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Travis Head</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B148" t="str">
-        <v>AUS - BAT (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C148" t="str">
         <v>(0 pts)</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Jason Roy</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B149" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C149" t="str">
         <v>(0 pts)</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Binura Fernando</v>
+        <v>Travis Head</v>
       </c>
       <c r="B150" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>AUS - BAT (0 pts)</v>
       </c>
       <c r="C150" t="str">
         <v>(0 pts)</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Agha Salman</v>
+        <v>Tom Blundell</v>
       </c>
       <c r="B151" t="str">
-        <v>PAK - AR (0 pts)</v>
+        <v>NZ - WK (0 pts)</v>
       </c>
       <c r="C151" t="str">
         <v>(0 pts)</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Andile Phehlukwayo</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B152" t="str">
-        <v>SA - AR (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C152" t="str">
         <v>(0 pts)</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Pramod Madushan</v>
+        <v>Brydon Carse</v>
       </c>
       <c r="B154" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>ENG - BOWL (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Afif Hossain</v>
+        <v>Pramod Madushan</v>
       </c>
       <c r="B155" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C155" t="str">
         <v>(0 pts)</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Riaz Hassan</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B156" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C156" t="str">
         <v>(0 pts)</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Abdul Rahman</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B157" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C157" t="str">
         <v>(0 pts)</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Shamim Hossain</v>
+        <v>Abdul Rahman</v>
       </c>
       <c r="B158" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C158" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Axar Patel</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B159" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Tom Blundell</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B160" t="str">
-        <v>NZ - WK (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Tanzim Hasan Sakib</v>
       </c>
       <c r="B161" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>BAN - BOWL (0 pts)</v>
       </c>
       <c r="C161" t="str">
         <v>(0 pts)</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Tanzim Hasan Sakib</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B163" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>PAK - BOWL (0 pts)</v>
       </c>
       <c r="C163" t="str">
         <v>(0 pts)</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Shariz Ahmad</v>
       </c>
       <c r="B164" t="str">
-        <v>PAK - BOWL (0 pts)</v>
+        <v>NED - BOWL (0 pts)</v>
       </c>
       <c r="C164" t="str">
         <v>(0 pts)</v>
@@ -2186,18 +2186,29 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B165" t="str">
-        <v>NED - BOWL (0 pts)</v>
+        <v>PAK - AR (0 pts)</v>
       </c>
       <c r="C165" t="str">
+        <v>(0 pts)</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>Andile Phehlukwayo</v>
+      </c>
+      <c r="B166" t="str">
+        <v>SA - AR (0 pts)</v>
+      </c>
+      <c r="C166" t="str">
         <v>(0 pts)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C165"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C166"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -396,21 +396,21 @@
         <v>Quinton de Kock</v>
       </c>
       <c r="B2" t="str">
-        <v>SA - WK (588 pts)</v>
+        <v>SA - WK (657 pts)</v>
       </c>
       <c r="C2" t="str">
-        <v>(588 pts)</v>
+        <v>(657 pts)</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Mitchell Santner</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B3" t="str">
-        <v>NZ - AR (456 pts)</v>
+        <v>SA - AR (576 pts)</v>
       </c>
       <c r="C3" t="str">
-        <v>(456 pts)</v>
+        <v>(576 pts)</v>
       </c>
     </row>
     <row r="4">
@@ -426,68 +426,68 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Virat Kohli</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B5" t="str">
-        <v>IND - BAT (477 pts)</v>
+        <v>PAK - WK (491 pts)</v>
       </c>
       <c r="C5" t="str">
-        <v>(477 pts)</v>
+        <v>(491 pts)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B6" t="str">
-        <v>NZ - AR (453 pts)</v>
+        <v>SA - WK (480 pts)</v>
       </c>
       <c r="C6" t="str">
-        <v>(453 pts)</v>
+        <v>(480 pts)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Marco Jansen</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B7" t="str">
-        <v>SA - AR (469 pts)</v>
+        <v>IND - BAT (477 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(469 pts)</v>
+        <v>(477 pts)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B8" t="str">
-        <v>SA - WK (446 pts)</v>
+        <v>SA - AR (471 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(446 pts)</v>
+        <v>(471 pts)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Adam Zampa</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B9" t="str">
-        <v>AUS - BOWL (435 pts)</v>
+        <v>NZ - AR (456 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(435 pts)</v>
+        <v>(456 pts)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Rohit Sharma</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B10" t="str">
-        <v>IND - BAT (429 pts)</v>
+        <v>NZ - AR (453 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(429 pts)</v>
+        <v>(453 pts)</v>
       </c>
     </row>
     <row r="11">
@@ -503,46 +503,46 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B12" t="str">
-        <v>NZ - AR (390 pts)</v>
+        <v>AUS - BOWL (435 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(390 pts)</v>
+        <v>(435 pts)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Matt Henry</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B13" t="str">
-        <v>NZ - BOWL (370 pts)</v>
+        <v>PAK - BOWL (427 pts)</v>
       </c>
       <c r="C13" t="str">
-        <v>(370 pts)</v>
+        <v>(427 pts)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B14" t="str">
-        <v>SL - WK (400 pts)</v>
+        <v>IND - BAT (429 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(400 pts)</v>
+        <v>(429 pts)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B15" t="str">
-        <v>IND - BOWL (363 pts)</v>
+        <v>SL - WK (400 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(363 pts)</v>
+        <v>(400 pts)</v>
       </c>
     </row>
     <row r="16">
@@ -558,35 +558,35 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Aiden Markram</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B17" t="str">
-        <v>SA - AR (359 pts)</v>
+        <v>NZ - AR (390 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(359 pts)</v>
+        <v>(390 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B18" t="str">
-        <v>SL - BOWL (358 pts)</v>
+        <v>NZ - BOWL (370 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(358 pts)</v>
+        <v>(370 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B19" t="str">
-        <v>PAK - WK (432 pts)</v>
+        <v>SA - BOWL (387 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(432 pts)</v>
+        <v>(387 pts)</v>
       </c>
     </row>
     <row r="20">
@@ -602,43 +602,43 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Devon Conway</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B21" t="str">
-        <v>NZ - WK (356 pts)</v>
+        <v>PAK - BAT (360 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(356 pts)</v>
+        <v>(360 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B22" t="str">
-        <v>PAK - BAT (346 pts)</v>
+        <v>SL - BOWL (358 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(346 pts)</v>
+        <v>(358 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Logan van Beek</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B23" t="str">
-        <v>NED - BOWL (344 pts)</v>
+        <v>NZ - WK (356 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(344 pts)</v>
+        <v>(356 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B24" t="str">
-        <v>PAK - BOWL (344 pts)</v>
+        <v>NED - BOWL (344 pts)</v>
       </c>
       <c r="C24" t="str">
         <v>(344 pts)</v>
@@ -668,90 +668,90 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B27" t="str">
-        <v>SL - BAT (315 pts)</v>
+        <v>PAK - BOWL (324 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(315 pts)</v>
+        <v>(324 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Mitchell Starc</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B28" t="str">
-        <v>AUS - BOWL (311 pts)</v>
+        <v>IND - BOWL (363 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(311 pts)</v>
+        <v>(363 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B29" t="str">
-        <v>AUS - AR (311 pts)</v>
+        <v>SL - BAT (315 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(311 pts)</v>
+        <v>(315 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B30" t="str">
-        <v>SA - BOWL (323 pts)</v>
+        <v>AUS - BOWL (311 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(323 pts)</v>
+        <v>(311 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Colin Ackermann</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B31" t="str">
-        <v>NED - AR (309 pts)</v>
+        <v>AUS - AR (311 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(309 pts)</v>
+        <v>(311 pts)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Aryan Dutt</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B32" t="str">
-        <v>NED - BOWL (301 pts)</v>
+        <v>NED - AR (309 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(301 pts)</v>
+        <v>(309 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B33" t="str">
-        <v>IND - AR (295 pts)</v>
+        <v>SA - BOWL (305 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(295 pts)</v>
+        <v>(305 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Dawid Malan</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B34" t="str">
-        <v>ENG - BAT (293 pts)</v>
+        <v>PAK - BAT (304 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(293 pts)</v>
+        <v>(304 pts)</v>
       </c>
     </row>
     <row r="35">
@@ -767,167 +767,167 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Joe Root</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B36" t="str">
-        <v>ENG - BAT (292 pts)</v>
+        <v>NED - BOWL (301 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(292 pts)</v>
+        <v>(301 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B37" t="str">
-        <v>IND - BOWL (288 pts)</v>
+        <v>SA - BAT (299 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(288 pts)</v>
+        <v>(299 pts)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B38" t="str">
-        <v>BAN - AR (286 pts)</v>
+        <v>PAK - BAT (296 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(286 pts)</v>
+        <v>(296 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Rashid Khan</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B39" t="str">
-        <v>AFG - BOWL (283 pts)</v>
+        <v>IND - AR (295 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(283 pts)</v>
+        <v>(295 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B40" t="str">
-        <v>SA - BAT (274 pts)</v>
+        <v>ENG - BAT (293 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(274 pts)</v>
+        <v>(293 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Adil Rashid</v>
+        <v>Joe Root</v>
       </c>
       <c r="B41" t="str">
-        <v>ENG - BOWL (266 pts)</v>
+        <v>ENG - BAT (292 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(266 pts)</v>
+        <v>(292 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Pat Cummins</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B42" t="str">
-        <v>AUS - BOWL (264 pts)</v>
+        <v>IND - BOWL (288 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(264 pts)</v>
+        <v>(288 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B43" t="str">
-        <v>AFG - AR (283 pts)</v>
+        <v>BAN - AR (286 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(283 pts)</v>
+        <v>(286 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B44" t="str">
-        <v>SA - BOWL (277 pts)</v>
+        <v>AFG - BOWL (283 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(277 pts)</v>
+        <v>(283 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>KL Rahul</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B45" t="str">
-        <v>IND - BAT (277 pts)</v>
+        <v>AFG - AR (283 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(277 pts)</v>
+        <v>(283 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Hasan Ali</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B46" t="str">
-        <v>PAK - BOWL (262 pts)</v>
+        <v>IND - BAT (277 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(262 pts)</v>
+        <v>(277 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Haris Rauf</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B47" t="str">
-        <v>PAK - BOWL (262 pts)</v>
+        <v>ENG - BOWL (266 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(262 pts)</v>
+        <v>(266 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Scott Edwards</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B48" t="str">
-        <v>NED - WK (261 pts)</v>
+        <v>PAK - BOWL (262 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(261 pts)</v>
+        <v>(262 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Glenn Phillips</v>
+        <v>David Miller</v>
       </c>
       <c r="B49" t="str">
-        <v>NZ - AR (255 pts)</v>
+        <v>SA - BAT (261 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(255 pts)</v>
+        <v>(261 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Reece Topley</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B50" t="str">
-        <v>ENG - BOWL (247 pts)</v>
+        <v>NED - WK (261 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(247 pts)</v>
+        <v>(261 pts)</v>
       </c>
     </row>
     <row r="51">
@@ -943,233 +943,233 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B52" t="str">
-        <v>NZ - BOWL (239 pts)</v>
+        <v>AUS - BOWL (264 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(239 pts)</v>
+        <v>(264 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B53" t="str">
-        <v>AFG - BAT (245 pts)</v>
+        <v>NZ - AR (255 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(245 pts)</v>
+        <v>(255 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Tom Latham</v>
+        <v>Litton Das</v>
       </c>
       <c r="B54" t="str">
-        <v>NZ - WK (236 pts)</v>
+        <v>BAN - WK (251 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(236 pts)</v>
+        <v>(251 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Shoriful Islam</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B55" t="str">
-        <v>BAN - BOWL (236 pts)</v>
+        <v>ENG - BOWL (247 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(236 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B56" t="str">
-        <v>NED - BOWL (231 pts)</v>
+        <v>AFG - BAT (245 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(231 pts)</v>
+        <v>(245 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B57" t="str">
-        <v>SL - BOWL (254 pts)</v>
+        <v>SA - BOWL (240 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(254 pts)</v>
+        <v>(240 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Litton Das</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B58" t="str">
-        <v>BAN - WK (251 pts)</v>
+        <v>NZ - WK (236 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(251 pts)</v>
+        <v>(236 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B59" t="str">
-        <v>BAN - WK (227 pts)</v>
+        <v>BAN - BOWL (236 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(227 pts)</v>
+        <v>(236 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Babar Azam</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B60" t="str">
-        <v>PAK - BAT (224 pts)</v>
+        <v>NED - BOWL (231 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(224 pts)</v>
+        <v>(231 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Saud Shakeel</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B61" t="str">
-        <v>PAK - BAT (219 pts)</v>
+        <v>NZ - BOWL (239 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(219 pts)</v>
+        <v>(239 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B62" t="str">
-        <v>AUS - BAT (253 pts)</v>
+        <v>PAK - AR (222 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(253 pts)</v>
+        <v>(222 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B63" t="str">
-        <v>AUS - BOWL (215 pts)</v>
+        <v>SL - BOWL (254 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(215 pts)</v>
+        <v>(254 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>David Miller</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B64" t="str">
-        <v>SA - BAT (214 pts)</v>
+        <v>PAK - BAT (221 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(214 pts)</v>
+        <v>(221 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Jos Buttler</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B65" t="str">
-        <v>ENG - WK (214 pts)</v>
+        <v>AUS - BAT (253 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(214 pts)</v>
+        <v>(253 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B66" t="str">
-        <v>AFG - BOWL (210 pts)</v>
+        <v>ENG - WK (214 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(210 pts)</v>
+        <v>(214 pts)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Charith Asalanka</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B67" t="str">
-        <v>SL - BAT (207 pts)</v>
+        <v>BAN - WK (227 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(207 pts)</v>
+        <v>(227 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B68" t="str">
-        <v>AFG - BOWL (207 pts)</v>
+        <v>AUS - BOWL (215 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(207 pts)</v>
+        <v>(215 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B69" t="str">
-        <v>PAK - BAT (203 pts)</v>
+        <v>PAK - AR (213 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(203 pts)</v>
+        <v>(213 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Will Young</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B70" t="str">
-        <v>NZ - BAT (202 pts)</v>
+        <v>AFG - BOWL (210 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(202 pts)</v>
+        <v>(210 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Trent Boult</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B71" t="str">
-        <v>NZ - BOWL (200 pts)</v>
+        <v>SL - BAT (207 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(200 pts)</v>
+        <v>(207 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B72" t="str">
-        <v>AFG - BAT (199 pts)</v>
+        <v>AFG - BOWL (207 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(199 pts)</v>
+        <v>(207 pts)</v>
       </c>
     </row>
     <row r="73">
@@ -1185,90 +1185,90 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Will Young</v>
       </c>
       <c r="B74" t="str">
-        <v>SA - BOWL (199 pts)</v>
+        <v>NZ - BAT (202 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(199 pts)</v>
+        <v>(202 pts)</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B75" t="str">
-        <v>NED - AR (198 pts)</v>
+        <v>NZ - BOWL (200 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(198 pts)</v>
+        <v>(200 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Mark Wood</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B76" t="str">
-        <v>ENG - BOWL (197 pts)</v>
+        <v>AFG - BAT (199 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(197 pts)</v>
+        <v>(199 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B77" t="str">
-        <v>ENG - WK (195 pts)</v>
+        <v>ENG - BOWL (197 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(195 pts)</v>
+        <v>(197 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B78" t="str">
-        <v>PAK - AR (194 pts)</v>
+        <v>IND - BAT (197 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(194 pts)</v>
+        <v>(197 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Steven Smith</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B79" t="str">
-        <v>AUS - BAT (186 pts)</v>
+        <v>IND - BOWL (194 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(186 pts)</v>
+        <v>(194 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B80" t="str">
-        <v>IND - BAT (197 pts)</v>
+        <v>AUS - BAT (186 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(197 pts)</v>
+        <v>(186 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B81" t="str">
-        <v>IND - BOWL (194 pts)</v>
+        <v>NED - AR (185 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(194 pts)</v>
+        <v>(185 pts)</v>
       </c>
     </row>
     <row r="82">
@@ -1284,343 +1284,343 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Harry Brook</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B83" t="str">
-        <v>ENG - BAT (172 pts)</v>
+        <v>PAK - AR (182 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(172 pts)</v>
+        <v>(182 pts)</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Hardik Pandya</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B84" t="str">
-        <v>IND - AR (170 pts)</v>
+        <v>AUS - WK (180 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(170 pts)</v>
+        <v>(180 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Josh Inglis</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B85" t="str">
-        <v>AUS - WK (180 pts)</v>
+        <v>ENG - BAT (172 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(180 pts)</v>
+        <v>(172 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Shubman Gill</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B86" t="str">
-        <v>IND - BAT (161 pts)</v>
+        <v>IND - AR (170 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(161 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Shadab Khan</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B87" t="str">
-        <v>PAK - AR (157 pts)</v>
+        <v>SA - BOWL (166 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(157 pts)</v>
+        <v>(166 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Kusal Perera</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B88" t="str">
-        <v>SL - WK (154 pts)</v>
+        <v>ENG - WK (195 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(154 pts)</v>
+        <v>(195 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B89" t="str">
-        <v>PAK - AR (147 pts)</v>
+        <v>IND - BAT (161 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(147 pts)</v>
+        <v>(161 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B90" t="str">
-        <v>NED - AR (185 pts)</v>
+        <v>IND - BOWL (162 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(185 pts)</v>
+        <v>(162 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Vikram Singh</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B91" t="str">
-        <v>NED - AR (143 pts)</v>
+        <v>NED - AR (198 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(143 pts)</v>
+        <v>(198 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B92" t="str">
-        <v>SA - BAT (135 pts)</v>
+        <v>SL - WK (154 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(135 pts)</v>
+        <v>(154 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B93" t="str">
-        <v>BAN - AR (133 pts)</v>
+        <v>SA - BAT (135 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(133 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B94" t="str">
-        <v>AUS - AR (122 pts)</v>
+        <v>SA - BAT (135 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(122 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B95" t="str">
-        <v>SL - AR (119 pts)</v>
+        <v>BAN - AR (133 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(119 pts)</v>
+        <v>(133 pts)</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B96" t="str">
-        <v>AFG - WK (119 pts)</v>
+        <v>AUS - AR (122 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(119 pts)</v>
+        <v>(122 pts)</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Sam Curran</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B97" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>PAK - BOWL (121 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(118 pts)</v>
+        <v>(121 pts)</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B98" t="str">
-        <v>SL - BOWL (115 pts)</v>
+        <v>SL - AR (119 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(115 pts)</v>
+        <v>(119 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Dasun Shanaka</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B99" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>AFG - WK (119 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(114 pts)</v>
+        <v>(119 pts)</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B100" t="str">
-        <v>BAN - BAT (114 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C100" t="str">
-        <v>(114 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Liam Livingstone</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B101" t="str">
-        <v>ENG - AR (110 pts)</v>
+        <v>SL - BOWL (115 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(110 pts)</v>
+        <v>(115 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B102" t="str">
-        <v>BAN - BAT (108 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(108 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B103" t="str">
-        <v>BAN - BOWL (106 pts)</v>
+        <v>BAN - BAT (114 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(106 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Gus Atkinson</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B104" t="str">
-        <v>ENG - BOWL (104 pts)</v>
+        <v>BAN - BAT (144 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(104 pts)</v>
+        <v>(144 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Chris Woakes</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B105" t="str">
-        <v>ENG - AR (103 pts)</v>
+        <v>BAN - BAT (108 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(103 pts)</v>
+        <v>(108 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B106" t="str">
-        <v>NED - BAT (99 pts)</v>
+        <v>BAN - BOWL (106 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(99 pts)</v>
+        <v>(106 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Kane Williamson</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B107" t="str">
-        <v>NZ - BAT (96 pts)</v>
+        <v>NED - AR (143 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(96 pts)</v>
+        <v>(143 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B108" t="str">
-        <v>SL - BOWL (96 pts)</v>
+        <v>ENG - AR (110 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(96 pts)</v>
+        <v>(110 pts)</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Temba Bavuma</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B109" t="str">
-        <v>SA - BAT (95 pts)</v>
+        <v>ENG - BOWL (104 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(95 pts)</v>
+        <v>(104 pts)</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>David Willey</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B110" t="str">
-        <v>ENG - AR (94 pts)</v>
+        <v>ENG - AR (103 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(94 pts)</v>
+        <v>(103 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B111" t="str">
-        <v>BAN - BOWL (93 pts)</v>
+        <v>NED - BAT (99 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(93 pts)</v>
+        <v>(99 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Mohammad Shami</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B112" t="str">
-        <v>IND - BOWL (162 pts)</v>
+        <v>SL - BOWL (96 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(162 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B113" t="str">
-        <v>BAN - BAT (144 pts)</v>
+        <v>NZ - BAT (96 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(144 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="114">
@@ -1647,24 +1647,24 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Noor Ahmad</v>
+        <v>David Willey</v>
       </c>
       <c r="B116" t="str">
-        <v>AFG - BOWL (87 pts)</v>
+        <v>ENG - AR (94 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(87 pts)</v>
+        <v>(94 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Ben Stokes</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B117" t="str">
-        <v>ENG - AR (79 pts)</v>
+        <v>BAN - BOWL (93 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(79 pts)</v>
+        <v>(93 pts)</v>
       </c>
     </row>
     <row r="118">
@@ -1680,21 +1680,21 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Shardul Thakur</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B119" t="str">
-        <v>IND - BOWL (78 pts)</v>
+        <v>AFG - BOWL (87 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(78 pts)</v>
+        <v>(87 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B120" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>ENG - AR (79 pts)</v>
       </c>
       <c r="C120" t="str">
         <v>(79 pts)</v>
@@ -1702,101 +1702,101 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Mark Chapman</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B121" t="str">
-        <v>NZ - BAT (68 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(68 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Lizaad Williams</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B122" t="str">
-        <v>SA - BOWL (58 pts)</v>
+        <v>IND - BOWL (78 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(58 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Angelo Mathews</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B123" t="str">
-        <v>SL - BAT (68 pts)</v>
+        <v>PAK - BOWL (75 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(68 pts)</v>
+        <v>(75 pts)</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Angelo Mathews</v>
       </c>
       <c r="B124" t="str">
-        <v>SA - BOWL (54 pts)</v>
+        <v>SL - BAT (68 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(54 pts)</v>
+        <v>(68 pts)</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Ishan Kishan</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B125" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>NZ - BAT (68 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(63 pts)</v>
+        <v>(68 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Usama Mir</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B126" t="str">
-        <v>PAK - BOWL (51 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(51 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B127" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>BAN - BOWL (54 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(37 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B128" t="str">
-        <v>BAN - BOWL (54 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C128" t="str">
-        <v>(54 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B129" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>SA - BOWL (58 pts)</v>
       </c>
       <c r="C129" t="str">
-        <v>(53 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="130">
@@ -1812,32 +1812,32 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B131" t="str">
-        <v>PAK - BAT (35 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C131" t="str">
-        <v>(35 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Cameron Green</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B132" t="str">
-        <v>AUS - AR (31 pts)</v>
+        <v>PAK - BAT (35 pts)</v>
       </c>
       <c r="C132" t="str">
-        <v>(31 pts)</v>
+        <v>(35 pts)</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B133" t="str">
-        <v>NED - AR (31 pts)</v>
+        <v>AUS - AR (31 pts)</v>
       </c>
       <c r="C133" t="str">
         <v>(31 pts)</v>
@@ -1845,68 +1845,68 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Chamika Karunaratne</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B134" t="str">
-        <v>SL - AR (28 pts)</v>
+        <v>NED - AR (31 pts)</v>
       </c>
       <c r="C134" t="str">
-        <v>(28 pts)</v>
+        <v>(31 pts)</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Chamika Karunaratne</v>
       </c>
       <c r="B135" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>SL - AR (28 pts)</v>
       </c>
       <c r="C135" t="str">
-        <v>(27 pts)</v>
+        <v>(28 pts)</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Ryan Klein</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B136" t="str">
-        <v>NED - BOWL (16 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C136" t="str">
-        <v>(16 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Dushan Hemantha</v>
+        <v>Ryan Klein</v>
       </c>
       <c r="B137" t="str">
-        <v>SL - AR (9 pts)</v>
+        <v>NED - BOWL (16 pts)</v>
       </c>
       <c r="C137" t="str">
-        <v>(9 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Dushan Hemantha</v>
       </c>
       <c r="B138" t="str">
-        <v>IND - BAT (6 pts)</v>
+        <v>SL - AR (9 pts)</v>
       </c>
       <c r="C138" t="str">
-        <v>(6 pts)</v>
+        <v>(9 pts)</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>James Neesham</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B139" t="str">
-        <v>NZ - AR (2 pts)</v>
+        <v>IND - BAT (6 pts)</v>
       </c>
       <c r="C139" t="str">
-        <v>(2 pts)</v>
+        <v>(6 pts)</v>
       </c>
     </row>
     <row r="140">
@@ -1922,10 +1922,10 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Anamul Haque</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B141" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C141" t="str">
         <v>(0 pts)</v>
@@ -1933,10 +1933,10 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B142" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>NED - WK (0 pts)</v>
       </c>
       <c r="C142" t="str">
         <v>(0 pts)</v>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Tim Southee</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B143" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C143" t="str">
         <v>(0 pts)</v>
@@ -1955,10 +1955,10 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Sean Abbott</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B144" t="str">
-        <v>AUS - BOWL (0 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C144" t="str">
         <v>(0 pts)</v>
@@ -1966,21 +1966,21 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Jason Roy</v>
+        <v>James Neesham</v>
       </c>
       <c r="B145" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>NZ - AR (2 pts)</v>
       </c>
       <c r="C145" t="str">
-        <v>(0 pts)</v>
+        <v>(2 pts)</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Wesley Barresi</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B146" t="str">
-        <v>NED - WK (0 pts)</v>
+        <v>AUS - BOWL (0 pts)</v>
       </c>
       <c r="C146" t="str">
         <v>(0 pts)</v>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Ish Sodhi</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B148" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C148" t="str">
         <v>(0 pts)</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B149" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C149" t="str">
         <v>(0 pts)</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Travis Head</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B150" t="str">
-        <v>AUS - BAT (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C150" t="str">
         <v>(0 pts)</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Tom Blundell</v>
+        <v>Travis Head</v>
       </c>
       <c r="B151" t="str">
-        <v>NZ - WK (0 pts)</v>
+        <v>AUS - BAT (0 pts)</v>
       </c>
       <c r="C151" t="str">
         <v>(0 pts)</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Binura Fernando</v>
+        <v>Tom Blundell</v>
       </c>
       <c r="B152" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>NZ - WK (0 pts)</v>
       </c>
       <c r="C152" t="str">
         <v>(0 pts)</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Sahan Arachchige</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B153" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>PAK - AR (0 pts)</v>
       </c>
       <c r="C153" t="str">
         <v>(0 pts)</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Brydon Carse</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B154" t="str">
-        <v>ENG - BOWL (0 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Pramod Madushan</v>
+        <v>Sahan Arachchige</v>
       </c>
       <c r="B155" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C155" t="str">
         <v>(0 pts)</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Axar Patel</v>
+        <v>Brydon Carse</v>
       </c>
       <c r="B156" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>ENG - BOWL (0 pts)</v>
       </c>
       <c r="C156" t="str">
         <v>(0 pts)</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Riaz Hassan</v>
+        <v>Pramod Madushan</v>
       </c>
       <c r="B157" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C157" t="str">
         <v>(0 pts)</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Abdul Rahman</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B158" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C158" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Shamim Hossain</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B159" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Afif Hossain</v>
+        <v>Abdul Rahman</v>
       </c>
       <c r="B160" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Tanzim Hasan Sakib</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B161" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C161" t="str">
         <v>(0 pts)</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Tanzim Hasan Sakib</v>
       </c>
       <c r="B163" t="str">
-        <v>PAK - BOWL (0 pts)</v>
+        <v>BAN - BOWL (0 pts)</v>
       </c>
       <c r="C163" t="str">
         <v>(0 pts)</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B164" t="str">
-        <v>NED - BOWL (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C164" t="str">
         <v>(0 pts)</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Agha Salman</v>
+        <v>Andile Phehlukwayo</v>
       </c>
       <c r="B165" t="str">
-        <v>PAK - AR (0 pts)</v>
+        <v>SA - AR (0 pts)</v>
       </c>
       <c r="C165" t="str">
         <v>(0 pts)</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Andile Phehlukwayo</v>
+        <v>Shariz Ahmad</v>
       </c>
       <c r="B166" t="str">
-        <v>SA - AR (0 pts)</v>
+        <v>NED - BOWL (0 pts)</v>
       </c>
       <c r="C166" t="str">
         <v>(0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -404,13 +404,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Marco Jansen</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B3" t="str">
-        <v>SA - AR (576 pts)</v>
+        <v>NZ - AR (610 pts)</v>
       </c>
       <c r="C3" t="str">
-        <v>(576 pts)</v>
+        <v>(610 pts)</v>
       </c>
     </row>
     <row r="4">
@@ -418,128 +418,128 @@
         <v>David Warner</v>
       </c>
       <c r="B4" t="str">
-        <v>AUS - BAT (479 pts)</v>
+        <v>AUS - BAT (589 pts)</v>
       </c>
       <c r="C4" t="str">
-        <v>(479 pts)</v>
+        <v>(589 pts)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B5" t="str">
-        <v>PAK - WK (491 pts)</v>
+        <v>NZ - AR (536 pts)</v>
       </c>
       <c r="C5" t="str">
-        <v>(491 pts)</v>
+        <v>(536 pts)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B6" t="str">
-        <v>SA - WK (480 pts)</v>
+        <v>SA - AR (576 pts)</v>
       </c>
       <c r="C6" t="str">
-        <v>(480 pts)</v>
+        <v>(576 pts)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Virat Kohli</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B7" t="str">
-        <v>IND - BAT (477 pts)</v>
+        <v>PAK - WK (491 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(477 pts)</v>
+        <v>(491 pts)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Aiden Markram</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B8" t="str">
-        <v>SA - AR (471 pts)</v>
+        <v>AUS - BOWL (512 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(471 pts)</v>
+        <v>(512 pts)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Mitchell Santner</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B9" t="str">
-        <v>NZ - AR (456 pts)</v>
+        <v>SA - WK (480 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(456 pts)</v>
+        <v>(480 pts)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B10" t="str">
-        <v>NZ - AR (453 pts)</v>
+        <v>AUS - AR (432 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(453 pts)</v>
+        <v>(432 pts)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Bas de Leede</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B11" t="str">
-        <v>NED - AR (402 pts)</v>
+        <v>IND - BAT (429 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(402 pts)</v>
+        <v>(429 pts)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Adam Zampa</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B12" t="str">
-        <v>AUS - BOWL (435 pts)</v>
+        <v>PAK - BOWL (427 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(435 pts)</v>
+        <v>(427 pts)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B13" t="str">
-        <v>PAK - BOWL (427 pts)</v>
+        <v>NED - AR (425 pts)</v>
       </c>
       <c r="C13" t="str">
-        <v>(427 pts)</v>
+        <v>(425 pts)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Rohit Sharma</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B14" t="str">
-        <v>IND - BAT (429 pts)</v>
+        <v>NZ - BOWL (403 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(429 pts)</v>
+        <v>(403 pts)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B15" t="str">
-        <v>SL - WK (400 pts)</v>
+        <v>NED - BOWL (400 pts)</v>
       </c>
       <c r="C15" t="str">
         <v>(400 pts)</v>
@@ -547,178 +547,178 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Kusal Mendis</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B16" t="str">
-        <v>SL - WK (397 pts)</v>
+        <v>SL - WK (400 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(397 pts)</v>
+        <v>(400 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B17" t="str">
-        <v>NZ - AR (390 pts)</v>
+        <v>SL - WK (397 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(390 pts)</v>
+        <v>(397 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Matt Henry</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B18" t="str">
-        <v>NZ - BOWL (370 pts)</v>
+        <v>IND - BAT (477 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(370 pts)</v>
+        <v>(477 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B19" t="str">
-        <v>SA - BOWL (387 pts)</v>
+        <v>SA - AR (471 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(387 pts)</v>
+        <v>(471 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B20" t="str">
-        <v>SA - BOWL (365 pts)</v>
+        <v>NZ - AR (462 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(365 pts)</v>
+        <v>(462 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B21" t="str">
-        <v>PAK - BAT (360 pts)</v>
+        <v>NZ - WK (394 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(360 pts)</v>
+        <v>(394 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B22" t="str">
-        <v>SL - BOWL (358 pts)</v>
+        <v>AUS - BOWL (365 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(358 pts)</v>
+        <v>(365 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Devon Conway</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B23" t="str">
-        <v>NZ - WK (356 pts)</v>
+        <v>NZ - AR (373 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(356 pts)</v>
+        <v>(373 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Logan van Beek</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B24" t="str">
-        <v>NED - BOWL (344 pts)</v>
+        <v>SA - BOWL (365 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(344 pts)</v>
+        <v>(365 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B25" t="str">
-        <v>AUS - AR (339 pts)</v>
+        <v>NED - WK (359 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(339 pts)</v>
+        <v>(359 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B26" t="str">
-        <v>BAN - AR (328 pts)</v>
+        <v>IND - BOWL (363 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(328 pts)</v>
+        <v>(363 pts)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Haris Rauf</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B27" t="str">
-        <v>PAK - BOWL (324 pts)</v>
+        <v>SL - BOWL (358 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(324 pts)</v>
+        <v>(358 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B28" t="str">
-        <v>IND - BOWL (363 pts)</v>
+        <v>SA - BOWL (387 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(363 pts)</v>
+        <v>(387 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B29" t="str">
-        <v>SL - BAT (315 pts)</v>
+        <v>AUS - AR (353 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(315 pts)</v>
+        <v>(353 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Mitchell Starc</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B30" t="str">
-        <v>AUS - BOWL (311 pts)</v>
+        <v>NED - BOWL (345 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(311 pts)</v>
+        <v>(345 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B31" t="str">
-        <v>AUS - AR (311 pts)</v>
+        <v>BAN - AR (348 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(311 pts)</v>
+        <v>(348 pts)</v>
       </c>
     </row>
     <row r="32">
@@ -726,1066 +726,1066 @@
         <v>Colin Ackermann</v>
       </c>
       <c r="B32" t="str">
-        <v>NED - AR (309 pts)</v>
+        <v>NED - AR (327 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(309 pts)</v>
+        <v>(327 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B33" t="str">
-        <v>SA - BOWL (305 pts)</v>
+        <v>PAK - BOWL (324 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(305 pts)</v>
+        <v>(324 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Babar Azam</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B34" t="str">
-        <v>PAK - BAT (304 pts)</v>
+        <v>NZ - BOWL (321 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(304 pts)</v>
+        <v>(321 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B35" t="str">
-        <v>AFG - WK (302 pts)</v>
+        <v>SL - BAT (315 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(302 pts)</v>
+        <v>(315 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Aryan Dutt</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B36" t="str">
-        <v>NED - BOWL (301 pts)</v>
+        <v>BAN - AR (306 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(301 pts)</v>
+        <v>(306 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B37" t="str">
-        <v>SA - BAT (299 pts)</v>
+        <v>SA - BOWL (305 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(299 pts)</v>
+        <v>(305 pts)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Saud Shakeel</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B38" t="str">
-        <v>PAK - BAT (296 pts)</v>
+        <v>PAK - BAT (304 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(296 pts)</v>
+        <v>(304 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B39" t="str">
-        <v>IND - AR (295 pts)</v>
+        <v>AFG - WK (302 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(295 pts)</v>
+        <v>(302 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Dawid Malan</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B40" t="str">
-        <v>ENG - BAT (293 pts)</v>
+        <v>SA - BAT (299 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(293 pts)</v>
+        <v>(299 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Joe Root</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B41" t="str">
-        <v>ENG - BAT (292 pts)</v>
+        <v>AUS - BAT (299 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(292 pts)</v>
+        <v>(299 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B42" t="str">
-        <v>IND - BOWL (288 pts)</v>
+        <v>AUS - BOWL (338 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(288 pts)</v>
+        <v>(338 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B43" t="str">
-        <v>BAN - AR (286 pts)</v>
+        <v>PAK - BAT (296 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(286 pts)</v>
+        <v>(296 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Rashid Khan</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B44" t="str">
-        <v>AFG - BOWL (283 pts)</v>
+        <v>BAN - AR (296 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(283 pts)</v>
+        <v>(296 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B45" t="str">
-        <v>AFG - AR (283 pts)</v>
+        <v>ENG - BAT (293 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(283 pts)</v>
+        <v>(293 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>KL Rahul</v>
+        <v>Joe Root</v>
       </c>
       <c r="B46" t="str">
-        <v>IND - BAT (277 pts)</v>
+        <v>ENG - BAT (292 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(277 pts)</v>
+        <v>(292 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Adil Rashid</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B47" t="str">
-        <v>ENG - BOWL (266 pts)</v>
+        <v>BAN - BOWL (290 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(266 pts)</v>
+        <v>(290 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Hasan Ali</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B48" t="str">
-        <v>PAK - BOWL (262 pts)</v>
+        <v>IND - BOWL (288 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(262 pts)</v>
+        <v>(288 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>David Miller</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B49" t="str">
-        <v>SA - BAT (261 pts)</v>
+        <v>AUS - BOWL (283 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(261 pts)</v>
+        <v>(283 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Scott Edwards</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B50" t="str">
-        <v>NED - WK (261 pts)</v>
+        <v>PAK - BAT (360 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(261 pts)</v>
+        <v>(360 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B51" t="str">
-        <v>BAN - AR (255 pts)</v>
+        <v>IND - AR (295 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(255 pts)</v>
+        <v>(295 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Pat Cummins</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B52" t="str">
-        <v>AUS - BOWL (264 pts)</v>
+        <v>AFG - BOWL (283 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(264 pts)</v>
+        <v>(283 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Glenn Phillips</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B53" t="str">
-        <v>NZ - AR (255 pts)</v>
+        <v>IND - BAT (277 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(255 pts)</v>
+        <v>(277 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Litton Das</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B54" t="str">
-        <v>BAN - WK (251 pts)</v>
+        <v>AFG - AR (283 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(251 pts)</v>
+        <v>(283 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Reece Topley</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B55" t="str">
-        <v>ENG - BOWL (247 pts)</v>
+        <v>ENG - BOWL (266 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(247 pts)</v>
+        <v>(266 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B56" t="str">
-        <v>AFG - BAT (245 pts)</v>
+        <v>NZ - WK (263 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(245 pts)</v>
+        <v>(263 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B57" t="str">
-        <v>SA - BOWL (240 pts)</v>
+        <v>PAK - BOWL (262 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(240 pts)</v>
+        <v>(262 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Tom Latham</v>
+        <v>David Miller</v>
       </c>
       <c r="B58" t="str">
-        <v>NZ - WK (236 pts)</v>
+        <v>SA - BAT (261 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(236 pts)</v>
+        <v>(261 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Shoriful Islam</v>
+        <v>Litton Das</v>
       </c>
       <c r="B59" t="str">
-        <v>BAN - BOWL (236 pts)</v>
+        <v>BAN - WK (258 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(236 pts)</v>
+        <v>(258 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B60" t="str">
-        <v>NED - BOWL (231 pts)</v>
+        <v>SL - BOWL (254 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(231 pts)</v>
+        <v>(254 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B61" t="str">
-        <v>NZ - BOWL (239 pts)</v>
+        <v>ENG - BOWL (247 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(239 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B62" t="str">
-        <v>PAK - AR (222 pts)</v>
+        <v>BAN - WK (245 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(222 pts)</v>
+        <v>(245 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B63" t="str">
-        <v>SL - BOWL (254 pts)</v>
+        <v>AFG - BAT (245 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(254 pts)</v>
+        <v>(245 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Will Young</v>
       </c>
       <c r="B64" t="str">
-        <v>PAK - BAT (221 pts)</v>
+        <v>NZ - BAT (244 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(221 pts)</v>
+        <v>(244 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B65" t="str">
-        <v>AUS - BAT (253 pts)</v>
+        <v>NZ - BOWL (243 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(253 pts)</v>
+        <v>(243 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Jos Buttler</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B66" t="str">
-        <v>ENG - WK (214 pts)</v>
+        <v>SA - BOWL (240 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(214 pts)</v>
+        <v>(240 pts)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B67" t="str">
-        <v>BAN - WK (227 pts)</v>
+        <v>NED - AR (240 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(227 pts)</v>
+        <v>(240 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B68" t="str">
-        <v>AUS - BOWL (215 pts)</v>
+        <v>AUS - WK (238 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(215 pts)</v>
+        <v>(238 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Shadab Khan</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B69" t="str">
-        <v>PAK - AR (213 pts)</v>
+        <v>NED - BOWL (235 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(213 pts)</v>
+        <v>(235 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B70" t="str">
-        <v>AFG - BOWL (210 pts)</v>
+        <v>PAK - AR (222 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(210 pts)</v>
+        <v>(222 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Charith Asalanka</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B71" t="str">
-        <v>SL - BAT (207 pts)</v>
+        <v>ENG - WK (214 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(207 pts)</v>
+        <v>(214 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B72" t="str">
-        <v>AFG - BOWL (207 pts)</v>
+        <v>PAK - BAT (221 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(207 pts)</v>
+        <v>(221 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Rahmat Shah</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B73" t="str">
-        <v>AFG - AR (204 pts)</v>
+        <v>AUS - BAT (210 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(204 pts)</v>
+        <v>(210 pts)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Will Young</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B74" t="str">
-        <v>NZ - BAT (202 pts)</v>
+        <v>AFG - BOWL (210 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(202 pts)</v>
+        <v>(210 pts)</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Trent Boult</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B75" t="str">
-        <v>NZ - BOWL (200 pts)</v>
+        <v>SL - BAT (207 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(200 pts)</v>
+        <v>(207 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B76" t="str">
-        <v>AFG - BAT (199 pts)</v>
+        <v>AFG - BOWL (207 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(199 pts)</v>
+        <v>(207 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Mark Wood</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B77" t="str">
-        <v>ENG - BOWL (197 pts)</v>
+        <v>BAN - AR (203 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(197 pts)</v>
+        <v>(203 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B78" t="str">
-        <v>IND - BAT (197 pts)</v>
+        <v>AFG - BAT (199 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(197 pts)</v>
+        <v>(199 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B79" t="str">
-        <v>IND - BOWL (194 pts)</v>
+        <v>ENG - BOWL (197 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(194 pts)</v>
+        <v>(197 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Steven Smith</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B80" t="str">
-        <v>AUS - BAT (186 pts)</v>
+        <v>IND - BAT (197 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(186 pts)</v>
+        <v>(197 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B81" t="str">
-        <v>NED - AR (185 pts)</v>
+        <v>PAK - AR (213 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(185 pts)</v>
+        <v>(213 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B82" t="str">
-        <v>AFG - AR (183 pts)</v>
+        <v>AFG - AR (204 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(183 pts)</v>
+        <v>(204 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B83" t="str">
-        <v>PAK - AR (182 pts)</v>
+        <v>ENG - WK (195 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(182 pts)</v>
+        <v>(195 pts)</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Josh Inglis</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B84" t="str">
-        <v>AUS - WK (180 pts)</v>
+        <v>IND - BOWL (194 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(180 pts)</v>
+        <v>(194 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Harry Brook</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B85" t="str">
-        <v>ENG - BAT (172 pts)</v>
+        <v>NED - AR (185 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(172 pts)</v>
+        <v>(185 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Hardik Pandya</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B86" t="str">
-        <v>IND - AR (170 pts)</v>
+        <v>AFG - AR (183 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(170 pts)</v>
+        <v>(183 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B87" t="str">
-        <v>SA - BOWL (166 pts)</v>
+        <v>PAK - AR (182 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(166 pts)</v>
+        <v>(182 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B88" t="str">
-        <v>ENG - WK (195 pts)</v>
+        <v>BAN - BAT (174 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(195 pts)</v>
+        <v>(174 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Shubman Gill</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B89" t="str">
-        <v>IND - BAT (161 pts)</v>
+        <v>ENG - BAT (172 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(161 pts)</v>
+        <v>(172 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Mohammad Shami</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B90" t="str">
-        <v>IND - BOWL (162 pts)</v>
+        <v>IND - AR (170 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(162 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B91" t="str">
-        <v>NED - AR (198 pts)</v>
+        <v>IND - BOWL (162 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(198 pts)</v>
+        <v>(162 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Kusal Perera</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B92" t="str">
-        <v>SL - WK (154 pts)</v>
+        <v>BAN - BOWL (164 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(154 pts)</v>
+        <v>(164 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B93" t="str">
-        <v>SA - BAT (135 pts)</v>
+        <v>SA - BOWL (166 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(135 pts)</v>
+        <v>(166 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Temba Bavuma</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B94" t="str">
-        <v>SA - BAT (135 pts)</v>
+        <v>BAN - BOWL (161 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(135 pts)</v>
+        <v>(161 pts)</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B95" t="str">
-        <v>BAN - AR (133 pts)</v>
+        <v>SL - WK (154 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(133 pts)</v>
+        <v>(154 pts)</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B96" t="str">
-        <v>AUS - AR (122 pts)</v>
+        <v>IND - BAT (161 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(122 pts)</v>
+        <v>(161 pts)</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Usama Mir</v>
+        <v>Travis Head</v>
       </c>
       <c r="B97" t="str">
-        <v>PAK - BOWL (121 pts)</v>
+        <v>AUS - BAT (151 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(121 pts)</v>
+        <v>(151 pts)</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B98" t="str">
-        <v>SL - AR (119 pts)</v>
+        <v>SA - BAT (135 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(119 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B99" t="str">
-        <v>AFG - WK (119 pts)</v>
+        <v>NED - AR (150 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(119 pts)</v>
+        <v>(150 pts)</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Sam Curran</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B100" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>SA - BAT (135 pts)</v>
       </c>
       <c r="C100" t="str">
-        <v>(118 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B101" t="str">
-        <v>SL - BOWL (115 pts)</v>
+        <v>AUS - AR (122 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(115 pts)</v>
+        <v>(122 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Dasun Shanaka</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B102" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>PAK - BOWL (121 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(114 pts)</v>
+        <v>(121 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B103" t="str">
-        <v>BAN - BAT (114 pts)</v>
+        <v>SL - AR (119 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(114 pts)</v>
+        <v>(119 pts)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B104" t="str">
-        <v>BAN - BAT (144 pts)</v>
+        <v>AFG - WK (119 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(144 pts)</v>
+        <v>(119 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B105" t="str">
-        <v>BAN - BAT (108 pts)</v>
+        <v>BAN - BAT (118 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(108 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B106" t="str">
-        <v>BAN - BOWL (106 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(106 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Vikram Singh</v>
+        <v>James Neesham</v>
       </c>
       <c r="B107" t="str">
-        <v>NED - AR (143 pts)</v>
+        <v>NZ - AR (116 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(143 pts)</v>
+        <v>(116 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Liam Livingstone</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B108" t="str">
-        <v>ENG - AR (110 pts)</v>
+        <v>SL - BOWL (115 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(110 pts)</v>
+        <v>(115 pts)</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Gus Atkinson</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B109" t="str">
-        <v>ENG - BOWL (104 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(104 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Chris Woakes</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B110" t="str">
-        <v>ENG - AR (103 pts)</v>
+        <v>ENG - AR (110 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(103 pts)</v>
+        <v>(110 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B111" t="str">
-        <v>NED - BAT (99 pts)</v>
+        <v>BAN - BAT (108 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(99 pts)</v>
+        <v>(108 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B112" t="str">
-        <v>SL - BOWL (96 pts)</v>
+        <v>ENG - BOWL (104 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(96 pts)</v>
+        <v>(104 pts)</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Kane Williamson</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B113" t="str">
-        <v>NZ - BAT (96 pts)</v>
+        <v>ENG - AR (103 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(96 pts)</v>
+        <v>(103 pts)</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Max O'Dowd</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B114" t="str">
-        <v>NED - BAT (92 pts)</v>
+        <v>NED - BAT (99 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(92 pts)</v>
+        <v>(99 pts)</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Fazalhaq Farooqi</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B115" t="str">
-        <v>AFG - BOWL (92 pts)</v>
+        <v>NZ - BAT (96 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(92 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>David Willey</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B116" t="str">
-        <v>ENG - AR (94 pts)</v>
+        <v>SL - BOWL (96 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(94 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>David Willey</v>
       </c>
       <c r="B117" t="str">
-        <v>BAN - BOWL (93 pts)</v>
+        <v>ENG - AR (94 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(93 pts)</v>
+        <v>(94 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B118" t="str">
-        <v>BAN - BOWL (90 pts)</v>
+        <v>NED - BAT (93 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(90 pts)</v>
+        <v>(93 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Noor Ahmad</v>
+        <v>Fazalhaq Farooqi</v>
       </c>
       <c r="B119" t="str">
-        <v>AFG - BOWL (87 pts)</v>
+        <v>AFG - BOWL (92 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(87 pts)</v>
+        <v>(92 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Ben Stokes</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B120" t="str">
-        <v>ENG - AR (79 pts)</v>
+        <v>BAN - BOWL (90 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(79 pts)</v>
+        <v>(90 pts)</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B121" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>AFG - BOWL (87 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(79 pts)</v>
+        <v>(87 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Shardul Thakur</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B122" t="str">
-        <v>IND - BOWL (78 pts)</v>
+        <v>ENG - AR (79 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(78 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B123" t="str">
-        <v>PAK - BOWL (75 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(75 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Angelo Mathews</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B124" t="str">
-        <v>SL - BAT (68 pts)</v>
+        <v>IND - BOWL (78 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(68 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Mark Chapman</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B125" t="str">
-        <v>NZ - BAT (68 pts)</v>
+        <v>PAK - BOWL (75 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(68 pts)</v>
+        <v>(75 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Ishan Kishan</v>
+        <v>Angelo Mathews</v>
       </c>
       <c r="B126" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>SL - BAT (68 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(63 pts)</v>
+        <v>(68 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B127" t="str">
-        <v>BAN - BOWL (54 pts)</v>
+        <v>NZ - BAT (68 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(54 pts)</v>
+        <v>(68 pts)</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B128" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C128" t="str">
-        <v>(37 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="129">
@@ -1801,164 +1801,164 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Moeen Ali</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B130" t="str">
-        <v>ENG - AR (36 pts)</v>
+        <v>NED - WK (55 pts)</v>
       </c>
       <c r="C130" t="str">
-        <v>(36 pts)</v>
+        <v>(55 pts)</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B131" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>BAN - BOWL (54 pts)</v>
       </c>
       <c r="C131" t="str">
-        <v>(53 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B132" t="str">
-        <v>PAK - BAT (35 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C132" t="str">
-        <v>(35 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Cameron Green</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B133" t="str">
-        <v>AUS - AR (31 pts)</v>
+        <v>ENG - AR (36 pts)</v>
       </c>
       <c r="C133" t="str">
-        <v>(31 pts)</v>
+        <v>(36 pts)</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B134" t="str">
-        <v>NED - AR (31 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C134" t="str">
-        <v>(31 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Chamika Karunaratne</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B135" t="str">
-        <v>SL - AR (28 pts)</v>
+        <v>PAK - BAT (35 pts)</v>
       </c>
       <c r="C135" t="str">
-        <v>(28 pts)</v>
+        <v>(35 pts)</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B136" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>AUS - AR (31 pts)</v>
       </c>
       <c r="C136" t="str">
-        <v>(27 pts)</v>
+        <v>(31 pts)</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Ryan Klein</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B137" t="str">
-        <v>NED - BOWL (16 pts)</v>
+        <v>NED - AR (31 pts)</v>
       </c>
       <c r="C137" t="str">
-        <v>(16 pts)</v>
+        <v>(31 pts)</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Dushan Hemantha</v>
+        <v>Chamika Karunaratne</v>
       </c>
       <c r="B138" t="str">
-        <v>SL - AR (9 pts)</v>
+        <v>SL - AR (28 pts)</v>
       </c>
       <c r="C138" t="str">
-        <v>(9 pts)</v>
+        <v>(28 pts)</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B139" t="str">
-        <v>IND - BAT (6 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C139" t="str">
-        <v>(6 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Alex Carey</v>
+        <v>Ryan Klein</v>
       </c>
       <c r="B140" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>NED - BOWL (16 pts)</v>
       </c>
       <c r="C140" t="str">
-        <v>(1 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Tim Southee</v>
+        <v>Shariz Ahmad</v>
       </c>
       <c r="B141" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>NED - BOWL (10 pts)</v>
       </c>
       <c r="C141" t="str">
-        <v>(0 pts)</v>
+        <v>(10 pts)</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Wesley Barresi</v>
+        <v>Dushan Hemantha</v>
       </c>
       <c r="B142" t="str">
-        <v>NED - WK (0 pts)</v>
+        <v>SL - AR (9 pts)</v>
       </c>
       <c r="C142" t="str">
-        <v>(0 pts)</v>
+        <v>(9 pts)</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Anamul Haque</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B143" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>IND - BAT (6 pts)</v>
       </c>
       <c r="C143" t="str">
-        <v>(0 pts)</v>
+        <v>(6 pts)</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Jason Roy</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B144" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C144" t="str">
         <v>(0 pts)</v>
@@ -1966,21 +1966,21 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>James Neesham</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B145" t="str">
-        <v>NZ - AR (2 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C145" t="str">
-        <v>(2 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Sean Abbott</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B146" t="str">
-        <v>AUS - BOWL (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C146" t="str">
         <v>(0 pts)</v>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Ashton Agar</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B147" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C147" t="str">
         <v>(0 pts)</v>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B148" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C148" t="str">
         <v>(0 pts)</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Ish Sodhi</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B149" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>AUS - BOWL (0 pts)</v>
       </c>
       <c r="C149" t="str">
         <v>(0 pts)</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Travis Head</v>
+        <v>Tom Blundell</v>
       </c>
       <c r="B151" t="str">
-        <v>AUS - BAT (0 pts)</v>
+        <v>NZ - WK (0 pts)</v>
       </c>
       <c r="C151" t="str">
         <v>(0 pts)</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Tom Blundell</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B152" t="str">
-        <v>NZ - WK (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C152" t="str">
         <v>(0 pts)</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Agha Salman</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B153" t="str">
-        <v>PAK - AR (0 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C153" t="str">
         <v>(0 pts)</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Sahan Arachchige</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B155" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C155" t="str">
         <v>(0 pts)</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Brydon Carse</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B156" t="str">
-        <v>ENG - BOWL (0 pts)</v>
+        <v>PAK - AR (0 pts)</v>
       </c>
       <c r="C156" t="str">
         <v>(0 pts)</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Pramod Madushan</v>
+        <v>Andile Phehlukwayo</v>
       </c>
       <c r="B157" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>SA - AR (0 pts)</v>
       </c>
       <c r="C157" t="str">
         <v>(0 pts)</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Afif Hossain</v>
+        <v>Sahan Arachchige</v>
       </c>
       <c r="B158" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C158" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Riaz Hassan</v>
+        <v>Brydon Carse</v>
       </c>
       <c r="B159" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>ENG - BOWL (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Abdul Rahman</v>
+        <v>Pramod Madushan</v>
       </c>
       <c r="B160" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Shamim Hossain</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B161" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C161" t="str">
         <v>(0 pts)</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Mohammad Naim</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B162" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C162" t="str">
         <v>(0 pts)</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Tanzim Hasan Sakib</v>
+        <v>Abdul Rahman</v>
       </c>
       <c r="B163" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C163" t="str">
         <v>(0 pts)</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Binura Fernando</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B164" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C164" t="str">
         <v>(0 pts)</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Andile Phehlukwayo</v>
+        <v>Mohammad Naim</v>
       </c>
       <c r="B165" t="str">
-        <v>SA - AR (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C165" t="str">
         <v>(0 pts)</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Tanzim Hasan Sakib</v>
       </c>
       <c r="B166" t="str">
-        <v>NED - BOWL (0 pts)</v>
+        <v>BAN - BOWL (0 pts)</v>
       </c>
       <c r="C166" t="str">
         <v>(0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -426,46 +426,46 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Mitchell Santner</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B5" t="str">
-        <v>NZ - AR (536 pts)</v>
+        <v>SA - AR (576 pts)</v>
       </c>
       <c r="C5" t="str">
-        <v>(536 pts)</v>
+        <v>(576 pts)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Marco Jansen</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B6" t="str">
-        <v>SA - AR (576 pts)</v>
+        <v>NZ - AR (536 pts)</v>
       </c>
       <c r="C6" t="str">
-        <v>(576 pts)</v>
+        <v>(536 pts)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B7" t="str">
-        <v>PAK - WK (491 pts)</v>
+        <v>AUS - BOWL (512 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(491 pts)</v>
+        <v>(512 pts)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Adam Zampa</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B8" t="str">
-        <v>AUS - BOWL (512 pts)</v>
+        <v>PAK - WK (491 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(512 pts)</v>
+        <v>(491 pts)</v>
       </c>
     </row>
     <row r="9">
@@ -481,472 +481,472 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B10" t="str">
-        <v>AUS - AR (432 pts)</v>
+        <v>NED - AR (497 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(432 pts)</v>
+        <v>(497 pts)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Rohit Sharma</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B11" t="str">
-        <v>IND - BAT (429 pts)</v>
+        <v>IND - BAT (477 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(429 pts)</v>
+        <v>(477 pts)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B12" t="str">
-        <v>PAK - BOWL (427 pts)</v>
+        <v>NZ - AR (462 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(427 pts)</v>
+        <v>(462 pts)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Bas de Leede</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B13" t="str">
-        <v>NED - AR (425 pts)</v>
+        <v>IND - BAT (429 pts)</v>
       </c>
       <c r="C13" t="str">
-        <v>(425 pts)</v>
+        <v>(429 pts)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Matt Henry</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B14" t="str">
-        <v>NZ - BOWL (403 pts)</v>
+        <v>AUS - AR (432 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(403 pts)</v>
+        <v>(432 pts)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Logan van Beek</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B15" t="str">
-        <v>NED - BOWL (400 pts)</v>
+        <v>SA - AR (471 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(400 pts)</v>
+        <v>(471 pts)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B16" t="str">
-        <v>SL - WK (400 pts)</v>
+        <v>PAK - BOWL (427 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(400 pts)</v>
+        <v>(427 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Kusal Mendis</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B17" t="str">
-        <v>SL - WK (397 pts)</v>
+        <v>NED - BOWL (416 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(397 pts)</v>
+        <v>(416 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Virat Kohli</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B18" t="str">
-        <v>IND - BAT (477 pts)</v>
+        <v>SL - WK (397 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(477 pts)</v>
+        <v>(397 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Aiden Markram</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B19" t="str">
-        <v>SA - AR (471 pts)</v>
+        <v>NZ - BOWL (403 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(471 pts)</v>
+        <v>(403 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B20" t="str">
-        <v>NZ - AR (462 pts)</v>
+        <v>SL - WK (400 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(462 pts)</v>
+        <v>(400 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Devon Conway</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B21" t="str">
-        <v>NZ - WK (394 pts)</v>
+        <v>SA - BOWL (387 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(394 pts)</v>
+        <v>(387 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Pat Cummins</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B22" t="str">
-        <v>AUS - BOWL (365 pts)</v>
+        <v>NED - WK (379 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(365 pts)</v>
+        <v>(379 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Glenn Phillips</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B23" t="str">
-        <v>NZ - AR (373 pts)</v>
+        <v>BAN - AR (390 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(373 pts)</v>
+        <v>(390 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B24" t="str">
-        <v>SA - BOWL (365 pts)</v>
+        <v>NZ - WK (394 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(365 pts)</v>
+        <v>(394 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Scott Edwards</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B25" t="str">
-        <v>NED - WK (359 pts)</v>
+        <v>NZ - AR (373 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(359 pts)</v>
+        <v>(373 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B26" t="str">
-        <v>IND - BOWL (363 pts)</v>
+        <v>NED - AR (366 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(363 pts)</v>
+        <v>(366 pts)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B27" t="str">
-        <v>SL - BOWL (358 pts)</v>
+        <v>SA - BOWL (365 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(358 pts)</v>
+        <v>(365 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B28" t="str">
-        <v>SA - BOWL (387 pts)</v>
+        <v>IND - BOWL (363 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(387 pts)</v>
+        <v>(363 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B29" t="str">
-        <v>AUS - AR (353 pts)</v>
+        <v>PAK - BAT (360 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(353 pts)</v>
+        <v>(360 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Aryan Dutt</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B30" t="str">
-        <v>NED - BOWL (345 pts)</v>
+        <v>AUS - BOWL (365 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(345 pts)</v>
+        <v>(365 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B31" t="str">
-        <v>BAN - AR (348 pts)</v>
+        <v>NED - BOWL (365 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(348 pts)</v>
+        <v>(365 pts)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Colin Ackermann</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B32" t="str">
-        <v>NED - AR (327 pts)</v>
+        <v>NED - BOWL (351 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(327 pts)</v>
+        <v>(351 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Haris Rauf</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B33" t="str">
-        <v>PAK - BOWL (324 pts)</v>
+        <v>AUS - BOWL (338 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(324 pts)</v>
+        <v>(338 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Trent Boult</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B34" t="str">
-        <v>NZ - BOWL (321 pts)</v>
+        <v>AUS - AR (353 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(321 pts)</v>
+        <v>(353 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B35" t="str">
-        <v>SL - BAT (315 pts)</v>
+        <v>NZ - BOWL (321 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(315 pts)</v>
+        <v>(321 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B36" t="str">
-        <v>BAN - AR (306 pts)</v>
+        <v>BAN - AR (316 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(306 pts)</v>
+        <v>(316 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B37" t="str">
-        <v>SA - BOWL (305 pts)</v>
+        <v>SL - BAT (315 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(305 pts)</v>
+        <v>(315 pts)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Babar Azam</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B38" t="str">
-        <v>PAK - BAT (304 pts)</v>
+        <v>SL - BOWL (358 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(304 pts)</v>
+        <v>(358 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B39" t="str">
-        <v>AFG - WK (302 pts)</v>
+        <v>SA - BOWL (305 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(302 pts)</v>
+        <v>(305 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B40" t="str">
-        <v>SA - BAT (299 pts)</v>
+        <v>PAK - BAT (304 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(299 pts)</v>
+        <v>(304 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B41" t="str">
-        <v>AUS - BAT (299 pts)</v>
+        <v>AFG - WK (302 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(299 pts)</v>
+        <v>(302 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Mitchell Starc</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B42" t="str">
-        <v>AUS - BOWL (338 pts)</v>
+        <v>PAK - BOWL (324 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(338 pts)</v>
+        <v>(324 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Saud Shakeel</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B43" t="str">
-        <v>PAK - BAT (296 pts)</v>
+        <v>BAN - AR (311 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(296 pts)</v>
+        <v>(311 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B44" t="str">
-        <v>BAN - AR (296 pts)</v>
+        <v>SA - BAT (299 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(296 pts)</v>
+        <v>(299 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Dawid Malan</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B45" t="str">
-        <v>ENG - BAT (293 pts)</v>
+        <v>IND - AR (295 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(293 pts)</v>
+        <v>(295 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Joe Root</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B46" t="str">
-        <v>ENG - BAT (292 pts)</v>
+        <v>ENG - BAT (293 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(292 pts)</v>
+        <v>(293 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Shoriful Islam</v>
+        <v>Joe Root</v>
       </c>
       <c r="B47" t="str">
-        <v>BAN - BOWL (290 pts)</v>
+        <v>ENG - BAT (292 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(290 pts)</v>
+        <v>(292 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B48" t="str">
-        <v>IND - BOWL (288 pts)</v>
+        <v>BAN - BOWL (290 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(288 pts)</v>
+        <v>(290 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B49" t="str">
-        <v>AUS - BOWL (283 pts)</v>
+        <v>IND - BOWL (288 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(283 pts)</v>
+        <v>(288 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B50" t="str">
-        <v>PAK - BAT (360 pts)</v>
+        <v>AUS - BOWL (283 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(360 pts)</v>
+        <v>(283 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B51" t="str">
-        <v>IND - AR (295 pts)</v>
+        <v>AFG - BOWL (283 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(295 pts)</v>
+        <v>(283 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Rashid Khan</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B52" t="str">
-        <v>AFG - BOWL (283 pts)</v>
+        <v>AFG - AR (283 pts)</v>
       </c>
       <c r="C52" t="str">
         <v>(283 pts)</v>
@@ -965,145 +965,145 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B54" t="str">
-        <v>AFG - AR (283 pts)</v>
+        <v>ENG - BOWL (266 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(283 pts)</v>
+        <v>(266 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Adil Rashid</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B55" t="str">
-        <v>ENG - BOWL (266 pts)</v>
+        <v>NZ - WK (263 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(266 pts)</v>
+        <v>(263 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Tom Latham</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B56" t="str">
-        <v>NZ - WK (263 pts)</v>
+        <v>PAK - BAT (296 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(263 pts)</v>
+        <v>(296 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Hasan Ali</v>
+        <v>David Miller</v>
       </c>
       <c r="B57" t="str">
-        <v>PAK - BOWL (262 pts)</v>
+        <v>SA - BAT (261 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(262 pts)</v>
+        <v>(261 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>David Miller</v>
+        <v>Litton Das</v>
       </c>
       <c r="B58" t="str">
-        <v>SA - BAT (261 pts)</v>
+        <v>BAN - WK (258 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(261 pts)</v>
+        <v>(258 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Litton Das</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B59" t="str">
-        <v>BAN - WK (258 pts)</v>
+        <v>SL - BOWL (254 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(258 pts)</v>
+        <v>(254 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B60" t="str">
-        <v>SL - BOWL (254 pts)</v>
+        <v>ENG - BOWL (247 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(254 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Reece Topley</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B61" t="str">
-        <v>ENG - BOWL (247 pts)</v>
+        <v>BAN - WK (246 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(247 pts)</v>
+        <v>(246 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B62" t="str">
-        <v>BAN - WK (245 pts)</v>
+        <v>PAK - BOWL (262 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(245 pts)</v>
+        <v>(262 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B63" t="str">
-        <v>AFG - BAT (245 pts)</v>
+        <v>AUS - BAT (299 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(245 pts)</v>
+        <v>(299 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Will Young</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B64" t="str">
-        <v>NZ - BAT (244 pts)</v>
+        <v>AFG - BAT (245 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(244 pts)</v>
+        <v>(245 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Will Young</v>
       </c>
       <c r="B65" t="str">
-        <v>NZ - BOWL (243 pts)</v>
+        <v>NZ - BAT (244 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(243 pts)</v>
+        <v>(244 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B66" t="str">
-        <v>SA - BOWL (240 pts)</v>
+        <v>NZ - BOWL (243 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(240 pts)</v>
+        <v>(243 pts)</v>
       </c>
     </row>
     <row r="67">
@@ -1119,24 +1119,24 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Josh Inglis</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B68" t="str">
-        <v>AUS - WK (238 pts)</v>
+        <v>SA - BOWL (240 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(238 pts)</v>
+        <v>(240 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B69" t="str">
-        <v>NED - BOWL (235 pts)</v>
+        <v>AUS - WK (238 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(235 pts)</v>
+        <v>(238 pts)</v>
       </c>
     </row>
     <row r="70">
@@ -1152,134 +1152,134 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Jos Buttler</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B71" t="str">
-        <v>ENG - WK (214 pts)</v>
+        <v>PAK - BAT (221 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(214 pts)</v>
+        <v>(221 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B72" t="str">
-        <v>PAK - BAT (221 pts)</v>
+        <v>BAN - AR (219 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(221 pts)</v>
+        <v>(219 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Steven Smith</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B73" t="str">
-        <v>AUS - BAT (210 pts)</v>
+        <v>ENG - WK (214 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(210 pts)</v>
+        <v>(214 pts)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B74" t="str">
-        <v>AFG - BOWL (210 pts)</v>
+        <v>PAK - AR (213 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(210 pts)</v>
+        <v>(213 pts)</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Charith Asalanka</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B75" t="str">
-        <v>SL - BAT (207 pts)</v>
+        <v>AUS - BAT (210 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(207 pts)</v>
+        <v>(210 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B76" t="str">
-        <v>AFG - BOWL (207 pts)</v>
+        <v>AFG - BOWL (210 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(207 pts)</v>
+        <v>(210 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B77" t="str">
-        <v>BAN - AR (203 pts)</v>
+        <v>SL - BAT (207 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(203 pts)</v>
+        <v>(207 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B78" t="str">
-        <v>AFG - BAT (199 pts)</v>
+        <v>AFG - BOWL (207 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(199 pts)</v>
+        <v>(207 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Mark Wood</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B79" t="str">
-        <v>ENG - BOWL (197 pts)</v>
+        <v>AFG - AR (204 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(197 pts)</v>
+        <v>(204 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B80" t="str">
-        <v>IND - BAT (197 pts)</v>
+        <v>AFG - BAT (199 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(197 pts)</v>
+        <v>(199 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Shadab Khan</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B81" t="str">
-        <v>PAK - AR (213 pts)</v>
+        <v>ENG - BOWL (197 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(213 pts)</v>
+        <v>(197 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Rahmat Shah</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B82" t="str">
-        <v>AFG - AR (204 pts)</v>
+        <v>IND - BAT (197 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(204 pts)</v>
+        <v>(197 pts)</v>
       </c>
     </row>
     <row r="83">
@@ -1317,13 +1317,13 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B86" t="str">
-        <v>AFG - AR (183 pts)</v>
+        <v>BAN - BOWL (185 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(183 pts)</v>
+        <v>(185 pts)</v>
       </c>
     </row>
     <row r="87">
@@ -1339,24 +1339,24 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B88" t="str">
-        <v>BAN - BAT (174 pts)</v>
+        <v>AFG - AR (183 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(174 pts)</v>
+        <v>(183 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Harry Brook</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B89" t="str">
-        <v>ENG - BAT (172 pts)</v>
+        <v>BAN - BOWL (176 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(172 pts)</v>
+        <v>(176 pts)</v>
       </c>
     </row>
     <row r="90">
@@ -1372,68 +1372,68 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Mohammad Shami</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B91" t="str">
-        <v>IND - BOWL (162 pts)</v>
+        <v>SA - BOWL (166 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(162 pts)</v>
+        <v>(166 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B92" t="str">
-        <v>BAN - BOWL (164 pts)</v>
+        <v>IND - BOWL (162 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(164 pts)</v>
+        <v>(162 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B93" t="str">
-        <v>SA - BOWL (166 pts)</v>
+        <v>ENG - BAT (172 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(166 pts)</v>
+        <v>(172 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B94" t="str">
-        <v>BAN - BOWL (161 pts)</v>
+        <v>BAN - BAT (174 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(161 pts)</v>
+        <v>(174 pts)</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Kusal Perera</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B95" t="str">
-        <v>SL - WK (154 pts)</v>
+        <v>IND - BAT (161 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(154 pts)</v>
+        <v>(161 pts)</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Shubman Gill</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B96" t="str">
-        <v>IND - BAT (161 pts)</v>
+        <v>SL - WK (154 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(161 pts)</v>
+        <v>(154 pts)</v>
       </c>
     </row>
     <row r="97">
@@ -1449,24 +1449,24 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B98" t="str">
-        <v>SA - BAT (135 pts)</v>
+        <v>NED - AR (150 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(135 pts)</v>
+        <v>(150 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Vikram Singh</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B99" t="str">
-        <v>NED - AR (150 pts)</v>
+        <v>SA - BAT (135 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(150 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="100">
@@ -1482,43 +1482,43 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B101" t="str">
-        <v>AUS - AR (122 pts)</v>
+        <v>BAN - BAT (129 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(122 pts)</v>
+        <v>(129 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Usama Mir</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B102" t="str">
-        <v>PAK - BOWL (121 pts)</v>
+        <v>AUS - AR (122 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(121 pts)</v>
+        <v>(122 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B103" t="str">
-        <v>SL - AR (119 pts)</v>
+        <v>PAK - BOWL (121 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(119 pts)</v>
+        <v>(121 pts)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B104" t="str">
-        <v>AFG - WK (119 pts)</v>
+        <v>SL - AR (119 pts)</v>
       </c>
       <c r="C104" t="str">
         <v>(119 pts)</v>
@@ -1526,13 +1526,13 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B105" t="str">
-        <v>BAN - BAT (118 pts)</v>
+        <v>AFG - WK (119 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(118 pts)</v>
+        <v>(119 pts)</v>
       </c>
     </row>
     <row r="106">
@@ -1625,21 +1625,21 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B114" t="str">
-        <v>NED - BAT (99 pts)</v>
+        <v>NZ - BAT (96 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(99 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Kane Williamson</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B115" t="str">
-        <v>NZ - BAT (96 pts)</v>
+        <v>SL - BOWL (96 pts)</v>
       </c>
       <c r="C115" t="str">
         <v>(96 pts)</v>
@@ -1647,24 +1647,24 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Lahiru Kumara</v>
+        <v>David Willey</v>
       </c>
       <c r="B116" t="str">
-        <v>SL - BOWL (96 pts)</v>
+        <v>ENG - AR (94 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(96 pts)</v>
+        <v>(94 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>David Willey</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B117" t="str">
-        <v>ENG - AR (94 pts)</v>
+        <v>NED - BAT (99 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(94 pts)</v>
+        <v>(99 pts)</v>
       </c>
     </row>
     <row r="118">
@@ -1680,54 +1680,54 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Fazalhaq Farooqi</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B119" t="str">
-        <v>AFG - BOWL (92 pts)</v>
+        <v>AFG - BOWL (87 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(92 pts)</v>
+        <v>(87 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Fazalhaq Farooqi</v>
       </c>
       <c r="B120" t="str">
-        <v>BAN - BOWL (90 pts)</v>
+        <v>AFG - BOWL (92 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(90 pts)</v>
+        <v>(92 pts)</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Noor Ahmad</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B121" t="str">
-        <v>AFG - BOWL (87 pts)</v>
+        <v>BAN - BOWL (90 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(87 pts)</v>
+        <v>(90 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Ben Stokes</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B122" t="str">
-        <v>ENG - AR (79 pts)</v>
+        <v>IND - BOWL (78 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(79 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B123" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>ENG - AR (79 pts)</v>
       </c>
       <c r="C123" t="str">
         <v>(79 pts)</v>
@@ -1735,13 +1735,13 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Shardul Thakur</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B124" t="str">
-        <v>IND - BOWL (78 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(78 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="125">
@@ -1834,24 +1834,24 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Moeen Ali</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B133" t="str">
-        <v>ENG - AR (36 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C133" t="str">
-        <v>(36 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B134" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>ENG - AR (36 pts)</v>
       </c>
       <c r="C134" t="str">
-        <v>(37 pts)</v>
+        <v>(36 pts)</v>
       </c>
     </row>
     <row r="135">
@@ -1955,10 +1955,10 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Tim Southee</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B144" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C144" t="str">
         <v>(0 pts)</v>
@@ -1966,21 +1966,21 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Alex Carey</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B145" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C145" t="str">
-        <v>(1 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B146" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C146" t="str">
         <v>(0 pts)</v>
@@ -1988,21 +1988,21 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Anamul Haque</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B147" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C147" t="str">
-        <v>(0 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Jason Roy</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B148" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C148" t="str">
         <v>(0 pts)</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B150" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C150" t="str">
         <v>(0 pts)</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Tom Blundell</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B151" t="str">
-        <v>NZ - WK (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C151" t="str">
         <v>(0 pts)</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Ish Sodhi</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B152" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C152" t="str">
         <v>(0 pts)</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Ashton Agar</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B153" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>PAK - AR (0 pts)</v>
       </c>
       <c r="C153" t="str">
         <v>(0 pts)</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Axar Patel</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B154" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Binura Fernando</v>
+        <v>Tom Blundell</v>
       </c>
       <c r="B155" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>NZ - WK (0 pts)</v>
       </c>
       <c r="C155" t="str">
         <v>(0 pts)</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Agha Salman</v>
+        <v>Sahan Arachchige</v>
       </c>
       <c r="B156" t="str">
-        <v>PAK - AR (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C156" t="str">
         <v>(0 pts)</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Andile Phehlukwayo</v>
+        <v>Brydon Carse</v>
       </c>
       <c r="B157" t="str">
-        <v>SA - AR (0 pts)</v>
+        <v>ENG - BOWL (0 pts)</v>
       </c>
       <c r="C157" t="str">
         <v>(0 pts)</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Sahan Arachchige</v>
+        <v>Pramod Madushan</v>
       </c>
       <c r="B158" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C158" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Brydon Carse</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B159" t="str">
-        <v>ENG - BOWL (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Pramod Madushan</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B160" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Afif Hossain</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B161" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C161" t="str">
         <v>(0 pts)</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Riaz Hassan</v>
+        <v>Andile Phehlukwayo</v>
       </c>
       <c r="B162" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>SA - AR (0 pts)</v>
       </c>
       <c r="C162" t="str">
         <v>(0 pts)</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Abdul Rahman</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B163" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C163" t="str">
         <v>(0 pts)</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Shamim Hossain</v>
+        <v>Abdul Rahman</v>
       </c>
       <c r="B164" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C164" t="str">
         <v>(0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -437,57 +437,57 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Mitchell Santner</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B6" t="str">
-        <v>NZ - AR (536 pts)</v>
+        <v>IND - BAT (540 pts)</v>
       </c>
       <c r="C6" t="str">
-        <v>(536 pts)</v>
+        <v>(540 pts)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Adam Zampa</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B7" t="str">
-        <v>AUS - BOWL (512 pts)</v>
+        <v>NZ - AR (536 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(512 pts)</v>
+        <v>(536 pts)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B8" t="str">
-        <v>PAK - WK (491 pts)</v>
+        <v>AUS - BOWL (512 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(491 pts)</v>
+        <v>(512 pts)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B9" t="str">
-        <v>SA - WK (480 pts)</v>
+        <v>NED - AR (497 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(480 pts)</v>
+        <v>(497 pts)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Bas de Leede</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B10" t="str">
-        <v>NED - AR (497 pts)</v>
+        <v>SA - WK (480 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(497 pts)</v>
+        <v>(480 pts)</v>
       </c>
     </row>
     <row r="11">
@@ -495,54 +495,54 @@
         <v>Virat Kohli</v>
       </c>
       <c r="B11" t="str">
-        <v>IND - BAT (477 pts)</v>
+        <v>IND - BAT (478 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(477 pts)</v>
+        <v>(478 pts)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B12" t="str">
-        <v>NZ - AR (462 pts)</v>
+        <v>SA - AR (471 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(462 pts)</v>
+        <v>(471 pts)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Rohit Sharma</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B13" t="str">
-        <v>IND - BAT (429 pts)</v>
+        <v>PAK - WK (491 pts)</v>
       </c>
       <c r="C13" t="str">
-        <v>(429 pts)</v>
+        <v>(491 pts)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B14" t="str">
-        <v>AUS - AR (432 pts)</v>
+        <v>NZ - AR (462 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(432 pts)</v>
+        <v>(462 pts)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Aiden Markram</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B15" t="str">
-        <v>SA - AR (471 pts)</v>
+        <v>AUS - AR (432 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(471 pts)</v>
+        <v>(432 pts)</v>
       </c>
     </row>
     <row r="16">
@@ -580,90 +580,90 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Matt Henry</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B19" t="str">
-        <v>NZ - BOWL (403 pts)</v>
+        <v>SL - WK (400 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(403 pts)</v>
+        <v>(400 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B20" t="str">
-        <v>SL - WK (400 pts)</v>
+        <v>NZ - BOWL (403 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(400 pts)</v>
+        <v>(403 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B21" t="str">
-        <v>SA - BOWL (387 pts)</v>
+        <v>NZ - WK (394 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(387 pts)</v>
+        <v>(394 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Scott Edwards</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B22" t="str">
-        <v>NED - WK (379 pts)</v>
+        <v>BAN - AR (390 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(379 pts)</v>
+        <v>(390 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B23" t="str">
-        <v>BAN - AR (390 pts)</v>
+        <v>SA - BOWL (387 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(390 pts)</v>
+        <v>(387 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Devon Conway</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B24" t="str">
-        <v>NZ - WK (394 pts)</v>
+        <v>IND - BOWL (384 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(394 pts)</v>
+        <v>(384 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Glenn Phillips</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B25" t="str">
-        <v>NZ - AR (373 pts)</v>
+        <v>NED - WK (379 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(373 pts)</v>
+        <v>(379 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Colin Ackermann</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B26" t="str">
-        <v>NED - AR (366 pts)</v>
+        <v>NZ - AR (373 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(366 pts)</v>
+        <v>(373 pts)</v>
       </c>
     </row>
     <row r="27">
@@ -679,46 +679,46 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B28" t="str">
-        <v>IND - BOWL (363 pts)</v>
+        <v>NED - BOWL (365 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(363 pts)</v>
+        <v>(365 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B29" t="str">
-        <v>PAK - BAT (360 pts)</v>
+        <v>AUS - BOWL (365 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(360 pts)</v>
+        <v>(365 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Pat Cummins</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B30" t="str">
-        <v>AUS - BOWL (365 pts)</v>
+        <v>NED - AR (366 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(365 pts)</v>
+        <v>(366 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Aryan Dutt</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B31" t="str">
-        <v>NED - BOWL (365 pts)</v>
+        <v>PAK - BAT (360 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(365 pts)</v>
+        <v>(360 pts)</v>
       </c>
     </row>
     <row r="32">
@@ -745,46 +745,46 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B34" t="str">
-        <v>AUS - AR (353 pts)</v>
+        <v>ENG - BOWL (330 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(353 pts)</v>
+        <v>(330 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Trent Boult</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B35" t="str">
-        <v>NZ - BOWL (321 pts)</v>
+        <v>PAK - BOWL (324 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(321 pts)</v>
+        <v>(324 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B36" t="str">
-        <v>BAN - AR (316 pts)</v>
+        <v>IND - BAT (323 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(316 pts)</v>
+        <v>(323 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B37" t="str">
-        <v>SL - BAT (315 pts)</v>
+        <v>AUS - AR (353 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(315 pts)</v>
+        <v>(353 pts)</v>
       </c>
     </row>
     <row r="38">
@@ -800,153 +800,153 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B39" t="str">
-        <v>SA - BOWL (305 pts)</v>
+        <v>NZ - BOWL (321 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(305 pts)</v>
+        <v>(321 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Babar Azam</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B40" t="str">
-        <v>PAK - BAT (304 pts)</v>
+        <v>BAN - AR (311 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(304 pts)</v>
+        <v>(311 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B41" t="str">
-        <v>AFG - WK (302 pts)</v>
+        <v>SL - BAT (315 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(302 pts)</v>
+        <v>(315 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Haris Rauf</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B42" t="str">
-        <v>PAK - BOWL (324 pts)</v>
+        <v>BAN - AR (316 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(324 pts)</v>
+        <v>(316 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B43" t="str">
-        <v>BAN - AR (311 pts)</v>
+        <v>PAK - BAT (304 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(311 pts)</v>
+        <v>(304 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B44" t="str">
-        <v>SA - BAT (299 pts)</v>
+        <v>SA - BOWL (305 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(299 pts)</v>
+        <v>(305 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B45" t="str">
-        <v>IND - AR (295 pts)</v>
+        <v>AFG - WK (302 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(295 pts)</v>
+        <v>(302 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Dawid Malan</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B46" t="str">
-        <v>ENG - BAT (293 pts)</v>
+        <v>SA - BAT (299 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(293 pts)</v>
+        <v>(299 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Joe Root</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B47" t="str">
-        <v>ENG - BAT (292 pts)</v>
+        <v>AUS - BAT (299 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(292 pts)</v>
+        <v>(299 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Shoriful Islam</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B48" t="str">
-        <v>BAN - BOWL (290 pts)</v>
+        <v>ENG - BAT (297 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(290 pts)</v>
+        <v>(297 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Joe Root</v>
       </c>
       <c r="B49" t="str">
-        <v>IND - BOWL (288 pts)</v>
+        <v>ENG - BAT (296 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(288 pts)</v>
+        <v>(296 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B50" t="str">
-        <v>AUS - BOWL (283 pts)</v>
+        <v>PAK - BAT (296 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(283 pts)</v>
+        <v>(296 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Rashid Khan</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B51" t="str">
-        <v>AFG - BOWL (283 pts)</v>
+        <v>BAN - BOWL (290 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(283 pts)</v>
+        <v>(290 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B52" t="str">
-        <v>AFG - AR (283 pts)</v>
+        <v>AUS - BOWL (283 pts)</v>
       </c>
       <c r="C52" t="str">
         <v>(283 pts)</v>
@@ -954,24 +954,24 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>KL Rahul</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B53" t="str">
-        <v>IND - BAT (277 pts)</v>
+        <v>AFG - BOWL (283 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(277 pts)</v>
+        <v>(283 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Adil Rashid</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B54" t="str">
-        <v>ENG - BOWL (266 pts)</v>
+        <v>AFG - AR (283 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(266 pts)</v>
+        <v>(283 pts)</v>
       </c>
     </row>
     <row r="55">
@@ -987,13 +987,13 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Saud Shakeel</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B56" t="str">
-        <v>PAK - BAT (296 pts)</v>
+        <v>PAK - BOWL (262 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(296 pts)</v>
+        <v>(262 pts)</v>
       </c>
     </row>
     <row r="57">
@@ -1053,35 +1053,35 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Hasan Ali</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B62" t="str">
-        <v>PAK - BOWL (262 pts)</v>
+        <v>AFG - BAT (245 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(262 pts)</v>
+        <v>(245 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B63" t="str">
-        <v>AUS - BAT (299 pts)</v>
+        <v>IND - BOWL (302 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(299 pts)</v>
+        <v>(302 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B64" t="str">
-        <v>AFG - BAT (245 pts)</v>
+        <v>IND - AR (307 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(245 pts)</v>
+        <v>(307 pts)</v>
       </c>
     </row>
     <row r="65">
@@ -1130,10 +1130,10 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Josh Inglis</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B69" t="str">
-        <v>AUS - WK (238 pts)</v>
+        <v>ENG - WK (238 pts)</v>
       </c>
       <c r="C69" t="str">
         <v>(238 pts)</v>
@@ -1141,65 +1141,65 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B70" t="str">
-        <v>PAK - AR (222 pts)</v>
+        <v>ENG - BOWL (238 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(222 pts)</v>
+        <v>(238 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B71" t="str">
-        <v>PAK - BAT (221 pts)</v>
+        <v>AUS - WK (238 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(221 pts)</v>
+        <v>(238 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B72" t="str">
-        <v>BAN - AR (219 pts)</v>
+        <v>PAK - AR (222 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(219 pts)</v>
+        <v>(222 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Jos Buttler</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B73" t="str">
-        <v>ENG - WK (214 pts)</v>
+        <v>PAK - BAT (221 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(214 pts)</v>
+        <v>(221 pts)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Shadab Khan</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B74" t="str">
-        <v>PAK - AR (213 pts)</v>
+        <v>AUS - BAT (210 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(213 pts)</v>
+        <v>(210 pts)</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Steven Smith</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B75" t="str">
-        <v>AUS - BAT (210 pts)</v>
+        <v>AFG - BOWL (210 pts)</v>
       </c>
       <c r="C75" t="str">
         <v>(210 pts)</v>
@@ -1207,13 +1207,13 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B76" t="str">
-        <v>AFG - BOWL (210 pts)</v>
+        <v>ENG - WK (207 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(210 pts)</v>
+        <v>(207 pts)</v>
       </c>
     </row>
     <row r="77">
@@ -1240,90 +1240,90 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Rahmat Shah</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B79" t="str">
-        <v>AFG - AR (204 pts)</v>
+        <v>IND - BAT (205 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(204 pts)</v>
+        <v>(205 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B80" t="str">
-        <v>AFG - BAT (199 pts)</v>
+        <v>AFG - AR (204 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(199 pts)</v>
+        <v>(204 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Mark Wood</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B81" t="str">
-        <v>ENG - BOWL (197 pts)</v>
+        <v>BAN - AR (219 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(197 pts)</v>
+        <v>(219 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B82" t="str">
-        <v>IND - BAT (197 pts)</v>
+        <v>AFG - BAT (199 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(197 pts)</v>
+        <v>(199 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B83" t="str">
-        <v>ENG - WK (195 pts)</v>
+        <v>BAN - BOWL (185 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(195 pts)</v>
+        <v>(185 pts)</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B84" t="str">
-        <v>IND - BOWL (194 pts)</v>
+        <v>NED - AR (185 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(194 pts)</v>
+        <v>(185 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B85" t="str">
-        <v>NED - AR (185 pts)</v>
+        <v>PAK - AR (213 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(185 pts)</v>
+        <v>(213 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B86" t="str">
-        <v>BAN - BOWL (185 pts)</v>
+        <v>IND - BOWL (198 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(185 pts)</v>
+        <v>(198 pts)</v>
       </c>
     </row>
     <row r="87">
@@ -1339,90 +1339,90 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B88" t="str">
-        <v>AFG - AR (183 pts)</v>
+        <v>ENG - AR (179 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(183 pts)</v>
+        <v>(179 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B89" t="str">
-        <v>BAN - BOWL (176 pts)</v>
+        <v>AFG - AR (183 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(176 pts)</v>
+        <v>(183 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Hardik Pandya</v>
+        <v>David Willey</v>
       </c>
       <c r="B90" t="str">
-        <v>IND - AR (170 pts)</v>
+        <v>ENG - AR (183 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(170 pts)</v>
+        <v>(183 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B91" t="str">
-        <v>SA - BOWL (166 pts)</v>
+        <v>BAN - BOWL (176 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(166 pts)</v>
+        <v>(176 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Mohammad Shami</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B92" t="str">
-        <v>IND - BOWL (162 pts)</v>
+        <v>IND - BAT (175 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(162 pts)</v>
+        <v>(175 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Harry Brook</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B93" t="str">
-        <v>ENG - BAT (172 pts)</v>
+        <v>BAN - BAT (174 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(172 pts)</v>
+        <v>(174 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B94" t="str">
-        <v>BAN - BAT (174 pts)</v>
+        <v>ENG - BAT (172 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(174 pts)</v>
+        <v>(172 pts)</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Shubman Gill</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B95" t="str">
-        <v>IND - BAT (161 pts)</v>
+        <v>SA - BOWL (166 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(161 pts)</v>
+        <v>(166 pts)</v>
       </c>
     </row>
     <row r="96">
@@ -1493,343 +1493,343 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B102" t="str">
-        <v>AUS - AR (122 pts)</v>
+        <v>ENG - AR (126 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(122 pts)</v>
+        <v>(126 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Usama Mir</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B103" t="str">
-        <v>PAK - BOWL (121 pts)</v>
+        <v>AUS - AR (122 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(121 pts)</v>
+        <v>(122 pts)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B104" t="str">
-        <v>SL - AR (119 pts)</v>
+        <v>IND - AR (170 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(119 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B105" t="str">
-        <v>AFG - WK (119 pts)</v>
+        <v>IND - BOWL (167 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(119 pts)</v>
+        <v>(167 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Sam Curran</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B106" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>PAK - BOWL (121 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(118 pts)</v>
+        <v>(121 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>James Neesham</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B107" t="str">
-        <v>NZ - AR (116 pts)</v>
+        <v>SL - AR (119 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(116 pts)</v>
+        <v>(119 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B108" t="str">
-        <v>SL - BOWL (115 pts)</v>
+        <v>AFG - WK (119 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(115 pts)</v>
+        <v>(119 pts)</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Dasun Shanaka</v>
+        <v>James Neesham</v>
       </c>
       <c r="B109" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>NZ - AR (116 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(114 pts)</v>
+        <v>(116 pts)</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Liam Livingstone</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B110" t="str">
-        <v>ENG - AR (110 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(110 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B111" t="str">
-        <v>BAN - BAT (108 pts)</v>
+        <v>SL - BOWL (115 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(108 pts)</v>
+        <v>(115 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Gus Atkinson</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B112" t="str">
-        <v>ENG - BOWL (104 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(104 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Chris Woakes</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B113" t="str">
-        <v>ENG - AR (103 pts)</v>
+        <v>ENG - BOWL (104 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(103 pts)</v>
+        <v>(104 pts)</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Kane Williamson</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B114" t="str">
-        <v>NZ - BAT (96 pts)</v>
+        <v>NED - BAT (99 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(96 pts)</v>
+        <v>(99 pts)</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B115" t="str">
-        <v>SL - BOWL (96 pts)</v>
+        <v>BAN - BAT (108 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(96 pts)</v>
+        <v>(108 pts)</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>David Willey</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B116" t="str">
-        <v>ENG - AR (94 pts)</v>
+        <v>NZ - BAT (96 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(94 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B117" t="str">
-        <v>NED - BAT (99 pts)</v>
+        <v>NED - BAT (93 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(99 pts)</v>
+        <v>(93 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Max O'Dowd</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B118" t="str">
-        <v>NED - BAT (93 pts)</v>
+        <v>ENG - AR (91 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(93 pts)</v>
+        <v>(91 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Noor Ahmad</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B119" t="str">
-        <v>AFG - BOWL (87 pts)</v>
+        <v>SL - BOWL (96 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(87 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Fazalhaq Farooqi</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B120" t="str">
-        <v>AFG - BOWL (92 pts)</v>
+        <v>BAN - BOWL (90 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(92 pts)</v>
+        <v>(90 pts)</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B121" t="str">
-        <v>BAN - BOWL (90 pts)</v>
+        <v>AFG - BOWL (87 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(90 pts)</v>
+        <v>(87 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Shardul Thakur</v>
+        <v>Fazalhaq Farooqi</v>
       </c>
       <c r="B122" t="str">
-        <v>IND - BOWL (78 pts)</v>
+        <v>AFG - BOWL (92 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(78 pts)</v>
+        <v>(92 pts)</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Ben Stokes</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B123" t="str">
-        <v>ENG - AR (79 pts)</v>
+        <v>PAK - BOWL (75 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(79 pts)</v>
+        <v>(75 pts)</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Angelo Mathews</v>
       </c>
       <c r="B124" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>SL - BAT (68 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(79 pts)</v>
+        <v>(68 pts)</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B125" t="str">
-        <v>PAK - BOWL (75 pts)</v>
+        <v>NZ - BAT (68 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(75 pts)</v>
+        <v>(68 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Angelo Mathews</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B126" t="str">
-        <v>SL - BAT (68 pts)</v>
+        <v>IND - BAT (67 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(68 pts)</v>
+        <v>(67 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Mark Chapman</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B127" t="str">
-        <v>NZ - BAT (68 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(68 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Ishan Kishan</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B128" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>SA - BOWL (58 pts)</v>
       </c>
       <c r="C128" t="str">
-        <v>(63 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Lizaad Williams</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B129" t="str">
-        <v>SA - BOWL (58 pts)</v>
+        <v>NED - WK (55 pts)</v>
       </c>
       <c r="C129" t="str">
-        <v>(58 pts)</v>
+        <v>(55 pts)</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Wesley Barresi</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B130" t="str">
-        <v>NED - WK (55 pts)</v>
+        <v>BAN - BOWL (54 pts)</v>
       </c>
       <c r="C130" t="str">
-        <v>(55 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B131" t="str">
-        <v>BAN - BOWL (54 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C131" t="str">
-        <v>(54 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B132" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>ENG - AR (40 pts)</v>
       </c>
       <c r="C132" t="str">
-        <v>(53 pts)</v>
+        <v>(40 pts)</v>
       </c>
     </row>
     <row r="133">
@@ -1845,43 +1845,43 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Moeen Ali</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B134" t="str">
-        <v>ENG - AR (36 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C134" t="str">
-        <v>(36 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B135" t="str">
-        <v>PAK - BAT (35 pts)</v>
+        <v>IND - BOWL (78 pts)</v>
       </c>
       <c r="C135" t="str">
-        <v>(35 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Cameron Green</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B136" t="str">
-        <v>AUS - AR (31 pts)</v>
+        <v>PAK - BAT (35 pts)</v>
       </c>
       <c r="C136" t="str">
-        <v>(31 pts)</v>
+        <v>(35 pts)</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B137" t="str">
-        <v>NED - AR (31 pts)</v>
+        <v>AUS - AR (31 pts)</v>
       </c>
       <c r="C137" t="str">
         <v>(31 pts)</v>
@@ -1889,87 +1889,87 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Chamika Karunaratne</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B138" t="str">
-        <v>SL - AR (28 pts)</v>
+        <v>NED - AR (31 pts)</v>
       </c>
       <c r="C138" t="str">
-        <v>(28 pts)</v>
+        <v>(31 pts)</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Chamika Karunaratne</v>
       </c>
       <c r="B139" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>SL - AR (28 pts)</v>
       </c>
       <c r="C139" t="str">
-        <v>(27 pts)</v>
+        <v>(28 pts)</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Ryan Klein</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B140" t="str">
-        <v>NED - BOWL (16 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C140" t="str">
-        <v>(16 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Ryan Klein</v>
       </c>
       <c r="B141" t="str">
-        <v>NED - BOWL (10 pts)</v>
+        <v>NED - BOWL (16 pts)</v>
       </c>
       <c r="C141" t="str">
-        <v>(10 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Dushan Hemantha</v>
+        <v>Shariz Ahmad</v>
       </c>
       <c r="B142" t="str">
-        <v>SL - AR (9 pts)</v>
+        <v>NED - BOWL (10 pts)</v>
       </c>
       <c r="C142" t="str">
-        <v>(9 pts)</v>
+        <v>(10 pts)</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Dushan Hemantha</v>
       </c>
       <c r="B143" t="str">
-        <v>IND - BAT (6 pts)</v>
+        <v>SL - AR (9 pts)</v>
       </c>
       <c r="C143" t="str">
-        <v>(6 pts)</v>
+        <v>(9 pts)</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Anamul Haque</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B144" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C144" t="str">
-        <v>(0 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B145" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C145" t="str">
         <v>(0 pts)</v>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Jason Roy</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B146" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C146" t="str">
         <v>(0 pts)</v>
@@ -1988,21 +1988,21 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Alex Carey</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B147" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C147" t="str">
-        <v>(1 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Tim Southee</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B148" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C148" t="str">
         <v>(0 pts)</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Ashton Agar</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B150" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C150" t="str">
         <v>(0 pts)</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Ish Sodhi</v>
+        <v>Tom Blundell</v>
       </c>
       <c r="B151" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>NZ - WK (0 pts)</v>
       </c>
       <c r="C151" t="str">
         <v>(0 pts)</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B152" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C152" t="str">
         <v>(0 pts)</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Agha Salman</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B153" t="str">
-        <v>PAK - AR (0 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C153" t="str">
         <v>(0 pts)</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Binura Fernando</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B154" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Tom Blundell</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B155" t="str">
-        <v>NZ - WK (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C155" t="str">
         <v>(0 pts)</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Sahan Arachchige</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B156" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>PAK - AR (0 pts)</v>
       </c>
       <c r="C156" t="str">
         <v>(0 pts)</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Brydon Carse</v>
+        <v>Andile Phehlukwayo</v>
       </c>
       <c r="B157" t="str">
-        <v>ENG - BOWL (0 pts)</v>
+        <v>SA - AR (0 pts)</v>
       </c>
       <c r="C157" t="str">
         <v>(0 pts)</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Pramod Madushan</v>
+        <v>Sahan Arachchige</v>
       </c>
       <c r="B158" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C158" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Afif Hossain</v>
+        <v>Brydon Carse</v>
       </c>
       <c r="B159" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>ENG - BOWL (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Riaz Hassan</v>
+        <v>Pramod Madushan</v>
       </c>
       <c r="B160" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Axar Patel</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B161" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C161" t="str">
         <v>(0 pts)</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Andile Phehlukwayo</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B162" t="str">
-        <v>SA - AR (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C162" t="str">
         <v>(0 pts)</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Shamim Hossain</v>
+        <v>Abdul Rahman</v>
       </c>
       <c r="B163" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C163" t="str">
         <v>(0 pts)</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Abdul Rahman</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B164" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C164" t="str">
         <v>(0 pts)</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Mohammad Naim</v>
+        <v>Tanzim Hasan Sakib</v>
       </c>
       <c r="B165" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>BAN - BOWL (0 pts)</v>
       </c>
       <c r="C165" t="str">
         <v>(0 pts)</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Tanzim Hasan Sakib</v>
+        <v>Mohammad Naim</v>
       </c>
       <c r="B166" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C166" t="str">
         <v>(0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -404,24 +404,24 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Rachin Ravindra</v>
+        <v>David Warner</v>
       </c>
       <c r="B3" t="str">
-        <v>NZ - AR (610 pts)</v>
+        <v>AUS - BAT (589 pts)</v>
       </c>
       <c r="C3" t="str">
-        <v>(610 pts)</v>
+        <v>(589 pts)</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>David Warner</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B4" t="str">
-        <v>AUS - BAT (589 pts)</v>
+        <v>NZ - AR (610 pts)</v>
       </c>
       <c r="C4" t="str">
-        <v>(589 pts)</v>
+        <v>(610 pts)</v>
       </c>
     </row>
     <row r="5">
@@ -437,24 +437,24 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Rohit Sharma</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B6" t="str">
-        <v>IND - BAT (540 pts)</v>
+        <v>NZ - AR (536 pts)</v>
       </c>
       <c r="C6" t="str">
-        <v>(540 pts)</v>
+        <v>(536 pts)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Mitchell Santner</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B7" t="str">
-        <v>NZ - AR (536 pts)</v>
+        <v>IND - BAT (540 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(536 pts)</v>
+        <v>(540 pts)</v>
       </c>
     </row>
     <row r="8">
@@ -470,13 +470,13 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Bas de Leede</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B9" t="str">
-        <v>NED - AR (497 pts)</v>
+        <v>IND - BOWL (487 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(497 pts)</v>
+        <v>(487 pts)</v>
       </c>
     </row>
     <row r="10">
@@ -514,145 +514,145 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B13" t="str">
-        <v>PAK - WK (491 pts)</v>
+        <v>NZ - AR (462 pts)</v>
       </c>
       <c r="C13" t="str">
-        <v>(491 pts)</v>
+        <v>(462 pts)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B14" t="str">
-        <v>NZ - AR (462 pts)</v>
+        <v>PAK - WK (491 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(462 pts)</v>
+        <v>(491 pts)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B15" t="str">
-        <v>AUS - AR (432 pts)</v>
+        <v>NED - AR (497 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(432 pts)</v>
+        <v>(497 pts)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B16" t="str">
-        <v>PAK - BOWL (427 pts)</v>
+        <v>AUS - AR (432 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(427 pts)</v>
+        <v>(432 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Logan van Beek</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B17" t="str">
-        <v>NED - BOWL (416 pts)</v>
+        <v>NZ - BOWL (403 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(416 pts)</v>
+        <v>(403 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Kusal Mendis</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B18" t="str">
-        <v>SL - WK (397 pts)</v>
+        <v>PAK - BOWL (427 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(397 pts)</v>
+        <v>(427 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B19" t="str">
-        <v>SL - WK (400 pts)</v>
+        <v>SL - WK (397 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(400 pts)</v>
+        <v>(397 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Matt Henry</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B20" t="str">
-        <v>NZ - BOWL (403 pts)</v>
+        <v>SL - WK (400 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(403 pts)</v>
+        <v>(400 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Devon Conway</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B21" t="str">
-        <v>NZ - WK (394 pts)</v>
+        <v>BAN - AR (390 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(394 pts)</v>
+        <v>(390 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B22" t="str">
-        <v>BAN - AR (390 pts)</v>
+        <v>NED - BOWL (416 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(390 pts)</v>
+        <v>(416 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B23" t="str">
-        <v>SA - BOWL (387 pts)</v>
+        <v>NED - WK (379 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(387 pts)</v>
+        <v>(379 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B24" t="str">
-        <v>IND - BOWL (384 pts)</v>
+        <v>NZ - WK (394 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(384 pts)</v>
+        <v>(394 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Scott Edwards</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B25" t="str">
-        <v>NED - WK (379 pts)</v>
+        <v>SA - BOWL (387 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(379 pts)</v>
+        <v>(387 pts)</v>
       </c>
     </row>
     <row r="26">
@@ -668,32 +668,32 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B27" t="str">
-        <v>SA - BOWL (365 pts)</v>
+        <v>NED - AR (366 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(365 pts)</v>
+        <v>(366 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Aryan Dutt</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B28" t="str">
-        <v>NED - BOWL (365 pts)</v>
+        <v>IND - BOWL (372 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(365 pts)</v>
+        <v>(372 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Pat Cummins</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B29" t="str">
-        <v>AUS - BOWL (365 pts)</v>
+        <v>NED - BOWL (365 pts)</v>
       </c>
       <c r="C29" t="str">
         <v>(365 pts)</v>
@@ -701,134 +701,134 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Colin Ackermann</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B30" t="str">
-        <v>NED - AR (366 pts)</v>
+        <v>SA - BOWL (365 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(366 pts)</v>
+        <v>(365 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B31" t="str">
-        <v>PAK - BAT (360 pts)</v>
+        <v>SL - BOWL (358 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(360 pts)</v>
+        <v>(358 pts)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B32" t="str">
-        <v>NED - BOWL (351 pts)</v>
+        <v>AUS - AR (353 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(351 pts)</v>
+        <v>(353 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Mitchell Starc</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B33" t="str">
-        <v>AUS - BOWL (338 pts)</v>
+        <v>NED - BOWL (351 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(338 pts)</v>
+        <v>(351 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Adil Rashid</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B34" t="str">
-        <v>ENG - BOWL (330 pts)</v>
+        <v>AUS - BOWL (365 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(330 pts)</v>
+        <v>(365 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Haris Rauf</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B35" t="str">
-        <v>PAK - BOWL (324 pts)</v>
+        <v>ENG - BOWL (345 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(324 pts)</v>
+        <v>(345 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>KL Rahul</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B36" t="str">
-        <v>IND - BAT (323 pts)</v>
+        <v>PAK - BAT (360 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(323 pts)</v>
+        <v>(360 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B37" t="str">
-        <v>AUS - AR (353 pts)</v>
+        <v>IND - AR (342 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(353 pts)</v>
+        <v>(342 pts)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B38" t="str">
-        <v>SL - BOWL (358 pts)</v>
+        <v>IND - BAT (343 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(358 pts)</v>
+        <v>(343 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Trent Boult</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B39" t="str">
-        <v>NZ - BOWL (321 pts)</v>
+        <v>AUS - BOWL (338 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(321 pts)</v>
+        <v>(338 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B40" t="str">
-        <v>BAN - AR (311 pts)</v>
+        <v>NZ - BOWL (321 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(311 pts)</v>
+        <v>(321 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B41" t="str">
-        <v>SL - BAT (315 pts)</v>
+        <v>PAK - BOWL (324 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(315 pts)</v>
+        <v>(324 pts)</v>
       </c>
     </row>
     <row r="42">
@@ -844,79 +844,79 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Babar Azam</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B43" t="str">
-        <v>PAK - BAT (304 pts)</v>
+        <v>SL - BAT (315 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(304 pts)</v>
+        <v>(315 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B44" t="str">
-        <v>SA - BOWL (305 pts)</v>
+        <v>BAN - AR (311 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(305 pts)</v>
+        <v>(311 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B45" t="str">
-        <v>AFG - WK (302 pts)</v>
+        <v>ENG - BAT (317 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(302 pts)</v>
+        <v>(317 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B46" t="str">
-        <v>SA - BAT (299 pts)</v>
+        <v>IND - BOWL (307 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(299 pts)</v>
+        <v>(307 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B47" t="str">
-        <v>AUS - BAT (299 pts)</v>
+        <v>AFG - WK (302 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(299 pts)</v>
+        <v>(302 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Dawid Malan</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B48" t="str">
-        <v>ENG - BAT (297 pts)</v>
+        <v>SA - BAT (299 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(297 pts)</v>
+        <v>(299 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Joe Root</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B49" t="str">
-        <v>ENG - BAT (296 pts)</v>
+        <v>AUS - BAT (299 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(296 pts)</v>
+        <v>(299 pts)</v>
       </c>
     </row>
     <row r="50">
@@ -932,32 +932,32 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Shoriful Islam</v>
+        <v>Joe Root</v>
       </c>
       <c r="B51" t="str">
-        <v>BAN - BOWL (290 pts)</v>
+        <v>ENG - BAT (293 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(290 pts)</v>
+        <v>(293 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B52" t="str">
-        <v>AUS - BOWL (283 pts)</v>
+        <v>BAN - BOWL (290 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(283 pts)</v>
+        <v>(290 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Rashid Khan</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B53" t="str">
-        <v>AFG - BOWL (283 pts)</v>
+        <v>AUS - BOWL (283 pts)</v>
       </c>
       <c r="C53" t="str">
         <v>(283 pts)</v>
@@ -965,10 +965,10 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B54" t="str">
-        <v>AFG - AR (283 pts)</v>
+        <v>AFG - BOWL (283 pts)</v>
       </c>
       <c r="C54" t="str">
         <v>(283 pts)</v>
@@ -976,112 +976,112 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Tom Latham</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B55" t="str">
-        <v>NZ - WK (263 pts)</v>
+        <v>AFG - AR (283 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(263 pts)</v>
+        <v>(283 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Hasan Ali</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B56" t="str">
-        <v>PAK - BOWL (262 pts)</v>
+        <v>NZ - WK (263 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(262 pts)</v>
+        <v>(263 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>David Miller</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B57" t="str">
-        <v>SA - BAT (261 pts)</v>
+        <v>PAK - BOWL (262 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(261 pts)</v>
+        <v>(262 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Litton Das</v>
+        <v>David Miller</v>
       </c>
       <c r="B58" t="str">
-        <v>BAN - WK (258 pts)</v>
+        <v>SA - BAT (261 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(258 pts)</v>
+        <v>(261 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Litton Das</v>
       </c>
       <c r="B59" t="str">
-        <v>SL - BOWL (254 pts)</v>
+        <v>BAN - WK (258 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(254 pts)</v>
+        <v>(258 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Reece Topley</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B60" t="str">
-        <v>ENG - BOWL (247 pts)</v>
+        <v>SL - BOWL (254 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(247 pts)</v>
+        <v>(254 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B61" t="str">
-        <v>BAN - WK (246 pts)</v>
+        <v>ENG - WK (247 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(246 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B62" t="str">
-        <v>AFG - BAT (245 pts)</v>
+        <v>ENG - BOWL (247 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(245 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B63" t="str">
-        <v>IND - BOWL (302 pts)</v>
+        <v>BAN - WK (246 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(302 pts)</v>
+        <v>(246 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B64" t="str">
-        <v>IND - AR (307 pts)</v>
+        <v>AFG - BAT (245 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(307 pts)</v>
+        <v>(245 pts)</v>
       </c>
     </row>
     <row r="65">
@@ -1119,32 +1119,32 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B68" t="str">
-        <v>SA - BOWL (240 pts)</v>
+        <v>SA - BOWL (305 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(240 pts)</v>
+        <v>(305 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Jos Buttler</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B69" t="str">
-        <v>ENG - WK (238 pts)</v>
+        <v>PAK - BAT (304 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(238 pts)</v>
+        <v>(304 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Mark Wood</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B70" t="str">
-        <v>ENG - BOWL (238 pts)</v>
+        <v>AUS - WK (238 pts)</v>
       </c>
       <c r="C70" t="str">
         <v>(238 pts)</v>
@@ -1152,13 +1152,13 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Josh Inglis</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B71" t="str">
-        <v>AUS - WK (238 pts)</v>
+        <v>ENG - WK (223 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(238 pts)</v>
+        <v>(223 pts)</v>
       </c>
     </row>
     <row r="72">
@@ -1185,54 +1185,54 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Steven Smith</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B74" t="str">
-        <v>AUS - BAT (210 pts)</v>
+        <v>BAN - AR (219 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(210 pts)</v>
+        <v>(219 pts)</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B75" t="str">
-        <v>AFG - BOWL (210 pts)</v>
+        <v>PAK - AR (213 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(210 pts)</v>
+        <v>(213 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B76" t="str">
-        <v>ENG - WK (207 pts)</v>
+        <v>AUS - BAT (210 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(207 pts)</v>
+        <v>(210 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Charith Asalanka</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B77" t="str">
-        <v>SL - BAT (207 pts)</v>
+        <v>SA - BOWL (240 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(207 pts)</v>
+        <v>(240 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B78" t="str">
-        <v>AFG - BOWL (207 pts)</v>
+        <v>SL - BAT (207 pts)</v>
       </c>
       <c r="C78" t="str">
         <v>(207 pts)</v>
@@ -1240,178 +1240,178 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B79" t="str">
-        <v>IND - BAT (205 pts)</v>
+        <v>AFG - BOWL (210 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(205 pts)</v>
+        <v>(210 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Rahmat Shah</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B80" t="str">
-        <v>AFG - AR (204 pts)</v>
+        <v>IND - BAT (205 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(204 pts)</v>
+        <v>(205 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B81" t="str">
-        <v>BAN - AR (219 pts)</v>
+        <v>AFG - AR (204 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(219 pts)</v>
+        <v>(204 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B82" t="str">
-        <v>AFG - BAT (199 pts)</v>
+        <v>ENG - BOWL (238 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(199 pts)</v>
+        <v>(238 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B83" t="str">
-        <v>BAN - BOWL (185 pts)</v>
+        <v>AFG - BAT (199 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(185 pts)</v>
+        <v>(199 pts)</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B84" t="str">
-        <v>NED - AR (185 pts)</v>
+        <v>IND - BOWL (198 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(185 pts)</v>
+        <v>(198 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Shadab Khan</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B85" t="str">
-        <v>PAK - AR (213 pts)</v>
+        <v>ENG - AR (188 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(213 pts)</v>
+        <v>(188 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B86" t="str">
-        <v>IND - BOWL (198 pts)</v>
+        <v>NED - AR (185 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(198 pts)</v>
+        <v>(185 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B87" t="str">
-        <v>PAK - AR (182 pts)</v>
+        <v>BAN - BOWL (185 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(182 pts)</v>
+        <v>(185 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Chris Woakes</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B88" t="str">
-        <v>ENG - AR (179 pts)</v>
+        <v>AFG - AR (183 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(179 pts)</v>
+        <v>(183 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B89" t="str">
-        <v>AFG - AR (183 pts)</v>
+        <v>PAK - AR (182 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(183 pts)</v>
+        <v>(182 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>David Willey</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B90" t="str">
-        <v>ENG - AR (183 pts)</v>
+        <v>BAN - BOWL (176 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(183 pts)</v>
+        <v>(176 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B91" t="str">
-        <v>BAN - BOWL (176 pts)</v>
+        <v>IND - BAT (175 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(176 pts)</v>
+        <v>(175 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Shubman Gill</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B92" t="str">
-        <v>IND - BAT (175 pts)</v>
+        <v>BAN - BAT (174 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(175 pts)</v>
+        <v>(174 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B93" t="str">
-        <v>BAN - BAT (174 pts)</v>
+        <v>ENG - BAT (172 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(174 pts)</v>
+        <v>(172 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Harry Brook</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B94" t="str">
-        <v>ENG - BAT (172 pts)</v>
+        <v>IND - AR (170 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(172 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="95">
@@ -1427,51 +1427,51 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Kusal Perera</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B96" t="str">
-        <v>SL - WK (154 pts)</v>
+        <v>ENG - AR (155 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(154 pts)</v>
+        <v>(155 pts)</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Travis Head</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B97" t="str">
-        <v>AUS - BAT (151 pts)</v>
+        <v>SL - WK (154 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(151 pts)</v>
+        <v>(154 pts)</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Vikram Singh</v>
+        <v>Travis Head</v>
       </c>
       <c r="B98" t="str">
-        <v>NED - AR (150 pts)</v>
+        <v>AUS - BAT (151 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(150 pts)</v>
+        <v>(151 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Reeza Hendricks</v>
+        <v>David Willey</v>
       </c>
       <c r="B99" t="str">
-        <v>SA - BAT (135 pts)</v>
+        <v>ENG - AR (203 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(135 pts)</v>
+        <v>(203 pts)</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Temba Bavuma</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B100" t="str">
         <v>SA - BAT (135 pts)</v>
@@ -1482,24 +1482,24 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B101" t="str">
-        <v>BAN - BAT (129 pts)</v>
+        <v>SA - BAT (135 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(129 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Liam Livingstone</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B102" t="str">
-        <v>ENG - AR (126 pts)</v>
+        <v>BAN - BAT (129 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(126 pts)</v>
+        <v>(129 pts)</v>
       </c>
     </row>
     <row r="103">
@@ -1515,46 +1515,46 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Hardik Pandya</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B104" t="str">
-        <v>IND - AR (170 pts)</v>
+        <v>PAK - BOWL (121 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(170 pts)</v>
+        <v>(121 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Mohammad Shami</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B105" t="str">
-        <v>IND - BOWL (167 pts)</v>
+        <v>SL - AR (119 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(167 pts)</v>
+        <v>(119 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Usama Mir</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B106" t="str">
-        <v>PAK - BOWL (121 pts)</v>
+        <v>AFG - BOWL (207 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(121 pts)</v>
+        <v>(207 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B107" t="str">
-        <v>SL - AR (119 pts)</v>
+        <v>NED - AR (150 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(119 pts)</v>
+        <v>(150 pts)</v>
       </c>
     </row>
     <row r="108">
@@ -1570,46 +1570,46 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>James Neesham</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B109" t="str">
-        <v>NZ - AR (116 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(116 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Sam Curran</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B110" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>SL - BOWL (115 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(118 pts)</v>
+        <v>(115 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B111" t="str">
-        <v>SL - BOWL (115 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(115 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Dasun Shanaka</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B112" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>BAN - BAT (108 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(114 pts)</v>
+        <v>(108 pts)</v>
       </c>
     </row>
     <row r="113">
@@ -1636,24 +1636,24 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B115" t="str">
-        <v>BAN - BAT (108 pts)</v>
+        <v>NZ - BAT (96 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(108 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Kane Williamson</v>
+        <v>James Neesham</v>
       </c>
       <c r="B116" t="str">
-        <v>NZ - BAT (96 pts)</v>
+        <v>NZ - AR (116 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(96 pts)</v>
+        <v>(116 pts)</v>
       </c>
     </row>
     <row r="117">
@@ -1669,24 +1669,24 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Ben Stokes</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B118" t="str">
-        <v>ENG - AR (91 pts)</v>
+        <v>SL - BOWL (96 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(91 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Fazalhaq Farooqi</v>
       </c>
       <c r="B119" t="str">
-        <v>SL - BOWL (96 pts)</v>
+        <v>AFG - BOWL (92 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(96 pts)</v>
+        <v>(92 pts)</v>
       </c>
     </row>
     <row r="120">
@@ -1702,101 +1702,101 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Noor Ahmad</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B121" t="str">
-        <v>AFG - BOWL (87 pts)</v>
+        <v>ENG - AR (88 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(87 pts)</v>
+        <v>(88 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Fazalhaq Farooqi</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B122" t="str">
-        <v>AFG - BOWL (92 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(92 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B123" t="str">
-        <v>PAK - BOWL (75 pts)</v>
+        <v>IND - BOWL (78 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(75 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Angelo Mathews</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B124" t="str">
-        <v>SL - BAT (68 pts)</v>
+        <v>AFG - BOWL (87 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(68 pts)</v>
+        <v>(87 pts)</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Mark Chapman</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B125" t="str">
-        <v>NZ - BAT (68 pts)</v>
+        <v>PAK - BOWL (75 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(68 pts)</v>
+        <v>(75 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Angelo Mathews</v>
       </c>
       <c r="B126" t="str">
-        <v>IND - BAT (67 pts)</v>
+        <v>SL - BAT (68 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(67 pts)</v>
+        <v>(68 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Ishan Kishan</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B127" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>NZ - BAT (68 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(63 pts)</v>
+        <v>(68 pts)</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Lizaad Williams</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B128" t="str">
-        <v>SA - BOWL (58 pts)</v>
+        <v>IND - BAT (67 pts)</v>
       </c>
       <c r="C128" t="str">
-        <v>(58 pts)</v>
+        <v>(67 pts)</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Wesley Barresi</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B129" t="str">
-        <v>NED - WK (55 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C129" t="str">
-        <v>(55 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="130">
@@ -1812,10 +1812,10 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B131" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>ENG - AR (53 pts)</v>
       </c>
       <c r="C131" t="str">
         <v>(53 pts)</v>
@@ -1823,46 +1823,46 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Moeen Ali</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B132" t="str">
-        <v>ENG - AR (40 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C132" t="str">
-        <v>(40 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B133" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>SA - BOWL (58 pts)</v>
       </c>
       <c r="C133" t="str">
-        <v>(37 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B134" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>NED - WK (55 pts)</v>
       </c>
       <c r="C134" t="str">
-        <v>(79 pts)</v>
+        <v>(55 pts)</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Shardul Thakur</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B135" t="str">
-        <v>IND - BOWL (78 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C135" t="str">
-        <v>(78 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="136">
@@ -1889,24 +1889,24 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Chamika Karunaratne</v>
       </c>
       <c r="B138" t="str">
-        <v>NED - AR (31 pts)</v>
+        <v>SL - AR (28 pts)</v>
       </c>
       <c r="C138" t="str">
-        <v>(31 pts)</v>
+        <v>(28 pts)</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Chamika Karunaratne</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B139" t="str">
-        <v>SL - AR (28 pts)</v>
+        <v>NED - AR (31 pts)</v>
       </c>
       <c r="C139" t="str">
-        <v>(28 pts)</v>
+        <v>(31 pts)</v>
       </c>
     </row>
     <row r="140">
@@ -1955,21 +1955,21 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Alex Carey</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B144" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C144" t="str">
-        <v>(1 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Tim Southee</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B145" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C145" t="str">
         <v>(0 pts)</v>
@@ -1977,21 +1977,21 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Anamul Haque</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B146" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C146" t="str">
-        <v>(0 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B147" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C147" t="str">
         <v>(0 pts)</v>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Jason Roy</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B148" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C148" t="str">
         <v>(0 pts)</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B150" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C150" t="str">
         <v>(0 pts)</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Tom Blundell</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B151" t="str">
-        <v>NZ - WK (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C151" t="str">
         <v>(0 pts)</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Axar Patel</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B152" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C152" t="str">
         <v>(0 pts)</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Ashton Agar</v>
+        <v>Tom Blundell</v>
       </c>
       <c r="B153" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>NZ - WK (0 pts)</v>
       </c>
       <c r="C153" t="str">
         <v>(0 pts)</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Ish Sodhi</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B154" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Tanzim Hasan Sakib</v>
+        <v>Mohammad Naim</v>
       </c>
       <c r="B165" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C165" t="str">
         <v>(0 pts)</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Mohammad Naim</v>
+        <v>Tanzim Hasan Sakib</v>
       </c>
       <c r="B166" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>BAN - BOWL (0 pts)</v>
       </c>
       <c r="C166" t="str">
         <v>(0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -404,24 +404,24 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>David Warner</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B3" t="str">
-        <v>AUS - BAT (589 pts)</v>
+        <v>NZ - AR (610 pts)</v>
       </c>
       <c r="C3" t="str">
-        <v>(589 pts)</v>
+        <v>(610 pts)</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Rachin Ravindra</v>
+        <v>David Warner</v>
       </c>
       <c r="B4" t="str">
-        <v>NZ - AR (610 pts)</v>
+        <v>AUS - BAT (589 pts)</v>
       </c>
       <c r="C4" t="str">
-        <v>(610 pts)</v>
+        <v>(589 pts)</v>
       </c>
     </row>
     <row r="5">
@@ -437,24 +437,24 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Mitchell Santner</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B6" t="str">
-        <v>NZ - AR (536 pts)</v>
+        <v>IND - BAT (540 pts)</v>
       </c>
       <c r="C6" t="str">
-        <v>(536 pts)</v>
+        <v>(540 pts)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Rohit Sharma</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B7" t="str">
-        <v>IND - BAT (540 pts)</v>
+        <v>NZ - AR (536 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(540 pts)</v>
+        <v>(536 pts)</v>
       </c>
     </row>
     <row r="8">
@@ -470,79 +470,79 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B9" t="str">
-        <v>IND - BOWL (487 pts)</v>
+        <v>NED - AR (497 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(487 pts)</v>
+        <v>(497 pts)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B10" t="str">
-        <v>SA - WK (480 pts)</v>
+        <v>IND - BOWL (487 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(480 pts)</v>
+        <v>(487 pts)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Virat Kohli</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B11" t="str">
-        <v>IND - BAT (478 pts)</v>
+        <v>PAK - WK (491 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(478 pts)</v>
+        <v>(491 pts)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Aiden Markram</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B12" t="str">
-        <v>SA - AR (471 pts)</v>
+        <v>SA - WK (480 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(471 pts)</v>
+        <v>(480 pts)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B13" t="str">
-        <v>NZ - AR (462 pts)</v>
+        <v>IND - BAT (478 pts)</v>
       </c>
       <c r="C13" t="str">
-        <v>(462 pts)</v>
+        <v>(478 pts)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B14" t="str">
-        <v>PAK - WK (491 pts)</v>
+        <v>SL - WK (443 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(491 pts)</v>
+        <v>(443 pts)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Bas de Leede</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B15" t="str">
-        <v>NED - AR (497 pts)</v>
+        <v>SL - WK (443 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(497 pts)</v>
+        <v>(443 pts)</v>
       </c>
     </row>
     <row r="16">
@@ -558,123 +558,123 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Matt Henry</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B17" t="str">
-        <v>NZ - BOWL (403 pts)</v>
+        <v>NZ - AR (462 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(403 pts)</v>
+        <v>(462 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B18" t="str">
-        <v>PAK - BOWL (427 pts)</v>
+        <v>SA - AR (471 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(427 pts)</v>
+        <v>(471 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Kusal Mendis</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B19" t="str">
-        <v>SL - WK (397 pts)</v>
+        <v>PAK - BOWL (427 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(397 pts)</v>
+        <v>(427 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B20" t="str">
-        <v>SL - WK (400 pts)</v>
+        <v>SL - BOWL (420 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(400 pts)</v>
+        <v>(420 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B21" t="str">
-        <v>BAN - AR (390 pts)</v>
+        <v>NZ - BOWL (403 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(390 pts)</v>
+        <v>(403 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Logan van Beek</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B22" t="str">
-        <v>NED - BOWL (416 pts)</v>
+        <v>NZ - WK (394 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(416 pts)</v>
+        <v>(394 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Scott Edwards</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B23" t="str">
-        <v>NED - WK (379 pts)</v>
+        <v>AFG - AR (403 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(379 pts)</v>
+        <v>(403 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Devon Conway</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B24" t="str">
-        <v>NZ - WK (394 pts)</v>
+        <v>SA - BOWL (387 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(394 pts)</v>
+        <v>(387 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B25" t="str">
-        <v>SA - BOWL (387 pts)</v>
+        <v>NED - WK (379 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(387 pts)</v>
+        <v>(379 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Glenn Phillips</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B26" t="str">
-        <v>NZ - AR (373 pts)</v>
+        <v>NED - BOWL (416 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(373 pts)</v>
+        <v>(416 pts)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Colin Ackermann</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B27" t="str">
-        <v>NED - AR (366 pts)</v>
+        <v>BAN - AR (390 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(366 pts)</v>
+        <v>(390 pts)</v>
       </c>
     </row>
     <row r="28">
@@ -690,79 +690,79 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Aryan Dutt</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B29" t="str">
-        <v>NED - BOWL (365 pts)</v>
+        <v>NZ - AR (373 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(365 pts)</v>
+        <v>(373 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B30" t="str">
-        <v>SA - BOWL (365 pts)</v>
+        <v>NED - AR (366 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(365 pts)</v>
+        <v>(366 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B31" t="str">
-        <v>SL - BOWL (358 pts)</v>
+        <v>SL - BAT (370 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(358 pts)</v>
+        <v>(370 pts)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B32" t="str">
-        <v>AUS - AR (353 pts)</v>
+        <v>NED - BOWL (365 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(353 pts)</v>
+        <v>(365 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B33" t="str">
-        <v>NED - BOWL (351 pts)</v>
+        <v>SA - BOWL (365 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(351 pts)</v>
+        <v>(365 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Pat Cummins</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B34" t="str">
-        <v>AUS - BOWL (365 pts)</v>
+        <v>AUS - AR (353 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(365 pts)</v>
+        <v>(353 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Adil Rashid</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B35" t="str">
-        <v>ENG - BOWL (345 pts)</v>
+        <v>NED - BOWL (351 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(345 pts)</v>
+        <v>(351 pts)</v>
       </c>
     </row>
     <row r="36">
@@ -778,13 +778,13 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B37" t="str">
-        <v>IND - AR (342 pts)</v>
+        <v>AUS - BOWL (365 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(342 pts)</v>
+        <v>(365 pts)</v>
       </c>
     </row>
     <row r="38">
@@ -800,816 +800,816 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Mitchell Starc</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B39" t="str">
-        <v>AUS - BOWL (338 pts)</v>
+        <v>ENG - BOWL (345 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(338 pts)</v>
+        <v>(345 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Trent Boult</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B40" t="str">
-        <v>NZ - BOWL (321 pts)</v>
+        <v>AFG - BOWL (328 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(321 pts)</v>
+        <v>(328 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Haris Rauf</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B41" t="str">
-        <v>PAK - BOWL (324 pts)</v>
+        <v>IND - AR (342 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(324 pts)</v>
+        <v>(342 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B42" t="str">
-        <v>BAN - AR (316 pts)</v>
+        <v>AUS - BOWL (338 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(316 pts)</v>
+        <v>(338 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B43" t="str">
-        <v>SL - BAT (315 pts)</v>
+        <v>AFG - WK (323 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(315 pts)</v>
+        <v>(323 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B44" t="str">
-        <v>BAN - AR (311 pts)</v>
+        <v>PAK - BOWL (324 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(311 pts)</v>
+        <v>(324 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Dawid Malan</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B45" t="str">
-        <v>ENG - BAT (317 pts)</v>
+        <v>NZ - BOWL (321 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(317 pts)</v>
+        <v>(321 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Mohammad Shami</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B46" t="str">
-        <v>IND - BOWL (307 pts)</v>
+        <v>ENG - BAT (317 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(307 pts)</v>
+        <v>(317 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B47" t="str">
-        <v>AFG - WK (302 pts)</v>
+        <v>BAN - AR (311 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(302 pts)</v>
+        <v>(311 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B48" t="str">
-        <v>SA - BAT (299 pts)</v>
+        <v>IND - BOWL (307 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(299 pts)</v>
+        <v>(307 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B49" t="str">
-        <v>AUS - BAT (299 pts)</v>
+        <v>BAN - AR (316 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(299 pts)</v>
+        <v>(316 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Saud Shakeel</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B50" t="str">
-        <v>PAK - BAT (296 pts)</v>
+        <v>AFG - BAT (306 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(296 pts)</v>
+        <v>(306 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Joe Root</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B51" t="str">
-        <v>ENG - BAT (293 pts)</v>
+        <v>SA - BAT (299 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(293 pts)</v>
+        <v>(299 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Shoriful Islam</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B52" t="str">
-        <v>BAN - BOWL (290 pts)</v>
+        <v>AUS - BAT (299 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(290 pts)</v>
+        <v>(299 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B53" t="str">
-        <v>AUS - BOWL (283 pts)</v>
+        <v>PAK - BAT (304 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(283 pts)</v>
+        <v>(304 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Rashid Khan</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B54" t="str">
-        <v>AFG - BOWL (283 pts)</v>
+        <v>SA - BOWL (305 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(283 pts)</v>
+        <v>(305 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B55" t="str">
-        <v>AFG - AR (283 pts)</v>
+        <v>PAK - BAT (296 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(283 pts)</v>
+        <v>(296 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Tom Latham</v>
+        <v>Joe Root</v>
       </c>
       <c r="B56" t="str">
-        <v>NZ - WK (263 pts)</v>
+        <v>ENG - BAT (293 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(263 pts)</v>
+        <v>(293 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Hasan Ali</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B57" t="str">
-        <v>PAK - BOWL (262 pts)</v>
+        <v>BAN - BOWL (290 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(262 pts)</v>
+        <v>(290 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>David Miller</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B58" t="str">
-        <v>SA - BAT (261 pts)</v>
+        <v>SL - BOWL (288 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(261 pts)</v>
+        <v>(288 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Litton Das</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B59" t="str">
-        <v>BAN - WK (258 pts)</v>
+        <v>AUS - BOWL (283 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(258 pts)</v>
+        <v>(283 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B60" t="str">
-        <v>SL - BOWL (254 pts)</v>
+        <v>AFG - BAT (269 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(254 pts)</v>
+        <v>(269 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Jos Buttler</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B61" t="str">
-        <v>ENG - WK (247 pts)</v>
+        <v>NZ - WK (263 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(247 pts)</v>
+        <v>(263 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Reece Topley</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B62" t="str">
-        <v>ENG - BOWL (247 pts)</v>
+        <v>PAK - BOWL (262 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(247 pts)</v>
+        <v>(262 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>David Miller</v>
       </c>
       <c r="B63" t="str">
-        <v>BAN - WK (246 pts)</v>
+        <v>SA - BAT (261 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(246 pts)</v>
+        <v>(261 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Litton Das</v>
       </c>
       <c r="B64" t="str">
-        <v>AFG - BAT (245 pts)</v>
+        <v>BAN - WK (258 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(245 pts)</v>
+        <v>(258 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Will Young</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B65" t="str">
-        <v>NZ - BAT (244 pts)</v>
+        <v>AFG - AR (281 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(244 pts)</v>
+        <v>(281 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B66" t="str">
-        <v>NZ - BOWL (243 pts)</v>
+        <v>ENG - WK (247 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(243 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B67" t="str">
-        <v>NED - AR (240 pts)</v>
+        <v>ENG - BOWL (247 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(240 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Will Young</v>
       </c>
       <c r="B68" t="str">
-        <v>SA - BOWL (305 pts)</v>
+        <v>NZ - BAT (244 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(305 pts)</v>
+        <v>(244 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Babar Azam</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B69" t="str">
-        <v>PAK - BAT (304 pts)</v>
+        <v>BAN - WK (246 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(304 pts)</v>
+        <v>(246 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Josh Inglis</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B70" t="str">
-        <v>AUS - WK (238 pts)</v>
+        <v>AFG - BOWL (271 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(238 pts)</v>
+        <v>(271 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B71" t="str">
-        <v>ENG - WK (223 pts)</v>
+        <v>NZ - BOWL (243 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(223 pts)</v>
+        <v>(243 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B72" t="str">
-        <v>PAK - AR (222 pts)</v>
+        <v>NED - AR (240 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(222 pts)</v>
+        <v>(240 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B73" t="str">
-        <v>PAK - BAT (221 pts)</v>
+        <v>SA - BOWL (240 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(221 pts)</v>
+        <v>(240 pts)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B74" t="str">
-        <v>BAN - AR (219 pts)</v>
+        <v>ENG - BOWL (238 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(219 pts)</v>
+        <v>(238 pts)</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Shadab Khan</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B75" t="str">
-        <v>PAK - AR (213 pts)</v>
+        <v>AUS - WK (238 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(213 pts)</v>
+        <v>(238 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Steven Smith</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B76" t="str">
-        <v>AUS - BAT (210 pts)</v>
+        <v>SL - BAT (235 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(210 pts)</v>
+        <v>(235 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Fazalhaq Farooqi</v>
       </c>
       <c r="B77" t="str">
-        <v>SA - BOWL (240 pts)</v>
+        <v>AFG - BOWL (224 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(240 pts)</v>
+        <v>(224 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Charith Asalanka</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B78" t="str">
-        <v>SL - BAT (207 pts)</v>
+        <v>PAK - BAT (221 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(207 pts)</v>
+        <v>(221 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B79" t="str">
-        <v>AFG - BOWL (210 pts)</v>
+        <v>BAN - AR (219 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(210 pts)</v>
+        <v>(219 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B80" t="str">
-        <v>IND - BAT (205 pts)</v>
+        <v>PAK - AR (213 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(205 pts)</v>
+        <v>(213 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Rahmat Shah</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B81" t="str">
-        <v>AFG - AR (204 pts)</v>
+        <v>AFG - BOWL (212 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(204 pts)</v>
+        <v>(212 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Mark Wood</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B82" t="str">
-        <v>ENG - BOWL (238 pts)</v>
+        <v>AUS - BAT (210 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(238 pts)</v>
+        <v>(210 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B83" t="str">
-        <v>AFG - BAT (199 pts)</v>
+        <v>IND - BAT (205 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(199 pts)</v>
+        <v>(205 pts)</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Mohammed Siraj</v>
+        <v>David Willey</v>
       </c>
       <c r="B84" t="str">
-        <v>IND - BOWL (198 pts)</v>
+        <v>ENG - AR (203 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(198 pts)</v>
+        <v>(203 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Chris Woakes</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B85" t="str">
-        <v>ENG - AR (188 pts)</v>
+        <v>IND - BOWL (198 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(188 pts)</v>
+        <v>(198 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B86" t="str">
-        <v>NED - AR (185 pts)</v>
+        <v>AFG - AR (195 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(185 pts)</v>
+        <v>(195 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B87" t="str">
-        <v>BAN - BOWL (185 pts)</v>
+        <v>ENG - AR (188 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(185 pts)</v>
+        <v>(188 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B88" t="str">
-        <v>AFG - AR (183 pts)</v>
+        <v>NED - AR (185 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(183 pts)</v>
+        <v>(185 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B89" t="str">
-        <v>PAK - AR (182 pts)</v>
+        <v>PAK - AR (222 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(182 pts)</v>
+        <v>(222 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B90" t="str">
-        <v>BAN - BOWL (176 pts)</v>
+        <v>ENG - WK (223 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(176 pts)</v>
+        <v>(223 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Shubman Gill</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B91" t="str">
-        <v>IND - BAT (175 pts)</v>
+        <v>BAN - BOWL (185 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(175 pts)</v>
+        <v>(185 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B92" t="str">
-        <v>BAN - BAT (174 pts)</v>
+        <v>IND - BAT (175 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(174 pts)</v>
+        <v>(175 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Harry Brook</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B93" t="str">
-        <v>ENG - BAT (172 pts)</v>
+        <v>BAN - BAT (174 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(172 pts)</v>
+        <v>(174 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Hardik Pandya</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B94" t="str">
-        <v>IND - AR (170 pts)</v>
+        <v>PAK - AR (182 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(170 pts)</v>
+        <v>(182 pts)</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B95" t="str">
-        <v>SA - BOWL (166 pts)</v>
+        <v>BAN - BOWL (176 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(166 pts)</v>
+        <v>(176 pts)</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Liam Livingstone</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B96" t="str">
-        <v>ENG - AR (155 pts)</v>
+        <v>SA - BOWL (166 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(155 pts)</v>
+        <v>(166 pts)</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Kusal Perera</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B97" t="str">
-        <v>SL - WK (154 pts)</v>
+        <v>ENG - AR (155 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(154 pts)</v>
+        <v>(155 pts)</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Travis Head</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B98" t="str">
-        <v>AUS - BAT (151 pts)</v>
+        <v>SL - WK (154 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(151 pts)</v>
+        <v>(154 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>David Willey</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B99" t="str">
-        <v>ENG - AR (203 pts)</v>
+        <v>SL - BOWL (153 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(203 pts)</v>
+        <v>(153 pts)</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Travis Head</v>
       </c>
       <c r="B100" t="str">
-        <v>SA - BAT (135 pts)</v>
+        <v>AUS - BAT (151 pts)</v>
       </c>
       <c r="C100" t="str">
-        <v>(135 pts)</v>
+        <v>(151 pts)</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Temba Bavuma</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B101" t="str">
-        <v>SA - BAT (135 pts)</v>
+        <v>NED - AR (150 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(135 pts)</v>
+        <v>(150 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B102" t="str">
-        <v>BAN - BAT (129 pts)</v>
+        <v>IND - AR (170 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(129 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B103" t="str">
-        <v>AUS - AR (122 pts)</v>
+        <v>ENG - BAT (172 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(122 pts)</v>
+        <v>(172 pts)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Usama Mir</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B104" t="str">
-        <v>PAK - BOWL (121 pts)</v>
+        <v>SL - AR (138 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(121 pts)</v>
+        <v>(138 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B105" t="str">
-        <v>SL - AR (119 pts)</v>
+        <v>BAN - BAT (129 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(119 pts)</v>
+        <v>(129 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B106" t="str">
-        <v>AFG - BOWL (207 pts)</v>
+        <v>AFG - WK (123 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(207 pts)</v>
+        <v>(123 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Vikram Singh</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B107" t="str">
-        <v>NED - AR (150 pts)</v>
+        <v>SA - BAT (135 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(150 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B108" t="str">
-        <v>AFG - WK (119 pts)</v>
+        <v>PAK - BOWL (121 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(119 pts)</v>
+        <v>(121 pts)</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Sam Curran</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B109" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>SA - BAT (135 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(118 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>James Neesham</v>
       </c>
       <c r="B110" t="str">
-        <v>SL - BOWL (115 pts)</v>
+        <v>NZ - AR (116 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(115 pts)</v>
+        <v>(116 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Dasun Shanaka</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B111" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(114 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B112" t="str">
-        <v>BAN - BAT (108 pts)</v>
+        <v>AUS - AR (122 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(108 pts)</v>
+        <v>(122 pts)</v>
       </c>
     </row>
     <row r="113">
@@ -1636,79 +1636,79 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Kane Williamson</v>
+        <v>Angelo Mathews</v>
       </c>
       <c r="B115" t="str">
-        <v>NZ - BAT (96 pts)</v>
+        <v>SL - BAT (98 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(96 pts)</v>
+        <v>(98 pts)</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>James Neesham</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B116" t="str">
-        <v>NZ - AR (116 pts)</v>
+        <v>NZ - BAT (96 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(116 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Max O'Dowd</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B117" t="str">
-        <v>NED - BAT (93 pts)</v>
+        <v>SL - BOWL (96 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(93 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B118" t="str">
-        <v>SL - BOWL (96 pts)</v>
+        <v>NED - BAT (93 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(96 pts)</v>
+        <v>(93 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Fazalhaq Farooqi</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B119" t="str">
-        <v>AFG - BOWL (92 pts)</v>
+        <v>BAN - BOWL (90 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(92 pts)</v>
+        <v>(90 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B120" t="str">
-        <v>BAN - BOWL (90 pts)</v>
+        <v>ENG - AR (88 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(90 pts)</v>
+        <v>(88 pts)</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Ben Stokes</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B121" t="str">
-        <v>ENG - AR (88 pts)</v>
+        <v>AFG - BOWL (87 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(88 pts)</v>
+        <v>(87 pts)</v>
       </c>
     </row>
     <row r="122">
@@ -1735,68 +1735,68 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Noor Ahmad</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B124" t="str">
-        <v>AFG - BOWL (87 pts)</v>
+        <v>PAK - BOWL (75 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(87 pts)</v>
+        <v>(75 pts)</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B125" t="str">
-        <v>PAK - BOWL (75 pts)</v>
+        <v>NZ - BAT (68 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(75 pts)</v>
+        <v>(68 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Angelo Mathews</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B126" t="str">
-        <v>SL - BAT (68 pts)</v>
+        <v>IND - BAT (67 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(68 pts)</v>
+        <v>(67 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Mark Chapman</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B127" t="str">
-        <v>NZ - BAT (68 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(68 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B128" t="str">
-        <v>IND - BAT (67 pts)</v>
+        <v>SA - BOWL (58 pts)</v>
       </c>
       <c r="C128" t="str">
-        <v>(67 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Ishan Kishan</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B129" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>NED - WK (55 pts)</v>
       </c>
       <c r="C129" t="str">
-        <v>(63 pts)</v>
+        <v>(55 pts)</v>
       </c>
     </row>
     <row r="130">
@@ -1834,68 +1834,68 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Lizaad Williams</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B133" t="str">
-        <v>SA - BOWL (58 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C133" t="str">
-        <v>(58 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Wesley Barresi</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B134" t="str">
-        <v>NED - WK (55 pts)</v>
+        <v>BAN - BAT (108 pts)</v>
       </c>
       <c r="C134" t="str">
-        <v>(55 pts)</v>
+        <v>(108 pts)</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B135" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>SL - BAT (36 pts)</v>
       </c>
       <c r="C135" t="str">
-        <v>(37 pts)</v>
+        <v>(36 pts)</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B136" t="str">
-        <v>PAK - BAT (35 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C136" t="str">
-        <v>(35 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Cameron Green</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B137" t="str">
-        <v>AUS - AR (31 pts)</v>
+        <v>PAK - BAT (35 pts)</v>
       </c>
       <c r="C137" t="str">
-        <v>(31 pts)</v>
+        <v>(35 pts)</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Chamika Karunaratne</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B138" t="str">
-        <v>SL - AR (28 pts)</v>
+        <v>AUS - AR (31 pts)</v>
       </c>
       <c r="C138" t="str">
-        <v>(28 pts)</v>
+        <v>(31 pts)</v>
       </c>
     </row>
     <row r="139">
@@ -1911,68 +1911,68 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Chamika Karunaratne</v>
       </c>
       <c r="B140" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>SL - AR (28 pts)</v>
       </c>
       <c r="C140" t="str">
-        <v>(27 pts)</v>
+        <v>(28 pts)</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Ryan Klein</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B141" t="str">
-        <v>NED - BOWL (16 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C141" t="str">
-        <v>(16 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Ryan Klein</v>
       </c>
       <c r="B142" t="str">
-        <v>NED - BOWL (10 pts)</v>
+        <v>NED - BOWL (16 pts)</v>
       </c>
       <c r="C142" t="str">
-        <v>(10 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Dushan Hemantha</v>
+        <v>Shariz Ahmad</v>
       </c>
       <c r="B143" t="str">
-        <v>SL - AR (9 pts)</v>
+        <v>NED - BOWL (10 pts)</v>
       </c>
       <c r="C143" t="str">
-        <v>(9 pts)</v>
+        <v>(10 pts)</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Tim Southee</v>
+        <v>Dushan Hemantha</v>
       </c>
       <c r="B144" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>SL - AR (9 pts)</v>
       </c>
       <c r="C144" t="str">
-        <v>(0 pts)</v>
+        <v>(9 pts)</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B145" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>SL - BOWL (5 pts)</v>
       </c>
       <c r="C145" t="str">
-        <v>(0 pts)</v>
+        <v>(5 pts)</v>
       </c>
     </row>
     <row r="146">
@@ -1988,10 +1988,10 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Jason Roy</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B147" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C147" t="str">
         <v>(0 pts)</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Sean Abbott</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B149" t="str">
-        <v>AUS - BOWL (0 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C149" t="str">
         <v>(0 pts)</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Ashton Agar</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B150" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>AUS - BOWL (0 pts)</v>
       </c>
       <c r="C150" t="str">
         <v>(0 pts)</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Ish Sodhi</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B151" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C151" t="str">
         <v>(0 pts)</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B152" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C152" t="str">
         <v>(0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -448,57 +448,57 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Mitchell Santner</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B7" t="str">
-        <v>NZ - AR (536 pts)</v>
+        <v>PAK - WK (537 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(536 pts)</v>
+        <v>(537 pts)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Adam Zampa</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B8" t="str">
-        <v>AUS - BOWL (512 pts)</v>
+        <v>NZ - AR (536 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(512 pts)</v>
+        <v>(536 pts)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Bas de Leede</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B9" t="str">
-        <v>NED - AR (497 pts)</v>
+        <v>BAN - AR (505 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(497 pts)</v>
+        <v>(505 pts)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B10" t="str">
-        <v>IND - BOWL (487 pts)</v>
+        <v>AUS - BOWL (512 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(487 pts)</v>
+        <v>(512 pts)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B11" t="str">
-        <v>PAK - WK (491 pts)</v>
+        <v>NED - AR (497 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(491 pts)</v>
+        <v>(497 pts)</v>
       </c>
     </row>
     <row r="12">
@@ -525,46 +525,46 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Kusal Mendis</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B14" t="str">
-        <v>SL - WK (443 pts)</v>
+        <v>PAK - BOWL (530 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(443 pts)</v>
+        <v>(530 pts)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B15" t="str">
-        <v>SL - WK (443 pts)</v>
+        <v>IND - BOWL (487 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(443 pts)</v>
+        <v>(487 pts)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B16" t="str">
-        <v>AUS - AR (432 pts)</v>
+        <v>NZ - AR (462 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(432 pts)</v>
+        <v>(462 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B17" t="str">
-        <v>NZ - AR (462 pts)</v>
+        <v>PAK - BAT (449 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(462 pts)</v>
+        <v>(449 pts)</v>
       </c>
     </row>
     <row r="18">
@@ -580,54 +580,54 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B19" t="str">
-        <v>PAK - BOWL (427 pts)</v>
+        <v>SL - WK (443 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(427 pts)</v>
+        <v>(443 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B20" t="str">
-        <v>SL - BOWL (420 pts)</v>
+        <v>SL - WK (443 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(420 pts)</v>
+        <v>(443 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Matt Henry</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B21" t="str">
-        <v>NZ - BOWL (403 pts)</v>
+        <v>AUS - AR (432 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(403 pts)</v>
+        <v>(432 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Devon Conway</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B22" t="str">
-        <v>NZ - WK (394 pts)</v>
+        <v>NED - BOWL (416 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(394 pts)</v>
+        <v>(416 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B23" t="str">
-        <v>AFG - AR (403 pts)</v>
+        <v>NZ - BOWL (403 pts)</v>
       </c>
       <c r="C23" t="str">
         <v>(403 pts)</v>
@@ -635,57 +635,57 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B24" t="str">
-        <v>SA - BOWL (387 pts)</v>
+        <v>AFG - AR (403 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(387 pts)</v>
+        <v>(403 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Scott Edwards</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B25" t="str">
-        <v>NED - WK (379 pts)</v>
+        <v>BAN - AR (396 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(379 pts)</v>
+        <v>(396 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Logan van Beek</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B26" t="str">
-        <v>NED - BOWL (416 pts)</v>
+        <v>SL - BOWL (420 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(416 pts)</v>
+        <v>(420 pts)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B27" t="str">
-        <v>BAN - AR (390 pts)</v>
+        <v>NZ - WK (394 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(390 pts)</v>
+        <v>(394 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B28" t="str">
-        <v>IND - BOWL (372 pts)</v>
+        <v>PAK - BOWL (380 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(372 pts)</v>
+        <v>(380 pts)</v>
       </c>
     </row>
     <row r="29">
@@ -701,13 +701,13 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Colin Ackermann</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B30" t="str">
-        <v>NED - AR (366 pts)</v>
+        <v>IND - BOWL (372 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(366 pts)</v>
+        <v>(372 pts)</v>
       </c>
     </row>
     <row r="31">
@@ -723,21 +723,21 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Aryan Dutt</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B32" t="str">
-        <v>NED - BOWL (365 pts)</v>
+        <v>SA - BOWL (387 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(365 pts)</v>
+        <v>(387 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B33" t="str">
-        <v>SA - BOWL (365 pts)</v>
+        <v>AUS - BOWL (365 pts)</v>
       </c>
       <c r="C33" t="str">
         <v>(365 pts)</v>
@@ -745,90 +745,90 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B34" t="str">
-        <v>AUS - AR (353 pts)</v>
+        <v>SA - BOWL (365 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(353 pts)</v>
+        <v>(365 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B35" t="str">
-        <v>NED - BOWL (351 pts)</v>
+        <v>NED - AR (366 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(351 pts)</v>
+        <v>(366 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B36" t="str">
-        <v>PAK - BAT (360 pts)</v>
+        <v>BAN - AR (362 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(360 pts)</v>
+        <v>(362 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Pat Cummins</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B37" t="str">
-        <v>AUS - BOWL (365 pts)</v>
+        <v>AUS - AR (353 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(365 pts)</v>
+        <v>(353 pts)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>KL Rahul</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B38" t="str">
-        <v>IND - BAT (343 pts)</v>
+        <v>NED - BOWL (351 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(343 pts)</v>
+        <v>(351 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Adil Rashid</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B39" t="str">
-        <v>ENG - BOWL (345 pts)</v>
+        <v>NED - WK (379 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(345 pts)</v>
+        <v>(379 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Rashid Khan</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B40" t="str">
-        <v>AFG - BOWL (328 pts)</v>
+        <v>IND - BAT (343 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(328 pts)</v>
+        <v>(343 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B41" t="str">
-        <v>IND - AR (342 pts)</v>
+        <v>NED - BOWL (365 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(342 pts)</v>
+        <v>(365 pts)</v>
       </c>
     </row>
     <row r="42">
@@ -844,178 +844,178 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B43" t="str">
-        <v>AFG - WK (323 pts)</v>
+        <v>AFG - BOWL (328 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(323 pts)</v>
+        <v>(328 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Haris Rauf</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B44" t="str">
-        <v>PAK - BOWL (324 pts)</v>
+        <v>IND - AR (342 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(324 pts)</v>
+        <v>(342 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Trent Boult</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B45" t="str">
-        <v>NZ - BOWL (321 pts)</v>
+        <v>ENG - BOWL (345 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(321 pts)</v>
+        <v>(345 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Dawid Malan</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B46" t="str">
-        <v>ENG - BAT (317 pts)</v>
+        <v>AFG - WK (323 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(317 pts)</v>
+        <v>(323 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B47" t="str">
-        <v>BAN - AR (311 pts)</v>
+        <v>NZ - BOWL (321 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(311 pts)</v>
+        <v>(321 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Mohammad Shami</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B48" t="str">
-        <v>IND - BOWL (307 pts)</v>
+        <v>PAK - BAT (318 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(307 pts)</v>
+        <v>(318 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B49" t="str">
-        <v>BAN - AR (316 pts)</v>
+        <v>ENG - BAT (317 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(316 pts)</v>
+        <v>(317 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Litton Das</v>
       </c>
       <c r="B50" t="str">
-        <v>AFG - BAT (306 pts)</v>
+        <v>BAN - WK (313 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(306 pts)</v>
+        <v>(313 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B51" t="str">
-        <v>SA - BAT (299 pts)</v>
+        <v>AFG - BAT (306 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(299 pts)</v>
+        <v>(306 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B52" t="str">
-        <v>AUS - BAT (299 pts)</v>
+        <v>IND - BOWL (307 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(299 pts)</v>
+        <v>(307 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Babar Azam</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B53" t="str">
-        <v>PAK - BAT (304 pts)</v>
+        <v>SA - BOWL (305 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(304 pts)</v>
+        <v>(305 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B54" t="str">
-        <v>SA - BOWL (305 pts)</v>
+        <v>PAK - BAT (300 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(305 pts)</v>
+        <v>(300 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Saud Shakeel</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B55" t="str">
-        <v>PAK - BAT (296 pts)</v>
+        <v>SA - BAT (299 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(296 pts)</v>
+        <v>(299 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Joe Root</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B56" t="str">
-        <v>ENG - BAT (293 pts)</v>
+        <v>BAN - BOWL (299 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(293 pts)</v>
+        <v>(299 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Shoriful Islam</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B57" t="str">
-        <v>BAN - BOWL (290 pts)</v>
+        <v>AUS - BAT (299 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(290 pts)</v>
+        <v>(299 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Joe Root</v>
       </c>
       <c r="B58" t="str">
-        <v>SL - BOWL (288 pts)</v>
+        <v>ENG - BAT (293 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(288 pts)</v>
+        <v>(293 pts)</v>
       </c>
     </row>
     <row r="59">
@@ -1031,145 +1031,145 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B60" t="str">
-        <v>AFG - BAT (269 pts)</v>
+        <v>AFG - AR (281 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(269 pts)</v>
+        <v>(281 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Tom Latham</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B61" t="str">
-        <v>NZ - WK (263 pts)</v>
+        <v>PAK - AR (280 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(263 pts)</v>
+        <v>(280 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Hasan Ali</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B62" t="str">
-        <v>PAK - BOWL (262 pts)</v>
+        <v>SL - BOWL (288 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(262 pts)</v>
+        <v>(288 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>David Miller</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B63" t="str">
-        <v>SA - BAT (261 pts)</v>
+        <v>AFG - BOWL (271 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(261 pts)</v>
+        <v>(271 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Litton Das</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B64" t="str">
-        <v>BAN - WK (258 pts)</v>
+        <v>PAK - BOWL (262 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(258 pts)</v>
+        <v>(262 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Rahmat Shah</v>
+        <v>David Miller</v>
       </c>
       <c r="B65" t="str">
-        <v>AFG - AR (281 pts)</v>
+        <v>SA - BAT (261 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(281 pts)</v>
+        <v>(261 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Jos Buttler</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B66" t="str">
-        <v>ENG - WK (247 pts)</v>
+        <v>BAN - WK (256 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(247 pts)</v>
+        <v>(256 pts)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Reece Topley</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B67" t="str">
-        <v>ENG - BOWL (247 pts)</v>
+        <v>NZ - WK (263 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(247 pts)</v>
+        <v>(263 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Will Young</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B68" t="str">
-        <v>NZ - BAT (244 pts)</v>
+        <v>AFG - BAT (269 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(244 pts)</v>
+        <v>(269 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Will Young</v>
       </c>
       <c r="B69" t="str">
-        <v>BAN - WK (246 pts)</v>
+        <v>NZ - BAT (244 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(246 pts)</v>
+        <v>(244 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B70" t="str">
-        <v>AFG - BOWL (271 pts)</v>
+        <v>NZ - BOWL (243 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(271 pts)</v>
+        <v>(243 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B71" t="str">
-        <v>NZ - BOWL (243 pts)</v>
+        <v>NED - AR (240 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(243 pts)</v>
+        <v>(240 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B72" t="str">
-        <v>NED - AR (240 pts)</v>
+        <v>ENG - WK (247 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(240 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="73">
@@ -1229,153 +1229,153 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B78" t="str">
-        <v>PAK - BAT (221 pts)</v>
+        <v>ENG - WK (223 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(221 pts)</v>
+        <v>(223 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B79" t="str">
-        <v>BAN - AR (219 pts)</v>
+        <v>PAK - BAT (221 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(219 pts)</v>
+        <v>(221 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Shadab Khan</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B80" t="str">
-        <v>PAK - AR (213 pts)</v>
+        <v>BAN - AR (219 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(213 pts)</v>
+        <v>(219 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B81" t="str">
-        <v>AFG - BOWL (212 pts)</v>
+        <v>PAK - AR (213 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(212 pts)</v>
+        <v>(213 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Steven Smith</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B82" t="str">
-        <v>AUS - BAT (210 pts)</v>
+        <v>AFG - BOWL (212 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(210 pts)</v>
+        <v>(212 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B83" t="str">
-        <v>IND - BAT (205 pts)</v>
+        <v>AUS - BAT (210 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(205 pts)</v>
+        <v>(210 pts)</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>David Willey</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B84" t="str">
-        <v>ENG - AR (203 pts)</v>
+        <v>IND - BAT (205 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(203 pts)</v>
+        <v>(205 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Mohammed Siraj</v>
+        <v>David Willey</v>
       </c>
       <c r="B85" t="str">
-        <v>IND - BOWL (198 pts)</v>
+        <v>ENG - AR (203 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(198 pts)</v>
+        <v>(203 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B86" t="str">
-        <v>AFG - AR (195 pts)</v>
+        <v>IND - BOWL (198 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(195 pts)</v>
+        <v>(198 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Chris Woakes</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B87" t="str">
-        <v>ENG - AR (188 pts)</v>
+        <v>AFG - AR (195 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(188 pts)</v>
+        <v>(195 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B88" t="str">
-        <v>NED - AR (185 pts)</v>
+        <v>BAN - BOWL (192 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(185 pts)</v>
+        <v>(192 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B89" t="str">
-        <v>PAK - AR (222 pts)</v>
+        <v>BAN - BOWL (190 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(222 pts)</v>
+        <v>(190 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B90" t="str">
-        <v>ENG - WK (223 pts)</v>
+        <v>ENG - AR (188 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(223 pts)</v>
+        <v>(188 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B91" t="str">
-        <v>BAN - BOWL (185 pts)</v>
+        <v>NED - AR (185 pts)</v>
       </c>
       <c r="C91" t="str">
         <v>(185 pts)</v>
@@ -1383,134 +1383,134 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Shubman Gill</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B92" t="str">
-        <v>IND - BAT (175 pts)</v>
+        <v>ENG - BOWL (247 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(175 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B93" t="str">
-        <v>BAN - BAT (174 pts)</v>
+        <v>PAK - BOWL (184 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(174 pts)</v>
+        <v>(184 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B94" t="str">
-        <v>PAK - AR (182 pts)</v>
+        <v>BAN - BAT (175 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(182 pts)</v>
+        <v>(175 pts)</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B95" t="str">
-        <v>BAN - BOWL (176 pts)</v>
+        <v>ENG - BAT (172 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(176 pts)</v>
+        <v>(172 pts)</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B96" t="str">
-        <v>SA - BOWL (166 pts)</v>
+        <v>IND - AR (170 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(166 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Liam Livingstone</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B97" t="str">
-        <v>ENG - AR (155 pts)</v>
+        <v>SA - BOWL (166 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(155 pts)</v>
+        <v>(166 pts)</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Kusal Perera</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B98" t="str">
-        <v>SL - WK (154 pts)</v>
+        <v>PAK - BOWL (158 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(154 pts)</v>
+        <v>(158 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B99" t="str">
-        <v>SL - BOWL (153 pts)</v>
+        <v>SL - WK (154 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(153 pts)</v>
+        <v>(154 pts)</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Travis Head</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B100" t="str">
-        <v>AUS - BAT (151 pts)</v>
+        <v>SL - BOWL (153 pts)</v>
       </c>
       <c r="C100" t="str">
-        <v>(151 pts)</v>
+        <v>(153 pts)</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Vikram Singh</v>
+        <v>Travis Head</v>
       </c>
       <c r="B101" t="str">
-        <v>NED - AR (150 pts)</v>
+        <v>AUS - BAT (151 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(150 pts)</v>
+        <v>(151 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Hardik Pandya</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B102" t="str">
-        <v>IND - AR (170 pts)</v>
+        <v>NED - AR (150 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(170 pts)</v>
+        <v>(150 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Harry Brook</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B103" t="str">
-        <v>ENG - BAT (172 pts)</v>
+        <v>PAK - BAT (143 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(172 pts)</v>
+        <v>(143 pts)</v>
       </c>
     </row>
     <row r="104">
@@ -1526,51 +1526,51 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B105" t="str">
-        <v>BAN - BAT (129 pts)</v>
+        <v>IND - BAT (175 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(129 pts)</v>
+        <v>(175 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B106" t="str">
-        <v>AFG - WK (123 pts)</v>
+        <v>ENG - AR (155 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(123 pts)</v>
+        <v>(155 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Temba Bavuma</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B107" t="str">
-        <v>SA - BAT (135 pts)</v>
+        <v>PAK - AR (182 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(135 pts)</v>
+        <v>(182 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Usama Mir</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B108" t="str">
-        <v>PAK - BOWL (121 pts)</v>
+        <v>BAN - BAT (129 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(121 pts)</v>
+        <v>(129 pts)</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B109" t="str">
         <v>SA - BAT (135 pts)</v>
@@ -1581,288 +1581,288 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>James Neesham</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B110" t="str">
-        <v>NZ - AR (116 pts)</v>
+        <v>BAN - BAT (138 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(116 pts)</v>
+        <v>(138 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Sam Curran</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B111" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>AUS - AR (122 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(118 pts)</v>
+        <v>(122 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B112" t="str">
-        <v>AUS - AR (122 pts)</v>
+        <v>SA - BAT (135 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(122 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Gus Atkinson</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B113" t="str">
-        <v>ENG - BOWL (104 pts)</v>
+        <v>AFG - WK (123 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(104 pts)</v>
+        <v>(123 pts)</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B114" t="str">
-        <v>NED - BAT (99 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(99 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Angelo Mathews</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B115" t="str">
-        <v>SL - BAT (98 pts)</v>
+        <v>ENG - BOWL (104 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(98 pts)</v>
+        <v>(104 pts)</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Kane Williamson</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B116" t="str">
-        <v>NZ - BAT (96 pts)</v>
+        <v>NED - BAT (99 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(96 pts)</v>
+        <v>(99 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Angelo Mathews</v>
       </c>
       <c r="B117" t="str">
-        <v>SL - BOWL (96 pts)</v>
+        <v>SL - BAT (98 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(96 pts)</v>
+        <v>(98 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Max O'Dowd</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B118" t="str">
-        <v>NED - BAT (93 pts)</v>
+        <v>NZ - BAT (96 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(93 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B119" t="str">
-        <v>BAN - BOWL (90 pts)</v>
+        <v>SL - BOWL (96 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(90 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Ben Stokes</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B120" t="str">
-        <v>ENG - AR (88 pts)</v>
+        <v>NED - BAT (93 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(88 pts)</v>
+        <v>(93 pts)</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Noor Ahmad</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B121" t="str">
-        <v>AFG - BOWL (87 pts)</v>
+        <v>BAN - BOWL (90 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(87 pts)</v>
+        <v>(90 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B122" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>ENG - AR (88 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(79 pts)</v>
+        <v>(88 pts)</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Shardul Thakur</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B123" t="str">
-        <v>IND - BOWL (78 pts)</v>
+        <v>AFG - BOWL (87 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(78 pts)</v>
+        <v>(87 pts)</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B124" t="str">
-        <v>PAK - BOWL (75 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(75 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Mark Chapman</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B125" t="str">
-        <v>NZ - BAT (68 pts)</v>
+        <v>IND - BOWL (78 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(68 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B126" t="str">
-        <v>IND - BAT (67 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(67 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Dasun Shanaka</v>
+        <v>James Neesham</v>
       </c>
       <c r="B127" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>NZ - AR (116 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(114 pts)</v>
+        <v>(116 pts)</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Lizaad Williams</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B128" t="str">
-        <v>SA - BOWL (58 pts)</v>
+        <v>NZ - BAT (68 pts)</v>
       </c>
       <c r="C128" t="str">
-        <v>(58 pts)</v>
+        <v>(68 pts)</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Wesley Barresi</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B129" t="str">
-        <v>NED - WK (55 pts)</v>
+        <v>IND - BAT (67 pts)</v>
       </c>
       <c r="C129" t="str">
-        <v>(55 pts)</v>
+        <v>(67 pts)</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B130" t="str">
-        <v>BAN - BOWL (54 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C130" t="str">
-        <v>(54 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Moeen Ali</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B131" t="str">
-        <v>ENG - AR (53 pts)</v>
+        <v>NED - WK (55 pts)</v>
       </c>
       <c r="C131" t="str">
-        <v>(53 pts)</v>
+        <v>(55 pts)</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B132" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>SA - BOWL (58 pts)</v>
       </c>
       <c r="C132" t="str">
-        <v>(53 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Ishan Kishan</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B133" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>BAN - BOWL (54 pts)</v>
       </c>
       <c r="C133" t="str">
-        <v>(63 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B134" t="str">
-        <v>BAN - BAT (108 pts)</v>
+        <v>ENG - AR (53 pts)</v>
       </c>
       <c r="C134" t="str">
-        <v>(108 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B135" t="str">
-        <v>SL - BAT (36 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C135" t="str">
-        <v>(36 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="136">
@@ -1878,13 +1878,13 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B137" t="str">
-        <v>PAK - BAT (35 pts)</v>
+        <v>SL - BAT (36 pts)</v>
       </c>
       <c r="C137" t="str">
-        <v>(35 pts)</v>
+        <v>(36 pts)</v>
       </c>
     </row>
     <row r="138">
@@ -1944,24 +1944,24 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Dushan Hemantha</v>
       </c>
       <c r="B143" t="str">
-        <v>NED - BOWL (10 pts)</v>
+        <v>SL - AR (9 pts)</v>
       </c>
       <c r="C143" t="str">
-        <v>(10 pts)</v>
+        <v>(9 pts)</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Dushan Hemantha</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B144" t="str">
-        <v>SL - AR (9 pts)</v>
+        <v>PAK - AR (20 pts)</v>
       </c>
       <c r="C144" t="str">
-        <v>(9 pts)</v>
+        <v>(20 pts)</v>
       </c>
     </row>
     <row r="145">
@@ -1977,21 +1977,21 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Alex Carey</v>
+        <v>Shariz Ahmad</v>
       </c>
       <c r="B146" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>NED - BOWL (10 pts)</v>
       </c>
       <c r="C146" t="str">
-        <v>(1 pts)</v>
+        <v>(10 pts)</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Tim Southee</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B147" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C147" t="str">
         <v>(0 pts)</v>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Anamul Haque</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B148" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C148" t="str">
         <v>(0 pts)</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Jason Roy</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B149" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>AUS - BOWL (0 pts)</v>
       </c>
       <c r="C149" t="str">
         <v>(0 pts)</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Sean Abbott</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B150" t="str">
-        <v>AUS - BOWL (0 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C150" t="str">
         <v>(0 pts)</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Ashton Agar</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B151" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C151" t="str">
         <v>(0 pts)</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Ish Sodhi</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B152" t="str">
         <v>NZ - BOWL (0 pts)</v>
@@ -2054,21 +2054,21 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Tom Blundell</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B153" t="str">
-        <v>NZ - WK (0 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C153" t="str">
-        <v>(0 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Axar Patel</v>
+        <v>Tom Blundell</v>
       </c>
       <c r="B154" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>NZ - WK (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Binura Fernando</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B155" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C155" t="str">
         <v>(0 pts)</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Agha Salman</v>
+        <v>Andile Phehlukwayo</v>
       </c>
       <c r="B156" t="str">
-        <v>PAK - AR (0 pts)</v>
+        <v>SA - AR (0 pts)</v>
       </c>
       <c r="C156" t="str">
         <v>(0 pts)</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Andile Phehlukwayo</v>
+        <v>Sahan Arachchige</v>
       </c>
       <c r="B157" t="str">
-        <v>SA - AR (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C157" t="str">
         <v>(0 pts)</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Sahan Arachchige</v>
+        <v>Brydon Carse</v>
       </c>
       <c r="B158" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>ENG - BOWL (0 pts)</v>
       </c>
       <c r="C158" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Brydon Carse</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B159" t="str">
-        <v>ENG - BOWL (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Afif Hossain</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B161" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C161" t="str">
         <v>(0 pts)</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Riaz Hassan</v>
+        <v>Abdul Rahman</v>
       </c>
       <c r="B162" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C162" t="str">
         <v>(0 pts)</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Abdul Rahman</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B163" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C163" t="str">
         <v>(0 pts)</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Shamim Hossain</v>
+        <v>Mohammad Naim</v>
       </c>
       <c r="B164" t="str">
         <v>BAN - BAT (0 pts)</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Mohammad Naim</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B165" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C165" t="str">
         <v>(0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -396,10 +396,10 @@
         <v>Quinton de Kock</v>
       </c>
       <c r="B2" t="str">
-        <v>SA - WK (657 pts)</v>
+        <v>SA - WK (799 pts)</v>
       </c>
       <c r="C2" t="str">
-        <v>(657 pts)</v>
+        <v>(799 pts)</v>
       </c>
     </row>
     <row r="3">
@@ -407,10 +407,10 @@
         <v>Rachin Ravindra</v>
       </c>
       <c r="B3" t="str">
-        <v>NZ - AR (610 pts)</v>
+        <v>NZ - AR (614 pts)</v>
       </c>
       <c r="C3" t="str">
-        <v>(610 pts)</v>
+        <v>(614 pts)</v>
       </c>
     </row>
     <row r="4">
@@ -429,10 +429,10 @@
         <v>Marco Jansen</v>
       </c>
       <c r="B5" t="str">
-        <v>SA - AR (576 pts)</v>
+        <v>SA - AR (580 pts)</v>
       </c>
       <c r="C5" t="str">
-        <v>(576 pts)</v>
+        <v>(580 pts)</v>
       </c>
     </row>
     <row r="6">
@@ -448,24 +448,24 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B7" t="str">
-        <v>PAK - WK (537 pts)</v>
+        <v>NZ - AR (540 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(537 pts)</v>
+        <v>(540 pts)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Mitchell Santner</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B8" t="str">
-        <v>NZ - AR (536 pts)</v>
+        <v>PAK - WK (537 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(536 pts)</v>
+        <v>(537 pts)</v>
       </c>
     </row>
     <row r="9">
@@ -481,24 +481,24 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Adam Zampa</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B10" t="str">
-        <v>AUS - BOWL (512 pts)</v>
+        <v>PAK - BOWL (530 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(512 pts)</v>
+        <v>(530 pts)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Bas de Leede</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B11" t="str">
-        <v>NED - AR (497 pts)</v>
+        <v>AUS - BOWL (512 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(497 pts)</v>
+        <v>(512 pts)</v>
       </c>
     </row>
     <row r="12">
@@ -506,92 +506,92 @@
         <v>Heinrich Klaasen</v>
       </c>
       <c r="B12" t="str">
-        <v>SA - WK (480 pts)</v>
+        <v>SA - WK (502 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(480 pts)</v>
+        <v>(502 pts)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Virat Kohli</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B13" t="str">
-        <v>IND - BAT (478 pts)</v>
+        <v>NED - AR (497 pts)</v>
       </c>
       <c r="C13" t="str">
-        <v>(478 pts)</v>
+        <v>(497 pts)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B14" t="str">
-        <v>PAK - BOWL (530 pts)</v>
+        <v>IND - BOWL (487 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(530 pts)</v>
+        <v>(487 pts)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B15" t="str">
-        <v>IND - BOWL (487 pts)</v>
+        <v>SA - AR (483 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(487 pts)</v>
+        <v>(483 pts)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B16" t="str">
-        <v>NZ - AR (462 pts)</v>
+        <v>IND - BAT (478 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(462 pts)</v>
+        <v>(478 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B17" t="str">
-        <v>PAK - BAT (449 pts)</v>
+        <v>NZ - AR (482 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(449 pts)</v>
+        <v>(482 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Aiden Markram</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B18" t="str">
-        <v>SA - AR (471 pts)</v>
+        <v>SA - BAT (465 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(471 pts)</v>
+        <v>(465 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Kusal Mendis</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B19" t="str">
-        <v>SL - WK (443 pts)</v>
+        <v>PAK - BAT (449 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(443 pts)</v>
+        <v>(449 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B20" t="str">
         <v>SL - WK (443 pts)</v>
@@ -602,68 +602,68 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B21" t="str">
-        <v>AUS - AR (432 pts)</v>
+        <v>SL - WK (443 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(432 pts)</v>
+        <v>(443 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Logan van Beek</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B22" t="str">
-        <v>NED - BOWL (416 pts)</v>
+        <v>AUS - AR (432 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(416 pts)</v>
+        <v>(432 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Matt Henry</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B23" t="str">
-        <v>NZ - BOWL (403 pts)</v>
+        <v>SL - BOWL (420 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(403 pts)</v>
+        <v>(420 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B24" t="str">
-        <v>AFG - AR (403 pts)</v>
+        <v>NED - BOWL (416 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(403 pts)</v>
+        <v>(416 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B25" t="str">
-        <v>BAN - AR (396 pts)</v>
+        <v>NZ - BOWL (407 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(396 pts)</v>
+        <v>(407 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B26" t="str">
-        <v>SL - BOWL (420 pts)</v>
+        <v>AFG - AR (403 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(420 pts)</v>
+        <v>(403 pts)</v>
       </c>
     </row>
     <row r="27">
@@ -671,208 +671,208 @@
         <v>Devon Conway</v>
       </c>
       <c r="B27" t="str">
-        <v>NZ - WK (394 pts)</v>
+        <v>NZ - WK (398 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(394 pts)</v>
+        <v>(398 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Haris Rauf</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B28" t="str">
-        <v>PAK - BOWL (380 pts)</v>
+        <v>BAN - AR (396 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(380 pts)</v>
+        <v>(396 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Glenn Phillips</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B29" t="str">
-        <v>NZ - AR (373 pts)</v>
+        <v>SA - BOWL (391 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(373 pts)</v>
+        <v>(391 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B30" t="str">
-        <v>IND - BOWL (372 pts)</v>
+        <v>NZ - AR (383 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(372 pts)</v>
+        <v>(383 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B31" t="str">
-        <v>SL - BAT (370 pts)</v>
+        <v>PAK - BOWL (380 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(370 pts)</v>
+        <v>(380 pts)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B32" t="str">
-        <v>SA - BOWL (387 pts)</v>
+        <v>NED - WK (379 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(387 pts)</v>
+        <v>(379 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Pat Cummins</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B33" t="str">
-        <v>AUS - BOWL (365 pts)</v>
+        <v>IND - BOWL (372 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(365 pts)</v>
+        <v>(372 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B34" t="str">
-        <v>SA - BOWL (365 pts)</v>
+        <v>SL - BAT (370 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(365 pts)</v>
+        <v>(370 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Colin Ackermann</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B35" t="str">
-        <v>NED - AR (366 pts)</v>
+        <v>SA - BOWL (369 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(366 pts)</v>
+        <v>(369 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B36" t="str">
-        <v>BAN - AR (362 pts)</v>
+        <v>NED - AR (366 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(362 pts)</v>
+        <v>(366 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B37" t="str">
-        <v>AUS - AR (353 pts)</v>
+        <v>AUS - BOWL (365 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(353 pts)</v>
+        <v>(365 pts)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B38" t="str">
-        <v>NED - BOWL (351 pts)</v>
+        <v>NED - BOWL (365 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(351 pts)</v>
+        <v>(365 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Scott Edwards</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B39" t="str">
-        <v>NED - WK (379 pts)</v>
+        <v>BAN - AR (362 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(379 pts)</v>
+        <v>(362 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>KL Rahul</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B40" t="str">
-        <v>IND - BAT (343 pts)</v>
+        <v>NED - BOWL (351 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(343 pts)</v>
+        <v>(351 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Aryan Dutt</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B41" t="str">
-        <v>NED - BOWL (365 pts)</v>
+        <v>ENG - BOWL (345 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(365 pts)</v>
+        <v>(345 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Mitchell Starc</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B42" t="str">
-        <v>AUS - BOWL (338 pts)</v>
+        <v>IND - AR (342 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(338 pts)</v>
+        <v>(342 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Rashid Khan</v>
+        <v>David Miller</v>
       </c>
       <c r="B43" t="str">
-        <v>AFG - BOWL (328 pts)</v>
+        <v>SA - BAT (338 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(328 pts)</v>
+        <v>(338 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B44" t="str">
-        <v>IND - AR (342 pts)</v>
+        <v>AUS - BOWL (338 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(342 pts)</v>
+        <v>(338 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Adil Rashid</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B45" t="str">
-        <v>ENG - BOWL (345 pts)</v>
+        <v>AFG - BOWL (328 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(345 pts)</v>
+        <v>(328 pts)</v>
       </c>
     </row>
     <row r="46">
@@ -888,68 +888,68 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Trent Boult</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B47" t="str">
-        <v>NZ - BOWL (321 pts)</v>
+        <v>PAK - BAT (318 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(321 pts)</v>
+        <v>(318 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Babar Azam</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B48" t="str">
-        <v>PAK - BAT (318 pts)</v>
+        <v>ENG - BAT (317 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(318 pts)</v>
+        <v>(317 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Dawid Malan</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B49" t="str">
-        <v>ENG - BAT (317 pts)</v>
+        <v>IND - BAT (343 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(317 pts)</v>
+        <v>(343 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Litton Das</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B50" t="str">
-        <v>BAN - WK (313 pts)</v>
+        <v>AUS - AR (353 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(313 pts)</v>
+        <v>(353 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Litton Das</v>
       </c>
       <c r="B51" t="str">
-        <v>AFG - BAT (306 pts)</v>
+        <v>BAN - WK (313 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(306 pts)</v>
+        <v>(313 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Mohammad Shami</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B52" t="str">
-        <v>IND - BOWL (307 pts)</v>
+        <v>NZ - BOWL (354 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(307 pts)</v>
+        <v>(354 pts)</v>
       </c>
     </row>
     <row r="53">
@@ -957,51 +957,51 @@
         <v>Keshav Maharaj</v>
       </c>
       <c r="B53" t="str">
-        <v>SA - BOWL (305 pts)</v>
+        <v>SA - BOWL (309 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(305 pts)</v>
+        <v>(309 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Saud Shakeel</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B54" t="str">
-        <v>PAK - BAT (300 pts)</v>
+        <v>IND - BOWL (307 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(300 pts)</v>
+        <v>(307 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B55" t="str">
-        <v>SA - BAT (299 pts)</v>
+        <v>PAK - BAT (300 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(299 pts)</v>
+        <v>(300 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Shoriful Islam</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B56" t="str">
-        <v>BAN - BOWL (299 pts)</v>
+        <v>AFG - BAT (306 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(299 pts)</v>
+        <v>(306 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B57" t="str">
-        <v>AUS - BAT (299 pts)</v>
+        <v>BAN - BOWL (299 pts)</v>
       </c>
       <c r="C57" t="str">
         <v>(299 pts)</v>
@@ -1009,123 +1009,123 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Joe Root</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B58" t="str">
-        <v>ENG - BAT (293 pts)</v>
+        <v>AUS - BAT (299 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(293 pts)</v>
+        <v>(299 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Joe Root</v>
       </c>
       <c r="B59" t="str">
-        <v>AUS - BOWL (283 pts)</v>
+        <v>ENG - BAT (293 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(283 pts)</v>
+        <v>(293 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Rahmat Shah</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B60" t="str">
-        <v>AFG - AR (281 pts)</v>
+        <v>SL - BOWL (288 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(281 pts)</v>
+        <v>(288 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B61" t="str">
-        <v>PAK - AR (280 pts)</v>
+        <v>AUS - BOWL (283 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(280 pts)</v>
+        <v>(283 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B62" t="str">
-        <v>SL - BOWL (288 pts)</v>
+        <v>AFG - AR (281 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(288 pts)</v>
+        <v>(281 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B63" t="str">
-        <v>AFG - BOWL (271 pts)</v>
+        <v>PAK - AR (280 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(271 pts)</v>
+        <v>(280 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Hasan Ali</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B64" t="str">
-        <v>PAK - BOWL (262 pts)</v>
+        <v>AFG - BOWL (271 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(262 pts)</v>
+        <v>(271 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>David Miller</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B65" t="str">
-        <v>SA - BAT (261 pts)</v>
+        <v>AFG - BAT (269 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(261 pts)</v>
+        <v>(269 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B66" t="str">
-        <v>BAN - WK (256 pts)</v>
+        <v>NZ - WK (267 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(256 pts)</v>
+        <v>(267 pts)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Tom Latham</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B67" t="str">
-        <v>NZ - WK (263 pts)</v>
+        <v>PAK - BOWL (262 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(263 pts)</v>
+        <v>(262 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B68" t="str">
-        <v>AFG - BAT (269 pts)</v>
+        <v>BAN - WK (256 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(269 pts)</v>
+        <v>(256 pts)</v>
       </c>
     </row>
     <row r="69">
@@ -1133,62 +1133,62 @@
         <v>Will Young</v>
       </c>
       <c r="B69" t="str">
-        <v>NZ - BAT (244 pts)</v>
+        <v>NZ - BAT (248 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(244 pts)</v>
+        <v>(248 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B70" t="str">
-        <v>NZ - BOWL (243 pts)</v>
+        <v>ENG - WK (247 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(243 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B71" t="str">
-        <v>NED - AR (240 pts)</v>
+        <v>ENG - BOWL (247 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(240 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Jos Buttler</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B72" t="str">
-        <v>ENG - WK (247 pts)</v>
+        <v>SA - BOWL (244 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(247 pts)</v>
+        <v>(244 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B73" t="str">
-        <v>SA - BOWL (240 pts)</v>
+        <v>ENG - BOWL (238 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(240 pts)</v>
+        <v>(238 pts)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Mark Wood</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B74" t="str">
-        <v>ENG - BOWL (238 pts)</v>
+        <v>AUS - WK (238 pts)</v>
       </c>
       <c r="C74" t="str">
         <v>(238 pts)</v>
@@ -1196,101 +1196,101 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Josh Inglis</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B75" t="str">
-        <v>AUS - WK (238 pts)</v>
+        <v>SL - BAT (235 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(238 pts)</v>
+        <v>(235 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Charith Asalanka</v>
+        <v>Fazalhaq Farooqi</v>
       </c>
       <c r="B76" t="str">
-        <v>SL - BAT (235 pts)</v>
+        <v>AFG - BOWL (224 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(235 pts)</v>
+        <v>(224 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Fazalhaq Farooqi</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B77" t="str">
-        <v>AFG - BOWL (224 pts)</v>
+        <v>ENG - WK (223 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(224 pts)</v>
+        <v>(223 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B78" t="str">
-        <v>ENG - WK (223 pts)</v>
+        <v>PAK - BAT (221 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(223 pts)</v>
+        <v>(221 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B79" t="str">
-        <v>PAK - BAT (221 pts)</v>
+        <v>BAN - AR (219 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(221 pts)</v>
+        <v>(219 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B80" t="str">
-        <v>BAN - AR (219 pts)</v>
+        <v>AFG - BOWL (212 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(219 pts)</v>
+        <v>(212 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Shadab Khan</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B81" t="str">
-        <v>PAK - AR (213 pts)</v>
+        <v>AUS - BAT (210 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(213 pts)</v>
+        <v>(210 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B82" t="str">
-        <v>AFG - BOWL (212 pts)</v>
+        <v>NZ - BOWL (243 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(212 pts)</v>
+        <v>(243 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Steven Smith</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B83" t="str">
-        <v>AUS - BAT (210 pts)</v>
+        <v>NED - AR (240 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(210 pts)</v>
+        <v>(240 pts)</v>
       </c>
     </row>
     <row r="84">
@@ -1328,79 +1328,79 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B87" t="str">
-        <v>AFG - AR (195 pts)</v>
+        <v>BAN - BOWL (190 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(195 pts)</v>
+        <v>(190 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B88" t="str">
-        <v>BAN - BOWL (192 pts)</v>
+        <v>PAK - AR (213 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(192 pts)</v>
+        <v>(213 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B89" t="str">
-        <v>BAN - BOWL (190 pts)</v>
+        <v>NED - AR (185 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(190 pts)</v>
+        <v>(185 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Chris Woakes</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B90" t="str">
-        <v>ENG - AR (188 pts)</v>
+        <v>BAN - BOWL (192 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(188 pts)</v>
+        <v>(192 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B91" t="str">
-        <v>NED - AR (185 pts)</v>
+        <v>ENG - AR (188 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(185 pts)</v>
+        <v>(188 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Reece Topley</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B92" t="str">
-        <v>ENG - BOWL (247 pts)</v>
+        <v>PAK - AR (182 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(247 pts)</v>
+        <v>(182 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B93" t="str">
-        <v>PAK - BOWL (184 pts)</v>
+        <v>IND - BAT (175 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(184 pts)</v>
+        <v>(175 pts)</v>
       </c>
     </row>
     <row r="94">
@@ -1438,145 +1438,145 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B97" t="str">
-        <v>SA - BOWL (166 pts)</v>
+        <v>SA - BAT (169 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(166 pts)</v>
+        <v>(169 pts)</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Usama Mir</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B98" t="str">
-        <v>PAK - BOWL (158 pts)</v>
+        <v>AFG - AR (195 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(158 pts)</v>
+        <v>(195 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Kusal Perera</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B99" t="str">
-        <v>SL - WK (154 pts)</v>
+        <v>PAK - BOWL (184 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(154 pts)</v>
+        <v>(184 pts)</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B100" t="str">
-        <v>SL - BOWL (153 pts)</v>
+        <v>SA - BOWL (166 pts)</v>
       </c>
       <c r="C100" t="str">
-        <v>(153 pts)</v>
+        <v>(166 pts)</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Travis Head</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B101" t="str">
-        <v>AUS - BAT (151 pts)</v>
+        <v>PAK - BOWL (158 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(151 pts)</v>
+        <v>(158 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Vikram Singh</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B102" t="str">
-        <v>NED - AR (150 pts)</v>
+        <v>ENG - AR (155 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(150 pts)</v>
+        <v>(155 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B103" t="str">
-        <v>PAK - BAT (143 pts)</v>
+        <v>SL - WK (154 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(143 pts)</v>
+        <v>(154 pts)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B104" t="str">
-        <v>SL - AR (138 pts)</v>
+        <v>SL - BOWL (153 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(138 pts)</v>
+        <v>(153 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Shubman Gill</v>
+        <v>Travis Head</v>
       </c>
       <c r="B105" t="str">
-        <v>IND - BAT (175 pts)</v>
+        <v>AUS - BAT (151 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(175 pts)</v>
+        <v>(151 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Liam Livingstone</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B106" t="str">
-        <v>ENG - AR (155 pts)</v>
+        <v>NED - AR (150 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(155 pts)</v>
+        <v>(150 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B107" t="str">
-        <v>PAK - AR (182 pts)</v>
+        <v>PAK - BAT (143 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(182 pts)</v>
+        <v>(143 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Towhid Hridoy</v>
+        <v>James Neesham</v>
       </c>
       <c r="B108" t="str">
-        <v>BAN - BAT (129 pts)</v>
+        <v>NZ - AR (139 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(129 pts)</v>
+        <v>(139 pts)</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Temba Bavuma</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B109" t="str">
-        <v>SA - BAT (135 pts)</v>
+        <v>SL - AR (138 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(135 pts)</v>
+        <v>(138 pts)</v>
       </c>
     </row>
     <row r="110">
@@ -1592,24 +1592,24 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B111" t="str">
-        <v>AUS - AR (122 pts)</v>
+        <v>SA - BAT (135 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(122 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B112" t="str">
-        <v>SA - BAT (135 pts)</v>
+        <v>BAN - BAT (129 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(135 pts)</v>
+        <v>(129 pts)</v>
       </c>
     </row>
     <row r="113">
@@ -1625,156 +1625,156 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Sam Curran</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B114" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>AUS - AR (122 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(118 pts)</v>
+        <v>(122 pts)</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Gus Atkinson</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B115" t="str">
-        <v>ENG - BOWL (104 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(104 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B116" t="str">
-        <v>NED - BAT (99 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(99 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Angelo Mathews</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B117" t="str">
-        <v>SL - BAT (98 pts)</v>
+        <v>ENG - BOWL (104 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(98 pts)</v>
+        <v>(104 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Kane Williamson</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B118" t="str">
-        <v>NZ - BAT (96 pts)</v>
+        <v>NED - BAT (99 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(96 pts)</v>
+        <v>(99 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Angelo Mathews</v>
       </c>
       <c r="B119" t="str">
-        <v>SL - BOWL (96 pts)</v>
+        <v>SL - BAT (98 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(96 pts)</v>
+        <v>(98 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Max O'Dowd</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B120" t="str">
-        <v>NED - BAT (93 pts)</v>
+        <v>NZ - BAT (96 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(93 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B121" t="str">
-        <v>BAN - BOWL (90 pts)</v>
+        <v>SL - BOWL (96 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(90 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Ben Stokes</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B122" t="str">
-        <v>ENG - AR (88 pts)</v>
+        <v>NED - BAT (93 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(88 pts)</v>
+        <v>(93 pts)</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Noor Ahmad</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B123" t="str">
-        <v>AFG - BOWL (87 pts)</v>
+        <v>BAN - BOWL (90 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(87 pts)</v>
+        <v>(90 pts)</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B124" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>ENG - AR (88 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(79 pts)</v>
+        <v>(88 pts)</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Shardul Thakur</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B125" t="str">
-        <v>IND - BOWL (78 pts)</v>
+        <v>AFG - BOWL (87 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(78 pts)</v>
+        <v>(87 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Dasun Shanaka</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B126" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(114 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>James Neesham</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B127" t="str">
-        <v>NZ - AR (116 pts)</v>
+        <v>IND - BOWL (78 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(116 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="128">
@@ -1812,57 +1812,57 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Wesley Barresi</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B131" t="str">
-        <v>NED - WK (55 pts)</v>
+        <v>NZ - BOWL (60 pts)</v>
       </c>
       <c r="C131" t="str">
-        <v>(55 pts)</v>
+        <v>(60 pts)</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Lizaad Williams</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B132" t="str">
-        <v>SA - BOWL (58 pts)</v>
+        <v>BAN - BOWL (54 pts)</v>
       </c>
       <c r="C132" t="str">
-        <v>(58 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B133" t="str">
-        <v>BAN - BOWL (54 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C133" t="str">
-        <v>(54 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Moeen Ali</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B134" t="str">
-        <v>ENG - AR (53 pts)</v>
+        <v>SA - BOWL (58 pts)</v>
       </c>
       <c r="C134" t="str">
-        <v>(53 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B135" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>NED - WK (55 pts)</v>
       </c>
       <c r="C135" t="str">
-        <v>(53 pts)</v>
+        <v>(55 pts)</v>
       </c>
     </row>
     <row r="136">
@@ -1878,32 +1878,32 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B137" t="str">
-        <v>SL - BAT (36 pts)</v>
+        <v>ENG - AR (53 pts)</v>
       </c>
       <c r="C137" t="str">
-        <v>(36 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Cameron Green</v>
+        <v>Chamika Karunaratne</v>
       </c>
       <c r="B138" t="str">
-        <v>AUS - AR (31 pts)</v>
+        <v>SL - AR (28 pts)</v>
       </c>
       <c r="C138" t="str">
-        <v>(31 pts)</v>
+        <v>(28 pts)</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B139" t="str">
-        <v>NED - AR (31 pts)</v>
+        <v>AUS - AR (31 pts)</v>
       </c>
       <c r="C139" t="str">
         <v>(31 pts)</v>
@@ -1911,57 +1911,57 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Chamika Karunaratne</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B140" t="str">
-        <v>SL - AR (28 pts)</v>
+        <v>SL - BAT (36 pts)</v>
       </c>
       <c r="C140" t="str">
-        <v>(28 pts)</v>
+        <v>(36 pts)</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B141" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>PAK - AR (20 pts)</v>
       </c>
       <c r="C141" t="str">
-        <v>(27 pts)</v>
+        <v>(20 pts)</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Ryan Klein</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B142" t="str">
-        <v>NED - BOWL (16 pts)</v>
+        <v>NED - AR (31 pts)</v>
       </c>
       <c r="C142" t="str">
-        <v>(16 pts)</v>
+        <v>(31 pts)</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Dushan Hemantha</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B143" t="str">
-        <v>SL - AR (9 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C143" t="str">
-        <v>(9 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Agha Salman</v>
+        <v>Ryan Klein</v>
       </c>
       <c r="B144" t="str">
-        <v>PAK - AR (20 pts)</v>
+        <v>NED - BOWL (16 pts)</v>
       </c>
       <c r="C144" t="str">
-        <v>(20 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="145">
@@ -1977,13 +1977,13 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B146" t="str">
-        <v>NED - BOWL (10 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C146" t="str">
-        <v>(10 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="147">
@@ -2043,10 +2043,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Tim Southee</v>
+        <v>Tom Blundell</v>
       </c>
       <c r="B152" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>NZ - WK (0 pts)</v>
       </c>
       <c r="C152" t="str">
         <v>(0 pts)</v>
@@ -2054,21 +2054,21 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Alex Carey</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B153" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C153" t="str">
-        <v>(1 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Tom Blundell</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B154" t="str">
-        <v>NZ - WK (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Axar Patel</v>
+        <v>Andile Phehlukwayo</v>
       </c>
       <c r="B155" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>SA - AR (0 pts)</v>
       </c>
       <c r="C155" t="str">
         <v>(0 pts)</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Andile Phehlukwayo</v>
+        <v>Sahan Arachchige</v>
       </c>
       <c r="B156" t="str">
-        <v>SA - AR (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C156" t="str">
         <v>(0 pts)</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Sahan Arachchige</v>
+        <v>Brydon Carse</v>
       </c>
       <c r="B157" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>ENG - BOWL (0 pts)</v>
       </c>
       <c r="C157" t="str">
         <v>(0 pts)</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Brydon Carse</v>
+        <v>Pramod Madushan</v>
       </c>
       <c r="B158" t="str">
-        <v>ENG - BOWL (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C158" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Binura Fernando</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B159" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Pramod Madushan</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B160" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Riaz Hassan</v>
+        <v>Abdul Rahman</v>
       </c>
       <c r="B161" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C161" t="str">
         <v>(0 pts)</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Abdul Rahman</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B162" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C162" t="str">
         <v>(0 pts)</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Shamim Hossain</v>
+        <v>Mohammad Naim</v>
       </c>
       <c r="B163" t="str">
         <v>BAN - BAT (0 pts)</v>
@@ -2175,24 +2175,24 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Mohammad Naim</v>
+        <v>Dushan Hemantha</v>
       </c>
       <c r="B164" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>SL - AR (9 pts)</v>
       </c>
       <c r="C164" t="str">
-        <v>(0 pts)</v>
+        <v>(9 pts)</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Afif Hossain</v>
+        <v>Shariz Ahmad</v>
       </c>
       <c r="B165" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>NED - BOWL (10 pts)</v>
       </c>
       <c r="C165" t="str">
-        <v>(0 pts)</v>
+        <v>(10 pts)</v>
       </c>
     </row>
     <row r="166">

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -396,62 +396,62 @@
         <v>Quinton de Kock</v>
       </c>
       <c r="B2" t="str">
-        <v>SA - WK (799 pts)</v>
+        <v>SA - WK (807 pts)</v>
       </c>
       <c r="C2" t="str">
-        <v>(799 pts)</v>
+        <v>(807 pts)</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B3" t="str">
-        <v>NZ - AR (614 pts)</v>
+        <v>SA - AR (669 pts)</v>
       </c>
       <c r="C3" t="str">
-        <v>(614 pts)</v>
+        <v>(669 pts)</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>David Warner</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B4" t="str">
-        <v>AUS - BAT (589 pts)</v>
+        <v>NZ - AR (624 pts)</v>
       </c>
       <c r="C4" t="str">
-        <v>(589 pts)</v>
+        <v>(624 pts)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Marco Jansen</v>
+        <v>David Warner</v>
       </c>
       <c r="B5" t="str">
-        <v>SA - AR (580 pts)</v>
+        <v>AUS - BAT (589 pts)</v>
       </c>
       <c r="C5" t="str">
-        <v>(580 pts)</v>
+        <v>(589 pts)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Rohit Sharma</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B6" t="str">
-        <v>IND - BAT (540 pts)</v>
+        <v>NZ - AR (548 pts)</v>
       </c>
       <c r="C6" t="str">
-        <v>(540 pts)</v>
+        <v>(548 pts)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Mitchell Santner</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B7" t="str">
-        <v>NZ - AR (540 pts)</v>
+        <v>IND - BAT (540 pts)</v>
       </c>
       <c r="C7" t="str">
         <v>(540 pts)</v>
@@ -470,68 +470,68 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B9" t="str">
-        <v>BAN - AR (505 pts)</v>
+        <v>PAK - BOWL (530 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(505 pts)</v>
+        <v>(530 pts)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B10" t="str">
-        <v>PAK - BOWL (530 pts)</v>
+        <v>AUS - BOWL (512 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(530 pts)</v>
+        <v>(512 pts)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Adam Zampa</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B11" t="str">
-        <v>AUS - BOWL (512 pts)</v>
+        <v>SA - WK (502 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(512 pts)</v>
+        <v>(502 pts)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B12" t="str">
-        <v>SA - WK (502 pts)</v>
+        <v>NED - AR (497 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(502 pts)</v>
+        <v>(497 pts)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Bas de Leede</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B13" t="str">
-        <v>NED - AR (497 pts)</v>
+        <v>BAN - AR (505 pts)</v>
       </c>
       <c r="C13" t="str">
-        <v>(497 pts)</v>
+        <v>(505 pts)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B14" t="str">
-        <v>IND - BOWL (487 pts)</v>
+        <v>NZ - AR (510 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(487 pts)</v>
+        <v>(510 pts)</v>
       </c>
     </row>
     <row r="15">
@@ -539,70 +539,70 @@
         <v>Aiden Markram</v>
       </c>
       <c r="B15" t="str">
-        <v>SA - AR (483 pts)</v>
+        <v>SA - AR (491 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(483 pts)</v>
+        <v>(491 pts)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Virat Kohli</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B16" t="str">
-        <v>IND - BAT (478 pts)</v>
+        <v>IND - BOWL (487 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(478 pts)</v>
+        <v>(487 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B17" t="str">
-        <v>NZ - AR (482 pts)</v>
+        <v>IND - BAT (478 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(482 pts)</v>
+        <v>(478 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B18" t="str">
-        <v>SA - BAT (465 pts)</v>
+        <v>SA - BOWL (449 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(465 pts)</v>
+        <v>(449 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B19" t="str">
-        <v>PAK - BAT (449 pts)</v>
+        <v>SA - BAT (465 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(449 pts)</v>
+        <v>(465 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Kusal Mendis</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B20" t="str">
-        <v>SL - WK (443 pts)</v>
+        <v>PAK - BAT (449 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(443 pts)</v>
+        <v>(449 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B21" t="str">
         <v>SL - WK (443 pts)</v>
@@ -613,175 +613,175 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B22" t="str">
-        <v>AUS - AR (432 pts)</v>
+        <v>SA - BOWL (437 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(432 pts)</v>
+        <v>(437 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B23" t="str">
-        <v>SL - BOWL (420 pts)</v>
+        <v>NZ - AR (461 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(420 pts)</v>
+        <v>(461 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Logan van Beek</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B24" t="str">
-        <v>NED - BOWL (416 pts)</v>
+        <v>AUS - AR (432 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(416 pts)</v>
+        <v>(432 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Matt Henry</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B25" t="str">
-        <v>NZ - BOWL (407 pts)</v>
+        <v>NED - BOWL (416 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(407 pts)</v>
+        <v>(416 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B26" t="str">
-        <v>AFG - AR (403 pts)</v>
+        <v>SA - BOWL (414 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(403 pts)</v>
+        <v>(414 pts)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Devon Conway</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B27" t="str">
-        <v>NZ - WK (398 pts)</v>
+        <v>NZ - BOWL (407 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(398 pts)</v>
+        <v>(407 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B28" t="str">
-        <v>BAN - AR (396 pts)</v>
+        <v>AFG - AR (403 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(396 pts)</v>
+        <v>(403 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B29" t="str">
-        <v>SA - BOWL (391 pts)</v>
+        <v>NZ - WK (400 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(391 pts)</v>
+        <v>(400 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Glenn Phillips</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B30" t="str">
-        <v>NZ - AR (383 pts)</v>
+        <v>SL - WK (443 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(383 pts)</v>
+        <v>(443 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Haris Rauf</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B31" t="str">
-        <v>PAK - BOWL (380 pts)</v>
+        <v>SL - BOWL (420 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(380 pts)</v>
+        <v>(420 pts)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Scott Edwards</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B32" t="str">
-        <v>NED - WK (379 pts)</v>
+        <v>BAN - AR (396 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(379 pts)</v>
+        <v>(396 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B33" t="str">
-        <v>IND - BOWL (372 pts)</v>
+        <v>NED - WK (379 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(372 pts)</v>
+        <v>(379 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B34" t="str">
-        <v>SL - BAT (370 pts)</v>
+        <v>IND - BOWL (372 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(370 pts)</v>
+        <v>(372 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B35" t="str">
-        <v>SA - BOWL (369 pts)</v>
+        <v>PAK - BOWL (380 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(369 pts)</v>
+        <v>(380 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Colin Ackermann</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B36" t="str">
-        <v>NED - AR (366 pts)</v>
+        <v>AUS - BOWL (365 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(366 pts)</v>
+        <v>(365 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Pat Cummins</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B37" t="str">
-        <v>AUS - BOWL (365 pts)</v>
+        <v>NED - BOWL (365 pts)</v>
       </c>
       <c r="C37" t="str">
         <v>(365 pts)</v>
@@ -789,13 +789,13 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Aryan Dutt</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B38" t="str">
-        <v>NED - BOWL (365 pts)</v>
+        <v>NZ - BOWL (364 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(365 pts)</v>
+        <v>(364 pts)</v>
       </c>
     </row>
     <row r="39">
@@ -811,101 +811,101 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B40" t="str">
-        <v>NED - BOWL (351 pts)</v>
+        <v>SL - BAT (370 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(351 pts)</v>
+        <v>(370 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Adil Rashid</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B41" t="str">
-        <v>ENG - BOWL (345 pts)</v>
+        <v>NED - AR (366 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(345 pts)</v>
+        <v>(366 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>David Miller</v>
       </c>
       <c r="B42" t="str">
-        <v>IND - AR (342 pts)</v>
+        <v>SA - BAT (354 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(342 pts)</v>
+        <v>(354 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>David Miller</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B43" t="str">
-        <v>SA - BAT (338 pts)</v>
+        <v>NED - BOWL (351 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(338 pts)</v>
+        <v>(351 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Mitchell Starc</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B44" t="str">
-        <v>AUS - BOWL (338 pts)</v>
+        <v>ENG - BOWL (345 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(338 pts)</v>
+        <v>(345 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Rashid Khan</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B45" t="str">
-        <v>AFG - BOWL (328 pts)</v>
+        <v>AUS - AR (353 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(328 pts)</v>
+        <v>(353 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B46" t="str">
-        <v>AFG - WK (323 pts)</v>
+        <v>IND - AR (342 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(323 pts)</v>
+        <v>(342 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Babar Azam</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B47" t="str">
-        <v>PAK - BAT (318 pts)</v>
+        <v>AUS - BOWL (338 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(318 pts)</v>
+        <v>(338 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Dawid Malan</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B48" t="str">
-        <v>ENG - BAT (317 pts)</v>
+        <v>AFG - BOWL (328 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(317 pts)</v>
+        <v>(328 pts)</v>
       </c>
     </row>
     <row r="49">
@@ -921,57 +921,57 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B50" t="str">
-        <v>AUS - AR (353 pts)</v>
+        <v>AFG - WK (323 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(353 pts)</v>
+        <v>(323 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Litton Das</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B51" t="str">
-        <v>BAN - WK (313 pts)</v>
+        <v>PAK - BAT (318 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(313 pts)</v>
+        <v>(318 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Trent Boult</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B52" t="str">
-        <v>NZ - BOWL (354 pts)</v>
+        <v>ENG - BAT (317 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(354 pts)</v>
+        <v>(317 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Litton Das</v>
       </c>
       <c r="B53" t="str">
-        <v>SA - BOWL (309 pts)</v>
+        <v>BAN - WK (313 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(309 pts)</v>
+        <v>(313 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Mohammad Shami</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B54" t="str">
-        <v>IND - BOWL (307 pts)</v>
+        <v>AFG - BAT (306 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(307 pts)</v>
+        <v>(306 pts)</v>
       </c>
     </row>
     <row r="55">
@@ -987,21 +987,21 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B56" t="str">
-        <v>AFG - BAT (306 pts)</v>
+        <v>IND - BOWL (307 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(306 pts)</v>
+        <v>(307 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Shoriful Islam</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B57" t="str">
-        <v>BAN - BOWL (299 pts)</v>
+        <v>AUS - BAT (299 pts)</v>
       </c>
       <c r="C57" t="str">
         <v>(299 pts)</v>
@@ -1009,131 +1009,131 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Joe Root</v>
       </c>
       <c r="B58" t="str">
-        <v>AUS - BAT (299 pts)</v>
+        <v>ENG - BAT (293 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(299 pts)</v>
+        <v>(293 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Joe Root</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B59" t="str">
-        <v>ENG - BAT (293 pts)</v>
+        <v>SL - BOWL (288 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(293 pts)</v>
+        <v>(288 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B60" t="str">
-        <v>SL - BOWL (288 pts)</v>
+        <v>BAN - BOWL (299 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(288 pts)</v>
+        <v>(299 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Will Young</v>
       </c>
       <c r="B61" t="str">
-        <v>AUS - BOWL (283 pts)</v>
+        <v>NZ - BAT (286 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(283 pts)</v>
+        <v>(286 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Rahmat Shah</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B62" t="str">
-        <v>AFG - AR (281 pts)</v>
+        <v>AUS - BOWL (283 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(281 pts)</v>
+        <v>(283 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B63" t="str">
-        <v>PAK - AR (280 pts)</v>
+        <v>AFG - AR (281 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(280 pts)</v>
+        <v>(281 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B64" t="str">
-        <v>AFG - BOWL (271 pts)</v>
+        <v>PAK - AR (280 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(271 pts)</v>
+        <v>(280 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B65" t="str">
-        <v>AFG - BAT (269 pts)</v>
+        <v>NZ - WK (271 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(269 pts)</v>
+        <v>(271 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Tom Latham</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B66" t="str">
-        <v>NZ - WK (267 pts)</v>
+        <v>AFG - BOWL (271 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(267 pts)</v>
+        <v>(271 pts)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Hasan Ali</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B67" t="str">
-        <v>PAK - BOWL (262 pts)</v>
+        <v>AFG - BAT (269 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(262 pts)</v>
+        <v>(269 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B68" t="str">
-        <v>BAN - WK (256 pts)</v>
+        <v>PAK - BOWL (262 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(256 pts)</v>
+        <v>(262 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Will Young</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B69" t="str">
-        <v>NZ - BAT (248 pts)</v>
+        <v>SA - BOWL (248 pts)</v>
       </c>
       <c r="C69" t="str">
         <v>(248 pts)</v>
@@ -1163,24 +1163,24 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B72" t="str">
-        <v>SA - BOWL (244 pts)</v>
+        <v>NZ - BOWL (243 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(244 pts)</v>
+        <v>(243 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Mark Wood</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B73" t="str">
-        <v>ENG - BOWL (238 pts)</v>
+        <v>NED - AR (240 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(238 pts)</v>
+        <v>(240 pts)</v>
       </c>
     </row>
     <row r="74">
@@ -1196,101 +1196,101 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Charith Asalanka</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B75" t="str">
-        <v>SL - BAT (235 pts)</v>
+        <v>BAN - WK (256 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(235 pts)</v>
+        <v>(256 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Fazalhaq Farooqi</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B76" t="str">
-        <v>AFG - BOWL (224 pts)</v>
+        <v>ENG - BOWL (238 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(224 pts)</v>
+        <v>(238 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B77" t="str">
-        <v>ENG - WK (223 pts)</v>
+        <v>SL - BAT (235 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(223 pts)</v>
+        <v>(235 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Fazalhaq Farooqi</v>
       </c>
       <c r="B78" t="str">
-        <v>PAK - BAT (221 pts)</v>
+        <v>AFG - BOWL (224 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(221 pts)</v>
+        <v>(224 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B79" t="str">
-        <v>BAN - AR (219 pts)</v>
+        <v>ENG - WK (223 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(219 pts)</v>
+        <v>(223 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B80" t="str">
-        <v>AFG - BOWL (212 pts)</v>
+        <v>PAK - BAT (221 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(212 pts)</v>
+        <v>(221 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Steven Smith</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B81" t="str">
-        <v>AUS - BAT (210 pts)</v>
+        <v>BAN - AR (219 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(210 pts)</v>
+        <v>(219 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B82" t="str">
-        <v>NZ - BOWL (243 pts)</v>
+        <v>PAK - AR (213 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(243 pts)</v>
+        <v>(213 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B83" t="str">
-        <v>NED - AR (240 pts)</v>
+        <v>AUS - BAT (210 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(240 pts)</v>
+        <v>(210 pts)</v>
       </c>
     </row>
     <row r="84">
@@ -1328,87 +1328,87 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B87" t="str">
-        <v>BAN - BOWL (190 pts)</v>
+        <v>BAN - BOWL (192 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(190 pts)</v>
+        <v>(192 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Shadab Khan</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B88" t="str">
-        <v>PAK - AR (213 pts)</v>
+        <v>AFG - BOWL (212 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(213 pts)</v>
+        <v>(212 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B89" t="str">
-        <v>NED - AR (185 pts)</v>
+        <v>BAN - BOWL (190 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(185 pts)</v>
+        <v>(190 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B90" t="str">
-        <v>BAN - BOWL (192 pts)</v>
+        <v>ENG - AR (188 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(192 pts)</v>
+        <v>(188 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Chris Woakes</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B91" t="str">
-        <v>ENG - AR (188 pts)</v>
+        <v>NED - AR (185 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(188 pts)</v>
+        <v>(185 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B92" t="str">
-        <v>PAK - AR (182 pts)</v>
+        <v>PAK - BOWL (184 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(182 pts)</v>
+        <v>(184 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Shubman Gill</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B93" t="str">
-        <v>IND - BAT (175 pts)</v>
+        <v>PAK - AR (182 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(175 pts)</v>
+        <v>(182 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B94" t="str">
-        <v>BAN - BAT (175 pts)</v>
+        <v>IND - BAT (175 pts)</v>
       </c>
       <c r="C94" t="str">
         <v>(175 pts)</v>
@@ -1416,24 +1416,24 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Harry Brook</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B95" t="str">
-        <v>ENG - BAT (172 pts)</v>
+        <v>BAN - BAT (175 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(172 pts)</v>
+        <v>(175 pts)</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Hardik Pandya</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B96" t="str">
-        <v>IND - AR (170 pts)</v>
+        <v>AFG - AR (195 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(170 pts)</v>
+        <v>(195 pts)</v>
       </c>
     </row>
     <row r="97">
@@ -1449,112 +1449,112 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B98" t="str">
-        <v>AFG - AR (195 pts)</v>
+        <v>IND - AR (170 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(195 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B99" t="str">
-        <v>PAK - BOWL (184 pts)</v>
+        <v>PAK - BOWL (158 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(184 pts)</v>
+        <v>(158 pts)</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B100" t="str">
-        <v>SA - BOWL (166 pts)</v>
+        <v>ENG - AR (155 pts)</v>
       </c>
       <c r="C100" t="str">
-        <v>(166 pts)</v>
+        <v>(155 pts)</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Usama Mir</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B101" t="str">
-        <v>PAK - BOWL (158 pts)</v>
+        <v>SL - WK (154 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(158 pts)</v>
+        <v>(154 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Liam Livingstone</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B102" t="str">
-        <v>ENG - AR (155 pts)</v>
+        <v>SL - BOWL (153 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(155 pts)</v>
+        <v>(153 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Kusal Perera</v>
+        <v>Travis Head</v>
       </c>
       <c r="B103" t="str">
-        <v>SL - WK (154 pts)</v>
+        <v>AUS - BAT (151 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(154 pts)</v>
+        <v>(151 pts)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B104" t="str">
-        <v>SL - BOWL (153 pts)</v>
+        <v>NED - AR (150 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(153 pts)</v>
+        <v>(150 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Travis Head</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B105" t="str">
-        <v>AUS - BAT (151 pts)</v>
+        <v>PAK - BAT (143 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(151 pts)</v>
+        <v>(143 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Vikram Singh</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B106" t="str">
-        <v>NED - AR (150 pts)</v>
+        <v>SL - AR (138 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(150 pts)</v>
+        <v>(138 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B107" t="str">
-        <v>PAK - BAT (143 pts)</v>
+        <v>BAN - BAT (138 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(143 pts)</v>
+        <v>(138 pts)</v>
       </c>
     </row>
     <row r="108">
@@ -1562,65 +1562,65 @@
         <v>James Neesham</v>
       </c>
       <c r="B108" t="str">
-        <v>NZ - AR (139 pts)</v>
+        <v>NZ - AR (136 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(139 pts)</v>
+        <v>(136 pts)</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B109" t="str">
-        <v>SL - AR (138 pts)</v>
+        <v>SA - BAT (135 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(138 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B110" t="str">
-        <v>BAN - BAT (138 pts)</v>
+        <v>BAN - BAT (129 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(138 pts)</v>
+        <v>(129 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B111" t="str">
-        <v>SA - BAT (135 pts)</v>
+        <v>AFG - WK (123 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(135 pts)</v>
+        <v>(123 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B112" t="str">
-        <v>BAN - BAT (129 pts)</v>
+        <v>SA - BOWL (166 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(129 pts)</v>
+        <v>(166 pts)</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B113" t="str">
-        <v>AFG - WK (123 pts)</v>
+        <v>ENG - BAT (172 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(123 pts)</v>
+        <v>(172 pts)</v>
       </c>
     </row>
     <row r="114">
@@ -1658,43 +1658,43 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Gus Atkinson</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B117" t="str">
-        <v>ENG - BOWL (104 pts)</v>
+        <v>NED - BAT (99 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(104 pts)</v>
+        <v>(99 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Angelo Mathews</v>
       </c>
       <c r="B118" t="str">
-        <v>NED - BAT (99 pts)</v>
+        <v>SL - BAT (98 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(99 pts)</v>
+        <v>(98 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Angelo Mathews</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B119" t="str">
-        <v>SL - BAT (98 pts)</v>
+        <v>NZ - BAT (96 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(98 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Kane Williamson</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B120" t="str">
-        <v>NZ - BAT (96 pts)</v>
+        <v>SL - BOWL (96 pts)</v>
       </c>
       <c r="C120" t="str">
         <v>(96 pts)</v>
@@ -1702,79 +1702,79 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B121" t="str">
-        <v>SL - BOWL (96 pts)</v>
+        <v>NED - BAT (93 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(96 pts)</v>
+        <v>(93 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Max O'Dowd</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B122" t="str">
-        <v>NED - BAT (93 pts)</v>
+        <v>BAN - BOWL (90 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(93 pts)</v>
+        <v>(90 pts)</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B123" t="str">
-        <v>BAN - BOWL (90 pts)</v>
+        <v>ENG - AR (88 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(90 pts)</v>
+        <v>(88 pts)</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Ben Stokes</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B124" t="str">
-        <v>ENG - AR (88 pts)</v>
+        <v>AFG - BOWL (87 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(88 pts)</v>
+        <v>(87 pts)</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Noor Ahmad</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B125" t="str">
-        <v>AFG - BOWL (87 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(87 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B126" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>IND - BOWL (78 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(79 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Shardul Thakur</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B127" t="str">
-        <v>IND - BOWL (78 pts)</v>
+        <v>NZ - BOWL (68 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(78 pts)</v>
+        <v>(68 pts)</v>
       </c>
     </row>
     <row r="128">
@@ -1812,57 +1812,57 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Tim Southee</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B131" t="str">
-        <v>NZ - BOWL (60 pts)</v>
+        <v>SA - BOWL (58 pts)</v>
       </c>
       <c r="C131" t="str">
-        <v>(60 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B132" t="str">
-        <v>BAN - BOWL (54 pts)</v>
+        <v>NED - WK (55 pts)</v>
       </c>
       <c r="C132" t="str">
-        <v>(54 pts)</v>
+        <v>(55 pts)</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B133" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>BAN - BOWL (54 pts)</v>
       </c>
       <c r="C133" t="str">
-        <v>(53 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Lizaad Williams</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B134" t="str">
-        <v>SA - BOWL (58 pts)</v>
+        <v>ENG - AR (53 pts)</v>
       </c>
       <c r="C134" t="str">
-        <v>(58 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Wesley Barresi</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B135" t="str">
-        <v>NED - WK (55 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C135" t="str">
-        <v>(55 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="136">
@@ -1878,32 +1878,32 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Moeen Ali</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B137" t="str">
-        <v>ENG - AR (53 pts)</v>
+        <v>SL - BAT (36 pts)</v>
       </c>
       <c r="C137" t="str">
-        <v>(53 pts)</v>
+        <v>(36 pts)</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Chamika Karunaratne</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B138" t="str">
-        <v>SL - AR (28 pts)</v>
+        <v>AUS - AR (31 pts)</v>
       </c>
       <c r="C138" t="str">
-        <v>(28 pts)</v>
+        <v>(31 pts)</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Cameron Green</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B139" t="str">
-        <v>AUS - AR (31 pts)</v>
+        <v>NED - AR (31 pts)</v>
       </c>
       <c r="C139" t="str">
         <v>(31 pts)</v>
@@ -1911,98 +1911,98 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Chamika Karunaratne</v>
       </c>
       <c r="B140" t="str">
-        <v>SL - BAT (36 pts)</v>
+        <v>SL - AR (28 pts)</v>
       </c>
       <c r="C140" t="str">
-        <v>(36 pts)</v>
+        <v>(28 pts)</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Agha Salman</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B141" t="str">
-        <v>PAK - AR (20 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C141" t="str">
-        <v>(20 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B142" t="str">
-        <v>NED - AR (31 pts)</v>
+        <v>PAK - AR (20 pts)</v>
       </c>
       <c r="C142" t="str">
-        <v>(31 pts)</v>
+        <v>(20 pts)</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Ryan Klein</v>
       </c>
       <c r="B143" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>NED - BOWL (16 pts)</v>
       </c>
       <c r="C143" t="str">
-        <v>(27 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Ryan Klein</v>
+        <v>Shariz Ahmad</v>
       </c>
       <c r="B144" t="str">
-        <v>NED - BOWL (16 pts)</v>
+        <v>NED - BOWL (10 pts)</v>
       </c>
       <c r="C144" t="str">
-        <v>(16 pts)</v>
+        <v>(10 pts)</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Dushan Hemantha</v>
       </c>
       <c r="B145" t="str">
-        <v>SL - BOWL (5 pts)</v>
+        <v>SL - AR (9 pts)</v>
       </c>
       <c r="C145" t="str">
-        <v>(5 pts)</v>
+        <v>(9 pts)</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Alex Carey</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B146" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>SL - BOWL (5 pts)</v>
       </c>
       <c r="C146" t="str">
-        <v>(1 pts)</v>
+        <v>(5 pts)</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Anamul Haque</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B147" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C147" t="str">
-        <v>(0 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Jason Roy</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B148" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C148" t="str">
         <v>(0 pts)</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Sean Abbott</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B149" t="str">
-        <v>AUS - BOWL (0 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C149" t="str">
         <v>(0 pts)</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Ashton Agar</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B150" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>AUS - BOWL (0 pts)</v>
       </c>
       <c r="C150" t="str">
         <v>(0 pts)</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Ish Sodhi</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B151" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C151" t="str">
         <v>(0 pts)</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Tom Blundell</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B152" t="str">
-        <v>NZ - WK (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C152" t="str">
         <v>(0 pts)</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Axar Patel</v>
+        <v>Tom Blundell</v>
       </c>
       <c r="B153" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>NZ - WK (0 pts)</v>
       </c>
       <c r="C153" t="str">
         <v>(0 pts)</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Binura Fernando</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B154" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Andile Phehlukwayo</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B155" t="str">
-        <v>SA - AR (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C155" t="str">
         <v>(0 pts)</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Sahan Arachchige</v>
+        <v>Andile Phehlukwayo</v>
       </c>
       <c r="B156" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>SA - AR (0 pts)</v>
       </c>
       <c r="C156" t="str">
         <v>(0 pts)</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Brydon Carse</v>
+        <v>Sahan Arachchige</v>
       </c>
       <c r="B157" t="str">
-        <v>ENG - BOWL (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C157" t="str">
         <v>(0 pts)</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Pramod Madushan</v>
+        <v>Brydon Carse</v>
       </c>
       <c r="B158" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>ENG - BOWL (0 pts)</v>
       </c>
       <c r="C158" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Afif Hossain</v>
+        <v>Pramod Madushan</v>
       </c>
       <c r="B159" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Riaz Hassan</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B160" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>
@@ -2142,21 +2142,21 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Abdul Rahman</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B161" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>ENG - BOWL (104 pts)</v>
       </c>
       <c r="C161" t="str">
-        <v>(0 pts)</v>
+        <v>(104 pts)</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Shamim Hossain</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B162" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C162" t="str">
         <v>(0 pts)</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Mohammad Naim</v>
+        <v>Abdul Rahman</v>
       </c>
       <c r="B163" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C163" t="str">
         <v>(0 pts)</v>
@@ -2175,32 +2175,32 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Dushan Hemantha</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B164" t="str">
-        <v>SL - AR (9 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C164" t="str">
-        <v>(9 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Tanzim Hasan Sakib</v>
       </c>
       <c r="B165" t="str">
-        <v>NED - BOWL (10 pts)</v>
+        <v>BAN - BOWL (0 pts)</v>
       </c>
       <c r="C165" t="str">
-        <v>(10 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Tanzim Hasan Sakib</v>
+        <v>Mohammad Naim</v>
       </c>
       <c r="B166" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C166" t="str">
         <v>(0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C166"/>
+  <dimension ref="A1:C167"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -437,13 +437,13 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Mitchell Santner</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B6" t="str">
-        <v>NZ - AR (548 pts)</v>
+        <v>IND - BAT (585 pts)</v>
       </c>
       <c r="C6" t="str">
-        <v>(548 pts)</v>
+        <v>(585 pts)</v>
       </c>
     </row>
     <row r="7">
@@ -451,98 +451,98 @@
         <v>Rohit Sharma</v>
       </c>
       <c r="B7" t="str">
-        <v>IND - BAT (540 pts)</v>
+        <v>IND - BAT (549 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(540 pts)</v>
+        <v>(549 pts)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B8" t="str">
-        <v>PAK - WK (537 pts)</v>
+        <v>PAK - BOWL (530 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(537 pts)</v>
+        <v>(530 pts)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B9" t="str">
-        <v>PAK - BOWL (530 pts)</v>
+        <v>NZ - AR (510 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(530 pts)</v>
+        <v>(510 pts)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Adam Zampa</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B10" t="str">
-        <v>AUS - BOWL (512 pts)</v>
+        <v>BAN - AR (505 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(512 pts)</v>
+        <v>(505 pts)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B11" t="str">
-        <v>SA - WK (502 pts)</v>
+        <v>PAK - WK (537 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(502 pts)</v>
+        <v>(537 pts)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Bas de Leede</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B12" t="str">
-        <v>NED - AR (497 pts)</v>
+        <v>AUS - BOWL (512 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(497 pts)</v>
+        <v>(512 pts)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B13" t="str">
-        <v>BAN - AR (505 pts)</v>
+        <v>NZ - AR (548 pts)</v>
       </c>
       <c r="C13" t="str">
-        <v>(505 pts)</v>
+        <v>(548 pts)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B14" t="str">
-        <v>NZ - AR (510 pts)</v>
+        <v>SA - WK (502 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(510 pts)</v>
+        <v>(502 pts)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Aiden Markram</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B15" t="str">
-        <v>SA - AR (491 pts)</v>
+        <v>SL - BOWL (505 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(491 pts)</v>
+        <v>(505 pts)</v>
       </c>
     </row>
     <row r="16">
@@ -550,43 +550,43 @@
         <v>Jasprit Bumrah</v>
       </c>
       <c r="B16" t="str">
-        <v>IND - BOWL (487 pts)</v>
+        <v>IND - BOWL (491 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(487 pts)</v>
+        <v>(491 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Virat Kohli</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B17" t="str">
-        <v>IND - BAT (478 pts)</v>
+        <v>NED - AR (497 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(478 pts)</v>
+        <v>(497 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B18" t="str">
-        <v>SA - BOWL (449 pts)</v>
+        <v>SA - AR (491 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(449 pts)</v>
+        <v>(491 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B19" t="str">
-        <v>SA - BAT (465 pts)</v>
+        <v>SL - WK (455 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(465 pts)</v>
+        <v>(455 pts)</v>
       </c>
     </row>
     <row r="20">
@@ -602,35 +602,35 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Kusal Mendis</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B21" t="str">
-        <v>SL - WK (443 pts)</v>
+        <v>SA - BOWL (449 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(443 pts)</v>
+        <v>(449 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B22" t="str">
-        <v>SA - BOWL (437 pts)</v>
+        <v>SA - BAT (465 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(437 pts)</v>
+        <v>(465 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Glenn Phillips</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B23" t="str">
-        <v>NZ - AR (461 pts)</v>
+        <v>SA - BOWL (437 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(461 pts)</v>
+        <v>(437 pts)</v>
       </c>
     </row>
     <row r="24">
@@ -646,24 +646,24 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Logan van Beek</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B25" t="str">
-        <v>NED - BOWL (416 pts)</v>
+        <v>SL - WK (447 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(416 pts)</v>
+        <v>(447 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B26" t="str">
-        <v>SA - BOWL (414 pts)</v>
+        <v>NZ - AR (461 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(414 pts)</v>
+        <v>(461 pts)</v>
       </c>
     </row>
     <row r="27">
@@ -679,46 +679,46 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B28" t="str">
-        <v>AFG - AR (403 pts)</v>
+        <v>NED - BOWL (416 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(403 pts)</v>
+        <v>(416 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Devon Conway</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B29" t="str">
-        <v>NZ - WK (400 pts)</v>
+        <v>SA - BOWL (414 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(400 pts)</v>
+        <v>(414 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B30" t="str">
-        <v>SL - WK (443 pts)</v>
+        <v>AFG - AR (403 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(443 pts)</v>
+        <v>(403 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B31" t="str">
-        <v>SL - BOWL (420 pts)</v>
+        <v>NZ - WK (400 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(420 pts)</v>
+        <v>(400 pts)</v>
       </c>
     </row>
     <row r="32">
@@ -734,54 +734,54 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Scott Edwards</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B33" t="str">
-        <v>NED - WK (379 pts)</v>
+        <v>SL - BAT (382 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(379 pts)</v>
+        <v>(382 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B34" t="str">
-        <v>IND - BOWL (372 pts)</v>
+        <v>PAK - BOWL (380 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(372 pts)</v>
+        <v>(380 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Haris Rauf</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B35" t="str">
-        <v>PAK - BOWL (380 pts)</v>
+        <v>NED - WK (379 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(380 pts)</v>
+        <v>(379 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Pat Cummins</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B36" t="str">
-        <v>AUS - BOWL (365 pts)</v>
+        <v>IND - BOWL (376 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(365 pts)</v>
+        <v>(376 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Aryan Dutt</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B37" t="str">
-        <v>NED - BOWL (365 pts)</v>
+        <v>AUS - BOWL (365 pts)</v>
       </c>
       <c r="C37" t="str">
         <v>(365 pts)</v>
@@ -789,79 +789,79 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Trent Boult</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B38" t="str">
-        <v>NZ - BOWL (364 pts)</v>
+        <v>NED - AR (366 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(364 pts)</v>
+        <v>(366 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B39" t="str">
-        <v>BAN - AR (362 pts)</v>
+        <v>NED - BOWL (365 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(362 pts)</v>
+        <v>(365 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B40" t="str">
-        <v>SL - BAT (370 pts)</v>
+        <v>NZ - BOWL (364 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(370 pts)</v>
+        <v>(364 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Colin Ackermann</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B41" t="str">
-        <v>NED - AR (366 pts)</v>
+        <v>IND - BAT (364 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(366 pts)</v>
+        <v>(364 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>David Miller</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B42" t="str">
-        <v>SA - BAT (354 pts)</v>
+        <v>BAN - AR (362 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(354 pts)</v>
+        <v>(362 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Paul van Meekeren</v>
+        <v>David Miller</v>
       </c>
       <c r="B43" t="str">
-        <v>NED - BOWL (351 pts)</v>
+        <v>SA - BAT (354 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(351 pts)</v>
+        <v>(354 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Adil Rashid</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B44" t="str">
-        <v>ENG - BOWL (345 pts)</v>
+        <v>NED - BOWL (351 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(345 pts)</v>
+        <v>(351 pts)</v>
       </c>
     </row>
     <row r="45">
@@ -880,76 +880,76 @@
         <v>Ravindra Jadeja</v>
       </c>
       <c r="B46" t="str">
-        <v>IND - AR (342 pts)</v>
+        <v>IND - AR (346 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(342 pts)</v>
+        <v>(346 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Mitchell Starc</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B47" t="str">
-        <v>AUS - BOWL (338 pts)</v>
+        <v>ENG - BOWL (345 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(338 pts)</v>
+        <v>(345 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Rashid Khan</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B48" t="str">
-        <v>AFG - BOWL (328 pts)</v>
+        <v>AUS - BOWL (338 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(328 pts)</v>
+        <v>(338 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>KL Rahul</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B49" t="str">
-        <v>IND - BAT (343 pts)</v>
+        <v>PAK - BAT (318 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(343 pts)</v>
+        <v>(318 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B50" t="str">
-        <v>AFG - WK (323 pts)</v>
+        <v>ENG - BAT (317 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(323 pts)</v>
+        <v>(317 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Babar Azam</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B51" t="str">
-        <v>PAK - BAT (318 pts)</v>
+        <v>AFG - WK (323 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(318 pts)</v>
+        <v>(323 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Dawid Malan</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B52" t="str">
-        <v>ENG - BAT (317 pts)</v>
+        <v>IND - BOWL (311 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(317 pts)</v>
+        <v>(311 pts)</v>
       </c>
     </row>
     <row r="53">
@@ -965,57 +965,57 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B54" t="str">
-        <v>AFG - BAT (306 pts)</v>
+        <v>AFG - BOWL (328 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(306 pts)</v>
+        <v>(328 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Saud Shakeel</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B55" t="str">
-        <v>PAK - BAT (300 pts)</v>
+        <v>AUS - BAT (299 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(300 pts)</v>
+        <v>(299 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Mohammad Shami</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B56" t="str">
-        <v>IND - BOWL (307 pts)</v>
+        <v>PAK - BAT (300 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(307 pts)</v>
+        <v>(300 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Joe Root</v>
       </c>
       <c r="B57" t="str">
-        <v>AUS - BAT (299 pts)</v>
+        <v>ENG - BAT (293 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(299 pts)</v>
+        <v>(293 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Joe Root</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B58" t="str">
-        <v>ENG - BAT (293 pts)</v>
+        <v>BAN - BOWL (299 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(293 pts)</v>
+        <v>(299 pts)</v>
       </c>
     </row>
     <row r="59">
@@ -1023,21 +1023,21 @@
         <v>Kasun Rajitha</v>
       </c>
       <c r="B59" t="str">
-        <v>SL - BOWL (288 pts)</v>
+        <v>SL - BOWL (290 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(288 pts)</v>
+        <v>(290 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Shoriful Islam</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B60" t="str">
-        <v>BAN - BOWL (299 pts)</v>
+        <v>IND - BAT (292 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(299 pts)</v>
+        <v>(292 pts)</v>
       </c>
     </row>
     <row r="61">
@@ -1053,79 +1053,79 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B62" t="str">
-        <v>AUS - BOWL (283 pts)</v>
+        <v>AFG - BAT (306 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(283 pts)</v>
+        <v>(306 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Rahmat Shah</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B63" t="str">
-        <v>AFG - AR (281 pts)</v>
+        <v>PAK - AR (280 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(281 pts)</v>
+        <v>(280 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B64" t="str">
-        <v>PAK - AR (280 pts)</v>
+        <v>AUS - BOWL (283 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(280 pts)</v>
+        <v>(283 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Tom Latham</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B65" t="str">
-        <v>NZ - WK (271 pts)</v>
+        <v>AFG - AR (281 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(271 pts)</v>
+        <v>(281 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B66" t="str">
-        <v>AFG - BOWL (271 pts)</v>
+        <v>AFG - BAT (269 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(271 pts)</v>
+        <v>(269 pts)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B67" t="str">
-        <v>AFG - BAT (269 pts)</v>
+        <v>PAK - BOWL (262 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(269 pts)</v>
+        <v>(262 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Hasan Ali</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B68" t="str">
-        <v>PAK - BOWL (262 pts)</v>
+        <v>BAN - WK (256 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(262 pts)</v>
+        <v>(256 pts)</v>
       </c>
     </row>
     <row r="69">
@@ -1152,68 +1152,68 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Reece Topley</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B71" t="str">
-        <v>ENG - BOWL (247 pts)</v>
+        <v>NZ - WK (271 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(247 pts)</v>
+        <v>(271 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B72" t="str">
-        <v>NZ - BOWL (243 pts)</v>
+        <v>AFG - BOWL (271 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(243 pts)</v>
+        <v>(271 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B73" t="str">
-        <v>NED - AR (240 pts)</v>
+        <v>ENG - BOWL (247 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(240 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Josh Inglis</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B74" t="str">
-        <v>AUS - WK (238 pts)</v>
+        <v>NZ - BOWL (243 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(238 pts)</v>
+        <v>(243 pts)</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B75" t="str">
-        <v>BAN - WK (256 pts)</v>
+        <v>IND - BAT (242 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(256 pts)</v>
+        <v>(242 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Mark Wood</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B76" t="str">
-        <v>ENG - BOWL (238 pts)</v>
+        <v>NED - AR (240 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(238 pts)</v>
+        <v>(240 pts)</v>
       </c>
     </row>
     <row r="77">
@@ -1221,197 +1221,197 @@
         <v>Charith Asalanka</v>
       </c>
       <c r="B77" t="str">
-        <v>SL - BAT (235 pts)</v>
+        <v>SL - BAT (239 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(235 pts)</v>
+        <v>(239 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Fazalhaq Farooqi</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B78" t="str">
-        <v>AFG - BOWL (224 pts)</v>
+        <v>ENG - BOWL (238 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(224 pts)</v>
+        <v>(238 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B79" t="str">
-        <v>ENG - WK (223 pts)</v>
+        <v>AUS - WK (238 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(223 pts)</v>
+        <v>(238 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Fazalhaq Farooqi</v>
       </c>
       <c r="B80" t="str">
-        <v>PAK - BAT (221 pts)</v>
+        <v>AFG - BOWL (224 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(221 pts)</v>
+        <v>(224 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B81" t="str">
-        <v>BAN - AR (219 pts)</v>
+        <v>ENG - WK (223 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(219 pts)</v>
+        <v>(223 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Shadab Khan</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B82" t="str">
-        <v>PAK - AR (213 pts)</v>
+        <v>PAK - BAT (221 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(213 pts)</v>
+        <v>(221 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Steven Smith</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B83" t="str">
-        <v>AUS - BAT (210 pts)</v>
+        <v>BAN - AR (219 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(210 pts)</v>
+        <v>(219 pts)</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B84" t="str">
-        <v>IND - BAT (205 pts)</v>
+        <v>PAK - AR (213 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(205 pts)</v>
+        <v>(213 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>David Willey</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B85" t="str">
-        <v>ENG - AR (203 pts)</v>
+        <v>AFG - BOWL (212 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(203 pts)</v>
+        <v>(212 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B86" t="str">
-        <v>IND - BOWL (198 pts)</v>
+        <v>AUS - BAT (210 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(198 pts)</v>
+        <v>(210 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>David Willey</v>
       </c>
       <c r="B87" t="str">
-        <v>BAN - BOWL (192 pts)</v>
+        <v>ENG - AR (203 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(192 pts)</v>
+        <v>(203 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B88" t="str">
-        <v>AFG - BOWL (212 pts)</v>
+        <v>IND - BOWL (202 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(212 pts)</v>
+        <v>(202 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B89" t="str">
-        <v>BAN - BOWL (190 pts)</v>
+        <v>AFG - AR (195 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(190 pts)</v>
+        <v>(195 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Chris Woakes</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B90" t="str">
-        <v>ENG - AR (188 pts)</v>
+        <v>BAN - BOWL (192 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(188 pts)</v>
+        <v>(192 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B91" t="str">
-        <v>NED - AR (185 pts)</v>
+        <v>BAN - BOWL (190 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(185 pts)</v>
+        <v>(190 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B92" t="str">
-        <v>PAK - BOWL (184 pts)</v>
+        <v>ENG - AR (188 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(184 pts)</v>
+        <v>(188 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B93" t="str">
-        <v>PAK - AR (182 pts)</v>
+        <v>NED - AR (185 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(182 pts)</v>
+        <v>(185 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Shubman Gill</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B94" t="str">
-        <v>IND - BAT (175 pts)</v>
+        <v>PAK - BOWL (184 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(175 pts)</v>
+        <v>(184 pts)</v>
       </c>
     </row>
     <row r="95">
@@ -1427,120 +1427,120 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B96" t="str">
-        <v>AFG - AR (195 pts)</v>
+        <v>PAK - AR (182 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(195 pts)</v>
+        <v>(182 pts)</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Temba Bavuma</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B97" t="str">
-        <v>SA - BAT (169 pts)</v>
+        <v>IND - AR (170 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(169 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Hardik Pandya</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B98" t="str">
-        <v>IND - AR (170 pts)</v>
+        <v>ENG - BAT (172 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(170 pts)</v>
+        <v>(172 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Usama Mir</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B99" t="str">
-        <v>PAK - BOWL (158 pts)</v>
+        <v>SA - BAT (169 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(158 pts)</v>
+        <v>(169 pts)</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Liam Livingstone</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B100" t="str">
-        <v>ENG - AR (155 pts)</v>
+        <v>SA - BOWL (166 pts)</v>
       </c>
       <c r="C100" t="str">
-        <v>(155 pts)</v>
+        <v>(166 pts)</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Kusal Perera</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B101" t="str">
-        <v>SL - WK (154 pts)</v>
+        <v>PAK - BOWL (158 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(154 pts)</v>
+        <v>(158 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Travis Head</v>
       </c>
       <c r="B102" t="str">
-        <v>SL - BOWL (153 pts)</v>
+        <v>AUS - BAT (151 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(153 pts)</v>
+        <v>(151 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Travis Head</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B103" t="str">
-        <v>AUS - BAT (151 pts)</v>
+        <v>NED - AR (150 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(151 pts)</v>
+        <v>(150 pts)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Vikram Singh</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B104" t="str">
-        <v>NED - AR (150 pts)</v>
+        <v>PAK - BAT (143 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(150 pts)</v>
+        <v>(143 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B105" t="str">
-        <v>PAK - BAT (143 pts)</v>
+        <v>ENG - AR (155 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(143 pts)</v>
+        <v>(155 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B106" t="str">
-        <v>SL - AR (138 pts)</v>
+        <v>BAN - BAT (138 pts)</v>
       </c>
       <c r="C106" t="str">
         <v>(138 pts)</v>
@@ -1548,153 +1548,153 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B107" t="str">
-        <v>BAN - BAT (138 pts)</v>
+        <v>SL - WK (154 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(138 pts)</v>
+        <v>(154 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>James Neesham</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B108" t="str">
-        <v>NZ - AR (136 pts)</v>
+        <v>SL - AR (138 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(136 pts)</v>
+        <v>(138 pts)</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B109" t="str">
-        <v>SA - BAT (135 pts)</v>
+        <v>SL - BOWL (155 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(135 pts)</v>
+        <v>(155 pts)</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Towhid Hridoy</v>
+        <v>James Neesham</v>
       </c>
       <c r="B110" t="str">
-        <v>BAN - BAT (129 pts)</v>
+        <v>NZ - AR (136 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(129 pts)</v>
+        <v>(136 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B111" t="str">
-        <v>AFG - WK (123 pts)</v>
+        <v>AUS - AR (122 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(123 pts)</v>
+        <v>(122 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B112" t="str">
-        <v>SA - BOWL (166 pts)</v>
+        <v>BAN - BAT (129 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(166 pts)</v>
+        <v>(129 pts)</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Harry Brook</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B113" t="str">
-        <v>ENG - BAT (172 pts)</v>
+        <v>AFG - WK (123 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(172 pts)</v>
+        <v>(123 pts)</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B114" t="str">
-        <v>AUS - AR (122 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(122 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Sam Curran</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B115" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>ENG - BOWL (104 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(118 pts)</v>
+        <v>(104 pts)</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Dasun Shanaka</v>
+        <v>Angelo Mathews</v>
       </c>
       <c r="B116" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>SL - BAT (102 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(114 pts)</v>
+        <v>(102 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B117" t="str">
-        <v>NED - BAT (99 pts)</v>
+        <v>SA - BAT (135 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(99 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Angelo Mathews</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B118" t="str">
-        <v>SL - BAT (98 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(98 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Kane Williamson</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B119" t="str">
-        <v>NZ - BAT (96 pts)</v>
+        <v>NED - BAT (99 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(96 pts)</v>
+        <v>(99 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B120" t="str">
-        <v>SL - BOWL (96 pts)</v>
+        <v>NZ - BAT (96 pts)</v>
       </c>
       <c r="C120" t="str">
         <v>(96 pts)</v>
@@ -1702,57 +1702,57 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Max O'Dowd</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B121" t="str">
-        <v>NED - BAT (93 pts)</v>
+        <v>SL - BOWL (96 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(93 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B122" t="str">
-        <v>BAN - BOWL (90 pts)</v>
+        <v>NED - BAT (93 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(90 pts)</v>
+        <v>(93 pts)</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Ben Stokes</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B123" t="str">
-        <v>ENG - AR (88 pts)</v>
+        <v>BAN - BOWL (90 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(88 pts)</v>
+        <v>(90 pts)</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Noor Ahmad</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B124" t="str">
-        <v>AFG - BOWL (87 pts)</v>
+        <v>ENG - AR (88 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(87 pts)</v>
+        <v>(88 pts)</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B125" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>AFG - BOWL (87 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(79 pts)</v>
+        <v>(87 pts)</v>
       </c>
     </row>
     <row r="126">
@@ -1768,21 +1768,21 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Tim Southee</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B127" t="str">
-        <v>NZ - BOWL (68 pts)</v>
+        <v>IND - BAT (71 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(68 pts)</v>
+        <v>(71 pts)</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Mark Chapman</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B128" t="str">
-        <v>NZ - BAT (68 pts)</v>
+        <v>NZ - BOWL (68 pts)</v>
       </c>
       <c r="C128" t="str">
         <v>(68 pts)</v>
@@ -1790,65 +1790,65 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B129" t="str">
-        <v>IND - BAT (67 pts)</v>
+        <v>NZ - BAT (68 pts)</v>
       </c>
       <c r="C129" t="str">
-        <v>(67 pts)</v>
+        <v>(68 pts)</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Ishan Kishan</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B130" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C130" t="str">
-        <v>(63 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Lizaad Williams</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B131" t="str">
-        <v>SA - BOWL (58 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C131" t="str">
-        <v>(58 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Wesley Barresi</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B132" t="str">
-        <v>NED - WK (55 pts)</v>
+        <v>BAN - BOWL (54 pts)</v>
       </c>
       <c r="C132" t="str">
-        <v>(55 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B133" t="str">
-        <v>BAN - BOWL (54 pts)</v>
+        <v>ENG - AR (53 pts)</v>
       </c>
       <c r="C133" t="str">
-        <v>(54 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Moeen Ali</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B134" t="str">
-        <v>ENG - AR (53 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C134" t="str">
         <v>(53 pts)</v>
@@ -1856,13 +1856,13 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B135" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>SL - BAT (40 pts)</v>
       </c>
       <c r="C135" t="str">
-        <v>(53 pts)</v>
+        <v>(40 pts)</v>
       </c>
     </row>
     <row r="136">
@@ -1878,21 +1878,21 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B137" t="str">
-        <v>SL - BAT (36 pts)</v>
+        <v>AUS - AR (31 pts)</v>
       </c>
       <c r="C137" t="str">
-        <v>(36 pts)</v>
+        <v>(31 pts)</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Cameron Green</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B138" t="str">
-        <v>AUS - AR (31 pts)</v>
+        <v>NED - AR (31 pts)</v>
       </c>
       <c r="C138" t="str">
         <v>(31 pts)</v>
@@ -1900,46 +1900,46 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Chamika Karunaratne</v>
       </c>
       <c r="B139" t="str">
-        <v>NED - AR (31 pts)</v>
+        <v>SL - AR (28 pts)</v>
       </c>
       <c r="C139" t="str">
-        <v>(31 pts)</v>
+        <v>(28 pts)</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Chamika Karunaratne</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B140" t="str">
-        <v>SL - AR (28 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C140" t="str">
-        <v>(28 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B141" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>PAK - AR (20 pts)</v>
       </c>
       <c r="C141" t="str">
-        <v>(27 pts)</v>
+        <v>(20 pts)</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Agha Salman</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B142" t="str">
-        <v>PAK - AR (20 pts)</v>
+        <v>SL - BOWL (17 pts)</v>
       </c>
       <c r="C142" t="str">
-        <v>(20 pts)</v>
+        <v>(17 pts)</v>
       </c>
     </row>
     <row r="143">
@@ -1955,54 +1955,54 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Dushan Hemantha</v>
       </c>
       <c r="B144" t="str">
-        <v>NED - BOWL (10 pts)</v>
+        <v>SL - AR (13 pts)</v>
       </c>
       <c r="C144" t="str">
-        <v>(10 pts)</v>
+        <v>(13 pts)</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Dushan Hemantha</v>
+        <v>Shariz Ahmad</v>
       </c>
       <c r="B145" t="str">
-        <v>SL - AR (9 pts)</v>
+        <v>NED - BOWL (10 pts)</v>
       </c>
       <c r="C145" t="str">
-        <v>(9 pts)</v>
+        <v>(10 pts)</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B146" t="str">
-        <v>SL - BOWL (5 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C146" t="str">
-        <v>(5 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Alex Carey</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B147" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C147" t="str">
-        <v>(1 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Anamul Haque</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B148" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C148" t="str">
         <v>(0 pts)</v>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Jason Roy</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B149" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>AUS - BOWL (0 pts)</v>
       </c>
       <c r="C149" t="str">
         <v>(0 pts)</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Sean Abbott</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B150" t="str">
-        <v>AUS - BOWL (0 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C150" t="str">
         <v>(0 pts)</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Ashton Agar</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B151" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C151" t="str">
         <v>(0 pts)</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Ish Sodhi</v>
+        <v>Tom Blundell</v>
       </c>
       <c r="B152" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>NZ - WK (0 pts)</v>
       </c>
       <c r="C152" t="str">
         <v>(0 pts)</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Tom Blundell</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B153" t="str">
-        <v>NZ - WK (0 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C153" t="str">
         <v>(0 pts)</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Axar Patel</v>
+        <v>Kyle Jamieson</v>
       </c>
       <c r="B154" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2076,24 +2076,24 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Binura Fernando</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B155" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>NED - WK (55 pts)</v>
       </c>
       <c r="C155" t="str">
-        <v>(0 pts)</v>
+        <v>(55 pts)</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Andile Phehlukwayo</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B156" t="str">
-        <v>SA - AR (0 pts)</v>
+        <v>SA - BOWL (58 pts)</v>
       </c>
       <c r="C156" t="str">
-        <v>(0 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="157">
@@ -2142,21 +2142,21 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Gus Atkinson</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B161" t="str">
-        <v>ENG - BOWL (104 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C161" t="str">
-        <v>(104 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Riaz Hassan</v>
+        <v>Abdul Rahman</v>
       </c>
       <c r="B162" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C162" t="str">
         <v>(0 pts)</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Abdul Rahman</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B163" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C163" t="str">
         <v>(0 pts)</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Shamim Hossain</v>
+        <v>Mohammad Naim</v>
       </c>
       <c r="B164" t="str">
         <v>BAN - BAT (0 pts)</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Tanzim Hasan Sakib</v>
+        <v>Andile Phehlukwayo</v>
       </c>
       <c r="B165" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>SA - AR (0 pts)</v>
       </c>
       <c r="C165" t="str">
         <v>(0 pts)</v>
@@ -2197,18 +2197,29 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Mohammad Naim</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B166" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C166" t="str">
         <v>(0 pts)</v>
       </c>
     </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>Tanzim Hasan Sakib</v>
+      </c>
+      <c r="B167" t="str">
+        <v>BAN - BOWL (0 pts)</v>
+      </c>
+      <c r="C167" t="str">
+        <v>(0 pts)</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C166"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C167"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -448,57 +448,57 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Rohit Sharma</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B7" t="str">
-        <v>IND - BAT (549 pts)</v>
+        <v>SL - BOWL (569 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(549 pts)</v>
+        <v>(569 pts)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B8" t="str">
-        <v>PAK - BOWL (530 pts)</v>
+        <v>IND - BAT (549 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(530 pts)</v>
+        <v>(549 pts)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B9" t="str">
-        <v>NZ - AR (510 pts)</v>
+        <v>NZ - AR (548 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(510 pts)</v>
+        <v>(548 pts)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B10" t="str">
-        <v>BAN - AR (505 pts)</v>
+        <v>PAK - WK (537 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(505 pts)</v>
+        <v>(537 pts)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B11" t="str">
-        <v>PAK - WK (537 pts)</v>
+        <v>PAK - BOWL (530 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(537 pts)</v>
+        <v>(530 pts)</v>
       </c>
     </row>
     <row r="12">
@@ -514,32 +514,32 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Mitchell Santner</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B13" t="str">
-        <v>NZ - AR (548 pts)</v>
+        <v>IND - BOWL (535 pts)</v>
       </c>
       <c r="C13" t="str">
-        <v>(548 pts)</v>
+        <v>(535 pts)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B14" t="str">
-        <v>SA - WK (502 pts)</v>
+        <v>NZ - AR (510 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(502 pts)</v>
+        <v>(510 pts)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B15" t="str">
-        <v>SL - BOWL (505 pts)</v>
+        <v>BAN - AR (505 pts)</v>
       </c>
       <c r="C15" t="str">
         <v>(505 pts)</v>
@@ -547,13 +547,13 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B16" t="str">
-        <v>IND - BOWL (491 pts)</v>
+        <v>SA - WK (502 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(491 pts)</v>
+        <v>(502 pts)</v>
       </c>
     </row>
     <row r="17">
@@ -580,123 +580,123 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Kusal Mendis</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B19" t="str">
-        <v>SL - WK (455 pts)</v>
+        <v>NZ - AR (461 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(455 pts)</v>
+        <v>(461 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B20" t="str">
-        <v>PAK - BAT (449 pts)</v>
+        <v>SA - BAT (465 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(449 pts)</v>
+        <v>(465 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B21" t="str">
-        <v>SA - BOWL (449 pts)</v>
+        <v>SL - WK (450 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(449 pts)</v>
+        <v>(450 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B22" t="str">
-        <v>SA - BAT (465 pts)</v>
+        <v>SL - WK (482 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(465 pts)</v>
+        <v>(482 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B23" t="str">
-        <v>SA - BOWL (437 pts)</v>
+        <v>PAK - BAT (449 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(437 pts)</v>
+        <v>(449 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B24" t="str">
-        <v>AUS - AR (432 pts)</v>
+        <v>IND - BOWL (460 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(432 pts)</v>
+        <v>(460 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B25" t="str">
-        <v>SL - WK (447 pts)</v>
+        <v>AUS - AR (432 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(447 pts)</v>
+        <v>(432 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Glenn Phillips</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B26" t="str">
-        <v>NZ - AR (461 pts)</v>
+        <v>IND - AR (423 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(461 pts)</v>
+        <v>(423 pts)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Matt Henry</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B27" t="str">
-        <v>NZ - BOWL (407 pts)</v>
+        <v>NED - BOWL (416 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(407 pts)</v>
+        <v>(416 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Logan van Beek</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B28" t="str">
-        <v>NED - BOWL (416 pts)</v>
+        <v>SA - BOWL (414 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(416 pts)</v>
+        <v>(414 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B29" t="str">
-        <v>SA - BOWL (414 pts)</v>
+        <v>NZ - BOWL (407 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(414 pts)</v>
+        <v>(407 pts)</v>
       </c>
     </row>
     <row r="30">
@@ -734,13 +734,13 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Pathum Nissanka</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B33" t="str">
-        <v>SL - BAT (382 pts)</v>
+        <v>IND - BAT (386 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(382 pts)</v>
+        <v>(386 pts)</v>
       </c>
     </row>
     <row r="34">
@@ -756,10 +756,10 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Scott Edwards</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B35" t="str">
-        <v>NED - WK (379 pts)</v>
+        <v>SL - BAT (379 pts)</v>
       </c>
       <c r="C35" t="str">
         <v>(379 pts)</v>
@@ -767,24 +767,24 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B36" t="str">
-        <v>IND - BOWL (376 pts)</v>
+        <v>NED - WK (379 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(376 pts)</v>
+        <v>(379 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Pat Cummins</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B37" t="str">
-        <v>AUS - BOWL (365 pts)</v>
+        <v>IND - BOWL (376 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(365 pts)</v>
+        <v>(376 pts)</v>
       </c>
     </row>
     <row r="38">
@@ -800,10 +800,10 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Aryan Dutt</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B39" t="str">
-        <v>NED - BOWL (365 pts)</v>
+        <v>AUS - BOWL (365 pts)</v>
       </c>
       <c r="C39" t="str">
         <v>(365 pts)</v>
@@ -811,21 +811,21 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Trent Boult</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B40" t="str">
-        <v>NZ - BOWL (364 pts)</v>
+        <v>NED - BOWL (365 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(364 pts)</v>
+        <v>(365 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>KL Rahul</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B41" t="str">
-        <v>IND - BAT (364 pts)</v>
+        <v>NZ - BOWL (364 pts)</v>
       </c>
       <c r="C41" t="str">
         <v>(364 pts)</v>
@@ -844,112 +844,112 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>David Miller</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B43" t="str">
-        <v>SA - BAT (354 pts)</v>
+        <v>SA - BOWL (449 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(354 pts)</v>
+        <v>(449 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Paul van Meekeren</v>
+        <v>David Miller</v>
       </c>
       <c r="B44" t="str">
-        <v>NED - BOWL (351 pts)</v>
+        <v>SA - BAT (354 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(351 pts)</v>
+        <v>(354 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B45" t="str">
-        <v>AUS - AR (353 pts)</v>
+        <v>SA - BOWL (437 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(353 pts)</v>
+        <v>(437 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B46" t="str">
-        <v>IND - AR (346 pts)</v>
+        <v>AUS - AR (353 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(346 pts)</v>
+        <v>(353 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Adil Rashid</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B47" t="str">
-        <v>ENG - BOWL (345 pts)</v>
+        <v>AUS - BOWL (338 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(345 pts)</v>
+        <v>(338 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Mitchell Starc</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B48" t="str">
-        <v>AUS - BOWL (338 pts)</v>
+        <v>IND - BAT (332 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(338 pts)</v>
+        <v>(332 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Babar Azam</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B49" t="str">
-        <v>PAK - BAT (318 pts)</v>
+        <v>AFG - BOWL (328 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(318 pts)</v>
+        <v>(328 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Dawid Malan</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B50" t="str">
-        <v>ENG - BAT (317 pts)</v>
+        <v>AFG - WK (323 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(317 pts)</v>
+        <v>(323 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B51" t="str">
-        <v>AFG - WK (323 pts)</v>
+        <v>PAK - BAT (318 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(323 pts)</v>
+        <v>(318 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Mohammad Shami</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B52" t="str">
-        <v>IND - BOWL (311 pts)</v>
+        <v>NED - BOWL (351 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(311 pts)</v>
+        <v>(351 pts)</v>
       </c>
     </row>
     <row r="53">
@@ -965,244 +965,244 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Rashid Khan</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B54" t="str">
-        <v>AFG - BOWL (328 pts)</v>
+        <v>ENG - BAT (317 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(328 pts)</v>
+        <v>(317 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B55" t="str">
-        <v>AUS - BAT (299 pts)</v>
+        <v>ENG - BOWL (345 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(299 pts)</v>
+        <v>(345 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Saud Shakeel</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B56" t="str">
-        <v>PAK - BAT (300 pts)</v>
+        <v>SL - BOWL (306 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(300 pts)</v>
+        <v>(306 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Joe Root</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B57" t="str">
-        <v>ENG - BAT (293 pts)</v>
+        <v>IND - BOWL (307 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(293 pts)</v>
+        <v>(307 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Shoriful Islam</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B58" t="str">
-        <v>BAN - BOWL (299 pts)</v>
+        <v>PAK - BAT (300 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(299 pts)</v>
+        <v>(300 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B59" t="str">
-        <v>SL - BOWL (290 pts)</v>
+        <v>AUS - BAT (299 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(290 pts)</v>
+        <v>(299 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Shubman Gill</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B60" t="str">
-        <v>IND - BAT (292 pts)</v>
+        <v>BAN - BOWL (299 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(292 pts)</v>
+        <v>(299 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Will Young</v>
+        <v>Joe Root</v>
       </c>
       <c r="B61" t="str">
-        <v>NZ - BAT (286 pts)</v>
+        <v>ENG - BAT (293 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(286 pts)</v>
+        <v>(293 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Will Young</v>
       </c>
       <c r="B62" t="str">
-        <v>AFG - BAT (306 pts)</v>
+        <v>NZ - BAT (286 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(306 pts)</v>
+        <v>(286 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B63" t="str">
-        <v>PAK - AR (280 pts)</v>
+        <v>AUS - BOWL (283 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(280 pts)</v>
+        <v>(283 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B64" t="str">
-        <v>AUS - BOWL (283 pts)</v>
+        <v>AFG - AR (281 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(283 pts)</v>
+        <v>(281 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Rahmat Shah</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B65" t="str">
-        <v>AFG - AR (281 pts)</v>
+        <v>PAK - AR (280 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(281 pts)</v>
+        <v>(280 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B66" t="str">
-        <v>AFG - BAT (269 pts)</v>
+        <v>NZ - WK (271 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(269 pts)</v>
+        <v>(271 pts)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Hasan Ali</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B67" t="str">
-        <v>PAK - BOWL (262 pts)</v>
+        <v>AFG - BOWL (271 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(262 pts)</v>
+        <v>(271 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B68" t="str">
-        <v>BAN - WK (256 pts)</v>
+        <v>AFG - BAT (269 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(256 pts)</v>
+        <v>(269 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B69" t="str">
-        <v>SA - BOWL (248 pts)</v>
+        <v>AFG - BAT (306 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(248 pts)</v>
+        <v>(306 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Jos Buttler</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B70" t="str">
-        <v>ENG - WK (247 pts)</v>
+        <v>PAK - BOWL (262 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(247 pts)</v>
+        <v>(262 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Tom Latham</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B71" t="str">
-        <v>NZ - WK (271 pts)</v>
+        <v>BAN - WK (256 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(271 pts)</v>
+        <v>(256 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B72" t="str">
-        <v>AFG - BOWL (271 pts)</v>
+        <v>IND - BAT (300 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(271 pts)</v>
+        <v>(300 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Reece Topley</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B73" t="str">
-        <v>ENG - BOWL (247 pts)</v>
+        <v>SA - BOWL (248 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(247 pts)</v>
+        <v>(248 pts)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B74" t="str">
-        <v>NZ - BOWL (243 pts)</v>
+        <v>ENG - WK (247 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(243 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B75" t="str">
-        <v>IND - BAT (242 pts)</v>
+        <v>ENG - BOWL (247 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(242 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="76">
@@ -1218,200 +1218,200 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Charith Asalanka</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B77" t="str">
-        <v>SL - BAT (239 pts)</v>
+        <v>AUS - WK (238 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(239 pts)</v>
+        <v>(238 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Mark Wood</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B78" t="str">
-        <v>ENG - BOWL (238 pts)</v>
+        <v>SL - BAT (234 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(238 pts)</v>
+        <v>(234 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Josh Inglis</v>
+        <v>Fazalhaq Farooqi</v>
       </c>
       <c r="B79" t="str">
-        <v>AUS - WK (238 pts)</v>
+        <v>AFG - BOWL (224 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(238 pts)</v>
+        <v>(224 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Fazalhaq Farooqi</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B80" t="str">
-        <v>AFG - BOWL (224 pts)</v>
+        <v>ENG - WK (223 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(224 pts)</v>
+        <v>(223 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B81" t="str">
-        <v>ENG - WK (223 pts)</v>
+        <v>NZ - BOWL (243 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(223 pts)</v>
+        <v>(243 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B82" t="str">
-        <v>PAK - BAT (221 pts)</v>
+        <v>BAN - AR (219 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(221 pts)</v>
+        <v>(219 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B83" t="str">
-        <v>BAN - AR (219 pts)</v>
+        <v>PAK - AR (213 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(219 pts)</v>
+        <v>(213 pts)</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Shadab Khan</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B84" t="str">
-        <v>PAK - AR (213 pts)</v>
+        <v>PAK - BAT (221 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(213 pts)</v>
+        <v>(221 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B85" t="str">
-        <v>AFG - BOWL (212 pts)</v>
+        <v>ENG - BOWL (238 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(212 pts)</v>
+        <v>(238 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Steven Smith</v>
+        <v>David Willey</v>
       </c>
       <c r="B86" t="str">
-        <v>AUS - BAT (210 pts)</v>
+        <v>ENG - AR (203 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(210 pts)</v>
+        <v>(203 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>David Willey</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B87" t="str">
-        <v>ENG - AR (203 pts)</v>
+        <v>AFG - AR (195 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(203 pts)</v>
+        <v>(195 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B88" t="str">
-        <v>IND - BOWL (202 pts)</v>
+        <v>BAN - BOWL (192 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(202 pts)</v>
+        <v>(192 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B89" t="str">
-        <v>AFG - AR (195 pts)</v>
+        <v>BAN - BOWL (190 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(195 pts)</v>
+        <v>(190 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B90" t="str">
-        <v>BAN - BOWL (192 pts)</v>
+        <v>ENG - AR (188 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(192 pts)</v>
+        <v>(188 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B91" t="str">
-        <v>BAN - BOWL (190 pts)</v>
+        <v>NED - AR (185 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(190 pts)</v>
+        <v>(185 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Chris Woakes</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B92" t="str">
-        <v>ENG - AR (188 pts)</v>
+        <v>PAK - BOWL (184 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(188 pts)</v>
+        <v>(184 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B93" t="str">
-        <v>NED - AR (185 pts)</v>
+        <v>PAK - AR (182 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(185 pts)</v>
+        <v>(182 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B94" t="str">
-        <v>PAK - BOWL (184 pts)</v>
+        <v>SL - BOWL (179 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(184 pts)</v>
+        <v>(179 pts)</v>
       </c>
     </row>
     <row r="95">
@@ -1427,13 +1427,13 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B96" t="str">
-        <v>PAK - AR (182 pts)</v>
+        <v>ENG - BAT (172 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(182 pts)</v>
+        <v>(172 pts)</v>
       </c>
     </row>
     <row r="97">
@@ -1449,98 +1449,98 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Harry Brook</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B98" t="str">
-        <v>ENG - BAT (172 pts)</v>
+        <v>SA - BAT (169 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(172 pts)</v>
+        <v>(169 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Temba Bavuma</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B99" t="str">
-        <v>SA - BAT (169 pts)</v>
+        <v>SA - BOWL (166 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(169 pts)</v>
+        <v>(166 pts)</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B100" t="str">
-        <v>SA - BOWL (166 pts)</v>
+        <v>PAK - BOWL (158 pts)</v>
       </c>
       <c r="C100" t="str">
-        <v>(166 pts)</v>
+        <v>(158 pts)</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Usama Mir</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B101" t="str">
-        <v>PAK - BOWL (158 pts)</v>
+        <v>ENG - AR (155 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(158 pts)</v>
+        <v>(155 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Travis Head</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B102" t="str">
-        <v>AUS - BAT (151 pts)</v>
+        <v>SL - WK (154 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(151 pts)</v>
+        <v>(154 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Vikram Singh</v>
+        <v>Travis Head</v>
       </c>
       <c r="B103" t="str">
-        <v>NED - AR (150 pts)</v>
+        <v>AUS - BAT (151 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(150 pts)</v>
+        <v>(151 pts)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B104" t="str">
-        <v>PAK - BAT (143 pts)</v>
+        <v>NED - AR (150 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(143 pts)</v>
+        <v>(150 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Liam Livingstone</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B105" t="str">
-        <v>ENG - AR (155 pts)</v>
+        <v>PAK - BAT (143 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(155 pts)</v>
+        <v>(143 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B106" t="str">
-        <v>BAN - BAT (138 pts)</v>
+        <v>SL - AR (138 pts)</v>
       </c>
       <c r="C106" t="str">
         <v>(138 pts)</v>
@@ -1548,79 +1548,79 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Kusal Perera</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B107" t="str">
-        <v>SL - WK (154 pts)</v>
+        <v>BAN - BAT (138 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(154 pts)</v>
+        <v>(138 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>James Neesham</v>
       </c>
       <c r="B108" t="str">
-        <v>SL - AR (138 pts)</v>
+        <v>NZ - AR (136 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(138 pts)</v>
+        <v>(136 pts)</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B109" t="str">
-        <v>SL - BOWL (155 pts)</v>
+        <v>SA - BAT (135 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(155 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>James Neesham</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B110" t="str">
-        <v>NZ - AR (136 pts)</v>
+        <v>BAN - BAT (129 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(136 pts)</v>
+        <v>(129 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B111" t="str">
-        <v>AUS - AR (122 pts)</v>
+        <v>AFG - WK (123 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(122 pts)</v>
+        <v>(123 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B112" t="str">
-        <v>BAN - BAT (129 pts)</v>
+        <v>AUS - AR (122 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(129 pts)</v>
+        <v>(122 pts)</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B113" t="str">
-        <v>AFG - WK (123 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(123 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="114">
@@ -1636,145 +1636,145 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Gus Atkinson</v>
+        <v>Angelo Mathews</v>
       </c>
       <c r="B115" t="str">
-        <v>ENG - BOWL (104 pts)</v>
+        <v>SL - BAT (113 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(104 pts)</v>
+        <v>(113 pts)</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Angelo Mathews</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B116" t="str">
-        <v>SL - BAT (102 pts)</v>
+        <v>ENG - BOWL (104 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(102 pts)</v>
+        <v>(104 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B117" t="str">
-        <v>SA - BAT (135 pts)</v>
+        <v>NED - BAT (99 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(135 pts)</v>
+        <v>(99 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Sam Curran</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B118" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>NZ - BAT (96 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(118 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B119" t="str">
-        <v>NED - BAT (99 pts)</v>
+        <v>SL - BOWL (96 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(99 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Kane Williamson</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B120" t="str">
-        <v>NZ - BAT (96 pts)</v>
+        <v>NED - BAT (93 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(96 pts)</v>
+        <v>(93 pts)</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B121" t="str">
-        <v>SL - BOWL (96 pts)</v>
+        <v>BAN - BOWL (90 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(96 pts)</v>
+        <v>(90 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Max O'Dowd</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B122" t="str">
-        <v>NED - BAT (93 pts)</v>
+        <v>ENG - AR (88 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(93 pts)</v>
+        <v>(88 pts)</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B123" t="str">
-        <v>BAN - BOWL (90 pts)</v>
+        <v>AFG - BOWL (87 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(90 pts)</v>
+        <v>(87 pts)</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Ben Stokes</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B124" t="str">
-        <v>ENG - AR (88 pts)</v>
+        <v>IND - BAT (85 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(88 pts)</v>
+        <v>(85 pts)</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Noor Ahmad</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B125" t="str">
-        <v>AFG - BOWL (87 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(87 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Shardul Thakur</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B126" t="str">
-        <v>IND - BOWL (78 pts)</v>
+        <v>AFG - BOWL (212 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(78 pts)</v>
+        <v>(212 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B127" t="str">
-        <v>IND - BAT (71 pts)</v>
+        <v>AUS - BAT (210 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(71 pts)</v>
+        <v>(210 pts)</v>
       </c>
     </row>
     <row r="128">
@@ -1801,46 +1801,46 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B130" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C130" t="str">
-        <v>(79 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Ishan Kishan</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B131" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>SA - BOWL (58 pts)</v>
       </c>
       <c r="C131" t="str">
-        <v>(63 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B132" t="str">
-        <v>BAN - BOWL (54 pts)</v>
+        <v>IND - BOWL (78 pts)</v>
       </c>
       <c r="C132" t="str">
-        <v>(54 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Moeen Ali</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B133" t="str">
-        <v>ENG - AR (53 pts)</v>
+        <v>NED - WK (55 pts)</v>
       </c>
       <c r="C133" t="str">
-        <v>(53 pts)</v>
+        <v>(55 pts)</v>
       </c>
     </row>
     <row r="134">
@@ -1856,10 +1856,10 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B135" t="str">
-        <v>SL - BAT (40 pts)</v>
+        <v>SL - BOWL (40 pts)</v>
       </c>
       <c r="C135" t="str">
         <v>(40 pts)</v>
@@ -1878,21 +1878,21 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Cameron Green</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B137" t="str">
-        <v>AUS - AR (31 pts)</v>
+        <v>SL - BAT (37 pts)</v>
       </c>
       <c r="C137" t="str">
-        <v>(31 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B138" t="str">
-        <v>NED - AR (31 pts)</v>
+        <v>AUS - AR (31 pts)</v>
       </c>
       <c r="C138" t="str">
         <v>(31 pts)</v>
@@ -1900,68 +1900,68 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Chamika Karunaratne</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B139" t="str">
-        <v>SL - AR (28 pts)</v>
+        <v>NED - AR (31 pts)</v>
       </c>
       <c r="C139" t="str">
-        <v>(28 pts)</v>
+        <v>(31 pts)</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Chamika Karunaratne</v>
       </c>
       <c r="B140" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>SL - AR (28 pts)</v>
       </c>
       <c r="C140" t="str">
-        <v>(27 pts)</v>
+        <v>(28 pts)</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Agha Salman</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B141" t="str">
-        <v>PAK - AR (20 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C141" t="str">
-        <v>(20 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B142" t="str">
-        <v>SL - BOWL (17 pts)</v>
+        <v>PAK - AR (20 pts)</v>
       </c>
       <c r="C142" t="str">
-        <v>(17 pts)</v>
+        <v>(20 pts)</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Ryan Klein</v>
+        <v>Dushan Hemantha</v>
       </c>
       <c r="B143" t="str">
-        <v>NED - BOWL (16 pts)</v>
+        <v>SL - AR (18 pts)</v>
       </c>
       <c r="C143" t="str">
-        <v>(16 pts)</v>
+        <v>(18 pts)</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Dushan Hemantha</v>
+        <v>Ryan Klein</v>
       </c>
       <c r="B144" t="str">
-        <v>SL - AR (13 pts)</v>
+        <v>NED - BOWL (16 pts)</v>
       </c>
       <c r="C144" t="str">
-        <v>(13 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="145">
@@ -2021,32 +2021,32 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Ashton Agar</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B150" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>BAN - BOWL (54 pts)</v>
       </c>
       <c r="C150" t="str">
-        <v>(0 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Ish Sodhi</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B151" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>ENG - AR (53 pts)</v>
       </c>
       <c r="C151" t="str">
-        <v>(0 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Tom Blundell</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B152" t="str">
-        <v>NZ - WK (0 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C152" t="str">
         <v>(0 pts)</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Axar Patel</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B153" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C153" t="str">
         <v>(0 pts)</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Kyle Jamieson</v>
+        <v>Tom Blundell</v>
       </c>
       <c r="B154" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>NZ - WK (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2076,32 +2076,32 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Wesley Barresi</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B155" t="str">
-        <v>NED - WK (55 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C155" t="str">
-        <v>(55 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Lizaad Williams</v>
+        <v>Kyle Jamieson</v>
       </c>
       <c r="B156" t="str">
-        <v>SA - BOWL (58 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C156" t="str">
-        <v>(58 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Sahan Arachchige</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B157" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C157" t="str">
         <v>(0 pts)</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Brydon Carse</v>
+        <v>Andile Phehlukwayo</v>
       </c>
       <c r="B158" t="str">
-        <v>ENG - BOWL (0 pts)</v>
+        <v>SA - AR (0 pts)</v>
       </c>
       <c r="C158" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Pramod Madushan</v>
+        <v>Sahan Arachchige</v>
       </c>
       <c r="B159" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Afif Hossain</v>
+        <v>Brydon Carse</v>
       </c>
       <c r="B160" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>ENG - BOWL (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Riaz Hassan</v>
+        <v>Pramod Madushan</v>
       </c>
       <c r="B161" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C161" t="str">
         <v>(0 pts)</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Abdul Rahman</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B162" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C162" t="str">
         <v>(0 pts)</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Shamim Hossain</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B163" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C163" t="str">
         <v>(0 pts)</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Mohammad Naim</v>
+        <v>Abdul Rahman</v>
       </c>
       <c r="B164" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C164" t="str">
         <v>(0 pts)</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Andile Phehlukwayo</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B165" t="str">
-        <v>SA - AR (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C165" t="str">
         <v>(0 pts)</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Binura Fernando</v>
+        <v>Mohammad Naim</v>
       </c>
       <c r="B166" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C166" t="str">
         <v>(0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -459,90 +459,90 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Rohit Sharma</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B8" t="str">
-        <v>IND - BAT (549 pts)</v>
+        <v>PAK - WK (537 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(549 pts)</v>
+        <v>(537 pts)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Mitchell Santner</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B9" t="str">
-        <v>NZ - AR (548 pts)</v>
+        <v>IND - BOWL (535 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(548 pts)</v>
+        <v>(535 pts)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B10" t="str">
-        <v>PAK - WK (537 pts)</v>
+        <v>PAK - BOWL (530 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(537 pts)</v>
+        <v>(530 pts)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B11" t="str">
-        <v>PAK - BOWL (530 pts)</v>
+        <v>NZ - AR (548 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(530 pts)</v>
+        <v>(548 pts)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Adam Zampa</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B12" t="str">
-        <v>AUS - BOWL (512 pts)</v>
+        <v>IND - BAT (549 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(512 pts)</v>
+        <v>(549 pts)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B13" t="str">
-        <v>IND - BOWL (535 pts)</v>
+        <v>AUS - BOWL (512 pts)</v>
       </c>
       <c r="C13" t="str">
-        <v>(535 pts)</v>
+        <v>(512 pts)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B14" t="str">
-        <v>NZ - AR (510 pts)</v>
+        <v>BAN - AR (505 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(510 pts)</v>
+        <v>(505 pts)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B15" t="str">
-        <v>BAN - AR (505 pts)</v>
+        <v>NZ - AR (510 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(505 pts)</v>
+        <v>(510 pts)</v>
       </c>
     </row>
     <row r="16">
@@ -561,10 +561,10 @@
         <v>Bas de Leede</v>
       </c>
       <c r="B17" t="str">
-        <v>NED - AR (497 pts)</v>
+        <v>NED - AR (504 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(497 pts)</v>
+        <v>(504 pts)</v>
       </c>
     </row>
     <row r="18">
@@ -580,189 +580,189 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Glenn Phillips</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B19" t="str">
-        <v>NZ - AR (461 pts)</v>
+        <v>SA - BAT (465 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(461 pts)</v>
+        <v>(465 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B20" t="str">
-        <v>SA - BAT (465 pts)</v>
+        <v>NZ - AR (461 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(465 pts)</v>
+        <v>(461 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B21" t="str">
-        <v>SL - WK (450 pts)</v>
+        <v>IND - BOWL (460 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(450 pts)</v>
+        <v>(460 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Kusal Mendis</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B22" t="str">
-        <v>SL - WK (482 pts)</v>
+        <v>AFG - AR (455 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(482 pts)</v>
+        <v>(455 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B23" t="str">
-        <v>PAK - BAT (449 pts)</v>
+        <v>SL - WK (450 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(449 pts)</v>
+        <v>(450 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Mohammad Shami</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B24" t="str">
-        <v>IND - BOWL (460 pts)</v>
+        <v>NED - BOWL (449 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(460 pts)</v>
+        <v>(449 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B25" t="str">
-        <v>AUS - AR (432 pts)</v>
+        <v>PAK - BAT (449 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(432 pts)</v>
+        <v>(449 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B26" t="str">
-        <v>IND - AR (423 pts)</v>
+        <v>SA - BOWL (449 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(423 pts)</v>
+        <v>(449 pts)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Logan van Beek</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B27" t="str">
-        <v>NED - BOWL (416 pts)</v>
+        <v>SA - BOWL (437 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(416 pts)</v>
+        <v>(437 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B28" t="str">
-        <v>SA - BOWL (414 pts)</v>
+        <v>AUS - AR (432 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(414 pts)</v>
+        <v>(432 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Matt Henry</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B29" t="str">
-        <v>NZ - BOWL (407 pts)</v>
+        <v>IND - AR (423 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(407 pts)</v>
+        <v>(423 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B30" t="str">
-        <v>AFG - AR (403 pts)</v>
+        <v>SA - BOWL (414 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(403 pts)</v>
+        <v>(414 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Devon Conway</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B31" t="str">
-        <v>NZ - WK (400 pts)</v>
+        <v>NZ - BOWL (407 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(400 pts)</v>
+        <v>(407 pts)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B32" t="str">
-        <v>BAN - AR (396 pts)</v>
+        <v>SL - WK (482 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(396 pts)</v>
+        <v>(482 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>KL Rahul</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B33" t="str">
-        <v>IND - BAT (386 pts)</v>
+        <v>NED - AR (403 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(386 pts)</v>
+        <v>(403 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Haris Rauf</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B34" t="str">
-        <v>PAK - BOWL (380 pts)</v>
+        <v>NZ - WK (400 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(380 pts)</v>
+        <v>(400 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B35" t="str">
-        <v>SL - BAT (379 pts)</v>
+        <v>BAN - AR (396 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(379 pts)</v>
+        <v>(396 pts)</v>
       </c>
     </row>
     <row r="36">
@@ -770,43 +770,43 @@
         <v>Scott Edwards</v>
       </c>
       <c r="B36" t="str">
-        <v>NED - WK (379 pts)</v>
+        <v>NED - WK (388 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(379 pts)</v>
+        <v>(388 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B37" t="str">
-        <v>IND - BOWL (376 pts)</v>
+        <v>PAK - BOWL (380 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(376 pts)</v>
+        <v>(380 pts)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Colin Ackermann</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B38" t="str">
-        <v>NED - AR (366 pts)</v>
+        <v>IND - BAT (386 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(366 pts)</v>
+        <v>(386 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Pat Cummins</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B39" t="str">
-        <v>AUS - BOWL (365 pts)</v>
+        <v>IND - BOWL (376 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(365 pts)</v>
+        <v>(376 pts)</v>
       </c>
     </row>
     <row r="40">
@@ -814,10 +814,10 @@
         <v>Aryan Dutt</v>
       </c>
       <c r="B40" t="str">
-        <v>NED - BOWL (365 pts)</v>
+        <v>NED - BOWL (379 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(365 pts)</v>
+        <v>(379 pts)</v>
       </c>
     </row>
     <row r="41">
@@ -844,13 +844,13 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B43" t="str">
-        <v>SA - BOWL (449 pts)</v>
+        <v>NED - BOWL (357 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(449 pts)</v>
+        <v>(357 pts)</v>
       </c>
     </row>
     <row r="44">
@@ -866,46 +866,46 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B45" t="str">
-        <v>SA - BOWL (437 pts)</v>
+        <v>SL - BAT (379 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(437 pts)</v>
+        <v>(379 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B46" t="str">
-        <v>AUS - AR (353 pts)</v>
+        <v>ENG - BOWL (345 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(353 pts)</v>
+        <v>(345 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Mitchell Starc</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B47" t="str">
-        <v>AUS - BOWL (338 pts)</v>
+        <v>AFG - AR (349 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(338 pts)</v>
+        <v>(349 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B48" t="str">
-        <v>IND - BAT (332 pts)</v>
+        <v>AUS - AR (353 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(332 pts)</v>
+        <v>(353 pts)</v>
       </c>
     </row>
     <row r="49">
@@ -913,384 +913,384 @@
         <v>Rashid Khan</v>
       </c>
       <c r="B49" t="str">
-        <v>AFG - BOWL (328 pts)</v>
+        <v>AFG - BOWL (342 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(328 pts)</v>
+        <v>(342 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B50" t="str">
-        <v>AFG - WK (323 pts)</v>
+        <v>AUS - BOWL (365 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(323 pts)</v>
+        <v>(365 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Babar Azam</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B51" t="str">
-        <v>PAK - BAT (318 pts)</v>
+        <v>AFG - BAT (340 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(318 pts)</v>
+        <v>(340 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B52" t="str">
-        <v>NED - BOWL (351 pts)</v>
+        <v>AUS - BOWL (338 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(351 pts)</v>
+        <v>(338 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Litton Das</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B53" t="str">
-        <v>BAN - WK (313 pts)</v>
+        <v>IND - BAT (332 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(313 pts)</v>
+        <v>(332 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Dawid Malan</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B54" t="str">
-        <v>ENG - BAT (317 pts)</v>
+        <v>PAK - BAT (318 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(317 pts)</v>
+        <v>(318 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Adil Rashid</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B55" t="str">
-        <v>ENG - BOWL (345 pts)</v>
+        <v>AFG - WK (339 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(345 pts)</v>
+        <v>(339 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Litton Das</v>
       </c>
       <c r="B56" t="str">
-        <v>SL - BOWL (306 pts)</v>
+        <v>BAN - WK (313 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(306 pts)</v>
+        <v>(313 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B57" t="str">
-        <v>IND - BOWL (307 pts)</v>
+        <v>NED - AR (312 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(307 pts)</v>
+        <v>(312 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Saud Shakeel</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B58" t="str">
-        <v>PAK - BAT (300 pts)</v>
+        <v>AFG - BOWL (310 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(300 pts)</v>
+        <v>(310 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B59" t="str">
-        <v>AUS - BAT (299 pts)</v>
+        <v>IND - BOWL (307 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(299 pts)</v>
+        <v>(307 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Shoriful Islam</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B60" t="str">
-        <v>BAN - BOWL (299 pts)</v>
+        <v>ENG - BAT (317 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(299 pts)</v>
+        <v>(317 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Joe Root</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B61" t="str">
-        <v>ENG - BAT (293 pts)</v>
+        <v>AFG - BAT (339 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(293 pts)</v>
+        <v>(339 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Will Young</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B62" t="str">
-        <v>NZ - BAT (286 pts)</v>
+        <v>SL - BOWL (306 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(286 pts)</v>
+        <v>(306 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B63" t="str">
-        <v>AUS - BOWL (283 pts)</v>
+        <v>PAK - BAT (300 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(283 pts)</v>
+        <v>(300 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Rahmat Shah</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B64" t="str">
-        <v>AFG - AR (281 pts)</v>
+        <v>IND - BAT (300 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(281 pts)</v>
+        <v>(300 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B65" t="str">
-        <v>PAK - AR (280 pts)</v>
+        <v>AUS - BAT (299 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(280 pts)</v>
+        <v>(299 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Tom Latham</v>
+        <v>Joe Root</v>
       </c>
       <c r="B66" t="str">
-        <v>NZ - WK (271 pts)</v>
+        <v>ENG - BAT (293 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(271 pts)</v>
+        <v>(293 pts)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B67" t="str">
-        <v>AFG - BOWL (271 pts)</v>
+        <v>AFG - AR (296 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(271 pts)</v>
+        <v>(296 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B68" t="str">
-        <v>AFG - BAT (269 pts)</v>
+        <v>AUS - BOWL (283 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(269 pts)</v>
+        <v>(283 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Will Young</v>
       </c>
       <c r="B69" t="str">
-        <v>AFG - BAT (306 pts)</v>
+        <v>NZ - BAT (286 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(306 pts)</v>
+        <v>(286 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Hasan Ali</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B70" t="str">
-        <v>PAK - BOWL (262 pts)</v>
+        <v>NZ - WK (271 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(262 pts)</v>
+        <v>(271 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B71" t="str">
-        <v>BAN - WK (256 pts)</v>
+        <v>PAK - AR (280 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(256 pts)</v>
+        <v>(280 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Shubman Gill</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B72" t="str">
-        <v>IND - BAT (300 pts)</v>
+        <v>BAN - WK (256 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(300 pts)</v>
+        <v>(256 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B73" t="str">
-        <v>SA - BOWL (248 pts)</v>
+        <v>BAN - BOWL (299 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(248 pts)</v>
+        <v>(299 pts)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Jos Buttler</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B74" t="str">
-        <v>ENG - WK (247 pts)</v>
+        <v>PAK - BOWL (262 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(247 pts)</v>
+        <v>(262 pts)</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Reece Topley</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B75" t="str">
-        <v>ENG - BOWL (247 pts)</v>
+        <v>SA - BOWL (248 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(247 pts)</v>
+        <v>(248 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B76" t="str">
-        <v>NED - AR (240 pts)</v>
+        <v>ENG - BOWL (247 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(240 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Josh Inglis</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B77" t="str">
-        <v>AUS - WK (238 pts)</v>
+        <v>NZ - BOWL (243 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(238 pts)</v>
+        <v>(243 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Charith Asalanka</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B78" t="str">
-        <v>SL - BAT (234 pts)</v>
+        <v>ENG - BOWL (238 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(234 pts)</v>
+        <v>(238 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Fazalhaq Farooqi</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B79" t="str">
-        <v>AFG - BOWL (224 pts)</v>
+        <v>AUS - WK (238 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(224 pts)</v>
+        <v>(238 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B80" t="str">
-        <v>ENG - WK (223 pts)</v>
+        <v>SL - BAT (234 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(223 pts)</v>
+        <v>(234 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B81" t="str">
-        <v>NZ - BOWL (243 pts)</v>
+        <v>NED - AR (229 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(243 pts)</v>
+        <v>(229 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Fazalhaq Farooqi</v>
       </c>
       <c r="B82" t="str">
-        <v>BAN - AR (219 pts)</v>
+        <v>AFG - BOWL (226 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(219 pts)</v>
+        <v>(226 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Shadab Khan</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B83" t="str">
-        <v>PAK - AR (213 pts)</v>
+        <v>ENG - WK (223 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(213 pts)</v>
+        <v>(223 pts)</v>
       </c>
     </row>
     <row r="84">
@@ -1306,431 +1306,431 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Mark Wood</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B85" t="str">
-        <v>ENG - BOWL (238 pts)</v>
+        <v>BAN - AR (219 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(238 pts)</v>
+        <v>(219 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>David Willey</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B86" t="str">
-        <v>ENG - AR (203 pts)</v>
+        <v>PAK - AR (213 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(203 pts)</v>
+        <v>(213 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B87" t="str">
-        <v>AFG - AR (195 pts)</v>
+        <v>AFG - BOWL (212 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(195 pts)</v>
+        <v>(212 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B88" t="str">
-        <v>BAN - BOWL (192 pts)</v>
+        <v>AUS - BAT (210 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(192 pts)</v>
+        <v>(210 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B89" t="str">
-        <v>BAN - BOWL (190 pts)</v>
+        <v>ENG - WK (247 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(190 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Chris Woakes</v>
+        <v>David Willey</v>
       </c>
       <c r="B90" t="str">
-        <v>ENG - AR (188 pts)</v>
+        <v>ENG - AR (203 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(188 pts)</v>
+        <v>(203 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B91" t="str">
-        <v>NED - AR (185 pts)</v>
+        <v>BAN - BOWL (192 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(185 pts)</v>
+        <v>(192 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B92" t="str">
-        <v>PAK - BOWL (184 pts)</v>
+        <v>BAN - BOWL (190 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(184 pts)</v>
+        <v>(190 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B93" t="str">
-        <v>PAK - AR (182 pts)</v>
+        <v>ENG - AR (188 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(182 pts)</v>
+        <v>(188 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B94" t="str">
-        <v>SL - BOWL (179 pts)</v>
+        <v>PAK - BOWL (184 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(179 pts)</v>
+        <v>(184 pts)</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B95" t="str">
-        <v>BAN - BAT (175 pts)</v>
+        <v>PAK - AR (182 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(175 pts)</v>
+        <v>(182 pts)</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Harry Brook</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B96" t="str">
-        <v>ENG - BAT (172 pts)</v>
+        <v>AFG - WK (179 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(172 pts)</v>
+        <v>(179 pts)</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Hardik Pandya</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B97" t="str">
-        <v>IND - AR (170 pts)</v>
+        <v>SL - BOWL (179 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(170 pts)</v>
+        <v>(179 pts)</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Temba Bavuma</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B98" t="str">
-        <v>SA - BAT (169 pts)</v>
+        <v>BAN - BAT (175 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(169 pts)</v>
+        <v>(175 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B99" t="str">
-        <v>SA - BOWL (166 pts)</v>
+        <v>ENG - BAT (172 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(166 pts)</v>
+        <v>(172 pts)</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Usama Mir</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B100" t="str">
-        <v>PAK - BOWL (158 pts)</v>
+        <v>IND - AR (170 pts)</v>
       </c>
       <c r="C100" t="str">
-        <v>(158 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Liam Livingstone</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B101" t="str">
-        <v>ENG - AR (155 pts)</v>
+        <v>SA - BAT (169 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(155 pts)</v>
+        <v>(169 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Kusal Perera</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B102" t="str">
-        <v>SL - WK (154 pts)</v>
+        <v>SA - BOWL (166 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(154 pts)</v>
+        <v>(166 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Travis Head</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B103" t="str">
-        <v>AUS - BAT (151 pts)</v>
+        <v>PAK - BOWL (158 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(151 pts)</v>
+        <v>(158 pts)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Vikram Singh</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B104" t="str">
-        <v>NED - AR (150 pts)</v>
+        <v>SL - WK (154 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(150 pts)</v>
+        <v>(154 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B105" t="str">
-        <v>PAK - BAT (143 pts)</v>
+        <v>ENG - AR (155 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(143 pts)</v>
+        <v>(155 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Travis Head</v>
       </c>
       <c r="B106" t="str">
-        <v>SL - AR (138 pts)</v>
+        <v>AUS - BAT (151 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(138 pts)</v>
+        <v>(151 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B107" t="str">
-        <v>BAN - BAT (138 pts)</v>
+        <v>AFG - BOWL (145 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(138 pts)</v>
+        <v>(145 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>James Neesham</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B108" t="str">
-        <v>NZ - AR (136 pts)</v>
+        <v>PAK - BAT (143 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(136 pts)</v>
+        <v>(143 pts)</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B109" t="str">
-        <v>SA - BAT (135 pts)</v>
+        <v>NED - AR (150 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(135 pts)</v>
+        <v>(150 pts)</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B110" t="str">
-        <v>BAN - BAT (129 pts)</v>
+        <v>NED - BAT (150 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(129 pts)</v>
+        <v>(150 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B111" t="str">
-        <v>AFG - WK (123 pts)</v>
+        <v>SL - AR (138 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(123 pts)</v>
+        <v>(138 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B112" t="str">
-        <v>AUS - AR (122 pts)</v>
+        <v>BAN - BAT (138 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(122 pts)</v>
+        <v>(138 pts)</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Sam Curran</v>
+        <v>James Neesham</v>
       </c>
       <c r="B113" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>NZ - AR (136 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(118 pts)</v>
+        <v>(136 pts)</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Dasun Shanaka</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B114" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>SA - BAT (135 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(114 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Angelo Mathews</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B115" t="str">
-        <v>SL - BAT (113 pts)</v>
+        <v>BAN - BAT (129 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(113 pts)</v>
+        <v>(129 pts)</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Gus Atkinson</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B116" t="str">
-        <v>ENG - BOWL (104 pts)</v>
+        <v>AUS - AR (122 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(104 pts)</v>
+        <v>(122 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B117" t="str">
-        <v>NED - BAT (99 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(99 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Kane Williamson</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B118" t="str">
-        <v>NZ - BAT (96 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(96 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Angelo Mathews</v>
       </c>
       <c r="B119" t="str">
-        <v>SL - BOWL (96 pts)</v>
+        <v>SL - BAT (113 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(96 pts)</v>
+        <v>(113 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Max O'Dowd</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B120" t="str">
-        <v>NED - BAT (93 pts)</v>
+        <v>ENG - BOWL (104 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(93 pts)</v>
+        <v>(104 pts)</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B121" t="str">
-        <v>BAN - BOWL (90 pts)</v>
+        <v>NED - BAT (99 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(90 pts)</v>
+        <v>(99 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Ben Stokes</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B122" t="str">
-        <v>ENG - AR (88 pts)</v>
+        <v>NZ - BAT (96 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(88 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Noor Ahmad</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B123" t="str">
-        <v>AFG - BOWL (87 pts)</v>
+        <v>SL - BOWL (96 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(87 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="124">
@@ -1757,24 +1757,24 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B126" t="str">
-        <v>AFG - BOWL (212 pts)</v>
+        <v>IND - BOWL (78 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(212 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Steven Smith</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B127" t="str">
-        <v>AUS - BAT (210 pts)</v>
+        <v>NED - AR (71 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(210 pts)</v>
+        <v>(71 pts)</v>
       </c>
     </row>
     <row r="128">
@@ -1790,46 +1790,46 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Mark Chapman</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B129" t="str">
-        <v>NZ - BAT (68 pts)</v>
+        <v>ENG - AR (88 pts)</v>
       </c>
       <c r="C129" t="str">
-        <v>(68 pts)</v>
+        <v>(88 pts)</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Ishan Kishan</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B130" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>BAN - BOWL (90 pts)</v>
       </c>
       <c r="C130" t="str">
-        <v>(63 pts)</v>
+        <v>(90 pts)</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Lizaad Williams</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B131" t="str">
-        <v>SA - BOWL (58 pts)</v>
+        <v>NZ - BAT (68 pts)</v>
       </c>
       <c r="C131" t="str">
-        <v>(58 pts)</v>
+        <v>(68 pts)</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Shardul Thakur</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B132" t="str">
-        <v>IND - BOWL (78 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C132" t="str">
-        <v>(78 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="133">
@@ -1837,153 +1837,153 @@
         <v>Wesley Barresi</v>
       </c>
       <c r="B133" t="str">
-        <v>NED - WK (55 pts)</v>
+        <v>NED - WK (60 pts)</v>
       </c>
       <c r="C133" t="str">
-        <v>(55 pts)</v>
+        <v>(60 pts)</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B134" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>SA - BOWL (58 pts)</v>
       </c>
       <c r="C134" t="str">
-        <v>(53 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B135" t="str">
-        <v>SL - BOWL (40 pts)</v>
+        <v>BAN - BOWL (54 pts)</v>
       </c>
       <c r="C135" t="str">
-        <v>(40 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B136" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>ENG - AR (53 pts)</v>
       </c>
       <c r="C136" t="str">
-        <v>(37 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B137" t="str">
-        <v>SL - BAT (37 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C137" t="str">
-        <v>(37 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Cameron Green</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B138" t="str">
-        <v>AUS - AR (31 pts)</v>
+        <v>SL - BOWL (40 pts)</v>
       </c>
       <c r="C138" t="str">
-        <v>(31 pts)</v>
+        <v>(40 pts)</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B139" t="str">
-        <v>NED - AR (31 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C139" t="str">
-        <v>(31 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Chamika Karunaratne</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B140" t="str">
-        <v>SL - AR (28 pts)</v>
+        <v>SL - BAT (37 pts)</v>
       </c>
       <c r="C140" t="str">
-        <v>(28 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B141" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>AUS - AR (31 pts)</v>
       </c>
       <c r="C141" t="str">
-        <v>(27 pts)</v>
+        <v>(31 pts)</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Agha Salman</v>
+        <v>Chamika Karunaratne</v>
       </c>
       <c r="B142" t="str">
-        <v>PAK - AR (20 pts)</v>
+        <v>SL - AR (28 pts)</v>
       </c>
       <c r="C142" t="str">
-        <v>(20 pts)</v>
+        <v>(28 pts)</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Dushan Hemantha</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B143" t="str">
-        <v>SL - AR (18 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C143" t="str">
-        <v>(18 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Ryan Klein</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B144" t="str">
-        <v>NED - BOWL (16 pts)</v>
+        <v>PAK - AR (20 pts)</v>
       </c>
       <c r="C144" t="str">
-        <v>(16 pts)</v>
+        <v>(20 pts)</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Dushan Hemantha</v>
       </c>
       <c r="B145" t="str">
-        <v>NED - BOWL (10 pts)</v>
+        <v>SL - AR (18 pts)</v>
       </c>
       <c r="C145" t="str">
-        <v>(10 pts)</v>
+        <v>(18 pts)</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Alex Carey</v>
+        <v>Ryan Klein</v>
       </c>
       <c r="B146" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>NED - BOWL (16 pts)</v>
       </c>
       <c r="C146" t="str">
-        <v>(1 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="147">
@@ -2021,35 +2021,35 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B150" t="str">
-        <v>BAN - BOWL (54 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C150" t="str">
-        <v>(54 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Moeen Ali</v>
+        <v>Tom Blundell</v>
       </c>
       <c r="B151" t="str">
-        <v>ENG - AR (53 pts)</v>
+        <v>NZ - WK (0 pts)</v>
       </c>
       <c r="C151" t="str">
-        <v>(53 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Ashton Agar</v>
+        <v>Shariz Ahmad</v>
       </c>
       <c r="B152" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>NED - BOWL (10 pts)</v>
       </c>
       <c r="C152" t="str">
-        <v>(0 pts)</v>
+        <v>(10 pts)</v>
       </c>
     </row>
     <row r="153">
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Tom Blundell</v>
+        <v>Kyle Jamieson</v>
       </c>
       <c r="B154" t="str">
-        <v>NZ - WK (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Axar Patel</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B155" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C155" t="str">
         <v>(0 pts)</v>
@@ -2087,21 +2087,21 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Kyle Jamieson</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B156" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C156" t="str">
-        <v>(0 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Binura Fernando</v>
+        <v>Andile Phehlukwayo</v>
       </c>
       <c r="B157" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>SA - AR (0 pts)</v>
       </c>
       <c r="C157" t="str">
         <v>(0 pts)</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Andile Phehlukwayo</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B158" t="str">
-        <v>SA - AR (0 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C158" t="str">
         <v>(0 pts)</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Riaz Hassan</v>
+        <v>Mohammad Naim</v>
       </c>
       <c r="B163" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C163" t="str">
         <v>(0 pts)</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Mohammad Naim</v>
+        <v>Tanzim Hasan Sakib</v>
       </c>
       <c r="B166" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>BAN - BOWL (0 pts)</v>
       </c>
       <c r="C166" t="str">
         <v>(0 pts)</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Tanzim Hasan Sakib</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B167" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C167" t="str">
         <v>(0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C167"/>
+  <dimension ref="A1:C168"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -404,134 +404,134 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Marco Jansen</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B3" t="str">
-        <v>SA - AR (669 pts)</v>
+        <v>NZ - AR (763 pts)</v>
       </c>
       <c r="C3" t="str">
-        <v>(669 pts)</v>
+        <v>(763 pts)</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Rachin Ravindra</v>
+        <v>David Warner</v>
       </c>
       <c r="B4" t="str">
-        <v>NZ - AR (624 pts)</v>
+        <v>AUS - BAT (619 pts)</v>
       </c>
       <c r="C4" t="str">
-        <v>(624 pts)</v>
+        <v>(619 pts)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>David Warner</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B5" t="str">
-        <v>AUS - BAT (589 pts)</v>
+        <v>IND - BAT (585 pts)</v>
       </c>
       <c r="C5" t="str">
-        <v>(589 pts)</v>
+        <v>(585 pts)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Virat Kohli</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B6" t="str">
-        <v>IND - BAT (585 pts)</v>
+        <v>NZ - AR (580 pts)</v>
       </c>
       <c r="C6" t="str">
-        <v>(585 pts)</v>
+        <v>(580 pts)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B7" t="str">
-        <v>SL - BOWL (569 pts)</v>
+        <v>SA - AR (669 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(569 pts)</v>
+        <v>(669 pts)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B8" t="str">
-        <v>PAK - WK (537 pts)</v>
+        <v>AUS - BOWL (638 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(537 pts)</v>
+        <v>(638 pts)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B9" t="str">
-        <v>IND - BOWL (535 pts)</v>
+        <v>SL - BOWL (569 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(535 pts)</v>
+        <v>(569 pts)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B10" t="str">
-        <v>PAK - BOWL (530 pts)</v>
+        <v>IND - BAT (549 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(530 pts)</v>
+        <v>(549 pts)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Mitchell Santner</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B11" t="str">
-        <v>NZ - AR (548 pts)</v>
+        <v>PAK - WK (549 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(548 pts)</v>
+        <v>(549 pts)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Rohit Sharma</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B12" t="str">
-        <v>IND - BAT (549 pts)</v>
+        <v>PAK - BOWL (530 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(549 pts)</v>
+        <v>(530 pts)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Adam Zampa</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B13" t="str">
-        <v>AUS - BOWL (512 pts)</v>
+        <v>NZ - AR (520 pts)</v>
       </c>
       <c r="C13" t="str">
-        <v>(512 pts)</v>
+        <v>(520 pts)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B14" t="str">
-        <v>BAN - AR (505 pts)</v>
+        <v>IND - BOWL (535 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(505 pts)</v>
+        <v>(535 pts)</v>
       </c>
     </row>
     <row r="15">
@@ -539,21 +539,21 @@
         <v>Daryl Mitchell</v>
       </c>
       <c r="B15" t="str">
-        <v>NZ - AR (510 pts)</v>
+        <v>NZ - AR (549 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(510 pts)</v>
+        <v>(549 pts)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B16" t="str">
-        <v>SA - WK (502 pts)</v>
+        <v>BAN - AR (505 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(502 pts)</v>
+        <v>(505 pts)</v>
       </c>
     </row>
     <row r="17">
@@ -569,57 +569,57 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Aiden Markram</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B18" t="str">
-        <v>SA - AR (491 pts)</v>
+        <v>SA - WK (502 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(491 pts)</v>
+        <v>(502 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B19" t="str">
-        <v>SA - BAT (465 pts)</v>
+        <v>SA - AR (491 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(465 pts)</v>
+        <v>(491 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Glenn Phillips</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B20" t="str">
-        <v>NZ - AR (461 pts)</v>
+        <v>IND - BOWL (460 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(461 pts)</v>
+        <v>(460 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Mohammad Shami</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B21" t="str">
-        <v>IND - BOWL (460 pts)</v>
+        <v>PAK - BAT (458 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(460 pts)</v>
+        <v>(458 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B22" t="str">
-        <v>AFG - AR (455 pts)</v>
+        <v>SL - WK (482 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(455 pts)</v>
+        <v>(482 pts)</v>
       </c>
     </row>
     <row r="23">
@@ -646,10 +646,10 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B25" t="str">
-        <v>PAK - BAT (449 pts)</v>
+        <v>SA - BOWL (449 pts)</v>
       </c>
       <c r="C25" t="str">
         <v>(449 pts)</v>
@@ -657,13 +657,13 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B26" t="str">
-        <v>SA - BOWL (449 pts)</v>
+        <v>NZ - WK (445 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(449 pts)</v>
+        <v>(445 pts)</v>
       </c>
     </row>
     <row r="27">
@@ -679,362 +679,362 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B28" t="str">
-        <v>AUS - AR (432 pts)</v>
+        <v>AUS - BOWL (434 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(432 pts)</v>
+        <v>(434 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B29" t="str">
-        <v>IND - AR (423 pts)</v>
+        <v>AUS - AR (432 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(423 pts)</v>
+        <v>(432 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B30" t="str">
-        <v>SA - BOWL (414 pts)</v>
+        <v>ENG - BOWL (424 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(414 pts)</v>
+        <v>(424 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Matt Henry</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B31" t="str">
-        <v>NZ - BOWL (407 pts)</v>
+        <v>IND - AR (423 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(407 pts)</v>
+        <v>(423 pts)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Kusal Mendis</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B32" t="str">
-        <v>SL - WK (482 pts)</v>
+        <v>SA - BOWL (414 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(482 pts)</v>
+        <v>(414 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Colin Ackermann</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B33" t="str">
-        <v>NED - AR (403 pts)</v>
+        <v>PAK - BOWL (413 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(403 pts)</v>
+        <v>(413 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Devon Conway</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B34" t="str">
-        <v>NZ - WK (400 pts)</v>
+        <v>NZ - BOWL (407 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(400 pts)</v>
+        <v>(407 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B35" t="str">
-        <v>BAN - AR (396 pts)</v>
+        <v>PAK - BAT (404 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(396 pts)</v>
+        <v>(404 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Scott Edwards</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B36" t="str">
-        <v>NED - WK (388 pts)</v>
+        <v>NED - AR (403 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(388 pts)</v>
+        <v>(403 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Haris Rauf</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B37" t="str">
-        <v>PAK - BOWL (380 pts)</v>
+        <v>AUS - BOWL (402 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(380 pts)</v>
+        <v>(402 pts)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>KL Rahul</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B38" t="str">
-        <v>IND - BAT (386 pts)</v>
+        <v>BAN - AR (396 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(386 pts)</v>
+        <v>(396 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B39" t="str">
-        <v>IND - BOWL (376 pts)</v>
+        <v>ENG - BAT (389 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(376 pts)</v>
+        <v>(389 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Aryan Dutt</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B40" t="str">
-        <v>NED - BOWL (379 pts)</v>
+        <v>AFG - AR (455 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(379 pts)</v>
+        <v>(455 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Trent Boult</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B41" t="str">
-        <v>NZ - BOWL (364 pts)</v>
+        <v>SA - BAT (465 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(364 pts)</v>
+        <v>(465 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B42" t="str">
-        <v>BAN - AR (362 pts)</v>
+        <v>AUS - BAT (385 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(362 pts)</v>
+        <v>(385 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B43" t="str">
-        <v>NED - BOWL (357 pts)</v>
+        <v>NED - WK (388 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(357 pts)</v>
+        <v>(388 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>David Miller</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B44" t="str">
-        <v>SA - BAT (354 pts)</v>
+        <v>NED - BOWL (379 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(354 pts)</v>
+        <v>(379 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B45" t="str">
-        <v>SL - BAT (379 pts)</v>
+        <v>IND - BOWL (376 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(379 pts)</v>
+        <v>(376 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Adil Rashid</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B46" t="str">
-        <v>ENG - BOWL (345 pts)</v>
+        <v>SL - BAT (379 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(345 pts)</v>
+        <v>(379 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Rahmat Shah</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B47" t="str">
-        <v>AFG - AR (349 pts)</v>
+        <v>BAN - AR (362 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(349 pts)</v>
+        <v>(362 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B48" t="str">
-        <v>AUS - AR (353 pts)</v>
+        <v>NED - BOWL (357 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(353 pts)</v>
+        <v>(357 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Rashid Khan</v>
+        <v>David Miller</v>
       </c>
       <c r="B49" t="str">
-        <v>AFG - BOWL (342 pts)</v>
+        <v>SA - BAT (354 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(342 pts)</v>
+        <v>(354 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Pat Cummins</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B50" t="str">
-        <v>AUS - BOWL (365 pts)</v>
+        <v>AUS - AR (353 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(365 pts)</v>
+        <v>(353 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B51" t="str">
-        <v>AFG - BAT (340 pts)</v>
+        <v>AFG - AR (349 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(340 pts)</v>
+        <v>(349 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Mitchell Starc</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B52" t="str">
-        <v>AUS - BOWL (338 pts)</v>
+        <v>AFG - BOWL (342 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(338 pts)</v>
+        <v>(342 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B53" t="str">
-        <v>IND - BAT (332 pts)</v>
+        <v>AFG - BAT (340 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(332 pts)</v>
+        <v>(340 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Babar Azam</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B54" t="str">
-        <v>PAK - BAT (318 pts)</v>
+        <v>AFG - BAT (339 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(318 pts)</v>
+        <v>(339 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B55" t="str">
-        <v>AFG - WK (339 pts)</v>
+        <v>NZ - BOWL (364 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(339 pts)</v>
+        <v>(364 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Litton Das</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B56" t="str">
-        <v>BAN - WK (313 pts)</v>
+        <v>ENG - AR (336 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(313 pts)</v>
+        <v>(336 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B57" t="str">
-        <v>NED - AR (312 pts)</v>
+        <v>IND - BAT (332 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(312 pts)</v>
+        <v>(332 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B58" t="str">
-        <v>AFG - BOWL (310 pts)</v>
+        <v>IND - BAT (386 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(310 pts)</v>
+        <v>(386 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B59" t="str">
-        <v>IND - BOWL (307 pts)</v>
+        <v>AFG - WK (339 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(307 pts)</v>
+        <v>(339 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Dawid Malan</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B60" t="str">
-        <v>ENG - BAT (317 pts)</v>
+        <v>AUS - BOWL (317 pts)</v>
       </c>
       <c r="C60" t="str">
         <v>(317 pts)</v>
@@ -1042,24 +1042,24 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B61" t="str">
-        <v>AFG - BAT (339 pts)</v>
+        <v>PAK - BAT (325 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(339 pts)</v>
+        <v>(325 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Joe Root</v>
       </c>
       <c r="B62" t="str">
-        <v>SL - BOWL (306 pts)</v>
+        <v>ENG - BAT (320 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(306 pts)</v>
+        <v>(320 pts)</v>
       </c>
     </row>
     <row r="63">
@@ -1067,120 +1067,120 @@
         <v>Saud Shakeel</v>
       </c>
       <c r="B63" t="str">
-        <v>PAK - BAT (300 pts)</v>
+        <v>PAK - BAT (312 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(300 pts)</v>
+        <v>(312 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Shubman Gill</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B64" t="str">
-        <v>IND - BAT (300 pts)</v>
+        <v>AFG - BOWL (310 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(300 pts)</v>
+        <v>(310 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B65" t="str">
-        <v>AUS - BAT (299 pts)</v>
+        <v>PAK - AR (309 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(299 pts)</v>
+        <v>(309 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Joe Root</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B66" t="str">
-        <v>ENG - BAT (293 pts)</v>
+        <v>IND - BOWL (307 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(293 pts)</v>
+        <v>(307 pts)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B67" t="str">
-        <v>AFG - AR (296 pts)</v>
+        <v>SL - BOWL (306 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(296 pts)</v>
+        <v>(306 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B68" t="str">
-        <v>AUS - BOWL (283 pts)</v>
+        <v>IND - BAT (300 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(283 pts)</v>
+        <v>(300 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Will Young</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B69" t="str">
-        <v>NZ - BAT (286 pts)</v>
+        <v>BAN - BOWL (299 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(286 pts)</v>
+        <v>(299 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Tom Latham</v>
+        <v>Litton Das</v>
       </c>
       <c r="B70" t="str">
-        <v>NZ - WK (271 pts)</v>
+        <v>BAN - WK (313 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(271 pts)</v>
+        <v>(313 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B71" t="str">
-        <v>PAK - AR (280 pts)</v>
+        <v>NED - AR (312 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(280 pts)</v>
+        <v>(312 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B72" t="str">
-        <v>BAN - WK (256 pts)</v>
+        <v>ENG - BOWL (298 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(256 pts)</v>
+        <v>(298 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Shoriful Islam</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B73" t="str">
-        <v>BAN - BOWL (299 pts)</v>
+        <v>AFG - AR (296 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(299 pts)</v>
+        <v>(296 pts)</v>
       </c>
     </row>
     <row r="74">
@@ -1188,392 +1188,392 @@
         <v>Hasan Ali</v>
       </c>
       <c r="B74" t="str">
-        <v>PAK - BOWL (262 pts)</v>
+        <v>PAK - BOWL (287 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(262 pts)</v>
+        <v>(287 pts)</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Will Young</v>
       </c>
       <c r="B75" t="str">
-        <v>SA - BOWL (248 pts)</v>
+        <v>NZ - BAT (286 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(248 pts)</v>
+        <v>(286 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Reece Topley</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B76" t="str">
-        <v>ENG - BOWL (247 pts)</v>
+        <v>PAK - BOWL (279 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(247 pts)</v>
+        <v>(279 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B77" t="str">
-        <v>NZ - BOWL (243 pts)</v>
+        <v>NZ - WK (277 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(243 pts)</v>
+        <v>(277 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Mark Wood</v>
+        <v>David Willey</v>
       </c>
       <c r="B78" t="str">
-        <v>ENG - BOWL (238 pts)</v>
+        <v>ENG - AR (270 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(238 pts)</v>
+        <v>(270 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Josh Inglis</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B79" t="str">
-        <v>AUS - WK (238 pts)</v>
+        <v>AUS - BAT (261 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(238 pts)</v>
+        <v>(261 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Charith Asalanka</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B80" t="str">
-        <v>SL - BAT (234 pts)</v>
+        <v>AUS - WK (261 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(234 pts)</v>
+        <v>(261 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B81" t="str">
-        <v>NED - AR (229 pts)</v>
+        <v>ENG - WK (260 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(229 pts)</v>
+        <v>(260 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Fazalhaq Farooqi</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B82" t="str">
-        <v>AFG - BOWL (226 pts)</v>
+        <v>BAN - WK (256 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(226 pts)</v>
+        <v>(256 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B83" t="str">
-        <v>ENG - WK (223 pts)</v>
+        <v>SL - BAT (234 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(223 pts)</v>
+        <v>(234 pts)</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B84" t="str">
-        <v>PAK - BAT (221 pts)</v>
+        <v>ENG - WK (232 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(221 pts)</v>
+        <v>(232 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B85" t="str">
-        <v>BAN - AR (219 pts)</v>
+        <v>SA - BOWL (248 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(219 pts)</v>
+        <v>(248 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Shadab Khan</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B86" t="str">
-        <v>PAK - AR (213 pts)</v>
+        <v>ENG - BOWL (247 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(213 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Fazalhaq Farooqi</v>
       </c>
       <c r="B87" t="str">
-        <v>AFG - BOWL (212 pts)</v>
+        <v>AFG - BOWL (226 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(212 pts)</v>
+        <v>(226 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Steven Smith</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B88" t="str">
-        <v>AUS - BAT (210 pts)</v>
+        <v>BAN - AR (219 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(210 pts)</v>
+        <v>(219 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Jos Buttler</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B89" t="str">
-        <v>ENG - WK (247 pts)</v>
+        <v>NED - AR (229 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(247 pts)</v>
+        <v>(229 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>David Willey</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B90" t="str">
-        <v>ENG - AR (203 pts)</v>
+        <v>NZ - BAT (225 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(203 pts)</v>
+        <v>(225 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B91" t="str">
-        <v>BAN - BOWL (192 pts)</v>
+        <v>PAK - BAT (221 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(192 pts)</v>
+        <v>(221 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B92" t="str">
-        <v>BAN - BOWL (190 pts)</v>
+        <v>AFG - BOWL (212 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(190 pts)</v>
+        <v>(212 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Chris Woakes</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B93" t="str">
-        <v>ENG - AR (188 pts)</v>
+        <v>PAK - AR (213 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(188 pts)</v>
+        <v>(213 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B94" t="str">
-        <v>PAK - BOWL (184 pts)</v>
+        <v>NZ - BOWL (243 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(184 pts)</v>
+        <v>(243 pts)</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B95" t="str">
-        <v>PAK - AR (182 pts)</v>
+        <v>BAN - BOWL (192 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(182 pts)</v>
+        <v>(192 pts)</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B96" t="str">
-        <v>AFG - WK (179 pts)</v>
+        <v>BAN - BOWL (190 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(179 pts)</v>
+        <v>(190 pts)</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B97" t="str">
-        <v>SL - BOWL (179 pts)</v>
+        <v>ENG - AR (184 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(179 pts)</v>
+        <v>(184 pts)</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B98" t="str">
-        <v>BAN - BAT (175 pts)</v>
+        <v>PAK - AR (182 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(175 pts)</v>
+        <v>(182 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Harry Brook</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B99" t="str">
-        <v>ENG - BAT (172 pts)</v>
+        <v>AFG - WK (179 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(172 pts)</v>
+        <v>(179 pts)</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Hardik Pandya</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B100" t="str">
-        <v>IND - AR (170 pts)</v>
+        <v>SL - BOWL (179 pts)</v>
       </c>
       <c r="C100" t="str">
-        <v>(170 pts)</v>
+        <v>(179 pts)</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Temba Bavuma</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B101" t="str">
-        <v>SA - BAT (169 pts)</v>
+        <v>AUS - AR (178 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(169 pts)</v>
+        <v>(178 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Travis Head</v>
       </c>
       <c r="B102" t="str">
-        <v>SA - BOWL (166 pts)</v>
+        <v>AUS - BAT (175 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(166 pts)</v>
+        <v>(175 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Usama Mir</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B103" t="str">
-        <v>PAK - BOWL (158 pts)</v>
+        <v>BAN - BAT (175 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(158 pts)</v>
+        <v>(175 pts)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Kusal Perera</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B104" t="str">
-        <v>SL - WK (154 pts)</v>
+        <v>ENG - BAT (172 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(154 pts)</v>
+        <v>(172 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Liam Livingstone</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B105" t="str">
-        <v>ENG - AR (155 pts)</v>
+        <v>ENG - AR (168 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(155 pts)</v>
+        <v>(168 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Travis Head</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B106" t="str">
-        <v>AUS - BAT (151 pts)</v>
+        <v>SA - BOWL (166 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(151 pts)</v>
+        <v>(166 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Noor Ahmad</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B107" t="str">
-        <v>AFG - BOWL (145 pts)</v>
+        <v>PAK - BOWL (158 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(145 pts)</v>
+        <v>(158 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B108" t="str">
-        <v>PAK - BAT (143 pts)</v>
+        <v>SL - WK (154 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(143 pts)</v>
+        <v>(154 pts)</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Vikram Singh</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B109" t="str">
-        <v>NED - AR (150 pts)</v>
+        <v>NED - BAT (150 pts)</v>
       </c>
       <c r="C109" t="str">
         <v>(150 pts)</v>
@@ -1581,10 +1581,10 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Max O'Dowd</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B110" t="str">
-        <v>NED - BAT (150 pts)</v>
+        <v>NED - AR (150 pts)</v>
       </c>
       <c r="C110" t="str">
         <v>(150 pts)</v>
@@ -1592,21 +1592,21 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B111" t="str">
-        <v>SL - AR (138 pts)</v>
+        <v>AFG - BOWL (145 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(138 pts)</v>
+        <v>(145 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B112" t="str">
-        <v>BAN - BAT (138 pts)</v>
+        <v>SL - AR (138 pts)</v>
       </c>
       <c r="C112" t="str">
         <v>(138 pts)</v>
@@ -1614,211 +1614,211 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>James Neesham</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B113" t="str">
-        <v>NZ - AR (136 pts)</v>
+        <v>BAN - BAT (138 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(136 pts)</v>
+        <v>(138 pts)</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Reeza Hendricks</v>
+        <v>James Neesham</v>
       </c>
       <c r="B114" t="str">
-        <v>SA - BAT (135 pts)</v>
+        <v>NZ - AR (136 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(135 pts)</v>
+        <v>(136 pts)</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B115" t="str">
-        <v>BAN - BAT (129 pts)</v>
+        <v>SA - BAT (135 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(129 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B116" t="str">
-        <v>AUS - AR (122 pts)</v>
+        <v>ENG - AR (133 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(122 pts)</v>
+        <v>(133 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Sam Curran</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B117" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>BAN - BAT (129 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(118 pts)</v>
+        <v>(129 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Dasun Shanaka</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B118" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>NZ - BAT (124 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(114 pts)</v>
+        <v>(124 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Angelo Mathews</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B119" t="str">
-        <v>SL - BAT (113 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(113 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Gus Atkinson</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B120" t="str">
-        <v>ENG - BOWL (104 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(104 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Angelo Mathews</v>
       </c>
       <c r="B121" t="str">
-        <v>NED - BAT (99 pts)</v>
+        <v>SL - BAT (113 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(99 pts)</v>
+        <v>(113 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Kane Williamson</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B122" t="str">
-        <v>NZ - BAT (96 pts)</v>
+        <v>ENG - BOWL (104 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(96 pts)</v>
+        <v>(104 pts)</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B123" t="str">
-        <v>SL - BOWL (96 pts)</v>
+        <v>NED - BAT (99 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(96 pts)</v>
+        <v>(99 pts)</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B124" t="str">
-        <v>IND - BAT (85 pts)</v>
+        <v>NZ - BOWL (97 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(85 pts)</v>
+        <v>(97 pts)</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B125" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>SL - BOWL (96 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(79 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Shardul Thakur</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B126" t="str">
-        <v>IND - BOWL (78 pts)</v>
+        <v>AUS - AR (95 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(78 pts)</v>
+        <v>(95 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B127" t="str">
-        <v>NED - AR (71 pts)</v>
+        <v>SA - BAT (169 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(71 pts)</v>
+        <v>(169 pts)</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Tim Southee</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B128" t="str">
-        <v>NZ - BOWL (68 pts)</v>
+        <v>BAN - BOWL (90 pts)</v>
       </c>
       <c r="C128" t="str">
-        <v>(68 pts)</v>
+        <v>(90 pts)</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Ben Stokes</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B129" t="str">
-        <v>ENG - AR (88 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C129" t="str">
-        <v>(88 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B130" t="str">
-        <v>BAN - BOWL (90 pts)</v>
+        <v>IND - BAT (85 pts)</v>
       </c>
       <c r="C130" t="str">
-        <v>(90 pts)</v>
+        <v>(85 pts)</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Mark Chapman</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B131" t="str">
-        <v>NZ - BAT (68 pts)</v>
+        <v>IND - AR (170 pts)</v>
       </c>
       <c r="C131" t="str">
-        <v>(68 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="132">
@@ -1867,10 +1867,10 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Moeen Ali</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B136" t="str">
-        <v>ENG - AR (53 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C136" t="str">
         <v>(53 pts)</v>
@@ -1878,32 +1878,32 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B137" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>SL - BOWL (40 pts)</v>
       </c>
       <c r="C137" t="str">
-        <v>(53 pts)</v>
+        <v>(40 pts)</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B138" t="str">
-        <v>SL - BOWL (40 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C138" t="str">
-        <v>(40 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B139" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>SL - BAT (37 pts)</v>
       </c>
       <c r="C139" t="str">
         <v>(37 pts)</v>
@@ -1911,98 +1911,98 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Chamika Karunaratne</v>
       </c>
       <c r="B140" t="str">
-        <v>SL - BAT (37 pts)</v>
+        <v>SL - AR (28 pts)</v>
       </c>
       <c r="C140" t="str">
-        <v>(37 pts)</v>
+        <v>(28 pts)</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Cameron Green</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B141" t="str">
-        <v>AUS - AR (31 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C141" t="str">
-        <v>(31 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Chamika Karunaratne</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B142" t="str">
-        <v>SL - AR (28 pts)</v>
+        <v>NED - AR (71 pts)</v>
       </c>
       <c r="C142" t="str">
-        <v>(28 pts)</v>
+        <v>(71 pts)</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B143" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>PAK - AR (24 pts)</v>
       </c>
       <c r="C143" t="str">
-        <v>(27 pts)</v>
+        <v>(24 pts)</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Agha Salman</v>
+        <v>Ryan Klein</v>
       </c>
       <c r="B144" t="str">
-        <v>PAK - AR (20 pts)</v>
+        <v>NED - BOWL (16 pts)</v>
       </c>
       <c r="C144" t="str">
-        <v>(20 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Dushan Hemantha</v>
+        <v>Shariz Ahmad</v>
       </c>
       <c r="B145" t="str">
-        <v>SL - AR (18 pts)</v>
+        <v>NED - BOWL (10 pts)</v>
       </c>
       <c r="C145" t="str">
-        <v>(18 pts)</v>
+        <v>(10 pts)</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Ryan Klein</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B146" t="str">
-        <v>NED - BOWL (16 pts)</v>
+        <v>NZ - BOWL (4 pts)</v>
       </c>
       <c r="C146" t="str">
-        <v>(16 pts)</v>
+        <v>(4 pts)</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Anamul Haque</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B147" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C147" t="str">
-        <v>(0 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Jason Roy</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B148" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C148" t="str">
         <v>(0 pts)</v>
@@ -2010,21 +2010,21 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Sean Abbott</v>
+        <v>Dushan Hemantha</v>
       </c>
       <c r="B149" t="str">
-        <v>AUS - BOWL (0 pts)</v>
+        <v>SL - AR (18 pts)</v>
       </c>
       <c r="C149" t="str">
-        <v>(0 pts)</v>
+        <v>(18 pts)</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Ashton Agar</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B150" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>AUS - BOWL (0 pts)</v>
       </c>
       <c r="C150" t="str">
         <v>(0 pts)</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Tom Blundell</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B151" t="str">
-        <v>NZ - WK (0 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C151" t="str">
         <v>(0 pts)</v>
@@ -2043,21 +2043,21 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B152" t="str">
-        <v>NED - BOWL (10 pts)</v>
+        <v>IND - BOWL (78 pts)</v>
       </c>
       <c r="C152" t="str">
-        <v>(10 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Ish Sodhi</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B153" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C153" t="str">
         <v>(0 pts)</v>
@@ -2087,21 +2087,21 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Alex Carey</v>
+        <v>Andile Phehlukwayo</v>
       </c>
       <c r="B156" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>SA - AR (0 pts)</v>
       </c>
       <c r="C156" t="str">
-        <v>(1 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Andile Phehlukwayo</v>
+        <v>Tom Blundell</v>
       </c>
       <c r="B157" t="str">
-        <v>SA - AR (0 pts)</v>
+        <v>NZ - WK (0 pts)</v>
       </c>
       <c r="C157" t="str">
         <v>(0 pts)</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Axar Patel</v>
+        <v>Brydon Carse</v>
       </c>
       <c r="B158" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>ENG - BOWL (0 pts)</v>
       </c>
       <c r="C158" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Sahan Arachchige</v>
+        <v>Pramod Madushan</v>
       </c>
       <c r="B159" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Brydon Carse</v>
+        <v>Prasidh Krishna</v>
       </c>
       <c r="B160" t="str">
-        <v>ENG - BOWL (0 pts)</v>
+        <v>IND - BOWL (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Pramod Madushan</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B161" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C161" t="str">
         <v>(0 pts)</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Afif Hossain</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B162" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C162" t="str">
         <v>(0 pts)</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Mohammad Naim</v>
+        <v>Abdul Rahman</v>
       </c>
       <c r="B163" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C163" t="str">
         <v>(0 pts)</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Abdul Rahman</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B164" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C164" t="str">
         <v>(0 pts)</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Shamim Hossain</v>
+        <v>Mohammad Naim</v>
       </c>
       <c r="B165" t="str">
         <v>BAN - BAT (0 pts)</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Tanzim Hasan Sakib</v>
+        <v>Sahan Arachchige</v>
       </c>
       <c r="B166" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C166" t="str">
         <v>(0 pts)</v>
@@ -2208,18 +2208,29 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Riaz Hassan</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B167" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C167" t="str">
         <v>(0 pts)</v>
       </c>
     </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>Tanzim Hasan Sakib</v>
+      </c>
+      <c r="B168" t="str">
+        <v>BAN - BOWL (0 pts)</v>
+      </c>
+      <c r="C168" t="str">
+        <v>(0 pts)</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C167"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C168"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -396,10 +396,10 @@
         <v>Quinton de Kock</v>
       </c>
       <c r="B2" t="str">
-        <v>SA - WK (807 pts)</v>
+        <v>SA - WK (825 pts)</v>
       </c>
       <c r="C2" t="str">
-        <v>(807 pts)</v>
+        <v>(825 pts)</v>
       </c>
     </row>
     <row r="3">
@@ -415,57 +415,57 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>David Warner</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B4" t="str">
-        <v>AUS - BAT (619 pts)</v>
+        <v>IND - BAT (708 pts)</v>
       </c>
       <c r="C4" t="str">
-        <v>(619 pts)</v>
+        <v>(708 pts)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Virat Kohli</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B5" t="str">
-        <v>IND - BAT (585 pts)</v>
+        <v>SA - AR (705 pts)</v>
       </c>
       <c r="C5" t="str">
-        <v>(585 pts)</v>
+        <v>(705 pts)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Mitchell Santner</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B6" t="str">
-        <v>NZ - AR (580 pts)</v>
+        <v>IND - AR (648 pts)</v>
       </c>
       <c r="C6" t="str">
-        <v>(580 pts)</v>
+        <v>(648 pts)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Marco Jansen</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B7" t="str">
-        <v>SA - AR (669 pts)</v>
+        <v>AUS - BOWL (638 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(669 pts)</v>
+        <v>(638 pts)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Adam Zampa</v>
+        <v>David Warner</v>
       </c>
       <c r="B8" t="str">
-        <v>AUS - BOWL (638 pts)</v>
+        <v>AUS - BAT (619 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(638 pts)</v>
+        <v>(619 pts)</v>
       </c>
     </row>
     <row r="9">
@@ -484,10 +484,10 @@
         <v>Rohit Sharma</v>
       </c>
       <c r="B10" t="str">
-        <v>IND - BAT (549 pts)</v>
+        <v>IND - BAT (609 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(549 pts)</v>
+        <v>(609 pts)</v>
       </c>
     </row>
     <row r="11">
@@ -503,332 +503,332 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B12" t="str">
-        <v>PAK - BOWL (530 pts)</v>
+        <v>NZ - AR (549 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(530 pts)</v>
+        <v>(549 pts)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Glenn Phillips</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B13" t="str">
-        <v>NZ - AR (520 pts)</v>
+        <v>IND - BOWL (543 pts)</v>
       </c>
       <c r="C13" t="str">
-        <v>(520 pts)</v>
+        <v>(543 pts)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B14" t="str">
-        <v>IND - BOWL (535 pts)</v>
+        <v>PAK - BOWL (530 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(535 pts)</v>
+        <v>(530 pts)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B15" t="str">
-        <v>NZ - AR (549 pts)</v>
+        <v>NZ - AR (580 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(549 pts)</v>
+        <v>(580 pts)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B16" t="str">
-        <v>BAN - AR (505 pts)</v>
+        <v>IND - BOWL (522 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(505 pts)</v>
+        <v>(522 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Bas de Leede</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B17" t="str">
-        <v>NED - AR (504 pts)</v>
+        <v>NZ - AR (520 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(504 pts)</v>
+        <v>(520 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B18" t="str">
-        <v>SA - WK (502 pts)</v>
+        <v>SA - AR (514 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(502 pts)</v>
+        <v>(514 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Aiden Markram</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B19" t="str">
-        <v>SA - AR (491 pts)</v>
+        <v>SA - WK (507 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(491 pts)</v>
+        <v>(507 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Mohammad Shami</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B20" t="str">
-        <v>IND - BOWL (460 pts)</v>
+        <v>BAN - AR (505 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(460 pts)</v>
+        <v>(505 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B21" t="str">
-        <v>PAK - BAT (458 pts)</v>
+        <v>SL - WK (482 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(458 pts)</v>
+        <v>(482 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Kusal Mendis</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B22" t="str">
-        <v>SL - WK (482 pts)</v>
+        <v>NED - AR (504 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(482 pts)</v>
+        <v>(504 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B23" t="str">
-        <v>SL - WK (450 pts)</v>
+        <v>PAK - BAT (458 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(450 pts)</v>
+        <v>(458 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Logan van Beek</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B24" t="str">
-        <v>NED - BOWL (449 pts)</v>
+        <v>SA - BOWL (486 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(449 pts)</v>
+        <v>(486 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B25" t="str">
-        <v>SA - BOWL (449 pts)</v>
+        <v>AFG - AR (455 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(449 pts)</v>
+        <v>(455 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Devon Conway</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B26" t="str">
-        <v>NZ - WK (445 pts)</v>
+        <v>SL - WK (450 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(445 pts)</v>
+        <v>(450 pts)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B27" t="str">
-        <v>SA - BOWL (437 pts)</v>
+        <v>SA - BOWL (453 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(437 pts)</v>
+        <v>(453 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Pat Cummins</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B28" t="str">
-        <v>AUS - BOWL (434 pts)</v>
+        <v>SA - BAT (489 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(434 pts)</v>
+        <v>(489 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B29" t="str">
-        <v>AUS - AR (432 pts)</v>
+        <v>IND - BOWL (448 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(432 pts)</v>
+        <v>(448 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Adil Rashid</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B30" t="str">
-        <v>ENG - BOWL (424 pts)</v>
+        <v>NZ - WK (445 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(424 pts)</v>
+        <v>(445 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B31" t="str">
-        <v>IND - AR (423 pts)</v>
+        <v>NED - BOWL (449 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(423 pts)</v>
+        <v>(449 pts)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B32" t="str">
-        <v>SA - BOWL (414 pts)</v>
+        <v>SA - BOWL (449 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(414 pts)</v>
+        <v>(449 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Haris Rauf</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B33" t="str">
-        <v>PAK - BOWL (413 pts)</v>
+        <v>AUS - BOWL (434 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(413 pts)</v>
+        <v>(434 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Matt Henry</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B34" t="str">
-        <v>NZ - BOWL (407 pts)</v>
+        <v>AUS - AR (432 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(407 pts)</v>
+        <v>(432 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Babar Azam</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B35" t="str">
-        <v>PAK - BAT (404 pts)</v>
+        <v>IND - BAT (428 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(404 pts)</v>
+        <v>(428 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Colin Ackermann</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B36" t="str">
-        <v>NED - AR (403 pts)</v>
+        <v>NZ - BOWL (407 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(403 pts)</v>
+        <v>(407 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Mitchell Starc</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B37" t="str">
-        <v>AUS - BOWL (402 pts)</v>
+        <v>IND - BAT (406 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(402 pts)</v>
+        <v>(406 pts)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B38" t="str">
-        <v>BAN - AR (396 pts)</v>
+        <v>PAK - BAT (404 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(396 pts)</v>
+        <v>(404 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Dawid Malan</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B39" t="str">
-        <v>ENG - BAT (389 pts)</v>
+        <v>NED - AR (403 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(389 pts)</v>
+        <v>(403 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B40" t="str">
-        <v>AFG - AR (455 pts)</v>
+        <v>AUS - BOWL (402 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(455 pts)</v>
+        <v>(402 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B41" t="str">
-        <v>SA - BAT (465 pts)</v>
+        <v>BAN - AR (396 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(465 pts)</v>
+        <v>(396 pts)</v>
       </c>
     </row>
     <row r="42">
@@ -836,51 +836,51 @@
         <v>Marnus Labuschagne</v>
       </c>
       <c r="B42" t="str">
-        <v>AUS - BAT (385 pts)</v>
+        <v>AUS - BAT (393 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(385 pts)</v>
+        <v>(393 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Scott Edwards</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B43" t="str">
-        <v>NED - WK (388 pts)</v>
+        <v>ENG - BAT (389 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(388 pts)</v>
+        <v>(389 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Aryan Dutt</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B44" t="str">
-        <v>NED - BOWL (379 pts)</v>
+        <v>NED - WK (388 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(379 pts)</v>
+        <v>(388 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B45" t="str">
-        <v>IND - BOWL (376 pts)</v>
+        <v>SL - BAT (379 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(376 pts)</v>
+        <v>(379 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B46" t="str">
-        <v>SL - BAT (379 pts)</v>
+        <v>NED - BOWL (379 pts)</v>
       </c>
       <c r="C46" t="str">
         <v>(379 pts)</v>
@@ -888,288 +888,288 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>David Miller</v>
       </c>
       <c r="B47" t="str">
-        <v>BAN - AR (362 pts)</v>
+        <v>SA - BAT (371 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(362 pts)</v>
+        <v>(371 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B48" t="str">
-        <v>NED - BOWL (357 pts)</v>
+        <v>NZ - BOWL (364 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(357 pts)</v>
+        <v>(364 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>David Miller</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B49" t="str">
-        <v>SA - BAT (354 pts)</v>
+        <v>BAN - AR (362 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(354 pts)</v>
+        <v>(362 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B50" t="str">
-        <v>AUS - AR (353 pts)</v>
+        <v>NED - BOWL (357 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(353 pts)</v>
+        <v>(357 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Rahmat Shah</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B51" t="str">
-        <v>AFG - AR (349 pts)</v>
+        <v>AUS - AR (353 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(349 pts)</v>
+        <v>(353 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Rashid Khan</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B52" t="str">
-        <v>AFG - BOWL (342 pts)</v>
+        <v>AFG - AR (349 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(342 pts)</v>
+        <v>(349 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B53" t="str">
-        <v>AFG - BAT (340 pts)</v>
+        <v>IND - BOWL (348 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(340 pts)</v>
+        <v>(348 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B54" t="str">
-        <v>AFG - BAT (339 pts)</v>
+        <v>AUS - BOWL (342 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(339 pts)</v>
+        <v>(342 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Trent Boult</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B55" t="str">
-        <v>NZ - BOWL (364 pts)</v>
+        <v>AFG - BOWL (342 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(364 pts)</v>
+        <v>(342 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Chris Woakes</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B56" t="str">
-        <v>ENG - AR (336 pts)</v>
+        <v>AFG - BAT (340 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(336 pts)</v>
+        <v>(340 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B57" t="str">
-        <v>IND - BAT (332 pts)</v>
+        <v>AFG - BAT (339 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(332 pts)</v>
+        <v>(339 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>KL Rahul</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B58" t="str">
-        <v>IND - BAT (386 pts)</v>
+        <v>AFG - WK (339 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(386 pts)</v>
+        <v>(339 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B59" t="str">
-        <v>AFG - WK (339 pts)</v>
+        <v>ENG - AR (334 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(339 pts)</v>
+        <v>(334 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B60" t="str">
-        <v>AUS - BOWL (317 pts)</v>
+        <v>IND - BAT (333 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(317 pts)</v>
+        <v>(333 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B61" t="str">
-        <v>PAK - BAT (325 pts)</v>
+        <v>PAK - BOWL (413 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(325 pts)</v>
+        <v>(413 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Joe Root</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B62" t="str">
-        <v>ENG - BAT (320 pts)</v>
+        <v>ENG - BOWL (424 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(320 pts)</v>
+        <v>(424 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Saud Shakeel</v>
+        <v>Litton Das</v>
       </c>
       <c r="B63" t="str">
-        <v>PAK - BAT (312 pts)</v>
+        <v>BAN - WK (313 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(312 pts)</v>
+        <v>(313 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B64" t="str">
-        <v>AFG - BOWL (310 pts)</v>
+        <v>PAK - BAT (325 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(310 pts)</v>
+        <v>(325 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B65" t="str">
-        <v>PAK - AR (309 pts)</v>
+        <v>NED - AR (312 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(309 pts)</v>
+        <v>(312 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Joe Root</v>
       </c>
       <c r="B66" t="str">
-        <v>IND - BOWL (307 pts)</v>
+        <v>ENG - BAT (320 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(307 pts)</v>
+        <v>(320 pts)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B67" t="str">
-        <v>SL - BOWL (306 pts)</v>
+        <v>PAK - BAT (312 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(306 pts)</v>
+        <v>(312 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Shubman Gill</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B68" t="str">
-        <v>IND - BAT (300 pts)</v>
+        <v>PAK - AR (309 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(300 pts)</v>
+        <v>(309 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Shoriful Islam</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B69" t="str">
-        <v>BAN - BOWL (299 pts)</v>
+        <v>SL - BOWL (306 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(299 pts)</v>
+        <v>(306 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Litton Das</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B70" t="str">
-        <v>BAN - WK (313 pts)</v>
+        <v>BAN - BOWL (299 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(313 pts)</v>
+        <v>(299 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B71" t="str">
-        <v>NED - AR (312 pts)</v>
+        <v>ENG - BOWL (298 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(312 pts)</v>
+        <v>(298 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Mark Wood</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B72" t="str">
-        <v>ENG - BOWL (298 pts)</v>
+        <v>AFG - BOWL (310 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(298 pts)</v>
+        <v>(310 pts)</v>
       </c>
     </row>
     <row r="73">
@@ -1229,134 +1229,134 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>David Willey</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B78" t="str">
-        <v>ENG - AR (270 pts)</v>
+        <v>SA - BOWL (275 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(270 pts)</v>
+        <v>(275 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Steven Smith</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B79" t="str">
-        <v>AUS - BAT (261 pts)</v>
+        <v>AUS - WK (273 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(261 pts)</v>
+        <v>(273 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Josh Inglis</v>
+        <v>David Willey</v>
       </c>
       <c r="B80" t="str">
-        <v>AUS - WK (261 pts)</v>
+        <v>ENG - AR (270 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(261 pts)</v>
+        <v>(270 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Jos Buttler</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B81" t="str">
-        <v>ENG - WK (260 pts)</v>
+        <v>AUS - BAT (261 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(260 pts)</v>
+        <v>(261 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B82" t="str">
-        <v>BAN - WK (256 pts)</v>
+        <v>ENG - WK (260 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(256 pts)</v>
+        <v>(260 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Charith Asalanka</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B83" t="str">
-        <v>SL - BAT (234 pts)</v>
+        <v>BAN - WK (256 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(234 pts)</v>
+        <v>(256 pts)</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B84" t="str">
-        <v>ENG - WK (232 pts)</v>
+        <v>ENG - BOWL (247 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(232 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B85" t="str">
-        <v>SA - BOWL (248 pts)</v>
+        <v>NZ - BOWL (243 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(248 pts)</v>
+        <v>(243 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Reece Topley</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B86" t="str">
-        <v>ENG - BOWL (247 pts)</v>
+        <v>SL - BAT (234 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(247 pts)</v>
+        <v>(234 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Fazalhaq Farooqi</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B87" t="str">
-        <v>AFG - BOWL (226 pts)</v>
+        <v>ENG - WK (232 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(226 pts)</v>
+        <v>(232 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B88" t="str">
-        <v>BAN - AR (219 pts)</v>
+        <v>NED - AR (229 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(219 pts)</v>
+        <v>(229 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Fazalhaq Farooqi</v>
       </c>
       <c r="B89" t="str">
-        <v>NED - AR (229 pts)</v>
+        <v>AFG - BOWL (226 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(229 pts)</v>
+        <v>(226 pts)</v>
       </c>
     </row>
     <row r="90">
@@ -1372,134 +1372,134 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B91" t="str">
-        <v>PAK - BAT (221 pts)</v>
+        <v>PAK - AR (213 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(221 pts)</v>
+        <v>(213 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B92" t="str">
-        <v>AFG - BOWL (212 pts)</v>
+        <v>BAN - AR (219 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(212 pts)</v>
+        <v>(219 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Shadab Khan</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B93" t="str">
-        <v>PAK - AR (213 pts)</v>
+        <v>PAK - BAT (221 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(213 pts)</v>
+        <v>(221 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B94" t="str">
-        <v>NZ - BOWL (243 pts)</v>
+        <v>AFG - BOWL (212 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(243 pts)</v>
+        <v>(212 pts)</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B95" t="str">
-        <v>BAN - BOWL (192 pts)</v>
+        <v>AUS - AR (203 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(192 pts)</v>
+        <v>(203 pts)</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B96" t="str">
-        <v>BAN - BOWL (190 pts)</v>
+        <v>SA - BOWL (198 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(190 pts)</v>
+        <v>(198 pts)</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Liam Livingstone</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B97" t="str">
-        <v>ENG - AR (184 pts)</v>
+        <v>SA - BAT (193 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(184 pts)</v>
+        <v>(193 pts)</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B98" t="str">
-        <v>PAK - AR (182 pts)</v>
+        <v>BAN - BOWL (192 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(182 pts)</v>
+        <v>(192 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B99" t="str">
-        <v>AFG - WK (179 pts)</v>
+        <v>BAN - BOWL (190 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(179 pts)</v>
+        <v>(190 pts)</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B100" t="str">
-        <v>SL - BOWL (179 pts)</v>
+        <v>ENG - AR (184 pts)</v>
       </c>
       <c r="C100" t="str">
-        <v>(179 pts)</v>
+        <v>(184 pts)</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B101" t="str">
-        <v>AUS - AR (178 pts)</v>
+        <v>PAK - AR (182 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(178 pts)</v>
+        <v>(182 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Travis Head</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B102" t="str">
-        <v>AUS - BAT (175 pts)</v>
+        <v>AFG - WK (179 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(175 pts)</v>
+        <v>(179 pts)</v>
       </c>
     </row>
     <row r="103">
@@ -1526,505 +1526,505 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Ben Stokes</v>
+        <v>Travis Head</v>
       </c>
       <c r="B105" t="str">
-        <v>ENG - AR (168 pts)</v>
+        <v>AUS - BAT (175 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(168 pts)</v>
+        <v>(175 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B106" t="str">
-        <v>SA - BOWL (166 pts)</v>
+        <v>SL - BOWL (179 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(166 pts)</v>
+        <v>(179 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Usama Mir</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B107" t="str">
-        <v>PAK - BOWL (158 pts)</v>
+        <v>IND - AR (170 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(158 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Kusal Perera</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B108" t="str">
-        <v>SL - WK (154 pts)</v>
+        <v>ENG - AR (168 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(154 pts)</v>
+        <v>(168 pts)</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Max O'Dowd</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B109" t="str">
-        <v>NED - BAT (150 pts)</v>
+        <v>PAK - BOWL (158 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(150 pts)</v>
+        <v>(158 pts)</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Vikram Singh</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B110" t="str">
-        <v>NED - AR (150 pts)</v>
+        <v>SL - WK (154 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(150 pts)</v>
+        <v>(154 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Noor Ahmad</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B111" t="str">
-        <v>AFG - BOWL (145 pts)</v>
+        <v>NED - BAT (150 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(145 pts)</v>
+        <v>(150 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B112" t="str">
-        <v>SL - AR (138 pts)</v>
+        <v>NED - AR (150 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(138 pts)</v>
+        <v>(150 pts)</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B113" t="str">
-        <v>BAN - BAT (138 pts)</v>
+        <v>AFG - BOWL (145 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(138 pts)</v>
+        <v>(145 pts)</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>James Neesham</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B114" t="str">
-        <v>NZ - AR (136 pts)</v>
+        <v>SL - AR (138 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(136 pts)</v>
+        <v>(138 pts)</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B115" t="str">
-        <v>SA - BAT (135 pts)</v>
+        <v>BAN - BAT (138 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(135 pts)</v>
+        <v>(138 pts)</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Moeen Ali</v>
+        <v>James Neesham</v>
       </c>
       <c r="B116" t="str">
-        <v>ENG - AR (133 pts)</v>
+        <v>NZ - AR (136 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(133 pts)</v>
+        <v>(136 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B117" t="str">
-        <v>BAN - BAT (129 pts)</v>
+        <v>SA - BAT (135 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(129 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Mark Chapman</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B118" t="str">
-        <v>NZ - BAT (124 pts)</v>
+        <v>ENG - AR (133 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(124 pts)</v>
+        <v>(133 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Sam Curran</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B119" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>BAN - BAT (129 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(118 pts)</v>
+        <v>(129 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Dasun Shanaka</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B120" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>NZ - BAT (124 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(114 pts)</v>
+        <v>(124 pts)</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Angelo Mathews</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B121" t="str">
-        <v>SL - BAT (113 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(113 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Gus Atkinson</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B122" t="str">
-        <v>ENG - BOWL (104 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(104 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Angelo Mathews</v>
       </c>
       <c r="B123" t="str">
-        <v>NED - BAT (99 pts)</v>
+        <v>SL - BAT (113 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(99 pts)</v>
+        <v>(113 pts)</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Tim Southee</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B124" t="str">
-        <v>NZ - BOWL (97 pts)</v>
+        <v>IND - BAT (116 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(97 pts)</v>
+        <v>(116 pts)</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B125" t="str">
-        <v>SL - BOWL (96 pts)</v>
+        <v>ENG - BOWL (104 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(96 pts)</v>
+        <v>(104 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Cameron Green</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B126" t="str">
-        <v>AUS - AR (95 pts)</v>
+        <v>NED - BAT (99 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(95 pts)</v>
+        <v>(99 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Temba Bavuma</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B127" t="str">
-        <v>SA - BAT (169 pts)</v>
+        <v>NZ - BOWL (97 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(169 pts)</v>
+        <v>(97 pts)</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B128" t="str">
-        <v>BAN - BOWL (90 pts)</v>
+        <v>SL - BOWL (96 pts)</v>
       </c>
       <c r="C128" t="str">
-        <v>(90 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B129" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>AUS - AR (95 pts)</v>
       </c>
       <c r="C129" t="str">
-        <v>(79 pts)</v>
+        <v>(95 pts)</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B130" t="str">
-        <v>IND - BAT (85 pts)</v>
+        <v>BAN - BOWL (90 pts)</v>
       </c>
       <c r="C130" t="str">
-        <v>(85 pts)</v>
+        <v>(90 pts)</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Hardik Pandya</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B131" t="str">
-        <v>IND - AR (170 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C131" t="str">
-        <v>(170 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Ishan Kishan</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B132" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>IND - BOWL (78 pts)</v>
       </c>
       <c r="C132" t="str">
-        <v>(63 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Wesley Barresi</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B133" t="str">
-        <v>NED - WK (60 pts)</v>
+        <v>NED - AR (71 pts)</v>
       </c>
       <c r="C133" t="str">
-        <v>(60 pts)</v>
+        <v>(71 pts)</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Lizaad Williams</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B134" t="str">
-        <v>SA - BOWL (58 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C134" t="str">
-        <v>(58 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B135" t="str">
-        <v>BAN - BOWL (54 pts)</v>
+        <v>NED - WK (60 pts)</v>
       </c>
       <c r="C135" t="str">
-        <v>(54 pts)</v>
+        <v>(60 pts)</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B136" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>SA - BOWL (58 pts)</v>
       </c>
       <c r="C136" t="str">
-        <v>(53 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B137" t="str">
-        <v>SL - BOWL (40 pts)</v>
+        <v>BAN - BOWL (54 pts)</v>
       </c>
       <c r="C137" t="str">
-        <v>(40 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B138" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C138" t="str">
-        <v>(37 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B139" t="str">
-        <v>SL - BAT (37 pts)</v>
+        <v>SL - BOWL (40 pts)</v>
       </c>
       <c r="C139" t="str">
-        <v>(37 pts)</v>
+        <v>(40 pts)</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Chamika Karunaratne</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B140" t="str">
-        <v>SL - AR (28 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C140" t="str">
-        <v>(28 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B141" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>SL - BAT (37 pts)</v>
       </c>
       <c r="C141" t="str">
-        <v>(27 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Chamika Karunaratne</v>
       </c>
       <c r="B142" t="str">
-        <v>NED - AR (71 pts)</v>
+        <v>SL - AR (28 pts)</v>
       </c>
       <c r="C142" t="str">
-        <v>(71 pts)</v>
+        <v>(28 pts)</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Agha Salman</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B143" t="str">
-        <v>PAK - AR (24 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C143" t="str">
-        <v>(24 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Ryan Klein</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B144" t="str">
-        <v>NED - BOWL (16 pts)</v>
+        <v>PAK - AR (24 pts)</v>
       </c>
       <c r="C144" t="str">
-        <v>(16 pts)</v>
+        <v>(24 pts)</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Dushan Hemantha</v>
       </c>
       <c r="B145" t="str">
-        <v>NED - BOWL (10 pts)</v>
+        <v>SL - AR (18 pts)</v>
       </c>
       <c r="C145" t="str">
-        <v>(10 pts)</v>
+        <v>(18 pts)</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Ish Sodhi</v>
+        <v>Ryan Klein</v>
       </c>
       <c r="B146" t="str">
-        <v>NZ - BOWL (4 pts)</v>
+        <v>NED - BOWL (16 pts)</v>
       </c>
       <c r="C146" t="str">
-        <v>(4 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Alex Carey</v>
+        <v>Shariz Ahmad</v>
       </c>
       <c r="B147" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>NED - BOWL (10 pts)</v>
       </c>
       <c r="C147" t="str">
-        <v>(1 pts)</v>
+        <v>(10 pts)</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Anamul Haque</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B148" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>NZ - BOWL (4 pts)</v>
       </c>
       <c r="C148" t="str">
-        <v>(0 pts)</v>
+        <v>(4 pts)</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Dushan Hemantha</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B149" t="str">
-        <v>SL - AR (18 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C149" t="str">
-        <v>(18 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Sean Abbott</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B150" t="str">
-        <v>AUS - BOWL (0 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C150" t="str">
         <v>(0 pts)</v>
@@ -2043,13 +2043,13 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Shardul Thakur</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B152" t="str">
-        <v>IND - BOWL (78 pts)</v>
+        <v>AUS - BOWL (0 pts)</v>
       </c>
       <c r="C152" t="str">
-        <v>(78 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="153">
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Kyle Jamieson</v>
+        <v>Tom Blundell</v>
       </c>
       <c r="B154" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>NZ - WK (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Binura Fernando</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B155" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C155" t="str">
         <v>(0 pts)</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Andile Phehlukwayo</v>
+        <v>Kyle Jamieson</v>
       </c>
       <c r="B156" t="str">
-        <v>SA - AR (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C156" t="str">
         <v>(0 pts)</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Tom Blundell</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B157" t="str">
-        <v>NZ - WK (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C157" t="str">
         <v>(0 pts)</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Brydon Carse</v>
+        <v>Andile Phehlukwayo</v>
       </c>
       <c r="B158" t="str">
-        <v>ENG - BOWL (0 pts)</v>
+        <v>SA - AR (0 pts)</v>
       </c>
       <c r="C158" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Pramod Madushan</v>
+        <v>Sahan Arachchige</v>
       </c>
       <c r="B159" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Prasidh Krishna</v>
+        <v>Brydon Carse</v>
       </c>
       <c r="B160" t="str">
-        <v>IND - BOWL (0 pts)</v>
+        <v>ENG - BOWL (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Afif Hossain</v>
+        <v>Pramod Madushan</v>
       </c>
       <c r="B161" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C161" t="str">
         <v>(0 pts)</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Riaz Hassan</v>
+        <v>Prasidh Krishna</v>
       </c>
       <c r="B162" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>IND - BOWL (0 pts)</v>
       </c>
       <c r="C162" t="str">
         <v>(0 pts)</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Abdul Rahman</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B163" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C163" t="str">
         <v>(0 pts)</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Shamim Hossain</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B164" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C164" t="str">
         <v>(0 pts)</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Mohammad Naim</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B165" t="str">
         <v>BAN - BAT (0 pts)</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Sahan Arachchige</v>
+        <v>Tanzim Hasan Sakib</v>
       </c>
       <c r="B166" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>BAN - BOWL (0 pts)</v>
       </c>
       <c r="C166" t="str">
         <v>(0 pts)</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Axar Patel</v>
+        <v>Abdul Rahman</v>
       </c>
       <c r="B167" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C167" t="str">
         <v>(0 pts)</v>
@@ -2219,10 +2219,10 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Tanzim Hasan Sakib</v>
+        <v>Mohammad Naim</v>
       </c>
       <c r="B168" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C168" t="str">
         <v>(0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -404,24 +404,24 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B3" t="str">
-        <v>NZ - AR (763 pts)</v>
+        <v>IND - BAT (708 pts)</v>
       </c>
       <c r="C3" t="str">
-        <v>(763 pts)</v>
+        <v>(708 pts)</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Virat Kohli</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B4" t="str">
-        <v>IND - BAT (708 pts)</v>
+        <v>NZ - AR (763 pts)</v>
       </c>
       <c r="C4" t="str">
-        <v>(708 pts)</v>
+        <v>(763 pts)</v>
       </c>
     </row>
     <row r="5">
@@ -448,167 +448,167 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Adam Zampa</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B7" t="str">
-        <v>AUS - BOWL (638 pts)</v>
+        <v>SL - BOWL (668 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(638 pts)</v>
+        <v>(668 pts)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>David Warner</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B8" t="str">
-        <v>AUS - BAT (619 pts)</v>
+        <v>AUS - BOWL (638 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(619 pts)</v>
+        <v>(638 pts)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B9" t="str">
-        <v>SL - BOWL (569 pts)</v>
+        <v>NZ - AR (580 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(569 pts)</v>
+        <v>(580 pts)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Rohit Sharma</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B10" t="str">
-        <v>IND - BAT (609 pts)</v>
+        <v>PAK - WK (549 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(609 pts)</v>
+        <v>(549 pts)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B11" t="str">
-        <v>PAK - WK (549 pts)</v>
+        <v>IND - BAT (609 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(549 pts)</v>
+        <v>(609 pts)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Daryl Mitchell</v>
+        <v>David Warner</v>
       </c>
       <c r="B12" t="str">
-        <v>NZ - AR (549 pts)</v>
+        <v>AUS - BAT (619 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(549 pts)</v>
+        <v>(619 pts)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B13" t="str">
-        <v>IND - BOWL (543 pts)</v>
+        <v>NZ - AR (549 pts)</v>
       </c>
       <c r="C13" t="str">
-        <v>(543 pts)</v>
+        <v>(549 pts)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B14" t="str">
-        <v>PAK - BOWL (530 pts)</v>
+        <v>IND - BOWL (543 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(530 pts)</v>
+        <v>(543 pts)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Mitchell Santner</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B15" t="str">
-        <v>NZ - AR (580 pts)</v>
+        <v>BAN - AR (537 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(580 pts)</v>
+        <v>(537 pts)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Mohammad Shami</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B16" t="str">
-        <v>IND - BOWL (522 pts)</v>
+        <v>PAK - BOWL (530 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(522 pts)</v>
+        <v>(530 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Glenn Phillips</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B17" t="str">
-        <v>NZ - AR (520 pts)</v>
+        <v>BAN - AR (522 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(520 pts)</v>
+        <v>(522 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Aiden Markram</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B18" t="str">
-        <v>SA - AR (514 pts)</v>
+        <v>IND - BOWL (522 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(514 pts)</v>
+        <v>(522 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B19" t="str">
-        <v>SA - WK (507 pts)</v>
+        <v>SL - WK (508 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(507 pts)</v>
+        <v>(508 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B20" t="str">
-        <v>BAN - AR (505 pts)</v>
+        <v>SA - WK (507 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(505 pts)</v>
+        <v>(507 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Kusal Mendis</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B21" t="str">
-        <v>SL - WK (482 pts)</v>
+        <v>SA - AR (514 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(482 pts)</v>
+        <v>(514 pts)</v>
       </c>
     </row>
     <row r="22">
@@ -624,46 +624,46 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B23" t="str">
-        <v>PAK - BAT (458 pts)</v>
+        <v>NZ - AR (520 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(458 pts)</v>
+        <v>(520 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B24" t="str">
-        <v>SA - BOWL (486 pts)</v>
+        <v>SL - WK (499 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(486 pts)</v>
+        <v>(499 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B25" t="str">
-        <v>AFG - AR (455 pts)</v>
+        <v>PAK - BAT (458 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(455 pts)</v>
+        <v>(458 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B26" t="str">
-        <v>SL - WK (450 pts)</v>
+        <v>AFG - AR (455 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(450 pts)</v>
+        <v>(455 pts)</v>
       </c>
     </row>
     <row r="27">
@@ -679,43 +679,43 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B28" t="str">
-        <v>SA - BAT (489 pts)</v>
+        <v>NED - BOWL (449 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(489 pts)</v>
+        <v>(449 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B29" t="str">
-        <v>IND - BOWL (448 pts)</v>
+        <v>SA - BOWL (486 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(448 pts)</v>
+        <v>(486 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Devon Conway</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B30" t="str">
-        <v>NZ - WK (445 pts)</v>
+        <v>SA - BAT (489 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(445 pts)</v>
+        <v>(489 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Logan van Beek</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B31" t="str">
-        <v>NED - BOWL (449 pts)</v>
+        <v>SA - BOWL (449 pts)</v>
       </c>
       <c r="C31" t="str">
         <v>(449 pts)</v>
@@ -723,387 +723,387 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B32" t="str">
-        <v>SA - BOWL (449 pts)</v>
+        <v>NZ - WK (445 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(449 pts)</v>
+        <v>(445 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Pat Cummins</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B33" t="str">
-        <v>AUS - BOWL (434 pts)</v>
+        <v>SL - BAT (442 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(434 pts)</v>
+        <v>(442 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B34" t="str">
-        <v>AUS - AR (432 pts)</v>
+        <v>BAN - AR (435 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(432 pts)</v>
+        <v>(435 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B35" t="str">
-        <v>IND - BAT (428 pts)</v>
+        <v>AUS - BOWL (434 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(428 pts)</v>
+        <v>(434 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Matt Henry</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B36" t="str">
-        <v>NZ - BOWL (407 pts)</v>
+        <v>IND - BAT (428 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(407 pts)</v>
+        <v>(428 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>KL Rahul</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B37" t="str">
-        <v>IND - BAT (406 pts)</v>
+        <v>IND - BOWL (448 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(406 pts)</v>
+        <v>(448 pts)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Babar Azam</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B38" t="str">
-        <v>PAK - BAT (404 pts)</v>
+        <v>AUS - AR (432 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(404 pts)</v>
+        <v>(432 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Colin Ackermann</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B39" t="str">
-        <v>NED - AR (403 pts)</v>
+        <v>NZ - BOWL (407 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(403 pts)</v>
+        <v>(407 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Mitchell Starc</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B40" t="str">
-        <v>AUS - BOWL (402 pts)</v>
+        <v>IND - BAT (406 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(402 pts)</v>
+        <v>(406 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B41" t="str">
-        <v>BAN - AR (396 pts)</v>
+        <v>PAK - BAT (404 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(396 pts)</v>
+        <v>(404 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B42" t="str">
-        <v>AUS - BAT (393 pts)</v>
+        <v>ENG - BOWL (424 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(393 pts)</v>
+        <v>(424 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Dawid Malan</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B43" t="str">
-        <v>ENG - BAT (389 pts)</v>
+        <v>AUS - BOWL (402 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(389 pts)</v>
+        <v>(402 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Scott Edwards</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B44" t="str">
-        <v>NED - WK (388 pts)</v>
+        <v>NED - AR (403 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(388 pts)</v>
+        <v>(403 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B45" t="str">
-        <v>SL - BAT (379 pts)</v>
+        <v>PAK - BOWL (413 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(379 pts)</v>
+        <v>(413 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Aryan Dutt</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B46" t="str">
-        <v>NED - BOWL (379 pts)</v>
+        <v>AUS - BAT (393 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(379 pts)</v>
+        <v>(393 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>David Miller</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B47" t="str">
-        <v>SA - BAT (371 pts)</v>
+        <v>ENG - BAT (389 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(371 pts)</v>
+        <v>(389 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Trent Boult</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B48" t="str">
-        <v>NZ - BOWL (364 pts)</v>
+        <v>SL - BAT (388 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(364 pts)</v>
+        <v>(388 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B49" t="str">
-        <v>BAN - AR (362 pts)</v>
+        <v>NED - BOWL (379 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(362 pts)</v>
+        <v>(379 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Paul van Meekeren</v>
+        <v>David Miller</v>
       </c>
       <c r="B50" t="str">
-        <v>NED - BOWL (357 pts)</v>
+        <v>SA - BAT (371 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(357 pts)</v>
+        <v>(371 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B51" t="str">
-        <v>AUS - AR (353 pts)</v>
+        <v>NED - WK (388 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(353 pts)</v>
+        <v>(388 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Rahmat Shah</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B52" t="str">
-        <v>AFG - AR (349 pts)</v>
+        <v>NZ - BOWL (364 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(349 pts)</v>
+        <v>(364 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Litton Das</v>
       </c>
       <c r="B53" t="str">
-        <v>IND - BOWL (348 pts)</v>
+        <v>BAN - WK (364 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(348 pts)</v>
+        <v>(364 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B54" t="str">
-        <v>AUS - BOWL (342 pts)</v>
+        <v>BAN - BOWL (361 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(342 pts)</v>
+        <v>(361 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Rashid Khan</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B55" t="str">
-        <v>AFG - BOWL (342 pts)</v>
+        <v>AFG - AR (349 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(342 pts)</v>
+        <v>(349 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B56" t="str">
-        <v>AFG - BAT (340 pts)</v>
+        <v>IND - BOWL (348 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(340 pts)</v>
+        <v>(348 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B57" t="str">
-        <v>AFG - BAT (339 pts)</v>
+        <v>AUS - BOWL (342 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(339 pts)</v>
+        <v>(342 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B58" t="str">
-        <v>AFG - WK (339 pts)</v>
+        <v>AFG - BOWL (342 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(339 pts)</v>
+        <v>(342 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Chris Woakes</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B59" t="str">
-        <v>ENG - AR (334 pts)</v>
+        <v>AFG - BAT (340 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(334 pts)</v>
+        <v>(340 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Shubman Gill</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B60" t="str">
-        <v>IND - BAT (333 pts)</v>
+        <v>AFG - BAT (339 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(333 pts)</v>
+        <v>(339 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Haris Rauf</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B61" t="str">
-        <v>PAK - BOWL (413 pts)</v>
+        <v>AFG - WK (339 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(413 pts)</v>
+        <v>(339 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Adil Rashid</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B62" t="str">
-        <v>ENG - BOWL (424 pts)</v>
+        <v>NED - BOWL (357 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(424 pts)</v>
+        <v>(357 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Litton Das</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B63" t="str">
-        <v>BAN - WK (313 pts)</v>
+        <v>AUS - AR (353 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(313 pts)</v>
+        <v>(353 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B64" t="str">
-        <v>PAK - BAT (325 pts)</v>
+        <v>IND - BAT (333 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(325 pts)</v>
+        <v>(333 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B65" t="str">
-        <v>NED - AR (312 pts)</v>
+        <v>ENG - AR (334 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(312 pts)</v>
+        <v>(334 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Joe Root</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B66" t="str">
-        <v>ENG - BAT (320 pts)</v>
+        <v>PAK - BAT (325 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(320 pts)</v>
+        <v>(325 pts)</v>
       </c>
     </row>
     <row r="67">
@@ -1119,57 +1119,57 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B68" t="str">
-        <v>PAK - AR (309 pts)</v>
+        <v>NED - AR (312 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(309 pts)</v>
+        <v>(312 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B69" t="str">
-        <v>SL - BOWL (306 pts)</v>
+        <v>AFG - BOWL (310 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(306 pts)</v>
+        <v>(310 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Shoriful Islam</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B70" t="str">
-        <v>BAN - BOWL (299 pts)</v>
+        <v>PAK - AR (309 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(299 pts)</v>
+        <v>(309 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Mark Wood</v>
+        <v>Joe Root</v>
       </c>
       <c r="B71" t="str">
-        <v>ENG - BOWL (298 pts)</v>
+        <v>ENG - BAT (320 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(298 pts)</v>
+        <v>(320 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B72" t="str">
-        <v>AFG - BOWL (310 pts)</v>
+        <v>ENG - BOWL (298 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(310 pts)</v>
+        <v>(298 pts)</v>
       </c>
     </row>
     <row r="73">
@@ -1185,13 +1185,13 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Hasan Ali</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B74" t="str">
-        <v>PAK - BOWL (287 pts)</v>
+        <v>BAN - WK (303 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(287 pts)</v>
+        <v>(303 pts)</v>
       </c>
     </row>
     <row r="75">
@@ -1229,13 +1229,13 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B78" t="str">
-        <v>SA - BOWL (275 pts)</v>
+        <v>SL - BOWL (310 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(275 pts)</v>
+        <v>(310 pts)</v>
       </c>
     </row>
     <row r="79">
@@ -1262,68 +1262,68 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Steven Smith</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B81" t="str">
-        <v>AUS - BAT (261 pts)</v>
+        <v>SL - BOWL (265 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(261 pts)</v>
+        <v>(265 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Jos Buttler</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B82" t="str">
-        <v>ENG - WK (260 pts)</v>
+        <v>AUS - BAT (261 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(260 pts)</v>
+        <v>(261 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B83" t="str">
-        <v>BAN - WK (256 pts)</v>
+        <v>ENG - WK (260 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(256 pts)</v>
+        <v>(260 pts)</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Reece Topley</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B84" t="str">
-        <v>ENG - BOWL (247 pts)</v>
+        <v>BAN - BAT (248 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(247 pts)</v>
+        <v>(248 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B85" t="str">
-        <v>NZ - BOWL (243 pts)</v>
+        <v>ENG - BOWL (247 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(243 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Charith Asalanka</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B86" t="str">
-        <v>SL - BAT (234 pts)</v>
+        <v>NZ - BOWL (243 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(234 pts)</v>
+        <v>(243 pts)</v>
       </c>
     </row>
     <row r="87">
@@ -1361,24 +1361,24 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Kane Williamson</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B90" t="str">
-        <v>NZ - BAT (225 pts)</v>
+        <v>PAK - BOWL (287 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(225 pts)</v>
+        <v>(287 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Shadab Khan</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B91" t="str">
-        <v>PAK - AR (213 pts)</v>
+        <v>NZ - BAT (225 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(213 pts)</v>
+        <v>(225 pts)</v>
       </c>
     </row>
     <row r="92">
@@ -1394,13 +1394,13 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B93" t="str">
-        <v>PAK - BAT (221 pts)</v>
+        <v>PAK - AR (213 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(221 pts)</v>
+        <v>(213 pts)</v>
       </c>
     </row>
     <row r="94">
@@ -1416,131 +1416,131 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B95" t="str">
-        <v>AUS - AR (203 pts)</v>
+        <v>PAK - BAT (221 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(203 pts)</v>
+        <v>(221 pts)</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B96" t="str">
-        <v>SA - BOWL (198 pts)</v>
+        <v>SA - BOWL (275 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(198 pts)</v>
+        <v>(275 pts)</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Temba Bavuma</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B97" t="str">
-        <v>SA - BAT (193 pts)</v>
+        <v>AUS - AR (203 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(193 pts)</v>
+        <v>(203 pts)</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B98" t="str">
-        <v>BAN - BOWL (192 pts)</v>
+        <v>BAN - BOWL (200 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(192 pts)</v>
+        <v>(200 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B99" t="str">
-        <v>BAN - BOWL (190 pts)</v>
+        <v>SA - BOWL (198 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(190 pts)</v>
+        <v>(198 pts)</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Liam Livingstone</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B100" t="str">
-        <v>ENG - AR (184 pts)</v>
+        <v>SA - BAT (193 pts)</v>
       </c>
       <c r="C100" t="str">
-        <v>(184 pts)</v>
+        <v>(193 pts)</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B101" t="str">
-        <v>PAK - AR (182 pts)</v>
+        <v>BAN - BOWL (192 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(182 pts)</v>
+        <v>(192 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B102" t="str">
-        <v>AFG - WK (179 pts)</v>
+        <v>BAN - BAT (190 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(179 pts)</v>
+        <v>(190 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B103" t="str">
-        <v>BAN - BAT (175 pts)</v>
+        <v>ENG - AR (184 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(175 pts)</v>
+        <v>(184 pts)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Harry Brook</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B104" t="str">
-        <v>ENG - BAT (172 pts)</v>
+        <v>SL - AR (182 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(172 pts)</v>
+        <v>(182 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Travis Head</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B105" t="str">
-        <v>AUS - BAT (175 pts)</v>
+        <v>PAK - AR (182 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(175 pts)</v>
+        <v>(182 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B106" t="str">
-        <v>SL - BOWL (179 pts)</v>
+        <v>AFG - WK (179 pts)</v>
       </c>
       <c r="C106" t="str">
         <v>(179 pts)</v>
@@ -1548,101 +1548,101 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Hardik Pandya</v>
+        <v>Angelo Mathews</v>
       </c>
       <c r="B107" t="str">
-        <v>IND - AR (170 pts)</v>
+        <v>SL - BAT (176 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(170 pts)</v>
+        <v>(176 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Ben Stokes</v>
+        <v>Travis Head</v>
       </c>
       <c r="B108" t="str">
-        <v>ENG - AR (168 pts)</v>
+        <v>AUS - BAT (175 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(168 pts)</v>
+        <v>(175 pts)</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Usama Mir</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B109" t="str">
-        <v>PAK - BOWL (158 pts)</v>
+        <v>ENG - BAT (172 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(158 pts)</v>
+        <v>(172 pts)</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Kusal Perera</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B110" t="str">
-        <v>SL - WK (154 pts)</v>
+        <v>IND - AR (170 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(154 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Max O'Dowd</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B111" t="str">
-        <v>NED - BAT (150 pts)</v>
+        <v>ENG - AR (168 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(150 pts)</v>
+        <v>(168 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Vikram Singh</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B112" t="str">
-        <v>NED - AR (150 pts)</v>
+        <v>BAN - BAT (152 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(150 pts)</v>
+        <v>(152 pts)</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Noor Ahmad</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B113" t="str">
-        <v>AFG - BOWL (145 pts)</v>
+        <v>NED - BAT (150 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(145 pts)</v>
+        <v>(150 pts)</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B114" t="str">
-        <v>SL - AR (138 pts)</v>
+        <v>NED - AR (150 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(138 pts)</v>
+        <v>(150 pts)</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B115" t="str">
-        <v>BAN - BAT (138 pts)</v>
+        <v>AFG - BOWL (145 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(138 pts)</v>
+        <v>(145 pts)</v>
       </c>
     </row>
     <row r="116">
@@ -1680,35 +1680,35 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B119" t="str">
-        <v>BAN - BAT (129 pts)</v>
+        <v>NZ - BAT (124 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(129 pts)</v>
+        <v>(124 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Mark Chapman</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B120" t="str">
-        <v>NZ - BAT (124 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(124 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Sam Curran</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B121" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>IND - BAT (116 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(118 pts)</v>
+        <v>(116 pts)</v>
       </c>
     </row>
     <row r="122">
@@ -1724,197 +1724,197 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Angelo Mathews</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B123" t="str">
-        <v>SL - BAT (113 pts)</v>
+        <v>ENG - BOWL (104 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(113 pts)</v>
+        <v>(104 pts)</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B124" t="str">
-        <v>IND - BAT (116 pts)</v>
+        <v>NED - BAT (99 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(116 pts)</v>
+        <v>(99 pts)</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Gus Atkinson</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B125" t="str">
-        <v>ENG - BOWL (104 pts)</v>
+        <v>NZ - BOWL (97 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(104 pts)</v>
+        <v>(97 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B126" t="str">
-        <v>NED - BAT (99 pts)</v>
+        <v>AUS - AR (95 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(99 pts)</v>
+        <v>(95 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Tim Southee</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B127" t="str">
-        <v>NZ - BOWL (97 pts)</v>
+        <v>SL - BOWL (96 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(97 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B128" t="str">
-        <v>SL - BOWL (96 pts)</v>
+        <v>BAN - BOWL (90 pts)</v>
       </c>
       <c r="C128" t="str">
-        <v>(96 pts)</v>
+        <v>(90 pts)</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Cameron Green</v>
+        <v>Tanzim Hasan Sakib</v>
       </c>
       <c r="B129" t="str">
-        <v>AUS - AR (95 pts)</v>
+        <v>BAN - BOWL (90 pts)</v>
       </c>
       <c r="C129" t="str">
-        <v>(95 pts)</v>
+        <v>(90 pts)</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B130" t="str">
-        <v>BAN - BOWL (90 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C130" t="str">
-        <v>(90 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B131" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>IND - BOWL (78 pts)</v>
       </c>
       <c r="C131" t="str">
-        <v>(79 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Shardul Thakur</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B132" t="str">
-        <v>IND - BOWL (78 pts)</v>
+        <v>NED - AR (71 pts)</v>
       </c>
       <c r="C132" t="str">
-        <v>(78 pts)</v>
+        <v>(71 pts)</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B133" t="str">
-        <v>NED - AR (71 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C133" t="str">
-        <v>(71 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Ishan Kishan</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B134" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>NED - WK (60 pts)</v>
       </c>
       <c r="C134" t="str">
-        <v>(63 pts)</v>
+        <v>(60 pts)</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Wesley Barresi</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B135" t="str">
-        <v>NED - WK (60 pts)</v>
+        <v>SA - BOWL (58 pts)</v>
       </c>
       <c r="C135" t="str">
-        <v>(60 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Lizaad Williams</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B136" t="str">
-        <v>SA - BOWL (58 pts)</v>
+        <v>BAN - BOWL (54 pts)</v>
       </c>
       <c r="C136" t="str">
-        <v>(58 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B137" t="str">
-        <v>BAN - BOWL (54 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C137" t="str">
-        <v>(54 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B138" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>SL - BOWL (48 pts)</v>
       </c>
       <c r="C138" t="str">
-        <v>(53 pts)</v>
+        <v>(48 pts)</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B139" t="str">
-        <v>SL - BOWL (40 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C139" t="str">
-        <v>(40 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B140" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>SL - BAT (37 pts)</v>
       </c>
       <c r="C140" t="str">
         <v>(37 pts)</v>
@@ -1922,109 +1922,109 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Chamika Karunaratne</v>
       </c>
       <c r="B141" t="str">
-        <v>SL - BAT (37 pts)</v>
+        <v>SL - AR (28 pts)</v>
       </c>
       <c r="C141" t="str">
-        <v>(37 pts)</v>
+        <v>(28 pts)</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Chamika Karunaratne</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B142" t="str">
-        <v>SL - AR (28 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C142" t="str">
-        <v>(28 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B143" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>PAK - AR (24 pts)</v>
       </c>
       <c r="C143" t="str">
-        <v>(27 pts)</v>
+        <v>(24 pts)</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Agha Salman</v>
+        <v>Dushan Hemantha</v>
       </c>
       <c r="B144" t="str">
-        <v>PAK - AR (24 pts)</v>
+        <v>SL - AR (18 pts)</v>
       </c>
       <c r="C144" t="str">
-        <v>(24 pts)</v>
+        <v>(18 pts)</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Dushan Hemantha</v>
+        <v>Ryan Klein</v>
       </c>
       <c r="B145" t="str">
-        <v>SL - AR (18 pts)</v>
+        <v>NED - BOWL (16 pts)</v>
       </c>
       <c r="C145" t="str">
-        <v>(18 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Ryan Klein</v>
+        <v>Shariz Ahmad</v>
       </c>
       <c r="B146" t="str">
-        <v>NED - BOWL (16 pts)</v>
+        <v>NED - BOWL (10 pts)</v>
       </c>
       <c r="C146" t="str">
-        <v>(16 pts)</v>
+        <v>(10 pts)</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B147" t="str">
-        <v>NED - BOWL (10 pts)</v>
+        <v>SL - WK (163 pts)</v>
       </c>
       <c r="C147" t="str">
-        <v>(10 pts)</v>
+        <v>(163 pts)</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Ish Sodhi</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B148" t="str">
-        <v>NZ - BOWL (4 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C148" t="str">
-        <v>(4 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Alex Carey</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B149" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C149" t="str">
-        <v>(1 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Anamul Haque</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B150" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>AUS - BOWL (0 pts)</v>
       </c>
       <c r="C150" t="str">
         <v>(0 pts)</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Jason Roy</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B151" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C151" t="str">
         <v>(0 pts)</v>
@@ -2043,21 +2043,21 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Sean Abbott</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B152" t="str">
-        <v>AUS - BOWL (0 pts)</v>
+        <v>NZ - BOWL (4 pts)</v>
       </c>
       <c r="C152" t="str">
-        <v>(0 pts)</v>
+        <v>(4 pts)</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Ashton Agar</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B153" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C153" t="str">
         <v>(0 pts)</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Tom Blundell</v>
+        <v>Kyle Jamieson</v>
       </c>
       <c r="B154" t="str">
-        <v>NZ - WK (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Axar Patel</v>
+        <v>Tom Blundell</v>
       </c>
       <c r="B155" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>NZ - WK (0 pts)</v>
       </c>
       <c r="C155" t="str">
         <v>(0 pts)</v>
@@ -2087,21 +2087,21 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Kyle Jamieson</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B156" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>PAK - BOWL (158 pts)</v>
       </c>
       <c r="C156" t="str">
-        <v>(0 pts)</v>
+        <v>(158 pts)</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Binura Fernando</v>
+        <v>Andile Phehlukwayo</v>
       </c>
       <c r="B157" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>SA - AR (0 pts)</v>
       </c>
       <c r="C157" t="str">
         <v>(0 pts)</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Andile Phehlukwayo</v>
+        <v>Sahan Arachchige</v>
       </c>
       <c r="B158" t="str">
-        <v>SA - AR (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C158" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Sahan Arachchige</v>
+        <v>Brydon Carse</v>
       </c>
       <c r="B159" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>ENG - BOWL (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Brydon Carse</v>
+        <v>Pramod Madushan</v>
       </c>
       <c r="B160" t="str">
-        <v>ENG - BOWL (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Pramod Madushan</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B161" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C161" t="str">
         <v>(0 pts)</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Prasidh Krishna</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B162" t="str">
-        <v>IND - BOWL (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C162" t="str">
         <v>(0 pts)</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Afif Hossain</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B163" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C163" t="str">
         <v>(0 pts)</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Riaz Hassan</v>
+        <v>Prasidh Krishna</v>
       </c>
       <c r="B164" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>IND - BOWL (0 pts)</v>
       </c>
       <c r="C164" t="str">
         <v>(0 pts)</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Tanzim Hasan Sakib</v>
+        <v>Abdul Rahman</v>
       </c>
       <c r="B166" t="str">
-        <v>BAN - BOWL (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C166" t="str">
         <v>(0 pts)</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Abdul Rahman</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B167" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C167" t="str">
         <v>(0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -404,46 +404,46 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Virat Kohli</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B3" t="str">
-        <v>IND - BAT (708 pts)</v>
+        <v>NZ - AR (763 pts)</v>
       </c>
       <c r="C3" t="str">
-        <v>(708 pts)</v>
+        <v>(763 pts)</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B4" t="str">
-        <v>NZ - AR (763 pts)</v>
+        <v>AUS - AR (725 pts)</v>
       </c>
       <c r="C4" t="str">
-        <v>(763 pts)</v>
+        <v>(725 pts)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Marco Jansen</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B5" t="str">
-        <v>SA - AR (705 pts)</v>
+        <v>IND - BAT (708 pts)</v>
       </c>
       <c r="C5" t="str">
-        <v>(705 pts)</v>
+        <v>(708 pts)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B6" t="str">
-        <v>IND - AR (648 pts)</v>
+        <v>AUS - BOWL (667 pts)</v>
       </c>
       <c r="C6" t="str">
-        <v>(648 pts)</v>
+        <v>(667 pts)</v>
       </c>
     </row>
     <row r="7">
@@ -459,35 +459,35 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Adam Zampa</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B8" t="str">
-        <v>AUS - BOWL (638 pts)</v>
+        <v>SA - AR (705 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(638 pts)</v>
+        <v>(705 pts)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Mitchell Santner</v>
+        <v>David Warner</v>
       </c>
       <c r="B9" t="str">
-        <v>NZ - AR (580 pts)</v>
+        <v>AUS - BAT (644 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(580 pts)</v>
+        <v>(644 pts)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B10" t="str">
-        <v>PAK - WK (549 pts)</v>
+        <v>NZ - AR (580 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(549 pts)</v>
+        <v>(580 pts)</v>
       </c>
     </row>
     <row r="11">
@@ -503,13 +503,13 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>David Warner</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B12" t="str">
-        <v>AUS - BAT (619 pts)</v>
+        <v>IND - AR (648 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(619 pts)</v>
+        <v>(648 pts)</v>
       </c>
     </row>
     <row r="13">
@@ -547,175 +547,175 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B16" t="str">
-        <v>PAK - BOWL (530 pts)</v>
+        <v>AFG - AR (546 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(530 pts)</v>
+        <v>(546 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B17" t="str">
-        <v>BAN - AR (522 pts)</v>
+        <v>PAK - WK (549 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(522 pts)</v>
+        <v>(549 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Mohammad Shami</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B18" t="str">
-        <v>IND - BOWL (522 pts)</v>
+        <v>PAK - BOWL (530 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(522 pts)</v>
+        <v>(530 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Kusal Mendis</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B19" t="str">
-        <v>SL - WK (508 pts)</v>
+        <v>BAN - AR (522 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(508 pts)</v>
+        <v>(522 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B20" t="str">
-        <v>SA - WK (507 pts)</v>
+        <v>IND - BOWL (522 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(507 pts)</v>
+        <v>(522 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Aiden Markram</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B21" t="str">
-        <v>SA - AR (514 pts)</v>
+        <v>NZ - AR (520 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(514 pts)</v>
+        <v>(520 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Bas de Leede</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B22" t="str">
-        <v>NED - AR (504 pts)</v>
+        <v>SL - WK (508 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(504 pts)</v>
+        <v>(508 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Glenn Phillips</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B23" t="str">
-        <v>NZ - AR (520 pts)</v>
+        <v>SA - AR (514 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(520 pts)</v>
+        <v>(514 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B24" t="str">
-        <v>SL - WK (499 pts)</v>
+        <v>SA - WK (507 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(499 pts)</v>
+        <v>(507 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B25" t="str">
-        <v>PAK - BAT (458 pts)</v>
+        <v>NED - AR (504 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(458 pts)</v>
+        <v>(504 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B26" t="str">
-        <v>AFG - AR (455 pts)</v>
+        <v>AFG - BAT (503 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(455 pts)</v>
+        <v>(503 pts)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B27" t="str">
-        <v>SA - BOWL (453 pts)</v>
+        <v>SA - BOWL (486 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(453 pts)</v>
+        <v>(486 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Logan van Beek</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B28" t="str">
-        <v>NED - BOWL (449 pts)</v>
+        <v>SA - BOWL (453 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(449 pts)</v>
+        <v>(453 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B29" t="str">
-        <v>SA - BOWL (486 pts)</v>
+        <v>SL - WK (499 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(486 pts)</v>
+        <v>(499 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B30" t="str">
-        <v>SA - BAT (489 pts)</v>
+        <v>NED - BOWL (449 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(489 pts)</v>
+        <v>(449 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B31" t="str">
-        <v>SA - BOWL (449 pts)</v>
+        <v>AFG - BOWL (449 pts)</v>
       </c>
       <c r="C31" t="str">
         <v>(449 pts)</v>
@@ -723,65 +723,65 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Devon Conway</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B32" t="str">
-        <v>NZ - WK (445 pts)</v>
+        <v>SA - BOWL (449 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(445 pts)</v>
+        <v>(449 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B33" t="str">
-        <v>SL - BAT (442 pts)</v>
+        <v>PAK - BAT (458 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(442 pts)</v>
+        <v>(458 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B34" t="str">
-        <v>BAN - AR (435 pts)</v>
+        <v>AUS - BOWL (451 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(435 pts)</v>
+        <v>(451 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Pat Cummins</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B35" t="str">
-        <v>AUS - BOWL (434 pts)</v>
+        <v>NZ - WK (445 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(434 pts)</v>
+        <v>(445 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B36" t="str">
-        <v>IND - BAT (428 pts)</v>
+        <v>SL - BAT (442 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(428 pts)</v>
+        <v>(442 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B37" t="str">
-        <v>IND - BOWL (448 pts)</v>
+        <v>AUS - BOWL (448 pts)</v>
       </c>
       <c r="C37" t="str">
         <v>(448 pts)</v>
@@ -789,145 +789,145 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B38" t="str">
-        <v>AUS - AR (432 pts)</v>
+        <v>BAN - AR (435 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(432 pts)</v>
+        <v>(435 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Matt Henry</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B39" t="str">
-        <v>NZ - BOWL (407 pts)</v>
+        <v>IND - BAT (428 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(407 pts)</v>
+        <v>(428 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>KL Rahul</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B40" t="str">
-        <v>IND - BAT (406 pts)</v>
+        <v>ENG - BOWL (424 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(406 pts)</v>
+        <v>(424 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Babar Azam</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B41" t="str">
-        <v>PAK - BAT (404 pts)</v>
+        <v>AUS - BOWL (414 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(404 pts)</v>
+        <v>(414 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Adil Rashid</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B42" t="str">
-        <v>ENG - BOWL (424 pts)</v>
+        <v>PAK - BOWL (413 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(424 pts)</v>
+        <v>(413 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Mitchell Starc</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B43" t="str">
-        <v>AUS - BOWL (402 pts)</v>
+        <v>AUS - BAT (411 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(402 pts)</v>
+        <v>(411 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Colin Ackermann</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B44" t="str">
-        <v>NED - AR (403 pts)</v>
+        <v>NZ - BOWL (407 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(403 pts)</v>
+        <v>(407 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Haris Rauf</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B45" t="str">
-        <v>PAK - BOWL (413 pts)</v>
+        <v>IND - BAT (406 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(413 pts)</v>
+        <v>(406 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B46" t="str">
-        <v>AUS - BAT (393 pts)</v>
+        <v>PAK - BAT (404 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(393 pts)</v>
+        <v>(404 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Dawid Malan</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B47" t="str">
-        <v>ENG - BAT (389 pts)</v>
+        <v>NED - AR (403 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(389 pts)</v>
+        <v>(403 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Charith Asalanka</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B48" t="str">
-        <v>SL - BAT (388 pts)</v>
+        <v>AFG - AR (396 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(388 pts)</v>
+        <v>(396 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Aryan Dutt</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B49" t="str">
-        <v>NED - BOWL (379 pts)</v>
+        <v>ENG - BAT (389 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(379 pts)</v>
+        <v>(389 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>David Miller</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B50" t="str">
-        <v>SA - BAT (371 pts)</v>
+        <v>SL - BAT (388 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(371 pts)</v>
+        <v>(388 pts)</v>
       </c>
     </row>
     <row r="51">
@@ -943,178 +943,178 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Trent Boult</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B52" t="str">
-        <v>NZ - BOWL (364 pts)</v>
+        <v>AUS - AR (387 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(364 pts)</v>
+        <v>(387 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Litton Das</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B53" t="str">
-        <v>BAN - WK (364 pts)</v>
+        <v>NED - BOWL (379 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(364 pts)</v>
+        <v>(379 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Shoriful Islam</v>
+        <v>David Miller</v>
       </c>
       <c r="B54" t="str">
-        <v>BAN - BOWL (361 pts)</v>
+        <v>SA - BAT (371 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(361 pts)</v>
+        <v>(371 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Rahmat Shah</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B55" t="str">
-        <v>AFG - AR (349 pts)</v>
+        <v>AFG - BAT (371 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(349 pts)</v>
+        <v>(371 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B56" t="str">
-        <v>IND - BOWL (348 pts)</v>
+        <v>AFG - WK (366 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(348 pts)</v>
+        <v>(366 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B57" t="str">
-        <v>AUS - BOWL (342 pts)</v>
+        <v>NZ - BOWL (364 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(342 pts)</v>
+        <v>(364 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Rashid Khan</v>
+        <v>Litton Das</v>
       </c>
       <c r="B58" t="str">
-        <v>AFG - BOWL (342 pts)</v>
+        <v>BAN - WK (364 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(342 pts)</v>
+        <v>(364 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B59" t="str">
-        <v>AFG - BAT (340 pts)</v>
+        <v>BAN - BOWL (361 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(340 pts)</v>
+        <v>(361 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B60" t="str">
-        <v>AFG - BAT (339 pts)</v>
+        <v>NED - BOWL (357 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(339 pts)</v>
+        <v>(357 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B61" t="str">
-        <v>AFG - WK (339 pts)</v>
+        <v>IND - BOWL (348 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(339 pts)</v>
+        <v>(348 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B62" t="str">
-        <v>NED - BOWL (357 pts)</v>
+        <v>ENG - AR (334 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(357 pts)</v>
+        <v>(334 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B63" t="str">
-        <v>AUS - AR (353 pts)</v>
+        <v>IND - BAT (333 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(353 pts)</v>
+        <v>(333 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Shubman Gill</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B64" t="str">
-        <v>IND - BAT (333 pts)</v>
+        <v>PAK - BAT (325 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(333 pts)</v>
+        <v>(325 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Chris Woakes</v>
+        <v>Joe Root</v>
       </c>
       <c r="B65" t="str">
-        <v>ENG - AR (334 pts)</v>
+        <v>ENG - BAT (320 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(334 pts)</v>
+        <v>(320 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B66" t="str">
-        <v>PAK - BAT (325 pts)</v>
+        <v>AFG - AR (314 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(325 pts)</v>
+        <v>(314 pts)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Saud Shakeel</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B67" t="str">
-        <v>PAK - BAT (312 pts)</v>
+        <v>AFG - BOWL (314 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(312 pts)</v>
+        <v>(314 pts)</v>
       </c>
     </row>
     <row r="68">
@@ -1130,68 +1130,68 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B69" t="str">
-        <v>AFG - BOWL (310 pts)</v>
+        <v>PAK - BAT (312 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(310 pts)</v>
+        <v>(312 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B70" t="str">
-        <v>PAK - AR (309 pts)</v>
+        <v>SL - BOWL (310 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(309 pts)</v>
+        <v>(310 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Joe Root</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B71" t="str">
-        <v>ENG - BAT (320 pts)</v>
+        <v>PAK - AR (309 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(320 pts)</v>
+        <v>(309 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Mark Wood</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B72" t="str">
-        <v>ENG - BOWL (298 pts)</v>
+        <v>SA - BAT (489 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(298 pts)</v>
+        <v>(489 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B73" t="str">
-        <v>AFG - AR (296 pts)</v>
+        <v>ENG - BOWL (298 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(296 pts)</v>
+        <v>(298 pts)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B74" t="str">
-        <v>BAN - WK (303 pts)</v>
+        <v>PAK - BOWL (287 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(303 pts)</v>
+        <v>(287 pts)</v>
       </c>
     </row>
     <row r="75">
@@ -1229,222 +1229,222 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B78" t="str">
-        <v>SL - BOWL (310 pts)</v>
+        <v>SA - BOWL (275 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(310 pts)</v>
+        <v>(275 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Josh Inglis</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B79" t="str">
-        <v>AUS - WK (273 pts)</v>
+        <v>AFG - BOWL (274 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(273 pts)</v>
+        <v>(274 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>David Willey</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B80" t="str">
-        <v>ENG - AR (270 pts)</v>
+        <v>AUS - WK (274 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(270 pts)</v>
+        <v>(274 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>David Willey</v>
       </c>
       <c r="B81" t="str">
-        <v>SL - BOWL (265 pts)</v>
+        <v>ENG - AR (270 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(265 pts)</v>
+        <v>(270 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Steven Smith</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B82" t="str">
-        <v>AUS - BAT (261 pts)</v>
+        <v>SL - BOWL (265 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(261 pts)</v>
+        <v>(265 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Jos Buttler</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B83" t="str">
-        <v>ENG - WK (260 pts)</v>
+        <v>IND - BOWL (448 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(260 pts)</v>
+        <v>(448 pts)</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B84" t="str">
-        <v>BAN - BAT (248 pts)</v>
+        <v>BAN - WK (303 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(248 pts)</v>
+        <v>(303 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Reece Topley</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B85" t="str">
-        <v>ENG - BOWL (247 pts)</v>
+        <v>ENG - WK (260 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(247 pts)</v>
+        <v>(260 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B86" t="str">
-        <v>NZ - BOWL (243 pts)</v>
+        <v>AUS - BAT (261 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(243 pts)</v>
+        <v>(261 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B87" t="str">
-        <v>ENG - WK (232 pts)</v>
+        <v>BAN - BAT (248 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(232 pts)</v>
+        <v>(248 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B88" t="str">
-        <v>NED - AR (229 pts)</v>
+        <v>ENG - BOWL (247 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(229 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Fazalhaq Farooqi</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B89" t="str">
-        <v>AFG - BOWL (226 pts)</v>
+        <v>NZ - BOWL (243 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(226 pts)</v>
+        <v>(243 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Hasan Ali</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B90" t="str">
-        <v>PAK - BOWL (287 pts)</v>
+        <v>ENG - WK (232 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(287 pts)</v>
+        <v>(232 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Kane Williamson</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B91" t="str">
-        <v>NZ - BAT (225 pts)</v>
+        <v>NED - AR (229 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(225 pts)</v>
+        <v>(229 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B92" t="str">
-        <v>BAN - AR (219 pts)</v>
+        <v>NZ - BAT (225 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(219 pts)</v>
+        <v>(225 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Shadab Khan</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B93" t="str">
-        <v>PAK - AR (213 pts)</v>
+        <v>PAK - BAT (221 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(213 pts)</v>
+        <v>(221 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Fazalhaq Farooqi</v>
       </c>
       <c r="B94" t="str">
-        <v>AFG - BOWL (212 pts)</v>
+        <v>AFG - BOWL (226 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(212 pts)</v>
+        <v>(226 pts)</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B95" t="str">
-        <v>PAK - BAT (221 pts)</v>
+        <v>BAN - AR (219 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(221 pts)</v>
+        <v>(219 pts)</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B96" t="str">
-        <v>SA - BOWL (275 pts)</v>
+        <v>AUS - AR (214 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(275 pts)</v>
+        <v>(214 pts)</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B97" t="str">
-        <v>AUS - AR (203 pts)</v>
+        <v>PAK - AR (213 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(203 pts)</v>
+        <v>(213 pts)</v>
       </c>
     </row>
     <row r="98">
@@ -1460,76 +1460,76 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B99" t="str">
-        <v>SA - BOWL (198 pts)</v>
+        <v>AFG - WK (199 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(198 pts)</v>
+        <v>(199 pts)</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Temba Bavuma</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B100" t="str">
-        <v>SA - BAT (193 pts)</v>
+        <v>SA - BOWL (198 pts)</v>
       </c>
       <c r="C100" t="str">
-        <v>(193 pts)</v>
+        <v>(198 pts)</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B101" t="str">
-        <v>BAN - BOWL (192 pts)</v>
+        <v>SA - BAT (193 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(192 pts)</v>
+        <v>(193 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B102" t="str">
-        <v>BAN - BAT (190 pts)</v>
+        <v>BAN - BOWL (192 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(190 pts)</v>
+        <v>(192 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Liam Livingstone</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B103" t="str">
-        <v>ENG - AR (184 pts)</v>
+        <v>BAN - BAT (190 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(184 pts)</v>
+        <v>(190 pts)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B104" t="str">
-        <v>SL - AR (182 pts)</v>
+        <v>ENG - AR (184 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(182 pts)</v>
+        <v>(184 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B105" t="str">
-        <v>PAK - AR (182 pts)</v>
+        <v>SL - AR (182 pts)</v>
       </c>
       <c r="C105" t="str">
         <v>(182 pts)</v>
@@ -1537,13 +1537,13 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B106" t="str">
-        <v>AFG - WK (179 pts)</v>
+        <v>PAK - AR (182 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(179 pts)</v>
+        <v>(182 pts)</v>
       </c>
     </row>
     <row r="107">
@@ -1562,10 +1562,10 @@
         <v>Travis Head</v>
       </c>
       <c r="B108" t="str">
-        <v>AUS - BAT (175 pts)</v>
+        <v>AUS - BAT (176 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(175 pts)</v>
+        <v>(176 pts)</v>
       </c>
     </row>
     <row r="109">
@@ -1603,343 +1603,343 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B112" t="str">
-        <v>BAN - BAT (152 pts)</v>
+        <v>SL - WK (163 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(152 pts)</v>
+        <v>(163 pts)</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Max O'Dowd</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B113" t="str">
-        <v>NED - BAT (150 pts)</v>
+        <v>PAK - BOWL (158 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(150 pts)</v>
+        <v>(158 pts)</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Vikram Singh</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B114" t="str">
-        <v>NED - AR (150 pts)</v>
+        <v>AFG - BOWL (153 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(150 pts)</v>
+        <v>(153 pts)</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Noor Ahmad</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B115" t="str">
-        <v>AFG - BOWL (145 pts)</v>
+        <v>BAN - BAT (152 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(145 pts)</v>
+        <v>(152 pts)</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>James Neesham</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B116" t="str">
-        <v>NZ - AR (136 pts)</v>
+        <v>NED - BAT (150 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(136 pts)</v>
+        <v>(150 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B117" t="str">
-        <v>SA - BAT (135 pts)</v>
+        <v>NED - AR (150 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(135 pts)</v>
+        <v>(150 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Moeen Ali</v>
+        <v>James Neesham</v>
       </c>
       <c r="B118" t="str">
-        <v>ENG - AR (133 pts)</v>
+        <v>NZ - AR (136 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(133 pts)</v>
+        <v>(136 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Mark Chapman</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B119" t="str">
-        <v>NZ - BAT (124 pts)</v>
+        <v>SA - BAT (135 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(124 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Sam Curran</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B120" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>ENG - AR (133 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(118 pts)</v>
+        <v>(133 pts)</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B121" t="str">
-        <v>IND - BAT (116 pts)</v>
+        <v>NZ - BAT (124 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(116 pts)</v>
+        <v>(124 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Dasun Shanaka</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B122" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(114 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Gus Atkinson</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B123" t="str">
-        <v>ENG - BOWL (104 pts)</v>
+        <v>IND - BAT (116 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(104 pts)</v>
+        <v>(116 pts)</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B124" t="str">
-        <v>NED - BAT (99 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(99 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Tim Southee</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B125" t="str">
-        <v>NZ - BOWL (97 pts)</v>
+        <v>ENG - BOWL (104 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(97 pts)</v>
+        <v>(104 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Cameron Green</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B126" t="str">
-        <v>AUS - AR (95 pts)</v>
+        <v>NED - BAT (99 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(95 pts)</v>
+        <v>(99 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B127" t="str">
-        <v>SL - BOWL (96 pts)</v>
+        <v>NZ - BOWL (97 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(96 pts)</v>
+        <v>(97 pts)</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B128" t="str">
-        <v>BAN - BOWL (90 pts)</v>
+        <v>SL - BOWL (96 pts)</v>
       </c>
       <c r="C128" t="str">
-        <v>(90 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Tanzim Hasan Sakib</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B129" t="str">
-        <v>BAN - BOWL (90 pts)</v>
+        <v>AUS - AR (95 pts)</v>
       </c>
       <c r="C129" t="str">
-        <v>(90 pts)</v>
+        <v>(95 pts)</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Tanzim Hasan Sakib</v>
       </c>
       <c r="B130" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>BAN - BOWL (91 pts)</v>
       </c>
       <c r="C130" t="str">
-        <v>(79 pts)</v>
+        <v>(91 pts)</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Shardul Thakur</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B131" t="str">
-        <v>IND - BOWL (78 pts)</v>
+        <v>BAN - BOWL (90 pts)</v>
       </c>
       <c r="C131" t="str">
-        <v>(78 pts)</v>
+        <v>(90 pts)</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B132" t="str">
-        <v>NED - AR (71 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C132" t="str">
-        <v>(71 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Ishan Kishan</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B133" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>IND - BOWL (78 pts)</v>
       </c>
       <c r="C133" t="str">
-        <v>(63 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Wesley Barresi</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B134" t="str">
-        <v>NED - WK (60 pts)</v>
+        <v>NED - AR (71 pts)</v>
       </c>
       <c r="C134" t="str">
-        <v>(60 pts)</v>
+        <v>(71 pts)</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Lizaad Williams</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B135" t="str">
-        <v>SA - BOWL (58 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C135" t="str">
-        <v>(58 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B136" t="str">
-        <v>BAN - BOWL (54 pts)</v>
+        <v>NED - WK (60 pts)</v>
       </c>
       <c r="C136" t="str">
-        <v>(54 pts)</v>
+        <v>(60 pts)</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B137" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>SA - BOWL (58 pts)</v>
       </c>
       <c r="C137" t="str">
-        <v>(53 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B138" t="str">
-        <v>SL - BOWL (48 pts)</v>
+        <v>BAN - BOWL (54 pts)</v>
       </c>
       <c r="C138" t="str">
-        <v>(48 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B139" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C139" t="str">
-        <v>(37 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B140" t="str">
-        <v>SL - BAT (37 pts)</v>
+        <v>SL - BOWL (48 pts)</v>
       </c>
       <c r="C140" t="str">
-        <v>(37 pts)</v>
+        <v>(48 pts)</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Chamika Karunaratne</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B141" t="str">
-        <v>SL - AR (28 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C141" t="str">
-        <v>(28 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B142" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>SL - BAT (37 pts)</v>
       </c>
       <c r="C142" t="str">
-        <v>(27 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="143">
@@ -1977,57 +1977,57 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B146" t="str">
-        <v>NED - BOWL (10 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C146" t="str">
-        <v>(10 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Kusal Perera</v>
+        <v>Chamika Karunaratne</v>
       </c>
       <c r="B147" t="str">
-        <v>SL - WK (163 pts)</v>
+        <v>SL - AR (28 pts)</v>
       </c>
       <c r="C147" t="str">
-        <v>(163 pts)</v>
+        <v>(28 pts)</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Alex Carey</v>
+        <v>Shariz Ahmad</v>
       </c>
       <c r="B148" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>NED - BOWL (10 pts)</v>
       </c>
       <c r="C148" t="str">
-        <v>(1 pts)</v>
+        <v>(10 pts)</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Anamul Haque</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B149" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>NZ - BOWL (4 pts)</v>
       </c>
       <c r="C149" t="str">
-        <v>(0 pts)</v>
+        <v>(4 pts)</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Sean Abbott</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B150" t="str">
-        <v>AUS - BOWL (0 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C150" t="str">
-        <v>(0 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="151">
@@ -2043,21 +2043,21 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Ish Sodhi</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B152" t="str">
-        <v>NZ - BOWL (4 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C152" t="str">
-        <v>(4 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Jason Roy</v>
+        <v>Tom Blundell</v>
       </c>
       <c r="B153" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>NZ - WK (0 pts)</v>
       </c>
       <c r="C153" t="str">
         <v>(0 pts)</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Kyle Jamieson</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B154" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Tom Blundell</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B155" t="str">
-        <v>NZ - WK (0 pts)</v>
+        <v>AUS - BOWL (0 pts)</v>
       </c>
       <c r="C155" t="str">
         <v>(0 pts)</v>
@@ -2087,21 +2087,21 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Usama Mir</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B156" t="str">
-        <v>PAK - BOWL (158 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C156" t="str">
-        <v>(158 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Andile Phehlukwayo</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B157" t="str">
-        <v>SA - AR (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C157" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Brydon Carse</v>
+        <v>Kyle Jamieson</v>
       </c>
       <c r="B159" t="str">
-        <v>ENG - BOWL (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Pramod Madushan</v>
+        <v>Brydon Carse</v>
       </c>
       <c r="B160" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>ENG - BOWL (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Axar Patel</v>
+        <v>Andile Phehlukwayo</v>
       </c>
       <c r="B161" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>SA - AR (0 pts)</v>
       </c>
       <c r="C161" t="str">
         <v>(0 pts)</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Afif Hossain</v>
+        <v>Pramod Madushan</v>
       </c>
       <c r="B162" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C162" t="str">
         <v>(0 pts)</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Prasidh Krishna</v>
+        <v>Abdul Rahman</v>
       </c>
       <c r="B164" t="str">
-        <v>IND - BOWL (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C164" t="str">
         <v>(0 pts)</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Shamim Hossain</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B165" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C165" t="str">
         <v>(0 pts)</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Abdul Rahman</v>
+        <v>Prasidh Krishna</v>
       </c>
       <c r="B166" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>IND - BOWL (0 pts)</v>
       </c>
       <c r="C166" t="str">
         <v>(0 pts)</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Binura Fernando</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B167" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C167" t="str">
         <v>(0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -437,24 +437,24 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Adam Zampa</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B6" t="str">
-        <v>AUS - BOWL (667 pts)</v>
+        <v>SL - BOWL (668 pts)</v>
       </c>
       <c r="C6" t="str">
-        <v>(667 pts)</v>
+        <v>(668 pts)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B7" t="str">
-        <v>SL - BOWL (668 pts)</v>
+        <v>AUS - BOWL (667 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(668 pts)</v>
+        <v>(667 pts)</v>
       </c>
     </row>
     <row r="8">
@@ -481,43 +481,43 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Mitchell Santner</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B10" t="str">
-        <v>NZ - AR (580 pts)</v>
+        <v>IND - BAT (609 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(580 pts)</v>
+        <v>(609 pts)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Rohit Sharma</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B11" t="str">
-        <v>IND - BAT (609 pts)</v>
+        <v>NED - AR (601 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(609 pts)</v>
+        <v>(601 pts)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B12" t="str">
-        <v>IND - AR (648 pts)</v>
+        <v>NZ - AR (580 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(648 pts)</v>
+        <v>(580 pts)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B13" t="str">
-        <v>NZ - AR (549 pts)</v>
+        <v>PAK - WK (549 pts)</v>
       </c>
       <c r="C13" t="str">
         <v>(549 pts)</v>
@@ -525,255 +525,255 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B14" t="str">
-        <v>IND - BOWL (543 pts)</v>
+        <v>NZ - AR (549 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(543 pts)</v>
+        <v>(549 pts)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B15" t="str">
-        <v>BAN - AR (537 pts)</v>
+        <v>AFG - AR (546 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(537 pts)</v>
+        <v>(546 pts)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B16" t="str">
-        <v>AFG - AR (546 pts)</v>
+        <v>IND - BOWL (543 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(546 pts)</v>
+        <v>(543 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B17" t="str">
-        <v>PAK - WK (549 pts)</v>
+        <v>BAN - AR (537 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(549 pts)</v>
+        <v>(537 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B18" t="str">
-        <v>PAK - BOWL (530 pts)</v>
+        <v>IND - AR (648 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(530 pts)</v>
+        <v>(648 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B19" t="str">
-        <v>BAN - AR (522 pts)</v>
+        <v>PAK - BOWL (530 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(522 pts)</v>
+        <v>(530 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Mohammad Shami</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B20" t="str">
-        <v>IND - BOWL (522 pts)</v>
+        <v>ENG - BOWL (528 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(522 pts)</v>
+        <v>(528 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Glenn Phillips</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B21" t="str">
-        <v>NZ - AR (520 pts)</v>
+        <v>BAN - AR (522 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(520 pts)</v>
+        <v>(522 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Kusal Mendis</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B22" t="str">
-        <v>SL - WK (508 pts)</v>
+        <v>IND - BOWL (522 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(508 pts)</v>
+        <v>(522 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Aiden Markram</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B23" t="str">
-        <v>SA - AR (514 pts)</v>
+        <v>NZ - AR (520 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(514 pts)</v>
+        <v>(520 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B24" t="str">
-        <v>SA - WK (507 pts)</v>
+        <v>NED - BOWL (515 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(507 pts)</v>
+        <v>(515 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Bas de Leede</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B25" t="str">
-        <v>NED - AR (504 pts)</v>
+        <v>ENG - BAT (516 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(504 pts)</v>
+        <v>(516 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B26" t="str">
-        <v>AFG - BAT (503 pts)</v>
+        <v>SA - AR (514 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(503 pts)</v>
+        <v>(514 pts)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B27" t="str">
-        <v>SA - BOWL (486 pts)</v>
+        <v>SL - WK (508 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(486 pts)</v>
+        <v>(508 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B28" t="str">
-        <v>SA - BOWL (453 pts)</v>
+        <v>SA - WK (507 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(453 pts)</v>
+        <v>(507 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B29" t="str">
-        <v>SL - WK (499 pts)</v>
+        <v>AFG - BAT (503 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(499 pts)</v>
+        <v>(503 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Logan van Beek</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B30" t="str">
-        <v>NED - BOWL (449 pts)</v>
+        <v>SL - WK (499 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(449 pts)</v>
+        <v>(499 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Rashid Khan</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B31" t="str">
-        <v>AFG - BOWL (449 pts)</v>
+        <v>PAK - BAT (458 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(449 pts)</v>
+        <v>(458 pts)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B32" t="str">
-        <v>SA - BOWL (449 pts)</v>
+        <v>SA - BOWL (486 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(449 pts)</v>
+        <v>(486 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B33" t="str">
-        <v>PAK - BAT (458 pts)</v>
+        <v>AUS - BOWL (451 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(458 pts)</v>
+        <v>(451 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Pat Cummins</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B34" t="str">
-        <v>AUS - BOWL (451 pts)</v>
+        <v>AFG - BOWL (449 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(451 pts)</v>
+        <v>(449 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Devon Conway</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B35" t="str">
-        <v>NZ - WK (445 pts)</v>
+        <v>SA - BAT (489 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(445 pts)</v>
+        <v>(489 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B36" t="str">
-        <v>SL - BAT (442 pts)</v>
+        <v>NED - WK (449 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(442 pts)</v>
+        <v>(449 pts)</v>
       </c>
     </row>
     <row r="37">
@@ -789,299 +789,299 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B38" t="str">
-        <v>BAN - AR (435 pts)</v>
+        <v>SA - BOWL (449 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(435 pts)</v>
+        <v>(449 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B39" t="str">
-        <v>IND - BAT (428 pts)</v>
+        <v>ENG - AR (445 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(428 pts)</v>
+        <v>(445 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Adil Rashid</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B40" t="str">
-        <v>ENG - BOWL (424 pts)</v>
+        <v>IND - BOWL (448 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(424 pts)</v>
+        <v>(448 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B41" t="str">
-        <v>AUS - BOWL (414 pts)</v>
+        <v>SA - BOWL (453 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(414 pts)</v>
+        <v>(453 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Haris Rauf</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B42" t="str">
-        <v>PAK - BOWL (413 pts)</v>
+        <v>NZ - WK (445 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(413 pts)</v>
+        <v>(445 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B43" t="str">
-        <v>AUS - BAT (411 pts)</v>
+        <v>SL - BAT (442 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(411 pts)</v>
+        <v>(442 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Matt Henry</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B44" t="str">
-        <v>NZ - BOWL (407 pts)</v>
+        <v>BAN - AR (435 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(407 pts)</v>
+        <v>(435 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>KL Rahul</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B45" t="str">
-        <v>IND - BAT (406 pts)</v>
+        <v>NED - BOWL (434 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(406 pts)</v>
+        <v>(434 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Babar Azam</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B46" t="str">
-        <v>PAK - BAT (404 pts)</v>
+        <v>IND - BAT (428 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(404 pts)</v>
+        <v>(428 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Colin Ackermann</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B47" t="str">
-        <v>NED - AR (403 pts)</v>
+        <v>AUS - BOWL (414 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(403 pts)</v>
+        <v>(414 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Rahmat Shah</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B48" t="str">
-        <v>AFG - AR (396 pts)</v>
+        <v>NED - AR (414 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(396 pts)</v>
+        <v>(414 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Dawid Malan</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B49" t="str">
-        <v>ENG - BAT (389 pts)</v>
+        <v>PAK - BOWL (413 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(389 pts)</v>
+        <v>(413 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Charith Asalanka</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B50" t="str">
-        <v>SL - BAT (388 pts)</v>
+        <v>AUS - BAT (411 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(388 pts)</v>
+        <v>(411 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Scott Edwards</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B51" t="str">
-        <v>NED - WK (388 pts)</v>
+        <v>NZ - BOWL (407 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(388 pts)</v>
+        <v>(407 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Mitchell Marsh</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B52" t="str">
-        <v>AUS - AR (387 pts)</v>
+        <v>IND - BAT (406 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(387 pts)</v>
+        <v>(406 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Aryan Dutt</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B53" t="str">
-        <v>NED - BOWL (379 pts)</v>
+        <v>PAK - BAT (404 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(379 pts)</v>
+        <v>(404 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>David Miller</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B54" t="str">
-        <v>SA - BAT (371 pts)</v>
+        <v>NED - BOWL (399 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(371 pts)</v>
+        <v>(399 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B55" t="str">
-        <v>AFG - BAT (371 pts)</v>
+        <v>AFG - AR (396 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(371 pts)</v>
+        <v>(396 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B56" t="str">
-        <v>AFG - WK (366 pts)</v>
+        <v>SL - BAT (388 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(366 pts)</v>
+        <v>(388 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Trent Boult</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B57" t="str">
-        <v>NZ - BOWL (364 pts)</v>
+        <v>AUS - AR (387 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(364 pts)</v>
+        <v>(387 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Litton Das</v>
+        <v>David Miller</v>
       </c>
       <c r="B58" t="str">
-        <v>BAN - WK (364 pts)</v>
+        <v>SA - BAT (371 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(364 pts)</v>
+        <v>(371 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Shoriful Islam</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B59" t="str">
-        <v>BAN - BOWL (361 pts)</v>
+        <v>AFG - BAT (371 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(361 pts)</v>
+        <v>(371 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B60" t="str">
-        <v>NED - BOWL (357 pts)</v>
+        <v>NED - AR (370 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(357 pts)</v>
+        <v>(370 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B61" t="str">
-        <v>IND - BOWL (348 pts)</v>
+        <v>AFG - WK (366 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(348 pts)</v>
+        <v>(366 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Chris Woakes</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B62" t="str">
-        <v>ENG - AR (334 pts)</v>
+        <v>NZ - BOWL (364 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(334 pts)</v>
+        <v>(364 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Shubman Gill</v>
+        <v>Litton Das</v>
       </c>
       <c r="B63" t="str">
-        <v>IND - BAT (333 pts)</v>
+        <v>BAN - WK (364 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(333 pts)</v>
+        <v>(364 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B64" t="str">
-        <v>PAK - BAT (325 pts)</v>
+        <v>BAN - BOWL (361 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(325 pts)</v>
+        <v>(361 pts)</v>
       </c>
     </row>
     <row r="65">
@@ -1089,29 +1089,29 @@
         <v>Joe Root</v>
       </c>
       <c r="B65" t="str">
-        <v>ENG - BAT (320 pts)</v>
+        <v>ENG - BAT (353 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(320 pts)</v>
+        <v>(353 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B66" t="str">
-        <v>AFG - AR (314 pts)</v>
+        <v>IND - BOWL (348 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(314 pts)</v>
+        <v>(348 pts)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B67" t="str">
-        <v>AFG - BOWL (314 pts)</v>
+        <v>AFG - AR (314 pts)</v>
       </c>
       <c r="C67" t="str">
         <v>(314 pts)</v>
@@ -1119,200 +1119,200 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B68" t="str">
-        <v>NED - AR (312 pts)</v>
+        <v>AFG - BOWL (314 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(312 pts)</v>
+        <v>(314 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Saud Shakeel</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B69" t="str">
-        <v>PAK - BAT (312 pts)</v>
+        <v>PAK - BAT (325 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(312 pts)</v>
+        <v>(325 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Kasun Rajitha</v>
+        <v>David Willey</v>
       </c>
       <c r="B70" t="str">
-        <v>SL - BOWL (310 pts)</v>
+        <v>ENG - AR (344 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(310 pts)</v>
+        <v>(344 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B71" t="str">
-        <v>PAK - AR (309 pts)</v>
+        <v>PAK - BAT (312 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(309 pts)</v>
+        <v>(312 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B72" t="str">
-        <v>SA - BAT (489 pts)</v>
+        <v>IND - BAT (333 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(489 pts)</v>
+        <v>(333 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Mark Wood</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B73" t="str">
-        <v>ENG - BOWL (298 pts)</v>
+        <v>ENG - AR (310 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(298 pts)</v>
+        <v>(310 pts)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Hasan Ali</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B74" t="str">
-        <v>PAK - BOWL (287 pts)</v>
+        <v>SL - BOWL (310 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(287 pts)</v>
+        <v>(310 pts)</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Will Young</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B75" t="str">
-        <v>NZ - BAT (286 pts)</v>
+        <v>BAN - WK (303 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(286 pts)</v>
+        <v>(303 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B76" t="str">
-        <v>PAK - BOWL (279 pts)</v>
+        <v>ENG - BOWL (298 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(279 pts)</v>
+        <v>(298 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Tom Latham</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B77" t="str">
-        <v>NZ - WK (277 pts)</v>
+        <v>ENG - WK (289 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(277 pts)</v>
+        <v>(289 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B78" t="str">
-        <v>SA - BOWL (275 pts)</v>
+        <v>PAK - BOWL (287 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(275 pts)</v>
+        <v>(287 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B79" t="str">
-        <v>AFG - BOWL (274 pts)</v>
+        <v>PAK - AR (309 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(274 pts)</v>
+        <v>(309 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Josh Inglis</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B80" t="str">
-        <v>AUS - WK (274 pts)</v>
+        <v>PAK - BOWL (279 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(274 pts)</v>
+        <v>(279 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>David Willey</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B81" t="str">
-        <v>ENG - AR (270 pts)</v>
+        <v>NZ - WK (277 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(270 pts)</v>
+        <v>(277 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B82" t="str">
-        <v>SL - BOWL (265 pts)</v>
+        <v>SA - BOWL (275 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(265 pts)</v>
+        <v>(275 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B83" t="str">
-        <v>IND - BOWL (448 pts)</v>
+        <v>AFG - BOWL (274 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(448 pts)</v>
+        <v>(274 pts)</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B84" t="str">
-        <v>BAN - WK (303 pts)</v>
+        <v>AUS - WK (274 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(303 pts)</v>
+        <v>(274 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Jos Buttler</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B85" t="str">
-        <v>ENG - WK (260 pts)</v>
+        <v>SL - BOWL (265 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(260 pts)</v>
+        <v>(265 pts)</v>
       </c>
     </row>
     <row r="86">
@@ -1328,90 +1328,90 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B87" t="str">
-        <v>BAN - BAT (248 pts)</v>
+        <v>ENG - WK (253 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(248 pts)</v>
+        <v>(253 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Reece Topley</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B88" t="str">
-        <v>ENG - BOWL (247 pts)</v>
+        <v>BAN - BAT (248 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(247 pts)</v>
+        <v>(248 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Will Young</v>
       </c>
       <c r="B89" t="str">
-        <v>NZ - BOWL (243 pts)</v>
+        <v>NZ - BAT (286 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(243 pts)</v>
+        <v>(286 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B90" t="str">
-        <v>ENG - WK (232 pts)</v>
+        <v>ENG - BOWL (247 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(232 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B91" t="str">
-        <v>NED - AR (229 pts)</v>
+        <v>ENG - AR (230 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(229 pts)</v>
+        <v>(230 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Kane Williamson</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B92" t="str">
-        <v>NZ - BAT (225 pts)</v>
+        <v>NZ - BOWL (243 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(225 pts)</v>
+        <v>(243 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B93" t="str">
-        <v>PAK - BAT (221 pts)</v>
+        <v>NED - AR (230 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(221 pts)</v>
+        <v>(230 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Fazalhaq Farooqi</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B94" t="str">
-        <v>AFG - BOWL (226 pts)</v>
+        <v>PAK - BAT (221 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(226 pts)</v>
+        <v>(221 pts)</v>
       </c>
     </row>
     <row r="95">
@@ -1515,32 +1515,32 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Liam Livingstone</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B104" t="str">
-        <v>ENG - AR (184 pts)</v>
+        <v>ENG - BAT (189 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(184 pts)</v>
+        <v>(189 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B105" t="str">
-        <v>SL - AR (182 pts)</v>
+        <v>ENG - AR (184 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(182 pts)</v>
+        <v>(184 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B106" t="str">
-        <v>PAK - AR (182 pts)</v>
+        <v>SL - AR (182 pts)</v>
       </c>
       <c r="C106" t="str">
         <v>(182 pts)</v>
@@ -1548,21 +1548,21 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Angelo Mathews</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B107" t="str">
-        <v>SL - BAT (176 pts)</v>
+        <v>PAK - AR (182 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(176 pts)</v>
+        <v>(182 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Travis Head</v>
+        <v>Angelo Mathews</v>
       </c>
       <c r="B108" t="str">
-        <v>AUS - BAT (176 pts)</v>
+        <v>SL - BAT (176 pts)</v>
       </c>
       <c r="C108" t="str">
         <v>(176 pts)</v>
@@ -1570,13 +1570,13 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Harry Brook</v>
+        <v>Travis Head</v>
       </c>
       <c r="B109" t="str">
-        <v>ENG - BAT (172 pts)</v>
+        <v>AUS - BAT (176 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(172 pts)</v>
+        <v>(176 pts)</v>
       </c>
     </row>
     <row r="110">
@@ -1592,13 +1592,13 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Ben Stokes</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B111" t="str">
-        <v>ENG - AR (168 pts)</v>
+        <v>NED - BAT (164 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(168 pts)</v>
+        <v>(164 pts)</v>
       </c>
     </row>
     <row r="112">
@@ -1614,46 +1614,46 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Usama Mir</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B113" t="str">
-        <v>PAK - BOWL (158 pts)</v>
+        <v>NED - BAT (160 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(158 pts)</v>
+        <v>(160 pts)</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Noor Ahmad</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B114" t="str">
-        <v>AFG - BOWL (153 pts)</v>
+        <v>PAK - BOWL (158 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(153 pts)</v>
+        <v>(158 pts)</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B115" t="str">
-        <v>BAN - BAT (152 pts)</v>
+        <v>AFG - BOWL (153 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(152 pts)</v>
+        <v>(153 pts)</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Max O'Dowd</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B116" t="str">
-        <v>NED - BAT (150 pts)</v>
+        <v>BAN - BAT (152 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(150 pts)</v>
+        <v>(152 pts)</v>
       </c>
     </row>
     <row r="117">
@@ -1691,277 +1691,277 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Moeen Ali</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B120" t="str">
-        <v>ENG - AR (133 pts)</v>
+        <v>NZ - BAT (124 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(133 pts)</v>
+        <v>(124 pts)</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Mark Chapman</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B121" t="str">
-        <v>NZ - BAT (124 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(124 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Sam Curran</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B122" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>IND - BAT (116 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(118 pts)</v>
+        <v>(116 pts)</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B123" t="str">
-        <v>IND - BAT (116 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(116 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Dasun Shanaka</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B124" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>ENG - BOWL (110 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(114 pts)</v>
+        <v>(110 pts)</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Gus Atkinson</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B125" t="str">
-        <v>ENG - BOWL (104 pts)</v>
+        <v>NED - WK (106 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(104 pts)</v>
+        <v>(106 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B126" t="str">
-        <v>NED - BAT (99 pts)</v>
+        <v>NZ - BOWL (97 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(99 pts)</v>
+        <v>(97 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Tim Southee</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B127" t="str">
-        <v>NZ - BOWL (97 pts)</v>
+        <v>SL - BOWL (96 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(97 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B128" t="str">
-        <v>SL - BOWL (96 pts)</v>
+        <v>AUS - AR (95 pts)</v>
       </c>
       <c r="C128" t="str">
-        <v>(96 pts)</v>
+        <v>(95 pts)</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Cameron Green</v>
+        <v>Tanzim Hasan Sakib</v>
       </c>
       <c r="B129" t="str">
-        <v>AUS - AR (95 pts)</v>
+        <v>BAN - BOWL (91 pts)</v>
       </c>
       <c r="C129" t="str">
-        <v>(95 pts)</v>
+        <v>(91 pts)</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Tanzim Hasan Sakib</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B130" t="str">
-        <v>BAN - BOWL (91 pts)</v>
+        <v>BAN - BOWL (90 pts)</v>
       </c>
       <c r="C130" t="str">
-        <v>(91 pts)</v>
+        <v>(90 pts)</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B131" t="str">
-        <v>BAN - BOWL (90 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C131" t="str">
-        <v>(90 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B132" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>IND - BOWL (78 pts)</v>
       </c>
       <c r="C132" t="str">
-        <v>(79 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Shardul Thakur</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B133" t="str">
-        <v>IND - BOWL (78 pts)</v>
+        <v>NED - AR (71 pts)</v>
       </c>
       <c r="C133" t="str">
-        <v>(78 pts)</v>
+        <v>(71 pts)</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B134" t="str">
-        <v>NED - AR (71 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C134" t="str">
-        <v>(71 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Ishan Kishan</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B135" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>SA - BOWL (58 pts)</v>
       </c>
       <c r="C135" t="str">
-        <v>(63 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Wesley Barresi</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B136" t="str">
-        <v>NED - WK (60 pts)</v>
+        <v>BAN - BOWL (54 pts)</v>
       </c>
       <c r="C136" t="str">
-        <v>(60 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Lizaad Williams</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B137" t="str">
-        <v>SA - BOWL (58 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C137" t="str">
-        <v>(58 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B138" t="str">
-        <v>BAN - BOWL (54 pts)</v>
+        <v>SL - BOWL (48 pts)</v>
       </c>
       <c r="C138" t="str">
-        <v>(54 pts)</v>
+        <v>(48 pts)</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B139" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C139" t="str">
-        <v>(53 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B140" t="str">
-        <v>SL - BOWL (48 pts)</v>
+        <v>SL - BAT (37 pts)</v>
       </c>
       <c r="C140" t="str">
-        <v>(48 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Chamika Karunaratne</v>
       </c>
       <c r="B141" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>SL - AR (28 pts)</v>
       </c>
       <c r="C141" t="str">
-        <v>(37 pts)</v>
+        <v>(28 pts)</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Fazalhaq Farooqi</v>
       </c>
       <c r="B142" t="str">
-        <v>SL - BAT (37 pts)</v>
+        <v>AFG - BOWL (226 pts)</v>
       </c>
       <c r="C142" t="str">
-        <v>(37 pts)</v>
+        <v>(226 pts)</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Agha Salman</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B143" t="str">
-        <v>PAK - AR (24 pts)</v>
+        <v>NZ - BAT (225 pts)</v>
       </c>
       <c r="C143" t="str">
-        <v>(24 pts)</v>
+        <v>(225 pts)</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Dushan Hemantha</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B144" t="str">
-        <v>SL - AR (18 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C144" t="str">
-        <v>(18 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="145">
@@ -1977,79 +1977,79 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Shariz Ahmad</v>
       </c>
       <c r="B146" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>NED - BOWL (10 pts)</v>
       </c>
       <c r="C146" t="str">
-        <v>(27 pts)</v>
+        <v>(10 pts)</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Chamika Karunaratne</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B147" t="str">
-        <v>SL - AR (28 pts)</v>
+        <v>NZ - BOWL (4 pts)</v>
       </c>
       <c r="C147" t="str">
-        <v>(28 pts)</v>
+        <v>(4 pts)</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B148" t="str">
-        <v>NED - BOWL (10 pts)</v>
+        <v>PAK - AR (24 pts)</v>
       </c>
       <c r="C148" t="str">
-        <v>(10 pts)</v>
+        <v>(24 pts)</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Ish Sodhi</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B149" t="str">
-        <v>NZ - BOWL (4 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C149" t="str">
-        <v>(4 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Alex Carey</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B150" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C150" t="str">
-        <v>(1 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Ashton Agar</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B151" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C151" t="str">
-        <v>(0 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Jason Roy</v>
+        <v>Dushan Hemantha</v>
       </c>
       <c r="B152" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>SL - AR (18 pts)</v>
       </c>
       <c r="C152" t="str">
-        <v>(0 pts)</v>
+        <v>(18 pts)</v>
       </c>
     </row>
     <row r="153">
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Anamul Haque</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B154" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Sean Abbott</v>
+        <v>Kyle Jamieson</v>
       </c>
       <c r="B155" t="str">
-        <v>AUS - BOWL (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C155" t="str">
         <v>(0 pts)</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Axar Patel</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B156" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C156" t="str">
         <v>(0 pts)</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Binura Fernando</v>
+        <v>Andile Phehlukwayo</v>
       </c>
       <c r="B157" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>SA - AR (0 pts)</v>
       </c>
       <c r="C157" t="str">
         <v>(0 pts)</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Sahan Arachchige</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B158" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C158" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Kyle Jamieson</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B159" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>AUS - BOWL (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Brydon Carse</v>
+        <v>Sahan Arachchige</v>
       </c>
       <c r="B160" t="str">
-        <v>ENG - BOWL (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Andile Phehlukwayo</v>
+        <v>Brydon Carse</v>
       </c>
       <c r="B161" t="str">
-        <v>SA - AR (0 pts)</v>
+        <v>ENG - BOWL (0 pts)</v>
       </c>
       <c r="C161" t="str">
         <v>(0 pts)</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Riaz Hassan</v>
+        <v>Prasidh Krishna</v>
       </c>
       <c r="B163" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>IND - BOWL (0 pts)</v>
       </c>
       <c r="C163" t="str">
         <v>(0 pts)</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Abdul Rahman</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B164" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C164" t="str">
         <v>(0 pts)</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Afif Hossain</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B165" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C165" t="str">
         <v>(0 pts)</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Prasidh Krishna</v>
+        <v>Abdul Rahman</v>
       </c>
       <c r="B166" t="str">
-        <v>IND - BOWL (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C166" t="str">
         <v>(0 pts)</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Shamim Hossain</v>
+        <v>Mohammad Naim</v>
       </c>
       <c r="B167" t="str">
         <v>BAN - BAT (0 pts)</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Mohammad Naim</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B168" t="str">
         <v>BAN - BAT (0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -393,24 +393,24 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Quinton de Kock</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B2" t="str">
-        <v>SA - WK (825 pts)</v>
+        <v>NZ - AR (884 pts)</v>
       </c>
       <c r="C2" t="str">
-        <v>(825 pts)</v>
+        <v>(884 pts)</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B3" t="str">
-        <v>NZ - AR (763 pts)</v>
+        <v>SA - WK (825 pts)</v>
       </c>
       <c r="C3" t="str">
-        <v>(763 pts)</v>
+        <v>(825 pts)</v>
       </c>
     </row>
     <row r="4">
@@ -437,35 +437,35 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B6" t="str">
-        <v>SL - BOWL (668 pts)</v>
+        <v>SA - AR (705 pts)</v>
       </c>
       <c r="C6" t="str">
-        <v>(668 pts)</v>
+        <v>(705 pts)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Adam Zampa</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B7" t="str">
-        <v>AUS - BOWL (667 pts)</v>
+        <v>SL - BOWL (687 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(667 pts)</v>
+        <v>(687 pts)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Marco Jansen</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B8" t="str">
-        <v>SA - AR (705 pts)</v>
+        <v>AUS - BOWL (667 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(705 pts)</v>
+        <v>(667 pts)</v>
       </c>
     </row>
     <row r="9">
@@ -481,156 +481,156 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Rohit Sharma</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B10" t="str">
-        <v>IND - BAT (609 pts)</v>
+        <v>IND - AR (648 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(609 pts)</v>
+        <v>(648 pts)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Bas de Leede</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B11" t="str">
-        <v>NED - AR (601 pts)</v>
+        <v>NZ - AR (656 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(601 pts)</v>
+        <v>(656 pts)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Mitchell Santner</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B12" t="str">
-        <v>NZ - AR (580 pts)</v>
+        <v>NZ - AR (637 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(580 pts)</v>
+        <v>(637 pts)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B13" t="str">
-        <v>PAK - WK (549 pts)</v>
+        <v>IND - BAT (609 pts)</v>
       </c>
       <c r="C13" t="str">
-        <v>(549 pts)</v>
+        <v>(609 pts)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B14" t="str">
-        <v>NZ - AR (549 pts)</v>
+        <v>NZ - AR (544 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(549 pts)</v>
+        <v>(544 pts)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B15" t="str">
-        <v>AFG - AR (546 pts)</v>
+        <v>NED - AR (601 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(546 pts)</v>
+        <v>(601 pts)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B16" t="str">
-        <v>IND - BOWL (543 pts)</v>
+        <v>AFG - AR (546 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(543 pts)</v>
+        <v>(546 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B17" t="str">
-        <v>BAN - AR (537 pts)</v>
+        <v>IND - BOWL (543 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(537 pts)</v>
+        <v>(543 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B18" t="str">
-        <v>IND - AR (648 pts)</v>
+        <v>PAK - BOWL (530 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(648 pts)</v>
+        <v>(530 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B19" t="str">
-        <v>PAK - BOWL (530 pts)</v>
+        <v>BAN - AR (537 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(530 pts)</v>
+        <v>(537 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Adil Rashid</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B20" t="str">
-        <v>ENG - BOWL (528 pts)</v>
+        <v>PAK - WK (549 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(528 pts)</v>
+        <v>(549 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B21" t="str">
-        <v>BAN - AR (522 pts)</v>
+        <v>ENG - BOWL (528 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(522 pts)</v>
+        <v>(528 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Mohammad Shami</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B22" t="str">
-        <v>IND - BOWL (522 pts)</v>
+        <v>SL - WK (519 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(522 pts)</v>
+        <v>(519 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Glenn Phillips</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B23" t="str">
-        <v>NZ - AR (520 pts)</v>
+        <v>IND - BOWL (522 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(520 pts)</v>
+        <v>(522 pts)</v>
       </c>
     </row>
     <row r="24">
@@ -646,145 +646,145 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Dawid Malan</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B25" t="str">
-        <v>ENG - BAT (516 pts)</v>
+        <v>BAN - AR (522 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(516 pts)</v>
+        <v>(522 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Aiden Markram</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B26" t="str">
-        <v>SA - AR (514 pts)</v>
+        <v>ENG - BAT (516 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(514 pts)</v>
+        <v>(516 pts)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Kusal Mendis</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B27" t="str">
-        <v>SL - WK (508 pts)</v>
+        <v>SL - WK (510 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(508 pts)</v>
+        <v>(510 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B28" t="str">
-        <v>SA - WK (507 pts)</v>
+        <v>SA - AR (514 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(507 pts)</v>
+        <v>(514 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B29" t="str">
-        <v>AFG - BAT (503 pts)</v>
+        <v>SA - WK (507 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(503 pts)</v>
+        <v>(507 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B30" t="str">
-        <v>SL - WK (499 pts)</v>
+        <v>NZ - WK (505 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(499 pts)</v>
+        <v>(505 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B31" t="str">
-        <v>PAK - BAT (458 pts)</v>
+        <v>AFG - BAT (503 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(458 pts)</v>
+        <v>(503 pts)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B32" t="str">
-        <v>SA - BOWL (486 pts)</v>
+        <v>SA - BAT (489 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(486 pts)</v>
+        <v>(489 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Pat Cummins</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B33" t="str">
-        <v>AUS - BOWL (451 pts)</v>
+        <v>SA - BOWL (486 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(451 pts)</v>
+        <v>(486 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Rashid Khan</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B34" t="str">
-        <v>AFG - BOWL (449 pts)</v>
+        <v>NZ - BOWL (473 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(449 pts)</v>
+        <v>(473 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B35" t="str">
-        <v>SA - BAT (489 pts)</v>
+        <v>PAK - BAT (458 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(489 pts)</v>
+        <v>(458 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Scott Edwards</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B36" t="str">
-        <v>NED - WK (449 pts)</v>
+        <v>AUS - BOWL (451 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(449 pts)</v>
+        <v>(451 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Mitchell Starc</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B37" t="str">
-        <v>AUS - BOWL (448 pts)</v>
+        <v>AFG - BOWL (449 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(448 pts)</v>
+        <v>(449 pts)</v>
       </c>
     </row>
     <row r="38">
@@ -800,13 +800,13 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Chris Woakes</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B39" t="str">
-        <v>ENG - AR (445 pts)</v>
+        <v>AUS - BOWL (448 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(445 pts)</v>
+        <v>(448 pts)</v>
       </c>
     </row>
     <row r="40">
@@ -833,65 +833,65 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Devon Conway</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B42" t="str">
-        <v>NZ - WK (445 pts)</v>
+        <v>NED - WK (449 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(445 pts)</v>
+        <v>(449 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B43" t="str">
-        <v>SL - BAT (442 pts)</v>
+        <v>BAN - AR (435 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(442 pts)</v>
+        <v>(435 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B44" t="str">
-        <v>BAN - AR (435 pts)</v>
+        <v>NED - BOWL (434 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(435 pts)</v>
+        <v>(434 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Aryan Dutt</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B45" t="str">
-        <v>NED - BOWL (434 pts)</v>
+        <v>SL - BAT (448 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(434 pts)</v>
+        <v>(448 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B46" t="str">
-        <v>IND - BAT (428 pts)</v>
+        <v>ENG - AR (445 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(428 pts)</v>
+        <v>(445 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B47" t="str">
-        <v>AUS - BOWL (414 pts)</v>
+        <v>NED - AR (414 pts)</v>
       </c>
       <c r="C47" t="str">
         <v>(414 pts)</v>
@@ -899,35 +899,35 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Colin Ackermann</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B48" t="str">
-        <v>NED - AR (414 pts)</v>
+        <v>PAK - BOWL (413 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(414 pts)</v>
+        <v>(413 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Haris Rauf</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B49" t="str">
-        <v>PAK - BOWL (413 pts)</v>
+        <v>AUS - BAT (411 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(413 pts)</v>
+        <v>(411 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B50" t="str">
-        <v>AUS - BAT (411 pts)</v>
+        <v>AUS - BOWL (414 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(411 pts)</v>
+        <v>(414 pts)</v>
       </c>
     </row>
     <row r="51">
@@ -987,13 +987,13 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Charith Asalanka</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B56" t="str">
-        <v>SL - BAT (388 pts)</v>
+        <v>IND - BAT (428 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(388 pts)</v>
+        <v>(428 pts)</v>
       </c>
     </row>
     <row r="57">
@@ -1009,21 +1009,21 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>David Miller</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B58" t="str">
-        <v>SA - BAT (371 pts)</v>
+        <v>SL - BAT (409 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(371 pts)</v>
+        <v>(409 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>David Miller</v>
       </c>
       <c r="B59" t="str">
-        <v>AFG - BAT (371 pts)</v>
+        <v>SA - BAT (371 pts)</v>
       </c>
       <c r="C59" t="str">
         <v>(371 pts)</v>
@@ -1031,13 +1031,13 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B60" t="str">
-        <v>NED - AR (370 pts)</v>
+        <v>AFG - BAT (371 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(370 pts)</v>
+        <v>(371 pts)</v>
       </c>
     </row>
     <row r="61">
@@ -1053,13 +1053,13 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Trent Boult</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B62" t="str">
-        <v>NZ - BOWL (364 pts)</v>
+        <v>NED - AR (370 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(364 pts)</v>
+        <v>(370 pts)</v>
       </c>
     </row>
     <row r="63">
@@ -1108,87 +1108,87 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B67" t="str">
-        <v>AFG - AR (314 pts)</v>
+        <v>IND - BAT (333 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(314 pts)</v>
+        <v>(333 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B68" t="str">
-        <v>AFG - BOWL (314 pts)</v>
+        <v>PAK - BAT (325 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(314 pts)</v>
+        <v>(325 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B69" t="str">
-        <v>PAK - BAT (325 pts)</v>
+        <v>AFG - AR (314 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(325 pts)</v>
+        <v>(314 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>David Willey</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B70" t="str">
-        <v>ENG - AR (344 pts)</v>
+        <v>SL - BOWL (335 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(344 pts)</v>
+        <v>(335 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Saud Shakeel</v>
+        <v>David Willey</v>
       </c>
       <c r="B71" t="str">
-        <v>PAK - BAT (312 pts)</v>
+        <v>ENG - AR (344 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(312 pts)</v>
+        <v>(344 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Shubman Gill</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B72" t="str">
-        <v>IND - BAT (333 pts)</v>
+        <v>AFG - BOWL (314 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(333 pts)</v>
+        <v>(314 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Ben Stokes</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B73" t="str">
-        <v>ENG - AR (310 pts)</v>
+        <v>PAK - BAT (312 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(310 pts)</v>
+        <v>(312 pts)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B74" t="str">
-        <v>SL - BOWL (310 pts)</v>
+        <v>ENG - AR (310 pts)</v>
       </c>
       <c r="C74" t="str">
         <v>(310 pts)</v>
@@ -1196,596 +1196,596 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B75" t="str">
-        <v>BAN - WK (303 pts)</v>
+        <v>SL - BOWL (310 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(303 pts)</v>
+        <v>(310 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Mark Wood</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B76" t="str">
-        <v>ENG - BOWL (298 pts)</v>
+        <v>PAK - AR (309 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(298 pts)</v>
+        <v>(309 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Jos Buttler</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B77" t="str">
-        <v>ENG - WK (289 pts)</v>
+        <v>NZ - BOWL (307 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(289 pts)</v>
+        <v>(307 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Hasan Ali</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B78" t="str">
-        <v>PAK - BOWL (287 pts)</v>
+        <v>BAN - WK (303 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(287 pts)</v>
+        <v>(303 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B79" t="str">
-        <v>PAK - AR (309 pts)</v>
+        <v>ENG - BOWL (298 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(309 pts)</v>
+        <v>(298 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B80" t="str">
-        <v>PAK - BOWL (279 pts)</v>
+        <v>ENG - WK (289 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(279 pts)</v>
+        <v>(289 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Tom Latham</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B81" t="str">
-        <v>NZ - WK (277 pts)</v>
+        <v>PAK - BOWL (287 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(277 pts)</v>
+        <v>(287 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Will Young</v>
       </c>
       <c r="B82" t="str">
-        <v>SA - BOWL (275 pts)</v>
+        <v>NZ - BAT (286 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(275 pts)</v>
+        <v>(286 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B83" t="str">
-        <v>AFG - BOWL (274 pts)</v>
+        <v>PAK - BOWL (279 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(274 pts)</v>
+        <v>(279 pts)</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Josh Inglis</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B84" t="str">
-        <v>AUS - WK (274 pts)</v>
+        <v>SA - BOWL (275 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(274 pts)</v>
+        <v>(275 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B85" t="str">
-        <v>SL - BOWL (265 pts)</v>
+        <v>AFG - BOWL (274 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(265 pts)</v>
+        <v>(274 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Steven Smith</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B86" t="str">
-        <v>AUS - BAT (261 pts)</v>
+        <v>AUS - WK (274 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(261 pts)</v>
+        <v>(274 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Angelo Mathews</v>
       </c>
       <c r="B87" t="str">
-        <v>ENG - WK (253 pts)</v>
+        <v>SL - BAT (262 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(253 pts)</v>
+        <v>(262 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B88" t="str">
-        <v>BAN - BAT (248 pts)</v>
+        <v>AUS - BAT (261 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(248 pts)</v>
+        <v>(261 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Will Young</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B89" t="str">
-        <v>NZ - BAT (286 pts)</v>
+        <v>ENG - WK (253 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(286 pts)</v>
+        <v>(253 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Reece Topley</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B90" t="str">
-        <v>ENG - BOWL (247 pts)</v>
+        <v>BAN - BAT (248 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(247 pts)</v>
+        <v>(248 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Moeen Ali</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B91" t="str">
-        <v>ENG - AR (230 pts)</v>
+        <v>ENG - BOWL (247 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(230 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B92" t="str">
-        <v>NZ - BOWL (243 pts)</v>
+        <v>NZ - BAT (245 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(243 pts)</v>
+        <v>(245 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B93" t="str">
-        <v>NED - AR (230 pts)</v>
+        <v>SL - WK (241 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(230 pts)</v>
+        <v>(241 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B94" t="str">
-        <v>PAK - BAT (221 pts)</v>
+        <v>ENG - AR (230 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(221 pts)</v>
+        <v>(230 pts)</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B95" t="str">
-        <v>BAN - AR (219 pts)</v>
+        <v>NED - AR (230 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(219 pts)</v>
+        <v>(230 pts)</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Fazalhaq Farooqi</v>
       </c>
       <c r="B96" t="str">
-        <v>AUS - AR (214 pts)</v>
+        <v>AFG - BOWL (226 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(214 pts)</v>
+        <v>(226 pts)</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Shadab Khan</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B97" t="str">
-        <v>PAK - AR (213 pts)</v>
+        <v>SL - AR (225 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(213 pts)</v>
+        <v>(225 pts)</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B98" t="str">
-        <v>BAN - BOWL (200 pts)</v>
+        <v>PAK - BAT (221 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(200 pts)</v>
+        <v>(221 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B99" t="str">
-        <v>AFG - WK (199 pts)</v>
+        <v>BAN - AR (219 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(199 pts)</v>
+        <v>(219 pts)</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B100" t="str">
-        <v>SA - BOWL (198 pts)</v>
+        <v>AUS - AR (214 pts)</v>
       </c>
       <c r="C100" t="str">
-        <v>(198 pts)</v>
+        <v>(214 pts)</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Temba Bavuma</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B101" t="str">
-        <v>SA - BAT (193 pts)</v>
+        <v>PAK - AR (213 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(193 pts)</v>
+        <v>(213 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B102" t="str">
-        <v>BAN - BOWL (192 pts)</v>
+        <v>BAN - BOWL (200 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(192 pts)</v>
+        <v>(200 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B103" t="str">
-        <v>BAN - BAT (190 pts)</v>
+        <v>AFG - WK (199 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(190 pts)</v>
+        <v>(199 pts)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Harry Brook</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B104" t="str">
-        <v>ENG - BAT (189 pts)</v>
+        <v>SA - BOWL (198 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(189 pts)</v>
+        <v>(198 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Liam Livingstone</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B105" t="str">
-        <v>ENG - AR (184 pts)</v>
+        <v>SA - BAT (193 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(184 pts)</v>
+        <v>(193 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B106" t="str">
-        <v>SL - AR (182 pts)</v>
+        <v>BAN - BOWL (192 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(182 pts)</v>
+        <v>(192 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B107" t="str">
-        <v>PAK - AR (182 pts)</v>
+        <v>BAN - BAT (190 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(182 pts)</v>
+        <v>(190 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Angelo Mathews</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B108" t="str">
-        <v>SL - BAT (176 pts)</v>
+        <v>ENG - BAT (189 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(176 pts)</v>
+        <v>(189 pts)</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Travis Head</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B109" t="str">
-        <v>AUS - BAT (176 pts)</v>
+        <v>ENG - AR (184 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(176 pts)</v>
+        <v>(184 pts)</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Hardik Pandya</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B110" t="str">
-        <v>IND - AR (170 pts)</v>
+        <v>NZ - WK (311 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(170 pts)</v>
+        <v>(311 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B111" t="str">
-        <v>NED - BAT (164 pts)</v>
+        <v>PAK - AR (182 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(164 pts)</v>
+        <v>(182 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Kusal Perera</v>
+        <v>Travis Head</v>
       </c>
       <c r="B112" t="str">
-        <v>SL - WK (163 pts)</v>
+        <v>AUS - BAT (176 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(163 pts)</v>
+        <v>(176 pts)</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Max O'Dowd</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B113" t="str">
-        <v>NED - BAT (160 pts)</v>
+        <v>IND - AR (170 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(160 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Usama Mir</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B114" t="str">
-        <v>PAK - BOWL (158 pts)</v>
+        <v>NED - BAT (164 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(158 pts)</v>
+        <v>(164 pts)</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Noor Ahmad</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B115" t="str">
-        <v>AFG - BOWL (153 pts)</v>
+        <v>NED - BAT (160 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(153 pts)</v>
+        <v>(160 pts)</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B116" t="str">
-        <v>BAN - BAT (152 pts)</v>
+        <v>PAK - BOWL (158 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(152 pts)</v>
+        <v>(158 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Vikram Singh</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B117" t="str">
-        <v>NED - AR (150 pts)</v>
+        <v>AFG - BOWL (153 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(150 pts)</v>
+        <v>(153 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>James Neesham</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B118" t="str">
-        <v>NZ - AR (136 pts)</v>
+        <v>BAN - BAT (152 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(136 pts)</v>
+        <v>(152 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B119" t="str">
-        <v>SA - BAT (135 pts)</v>
+        <v>NED - AR (150 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(135 pts)</v>
+        <v>(150 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Mark Chapman</v>
+        <v>James Neesham</v>
       </c>
       <c r="B120" t="str">
-        <v>NZ - BAT (124 pts)</v>
+        <v>NZ - AR (136 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(124 pts)</v>
+        <v>(136 pts)</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Sam Curran</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B121" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>NZ - BAT (136 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(118 pts)</v>
+        <v>(136 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B122" t="str">
-        <v>IND - BAT (116 pts)</v>
+        <v>SA - BAT (135 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(116 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Dasun Shanaka</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B123" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>NZ - BOWL (126 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(114 pts)</v>
+        <v>(126 pts)</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Gus Atkinson</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B124" t="str">
-        <v>ENG - BOWL (110 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(110 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Wesley Barresi</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B125" t="str">
-        <v>NED - WK (106 pts)</v>
+        <v>ENG - BOWL (110 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(106 pts)</v>
+        <v>(110 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Tim Southee</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B126" t="str">
-        <v>NZ - BOWL (97 pts)</v>
+        <v>SL - BOWL (96 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(97 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B127" t="str">
-        <v>SL - BOWL (96 pts)</v>
+        <v>NED - WK (106 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(96 pts)</v>
+        <v>(106 pts)</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Cameron Green</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B128" t="str">
-        <v>AUS - AR (95 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C128" t="str">
-        <v>(95 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="129">
@@ -1801,24 +1801,24 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B130" t="str">
-        <v>BAN - BOWL (90 pts)</v>
+        <v>SL - BOWL (82 pts)</v>
       </c>
       <c r="C130" t="str">
-        <v>(90 pts)</v>
+        <v>(82 pts)</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B131" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>AUS - AR (95 pts)</v>
       </c>
       <c r="C131" t="str">
-        <v>(79 pts)</v>
+        <v>(95 pts)</v>
       </c>
     </row>
     <row r="132">
@@ -1834,13 +1834,13 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B133" t="str">
-        <v>NED - AR (71 pts)</v>
+        <v>BAN - BOWL (90 pts)</v>
       </c>
       <c r="C133" t="str">
-        <v>(71 pts)</v>
+        <v>(90 pts)</v>
       </c>
     </row>
     <row r="134">
@@ -1856,65 +1856,65 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Lizaad Williams</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B135" t="str">
-        <v>SA - BOWL (58 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C135" t="str">
-        <v>(58 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B136" t="str">
-        <v>BAN - BOWL (54 pts)</v>
+        <v>SA - BOWL (58 pts)</v>
       </c>
       <c r="C136" t="str">
-        <v>(54 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B137" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>BAN - BOWL (54 pts)</v>
       </c>
       <c r="C137" t="str">
-        <v>(53 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B138" t="str">
-        <v>SL - BOWL (48 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C138" t="str">
-        <v>(48 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B139" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>NED - AR (71 pts)</v>
       </c>
       <c r="C139" t="str">
-        <v>(37 pts)</v>
+        <v>(71 pts)</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B140" t="str">
-        <v>SL - BAT (37 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C140" t="str">
         <v>(37 pts)</v>
@@ -1922,98 +1922,98 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Chamika Karunaratne</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B141" t="str">
-        <v>SL - AR (28 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C141" t="str">
-        <v>(28 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Fazalhaq Farooqi</v>
+        <v>Chamika Karunaratne</v>
       </c>
       <c r="B142" t="str">
-        <v>AFG - BOWL (226 pts)</v>
+        <v>SL - AR (39 pts)</v>
       </c>
       <c r="C142" t="str">
-        <v>(226 pts)</v>
+        <v>(39 pts)</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Kane Williamson</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B143" t="str">
-        <v>NZ - BAT (225 pts)</v>
+        <v>IND - BAT (116 pts)</v>
       </c>
       <c r="C143" t="str">
-        <v>(225 pts)</v>
+        <v>(116 pts)</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B144" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>PAK - AR (24 pts)</v>
       </c>
       <c r="C144" t="str">
-        <v>(27 pts)</v>
+        <v>(24 pts)</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Ryan Klein</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B145" t="str">
-        <v>NED - BOWL (16 pts)</v>
+        <v>SL - BAT (37 pts)</v>
       </c>
       <c r="C145" t="str">
-        <v>(16 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Dushan Hemantha</v>
       </c>
       <c r="B146" t="str">
-        <v>NED - BOWL (10 pts)</v>
+        <v>SL - AR (18 pts)</v>
       </c>
       <c r="C146" t="str">
-        <v>(10 pts)</v>
+        <v>(18 pts)</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Ish Sodhi</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B147" t="str">
-        <v>NZ - BOWL (4 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C147" t="str">
-        <v>(4 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Agha Salman</v>
+        <v>Ryan Klein</v>
       </c>
       <c r="B148" t="str">
-        <v>PAK - AR (24 pts)</v>
+        <v>NED - BOWL (16 pts)</v>
       </c>
       <c r="C148" t="str">
-        <v>(24 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Anamul Haque</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B149" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C149" t="str">
         <v>(0 pts)</v>
@@ -2021,35 +2021,35 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Jason Roy</v>
+        <v>Shariz Ahmad</v>
       </c>
       <c r="B150" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>NED - BOWL (10 pts)</v>
       </c>
       <c r="C150" t="str">
-        <v>(0 pts)</v>
+        <v>(10 pts)</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Alex Carey</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B151" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>AUS - BOWL (0 pts)</v>
       </c>
       <c r="C151" t="str">
-        <v>(1 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Dushan Hemantha</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B152" t="str">
-        <v>SL - AR (18 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C152" t="str">
-        <v>(18 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="153">
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Ashton Agar</v>
+        <v>Sahan Arachchige</v>
       </c>
       <c r="B158" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C158" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Sean Abbott</v>
+        <v>Brydon Carse</v>
       </c>
       <c r="B159" t="str">
-        <v>AUS - BOWL (0 pts)</v>
+        <v>ENG - BOWL (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Sahan Arachchige</v>
+        <v>Pramod Madushan</v>
       </c>
       <c r="B160" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Brydon Carse</v>
+        <v>Prasidh Krishna</v>
       </c>
       <c r="B161" t="str">
-        <v>ENG - BOWL (0 pts)</v>
+        <v>IND - BOWL (0 pts)</v>
       </c>
       <c r="C161" t="str">
         <v>(0 pts)</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Pramod Madushan</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B162" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C162" t="str">
         <v>(0 pts)</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Prasidh Krishna</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B163" t="str">
-        <v>IND - BOWL (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C163" t="str">
         <v>(0 pts)</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Afif Hossain</v>
+        <v>Abdul Rahman</v>
       </c>
       <c r="B164" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C164" t="str">
         <v>(0 pts)</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Riaz Hassan</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B165" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C165" t="str">
         <v>(0 pts)</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Abdul Rahman</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B166" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C166" t="str">
         <v>(0 pts)</v>
@@ -2208,18 +2208,18 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Mohammad Naim</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B167" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>NZ - BOWL (4 pts)</v>
       </c>
       <c r="C167" t="str">
-        <v>(0 pts)</v>
+        <v>(4 pts)</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Shamim Hossain</v>
+        <v>Mohammad Naim</v>
       </c>
       <c r="B168" t="str">
         <v>BAN - BAT (0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -393,24 +393,24 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B2" t="str">
-        <v>NZ - AR (884 pts)</v>
+        <v>SA - WK (930 pts)</v>
       </c>
       <c r="C2" t="str">
-        <v>(884 pts)</v>
+        <v>(930 pts)</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Quinton de Kock</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B3" t="str">
-        <v>SA - WK (825 pts)</v>
+        <v>NZ - AR (884 pts)</v>
       </c>
       <c r="C3" t="str">
-        <v>(825 pts)</v>
+        <v>(884 pts)</v>
       </c>
     </row>
     <row r="4">
@@ -448,35 +448,35 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B7" t="str">
-        <v>SL - BOWL (687 pts)</v>
+        <v>AFG - AR (664 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(687 pts)</v>
+        <v>(664 pts)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Adam Zampa</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B8" t="str">
-        <v>AUS - BOWL (667 pts)</v>
+        <v>NZ - AR (656 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(667 pts)</v>
+        <v>(656 pts)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>David Warner</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B9" t="str">
-        <v>AUS - BAT (644 pts)</v>
+        <v>SL - BOWL (687 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(644 pts)</v>
+        <v>(687 pts)</v>
       </c>
     </row>
     <row r="10">
@@ -492,46 +492,46 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Mitchell Santner</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B11" t="str">
-        <v>NZ - AR (656 pts)</v>
+        <v>AUS - BOWL (667 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(656 pts)</v>
+        <v>(667 pts)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Daryl Mitchell</v>
+        <v>David Warner</v>
       </c>
       <c r="B12" t="str">
-        <v>NZ - AR (637 pts)</v>
+        <v>AUS - BAT (644 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(637 pts)</v>
+        <v>(644 pts)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Rohit Sharma</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B13" t="str">
-        <v>IND - BAT (609 pts)</v>
+        <v>NZ - AR (637 pts)</v>
       </c>
       <c r="C13" t="str">
-        <v>(609 pts)</v>
+        <v>(637 pts)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Glenn Phillips</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B14" t="str">
-        <v>NZ - AR (544 pts)</v>
+        <v>IND - BAT (609 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(544 pts)</v>
+        <v>(609 pts)</v>
       </c>
     </row>
     <row r="15">
@@ -547,46 +547,46 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B16" t="str">
-        <v>AFG - AR (546 pts)</v>
+        <v>SA - BAT (581 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(546 pts)</v>
+        <v>(581 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B17" t="str">
-        <v>IND - BOWL (543 pts)</v>
+        <v>SA - BOWL (563 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(543 pts)</v>
+        <v>(563 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B18" t="str">
-        <v>PAK - BOWL (530 pts)</v>
+        <v>SA - AR (554 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(530 pts)</v>
+        <v>(554 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B19" t="str">
-        <v>BAN - AR (537 pts)</v>
+        <v>SA - BOWL (548 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(537 pts)</v>
+        <v>(548 pts)</v>
       </c>
     </row>
     <row r="20">
@@ -602,145 +602,145 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Adil Rashid</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B21" t="str">
-        <v>ENG - BOWL (528 pts)</v>
+        <v>IND - BOWL (543 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(528 pts)</v>
+        <v>(543 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Kusal Mendis</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B22" t="str">
-        <v>SL - WK (519 pts)</v>
+        <v>BAN - AR (537 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(519 pts)</v>
+        <v>(537 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Mohammad Shami</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B23" t="str">
-        <v>IND - BOWL (522 pts)</v>
+        <v>AFG - BOWL (531 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(522 pts)</v>
+        <v>(531 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Logan van Beek</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B24" t="str">
-        <v>NED - BOWL (515 pts)</v>
+        <v>SA - WK (530 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(515 pts)</v>
+        <v>(530 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B25" t="str">
-        <v>BAN - AR (522 pts)</v>
+        <v>NZ - AR (544 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(522 pts)</v>
+        <v>(544 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Dawid Malan</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B26" t="str">
-        <v>ENG - BAT (516 pts)</v>
+        <v>PAK - BOWL (530 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(516 pts)</v>
+        <v>(530 pts)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B27" t="str">
-        <v>SL - WK (510 pts)</v>
+        <v>BAN - AR (522 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(510 pts)</v>
+        <v>(522 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Aiden Markram</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B28" t="str">
-        <v>SA - AR (514 pts)</v>
+        <v>AFG - BAT (523 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(514 pts)</v>
+        <v>(523 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B29" t="str">
-        <v>SA - WK (507 pts)</v>
+        <v>ENG - BOWL (528 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(507 pts)</v>
+        <v>(528 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Devon Conway</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B30" t="str">
-        <v>NZ - WK (505 pts)</v>
+        <v>IND - BOWL (522 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(505 pts)</v>
+        <v>(522 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B31" t="str">
-        <v>AFG - BAT (503 pts)</v>
+        <v>NED - BOWL (515 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(503 pts)</v>
+        <v>(515 pts)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B32" t="str">
-        <v>SA - BAT (489 pts)</v>
+        <v>ENG - BAT (516 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(489 pts)</v>
+        <v>(516 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B33" t="str">
-        <v>SA - BOWL (486 pts)</v>
+        <v>NZ - WK (505 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(486 pts)</v>
+        <v>(505 pts)</v>
       </c>
     </row>
     <row r="34">
@@ -756,43 +756,43 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B35" t="str">
-        <v>PAK - BAT (458 pts)</v>
+        <v>SA - BOWL (471 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(458 pts)</v>
+        <v>(471 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Pat Cummins</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B36" t="str">
-        <v>AUS - BOWL (451 pts)</v>
+        <v>SL - WK (519 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(451 pts)</v>
+        <v>(519 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Rashid Khan</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B37" t="str">
-        <v>AFG - BOWL (449 pts)</v>
+        <v>AUS - BOWL (451 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(449 pts)</v>
+        <v>(451 pts)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B38" t="str">
-        <v>SA - BOWL (449 pts)</v>
+        <v>NED - WK (449 pts)</v>
       </c>
       <c r="C38" t="str">
         <v>(449 pts)</v>
@@ -800,13 +800,13 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Mitchell Starc</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B39" t="str">
-        <v>AUS - BOWL (448 pts)</v>
+        <v>SL - WK (510 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(448 pts)</v>
+        <v>(510 pts)</v>
       </c>
     </row>
     <row r="40">
@@ -822,24 +822,24 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B41" t="str">
-        <v>SA - BOWL (453 pts)</v>
+        <v>SL - BAT (448 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(453 pts)</v>
+        <v>(448 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Scott Edwards</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B42" t="str">
-        <v>NED - WK (449 pts)</v>
+        <v>AUS - BOWL (448 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(449 pts)</v>
+        <v>(448 pts)</v>
       </c>
     </row>
     <row r="43">
@@ -855,43 +855,43 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Aryan Dutt</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B44" t="str">
-        <v>NED - BOWL (434 pts)</v>
+        <v>ENG - AR (445 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(434 pts)</v>
+        <v>(445 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B45" t="str">
-        <v>SL - BAT (448 pts)</v>
+        <v>PAK - BAT (458 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(448 pts)</v>
+        <v>(458 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Chris Woakes</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B46" t="str">
-        <v>ENG - AR (445 pts)</v>
+        <v>NED - BOWL (434 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(445 pts)</v>
+        <v>(434 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Colin Ackermann</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B47" t="str">
-        <v>NED - AR (414 pts)</v>
+        <v>AUS - BOWL (414 pts)</v>
       </c>
       <c r="C47" t="str">
         <v>(414 pts)</v>
@@ -899,134 +899,134 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Haris Rauf</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B48" t="str">
-        <v>PAK - BOWL (413 pts)</v>
+        <v>NED - AR (414 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(413 pts)</v>
+        <v>(414 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B49" t="str">
-        <v>AUS - BAT (411 pts)</v>
+        <v>IND - BAT (428 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(411 pts)</v>
+        <v>(428 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B50" t="str">
-        <v>AUS - BOWL (414 pts)</v>
+        <v>AUS - BAT (411 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(414 pts)</v>
+        <v>(411 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Matt Henry</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B51" t="str">
-        <v>NZ - BOWL (407 pts)</v>
+        <v>PAK - BOWL (413 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(407 pts)</v>
+        <v>(413 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>KL Rahul</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B52" t="str">
-        <v>IND - BAT (406 pts)</v>
+        <v>AFG - AR (428 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(406 pts)</v>
+        <v>(428 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Babar Azam</v>
+        <v>David Miller</v>
       </c>
       <c r="B53" t="str">
-        <v>PAK - BAT (404 pts)</v>
+        <v>SA - BAT (410 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(404 pts)</v>
+        <v>(410 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B54" t="str">
-        <v>NED - BOWL (399 pts)</v>
+        <v>AFG - WK (410 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(399 pts)</v>
+        <v>(410 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Rahmat Shah</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B55" t="str">
-        <v>AFG - AR (396 pts)</v>
+        <v>SL - BAT (409 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(396 pts)</v>
+        <v>(409 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B56" t="str">
-        <v>IND - BAT (428 pts)</v>
+        <v>NZ - BOWL (407 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(428 pts)</v>
+        <v>(407 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Mitchell Marsh</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B57" t="str">
-        <v>AUS - AR (387 pts)</v>
+        <v>IND - BAT (406 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(387 pts)</v>
+        <v>(406 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Charith Asalanka</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B58" t="str">
-        <v>SL - BAT (409 pts)</v>
+        <v>PAK - BAT (404 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(409 pts)</v>
+        <v>(404 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>David Miller</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B59" t="str">
-        <v>SA - BAT (371 pts)</v>
+        <v>NED - BOWL (399 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(371 pts)</v>
+        <v>(399 pts)</v>
       </c>
     </row>
     <row r="60">
@@ -1034,62 +1034,62 @@
         <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B60" t="str">
-        <v>AFG - BAT (371 pts)</v>
+        <v>AFG - BAT (377 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(371 pts)</v>
+        <v>(377 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B61" t="str">
-        <v>AFG - WK (366 pts)</v>
+        <v>NED - AR (370 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(366 pts)</v>
+        <v>(370 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Litton Das</v>
       </c>
       <c r="B62" t="str">
-        <v>NED - AR (370 pts)</v>
+        <v>BAN - WK (364 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(370 pts)</v>
+        <v>(364 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Litton Das</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B63" t="str">
-        <v>BAN - WK (364 pts)</v>
+        <v>BAN - BOWL (361 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(364 pts)</v>
+        <v>(361 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Shoriful Islam</v>
+        <v>Joe Root</v>
       </c>
       <c r="B64" t="str">
-        <v>BAN - BOWL (361 pts)</v>
+        <v>ENG - BAT (353 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(361 pts)</v>
+        <v>(353 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Joe Root</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B65" t="str">
-        <v>ENG - BAT (353 pts)</v>
+        <v>AFG - BOWL (353 pts)</v>
       </c>
       <c r="C65" t="str">
         <v>(353 pts)</v>
@@ -1108,79 +1108,79 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Shubman Gill</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B67" t="str">
-        <v>IND - BAT (333 pts)</v>
+        <v>AFG - AR (392 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(333 pts)</v>
+        <v>(392 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B68" t="str">
-        <v>PAK - BAT (325 pts)</v>
+        <v>AUS - AR (387 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(325 pts)</v>
+        <v>(387 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Mohammad Nabi</v>
+        <v>David Willey</v>
       </c>
       <c r="B69" t="str">
-        <v>AFG - AR (314 pts)</v>
+        <v>ENG - AR (344 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(314 pts)</v>
+        <v>(344 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B70" t="str">
-        <v>SL - BOWL (335 pts)</v>
+        <v>PAK - BAT (325 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(335 pts)</v>
+        <v>(325 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>David Willey</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B71" t="str">
-        <v>ENG - AR (344 pts)</v>
+        <v>SL - BOWL (335 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(344 pts)</v>
+        <v>(335 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B72" t="str">
-        <v>AFG - BOWL (314 pts)</v>
+        <v>PAK - BAT (312 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(314 pts)</v>
+        <v>(312 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Saud Shakeel</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B73" t="str">
-        <v>PAK - BAT (312 pts)</v>
+        <v>NZ - WK (311 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(312 pts)</v>
+        <v>(311 pts)</v>
       </c>
     </row>
     <row r="74">
@@ -1207,35 +1207,35 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B76" t="str">
-        <v>PAK - AR (309 pts)</v>
+        <v>SA - BOWL (325 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(309 pts)</v>
+        <v>(325 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B77" t="str">
-        <v>NZ - BOWL (307 pts)</v>
+        <v>IND - BAT (333 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(307 pts)</v>
+        <v>(333 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B78" t="str">
-        <v>BAN - WK (303 pts)</v>
+        <v>PAK - AR (309 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(303 pts)</v>
+        <v>(309 pts)</v>
       </c>
     </row>
     <row r="79">
@@ -1273,13 +1273,13 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Will Young</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B82" t="str">
-        <v>NZ - BAT (286 pts)</v>
+        <v>NZ - BOWL (307 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(286 pts)</v>
+        <v>(307 pts)</v>
       </c>
     </row>
     <row r="83">
@@ -1295,13 +1295,13 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Will Young</v>
       </c>
       <c r="B84" t="str">
-        <v>SA - BOWL (275 pts)</v>
+        <v>NZ - BAT (286 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(275 pts)</v>
+        <v>(286 pts)</v>
       </c>
     </row>
     <row r="85">
@@ -1309,21 +1309,21 @@
         <v>Naveen-ul-Haq</v>
       </c>
       <c r="B85" t="str">
-        <v>AFG - BOWL (274 pts)</v>
+        <v>AFG - BOWL (286 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(274 pts)</v>
+        <v>(286 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Josh Inglis</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B86" t="str">
-        <v>AUS - WK (274 pts)</v>
+        <v>BAN - WK (303 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(274 pts)</v>
+        <v>(303 pts)</v>
       </c>
     </row>
     <row r="87">
@@ -1339,87 +1339,87 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Steven Smith</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B88" t="str">
-        <v>AUS - BAT (261 pts)</v>
+        <v>AUS - WK (274 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(261 pts)</v>
+        <v>(274 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B89" t="str">
-        <v>ENG - WK (253 pts)</v>
+        <v>AUS - BAT (261 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(253 pts)</v>
+        <v>(261 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B90" t="str">
-        <v>BAN - BAT (248 pts)</v>
+        <v>ENG - WK (253 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(248 pts)</v>
+        <v>(253 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Reece Topley</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B91" t="str">
-        <v>ENG - BOWL (247 pts)</v>
+        <v>BAN - BAT (248 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(247 pts)</v>
+        <v>(248 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Kane Williamson</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B92" t="str">
-        <v>NZ - BAT (245 pts)</v>
+        <v>ENG - BOWL (247 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(245 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Kusal Perera</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B93" t="str">
-        <v>SL - WK (241 pts)</v>
+        <v>NZ - BAT (245 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(241 pts)</v>
+        <v>(245 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Moeen Ali</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B94" t="str">
-        <v>ENG - AR (230 pts)</v>
+        <v>SL - WK (241 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(230 pts)</v>
+        <v>(241 pts)</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B95" t="str">
-        <v>NED - AR (230 pts)</v>
+        <v>ENG - AR (230 pts)</v>
       </c>
       <c r="C95" t="str">
         <v>(230 pts)</v>
@@ -1427,24 +1427,24 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Fazalhaq Farooqi</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B96" t="str">
-        <v>AFG - BOWL (226 pts)</v>
+        <v>SL - AR (225 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(226 pts)</v>
+        <v>(225 pts)</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Fazalhaq Farooqi</v>
       </c>
       <c r="B97" t="str">
-        <v>SL - AR (225 pts)</v>
+        <v>AFG - BOWL (226 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(225 pts)</v>
+        <v>(226 pts)</v>
       </c>
     </row>
     <row r="98">
@@ -1471,46 +1471,46 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B100" t="str">
-        <v>AUS - AR (214 pts)</v>
+        <v>AFG - WK (218 pts)</v>
       </c>
       <c r="C100" t="str">
-        <v>(214 pts)</v>
+        <v>(218 pts)</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Shadab Khan</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B101" t="str">
-        <v>PAK - AR (213 pts)</v>
+        <v>AUS - AR (214 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(213 pts)</v>
+        <v>(214 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B102" t="str">
-        <v>BAN - BOWL (200 pts)</v>
+        <v>PAK - AR (213 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(200 pts)</v>
+        <v>(213 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B103" t="str">
-        <v>AFG - WK (199 pts)</v>
+        <v>BAN - BOWL (200 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(199 pts)</v>
+        <v>(200 pts)</v>
       </c>
     </row>
     <row r="104">
@@ -1526,46 +1526,46 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Temba Bavuma</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B105" t="str">
-        <v>SA - BAT (193 pts)</v>
+        <v>BAN - BOWL (192 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(193 pts)</v>
+        <v>(192 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B106" t="str">
-        <v>BAN - BOWL (192 pts)</v>
+        <v>BAN - BAT (190 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(192 pts)</v>
+        <v>(190 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B107" t="str">
-        <v>BAN - BAT (190 pts)</v>
+        <v>ENG - BAT (189 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(190 pts)</v>
+        <v>(189 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Harry Brook</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B108" t="str">
-        <v>ENG - BAT (189 pts)</v>
+        <v>AFG - BOWL (187 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(189 pts)</v>
+        <v>(187 pts)</v>
       </c>
     </row>
     <row r="109">
@@ -1581,68 +1581,68 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Tom Latham</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B110" t="str">
-        <v>NZ - WK (311 pts)</v>
+        <v>PAK - AR (182 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(311 pts)</v>
+        <v>(182 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Travis Head</v>
       </c>
       <c r="B111" t="str">
-        <v>PAK - AR (182 pts)</v>
+        <v>AUS - BAT (176 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(182 pts)</v>
+        <v>(176 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Travis Head</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B112" t="str">
-        <v>AUS - BAT (176 pts)</v>
+        <v>IND - AR (170 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(176 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Hardik Pandya</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B113" t="str">
-        <v>IND - AR (170 pts)</v>
+        <v>SA - BAT (223 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(170 pts)</v>
+        <v>(223 pts)</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B114" t="str">
-        <v>NED - BAT (164 pts)</v>
+        <v>NED - AR (230 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(164 pts)</v>
+        <v>(230 pts)</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Max O'Dowd</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B115" t="str">
-        <v>NED - BAT (160 pts)</v>
+        <v>NED - BAT (164 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(160 pts)</v>
+        <v>(164 pts)</v>
       </c>
     </row>
     <row r="116">
@@ -1658,46 +1658,46 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Noor Ahmad</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B117" t="str">
-        <v>AFG - BOWL (153 pts)</v>
+        <v>NED - AR (150 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(153 pts)</v>
+        <v>(150 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B118" t="str">
-        <v>BAN - BAT (152 pts)</v>
+        <v>NED - BAT (160 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(152 pts)</v>
+        <v>(160 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Vikram Singh</v>
+        <v>James Neesham</v>
       </c>
       <c r="B119" t="str">
-        <v>NED - AR (150 pts)</v>
+        <v>NZ - AR (136 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(150 pts)</v>
+        <v>(136 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>James Neesham</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B120" t="str">
-        <v>NZ - AR (136 pts)</v>
+        <v>BAN - BAT (152 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(136 pts)</v>
+        <v>(152 pts)</v>
       </c>
     </row>
     <row r="121">
@@ -1713,13 +1713,13 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B122" t="str">
-        <v>SA - BAT (135 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(135 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="123">
@@ -1735,57 +1735,57 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Dasun Shanaka</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B124" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>SA - BAT (135 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(114 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Gus Atkinson</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B125" t="str">
-        <v>ENG - BOWL (110 pts)</v>
+        <v>IND - BAT (116 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(110 pts)</v>
+        <v>(116 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B126" t="str">
-        <v>SL - BOWL (96 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(96 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Wesley Barresi</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B127" t="str">
-        <v>NED - WK (106 pts)</v>
+        <v>ENG - BOWL (110 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(106 pts)</v>
+        <v>(110 pts)</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Sam Curran</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B128" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>AUS - AR (95 pts)</v>
       </c>
       <c r="C128" t="str">
-        <v>(118 pts)</v>
+        <v>(95 pts)</v>
       </c>
     </row>
     <row r="129">
@@ -1801,134 +1801,134 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B130" t="str">
-        <v>SL - BOWL (82 pts)</v>
+        <v>BAN - BOWL (90 pts)</v>
       </c>
       <c r="C130" t="str">
-        <v>(82 pts)</v>
+        <v>(90 pts)</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Cameron Green</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B131" t="str">
-        <v>AUS - AR (95 pts)</v>
+        <v>SL - BOWL (96 pts)</v>
       </c>
       <c r="C131" t="str">
-        <v>(95 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Shardul Thakur</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B132" t="str">
-        <v>IND - BOWL (78 pts)</v>
+        <v>NED - WK (106 pts)</v>
       </c>
       <c r="C132" t="str">
-        <v>(78 pts)</v>
+        <v>(106 pts)</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B133" t="str">
-        <v>BAN - BOWL (90 pts)</v>
+        <v>IND - BOWL (78 pts)</v>
       </c>
       <c r="C133" t="str">
-        <v>(90 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Ishan Kishan</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B134" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C134" t="str">
-        <v>(63 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B135" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>SL - BOWL (82 pts)</v>
       </c>
       <c r="C135" t="str">
-        <v>(79 pts)</v>
+        <v>(82 pts)</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Lizaad Williams</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B136" t="str">
-        <v>SA - BOWL (58 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C136" t="str">
-        <v>(58 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B137" t="str">
-        <v>BAN - BOWL (54 pts)</v>
+        <v>SA - BOWL (58 pts)</v>
       </c>
       <c r="C137" t="str">
-        <v>(54 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B138" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>BAN - BOWL (54 pts)</v>
       </c>
       <c r="C138" t="str">
-        <v>(53 pts)</v>
+        <v>(54 pts)</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Andile Phehlukwayo</v>
       </c>
       <c r="B139" t="str">
-        <v>NED - AR (71 pts)</v>
+        <v>SA - AR (77 pts)</v>
       </c>
       <c r="C139" t="str">
-        <v>(71 pts)</v>
+        <v>(77 pts)</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B140" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>NED - AR (71 pts)</v>
       </c>
       <c r="C140" t="str">
-        <v>(37 pts)</v>
+        <v>(71 pts)</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B141" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C141" t="str">
-        <v>(27 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="142">
@@ -1944,57 +1944,57 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B143" t="str">
-        <v>IND - BAT (116 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C143" t="str">
-        <v>(116 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Agha Salman</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B144" t="str">
-        <v>PAK - AR (24 pts)</v>
+        <v>SL - BAT (37 pts)</v>
       </c>
       <c r="C144" t="str">
-        <v>(24 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B145" t="str">
-        <v>SL - BAT (37 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C145" t="str">
-        <v>(37 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Dushan Hemantha</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B146" t="str">
-        <v>SL - AR (18 pts)</v>
+        <v>PAK - AR (24 pts)</v>
       </c>
       <c r="C146" t="str">
-        <v>(18 pts)</v>
+        <v>(24 pts)</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Alex Carey</v>
+        <v>Dushan Hemantha</v>
       </c>
       <c r="B147" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>SL - AR (18 pts)</v>
       </c>
       <c r="C147" t="str">
-        <v>(1 pts)</v>
+        <v>(18 pts)</v>
       </c>
     </row>
     <row r="148">
@@ -2010,43 +2010,43 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Jason Roy</v>
+        <v>Shariz Ahmad</v>
       </c>
       <c r="B149" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>NED - BOWL (10 pts)</v>
       </c>
       <c r="C149" t="str">
-        <v>(0 pts)</v>
+        <v>(10 pts)</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B150" t="str">
-        <v>NED - BOWL (10 pts)</v>
+        <v>NZ - BOWL (4 pts)</v>
       </c>
       <c r="C150" t="str">
-        <v>(10 pts)</v>
+        <v>(4 pts)</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Sean Abbott</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B151" t="str">
-        <v>AUS - BOWL (0 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C151" t="str">
-        <v>(0 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Ashton Agar</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B152" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>AUS - BOWL (0 pts)</v>
       </c>
       <c r="C152" t="str">
         <v>(0 pts)</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Tom Blundell</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B153" t="str">
-        <v>NZ - WK (0 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C153" t="str">
         <v>(0 pts)</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Axar Patel</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B154" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Kyle Jamieson</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B155" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C155" t="str">
         <v>(0 pts)</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Binura Fernando</v>
+        <v>Kyle Jamieson</v>
       </c>
       <c r="B156" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C156" t="str">
         <v>(0 pts)</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Andile Phehlukwayo</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B157" t="str">
-        <v>SA - AR (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C157" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Pramod Madushan</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B160" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Prasidh Krishna</v>
+        <v>Tom Blundell</v>
       </c>
       <c r="B161" t="str">
-        <v>IND - BOWL (0 pts)</v>
+        <v>NZ - WK (0 pts)</v>
       </c>
       <c r="C161" t="str">
         <v>(0 pts)</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Afif Hossain</v>
+        <v>Pramod Madushan</v>
       </c>
       <c r="B162" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C162" t="str">
         <v>(0 pts)</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Riaz Hassan</v>
+        <v>Prasidh Krishna</v>
       </c>
       <c r="B163" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>IND - BOWL (0 pts)</v>
       </c>
       <c r="C163" t="str">
         <v>(0 pts)</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Abdul Rahman</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B164" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C164" t="str">
         <v>(0 pts)</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Shamim Hossain</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B165" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C165" t="str">
         <v>(0 pts)</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Anamul Haque</v>
+        <v>Abdul Rahman</v>
       </c>
       <c r="B166" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C166" t="str">
         <v>(0 pts)</v>
@@ -2208,13 +2208,13 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Ish Sodhi</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B167" t="str">
-        <v>NZ - BOWL (4 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C167" t="str">
-        <v>(4 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="168">

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -404,68 +404,68 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B3" t="str">
-        <v>NZ - AR (884 pts)</v>
+        <v>AUS - AR (725 pts)</v>
       </c>
       <c r="C3" t="str">
-        <v>(884 pts)</v>
+        <v>(725 pts)</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B4" t="str">
-        <v>AUS - AR (725 pts)</v>
+        <v>NZ - AR (884 pts)</v>
       </c>
       <c r="C4" t="str">
-        <v>(725 pts)</v>
+        <v>(884 pts)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Virat Kohli</v>
+        <v>David Warner</v>
       </c>
       <c r="B5" t="str">
-        <v>IND - BAT (708 pts)</v>
+        <v>AUS - BAT (711 pts)</v>
       </c>
       <c r="C5" t="str">
-        <v>(708 pts)</v>
+        <v>(711 pts)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Marco Jansen</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B6" t="str">
-        <v>SA - AR (705 pts)</v>
+        <v>AUS - BOWL (725 pts)</v>
       </c>
       <c r="C6" t="str">
-        <v>(705 pts)</v>
+        <v>(725 pts)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B7" t="str">
-        <v>AFG - AR (664 pts)</v>
+        <v>IND - BAT (708 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(664 pts)</v>
+        <v>(708 pts)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Mitchell Santner</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B8" t="str">
-        <v>NZ - AR (656 pts)</v>
+        <v>SA - AR (705 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(656 pts)</v>
+        <v>(705 pts)</v>
       </c>
     </row>
     <row r="9">
@@ -481,35 +481,35 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B10" t="str">
-        <v>IND - AR (648 pts)</v>
+        <v>AFG - AR (664 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(648 pts)</v>
+        <v>(664 pts)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Adam Zampa</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B11" t="str">
-        <v>AUS - BOWL (667 pts)</v>
+        <v>NZ - AR (656 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(667 pts)</v>
+        <v>(656 pts)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>David Warner</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B12" t="str">
-        <v>AUS - BAT (644 pts)</v>
+        <v>IND - AR (648 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(644 pts)</v>
+        <v>(648 pts)</v>
       </c>
     </row>
     <row r="13">
@@ -525,244 +525,244 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Rohit Sharma</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B14" t="str">
-        <v>IND - BAT (609 pts)</v>
+        <v>PAK - BOWL (632 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(609 pts)</v>
+        <v>(632 pts)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Bas de Leede</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B15" t="str">
-        <v>NED - AR (601 pts)</v>
+        <v>ENG - BOWL (606 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(601 pts)</v>
+        <v>(606 pts)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B16" t="str">
-        <v>SA - BAT (581 pts)</v>
+        <v>IND - BAT (609 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(581 pts)</v>
+        <v>(609 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B17" t="str">
-        <v>SA - BOWL (563 pts)</v>
+        <v>AUS - AR (615 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(563 pts)</v>
+        <v>(615 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Aiden Markram</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B18" t="str">
-        <v>SA - AR (554 pts)</v>
+        <v>SA - BAT (581 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(554 pts)</v>
+        <v>(581 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B19" t="str">
-        <v>SA - BOWL (548 pts)</v>
+        <v>BAN - AR (578 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(548 pts)</v>
+        <v>(578 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B20" t="str">
-        <v>PAK - WK (549 pts)</v>
+        <v>NED - AR (601 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(549 pts)</v>
+        <v>(601 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B21" t="str">
-        <v>IND - BOWL (543 pts)</v>
+        <v>PAK - WK (599 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(543 pts)</v>
+        <v>(599 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B22" t="str">
-        <v>BAN - AR (537 pts)</v>
+        <v>ENG - BAT (564 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(537 pts)</v>
+        <v>(564 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Rashid Khan</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B23" t="str">
-        <v>AFG - BOWL (531 pts)</v>
+        <v>SA - BOWL (563 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(531 pts)</v>
+        <v>(563 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B24" t="str">
-        <v>SA - WK (530 pts)</v>
+        <v>NZ - AR (544 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(530 pts)</v>
+        <v>(544 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Glenn Phillips</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B25" t="str">
-        <v>NZ - AR (544 pts)</v>
+        <v>SA - BOWL (548 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(544 pts)</v>
+        <v>(548 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B26" t="str">
-        <v>PAK - BOWL (530 pts)</v>
+        <v>PAK - BOWL (556 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(530 pts)</v>
+        <v>(556 pts)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B27" t="str">
-        <v>BAN - AR (522 pts)</v>
+        <v>SA - AR (554 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(522 pts)</v>
+        <v>(554 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B28" t="str">
-        <v>AFG - BAT (523 pts)</v>
+        <v>IND - BOWL (543 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(523 pts)</v>
+        <v>(543 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Adil Rashid</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B29" t="str">
-        <v>ENG - BOWL (528 pts)</v>
+        <v>AFG - BOWL (531 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(528 pts)</v>
+        <v>(531 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Mohammad Shami</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B30" t="str">
-        <v>IND - BOWL (522 pts)</v>
+        <v>SA - WK (530 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(522 pts)</v>
+        <v>(530 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Logan van Beek</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B31" t="str">
-        <v>NED - BOWL (515 pts)</v>
+        <v>AFG - BAT (523 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(515 pts)</v>
+        <v>(523 pts)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Dawid Malan</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B32" t="str">
-        <v>ENG - BAT (516 pts)</v>
+        <v>BAN - AR (522 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(516 pts)</v>
+        <v>(522 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Devon Conway</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B33" t="str">
-        <v>NZ - WK (505 pts)</v>
+        <v>NED - BOWL (515 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(505 pts)</v>
+        <v>(515 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Trent Boult</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B34" t="str">
-        <v>NZ - BOWL (473 pts)</v>
+        <v>SL - WK (510 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(473 pts)</v>
+        <v>(510 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B35" t="str">
-        <v>SA - BOWL (471 pts)</v>
+        <v>IND - BOWL (522 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(471 pts)</v>
+        <v>(522 pts)</v>
       </c>
     </row>
     <row r="36">
@@ -778,453 +778,453 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Pat Cummins</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B37" t="str">
-        <v>AUS - BOWL (451 pts)</v>
+        <v>NZ - WK (505 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(451 pts)</v>
+        <v>(505 pts)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Scott Edwards</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B38" t="str">
-        <v>NED - WK (449 pts)</v>
+        <v>BAN - AR (480 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(449 pts)</v>
+        <v>(480 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B39" t="str">
-        <v>SL - WK (510 pts)</v>
+        <v>ENG - AR (479 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(510 pts)</v>
+        <v>(479 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B40" t="str">
-        <v>IND - BOWL (448 pts)</v>
+        <v>PAK - BAT (459 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(448 pts)</v>
+        <v>(459 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B41" t="str">
-        <v>SL - BAT (448 pts)</v>
+        <v>PAK - BAT (452 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(448 pts)</v>
+        <v>(452 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Mitchell Starc</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B42" t="str">
-        <v>AUS - BOWL (448 pts)</v>
+        <v>AUS - BOWL (469 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(448 pts)</v>
+        <v>(469 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B43" t="str">
-        <v>BAN - AR (435 pts)</v>
+        <v>AUS - BAT (449 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(435 pts)</v>
+        <v>(449 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Chris Woakes</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B44" t="str">
-        <v>ENG - AR (445 pts)</v>
+        <v>NZ - BOWL (473 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(445 pts)</v>
+        <v>(473 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Abdullah Shafique</v>
+        <v>David Willey</v>
       </c>
       <c r="B45" t="str">
-        <v>PAK - BAT (458 pts)</v>
+        <v>ENG - AR (450 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(458 pts)</v>
+        <v>(450 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Aryan Dutt</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B46" t="str">
-        <v>NED - BOWL (434 pts)</v>
+        <v>SA - BOWL (471 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(434 pts)</v>
+        <v>(471 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B47" t="str">
-        <v>AUS - BOWL (414 pts)</v>
+        <v>NED - WK (449 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(414 pts)</v>
+        <v>(449 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Colin Ackermann</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B48" t="str">
-        <v>NED - AR (414 pts)</v>
+        <v>AUS - BOWL (448 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(414 pts)</v>
+        <v>(448 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B49" t="str">
-        <v>IND - BAT (428 pts)</v>
+        <v>IND - BOWL (448 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(428 pts)</v>
+        <v>(448 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B50" t="str">
-        <v>AUS - BAT (411 pts)</v>
+        <v>SL - BAT (448 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(411 pts)</v>
+        <v>(448 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Haris Rauf</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B51" t="str">
-        <v>PAK - BOWL (413 pts)</v>
+        <v>ENG - AR (447 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(413 pts)</v>
+        <v>(447 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Rahmat Shah</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B52" t="str">
-        <v>AFG - AR (428 pts)</v>
+        <v>NED - BOWL (434 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(428 pts)</v>
+        <v>(434 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>David Miller</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B53" t="str">
-        <v>SA - BAT (410 pts)</v>
+        <v>AFG - AR (428 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(410 pts)</v>
+        <v>(428 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B54" t="str">
-        <v>AFG - WK (410 pts)</v>
+        <v>IND - BAT (428 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(410 pts)</v>
+        <v>(428 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Charith Asalanka</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B55" t="str">
-        <v>SL - BAT (409 pts)</v>
+        <v>AUS - BOWL (426 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(409 pts)</v>
+        <v>(426 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Matt Henry</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B56" t="str">
-        <v>NZ - BOWL (407 pts)</v>
+        <v>NED - AR (414 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(407 pts)</v>
+        <v>(414 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>KL Rahul</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B57" t="str">
-        <v>IND - BAT (406 pts)</v>
+        <v>AFG - WK (410 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(406 pts)</v>
+        <v>(410 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Babar Azam</v>
+        <v>Joe Root</v>
       </c>
       <c r="B58" t="str">
-        <v>PAK - BAT (404 pts)</v>
+        <v>ENG - BAT (425 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(404 pts)</v>
+        <v>(425 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Litton Das</v>
       </c>
       <c r="B59" t="str">
-        <v>NED - BOWL (399 pts)</v>
+        <v>BAN - WK (409 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(399 pts)</v>
+        <v>(409 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B60" t="str">
-        <v>AFG - BAT (377 pts)</v>
+        <v>SL - BAT (409 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(377 pts)</v>
+        <v>(409 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B61" t="str">
-        <v>NED - AR (370 pts)</v>
+        <v>IND - BAT (406 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(370 pts)</v>
+        <v>(406 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Litton Das</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B62" t="str">
-        <v>BAN - WK (364 pts)</v>
+        <v>AFG - AR (392 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(364 pts)</v>
+        <v>(392 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Shoriful Islam</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B63" t="str">
-        <v>BAN - BOWL (361 pts)</v>
+        <v>AFG - BAT (377 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(361 pts)</v>
+        <v>(377 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Joe Root</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B64" t="str">
-        <v>ENG - BAT (353 pts)</v>
+        <v>NED - AR (370 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(353 pts)</v>
+        <v>(370 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B65" t="str">
-        <v>AFG - BOWL (353 pts)</v>
+        <v>BAN - BOWL (361 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(353 pts)</v>
+        <v>(361 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Mohammed Siraj</v>
+        <v>David Miller</v>
       </c>
       <c r="B66" t="str">
-        <v>IND - BOWL (348 pts)</v>
+        <v>SA - BAT (410 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(348 pts)</v>
+        <v>(410 pts)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B67" t="str">
-        <v>AFG - AR (392 pts)</v>
+        <v>NZ - BOWL (407 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(392 pts)</v>
+        <v>(407 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B68" t="str">
-        <v>AUS - AR (387 pts)</v>
+        <v>PAK - BOWL (359 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(387 pts)</v>
+        <v>(359 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>David Willey</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B69" t="str">
-        <v>ENG - AR (344 pts)</v>
+        <v>AFG - BOWL (353 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(344 pts)</v>
+        <v>(353 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B70" t="str">
-        <v>PAK - BAT (325 pts)</v>
+        <v>NED - BOWL (399 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(325 pts)</v>
+        <v>(399 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B71" t="str">
-        <v>SL - BOWL (335 pts)</v>
+        <v>AUS - BAT (338 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(335 pts)</v>
+        <v>(338 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Saud Shakeel</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B72" t="str">
-        <v>PAK - BAT (312 pts)</v>
+        <v>SL - BOWL (335 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(312 pts)</v>
+        <v>(335 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Tom Latham</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B73" t="str">
-        <v>NZ - WK (311 pts)</v>
+        <v>PAK - BAT (349 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(311 pts)</v>
+        <v>(349 pts)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Ben Stokes</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B74" t="str">
-        <v>ENG - AR (310 pts)</v>
+        <v>IND - BOWL (348 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(310 pts)</v>
+        <v>(348 pts)</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B75" t="str">
-        <v>SL - BOWL (310 pts)</v>
+        <v>PAK - BAT (330 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(310 pts)</v>
+        <v>(330 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B76" t="str">
-        <v>SA - BOWL (325 pts)</v>
+        <v>IND - BAT (333 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(325 pts)</v>
+        <v>(333 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Shubman Gill</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B77" t="str">
-        <v>IND - BAT (333 pts)</v>
+        <v>BAN - WK (330 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(333 pts)</v>
+        <v>(330 pts)</v>
       </c>
     </row>
     <row r="78">
@@ -1232,109 +1232,109 @@
         <v>Iftikhar Ahmed</v>
       </c>
       <c r="B78" t="str">
-        <v>PAK - AR (309 pts)</v>
+        <v>PAK - AR (349 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(309 pts)</v>
+        <v>(349 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Mark Wood</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B79" t="str">
-        <v>ENG - BOWL (298 pts)</v>
+        <v>ENG - WK (329 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(298 pts)</v>
+        <v>(329 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Jos Buttler</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B80" t="str">
-        <v>ENG - WK (289 pts)</v>
+        <v>BAN - BAT (311 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(289 pts)</v>
+        <v>(311 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Hasan Ali</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B81" t="str">
-        <v>PAK - BOWL (287 pts)</v>
+        <v>SL - BOWL (310 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(287 pts)</v>
+        <v>(310 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B82" t="str">
-        <v>NZ - BOWL (307 pts)</v>
+        <v>SA - BOWL (325 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(307 pts)</v>
+        <v>(325 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B83" t="str">
-        <v>PAK - BOWL (279 pts)</v>
+        <v>ENG - AR (302 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(279 pts)</v>
+        <v>(302 pts)</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Will Young</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B84" t="str">
-        <v>NZ - BAT (286 pts)</v>
+        <v>NZ - WK (311 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(286 pts)</v>
+        <v>(311 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B85" t="str">
-        <v>AFG - BOWL (286 pts)</v>
+        <v>PAK - BOWL (287 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(286 pts)</v>
+        <v>(287 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B86" t="str">
-        <v>BAN - WK (303 pts)</v>
+        <v>NZ - BOWL (307 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(303 pts)</v>
+        <v>(307 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Angelo Mathews</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B87" t="str">
-        <v>SL - BAT (262 pts)</v>
+        <v>ENG - WK (325 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(262 pts)</v>
+        <v>(325 pts)</v>
       </c>
     </row>
     <row r="88">
@@ -1342,65 +1342,65 @@
         <v>Josh Inglis</v>
       </c>
       <c r="B88" t="str">
-        <v>AUS - WK (274 pts)</v>
+        <v>AUS - WK (284 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(274 pts)</v>
+        <v>(284 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Steven Smith</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B89" t="str">
-        <v>AUS - BAT (261 pts)</v>
+        <v>AFG - BOWL (286 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(261 pts)</v>
+        <v>(286 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B90" t="str">
-        <v>ENG - WK (253 pts)</v>
+        <v>ENG - BOWL (247 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(253 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B91" t="str">
-        <v>BAN - BAT (248 pts)</v>
+        <v>ENG - BOWL (298 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(248 pts)</v>
+        <v>(298 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Reece Topley</v>
+        <v>Will Young</v>
       </c>
       <c r="B92" t="str">
-        <v>ENG - BOWL (247 pts)</v>
+        <v>NZ - BAT (286 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(247 pts)</v>
+        <v>(286 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Kane Williamson</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B93" t="str">
-        <v>NZ - BAT (245 pts)</v>
+        <v>BAN - BAT (243 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(245 pts)</v>
+        <v>(243 pts)</v>
       </c>
     </row>
     <row r="94">
@@ -1416,112 +1416,112 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Moeen Ali</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B95" t="str">
-        <v>ENG - AR (230 pts)</v>
+        <v>AUS - AR (239 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(230 pts)</v>
+        <v>(239 pts)</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B96" t="str">
-        <v>SL - AR (225 pts)</v>
+        <v>BAN - BAT (238 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(225 pts)</v>
+        <v>(238 pts)</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Fazalhaq Farooqi</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B97" t="str">
-        <v>AFG - BOWL (226 pts)</v>
+        <v>NZ - BAT (245 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(226 pts)</v>
+        <v>(245 pts)</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B98" t="str">
-        <v>PAK - BAT (221 pts)</v>
+        <v>NED - AR (230 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(221 pts)</v>
+        <v>(230 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B99" t="str">
-        <v>BAN - AR (219 pts)</v>
+        <v>PAK - AR (230 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(219 pts)</v>
+        <v>(230 pts)</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B100" t="str">
-        <v>AFG - WK (218 pts)</v>
+        <v>ENG - BAT (229 pts)</v>
       </c>
       <c r="C100" t="str">
-        <v>(218 pts)</v>
+        <v>(229 pts)</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B101" t="str">
-        <v>AUS - AR (214 pts)</v>
+        <v>BAN - AR (227 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(214 pts)</v>
+        <v>(227 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Shadab Khan</v>
+        <v>Fazalhaq Farooqi</v>
       </c>
       <c r="B102" t="str">
-        <v>PAK - AR (213 pts)</v>
+        <v>AFG - BOWL (226 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(213 pts)</v>
+        <v>(226 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B103" t="str">
-        <v>BAN - BOWL (200 pts)</v>
+        <v>SL - AR (225 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(200 pts)</v>
+        <v>(225 pts)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B104" t="str">
-        <v>SA - BOWL (198 pts)</v>
+        <v>SA - BAT (223 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(198 pts)</v>
+        <v>(223 pts)</v>
       </c>
     </row>
     <row r="105">
@@ -1529,65 +1529,65 @@
         <v>Mustafizur Rahman</v>
       </c>
       <c r="B105" t="str">
-        <v>BAN - BOWL (192 pts)</v>
+        <v>BAN - BOWL (223 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(192 pts)</v>
+        <v>(223 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Angelo Mathews</v>
       </c>
       <c r="B106" t="str">
-        <v>BAN - BAT (190 pts)</v>
+        <v>SL - BAT (262 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(190 pts)</v>
+        <v>(262 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Harry Brook</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B107" t="str">
-        <v>ENG - BAT (189 pts)</v>
+        <v>PAK - BAT (221 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(189 pts)</v>
+        <v>(221 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Noor Ahmad</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B108" t="str">
-        <v>AFG - BOWL (187 pts)</v>
+        <v>AFG - WK (218 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(187 pts)</v>
+        <v>(218 pts)</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Liam Livingstone</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B109" t="str">
-        <v>ENG - AR (184 pts)</v>
+        <v>SA - BOWL (198 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(184 pts)</v>
+        <v>(198 pts)</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B110" t="str">
-        <v>PAK - AR (182 pts)</v>
+        <v>BAN - BOWL (237 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(182 pts)</v>
+        <v>(237 pts)</v>
       </c>
     </row>
     <row r="111">
@@ -1595,109 +1595,109 @@
         <v>Travis Head</v>
       </c>
       <c r="B111" t="str">
-        <v>AUS - BAT (176 pts)</v>
+        <v>AUS - BAT (192 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(176 pts)</v>
+        <v>(192 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Hardik Pandya</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B112" t="str">
-        <v>IND - AR (170 pts)</v>
+        <v>AFG - BOWL (187 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(170 pts)</v>
+        <v>(187 pts)</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Temba Bavuma</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B113" t="str">
-        <v>SA - BAT (223 pts)</v>
+        <v>ENG - AR (184 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(223 pts)</v>
+        <v>(184 pts)</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B114" t="str">
-        <v>NED - AR (230 pts)</v>
+        <v>PAK - AR (182 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(230 pts)</v>
+        <v>(182 pts)</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B115" t="str">
-        <v>NED - BAT (164 pts)</v>
+        <v>ENG - BOWL (172 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(164 pts)</v>
+        <v>(172 pts)</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Usama Mir</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B116" t="str">
-        <v>PAK - BOWL (158 pts)</v>
+        <v>IND - AR (170 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(158 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Vikram Singh</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B117" t="str">
-        <v>NED - AR (150 pts)</v>
+        <v>NED - BAT (160 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(150 pts)</v>
+        <v>(160 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Max O'Dowd</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B118" t="str">
-        <v>NED - BAT (160 pts)</v>
+        <v>NED - BAT (164 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(160 pts)</v>
+        <v>(164 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>James Neesham</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B119" t="str">
-        <v>NZ - AR (136 pts)</v>
+        <v>PAK - BOWL (158 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(136 pts)</v>
+        <v>(158 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B120" t="str">
-        <v>BAN - BAT (152 pts)</v>
+        <v>NED - AR (150 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(152 pts)</v>
+        <v>(150 pts)</v>
       </c>
     </row>
     <row r="121">
@@ -1713,351 +1713,351 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Sam Curran</v>
+        <v>James Neesham</v>
       </c>
       <c r="B122" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>NZ - AR (136 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(118 pts)</v>
+        <v>(136 pts)</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Tim Southee</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B123" t="str">
-        <v>NZ - BOWL (126 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(126 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B124" t="str">
-        <v>SA - BAT (135 pts)</v>
+        <v>IND - BAT (116 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(135 pts)</v>
+        <v>(116 pts)</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B125" t="str">
-        <v>IND - BAT (116 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(116 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Dasun Shanaka</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B126" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>NED - WK (106 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(114 pts)</v>
+        <v>(106 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Gus Atkinson</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B127" t="str">
-        <v>ENG - BOWL (110 pts)</v>
+        <v>PAK - AR (101 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(110 pts)</v>
+        <v>(101 pts)</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Cameron Green</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B128" t="str">
-        <v>AUS - AR (95 pts)</v>
+        <v>SL - BOWL (96 pts)</v>
       </c>
       <c r="C128" t="str">
-        <v>(95 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Tanzim Hasan Sakib</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B129" t="str">
-        <v>BAN - BOWL (91 pts)</v>
+        <v>AUS - AR (95 pts)</v>
       </c>
       <c r="C129" t="str">
-        <v>(91 pts)</v>
+        <v>(95 pts)</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Tanzim Hasan Sakib</v>
       </c>
       <c r="B130" t="str">
-        <v>BAN - BOWL (90 pts)</v>
+        <v>BAN - BOWL (91 pts)</v>
       </c>
       <c r="C130" t="str">
-        <v>(90 pts)</v>
+        <v>(91 pts)</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B131" t="str">
-        <v>SL - BOWL (96 pts)</v>
+        <v>BAN - BOWL (90 pts)</v>
       </c>
       <c r="C131" t="str">
-        <v>(96 pts)</v>
+        <v>(90 pts)</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Wesley Barresi</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B132" t="str">
-        <v>NED - WK (106 pts)</v>
+        <v>SA - BAT (135 pts)</v>
       </c>
       <c r="C132" t="str">
-        <v>(106 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Shardul Thakur</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B133" t="str">
-        <v>IND - BOWL (78 pts)</v>
+        <v>NZ - BOWL (126 pts)</v>
       </c>
       <c r="C133" t="str">
-        <v>(78 pts)</v>
+        <v>(126 pts)</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B134" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>SL - BOWL (82 pts)</v>
       </c>
       <c r="C134" t="str">
-        <v>(79 pts)</v>
+        <v>(82 pts)</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B135" t="str">
-        <v>SL - BOWL (82 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C135" t="str">
-        <v>(82 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Ishan Kishan</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B136" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>IND - BOWL (78 pts)</v>
       </c>
       <c r="C136" t="str">
-        <v>(63 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Lizaad Williams</v>
+        <v>Andile Phehlukwayo</v>
       </c>
       <c r="B137" t="str">
-        <v>SA - BOWL (58 pts)</v>
+        <v>SA - AR (77 pts)</v>
       </c>
       <c r="C137" t="str">
-        <v>(58 pts)</v>
+        <v>(77 pts)</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B138" t="str">
-        <v>BAN - BOWL (54 pts)</v>
+        <v>AUS - BOWL (74 pts)</v>
       </c>
       <c r="C138" t="str">
-        <v>(54 pts)</v>
+        <v>(74 pts)</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Andile Phehlukwayo</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B139" t="str">
-        <v>SA - AR (77 pts)</v>
+        <v>NED - AR (71 pts)</v>
       </c>
       <c r="C139" t="str">
-        <v>(77 pts)</v>
+        <v>(71 pts)</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B140" t="str">
-        <v>NED - AR (71 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C140" t="str">
-        <v>(71 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B141" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>BAN - BOWL (61 pts)</v>
       </c>
       <c r="C141" t="str">
-        <v>(53 pts)</v>
+        <v>(61 pts)</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Chamika Karunaratne</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B142" t="str">
-        <v>SL - AR (39 pts)</v>
+        <v>SA - BOWL (58 pts)</v>
       </c>
       <c r="C142" t="str">
-        <v>(39 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B143" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C143" t="str">
-        <v>(37 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Chamika Karunaratne</v>
       </c>
       <c r="B144" t="str">
-        <v>SL - BAT (37 pts)</v>
+        <v>SL - AR (39 pts)</v>
       </c>
       <c r="C144" t="str">
-        <v>(37 pts)</v>
+        <v>(39 pts)</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B145" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C145" t="str">
-        <v>(27 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Agha Salman</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B146" t="str">
-        <v>PAK - AR (24 pts)</v>
+        <v>SL - BAT (37 pts)</v>
       </c>
       <c r="C146" t="str">
-        <v>(24 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Dushan Hemantha</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B147" t="str">
-        <v>SL - AR (18 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C147" t="str">
-        <v>(18 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Ryan Klein</v>
+        <v>Dushan Hemantha</v>
       </c>
       <c r="B148" t="str">
-        <v>NED - BOWL (16 pts)</v>
+        <v>SL - AR (18 pts)</v>
       </c>
       <c r="C148" t="str">
-        <v>(16 pts)</v>
+        <v>(18 pts)</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Ryan Klein</v>
       </c>
       <c r="B149" t="str">
-        <v>NED - BOWL (10 pts)</v>
+        <v>NED - BOWL (16 pts)</v>
       </c>
       <c r="C149" t="str">
-        <v>(10 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Ish Sodhi</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B150" t="str">
-        <v>NZ - BOWL (4 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C150" t="str">
-        <v>(4 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Alex Carey</v>
+        <v>Shariz Ahmad</v>
       </c>
       <c r="B151" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>NED - BOWL (10 pts)</v>
       </c>
       <c r="C151" t="str">
-        <v>(1 pts)</v>
+        <v>(10 pts)</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Sean Abbott</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B152" t="str">
-        <v>AUS - BOWL (0 pts)</v>
+        <v>NZ - BOWL (4 pts)</v>
       </c>
       <c r="C152" t="str">
-        <v>(0 pts)</v>
+        <v>(4 pts)</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Ashton Agar</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B153" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C153" t="str">
         <v>(0 pts)</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Anamul Haque</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B154" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Jason Roy</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B155" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C155" t="str">
         <v>(0 pts)</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Kyle Jamieson</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B156" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C156" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Brydon Carse</v>
+        <v>Tom Blundell</v>
       </c>
       <c r="B159" t="str">
-        <v>ENG - BOWL (0 pts)</v>
+        <v>NZ - WK (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Axar Patel</v>
+        <v>Brydon Carse</v>
       </c>
       <c r="B160" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>ENG - BOWL (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Tom Blundell</v>
+        <v>Kyle Jamieson</v>
       </c>
       <c r="B161" t="str">
-        <v>NZ - WK (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C161" t="str">
         <v>(0 pts)</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Riaz Hassan</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B165" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C165" t="str">
         <v>(0 pts)</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Shamim Hossain</v>
+        <v>Mohammad Naim</v>
       </c>
       <c r="B167" t="str">
         <v>BAN - BAT (0 pts)</v>
@@ -2219,10 +2219,10 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Mohammad Naim</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B168" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C168" t="str">
         <v>(0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -404,211 +404,211 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B3" t="str">
-        <v>AUS - AR (725 pts)</v>
+        <v>NZ - AR (884 pts)</v>
       </c>
       <c r="C3" t="str">
-        <v>(725 pts)</v>
+        <v>(884 pts)</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B4" t="str">
-        <v>NZ - AR (884 pts)</v>
+        <v>IND - BAT (799 pts)</v>
       </c>
       <c r="C4" t="str">
-        <v>(884 pts)</v>
+        <v>(799 pts)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>David Warner</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B5" t="str">
-        <v>AUS - BAT (711 pts)</v>
+        <v>AUS - BOWL (725 pts)</v>
       </c>
       <c r="C5" t="str">
-        <v>(711 pts)</v>
+        <v>(725 pts)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Adam Zampa</v>
+        <v>David Warner</v>
       </c>
       <c r="B6" t="str">
-        <v>AUS - BOWL (725 pts)</v>
+        <v>AUS - BAT (711 pts)</v>
       </c>
       <c r="C6" t="str">
-        <v>(725 pts)</v>
+        <v>(711 pts)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Virat Kohli</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B7" t="str">
-        <v>IND - BAT (708 pts)</v>
+        <v>SA - AR (705 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(708 pts)</v>
+        <v>(705 pts)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Marco Jansen</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B8" t="str">
-        <v>SA - AR (705 pts)</v>
+        <v>IND - AR (710 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(705 pts)</v>
+        <v>(710 pts)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B9" t="str">
-        <v>SL - BOWL (687 pts)</v>
+        <v>AUS - AR (725 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(687 pts)</v>
+        <v>(725 pts)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B10" t="str">
-        <v>AFG - AR (664 pts)</v>
+        <v>IND - BAT (717 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(664 pts)</v>
+        <v>(717 pts)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Mitchell Santner</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B11" t="str">
-        <v>NZ - AR (656 pts)</v>
+        <v>SL - BOWL (687 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(656 pts)</v>
+        <v>(687 pts)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B12" t="str">
-        <v>IND - AR (648 pts)</v>
+        <v>AFG - AR (664 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(648 pts)</v>
+        <v>(664 pts)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B13" t="str">
-        <v>NZ - AR (637 pts)</v>
+        <v>NED - AR (664 pts)</v>
       </c>
       <c r="C13" t="str">
-        <v>(637 pts)</v>
+        <v>(664 pts)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B14" t="str">
-        <v>PAK - BOWL (632 pts)</v>
+        <v>NZ - AR (656 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(632 pts)</v>
+        <v>(656 pts)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Adil Rashid</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B15" t="str">
-        <v>ENG - BOWL (606 pts)</v>
+        <v>NZ - AR (637 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(606 pts)</v>
+        <v>(637 pts)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Rohit Sharma</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B16" t="str">
-        <v>IND - BAT (609 pts)</v>
+        <v>ENG - BOWL (606 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(609 pts)</v>
+        <v>(606 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B17" t="str">
-        <v>AUS - AR (615 pts)</v>
+        <v>PAK - WK (599 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(615 pts)</v>
+        <v>(599 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B18" t="str">
-        <v>SA - BAT (581 pts)</v>
+        <v>IND - BAT (592 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(581 pts)</v>
+        <v>(592 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B19" t="str">
-        <v>BAN - AR (578 pts)</v>
+        <v>SA - BAT (581 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(578 pts)</v>
+        <v>(581 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Bas de Leede</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B20" t="str">
-        <v>NED - AR (601 pts)</v>
+        <v>PAK - BOWL (632 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(601 pts)</v>
+        <v>(632 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B21" t="str">
-        <v>PAK - WK (599 pts)</v>
+        <v>IND - BOWL (619 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(599 pts)</v>
+        <v>(619 pts)</v>
       </c>
     </row>
     <row r="22">
@@ -624,142 +624,142 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B23" t="str">
-        <v>SA - BOWL (563 pts)</v>
+        <v>AUS - AR (615 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(563 pts)</v>
+        <v>(615 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Glenn Phillips</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B24" t="str">
-        <v>NZ - AR (544 pts)</v>
+        <v>PAK - BOWL (556 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(544 pts)</v>
+        <v>(556 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B25" t="str">
-        <v>SA - BOWL (548 pts)</v>
+        <v>SA - AR (554 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(548 pts)</v>
+        <v>(554 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Haris Rauf</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B26" t="str">
-        <v>PAK - BOWL (556 pts)</v>
+        <v>SA - BOWL (548 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(556 pts)</v>
+        <v>(548 pts)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Aiden Markram</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B27" t="str">
-        <v>SA - AR (554 pts)</v>
+        <v>BAN - AR (578 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(554 pts)</v>
+        <v>(578 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B28" t="str">
-        <v>IND - BOWL (543 pts)</v>
+        <v>NZ - AR (544 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(543 pts)</v>
+        <v>(544 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Rashid Khan</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B29" t="str">
-        <v>AFG - BOWL (531 pts)</v>
+        <v>IND - BAT (561 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(531 pts)</v>
+        <v>(561 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B30" t="str">
-        <v>SA - WK (530 pts)</v>
+        <v>SA - BOWL (563 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(530 pts)</v>
+        <v>(563 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B31" t="str">
-        <v>AFG - BAT (523 pts)</v>
+        <v>AFG - BOWL (531 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(523 pts)</v>
+        <v>(531 pts)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B32" t="str">
-        <v>BAN - AR (522 pts)</v>
+        <v>SA - WK (530 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(522 pts)</v>
+        <v>(530 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Logan van Beek</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B33" t="str">
-        <v>NED - BOWL (515 pts)</v>
+        <v>IND - BOWL (524 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(515 pts)</v>
+        <v>(524 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B34" t="str">
-        <v>SL - WK (510 pts)</v>
+        <v>AFG - BAT (523 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(510 pts)</v>
+        <v>(523 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Mohammad Shami</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B35" t="str">
-        <v>IND - BOWL (522 pts)</v>
+        <v>BAN - AR (522 pts)</v>
       </c>
       <c r="C35" t="str">
         <v>(522 pts)</v>
@@ -778,153 +778,153 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Devon Conway</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B37" t="str">
-        <v>NZ - WK (505 pts)</v>
+        <v>SL - WK (510 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(505 pts)</v>
+        <v>(510 pts)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B38" t="str">
-        <v>BAN - AR (480 pts)</v>
+        <v>NZ - WK (505 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(480 pts)</v>
+        <v>(505 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Chris Woakes</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B39" t="str">
-        <v>ENG - AR (479 pts)</v>
+        <v>BAN - AR (480 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(479 pts)</v>
+        <v>(480 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B40" t="str">
-        <v>PAK - BAT (459 pts)</v>
+        <v>ENG - AR (479 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(459 pts)</v>
+        <v>(479 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Babar Azam</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B41" t="str">
-        <v>PAK - BAT (452 pts)</v>
+        <v>NZ - BOWL (473 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(452 pts)</v>
+        <v>(473 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Pat Cummins</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B42" t="str">
-        <v>AUS - BOWL (469 pts)</v>
+        <v>SA - BOWL (471 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(469 pts)</v>
+        <v>(471 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B43" t="str">
-        <v>AUS - BAT (449 pts)</v>
+        <v>NED - WK (471 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(449 pts)</v>
+        <v>(471 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Trent Boult</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B44" t="str">
-        <v>NZ - BOWL (473 pts)</v>
+        <v>AUS - BOWL (469 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(473 pts)</v>
+        <v>(469 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>David Willey</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B45" t="str">
-        <v>ENG - AR (450 pts)</v>
+        <v>NED - AR (461 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(450 pts)</v>
+        <v>(461 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B46" t="str">
-        <v>SA - BOWL (471 pts)</v>
+        <v>PAK - BAT (459 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(471 pts)</v>
+        <v>(459 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Scott Edwards</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B47" t="str">
-        <v>NED - WK (449 pts)</v>
+        <v>PAK - BAT (452 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(449 pts)</v>
+        <v>(452 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Mitchell Starc</v>
+        <v>David Willey</v>
       </c>
       <c r="B48" t="str">
-        <v>AUS - BOWL (448 pts)</v>
+        <v>ENG - AR (450 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(448 pts)</v>
+        <v>(450 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B49" t="str">
-        <v>IND - BOWL (448 pts)</v>
+        <v>AUS - BAT (449 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(448 pts)</v>
+        <v>(449 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B50" t="str">
-        <v>SL - BAT (448 pts)</v>
+        <v>AUS - BOWL (448 pts)</v>
       </c>
       <c r="C50" t="str">
         <v>(448 pts)</v>
@@ -932,79 +932,79 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Ben Stokes</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B51" t="str">
-        <v>ENG - AR (447 pts)</v>
+        <v>IND - BOWL (542 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(447 pts)</v>
+        <v>(542 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Aryan Dutt</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B52" t="str">
-        <v>NED - BOWL (434 pts)</v>
+        <v>NED - BOWL (531 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(434 pts)</v>
+        <v>(531 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Rahmat Shah</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B53" t="str">
-        <v>AFG - AR (428 pts)</v>
+        <v>ENG - AR (447 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(428 pts)</v>
+        <v>(447 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B54" t="str">
-        <v>IND - BAT (428 pts)</v>
+        <v>NED - BOWL (441 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(428 pts)</v>
+        <v>(441 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B55" t="str">
-        <v>AUS - BOWL (426 pts)</v>
+        <v>SL - BAT (448 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(426 pts)</v>
+        <v>(448 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Colin Ackermann</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B56" t="str">
-        <v>NED - AR (414 pts)</v>
+        <v>NED - BOWL (427 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(414 pts)</v>
+        <v>(427 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B57" t="str">
-        <v>AFG - WK (410 pts)</v>
+        <v>AUS - BOWL (426 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(410 pts)</v>
+        <v>(426 pts)</v>
       </c>
     </row>
     <row r="58">
@@ -1020,186 +1020,186 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Litton Das</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B59" t="str">
-        <v>BAN - WK (409 pts)</v>
+        <v>IND - BOWL (414 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(409 pts)</v>
+        <v>(414 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Charith Asalanka</v>
+        <v>David Miller</v>
       </c>
       <c r="B60" t="str">
-        <v>SL - BAT (409 pts)</v>
+        <v>SA - BAT (410 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(409 pts)</v>
+        <v>(410 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>KL Rahul</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B61" t="str">
-        <v>IND - BAT (406 pts)</v>
+        <v>AFG - WK (410 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(406 pts)</v>
+        <v>(410 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Litton Das</v>
       </c>
       <c r="B62" t="str">
-        <v>AFG - AR (392 pts)</v>
+        <v>BAN - WK (409 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(392 pts)</v>
+        <v>(409 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B63" t="str">
-        <v>AFG - BAT (377 pts)</v>
+        <v>SL - BAT (409 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(377 pts)</v>
+        <v>(409 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B64" t="str">
-        <v>NED - AR (370 pts)</v>
+        <v>IND - BAT (409 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(370 pts)</v>
+        <v>(409 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Shoriful Islam</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B65" t="str">
-        <v>BAN - BOWL (361 pts)</v>
+        <v>NZ - BOWL (407 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(361 pts)</v>
+        <v>(407 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>David Miller</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B66" t="str">
-        <v>SA - BAT (410 pts)</v>
+        <v>AFG - AR (392 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(410 pts)</v>
+        <v>(392 pts)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Matt Henry</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B67" t="str">
-        <v>NZ - BOWL (407 pts)</v>
+        <v>AFG - BAT (377 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(407 pts)</v>
+        <v>(377 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B68" t="str">
-        <v>PAK - BOWL (359 pts)</v>
+        <v>BAN - BOWL (361 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(359 pts)</v>
+        <v>(361 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B69" t="str">
-        <v>AFG - BOWL (353 pts)</v>
+        <v>AFG - AR (428 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(353 pts)</v>
+        <v>(428 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B70" t="str">
-        <v>NED - BOWL (399 pts)</v>
+        <v>AFG - BOWL (353 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(399 pts)</v>
+        <v>(353 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Steven Smith</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B71" t="str">
-        <v>AUS - BAT (338 pts)</v>
+        <v>PAK - AR (349 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(338 pts)</v>
+        <v>(349 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B72" t="str">
-        <v>SL - BOWL (335 pts)</v>
+        <v>PAK - BAT (349 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(335 pts)</v>
+        <v>(349 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Saud Shakeel</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B73" t="str">
-        <v>PAK - BAT (349 pts)</v>
+        <v>AUS - BAT (338 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(349 pts)</v>
+        <v>(338 pts)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B74" t="str">
-        <v>IND - BOWL (348 pts)</v>
+        <v>SL - BOWL (335 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(348 pts)</v>
+        <v>(335 pts)</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B75" t="str">
-        <v>PAK - BAT (330 pts)</v>
+        <v>BAN - WK (330 pts)</v>
       </c>
       <c r="C75" t="str">
         <v>(330 pts)</v>
@@ -1207,266 +1207,266 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Shubman Gill</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B76" t="str">
-        <v>IND - BAT (333 pts)</v>
+        <v>PAK - BOWL (359 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(333 pts)</v>
+        <v>(359 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B77" t="str">
-        <v>BAN - WK (330 pts)</v>
+        <v>NED - AR (431 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(330 pts)</v>
+        <v>(431 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B78" t="str">
-        <v>PAK - AR (349 pts)</v>
+        <v>ENG - WK (329 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(349 pts)</v>
+        <v>(329 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B79" t="str">
-        <v>ENG - WK (329 pts)</v>
+        <v>PAK - BAT (330 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(329 pts)</v>
+        <v>(330 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B80" t="str">
-        <v>BAN - BAT (311 pts)</v>
+        <v>SA - BOWL (325 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(311 pts)</v>
+        <v>(325 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B81" t="str">
-        <v>SL - BOWL (310 pts)</v>
+        <v>ENG - WK (325 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(310 pts)</v>
+        <v>(325 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B82" t="str">
-        <v>SA - BOWL (325 pts)</v>
+        <v>BAN - BAT (311 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(325 pts)</v>
+        <v>(311 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Moeen Ali</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B83" t="str">
-        <v>ENG - AR (302 pts)</v>
+        <v>NZ - WK (311 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(302 pts)</v>
+        <v>(311 pts)</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Tom Latham</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B84" t="str">
-        <v>NZ - WK (311 pts)</v>
+        <v>NZ - BOWL (307 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(311 pts)</v>
+        <v>(307 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Hasan Ali</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B85" t="str">
-        <v>PAK - BOWL (287 pts)</v>
+        <v>SL - BOWL (310 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(287 pts)</v>
+        <v>(310 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B86" t="str">
-        <v>NZ - BOWL (307 pts)</v>
+        <v>ENG - AR (302 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(307 pts)</v>
+        <v>(302 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Jos Buttler</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B87" t="str">
-        <v>ENG - WK (325 pts)</v>
+        <v>ENG - BOWL (298 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(325 pts)</v>
+        <v>(298 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Josh Inglis</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B88" t="str">
-        <v>AUS - WK (284 pts)</v>
+        <v>NED - AR (288 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(284 pts)</v>
+        <v>(288 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B89" t="str">
-        <v>AFG - BOWL (286 pts)</v>
+        <v>PAK - BOWL (287 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(286 pts)</v>
+        <v>(287 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Reece Topley</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B90" t="str">
-        <v>ENG - BOWL (247 pts)</v>
+        <v>AFG - BOWL (286 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(247 pts)</v>
+        <v>(286 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Mark Wood</v>
+        <v>Angelo Mathews</v>
       </c>
       <c r="B91" t="str">
-        <v>ENG - BOWL (298 pts)</v>
+        <v>SL - BAT (262 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(298 pts)</v>
+        <v>(262 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Will Young</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B92" t="str">
-        <v>NZ - BAT (286 pts)</v>
+        <v>NED - BAT (251 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(286 pts)</v>
+        <v>(251 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B93" t="str">
-        <v>BAN - BAT (243 pts)</v>
+        <v>AUS - WK (284 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(243 pts)</v>
+        <v>(284 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Kusal Perera</v>
+        <v>Will Young</v>
       </c>
       <c r="B94" t="str">
-        <v>SL - WK (241 pts)</v>
+        <v>NZ - BAT (286 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(241 pts)</v>
+        <v>(286 pts)</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B95" t="str">
-        <v>AUS - AR (239 pts)</v>
+        <v>ENG - BOWL (247 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(239 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B96" t="str">
-        <v>BAN - BAT (238 pts)</v>
+        <v>BAN - BAT (243 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(238 pts)</v>
+        <v>(243 pts)</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Kane Williamson</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B97" t="str">
-        <v>NZ - BAT (245 pts)</v>
+        <v>BAN - BAT (238 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(245 pts)</v>
+        <v>(238 pts)</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B98" t="str">
-        <v>NED - AR (230 pts)</v>
+        <v>BAN - BOWL (237 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(230 pts)</v>
+        <v>(237 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Shadab Khan</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B99" t="str">
-        <v>PAK - AR (230 pts)</v>
+        <v>SL - WK (241 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(230 pts)</v>
+        <v>(241 pts)</v>
       </c>
     </row>
     <row r="100">
@@ -1537,145 +1537,145 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Angelo Mathews</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B106" t="str">
-        <v>SL - BAT (262 pts)</v>
+        <v>NZ - BAT (245 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(262 pts)</v>
+        <v>(245 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B107" t="str">
-        <v>PAK - BAT (221 pts)</v>
+        <v>PAK - AR (230 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(221 pts)</v>
+        <v>(230 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B108" t="str">
-        <v>AFG - WK (218 pts)</v>
+        <v>AUS - AR (239 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(218 pts)</v>
+        <v>(239 pts)</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B109" t="str">
-        <v>SA - BOWL (198 pts)</v>
+        <v>PAK - BAT (221 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(198 pts)</v>
+        <v>(221 pts)</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B110" t="str">
-        <v>BAN - BOWL (237 pts)</v>
+        <v>AFG - WK (218 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(237 pts)</v>
+        <v>(218 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Travis Head</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B111" t="str">
-        <v>AUS - BAT (192 pts)</v>
+        <v>NED - BAT (199 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(192 pts)</v>
+        <v>(199 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Noor Ahmad</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B112" t="str">
-        <v>AFG - BOWL (187 pts)</v>
+        <v>SA - BOWL (198 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(187 pts)</v>
+        <v>(198 pts)</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Liam Livingstone</v>
+        <v>Travis Head</v>
       </c>
       <c r="B113" t="str">
-        <v>ENG - AR (184 pts)</v>
+        <v>AUS - BAT (192 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(184 pts)</v>
+        <v>(192 pts)</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B114" t="str">
-        <v>PAK - AR (182 pts)</v>
+        <v>AFG - BOWL (187 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(182 pts)</v>
+        <v>(187 pts)</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Gus Atkinson</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B115" t="str">
-        <v>ENG - BOWL (172 pts)</v>
+        <v>ENG - AR (184 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(172 pts)</v>
+        <v>(184 pts)</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Hardik Pandya</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B116" t="str">
-        <v>IND - AR (170 pts)</v>
+        <v>PAK - AR (182 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(170 pts)</v>
+        <v>(182 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Max O'Dowd</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B117" t="str">
-        <v>NED - BAT (160 pts)</v>
+        <v>ENG - BOWL (172 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(160 pts)</v>
+        <v>(172 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B118" t="str">
-        <v>NED - BAT (164 pts)</v>
+        <v>IND - AR (170 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(164 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="119">
@@ -1702,10 +1702,10 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Mark Chapman</v>
+        <v>James Neesham</v>
       </c>
       <c r="B121" t="str">
-        <v>NZ - BAT (136 pts)</v>
+        <v>NZ - AR (136 pts)</v>
       </c>
       <c r="C121" t="str">
         <v>(136 pts)</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>James Neesham</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B122" t="str">
-        <v>NZ - AR (136 pts)</v>
+        <v>NZ - BAT (136 pts)</v>
       </c>
       <c r="C122" t="str">
         <v>(136 pts)</v>
@@ -1724,123 +1724,123 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Sam Curran</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B123" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>SA - BAT (135 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(118 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B124" t="str">
-        <v>IND - BAT (116 pts)</v>
+        <v>NZ - BOWL (126 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(116 pts)</v>
+        <v>(126 pts)</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Dasun Shanaka</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B125" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>NED - WK (122 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(114 pts)</v>
+        <v>(122 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Wesley Barresi</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B126" t="str">
-        <v>NED - WK (106 pts)</v>
+        <v>IND - BAT (122 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(106 pts)</v>
+        <v>(122 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Agha Salman</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B127" t="str">
-        <v>PAK - AR (101 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(101 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B128" t="str">
-        <v>SL - BOWL (96 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C128" t="str">
-        <v>(96 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Cameron Green</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B129" t="str">
-        <v>AUS - AR (95 pts)</v>
+        <v>PAK - AR (101 pts)</v>
       </c>
       <c r="C129" t="str">
-        <v>(95 pts)</v>
+        <v>(101 pts)</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Tanzim Hasan Sakib</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B130" t="str">
-        <v>BAN - BOWL (91 pts)</v>
+        <v>SL - BOWL (96 pts)</v>
       </c>
       <c r="C130" t="str">
-        <v>(91 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B131" t="str">
-        <v>BAN - BOWL (90 pts)</v>
+        <v>AUS - AR (95 pts)</v>
       </c>
       <c r="C131" t="str">
-        <v>(90 pts)</v>
+        <v>(95 pts)</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Tanzim Hasan Sakib</v>
       </c>
       <c r="B132" t="str">
-        <v>SA - BAT (135 pts)</v>
+        <v>BAN - BOWL (91 pts)</v>
       </c>
       <c r="C132" t="str">
-        <v>(135 pts)</v>
+        <v>(91 pts)</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Tim Southee</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B133" t="str">
-        <v>NZ - BOWL (126 pts)</v>
+        <v>BAN - BOWL (90 pts)</v>
       </c>
       <c r="C133" t="str">
-        <v>(126 pts)</v>
+        <v>(90 pts)</v>
       </c>
     </row>
     <row r="134">
@@ -1977,46 +1977,46 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Dushan Hemantha</v>
       </c>
       <c r="B146" t="str">
-        <v>SL - BAT (37 pts)</v>
+        <v>SL - AR (18 pts)</v>
       </c>
       <c r="C146" t="str">
-        <v>(37 pts)</v>
+        <v>(18 pts)</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Ryan Klein</v>
       </c>
       <c r="B147" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>NED - BOWL (16 pts)</v>
       </c>
       <c r="C147" t="str">
-        <v>(27 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Dushan Hemantha</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B148" t="str">
-        <v>SL - AR (18 pts)</v>
+        <v>SL - BAT (37 pts)</v>
       </c>
       <c r="C148" t="str">
-        <v>(18 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Ryan Klein</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B149" t="str">
-        <v>NED - BOWL (16 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C149" t="str">
-        <v>(16 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="150">
@@ -2032,43 +2032,43 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B151" t="str">
-        <v>NED - BOWL (10 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C151" t="str">
-        <v>(10 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Ish Sodhi</v>
+        <v>Shariz Ahmad</v>
       </c>
       <c r="B152" t="str">
-        <v>NZ - BOWL (4 pts)</v>
+        <v>NED - BOWL (10 pts)</v>
       </c>
       <c r="C152" t="str">
-        <v>(4 pts)</v>
+        <v>(10 pts)</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Anamul Haque</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B153" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>NZ - BOWL (4 pts)</v>
       </c>
       <c r="C153" t="str">
-        <v>(0 pts)</v>
+        <v>(4 pts)</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Jason Roy</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B154" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Axar Patel</v>
+        <v>Tom Blundell</v>
       </c>
       <c r="B156" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>NZ - WK (0 pts)</v>
       </c>
       <c r="C156" t="str">
         <v>(0 pts)</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Binura Fernando</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B157" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C157" t="str">
         <v>(0 pts)</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Sahan Arachchige</v>
+        <v>Kyle Jamieson</v>
       </c>
       <c r="B158" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C158" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Tom Blundell</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B159" t="str">
-        <v>NZ - WK (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Kyle Jamieson</v>
+        <v>Pramod Madushan</v>
       </c>
       <c r="B161" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C161" t="str">
         <v>(0 pts)</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Pramod Madushan</v>
+        <v>Sahan Arachchige</v>
       </c>
       <c r="B162" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C162" t="str">
         <v>(0 pts)</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Mohammad Naim</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B167" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C167" t="str">
         <v>(0 pts)</v>
@@ -2219,10 +2219,10 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Riaz Hassan</v>
+        <v>Mohammad Naim</v>
       </c>
       <c r="B168" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C168" t="str">
         <v>(0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -393,131 +393,131 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Quinton de Kock</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B2" t="str">
-        <v>SA - WK (930 pts)</v>
+        <v>IND - BAT (943 pts)</v>
       </c>
       <c r="C2" t="str">
-        <v>(930 pts)</v>
+        <v>(943 pts)</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B3" t="str">
-        <v>NZ - AR (884 pts)</v>
+        <v>SA - WK (930 pts)</v>
       </c>
       <c r="C3" t="str">
-        <v>(884 pts)</v>
+        <v>(930 pts)</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Virat Kohli</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B4" t="str">
-        <v>IND - BAT (799 pts)</v>
+        <v>IND - BAT (786 pts)</v>
       </c>
       <c r="C4" t="str">
-        <v>(799 pts)</v>
+        <v>(786 pts)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Adam Zampa</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B5" t="str">
-        <v>AUS - BOWL (725 pts)</v>
+        <v>NZ - AR (894 pts)</v>
       </c>
       <c r="C5" t="str">
-        <v>(725 pts)</v>
+        <v>(894 pts)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>David Warner</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B6" t="str">
-        <v>AUS - BAT (711 pts)</v>
+        <v>IND - BAT (735 pts)</v>
       </c>
       <c r="C6" t="str">
-        <v>(711 pts)</v>
+        <v>(735 pts)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Marco Jansen</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B7" t="str">
-        <v>SA - AR (705 pts)</v>
+        <v>AUS - AR (725 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(705 pts)</v>
+        <v>(725 pts)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B8" t="str">
-        <v>IND - AR (710 pts)</v>
+        <v>AUS - BOWL (725 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(710 pts)</v>
+        <v>(725 pts)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B9" t="str">
-        <v>AUS - AR (725 pts)</v>
+        <v>IND - AR (714 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(725 pts)</v>
+        <v>(714 pts)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Rohit Sharma</v>
+        <v>David Warner</v>
       </c>
       <c r="B10" t="str">
-        <v>IND - BAT (717 pts)</v>
+        <v>AUS - BAT (711 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(717 pts)</v>
+        <v>(711 pts)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B11" t="str">
-        <v>SL - BOWL (687 pts)</v>
+        <v>SA - AR (705 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(687 pts)</v>
+        <v>(705 pts)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B12" t="str">
-        <v>AFG - AR (664 pts)</v>
+        <v>SL - BOWL (687 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(664 pts)</v>
+        <v>(687 pts)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Bas de Leede</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B13" t="str">
-        <v>NED - AR (664 pts)</v>
+        <v>NZ - AR (664 pts)</v>
       </c>
       <c r="C13" t="str">
         <v>(664 pts)</v>
@@ -525,145 +525,145 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Mitchell Santner</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B14" t="str">
-        <v>NZ - AR (656 pts)</v>
+        <v>NED - AR (664 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(656 pts)</v>
+        <v>(664 pts)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B15" t="str">
-        <v>NZ - AR (637 pts)</v>
+        <v>AFG - AR (664 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(637 pts)</v>
+        <v>(664 pts)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Adil Rashid</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B16" t="str">
-        <v>ENG - BOWL (606 pts)</v>
+        <v>PAK - BOWL (632 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(606 pts)</v>
+        <v>(632 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B17" t="str">
-        <v>PAK - WK (599 pts)</v>
+        <v>NZ - AR (649 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(599 pts)</v>
+        <v>(649 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B18" t="str">
-        <v>IND - BAT (592 pts)</v>
+        <v>IND - BOWL (623 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(592 pts)</v>
+        <v>(623 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B19" t="str">
-        <v>SA - BAT (581 pts)</v>
+        <v>IND - BAT (619 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(581 pts)</v>
+        <v>(619 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B20" t="str">
-        <v>PAK - BOWL (632 pts)</v>
+        <v>AUS - AR (615 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(632 pts)</v>
+        <v>(615 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B21" t="str">
-        <v>IND - BOWL (619 pts)</v>
+        <v>ENG - BOWL (606 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(619 pts)</v>
+        <v>(606 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Dawid Malan</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B22" t="str">
-        <v>ENG - BAT (564 pts)</v>
+        <v>PAK - WK (599 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(564 pts)</v>
+        <v>(599 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B23" t="str">
-        <v>AUS - AR (615 pts)</v>
+        <v>SA - BAT (581 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(615 pts)</v>
+        <v>(581 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Haris Rauf</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B24" t="str">
-        <v>PAK - BOWL (556 pts)</v>
+        <v>SA - BOWL (563 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(556 pts)</v>
+        <v>(563 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Aiden Markram</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B25" t="str">
-        <v>SA - AR (554 pts)</v>
+        <v>NZ - AR (556 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(554 pts)</v>
+        <v>(556 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B26" t="str">
-        <v>SA - BOWL (548 pts)</v>
+        <v>ENG - BAT (564 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(548 pts)</v>
+        <v>(564 pts)</v>
       </c>
     </row>
     <row r="27">
@@ -679,175 +679,175 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Glenn Phillips</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B28" t="str">
-        <v>NZ - AR (544 pts)</v>
+        <v>PAK - BOWL (556 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(544 pts)</v>
+        <v>(556 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>KL Rahul</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B29" t="str">
-        <v>IND - BAT (561 pts)</v>
+        <v>IND - BOWL (546 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(561 pts)</v>
+        <v>(546 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B30" t="str">
-        <v>SA - BOWL (563 pts)</v>
+        <v>SA - AR (554 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(563 pts)</v>
+        <v>(554 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Rashid Khan</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B31" t="str">
-        <v>AFG - BOWL (531 pts)</v>
+        <v>SA - BOWL (548 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(531 pts)</v>
+        <v>(548 pts)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B32" t="str">
-        <v>SA - WK (530 pts)</v>
+        <v>NED - BOWL (531 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(530 pts)</v>
+        <v>(531 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B33" t="str">
-        <v>IND - BOWL (524 pts)</v>
+        <v>SA - WK (530 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(524 pts)</v>
+        <v>(530 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B34" t="str">
-        <v>AFG - BAT (523 pts)</v>
+        <v>AFG - BOWL (531 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(523 pts)</v>
+        <v>(531 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B35" t="str">
-        <v>BAN - AR (522 pts)</v>
+        <v>NZ - WK (533 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(522 pts)</v>
+        <v>(533 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Kusal Mendis</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B36" t="str">
-        <v>SL - WK (519 pts)</v>
+        <v>BAN - AR (522 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(519 pts)</v>
+        <v>(522 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B37" t="str">
-        <v>SL - WK (510 pts)</v>
+        <v>SL - WK (519 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(510 pts)</v>
+        <v>(519 pts)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Devon Conway</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B38" t="str">
-        <v>NZ - WK (505 pts)</v>
+        <v>AFG - BAT (523 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(505 pts)</v>
+        <v>(523 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B39" t="str">
-        <v>BAN - AR (480 pts)</v>
+        <v>IND - BOWL (528 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(480 pts)</v>
+        <v>(528 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Chris Woakes</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B40" t="str">
-        <v>ENG - AR (479 pts)</v>
+        <v>SL - WK (510 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(479 pts)</v>
+        <v>(510 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Trent Boult</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B41" t="str">
-        <v>NZ - BOWL (473 pts)</v>
+        <v>IND - BAT (515 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(473 pts)</v>
+        <v>(515 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B42" t="str">
-        <v>SA - BOWL (471 pts)</v>
+        <v>ENG - AR (479 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(471 pts)</v>
+        <v>(479 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Scott Edwards</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B43" t="str">
-        <v>NED - WK (471 pts)</v>
+        <v>SA - BOWL (471 pts)</v>
       </c>
       <c r="C43" t="str">
         <v>(471 pts)</v>
@@ -855,219 +855,219 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Pat Cummins</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B44" t="str">
-        <v>AUS - BOWL (469 pts)</v>
+        <v>NZ - BOWL (498 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(469 pts)</v>
+        <v>(498 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Colin Ackermann</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B45" t="str">
-        <v>NED - AR (461 pts)</v>
+        <v>BAN - AR (480 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(461 pts)</v>
+        <v>(480 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B46" t="str">
-        <v>PAK - BAT (459 pts)</v>
+        <v>NED - WK (471 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(459 pts)</v>
+        <v>(471 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Babar Azam</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B47" t="str">
-        <v>PAK - BAT (452 pts)</v>
+        <v>NED - AR (461 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(452 pts)</v>
+        <v>(461 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>David Willey</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B48" t="str">
-        <v>ENG - AR (450 pts)</v>
+        <v>AUS - BOWL (469 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(450 pts)</v>
+        <v>(469 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B49" t="str">
-        <v>AUS - BAT (449 pts)</v>
+        <v>PAK - BAT (459 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(449 pts)</v>
+        <v>(459 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Mitchell Starc</v>
+        <v>David Willey</v>
       </c>
       <c r="B50" t="str">
-        <v>AUS - BOWL (448 pts)</v>
+        <v>ENG - AR (450 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(448 pts)</v>
+        <v>(450 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Mohammad Shami</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B51" t="str">
-        <v>IND - BOWL (542 pts)</v>
+        <v>PAK - BAT (452 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(542 pts)</v>
+        <v>(452 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Logan van Beek</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B52" t="str">
-        <v>NED - BOWL (531 pts)</v>
+        <v>AUS - BOWL (448 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(531 pts)</v>
+        <v>(448 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Ben Stokes</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B53" t="str">
-        <v>ENG - AR (447 pts)</v>
+        <v>AUS - BAT (449 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(447 pts)</v>
+        <v>(449 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Aryan Dutt</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B54" t="str">
-        <v>NED - BOWL (441 pts)</v>
+        <v>SL - BAT (448 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(441 pts)</v>
+        <v>(448 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B55" t="str">
-        <v>SL - BAT (448 pts)</v>
+        <v>ENG - AR (447 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(448 pts)</v>
+        <v>(447 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B56" t="str">
-        <v>NED - BOWL (427 pts)</v>
+        <v>NED - AR (431 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(427 pts)</v>
+        <v>(431 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B57" t="str">
-        <v>AUS - BOWL (426 pts)</v>
+        <v>NED - BOWL (441 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(426 pts)</v>
+        <v>(441 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Joe Root</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B58" t="str">
-        <v>ENG - BAT (425 pts)</v>
+        <v>NED - BOWL (427 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(425 pts)</v>
+        <v>(427 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B59" t="str">
-        <v>IND - BOWL (414 pts)</v>
+        <v>AUS - BOWL (426 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(414 pts)</v>
+        <v>(426 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>David Miller</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B60" t="str">
-        <v>SA - BAT (410 pts)</v>
+        <v>AFG - AR (428 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(410 pts)</v>
+        <v>(428 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Joe Root</v>
       </c>
       <c r="B61" t="str">
-        <v>AFG - WK (410 pts)</v>
+        <v>ENG - BAT (425 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(410 pts)</v>
+        <v>(425 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Litton Das</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B62" t="str">
-        <v>BAN - WK (409 pts)</v>
+        <v>IND - BOWL (418 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(409 pts)</v>
+        <v>(418 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Charith Asalanka</v>
+        <v>Litton Das</v>
       </c>
       <c r="B63" t="str">
-        <v>SL - BAT (409 pts)</v>
+        <v>BAN - WK (409 pts)</v>
       </c>
       <c r="C63" t="str">
         <v>(409 pts)</v>
@@ -1075,13 +1075,13 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Shubman Gill</v>
+        <v>David Miller</v>
       </c>
       <c r="B64" t="str">
-        <v>IND - BAT (409 pts)</v>
+        <v>SA - BAT (410 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(409 pts)</v>
+        <v>(410 pts)</v>
       </c>
     </row>
     <row r="65">
@@ -1130,13 +1130,13 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Rahmat Shah</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B69" t="str">
-        <v>AFG - AR (428 pts)</v>
+        <v>PAK - BOWL (359 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(428 pts)</v>
+        <v>(359 pts)</v>
       </c>
     </row>
     <row r="70">
@@ -1152,21 +1152,21 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B71" t="str">
-        <v>PAK - AR (349 pts)</v>
+        <v>AFG - WK (410 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(349 pts)</v>
+        <v>(410 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Saud Shakeel</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B72" t="str">
-        <v>PAK - BAT (349 pts)</v>
+        <v>PAK - AR (349 pts)</v>
       </c>
       <c r="C72" t="str">
         <v>(349 pts)</v>
@@ -1174,98 +1174,98 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Steven Smith</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B73" t="str">
-        <v>AUS - BAT (338 pts)</v>
+        <v>PAK - BAT (349 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(338 pts)</v>
+        <v>(349 pts)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B74" t="str">
-        <v>SL - BOWL (335 pts)</v>
+        <v>SL - BAT (409 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(335 pts)</v>
+        <v>(409 pts)</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B75" t="str">
-        <v>BAN - WK (330 pts)</v>
+        <v>AUS - BAT (338 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(330 pts)</v>
+        <v>(338 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B76" t="str">
-        <v>PAK - BOWL (359 pts)</v>
+        <v>BAN - WK (330 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(359 pts)</v>
+        <v>(330 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B77" t="str">
-        <v>NED - AR (431 pts)</v>
+        <v>SL - BOWL (335 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(431 pts)</v>
+        <v>(335 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B78" t="str">
-        <v>ENG - WK (329 pts)</v>
+        <v>PAK - BAT (330 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(329 pts)</v>
+        <v>(330 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B79" t="str">
-        <v>PAK - BAT (330 pts)</v>
+        <v>ENG - WK (325 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(330 pts)</v>
+        <v>(325 pts)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B80" t="str">
-        <v>SA - BOWL (325 pts)</v>
+        <v>ENG - WK (329 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(325 pts)</v>
+        <v>(329 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Jos Buttler</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B81" t="str">
-        <v>ENG - WK (325 pts)</v>
+        <v>SA - BOWL (325 pts)</v>
       </c>
       <c r="C81" t="str">
         <v>(325 pts)</v>
@@ -1287,65 +1287,65 @@
         <v>Tom Latham</v>
       </c>
       <c r="B83" t="str">
-        <v>NZ - WK (311 pts)</v>
+        <v>NZ - WK (315 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(311 pts)</v>
+        <v>(315 pts)</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B84" t="str">
-        <v>NZ - BOWL (307 pts)</v>
+        <v>ENG - AR (302 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(307 pts)</v>
+        <v>(302 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B85" t="str">
-        <v>SL - BOWL (310 pts)</v>
+        <v>ENG - BOWL (298 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(310 pts)</v>
+        <v>(298 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Moeen Ali</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B86" t="str">
-        <v>ENG - AR (302 pts)</v>
+        <v>NED - AR (288 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(302 pts)</v>
+        <v>(288 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Mark Wood</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B87" t="str">
-        <v>ENG - BOWL (298 pts)</v>
+        <v>NZ - BOWL (307 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(298 pts)</v>
+        <v>(307 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B88" t="str">
-        <v>NED - AR (288 pts)</v>
+        <v>SL - BOWL (310 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(288 pts)</v>
+        <v>(310 pts)</v>
       </c>
     </row>
     <row r="89">
@@ -1361,10 +1361,10 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Will Young</v>
       </c>
       <c r="B90" t="str">
-        <v>AFG - BOWL (286 pts)</v>
+        <v>NZ - BAT (286 pts)</v>
       </c>
       <c r="C90" t="str">
         <v>(286 pts)</v>
@@ -1383,112 +1383,112 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B92" t="str">
-        <v>NED - BAT (251 pts)</v>
+        <v>NZ - BAT (257 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(251 pts)</v>
+        <v>(257 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Josh Inglis</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B93" t="str">
-        <v>AUS - WK (284 pts)</v>
+        <v>AFG - BOWL (286 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(284 pts)</v>
+        <v>(286 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Will Young</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B94" t="str">
-        <v>NZ - BAT (286 pts)</v>
+        <v>AUS - WK (284 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(286 pts)</v>
+        <v>(284 pts)</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Reece Topley</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B95" t="str">
-        <v>ENG - BOWL (247 pts)</v>
+        <v>NED - BAT (251 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(247 pts)</v>
+        <v>(251 pts)</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B96" t="str">
-        <v>BAN - BAT (243 pts)</v>
+        <v>ENG - BOWL (247 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(243 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B97" t="str">
-        <v>BAN - BAT (238 pts)</v>
+        <v>BAN - BAT (243 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(238 pts)</v>
+        <v>(243 pts)</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B98" t="str">
-        <v>BAN - BOWL (237 pts)</v>
+        <v>SL - WK (241 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(237 pts)</v>
+        <v>(241 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Kusal Perera</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B99" t="str">
-        <v>SL - WK (241 pts)</v>
+        <v>AUS - AR (239 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(241 pts)</v>
+        <v>(239 pts)</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Harry Brook</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B100" t="str">
-        <v>ENG - BAT (229 pts)</v>
+        <v>BAN - BAT (238 pts)</v>
       </c>
       <c r="C100" t="str">
-        <v>(229 pts)</v>
+        <v>(238 pts)</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B101" t="str">
-        <v>BAN - AR (227 pts)</v>
+        <v>BAN - BOWL (237 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(227 pts)</v>
+        <v>(237 pts)</v>
       </c>
     </row>
     <row r="102">
@@ -1515,57 +1515,57 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Temba Bavuma</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B104" t="str">
-        <v>SA - BAT (223 pts)</v>
+        <v>ENG - BAT (229 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(223 pts)</v>
+        <v>(229 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B105" t="str">
-        <v>BAN - BOWL (223 pts)</v>
+        <v>BAN - AR (227 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(223 pts)</v>
+        <v>(227 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Kane Williamson</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B106" t="str">
-        <v>NZ - BAT (245 pts)</v>
+        <v>PAK - AR (230 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(245 pts)</v>
+        <v>(230 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Shadab Khan</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B107" t="str">
-        <v>PAK - AR (230 pts)</v>
+        <v>SA - BAT (223 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(230 pts)</v>
+        <v>(223 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B108" t="str">
-        <v>AUS - AR (239 pts)</v>
+        <v>BAN - BOWL (223 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(239 pts)</v>
+        <v>(223 pts)</v>
       </c>
     </row>
     <row r="109">
@@ -1592,10 +1592,10 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Max O'Dowd</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B111" t="str">
-        <v>NED - BAT (199 pts)</v>
+        <v>NZ - BOWL (199 pts)</v>
       </c>
       <c r="C111" t="str">
         <v>(199 pts)</v>
@@ -1603,255 +1603,255 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B112" t="str">
-        <v>SA - BOWL (198 pts)</v>
+        <v>NED - BAT (199 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(198 pts)</v>
+        <v>(199 pts)</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Travis Head</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B113" t="str">
-        <v>AUS - BAT (192 pts)</v>
+        <v>SA - BOWL (198 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(192 pts)</v>
+        <v>(198 pts)</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Noor Ahmad</v>
+        <v>Travis Head</v>
       </c>
       <c r="B114" t="str">
-        <v>AFG - BOWL (187 pts)</v>
+        <v>AUS - BAT (192 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(187 pts)</v>
+        <v>(192 pts)</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Liam Livingstone</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B115" t="str">
-        <v>ENG - AR (184 pts)</v>
+        <v>AFG - BOWL (187 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(184 pts)</v>
+        <v>(187 pts)</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B116" t="str">
-        <v>PAK - AR (182 pts)</v>
+        <v>ENG - AR (184 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(182 pts)</v>
+        <v>(184 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Gus Atkinson</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B117" t="str">
-        <v>ENG - BOWL (172 pts)</v>
+        <v>IND - AR (170 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(172 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Hardik Pandya</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B118" t="str">
-        <v>IND - AR (170 pts)</v>
+        <v>PAK - BOWL (158 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(170 pts)</v>
+        <v>(158 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Usama Mir</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B119" t="str">
-        <v>PAK - BOWL (158 pts)</v>
+        <v>NED - AR (150 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(158 pts)</v>
+        <v>(150 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Vikram Singh</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B120" t="str">
-        <v>NED - AR (150 pts)</v>
+        <v>NZ - BAT (140 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(150 pts)</v>
+        <v>(140 pts)</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>James Neesham</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B121" t="str">
-        <v>NZ - AR (136 pts)</v>
+        <v>SA - BAT (135 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(136 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Mark Chapman</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B122" t="str">
-        <v>NZ - BAT (136 pts)</v>
+        <v>PAK - AR (182 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(136 pts)</v>
+        <v>(182 pts)</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B123" t="str">
-        <v>SA - BAT (135 pts)</v>
+        <v>ENG - BOWL (172 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(135 pts)</v>
+        <v>(172 pts)</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Tim Southee</v>
+        <v>James Neesham</v>
       </c>
       <c r="B124" t="str">
-        <v>NZ - BOWL (126 pts)</v>
+        <v>NZ - AR (136 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(126 pts)</v>
+        <v>(136 pts)</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Wesley Barresi</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B125" t="str">
-        <v>NED - WK (122 pts)</v>
+        <v>IND - BAT (127 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(122 pts)</v>
+        <v>(127 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B126" t="str">
-        <v>IND - BAT (122 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(122 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Sam Curran</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B127" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>SL - BOWL (96 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(118 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Dasun Shanaka</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B128" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>PAK - AR (101 pts)</v>
       </c>
       <c r="C128" t="str">
-        <v>(114 pts)</v>
+        <v>(101 pts)</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Agha Salman</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B129" t="str">
-        <v>PAK - AR (101 pts)</v>
+        <v>NED - WK (122 pts)</v>
       </c>
       <c r="C129" t="str">
-        <v>(101 pts)</v>
+        <v>(122 pts)</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B130" t="str">
-        <v>SL - BOWL (96 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C130" t="str">
-        <v>(96 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Cameron Green</v>
+        <v>Tanzim Hasan Sakib</v>
       </c>
       <c r="B131" t="str">
-        <v>AUS - AR (95 pts)</v>
+        <v>BAN - BOWL (91 pts)</v>
       </c>
       <c r="C131" t="str">
-        <v>(95 pts)</v>
+        <v>(91 pts)</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Tanzim Hasan Sakib</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B132" t="str">
-        <v>BAN - BOWL (91 pts)</v>
+        <v>SL - BOWL (82 pts)</v>
       </c>
       <c r="C132" t="str">
-        <v>(91 pts)</v>
+        <v>(82 pts)</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B133" t="str">
-        <v>BAN - BOWL (90 pts)</v>
+        <v>AUS - AR (95 pts)</v>
       </c>
       <c r="C133" t="str">
-        <v>(90 pts)</v>
+        <v>(95 pts)</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B134" t="str">
-        <v>SL - BOWL (82 pts)</v>
+        <v>BAN - BOWL (90 pts)</v>
       </c>
       <c r="C134" t="str">
-        <v>(82 pts)</v>
+        <v>(90 pts)</v>
       </c>
     </row>
     <row r="135">
@@ -1867,13 +1867,13 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Shardul Thakur</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B136" t="str">
-        <v>IND - BOWL (78 pts)</v>
+        <v>AUS - BOWL (74 pts)</v>
       </c>
       <c r="C136" t="str">
-        <v>(78 pts)</v>
+        <v>(74 pts)</v>
       </c>
     </row>
     <row r="137">
@@ -1889,68 +1889,68 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Sean Abbott</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B138" t="str">
-        <v>AUS - BOWL (74 pts)</v>
+        <v>IND - BOWL (78 pts)</v>
       </c>
       <c r="C138" t="str">
-        <v>(74 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B139" t="str">
-        <v>NED - AR (71 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C139" t="str">
-        <v>(71 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Ishan Kishan</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B140" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>SA - BOWL (58 pts)</v>
       </c>
       <c r="C140" t="str">
-        <v>(63 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B141" t="str">
-        <v>BAN - BOWL (61 pts)</v>
+        <v>NED - AR (71 pts)</v>
       </c>
       <c r="C141" t="str">
-        <v>(61 pts)</v>
+        <v>(71 pts)</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Lizaad Williams</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B142" t="str">
-        <v>SA - BOWL (58 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C142" t="str">
-        <v>(58 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B143" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>BAN - BOWL (61 pts)</v>
       </c>
       <c r="C143" t="str">
-        <v>(53 pts)</v>
+        <v>(61 pts)</v>
       </c>
     </row>
     <row r="144">
@@ -1977,98 +1977,98 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Dushan Hemantha</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B146" t="str">
-        <v>SL - AR (18 pts)</v>
+        <v>SL - BAT (37 pts)</v>
       </c>
       <c r="C146" t="str">
-        <v>(18 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Ryan Klein</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B147" t="str">
-        <v>NED - BOWL (16 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C147" t="str">
-        <v>(16 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Dushan Hemantha</v>
       </c>
       <c r="B148" t="str">
-        <v>SL - BAT (37 pts)</v>
+        <v>SL - AR (18 pts)</v>
       </c>
       <c r="C148" t="str">
-        <v>(37 pts)</v>
+        <v>(18 pts)</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B149" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>NZ - BOWL (4 pts)</v>
       </c>
       <c r="C149" t="str">
-        <v>(27 pts)</v>
+        <v>(4 pts)</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Alex Carey</v>
+        <v>Shariz Ahmad</v>
       </c>
       <c r="B150" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>NED - BOWL (10 pts)</v>
       </c>
       <c r="C150" t="str">
-        <v>(1 pts)</v>
+        <v>(10 pts)</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Jason Roy</v>
+        <v>Ryan Klein</v>
       </c>
       <c r="B151" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>NED - BOWL (16 pts)</v>
       </c>
       <c r="C151" t="str">
-        <v>(0 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B152" t="str">
-        <v>NED - BOWL (10 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C152" t="str">
-        <v>(10 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Ish Sodhi</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B153" t="str">
-        <v>NZ - BOWL (4 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C153" t="str">
-        <v>(4 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Anamul Haque</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B154" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Brydon Carse</v>
+        <v>Sahan Arachchige</v>
       </c>
       <c r="B160" t="str">
-        <v>ENG - BOWL (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Pramod Madushan</v>
+        <v>Brydon Carse</v>
       </c>
       <c r="B161" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>ENG - BOWL (0 pts)</v>
       </c>
       <c r="C161" t="str">
         <v>(0 pts)</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Sahan Arachchige</v>
+        <v>Pramod Madushan</v>
       </c>
       <c r="B162" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C162" t="str">
         <v>(0 pts)</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Afif Hossain</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B164" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C164" t="str">
         <v>(0 pts)</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Shamim Hossain</v>
+        <v>Abdul Rahman</v>
       </c>
       <c r="B165" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C165" t="str">
         <v>(0 pts)</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Abdul Rahman</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B166" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C166" t="str">
         <v>(0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -415,24 +415,24 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Rohit Sharma</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B4" t="str">
-        <v>IND - BAT (786 pts)</v>
+        <v>NZ - AR (816 pts)</v>
       </c>
       <c r="C4" t="str">
-        <v>(786 pts)</v>
+        <v>(816 pts)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B5" t="str">
-        <v>NZ - AR (894 pts)</v>
+        <v>IND - AR (742 pts)</v>
       </c>
       <c r="C5" t="str">
-        <v>(894 pts)</v>
+        <v>(742 pts)</v>
       </c>
     </row>
     <row r="6">
@@ -459,35 +459,35 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Adam Zampa</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B8" t="str">
-        <v>AUS - BOWL (725 pts)</v>
+        <v>IND - BOWL (737 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(725 pts)</v>
+        <v>(737 pts)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B9" t="str">
-        <v>IND - AR (714 pts)</v>
+        <v>NZ - AR (900 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(714 pts)</v>
+        <v>(900 pts)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>David Warner</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B10" t="str">
-        <v>AUS - BAT (711 pts)</v>
+        <v>IND - BAT (794 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(711 pts)</v>
+        <v>(794 pts)</v>
       </c>
     </row>
     <row r="11">
@@ -503,35 +503,35 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B12" t="str">
-        <v>SL - BOWL (687 pts)</v>
+        <v>AUS - BOWL (725 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(687 pts)</v>
+        <v>(725 pts)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Mitchell Santner</v>
+        <v>David Warner</v>
       </c>
       <c r="B13" t="str">
-        <v>NZ - AR (664 pts)</v>
+        <v>AUS - BAT (711 pts)</v>
       </c>
       <c r="C13" t="str">
-        <v>(664 pts)</v>
+        <v>(711 pts)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Bas de Leede</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B14" t="str">
-        <v>NED - AR (664 pts)</v>
+        <v>SL - BOWL (687 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(664 pts)</v>
+        <v>(687 pts)</v>
       </c>
     </row>
     <row r="15">
@@ -547,57 +547,57 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B16" t="str">
-        <v>PAK - BOWL (632 pts)</v>
+        <v>NZ - AR (673 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(632 pts)</v>
+        <v>(673 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B17" t="str">
-        <v>NZ - AR (649 pts)</v>
+        <v>IND - BOWL (652 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(649 pts)</v>
+        <v>(652 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B18" t="str">
-        <v>IND - BOWL (623 pts)</v>
+        <v>PAK - BOWL (632 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(623 pts)</v>
+        <v>(632 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>KL Rahul</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B19" t="str">
-        <v>IND - BAT (619 pts)</v>
+        <v>AUS - AR (615 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(619 pts)</v>
+        <v>(615 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B20" t="str">
-        <v>AUS - AR (615 pts)</v>
+        <v>NZ - AR (609 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(615 pts)</v>
+        <v>(609 pts)</v>
       </c>
     </row>
     <row r="21">
@@ -635,90 +635,90 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B24" t="str">
-        <v>SA - BOWL (563 pts)</v>
+        <v>BAN - AR (578 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(563 pts)</v>
+        <v>(578 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Glenn Phillips</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B25" t="str">
-        <v>NZ - AR (556 pts)</v>
+        <v>ENG - BAT (564 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(556 pts)</v>
+        <v>(564 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Dawid Malan</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B26" t="str">
-        <v>ENG - BAT (564 pts)</v>
+        <v>SA - BOWL (563 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(564 pts)</v>
+        <v>(563 pts)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B27" t="str">
-        <v>BAN - AR (578 pts)</v>
+        <v>PAK - BOWL (556 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(578 pts)</v>
+        <v>(556 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Haris Rauf</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B28" t="str">
-        <v>PAK - BOWL (556 pts)</v>
+        <v>SA - AR (554 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(556 pts)</v>
+        <v>(554 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Mohammad Shami</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B29" t="str">
-        <v>IND - BOWL (546 pts)</v>
+        <v>IND - BOWL (553 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(546 pts)</v>
+        <v>(553 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Aiden Markram</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B30" t="str">
-        <v>SA - AR (554 pts)</v>
+        <v>SA - BOWL (548 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(554 pts)</v>
+        <v>(548 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B31" t="str">
-        <v>SA - BOWL (548 pts)</v>
+        <v>NZ - WK (533 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(548 pts)</v>
+        <v>(533 pts)</v>
       </c>
     </row>
     <row r="32">
@@ -734,79 +734,79 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B33" t="str">
-        <v>SA - WK (530 pts)</v>
+        <v>IND - BAT (655 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(530 pts)</v>
+        <v>(655 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Rashid Khan</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B34" t="str">
-        <v>AFG - BOWL (531 pts)</v>
+        <v>NED - AR (664 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(531 pts)</v>
+        <v>(664 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Devon Conway</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B35" t="str">
-        <v>NZ - WK (533 pts)</v>
+        <v>SA - WK (530 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(533 pts)</v>
+        <v>(530 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B36" t="str">
-        <v>BAN - AR (522 pts)</v>
+        <v>AFG - BAT (523 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(522 pts)</v>
+        <v>(523 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Kusal Mendis</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B37" t="str">
-        <v>SL - WK (519 pts)</v>
+        <v>BAN - AR (522 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(519 pts)</v>
+        <v>(522 pts)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B38" t="str">
-        <v>AFG - BAT (523 pts)</v>
+        <v>SL - WK (519 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(523 pts)</v>
+        <v>(519 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B39" t="str">
-        <v>IND - BOWL (528 pts)</v>
+        <v>IND - BAT (515 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(528 pts)</v>
+        <v>(515 pts)</v>
       </c>
     </row>
     <row r="40">
@@ -822,57 +822,57 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Shubman Gill</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B41" t="str">
-        <v>IND - BAT (515 pts)</v>
+        <v>NZ - BOWL (500 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(515 pts)</v>
+        <v>(500 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Chris Woakes</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B42" t="str">
-        <v>ENG - AR (479 pts)</v>
+        <v>BAN - AR (480 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(479 pts)</v>
+        <v>(480 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B43" t="str">
-        <v>SA - BOWL (471 pts)</v>
+        <v>ENG - AR (479 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(471 pts)</v>
+        <v>(479 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Trent Boult</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B44" t="str">
-        <v>NZ - BOWL (498 pts)</v>
+        <v>SA - BOWL (471 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(498 pts)</v>
+        <v>(471 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B45" t="str">
-        <v>BAN - AR (480 pts)</v>
+        <v>AFG - BOWL (531 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(480 pts)</v>
+        <v>(531 pts)</v>
       </c>
     </row>
     <row r="46">
@@ -888,24 +888,24 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Colin Ackermann</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B47" t="str">
-        <v>NED - AR (461 pts)</v>
+        <v>AUS - BOWL (469 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(461 pts)</v>
+        <v>(469 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Pat Cummins</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B48" t="str">
-        <v>AUS - BOWL (469 pts)</v>
+        <v>NED - AR (461 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(469 pts)</v>
+        <v>(461 pts)</v>
       </c>
     </row>
     <row r="49">
@@ -921,46 +921,46 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>David Willey</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B50" t="str">
-        <v>ENG - AR (450 pts)</v>
+        <v>PAK - BAT (452 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(450 pts)</v>
+        <v>(452 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Babar Azam</v>
+        <v>David Willey</v>
       </c>
       <c r="B51" t="str">
-        <v>PAK - BAT (452 pts)</v>
+        <v>ENG - AR (450 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(452 pts)</v>
+        <v>(450 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Mitchell Starc</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B52" t="str">
-        <v>AUS - BOWL (448 pts)</v>
+        <v>AUS - BAT (449 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(448 pts)</v>
+        <v>(449 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B53" t="str">
-        <v>AUS - BAT (449 pts)</v>
+        <v>AUS - BOWL (448 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(449 pts)</v>
+        <v>(448 pts)</v>
       </c>
     </row>
     <row r="54">
@@ -987,98 +987,98 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B56" t="str">
-        <v>NED - AR (431 pts)</v>
+        <v>NED - BOWL (441 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(431 pts)</v>
+        <v>(441 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Aryan Dutt</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B57" t="str">
-        <v>NED - BOWL (441 pts)</v>
+        <v>IND - BOWL (439 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(441 pts)</v>
+        <v>(439 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B58" t="str">
-        <v>NED - BOWL (427 pts)</v>
+        <v>NED - AR (431 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(427 pts)</v>
+        <v>(431 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B59" t="str">
-        <v>AUS - BOWL (426 pts)</v>
+        <v>AFG - AR (428 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(426 pts)</v>
+        <v>(428 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Rahmat Shah</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B60" t="str">
-        <v>AFG - AR (428 pts)</v>
+        <v>NED - BOWL (427 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(428 pts)</v>
+        <v>(427 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Joe Root</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B61" t="str">
-        <v>ENG - BAT (425 pts)</v>
+        <v>AUS - BOWL (426 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(425 pts)</v>
+        <v>(426 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Joe Root</v>
       </c>
       <c r="B62" t="str">
-        <v>IND - BOWL (418 pts)</v>
+        <v>ENG - BAT (425 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(418 pts)</v>
+        <v>(425 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Litton Das</v>
+        <v>David Miller</v>
       </c>
       <c r="B63" t="str">
-        <v>BAN - WK (409 pts)</v>
+        <v>SA - BAT (410 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(409 pts)</v>
+        <v>(410 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>David Miller</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B64" t="str">
-        <v>SA - BAT (410 pts)</v>
+        <v>AFG - WK (410 pts)</v>
       </c>
       <c r="C64" t="str">
         <v>(410 pts)</v>
@@ -1086,98 +1086,98 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Matt Henry</v>
+        <v>Litton Das</v>
       </c>
       <c r="B65" t="str">
-        <v>NZ - BOWL (407 pts)</v>
+        <v>BAN - WK (409 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(407 pts)</v>
+        <v>(409 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B66" t="str">
-        <v>AFG - AR (392 pts)</v>
+        <v>SL - BAT (409 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(392 pts)</v>
+        <v>(409 pts)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B67" t="str">
-        <v>AFG - BAT (377 pts)</v>
+        <v>NZ - BOWL (407 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(377 pts)</v>
+        <v>(407 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Shoriful Islam</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B68" t="str">
-        <v>BAN - BOWL (361 pts)</v>
+        <v>AFG - AR (392 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(361 pts)</v>
+        <v>(392 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B69" t="str">
-        <v>PAK - BOWL (359 pts)</v>
+        <v>AFG - BAT (377 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(359 pts)</v>
+        <v>(377 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B70" t="str">
-        <v>AFG - BOWL (353 pts)</v>
+        <v>BAN - BOWL (361 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(353 pts)</v>
+        <v>(361 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B71" t="str">
-        <v>AFG - WK (410 pts)</v>
+        <v>PAK - BOWL (359 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(410 pts)</v>
+        <v>(359 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B72" t="str">
-        <v>PAK - AR (349 pts)</v>
+        <v>AFG - BOWL (353 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(349 pts)</v>
+        <v>(353 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Saud Shakeel</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B73" t="str">
-        <v>PAK - BAT (349 pts)</v>
+        <v>PAK - AR (349 pts)</v>
       </c>
       <c r="C73" t="str">
         <v>(349 pts)</v>
@@ -1185,35 +1185,35 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Charith Asalanka</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B74" t="str">
-        <v>SL - BAT (409 pts)</v>
+        <v>PAK - BAT (349 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(409 pts)</v>
+        <v>(349 pts)</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Steven Smith</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B75" t="str">
-        <v>AUS - BAT (338 pts)</v>
+        <v>NZ - BAT (340 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(338 pts)</v>
+        <v>(340 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B76" t="str">
-        <v>BAN - WK (330 pts)</v>
+        <v>AUS - BAT (338 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(330 pts)</v>
+        <v>(338 pts)</v>
       </c>
     </row>
     <row r="77">
@@ -1229,10 +1229,10 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B78" t="str">
-        <v>PAK - BAT (330 pts)</v>
+        <v>BAN - WK (330 pts)</v>
       </c>
       <c r="C78" t="str">
         <v>(330 pts)</v>
@@ -1240,13 +1240,13 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Jos Buttler</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B79" t="str">
-        <v>ENG - WK (325 pts)</v>
+        <v>PAK - BAT (330 pts)</v>
       </c>
       <c r="C79" t="str">
-        <v>(325 pts)</v>
+        <v>(330 pts)</v>
       </c>
     </row>
     <row r="80">
@@ -1262,10 +1262,10 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B81" t="str">
-        <v>SA - BOWL (325 pts)</v>
+        <v>ENG - WK (325 pts)</v>
       </c>
       <c r="C81" t="str">
         <v>(325 pts)</v>
@@ -1273,21 +1273,21 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B82" t="str">
-        <v>BAN - BAT (311 pts)</v>
+        <v>SA - BOWL (325 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(311 pts)</v>
+        <v>(325 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Tom Latham</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B83" t="str">
-        <v>NZ - WK (315 pts)</v>
+        <v>NZ - BOWL (315 pts)</v>
       </c>
       <c r="C83" t="str">
         <v>(315 pts)</v>
@@ -1295,57 +1295,57 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Moeen Ali</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B84" t="str">
-        <v>ENG - AR (302 pts)</v>
+        <v>NZ - WK (312 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(302 pts)</v>
+        <v>(312 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Mark Wood</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B85" t="str">
-        <v>ENG - BOWL (298 pts)</v>
+        <v>BAN - BAT (311 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(298 pts)</v>
+        <v>(311 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B86" t="str">
-        <v>NED - AR (288 pts)</v>
+        <v>SL - BOWL (310 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(288 pts)</v>
+        <v>(310 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B87" t="str">
-        <v>NZ - BOWL (307 pts)</v>
+        <v>ENG - BOWL (298 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(307 pts)</v>
+        <v>(298 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B88" t="str">
-        <v>SL - BOWL (310 pts)</v>
+        <v>NED - AR (288 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(310 pts)</v>
+        <v>(288 pts)</v>
       </c>
     </row>
     <row r="89">
@@ -1372,46 +1372,46 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Angelo Mathews</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B91" t="str">
-        <v>SL - BAT (262 pts)</v>
+        <v>AFG - BOWL (286 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(262 pts)</v>
+        <v>(286 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Kane Williamson</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B92" t="str">
-        <v>NZ - BAT (257 pts)</v>
+        <v>AUS - WK (284 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(257 pts)</v>
+        <v>(284 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Angelo Mathews</v>
       </c>
       <c r="B93" t="str">
-        <v>AFG - BOWL (286 pts)</v>
+        <v>SL - BAT (262 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(286 pts)</v>
+        <v>(262 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Josh Inglis</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B94" t="str">
-        <v>AUS - WK (284 pts)</v>
+        <v>ENG - AR (302 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(284 pts)</v>
+        <v>(302 pts)</v>
       </c>
     </row>
     <row r="95">
@@ -1427,24 +1427,24 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Reece Topley</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B96" t="str">
-        <v>ENG - BOWL (247 pts)</v>
+        <v>BAN - BAT (243 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(247 pts)</v>
+        <v>(243 pts)</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B97" t="str">
-        <v>BAN - BAT (243 pts)</v>
+        <v>AUS - AR (239 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(243 pts)</v>
+        <v>(239 pts)</v>
       </c>
     </row>
     <row r="98">
@@ -1460,13 +1460,13 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B99" t="str">
-        <v>AUS - AR (239 pts)</v>
+        <v>ENG - BOWL (247 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(239 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="100">
@@ -1493,24 +1493,24 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Fazalhaq Farooqi</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B102" t="str">
-        <v>AFG - BOWL (226 pts)</v>
+        <v>PAK - AR (230 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(226 pts)</v>
+        <v>(230 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B103" t="str">
-        <v>SL - AR (225 pts)</v>
+        <v>BAN - AR (227 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(225 pts)</v>
+        <v>(227 pts)</v>
       </c>
     </row>
     <row r="104">
@@ -1526,32 +1526,32 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B105" t="str">
-        <v>BAN - AR (227 pts)</v>
+        <v>SL - AR (225 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(227 pts)</v>
+        <v>(225 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Shadab Khan</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B106" t="str">
-        <v>PAK - AR (230 pts)</v>
+        <v>SA - BAT (223 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(230 pts)</v>
+        <v>(223 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Temba Bavuma</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B107" t="str">
-        <v>SA - BAT (223 pts)</v>
+        <v>BAN - BOWL (223 pts)</v>
       </c>
       <c r="C107" t="str">
         <v>(223 pts)</v>
@@ -1559,43 +1559,43 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B108" t="str">
-        <v>BAN - BOWL (223 pts)</v>
+        <v>PAK - BAT (221 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(223 pts)</v>
+        <v>(221 pts)</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Fazalhaq Farooqi</v>
       </c>
       <c r="B109" t="str">
-        <v>PAK - BAT (221 pts)</v>
+        <v>AFG - BOWL (226 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(221 pts)</v>
+        <v>(226 pts)</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B110" t="str">
-        <v>AFG - WK (218 pts)</v>
+        <v>NZ - BOWL (209 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(218 pts)</v>
+        <v>(209 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Tim Southee</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B111" t="str">
-        <v>NZ - BOWL (199 pts)</v>
+        <v>NED - BAT (199 pts)</v>
       </c>
       <c r="C111" t="str">
         <v>(199 pts)</v>
@@ -1603,24 +1603,24 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Max O'Dowd</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B112" t="str">
-        <v>NED - BAT (199 pts)</v>
+        <v>SA - BOWL (198 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(199 pts)</v>
+        <v>(198 pts)</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B113" t="str">
-        <v>SA - BOWL (198 pts)</v>
+        <v>AFG - WK (218 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(198 pts)</v>
+        <v>(218 pts)</v>
       </c>
     </row>
     <row r="114">
@@ -1658,90 +1658,90 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Hardik Pandya</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B117" t="str">
-        <v>IND - AR (170 pts)</v>
+        <v>PAK - AR (182 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(170 pts)</v>
+        <v>(182 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Usama Mir</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B118" t="str">
-        <v>PAK - BOWL (158 pts)</v>
+        <v>ENG - BOWL (172 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(158 pts)</v>
+        <v>(172 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Vikram Singh</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B119" t="str">
-        <v>NED - AR (150 pts)</v>
+        <v>IND - AR (170 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(150 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Mark Chapman</v>
+        <v>Vikram Singh</v>
       </c>
       <c r="B120" t="str">
-        <v>NZ - BAT (140 pts)</v>
+        <v>NED - AR (150 pts)</v>
       </c>
       <c r="C120" t="str">
-        <v>(140 pts)</v>
+        <v>(150 pts)</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B121" t="str">
-        <v>SA - BAT (135 pts)</v>
+        <v>NZ - BAT (142 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(135 pts)</v>
+        <v>(142 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>James Neesham</v>
       </c>
       <c r="B122" t="str">
-        <v>PAK - AR (182 pts)</v>
+        <v>NZ - AR (136 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(182 pts)</v>
+        <v>(136 pts)</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Gus Atkinson</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B123" t="str">
-        <v>ENG - BOWL (172 pts)</v>
+        <v>PAK - BOWL (158 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(172 pts)</v>
+        <v>(158 pts)</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>James Neesham</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B124" t="str">
-        <v>NZ - AR (136 pts)</v>
+        <v>SA - BAT (135 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(136 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="125">
@@ -1749,76 +1749,76 @@
         <v>Suryakumar Yadav</v>
       </c>
       <c r="B125" t="str">
-        <v>IND - BAT (127 pts)</v>
+        <v>IND - BAT (135 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(127 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Dasun Shanaka</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B126" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>NED - WK (122 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(114 pts)</v>
+        <v>(122 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B127" t="str">
-        <v>SL - BOWL (96 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(96 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Agha Salman</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B128" t="str">
-        <v>PAK - AR (101 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C128" t="str">
-        <v>(101 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Wesley Barresi</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B129" t="str">
-        <v>NED - WK (122 pts)</v>
+        <v>PAK - AR (101 pts)</v>
       </c>
       <c r="C129" t="str">
-        <v>(122 pts)</v>
+        <v>(101 pts)</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Sam Curran</v>
+        <v>Tanzim Hasan Sakib</v>
       </c>
       <c r="B130" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>BAN - BOWL (91 pts)</v>
       </c>
       <c r="C130" t="str">
-        <v>(118 pts)</v>
+        <v>(91 pts)</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Tanzim Hasan Sakib</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B131" t="str">
-        <v>BAN - BOWL (91 pts)</v>
+        <v>BAN - BOWL (90 pts)</v>
       </c>
       <c r="C131" t="str">
-        <v>(91 pts)</v>
+        <v>(90 pts)</v>
       </c>
     </row>
     <row r="132">
@@ -1834,46 +1834,46 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Cameron Green</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B133" t="str">
-        <v>AUS - AR (95 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C133" t="str">
-        <v>(95 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B134" t="str">
-        <v>BAN - BOWL (90 pts)</v>
+        <v>IND - BOWL (78 pts)</v>
       </c>
       <c r="C134" t="str">
-        <v>(90 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B135" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>AUS - AR (95 pts)</v>
       </c>
       <c r="C135" t="str">
-        <v>(79 pts)</v>
+        <v>(95 pts)</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Sean Abbott</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B136" t="str">
-        <v>AUS - BOWL (74 pts)</v>
+        <v>SL - BOWL (96 pts)</v>
       </c>
       <c r="C136" t="str">
-        <v>(74 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="137">
@@ -1889,167 +1889,167 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Shardul Thakur</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B138" t="str">
-        <v>IND - BOWL (78 pts)</v>
+        <v>AUS - BOWL (74 pts)</v>
       </c>
       <c r="C138" t="str">
-        <v>(78 pts)</v>
+        <v>(74 pts)</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Ishan Kishan</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B139" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>NED - AR (71 pts)</v>
       </c>
       <c r="C139" t="str">
-        <v>(63 pts)</v>
+        <v>(71 pts)</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Lizaad Williams</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B140" t="str">
-        <v>SA - BOWL (58 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C140" t="str">
-        <v>(58 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B141" t="str">
-        <v>NED - AR (71 pts)</v>
+        <v>BAN - BOWL (61 pts)</v>
       </c>
       <c r="C141" t="str">
-        <v>(71 pts)</v>
+        <v>(61 pts)</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B142" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>SA - BOWL (58 pts)</v>
       </c>
       <c r="C142" t="str">
-        <v>(53 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B143" t="str">
-        <v>BAN - BOWL (61 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C143" t="str">
-        <v>(61 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Chamika Karunaratne</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B144" t="str">
-        <v>SL - AR (39 pts)</v>
+        <v>SL - BAT (37 pts)</v>
       </c>
       <c r="C144" t="str">
-        <v>(39 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B145" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C145" t="str">
-        <v>(37 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Dushan Hemantha</v>
       </c>
       <c r="B146" t="str">
-        <v>SL - BAT (37 pts)</v>
+        <v>SL - AR (18 pts)</v>
       </c>
       <c r="C146" t="str">
-        <v>(37 pts)</v>
+        <v>(18 pts)</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Ryan Klein</v>
       </c>
       <c r="B147" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>NED - BOWL (16 pts)</v>
       </c>
       <c r="C147" t="str">
-        <v>(27 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Dushan Hemantha</v>
+        <v>Shariz Ahmad</v>
       </c>
       <c r="B148" t="str">
-        <v>SL - AR (18 pts)</v>
+        <v>NED - BOWL (10 pts)</v>
       </c>
       <c r="C148" t="str">
-        <v>(18 pts)</v>
+        <v>(10 pts)</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Ish Sodhi</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B149" t="str">
-        <v>NZ - BOWL (4 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C149" t="str">
-        <v>(4 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Chamika Karunaratne</v>
       </c>
       <c r="B150" t="str">
-        <v>NED - BOWL (10 pts)</v>
+        <v>SL - AR (39 pts)</v>
       </c>
       <c r="C150" t="str">
-        <v>(10 pts)</v>
+        <v>(39 pts)</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Ryan Klein</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B151" t="str">
-        <v>NED - BOWL (16 pts)</v>
+        <v>NZ - BOWL (4 pts)</v>
       </c>
       <c r="C151" t="str">
-        <v>(16 pts)</v>
+        <v>(4 pts)</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Alex Carey</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B152" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C152" t="str">
-        <v>(1 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="153">
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Shamim Hossain</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B164" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C164" t="str">
         <v>(0 pts)</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Abdul Rahman</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B165" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C165" t="str">
         <v>(0 pts)</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Afif Hossain</v>
+        <v>Abdul Rahman</v>
       </c>
       <c r="B166" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C166" t="str">
         <v>(0 pts)</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Riaz Hassan</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B167" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C167" t="str">
         <v>(0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -393,112 +393,112 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Virat Kohli</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B2" t="str">
-        <v>IND - BAT (943 pts)</v>
+        <v>SA - WK (945 pts)</v>
       </c>
       <c r="C2" t="str">
-        <v>(943 pts)</v>
+        <v>(945 pts)</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Quinton de Kock</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B3" t="str">
-        <v>SA - WK (930 pts)</v>
+        <v>IND - BAT (943 pts)</v>
       </c>
       <c r="C3" t="str">
-        <v>(930 pts)</v>
+        <v>(943 pts)</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B4" t="str">
-        <v>NZ - AR (816 pts)</v>
+        <v>NZ - AR (900 pts)</v>
       </c>
       <c r="C4" t="str">
-        <v>(816 pts)</v>
+        <v>(900 pts)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Ravindra Jadeja</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B5" t="str">
-        <v>IND - AR (742 pts)</v>
+        <v>NZ - AR (816 pts)</v>
       </c>
       <c r="C5" t="str">
-        <v>(742 pts)</v>
+        <v>(816 pts)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B6" t="str">
-        <v>IND - BAT (735 pts)</v>
+        <v>IND - BAT (794 pts)</v>
       </c>
       <c r="C6" t="str">
-        <v>(735 pts)</v>
+        <v>(794 pts)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Glenn Maxwell</v>
+        <v>David Warner</v>
       </c>
       <c r="B7" t="str">
-        <v>AUS - AR (725 pts)</v>
+        <v>AUS - BAT (761 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(725 pts)</v>
+        <v>(761 pts)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Mohammad Shami</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B8" t="str">
-        <v>IND - BOWL (737 pts)</v>
+        <v>AUS - AR (740 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(737 pts)</v>
+        <v>(740 pts)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Mohammad Shami</v>
       </c>
       <c r="B9" t="str">
-        <v>NZ - AR (900 pts)</v>
+        <v>IND - BOWL (737 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(900 pts)</v>
+        <v>(737 pts)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Rohit Sharma</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B10" t="str">
-        <v>IND - BAT (794 pts)</v>
+        <v>IND - BAT (735 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(794 pts)</v>
+        <v>(735 pts)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Marco Jansen</v>
+        <v>Ravindra Jadeja</v>
       </c>
       <c r="B11" t="str">
-        <v>SA - AR (705 pts)</v>
+        <v>IND - AR (742 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(705 pts)</v>
+        <v>(742 pts)</v>
       </c>
     </row>
     <row r="12">
@@ -506,21 +506,21 @@
         <v>Adam Zampa</v>
       </c>
       <c r="B12" t="str">
-        <v>AUS - BOWL (725 pts)</v>
+        <v>AUS - BOWL (727 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(725 pts)</v>
+        <v>(727 pts)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>David Warner</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B13" t="str">
-        <v>AUS - BAT (711 pts)</v>
+        <v>SA - AR (706 pts)</v>
       </c>
       <c r="C13" t="str">
-        <v>(711 pts)</v>
+        <v>(706 pts)</v>
       </c>
     </row>
     <row r="14">
@@ -536,167 +536,167 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Mitchell Santner</v>
       </c>
       <c r="B15" t="str">
-        <v>AFG - AR (664 pts)</v>
+        <v>NZ - AR (673 pts)</v>
       </c>
       <c r="C15" t="str">
-        <v>(664 pts)</v>
+        <v>(673 pts)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Mitchell Santner</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B16" t="str">
-        <v>NZ - AR (673 pts)</v>
+        <v>AFG - AR (664 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(673 pts)</v>
+        <v>(664 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B17" t="str">
-        <v>IND - BOWL (652 pts)</v>
+        <v>IND - BAT (655 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(652 pts)</v>
+        <v>(655 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B18" t="str">
-        <v>PAK - BOWL (632 pts)</v>
+        <v>IND - BOWL (652 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(632 pts)</v>
+        <v>(652 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B19" t="str">
-        <v>AUS - AR (615 pts)</v>
+        <v>NED - AR (664 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(615 pts)</v>
+        <v>(664 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Glenn Phillips</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B20" t="str">
-        <v>NZ - AR (609 pts)</v>
+        <v>AUS - AR (616 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(609 pts)</v>
+        <v>(616 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Adil Rashid</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B21" t="str">
-        <v>ENG - BOWL (606 pts)</v>
+        <v>SA - AR (609 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(606 pts)</v>
+        <v>(609 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Mohammad Rizwan</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B22" t="str">
-        <v>PAK - WK (599 pts)</v>
+        <v>NZ - AR (609 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(599 pts)</v>
+        <v>(609 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B23" t="str">
-        <v>SA - BAT (581 pts)</v>
+        <v>PAK - BOWL (632 pts)</v>
       </c>
       <c r="C23" t="str">
-        <v>(581 pts)</v>
+        <v>(632 pts)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B24" t="str">
-        <v>BAN - AR (578 pts)</v>
+        <v>SA - BOWL (646 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(578 pts)</v>
+        <v>(646 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Dawid Malan</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B25" t="str">
-        <v>ENG - BAT (564 pts)</v>
+        <v>ENG - BOWL (606 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(564 pts)</v>
+        <v>(606 pts)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Mohammad Rizwan</v>
       </c>
       <c r="B26" t="str">
-        <v>SA - BOWL (563 pts)</v>
+        <v>PAK - WK (599 pts)</v>
       </c>
       <c r="C26" t="str">
-        <v>(563 pts)</v>
+        <v>(599 pts)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Haris Rauf</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B27" t="str">
-        <v>PAK - BOWL (556 pts)</v>
+        <v>SA - WK (589 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(556 pts)</v>
+        <v>(589 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Aiden Markram</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B28" t="str">
-        <v>SA - AR (554 pts)</v>
+        <v>BAN - AR (578 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(554 pts)</v>
+        <v>(578 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B29" t="str">
-        <v>IND - BOWL (553 pts)</v>
+        <v>SA - BAT (593 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(553 pts)</v>
+        <v>(593 pts)</v>
       </c>
     </row>
     <row r="30">
@@ -704,329 +704,329 @@
         <v>Keshav Maharaj</v>
       </c>
       <c r="B30" t="str">
-        <v>SA - BOWL (548 pts)</v>
+        <v>SA - BOWL (595 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(548 pts)</v>
+        <v>(595 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Devon Conway</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B31" t="str">
-        <v>NZ - WK (533 pts)</v>
+        <v>AUS - BOWL (572 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(533 pts)</v>
+        <v>(572 pts)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Logan van Beek</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B32" t="str">
-        <v>NED - BOWL (531 pts)</v>
+        <v>PAK - BOWL (556 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(531 pts)</v>
+        <v>(556 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>KL Rahul</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B33" t="str">
-        <v>IND - BAT (655 pts)</v>
+        <v>AUS - BOWL (553 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(655 pts)</v>
+        <v>(553 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Bas de Leede</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B34" t="str">
-        <v>NED - AR (664 pts)</v>
+        <v>ENG - BAT (564 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(664 pts)</v>
+        <v>(564 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B35" t="str">
-        <v>SA - WK (530 pts)</v>
+        <v>IND - BOWL (553 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(530 pts)</v>
+        <v>(553 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B36" t="str">
-        <v>AFG - BAT (523 pts)</v>
+        <v>NED - BOWL (531 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(523 pts)</v>
+        <v>(531 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B37" t="str">
-        <v>BAN - AR (522 pts)</v>
+        <v>AFG - BOWL (531 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(522 pts)</v>
+        <v>(531 pts)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Kusal Mendis</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B38" t="str">
-        <v>SL - WK (519 pts)</v>
+        <v>AFG - BAT (523 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(519 pts)</v>
+        <v>(523 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Shubman Gill</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B39" t="str">
-        <v>IND - BAT (515 pts)</v>
+        <v>BAN - AR (522 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(515 pts)</v>
+        <v>(522 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B40" t="str">
-        <v>SL - WK (510 pts)</v>
+        <v>SL - WK (519 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(510 pts)</v>
+        <v>(519 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Trent Boult</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B41" t="str">
-        <v>NZ - BOWL (500 pts)</v>
+        <v>NZ - WK (533 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(500 pts)</v>
+        <v>(533 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B42" t="str">
-        <v>BAN - AR (480 pts)</v>
+        <v>IND - BAT (515 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(480 pts)</v>
+        <v>(515 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Chris Woakes</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B43" t="str">
-        <v>ENG - AR (479 pts)</v>
+        <v>SL - WK (510 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(479 pts)</v>
+        <v>(510 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B44" t="str">
-        <v>SA - BOWL (471 pts)</v>
+        <v>NZ - BOWL (500 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(471 pts)</v>
+        <v>(500 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Rashid Khan</v>
+        <v>David Miller</v>
       </c>
       <c r="B45" t="str">
-        <v>AFG - BOWL (531 pts)</v>
+        <v>SA - BAT (541 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(531 pts)</v>
+        <v>(541 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Scott Edwards</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B46" t="str">
-        <v>NED - WK (471 pts)</v>
+        <v>BAN - AR (480 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(471 pts)</v>
+        <v>(480 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Pat Cummins</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B47" t="str">
-        <v>AUS - BOWL (469 pts)</v>
+        <v>ENG - AR (479 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(469 pts)</v>
+        <v>(479 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Colin Ackermann</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B48" t="str">
-        <v>NED - AR (461 pts)</v>
+        <v>AUS - BAT (473 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(461 pts)</v>
+        <v>(473 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B49" t="str">
-        <v>PAK - BAT (459 pts)</v>
+        <v>SA - BOWL (512 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(459 pts)</v>
+        <v>(512 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Babar Azam</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B50" t="str">
-        <v>PAK - BAT (452 pts)</v>
+        <v>AUS - BOWL (498 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(452 pts)</v>
+        <v>(498 pts)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>David Willey</v>
+        <v>Scott Edwards</v>
       </c>
       <c r="B51" t="str">
-        <v>ENG - AR (450 pts)</v>
+        <v>NED - WK (471 pts)</v>
       </c>
       <c r="C51" t="str">
-        <v>(450 pts)</v>
+        <v>(471 pts)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B52" t="str">
-        <v>AUS - BAT (449 pts)</v>
+        <v>NED - AR (461 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(449 pts)</v>
+        <v>(461 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Mitchell Starc</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B53" t="str">
-        <v>AUS - BOWL (448 pts)</v>
+        <v>PAK - BAT (459 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(448 pts)</v>
+        <v>(459 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Pathum Nissanka</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B54" t="str">
-        <v>SL - BAT (448 pts)</v>
+        <v>PAK - BAT (452 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(448 pts)</v>
+        <v>(452 pts)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Ben Stokes</v>
+        <v>David Willey</v>
       </c>
       <c r="B55" t="str">
-        <v>ENG - AR (447 pts)</v>
+        <v>ENG - AR (450 pts)</v>
       </c>
       <c r="C55" t="str">
-        <v>(447 pts)</v>
+        <v>(450 pts)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Aryan Dutt</v>
+        <v>Pathum Nissanka</v>
       </c>
       <c r="B56" t="str">
-        <v>NED - BOWL (441 pts)</v>
+        <v>SL - BAT (448 pts)</v>
       </c>
       <c r="C56" t="str">
-        <v>(441 pts)</v>
+        <v>(448 pts)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Ben Stokes</v>
       </c>
       <c r="B57" t="str">
-        <v>IND - BOWL (439 pts)</v>
+        <v>ENG - AR (447 pts)</v>
       </c>
       <c r="C57" t="str">
-        <v>(439 pts)</v>
+        <v>(447 pts)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B58" t="str">
-        <v>NED - AR (431 pts)</v>
+        <v>NED - BOWL (441 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(431 pts)</v>
+        <v>(441 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Rahmat Shah</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B59" t="str">
-        <v>AFG - AR (428 pts)</v>
+        <v>IND - BOWL (439 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(428 pts)</v>
+        <v>(439 pts)</v>
       </c>
     </row>
     <row r="60">
@@ -1042,153 +1042,153 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Joe Root</v>
       </c>
       <c r="B61" t="str">
-        <v>AUS - BOWL (426 pts)</v>
+        <v>ENG - BAT (425 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(426 pts)</v>
+        <v>(425 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Joe Root</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B62" t="str">
-        <v>ENG - BAT (425 pts)</v>
+        <v>AFG - WK (410 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(425 pts)</v>
+        <v>(410 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>David Miller</v>
+        <v>Litton Das</v>
       </c>
       <c r="B63" t="str">
-        <v>SA - BAT (410 pts)</v>
+        <v>BAN - WK (409 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(410 pts)</v>
+        <v>(409 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B64" t="str">
-        <v>AFG - WK (410 pts)</v>
+        <v>SL - BAT (409 pts)</v>
       </c>
       <c r="C64" t="str">
-        <v>(410 pts)</v>
+        <v>(409 pts)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Litton Das</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B65" t="str">
-        <v>BAN - WK (409 pts)</v>
+        <v>NED - AR (431 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(409 pts)</v>
+        <v>(431 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Charith Asalanka</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B66" t="str">
-        <v>SL - BAT (409 pts)</v>
+        <v>AFG - AR (392 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(409 pts)</v>
+        <v>(392 pts)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Matt Henry</v>
+        <v>Steven Smith</v>
       </c>
       <c r="B67" t="str">
-        <v>NZ - BOWL (407 pts)</v>
+        <v>AUS - BAT (388 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(407 pts)</v>
+        <v>(388 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B68" t="str">
-        <v>AFG - AR (392 pts)</v>
+        <v>AFG - BAT (377 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(392 pts)</v>
+        <v>(377 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B69" t="str">
-        <v>AFG - BAT (377 pts)</v>
+        <v>BAN - BOWL (361 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(377 pts)</v>
+        <v>(361 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Shoriful Islam</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B70" t="str">
-        <v>BAN - BOWL (361 pts)</v>
+        <v>PAK - BOWL (359 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(361 pts)</v>
+        <v>(359 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B71" t="str">
-        <v>PAK - BOWL (359 pts)</v>
+        <v>NZ - BOWL (407 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(359 pts)</v>
+        <v>(407 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B72" t="str">
-        <v>AFG - BOWL (353 pts)</v>
+        <v>AFG - AR (428 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(353 pts)</v>
+        <v>(428 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Travis Head</v>
       </c>
       <c r="B73" t="str">
-        <v>PAK - AR (349 pts)</v>
+        <v>AUS - BAT (355 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(349 pts)</v>
+        <v>(355 pts)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Saud Shakeel</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B74" t="str">
-        <v>PAK - BAT (349 pts)</v>
+        <v>PAK - AR (349 pts)</v>
       </c>
       <c r="C74" t="str">
         <v>(349 pts)</v>
@@ -1196,32 +1196,32 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Kane Williamson</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B75" t="str">
-        <v>NZ - BAT (340 pts)</v>
+        <v>PAK - BAT (349 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(340 pts)</v>
+        <v>(349 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Steven Smith</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B76" t="str">
-        <v>AUS - BAT (338 pts)</v>
+        <v>NZ - BAT (340 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(338 pts)</v>
+        <v>(340 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B77" t="str">
-        <v>SL - BOWL (335 pts)</v>
+        <v>AUS - WK (335 pts)</v>
       </c>
       <c r="C77" t="str">
         <v>(335 pts)</v>
@@ -1229,21 +1229,21 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B78" t="str">
-        <v>BAN - WK (330 pts)</v>
+        <v>SL - BOWL (335 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(330 pts)</v>
+        <v>(335 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B79" t="str">
-        <v>PAK - BAT (330 pts)</v>
+        <v>BAN - WK (330 pts)</v>
       </c>
       <c r="C79" t="str">
         <v>(330 pts)</v>
@@ -1251,32 +1251,32 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Jonny Bairstow</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B80" t="str">
-        <v>ENG - WK (329 pts)</v>
+        <v>PAK - BAT (330 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(329 pts)</v>
+        <v>(330 pts)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Jos Buttler</v>
+        <v>Jonny Bairstow</v>
       </c>
       <c r="B81" t="str">
-        <v>ENG - WK (325 pts)</v>
+        <v>ENG - WK (329 pts)</v>
       </c>
       <c r="C81" t="str">
-        <v>(325 pts)</v>
+        <v>(329 pts)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B82" t="str">
-        <v>SA - BOWL (325 pts)</v>
+        <v>ENG - WK (325 pts)</v>
       </c>
       <c r="C82" t="str">
         <v>(325 pts)</v>
@@ -1284,387 +1284,387 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B83" t="str">
-        <v>NZ - BOWL (315 pts)</v>
+        <v>SA - BOWL (325 pts)</v>
       </c>
       <c r="C83" t="str">
-        <v>(315 pts)</v>
+        <v>(325 pts)</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Tom Latham</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B84" t="str">
-        <v>NZ - WK (312 pts)</v>
+        <v>AFG - BOWL (353 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(312 pts)</v>
+        <v>(353 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B85" t="str">
-        <v>BAN - BAT (311 pts)</v>
+        <v>NZ - BOWL (315 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(311 pts)</v>
+        <v>(315 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B86" t="str">
-        <v>SL - BOWL (310 pts)</v>
+        <v>NZ - WK (312 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(310 pts)</v>
+        <v>(312 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Mark Wood</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B87" t="str">
-        <v>ENG - BOWL (298 pts)</v>
+        <v>BAN - BAT (311 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(298 pts)</v>
+        <v>(311 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Roelof van der Merwe</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B88" t="str">
-        <v>NED - AR (288 pts)</v>
+        <v>SL - BOWL (310 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(288 pts)</v>
+        <v>(310 pts)</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Hasan Ali</v>
+        <v>Roelof van der Merwe</v>
       </c>
       <c r="B89" t="str">
-        <v>PAK - BOWL (287 pts)</v>
+        <v>NED - AR (288 pts)</v>
       </c>
       <c r="C89" t="str">
-        <v>(287 pts)</v>
+        <v>(288 pts)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Will Young</v>
+        <v>Mark Wood</v>
       </c>
       <c r="B90" t="str">
-        <v>NZ - BAT (286 pts)</v>
+        <v>ENG - BOWL (298 pts)</v>
       </c>
       <c r="C90" t="str">
-        <v>(286 pts)</v>
+        <v>(298 pts)</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B91" t="str">
-        <v>AFG - BOWL (286 pts)</v>
+        <v>ENG - AR (302 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(286 pts)</v>
+        <v>(302 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Josh Inglis</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B92" t="str">
-        <v>AUS - WK (284 pts)</v>
+        <v>PAK - BOWL (287 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(284 pts)</v>
+        <v>(287 pts)</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Angelo Mathews</v>
+        <v>Tabraiz Shamsi</v>
       </c>
       <c r="B93" t="str">
-        <v>SL - BAT (262 pts)</v>
+        <v>SA - BOWL (271 pts)</v>
       </c>
       <c r="C93" t="str">
-        <v>(262 pts)</v>
+        <v>(271 pts)</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Moeen Ali</v>
+        <v>Will Young</v>
       </c>
       <c r="B94" t="str">
-        <v>ENG - AR (302 pts)</v>
+        <v>NZ - BAT (286 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(302 pts)</v>
+        <v>(286 pts)</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B95" t="str">
-        <v>NED - BAT (251 pts)</v>
+        <v>AFG - BOWL (286 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(251 pts)</v>
+        <v>(286 pts)</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Angelo Mathews</v>
       </c>
       <c r="B96" t="str">
-        <v>BAN - BAT (243 pts)</v>
+        <v>SL - BAT (262 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(243 pts)</v>
+        <v>(262 pts)</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B97" t="str">
-        <v>AUS - AR (239 pts)</v>
+        <v>NED - BAT (251 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(239 pts)</v>
+        <v>(251 pts)</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Kusal Perera</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B98" t="str">
-        <v>SL - WK (241 pts)</v>
+        <v>ENG - BOWL (247 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(241 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Reece Topley</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B99" t="str">
-        <v>ENG - BOWL (247 pts)</v>
+        <v>BAN - BAT (243 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(247 pts)</v>
+        <v>(243 pts)</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B100" t="str">
-        <v>BAN - BAT (238 pts)</v>
+        <v>SL - WK (241 pts)</v>
       </c>
       <c r="C100" t="str">
-        <v>(238 pts)</v>
+        <v>(241 pts)</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B101" t="str">
-        <v>BAN - BOWL (237 pts)</v>
+        <v>AUS - AR (239 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(237 pts)</v>
+        <v>(239 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Shadab Khan</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B102" t="str">
-        <v>PAK - AR (230 pts)</v>
+        <v>BAN - BOWL (237 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(230 pts)</v>
+        <v>(237 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B103" t="str">
-        <v>BAN - AR (227 pts)</v>
+        <v>BAN - BAT (238 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(227 pts)</v>
+        <v>(238 pts)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Harry Brook</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B104" t="str">
-        <v>ENG - BAT (229 pts)</v>
+        <v>BAN - AR (227 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(229 pts)</v>
+        <v>(227 pts)</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Dhananjaya de Silva</v>
+        <v>Harry Brook</v>
       </c>
       <c r="B105" t="str">
-        <v>SL - AR (225 pts)</v>
+        <v>ENG - BAT (229 pts)</v>
       </c>
       <c r="C105" t="str">
-        <v>(225 pts)</v>
+        <v>(229 pts)</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Temba Bavuma</v>
+        <v>Fazalhaq Farooqi</v>
       </c>
       <c r="B106" t="str">
-        <v>SA - BAT (223 pts)</v>
+        <v>AFG - BOWL (226 pts)</v>
       </c>
       <c r="C106" t="str">
-        <v>(223 pts)</v>
+        <v>(226 pts)</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Dhananjaya de Silva</v>
       </c>
       <c r="B107" t="str">
-        <v>BAN - BOWL (223 pts)</v>
+        <v>SL - AR (225 pts)</v>
       </c>
       <c r="C107" t="str">
-        <v>(223 pts)</v>
+        <v>(225 pts)</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B108" t="str">
-        <v>PAK - BAT (221 pts)</v>
+        <v>BAN - BOWL (223 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(221 pts)</v>
+        <v>(223 pts)</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Fazalhaq Farooqi</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B109" t="str">
-        <v>AFG - BOWL (226 pts)</v>
+        <v>PAK - BAT (221 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(226 pts)</v>
+        <v>(221 pts)</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Tim Southee</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B110" t="str">
-        <v>NZ - BOWL (209 pts)</v>
+        <v>AFG - WK (218 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(209 pts)</v>
+        <v>(218 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Max O'Dowd</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B111" t="str">
-        <v>NED - BAT (199 pts)</v>
+        <v>NZ - BOWL (209 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(199 pts)</v>
+        <v>(209 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Tabraiz Shamsi</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B112" t="str">
-        <v>SA - BOWL (198 pts)</v>
+        <v>PAK - AR (230 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(198 pts)</v>
+        <v>(230 pts)</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B113" t="str">
-        <v>AFG - WK (218 pts)</v>
+        <v>AFG - BOWL (187 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(218 pts)</v>
+        <v>(187 pts)</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Travis Head</v>
+        <v>Max O'Dowd</v>
       </c>
       <c r="B114" t="str">
-        <v>AUS - BAT (192 pts)</v>
+        <v>NED - BAT (199 pts)</v>
       </c>
       <c r="C114" t="str">
-        <v>(192 pts)</v>
+        <v>(199 pts)</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Noor Ahmad</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B115" t="str">
-        <v>AFG - BOWL (187 pts)</v>
+        <v>ENG - AR (184 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(187 pts)</v>
+        <v>(184 pts)</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Liam Livingstone</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B116" t="str">
-        <v>ENG - AR (184 pts)</v>
+        <v>PAK - AR (182 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(184 pts)</v>
+        <v>(182 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B117" t="str">
-        <v>PAK - AR (182 pts)</v>
+        <v>IND - AR (170 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(182 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="118">
@@ -1680,13 +1680,13 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Hardik Pandya</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B119" t="str">
-        <v>IND - AR (170 pts)</v>
+        <v>PAK - BOWL (158 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(170 pts)</v>
+        <v>(158 pts)</v>
       </c>
     </row>
     <row r="120">
@@ -1702,101 +1702,101 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Mark Chapman</v>
+        <v>James Neesham</v>
       </c>
       <c r="B121" t="str">
-        <v>NZ - BAT (142 pts)</v>
+        <v>NZ - AR (136 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(142 pts)</v>
+        <v>(136 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>James Neesham</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B122" t="str">
-        <v>NZ - AR (136 pts)</v>
+        <v>SA - BAT (135 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(136 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Usama Mir</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B123" t="str">
-        <v>PAK - BOWL (158 pts)</v>
+        <v>IND - BAT (135 pts)</v>
       </c>
       <c r="C123" t="str">
-        <v>(158 pts)</v>
+        <v>(135 pts)</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Reeza Hendricks</v>
+        <v>Wesley Barresi</v>
       </c>
       <c r="B124" t="str">
-        <v>SA - BAT (135 pts)</v>
+        <v>NED - WK (122 pts)</v>
       </c>
       <c r="C124" t="str">
-        <v>(135 pts)</v>
+        <v>(122 pts)</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B125" t="str">
-        <v>IND - BAT (135 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(135 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Wesley Barresi</v>
+        <v>Dasun Shanaka</v>
       </c>
       <c r="B126" t="str">
-        <v>NED - WK (122 pts)</v>
+        <v>SL - AR (114 pts)</v>
       </c>
       <c r="C126" t="str">
-        <v>(122 pts)</v>
+        <v>(114 pts)</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Sam Curran</v>
+        <v>Agha Salman</v>
       </c>
       <c r="B127" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>PAK - AR (101 pts)</v>
       </c>
       <c r="C127" t="str">
-        <v>(118 pts)</v>
+        <v>(101 pts)</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Dasun Shanaka</v>
+        <v>Lahiru Kumara</v>
       </c>
       <c r="B128" t="str">
-        <v>SL - AR (114 pts)</v>
+        <v>SL - BOWL (96 pts)</v>
       </c>
       <c r="C128" t="str">
-        <v>(114 pts)</v>
+        <v>(96 pts)</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Agha Salman</v>
+        <v>Cameron Green</v>
       </c>
       <c r="B129" t="str">
-        <v>PAK - AR (101 pts)</v>
+        <v>AUS - AR (95 pts)</v>
       </c>
       <c r="C129" t="str">
-        <v>(101 pts)</v>
+        <v>(95 pts)</v>
       </c>
     </row>
     <row r="130">
@@ -1812,13 +1812,13 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B131" t="str">
-        <v>BAN - BOWL (90 pts)</v>
+        <v>SA - BAT (224 pts)</v>
       </c>
       <c r="C131" t="str">
-        <v>(90 pts)</v>
+        <v>(224 pts)</v>
       </c>
     </row>
     <row r="132">
@@ -1856,101 +1856,101 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Cameron Green</v>
+        <v>Andile Phehlukwayo</v>
       </c>
       <c r="B135" t="str">
-        <v>AUS - AR (95 pts)</v>
+        <v>SA - AR (77 pts)</v>
       </c>
       <c r="C135" t="str">
-        <v>(95 pts)</v>
+        <v>(77 pts)</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Lahiru Kumara</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B136" t="str">
-        <v>SL - BOWL (96 pts)</v>
+        <v>AUS - BOWL (74 pts)</v>
       </c>
       <c r="C136" t="str">
-        <v>(96 pts)</v>
+        <v>(74 pts)</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Andile Phehlukwayo</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B137" t="str">
-        <v>SA - AR (77 pts)</v>
+        <v>NED - AR (71 pts)</v>
       </c>
       <c r="C137" t="str">
-        <v>(77 pts)</v>
+        <v>(71 pts)</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Sean Abbott</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B138" t="str">
-        <v>AUS - BOWL (74 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C138" t="str">
-        <v>(74 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B139" t="str">
-        <v>NED - AR (71 pts)</v>
+        <v>BAN - BOWL (61 pts)</v>
       </c>
       <c r="C139" t="str">
-        <v>(71 pts)</v>
+        <v>(61 pts)</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Ishan Kishan</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B140" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>BAN - BOWL (90 pts)</v>
       </c>
       <c r="C140" t="str">
-        <v>(63 pts)</v>
+        <v>(90 pts)</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Lizaad Williams</v>
       </c>
       <c r="B141" t="str">
-        <v>BAN - BOWL (61 pts)</v>
+        <v>SA - BOWL (58 pts)</v>
       </c>
       <c r="C141" t="str">
-        <v>(61 pts)</v>
+        <v>(58 pts)</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Lizaad Williams</v>
+        <v>Matheesha Pathirana</v>
       </c>
       <c r="B142" t="str">
-        <v>SA - BOWL (58 pts)</v>
+        <v>SL - BOWL (53 pts)</v>
       </c>
       <c r="C142" t="str">
-        <v>(58 pts)</v>
+        <v>(53 pts)</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Matheesha Pathirana</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B143" t="str">
-        <v>SL - BOWL (53 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C143" t="str">
-        <v>(53 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="144">
@@ -1966,24 +1966,24 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Najibullah Zadran</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B145" t="str">
-        <v>AFG - BAT (27 pts)</v>
+        <v>NZ - BAT (142 pts)</v>
       </c>
       <c r="C145" t="str">
-        <v>(27 pts)</v>
+        <v>(142 pts)</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Dushan Hemantha</v>
+        <v>Najibullah Zadran</v>
       </c>
       <c r="B146" t="str">
-        <v>SL - AR (18 pts)</v>
+        <v>AFG - BAT (27 pts)</v>
       </c>
       <c r="C146" t="str">
-        <v>(18 pts)</v>
+        <v>(27 pts)</v>
       </c>
     </row>
     <row r="147">
@@ -2010,54 +2010,54 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Alex Carey</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B149" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>NZ - BOWL (4 pts)</v>
       </c>
       <c r="C149" t="str">
-        <v>(1 pts)</v>
+        <v>(4 pts)</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Chamika Karunaratne</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B150" t="str">
-        <v>SL - AR (39 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C150" t="str">
-        <v>(39 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Ish Sodhi</v>
+        <v>Dushan Hemantha</v>
       </c>
       <c r="B151" t="str">
-        <v>NZ - BOWL (4 pts)</v>
+        <v>SL - AR (18 pts)</v>
       </c>
       <c r="C151" t="str">
-        <v>(4 pts)</v>
+        <v>(18 pts)</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Chamika Karunaratne</v>
       </c>
       <c r="B152" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>SL - AR (39 pts)</v>
       </c>
       <c r="C152" t="str">
-        <v>(37 pts)</v>
+        <v>(39 pts)</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Anamul Haque</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B153" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C153" t="str">
         <v>(0 pts)</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Jason Roy</v>
+        <v>Tom Blundell</v>
       </c>
       <c r="B154" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>NZ - WK (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Ashton Agar</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B155" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C155" t="str">
         <v>(0 pts)</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Tom Blundell</v>
+        <v>Kyle Jamieson</v>
       </c>
       <c r="B156" t="str">
-        <v>NZ - WK (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C156" t="str">
         <v>(0 pts)</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Axar Patel</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B157" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C157" t="str">
         <v>(0 pts)</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Kyle Jamieson</v>
+        <v>Sahan Arachchige</v>
       </c>
       <c r="B158" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C158" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Binura Fernando</v>
+        <v>Brydon Carse</v>
       </c>
       <c r="B159" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>ENG - BOWL (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Sahan Arachchige</v>
+        <v>Pramod Madushan</v>
       </c>
       <c r="B160" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Brydon Carse</v>
+        <v>Prasidh Krishna</v>
       </c>
       <c r="B161" t="str">
-        <v>ENG - BOWL (0 pts)</v>
+        <v>IND - BOWL (0 pts)</v>
       </c>
       <c r="C161" t="str">
         <v>(0 pts)</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Pramod Madushan</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B162" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C162" t="str">
         <v>(0 pts)</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Prasidh Krishna</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B163" t="str">
-        <v>IND - BOWL (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C163" t="str">
         <v>(0 pts)</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Afif Hossain</v>
+        <v>Abdul Rahman</v>
       </c>
       <c r="B164" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C164" t="str">
         <v>(0 pts)</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Riaz Hassan</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B165" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C165" t="str">
         <v>(0 pts)</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Abdul Rahman</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B166" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C166" t="str">
         <v>(0 pts)</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Shamim Hossain</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B167" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C167" t="str">
         <v>(0 pts)</v>

--- a/public/Oct12.xlsx
+++ b/public/Oct12.xlsx
@@ -393,57 +393,57 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Quinton de Kock</v>
+        <v>Virat Kohli</v>
       </c>
       <c r="B2" t="str">
-        <v>SA - WK (945 pts)</v>
+        <v>IND - BAT (1017 pts)</v>
       </c>
       <c r="C2" t="str">
-        <v>(945 pts)</v>
+        <v>(1017 pts)</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Virat Kohli</v>
+        <v>Quinton de Kock</v>
       </c>
       <c r="B3" t="str">
-        <v>IND - BAT (943 pts)</v>
+        <v>SA - WK (945 pts)</v>
       </c>
       <c r="C3" t="str">
-        <v>(943 pts)</v>
+        <v>(945 pts)</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Rachin Ravindra</v>
+        <v>Rohit Sharma</v>
       </c>
       <c r="B4" t="str">
-        <v>NZ - AR (900 pts)</v>
+        <v>IND - BAT (861 pts)</v>
       </c>
       <c r="C4" t="str">
-        <v>(900 pts)</v>
+        <v>(861 pts)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Daryl Mitchell</v>
+        <v>Rachin Ravindra</v>
       </c>
       <c r="B5" t="str">
-        <v>NZ - AR (816 pts)</v>
+        <v>NZ - AR (900 pts)</v>
       </c>
       <c r="C5" t="str">
-        <v>(816 pts)</v>
+        <v>(900 pts)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Rohit Sharma</v>
+        <v>Daryl Mitchell</v>
       </c>
       <c r="B6" t="str">
-        <v>IND - BAT (794 pts)</v>
+        <v>NZ - AR (816 pts)</v>
       </c>
       <c r="C6" t="str">
-        <v>(794 pts)</v>
+        <v>(816 pts)</v>
       </c>
     </row>
     <row r="7">
@@ -451,21 +451,21 @@
         <v>David Warner</v>
       </c>
       <c r="B7" t="str">
-        <v>AUS - BAT (761 pts)</v>
+        <v>AUS - BAT (773 pts)</v>
       </c>
       <c r="C7" t="str">
-        <v>(761 pts)</v>
+        <v>(773 pts)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Glenn Maxwell</v>
+        <v>Adam Zampa</v>
       </c>
       <c r="B8" t="str">
-        <v>AUS - AR (740 pts)</v>
+        <v>AUS - BOWL (774 pts)</v>
       </c>
       <c r="C8" t="str">
-        <v>(740 pts)</v>
+        <v>(774 pts)</v>
       </c>
     </row>
     <row r="9">
@@ -473,21 +473,21 @@
         <v>Mohammad Shami</v>
       </c>
       <c r="B9" t="str">
-        <v>IND - BOWL (737 pts)</v>
+        <v>IND - BOWL (777 pts)</v>
       </c>
       <c r="C9" t="str">
-        <v>(737 pts)</v>
+        <v>(777 pts)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Shreyas Iyer</v>
+        <v>Glenn Maxwell</v>
       </c>
       <c r="B10" t="str">
-        <v>IND - BAT (735 pts)</v>
+        <v>AUS - AR (771 pts)</v>
       </c>
       <c r="C10" t="str">
-        <v>(735 pts)</v>
+        <v>(771 pts)</v>
       </c>
     </row>
     <row r="11">
@@ -495,43 +495,43 @@
         <v>Ravindra Jadeja</v>
       </c>
       <c r="B11" t="str">
-        <v>IND - AR (742 pts)</v>
+        <v>IND - AR (755 pts)</v>
       </c>
       <c r="C11" t="str">
-        <v>(742 pts)</v>
+        <v>(755 pts)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Adam Zampa</v>
+        <v>Shreyas Iyer</v>
       </c>
       <c r="B12" t="str">
-        <v>AUS - BOWL (727 pts)</v>
+        <v>IND - BAT (744 pts)</v>
       </c>
       <c r="C12" t="str">
-        <v>(727 pts)</v>
+        <v>(744 pts)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Marco Jansen</v>
+        <v>Jasprit Bumrah</v>
       </c>
       <c r="B13" t="str">
-        <v>SA - AR (706 pts)</v>
+        <v>IND - BOWL (723 pts)</v>
       </c>
       <c r="C13" t="str">
-        <v>(706 pts)</v>
+        <v>(723 pts)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Dilshan Madushanka</v>
+        <v>Marco Jansen</v>
       </c>
       <c r="B14" t="str">
-        <v>SL - BOWL (687 pts)</v>
+        <v>SA - AR (706 pts)</v>
       </c>
       <c r="C14" t="str">
-        <v>(687 pts)</v>
+        <v>(706 pts)</v>
       </c>
     </row>
     <row r="15">
@@ -547,87 +547,87 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Azmatullah Omarzai</v>
+        <v>Dilshan Madushanka</v>
       </c>
       <c r="B16" t="str">
-        <v>AFG - AR (664 pts)</v>
+        <v>SL - BOWL (687 pts)</v>
       </c>
       <c r="C16" t="str">
-        <v>(664 pts)</v>
+        <v>(687 pts)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>KL Rahul</v>
+        <v>Azmatullah Omarzai</v>
       </c>
       <c r="B17" t="str">
-        <v>IND - BAT (655 pts)</v>
+        <v>AFG - AR (664 pts)</v>
       </c>
       <c r="C17" t="str">
-        <v>(655 pts)</v>
+        <v>(664 pts)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Jasprit Bumrah</v>
+        <v>Bas de Leede</v>
       </c>
       <c r="B18" t="str">
-        <v>IND - BOWL (652 pts)</v>
+        <v>NED - AR (664 pts)</v>
       </c>
       <c r="C18" t="str">
-        <v>(652 pts)</v>
+        <v>(664 pts)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Bas de Leede</v>
+        <v>KL Rahul</v>
       </c>
       <c r="B19" t="str">
-        <v>NED - AR (664 pts)</v>
+        <v>IND - BAT (738 pts)</v>
       </c>
       <c r="C19" t="str">
-        <v>(664 pts)</v>
+        <v>(738 pts)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Mitchell Marsh</v>
+        <v>Pat Cummins</v>
       </c>
       <c r="B20" t="str">
-        <v>AUS - AR (616 pts)</v>
+        <v>AUS - BOWL (644 pts)</v>
       </c>
       <c r="C20" t="str">
-        <v>(616 pts)</v>
+        <v>(644 pts)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Aiden Markram</v>
+        <v>Gerald Coetzee</v>
       </c>
       <c r="B21" t="str">
-        <v>SA - AR (609 pts)</v>
+        <v>SA - BOWL (646 pts)</v>
       </c>
       <c r="C21" t="str">
-        <v>(609 pts)</v>
+        <v>(646 pts)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Glenn Phillips</v>
+        <v>Mitchell Marsh</v>
       </c>
       <c r="B22" t="str">
-        <v>NZ - AR (609 pts)</v>
+        <v>AUS - AR (638 pts)</v>
       </c>
       <c r="C22" t="str">
-        <v>(609 pts)</v>
+        <v>(638 pts)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Shaheen Afridi</v>
+        <v>Mitchell Starc</v>
       </c>
       <c r="B23" t="str">
-        <v>PAK - BOWL (632 pts)</v>
+        <v>AUS - BOWL (632 pts)</v>
       </c>
       <c r="C23" t="str">
         <v>(632 pts)</v>
@@ -635,24 +635,24 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Gerald Coetzee</v>
+        <v>Shaheen Afridi</v>
       </c>
       <c r="B24" t="str">
-        <v>SA - BOWL (646 pts)</v>
+        <v>PAK - BOWL (632 pts)</v>
       </c>
       <c r="C24" t="str">
-        <v>(646 pts)</v>
+        <v>(632 pts)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Adil Rashid</v>
+        <v>Glenn Phillips</v>
       </c>
       <c r="B25" t="str">
-        <v>ENG - BOWL (606 pts)</v>
+        <v>NZ - AR (609 pts)</v>
       </c>
       <c r="C25" t="str">
-        <v>(606 pts)</v>
+        <v>(609 pts)</v>
       </c>
     </row>
     <row r="26">
@@ -668,266 +668,266 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Heinrich Klaasen</v>
+        <v>Aiden Markram</v>
       </c>
       <c r="B27" t="str">
-        <v>SA - WK (589 pts)</v>
+        <v>SA - AR (609 pts)</v>
       </c>
       <c r="C27" t="str">
-        <v>(589 pts)</v>
+        <v>(609 pts)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Mehidy Hasan</v>
+        <v>Adil Rashid</v>
       </c>
       <c r="B28" t="str">
-        <v>BAN - AR (578 pts)</v>
+        <v>ENG - BOWL (606 pts)</v>
       </c>
       <c r="C28" t="str">
-        <v>(578 pts)</v>
+        <v>(606 pts)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Rassie van der Dussen</v>
+        <v>Keshav Maharaj</v>
       </c>
       <c r="B29" t="str">
-        <v>SA - BAT (593 pts)</v>
+        <v>SA - BOWL (595 pts)</v>
       </c>
       <c r="C29" t="str">
-        <v>(593 pts)</v>
+        <v>(595 pts)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Keshav Maharaj</v>
+        <v>Rassie van der Dussen</v>
       </c>
       <c r="B30" t="str">
-        <v>SA - BOWL (595 pts)</v>
+        <v>SA - BAT (593 pts)</v>
       </c>
       <c r="C30" t="str">
-        <v>(595 pts)</v>
+        <v>(593 pts)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Pat Cummins</v>
+        <v>Heinrich Klaasen</v>
       </c>
       <c r="B31" t="str">
-        <v>AUS - BOWL (572 pts)</v>
+        <v>SA - WK (589 pts)</v>
       </c>
       <c r="C31" t="str">
-        <v>(572 pts)</v>
+        <v>(589 pts)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Haris Rauf</v>
+        <v>Mehidy Hasan</v>
       </c>
       <c r="B32" t="str">
-        <v>PAK - BOWL (556 pts)</v>
+        <v>BAN - AR (578 pts)</v>
       </c>
       <c r="C32" t="str">
-        <v>(556 pts)</v>
+        <v>(578 pts)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Mitchell Starc</v>
+        <v>Kuldeep Yadav</v>
       </c>
       <c r="B33" t="str">
-        <v>AUS - BOWL (553 pts)</v>
+        <v>IND - BOWL (567 pts)</v>
       </c>
       <c r="C33" t="str">
-        <v>(553 pts)</v>
+        <v>(567 pts)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Dawid Malan</v>
+        <v>Josh Hazlewood</v>
       </c>
       <c r="B34" t="str">
-        <v>ENG - BAT (564 pts)</v>
+        <v>AUS - BOWL (552 pts)</v>
       </c>
       <c r="C34" t="str">
-        <v>(564 pts)</v>
+        <v>(552 pts)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Kuldeep Yadav</v>
+        <v>Haris Rauf</v>
       </c>
       <c r="B35" t="str">
-        <v>IND - BOWL (553 pts)</v>
+        <v>PAK - BOWL (556 pts)</v>
       </c>
       <c r="C35" t="str">
-        <v>(553 pts)</v>
+        <v>(556 pts)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Logan van Beek</v>
+        <v>Marnus Labuschagne</v>
       </c>
       <c r="B36" t="str">
-        <v>NED - BOWL (531 pts)</v>
+        <v>AUS - BAT (549 pts)</v>
       </c>
       <c r="C36" t="str">
-        <v>(531 pts)</v>
+        <v>(549 pts)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Rashid Khan</v>
+        <v>Dawid Malan</v>
       </c>
       <c r="B37" t="str">
-        <v>AFG - BOWL (531 pts)</v>
+        <v>ENG - BAT (564 pts)</v>
       </c>
       <c r="C37" t="str">
-        <v>(531 pts)</v>
+        <v>(564 pts)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Ibrahim Zadran</v>
+        <v>David Miller</v>
       </c>
       <c r="B38" t="str">
-        <v>AFG - BAT (523 pts)</v>
+        <v>SA - BAT (541 pts)</v>
       </c>
       <c r="C38" t="str">
-        <v>(523 pts)</v>
+        <v>(541 pts)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Shakib Al Hasan</v>
+        <v>Travis Head</v>
       </c>
       <c r="B39" t="str">
-        <v>BAN - AR (522 pts)</v>
+        <v>AUS - BAT (537 pts)</v>
       </c>
       <c r="C39" t="str">
-        <v>(522 pts)</v>
+        <v>(537 pts)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Kusal Mendis</v>
+        <v>Devon Conway</v>
       </c>
       <c r="B40" t="str">
-        <v>SL - WK (519 pts)</v>
+        <v>NZ - WK (533 pts)</v>
       </c>
       <c r="C40" t="str">
-        <v>(519 pts)</v>
+        <v>(533 pts)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Devon Conway</v>
+        <v>Shubman Gill</v>
       </c>
       <c r="B41" t="str">
-        <v>NZ - WK (533 pts)</v>
+        <v>IND - BAT (531 pts)</v>
       </c>
       <c r="C41" t="str">
-        <v>(533 pts)</v>
+        <v>(531 pts)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Shubman Gill</v>
+        <v>Rashid Khan</v>
       </c>
       <c r="B42" t="str">
-        <v>IND - BAT (515 pts)</v>
+        <v>AFG - BOWL (531 pts)</v>
       </c>
       <c r="C42" t="str">
-        <v>(515 pts)</v>
+        <v>(531 pts)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Sadeera Samarawickrama</v>
+        <v>Shakib Al Hasan</v>
       </c>
       <c r="B43" t="str">
-        <v>SL - WK (510 pts)</v>
+        <v>BAN - AR (522 pts)</v>
       </c>
       <c r="C43" t="str">
-        <v>(510 pts)</v>
+        <v>(522 pts)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Trent Boult</v>
+        <v>Logan van Beek</v>
       </c>
       <c r="B44" t="str">
-        <v>NZ - BOWL (500 pts)</v>
+        <v>NED - BOWL (531 pts)</v>
       </c>
       <c r="C44" t="str">
-        <v>(500 pts)</v>
+        <v>(531 pts)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>David Miller</v>
+        <v>Kagiso Rabada</v>
       </c>
       <c r="B45" t="str">
-        <v>SA - BAT (541 pts)</v>
+        <v>SA - BOWL (512 pts)</v>
       </c>
       <c r="C45" t="str">
-        <v>(541 pts)</v>
+        <v>(512 pts)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Mahmudullah Riyad</v>
+        <v>Sadeera Samarawickrama</v>
       </c>
       <c r="B46" t="str">
-        <v>BAN - AR (480 pts)</v>
+        <v>SL - WK (510 pts)</v>
       </c>
       <c r="C46" t="str">
-        <v>(480 pts)</v>
+        <v>(510 pts)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Chris Woakes</v>
+        <v>Ibrahim Zadran</v>
       </c>
       <c r="B47" t="str">
-        <v>ENG - AR (479 pts)</v>
+        <v>AFG - BAT (523 pts)</v>
       </c>
       <c r="C47" t="str">
-        <v>(479 pts)</v>
+        <v>(523 pts)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Marnus Labuschagne</v>
+        <v>Kusal Mendis</v>
       </c>
       <c r="B48" t="str">
-        <v>AUS - BAT (473 pts)</v>
+        <v>SL - WK (519 pts)</v>
       </c>
       <c r="C48" t="str">
-        <v>(473 pts)</v>
+        <v>(519 pts)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Kagiso Rabada</v>
+        <v>Chris Woakes</v>
       </c>
       <c r="B49" t="str">
-        <v>SA - BOWL (512 pts)</v>
+        <v>ENG - AR (479 pts)</v>
       </c>
       <c r="C49" t="str">
-        <v>(512 pts)</v>
+        <v>(479 pts)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Josh Hazlewood</v>
+        <v>Trent Boult</v>
       </c>
       <c r="B50" t="str">
-        <v>AUS - BOWL (498 pts)</v>
+        <v>NZ - BOWL (500 pts)</v>
       </c>
       <c r="C50" t="str">
-        <v>(498 pts)</v>
+        <v>(500 pts)</v>
       </c>
     </row>
     <row r="51">
@@ -943,35 +943,35 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Colin Ackermann</v>
+        <v>Mohammed Siraj</v>
       </c>
       <c r="B52" t="str">
-        <v>NED - AR (461 pts)</v>
+        <v>IND - BOWL (478 pts)</v>
       </c>
       <c r="C52" t="str">
-        <v>(461 pts)</v>
+        <v>(478 pts)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Abdullah Shafique</v>
+        <v>Mahmudullah Riyad</v>
       </c>
       <c r="B53" t="str">
-        <v>PAK - BAT (459 pts)</v>
+        <v>BAN - AR (480 pts)</v>
       </c>
       <c r="C53" t="str">
-        <v>(459 pts)</v>
+        <v>(480 pts)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Babar Azam</v>
+        <v>Abdullah Shafique</v>
       </c>
       <c r="B54" t="str">
-        <v>PAK - BAT (452 pts)</v>
+        <v>PAK - BAT (459 pts)</v>
       </c>
       <c r="C54" t="str">
-        <v>(452 pts)</v>
+        <v>(459 pts)</v>
       </c>
     </row>
     <row r="55">
@@ -1009,76 +1009,76 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Aryan Dutt</v>
+        <v>Colin Ackermann</v>
       </c>
       <c r="B58" t="str">
-        <v>NED - BOWL (441 pts)</v>
+        <v>NED - AR (461 pts)</v>
       </c>
       <c r="C58" t="str">
-        <v>(441 pts)</v>
+        <v>(461 pts)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Mohammed Siraj</v>
+        <v>Sybrand Engelbrecht</v>
       </c>
       <c r="B59" t="str">
-        <v>IND - BOWL (439 pts)</v>
+        <v>NED - AR (431 pts)</v>
       </c>
       <c r="C59" t="str">
-        <v>(439 pts)</v>
+        <v>(431 pts)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Paul van Meekeren</v>
+        <v>Rahmat Shah</v>
       </c>
       <c r="B60" t="str">
-        <v>NED - BOWL (427 pts)</v>
+        <v>AFG - AR (428 pts)</v>
       </c>
       <c r="C60" t="str">
-        <v>(427 pts)</v>
+        <v>(428 pts)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Joe Root</v>
+        <v>Paul van Meekeren</v>
       </c>
       <c r="B61" t="str">
-        <v>ENG - BAT (425 pts)</v>
+        <v>NED - BOWL (427 pts)</v>
       </c>
       <c r="C61" t="str">
-        <v>(425 pts)</v>
+        <v>(427 pts)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Rahmanullah Gurbaz</v>
+        <v>Aryan Dutt</v>
       </c>
       <c r="B62" t="str">
-        <v>AFG - WK (410 pts)</v>
+        <v>NED - BOWL (441 pts)</v>
       </c>
       <c r="C62" t="str">
-        <v>(410 pts)</v>
+        <v>(441 pts)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Litton Das</v>
+        <v>Rahmanullah Gurbaz</v>
       </c>
       <c r="B63" t="str">
-        <v>BAN - WK (409 pts)</v>
+        <v>AFG - WK (410 pts)</v>
       </c>
       <c r="C63" t="str">
-        <v>(409 pts)</v>
+        <v>(410 pts)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Charith Asalanka</v>
+        <v>Litton Das</v>
       </c>
       <c r="B64" t="str">
-        <v>SL - BAT (409 pts)</v>
+        <v>BAN - WK (409 pts)</v>
       </c>
       <c r="C64" t="str">
         <v>(409 pts)</v>
@@ -1086,24 +1086,24 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Sybrand Engelbrecht</v>
+        <v>Joe Root</v>
       </c>
       <c r="B65" t="str">
-        <v>NED - AR (431 pts)</v>
+        <v>ENG - BAT (425 pts)</v>
       </c>
       <c r="C65" t="str">
-        <v>(431 pts)</v>
+        <v>(425 pts)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Mohammad Nabi</v>
+        <v>Matt Henry</v>
       </c>
       <c r="B66" t="str">
-        <v>AFG - AR (392 pts)</v>
+        <v>NZ - BOWL (407 pts)</v>
       </c>
       <c r="C66" t="str">
-        <v>(392 pts)</v>
+        <v>(407 pts)</v>
       </c>
     </row>
     <row r="67">
@@ -1111,139 +1111,139 @@
         <v>Steven Smith</v>
       </c>
       <c r="B67" t="str">
-        <v>AUS - BAT (388 pts)</v>
+        <v>AUS - BAT (397 pts)</v>
       </c>
       <c r="C67" t="str">
-        <v>(388 pts)</v>
+        <v>(397 pts)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Hashmatullah Shahidi</v>
+        <v>Mohammad Nabi</v>
       </c>
       <c r="B68" t="str">
-        <v>AFG - BAT (377 pts)</v>
+        <v>AFG - AR (392 pts)</v>
       </c>
       <c r="C68" t="str">
-        <v>(377 pts)</v>
+        <v>(392 pts)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Shoriful Islam</v>
+        <v>Josh Inglis</v>
       </c>
       <c r="B69" t="str">
-        <v>BAN - BOWL (361 pts)</v>
+        <v>AUS - WK (383 pts)</v>
       </c>
       <c r="C69" t="str">
-        <v>(361 pts)</v>
+        <v>(383 pts)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Mohammad Wasim</v>
+        <v>Hashmatullah Shahidi</v>
       </c>
       <c r="B70" t="str">
-        <v>PAK - BOWL (359 pts)</v>
+        <v>AFG - BAT (377 pts)</v>
       </c>
       <c r="C70" t="str">
-        <v>(359 pts)</v>
+        <v>(377 pts)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Matt Henry</v>
+        <v>Shoriful Islam</v>
       </c>
       <c r="B71" t="str">
-        <v>NZ - BOWL (407 pts)</v>
+        <v>BAN - BOWL (361 pts)</v>
       </c>
       <c r="C71" t="str">
-        <v>(407 pts)</v>
+        <v>(361 pts)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Rahmat Shah</v>
+        <v>Babar Azam</v>
       </c>
       <c r="B72" t="str">
-        <v>AFG - AR (428 pts)</v>
+        <v>PAK - BAT (452 pts)</v>
       </c>
       <c r="C72" t="str">
-        <v>(428 pts)</v>
+        <v>(452 pts)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Travis Head</v>
+        <v>Charith Asalanka</v>
       </c>
       <c r="B73" t="str">
-        <v>AUS - BAT (355 pts)</v>
+        <v>SL - BAT (409 pts)</v>
       </c>
       <c r="C73" t="str">
-        <v>(355 pts)</v>
+        <v>(409 pts)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Iftikhar Ahmed</v>
+        <v>Mohammad Wasim</v>
       </c>
       <c r="B74" t="str">
-        <v>PAK - AR (349 pts)</v>
+        <v>PAK - BOWL (359 pts)</v>
       </c>
       <c r="C74" t="str">
-        <v>(349 pts)</v>
+        <v>(359 pts)</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Saud Shakeel</v>
+        <v>Mujeeb Ur Rahman</v>
       </c>
       <c r="B75" t="str">
-        <v>PAK - BAT (349 pts)</v>
+        <v>AFG - BOWL (353 pts)</v>
       </c>
       <c r="C75" t="str">
-        <v>(349 pts)</v>
+        <v>(353 pts)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Kane Williamson</v>
+        <v>Iftikhar Ahmed</v>
       </c>
       <c r="B76" t="str">
-        <v>NZ - BAT (340 pts)</v>
+        <v>PAK - AR (349 pts)</v>
       </c>
       <c r="C76" t="str">
-        <v>(340 pts)</v>
+        <v>(349 pts)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Josh Inglis</v>
+        <v>Kane Williamson</v>
       </c>
       <c r="B77" t="str">
-        <v>AUS - WK (335 pts)</v>
+        <v>NZ - BAT (340 pts)</v>
       </c>
       <c r="C77" t="str">
-        <v>(335 pts)</v>
+        <v>(340 pts)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Maheesh Theekshana</v>
+        <v>Mushfiqur Rahim</v>
       </c>
       <c r="B78" t="str">
-        <v>SL - BOWL (335 pts)</v>
+        <v>BAN - WK (330 pts)</v>
       </c>
       <c r="C78" t="str">
-        <v>(335 pts)</v>
+        <v>(330 pts)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Mushfiqur Rahim</v>
+        <v>Fakhar Zaman</v>
       </c>
       <c r="B79" t="str">
-        <v>BAN - WK (330 pts)</v>
+        <v>PAK - BAT (330 pts)</v>
       </c>
       <c r="C79" t="str">
         <v>(330 pts)</v>
@@ -1251,13 +1251,13 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Fakhar Zaman</v>
+        <v>Saud Shakeel</v>
       </c>
       <c r="B80" t="str">
-        <v>PAK - BAT (330 pts)</v>
+        <v>PAK - BAT (349 pts)</v>
       </c>
       <c r="C80" t="str">
-        <v>(330 pts)</v>
+        <v>(349 pts)</v>
       </c>
     </row>
     <row r="81">
@@ -1273,21 +1273,21 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Jos Buttler</v>
+        <v>Maheesh Theekshana</v>
       </c>
       <c r="B82" t="str">
-        <v>ENG - WK (325 pts)</v>
+        <v>SL - BOWL (335 pts)</v>
       </c>
       <c r="C82" t="str">
-        <v>(325 pts)</v>
+        <v>(335 pts)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Lungi Ngidi</v>
+        <v>Jos Buttler</v>
       </c>
       <c r="B83" t="str">
-        <v>SA - BOWL (325 pts)</v>
+        <v>ENG - WK (325 pts)</v>
       </c>
       <c r="C83" t="str">
         <v>(325 pts)</v>
@@ -1295,57 +1295,57 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Mujeeb Ur Rahman</v>
+        <v>Tom Latham</v>
       </c>
       <c r="B84" t="str">
-        <v>AFG - BOWL (353 pts)</v>
+        <v>NZ - WK (312 pts)</v>
       </c>
       <c r="C84" t="str">
-        <v>(353 pts)</v>
+        <v>(312 pts)</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Lockie Ferguson</v>
+        <v>Najmul Hossain Shanto</v>
       </c>
       <c r="B85" t="str">
-        <v>NZ - BOWL (315 pts)</v>
+        <v>BAN - BAT (311 pts)</v>
       </c>
       <c r="C85" t="str">
-        <v>(315 pts)</v>
+        <v>(311 pts)</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Tom Latham</v>
+        <v>Kasun Rajitha</v>
       </c>
       <c r="B86" t="str">
-        <v>NZ - WK (312 pts)</v>
+        <v>SL - BOWL (310 pts)</v>
       </c>
       <c r="C86" t="str">
-        <v>(312 pts)</v>
+        <v>(310 pts)</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Najmul Hossain Shanto</v>
+        <v>Lungi Ngidi</v>
       </c>
       <c r="B87" t="str">
-        <v>BAN - BAT (311 pts)</v>
+        <v>SA - BOWL (325 pts)</v>
       </c>
       <c r="C87" t="str">
-        <v>(311 pts)</v>
+        <v>(325 pts)</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Kasun Rajitha</v>
+        <v>Lockie Ferguson</v>
       </c>
       <c r="B88" t="str">
-        <v>SL - BOWL (310 pts)</v>
+        <v>NZ - BOWL (315 pts)</v>
       </c>
       <c r="C88" t="str">
-        <v>(310 pts)</v>
+        <v>(315 pts)</v>
       </c>
     </row>
     <row r="89">
@@ -1372,24 +1372,24 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Moeen Ali</v>
+        <v>Will Young</v>
       </c>
       <c r="B91" t="str">
-        <v>ENG - AR (302 pts)</v>
+        <v>NZ - BAT (286 pts)</v>
       </c>
       <c r="C91" t="str">
-        <v>(302 pts)</v>
+        <v>(286 pts)</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Hasan Ali</v>
+        <v>Naveen-ul-Haq</v>
       </c>
       <c r="B92" t="str">
-        <v>PAK - BOWL (287 pts)</v>
+        <v>AFG - BOWL (286 pts)</v>
       </c>
       <c r="C92" t="str">
-        <v>(287 pts)</v>
+        <v>(286 pts)</v>
       </c>
     </row>
     <row r="93">
@@ -1405,123 +1405,123 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Will Young</v>
+        <v>Angelo Mathews</v>
       </c>
       <c r="B94" t="str">
-        <v>NZ - BAT (286 pts)</v>
+        <v>SL - BAT (262 pts)</v>
       </c>
       <c r="C94" t="str">
-        <v>(286 pts)</v>
+        <v>(262 pts)</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Naveen-ul-Haq</v>
+        <v>Teja Nidamanuru</v>
       </c>
       <c r="B95" t="str">
-        <v>AFG - BOWL (286 pts)</v>
+        <v>NED - BAT (251 pts)</v>
       </c>
       <c r="C95" t="str">
-        <v>(286 pts)</v>
+        <v>(251 pts)</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Angelo Mathews</v>
+        <v>Moeen Ali</v>
       </c>
       <c r="B96" t="str">
-        <v>SL - BAT (262 pts)</v>
+        <v>ENG - AR (302 pts)</v>
       </c>
       <c r="C96" t="str">
-        <v>(262 pts)</v>
+        <v>(302 pts)</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Teja Nidamanuru</v>
+        <v>Hasan Ali</v>
       </c>
       <c r="B97" t="str">
-        <v>NED - BAT (251 pts)</v>
+        <v>PAK - BOWL (287 pts)</v>
       </c>
       <c r="C97" t="str">
-        <v>(251 pts)</v>
+        <v>(287 pts)</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Reece Topley</v>
+        <v>Kusal Perera</v>
       </c>
       <c r="B98" t="str">
-        <v>ENG - BOWL (247 pts)</v>
+        <v>SL - WK (241 pts)</v>
       </c>
       <c r="C98" t="str">
-        <v>(247 pts)</v>
+        <v>(241 pts)</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Towhid Hridoy</v>
+        <v>Marcus Stoinis</v>
       </c>
       <c r="B99" t="str">
-        <v>BAN - BAT (243 pts)</v>
+        <v>AUS - AR (239 pts)</v>
       </c>
       <c r="C99" t="str">
-        <v>(243 pts)</v>
+        <v>(239 pts)</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Kusal Perera</v>
+        <v>Tanzid Hasan</v>
       </c>
       <c r="B100" t="str">
-        <v>SL - WK (241 pts)</v>
+        <v>BAN - BAT (238 pts)</v>
       </c>
       <c r="C100" t="str">
-        <v>(241 pts)</v>
+        <v>(238 pts)</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Marcus Stoinis</v>
+        <v>Shadab Khan</v>
       </c>
       <c r="B101" t="str">
-        <v>AUS - AR (239 pts)</v>
+        <v>PAK - AR (230 pts)</v>
       </c>
       <c r="C101" t="str">
-        <v>(239 pts)</v>
+        <v>(230 pts)</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Taskin Ahmed</v>
+        <v>Reece Topley</v>
       </c>
       <c r="B102" t="str">
-        <v>BAN - BOWL (237 pts)</v>
+        <v>ENG - BOWL (247 pts)</v>
       </c>
       <c r="C102" t="str">
-        <v>(237 pts)</v>
+        <v>(247 pts)</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Tanzid Hasan</v>
+        <v>Towhid Hridoy</v>
       </c>
       <c r="B103" t="str">
-        <v>BAN - BAT (238 pts)</v>
+        <v>BAN - BAT (243 pts)</v>
       </c>
       <c r="C103" t="str">
-        <v>(238 pts)</v>
+        <v>(243 pts)</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Mahedi Hasan</v>
+        <v>Taskin Ahmed</v>
       </c>
       <c r="B104" t="str">
-        <v>BAN - AR (227 pts)</v>
+        <v>BAN - BOWL (237 pts)</v>
       </c>
       <c r="C104" t="str">
-        <v>(227 pts)</v>
+        <v>(237 pts)</v>
       </c>
     </row>
     <row r="105">
@@ -1559,68 +1559,68 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Mustafizur Rahman</v>
+        <v>Imam-ul-Haq</v>
       </c>
       <c r="B108" t="str">
-        <v>BAN - BOWL (223 pts)</v>
+        <v>PAK - BAT (221 pts)</v>
       </c>
       <c r="C108" t="str">
-        <v>(223 pts)</v>
+        <v>(221 pts)</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Imam-ul-Haq</v>
+        <v>Mahedi Hasan</v>
       </c>
       <c r="B109" t="str">
-        <v>PAK - BAT (221 pts)</v>
+        <v>BAN - AR (227 pts)</v>
       </c>
       <c r="C109" t="str">
-        <v>(221 pts)</v>
+        <v>(227 pts)</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Ikram Alikhil</v>
+        <v>Mustafizur Rahman</v>
       </c>
       <c r="B110" t="str">
-        <v>AFG - WK (218 pts)</v>
+        <v>BAN - BOWL (223 pts)</v>
       </c>
       <c r="C110" t="str">
-        <v>(218 pts)</v>
+        <v>(223 pts)</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Tim Southee</v>
+        <v>Temba Bavuma</v>
       </c>
       <c r="B111" t="str">
-        <v>NZ - BOWL (209 pts)</v>
+        <v>SA - BAT (224 pts)</v>
       </c>
       <c r="C111" t="str">
-        <v>(209 pts)</v>
+        <v>(224 pts)</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Shadab Khan</v>
+        <v>Ikram Alikhil</v>
       </c>
       <c r="B112" t="str">
-        <v>PAK - AR (230 pts)</v>
+        <v>AFG - WK (218 pts)</v>
       </c>
       <c r="C112" t="str">
-        <v>(230 pts)</v>
+        <v>(218 pts)</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Noor Ahmad</v>
+        <v>Liam Livingstone</v>
       </c>
       <c r="B113" t="str">
-        <v>AFG - BOWL (187 pts)</v>
+        <v>ENG - AR (184 pts)</v>
       </c>
       <c r="C113" t="str">
-        <v>(187 pts)</v>
+        <v>(184 pts)</v>
       </c>
     </row>
     <row r="114">
@@ -1636,57 +1636,57 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Liam Livingstone</v>
+        <v>Noor Ahmad</v>
       </c>
       <c r="B115" t="str">
-        <v>ENG - AR (184 pts)</v>
+        <v>AFG - BOWL (187 pts)</v>
       </c>
       <c r="C115" t="str">
-        <v>(184 pts)</v>
+        <v>(187 pts)</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Mohammad Nawaz</v>
+        <v>Gus Atkinson</v>
       </c>
       <c r="B116" t="str">
-        <v>PAK - AR (182 pts)</v>
+        <v>ENG - BOWL (172 pts)</v>
       </c>
       <c r="C116" t="str">
-        <v>(182 pts)</v>
+        <v>(172 pts)</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Hardik Pandya</v>
+        <v>Tim Southee</v>
       </c>
       <c r="B117" t="str">
-        <v>IND - AR (170 pts)</v>
+        <v>NZ - BOWL (209 pts)</v>
       </c>
       <c r="C117" t="str">
-        <v>(170 pts)</v>
+        <v>(209 pts)</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Gus Atkinson</v>
+        <v>Suryakumar Yadav</v>
       </c>
       <c r="B118" t="str">
-        <v>ENG - BOWL (172 pts)</v>
+        <v>IND - BAT (158 pts)</v>
       </c>
       <c r="C118" t="str">
-        <v>(172 pts)</v>
+        <v>(158 pts)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Usama Mir</v>
+        <v>Hardik Pandya</v>
       </c>
       <c r="B119" t="str">
-        <v>PAK - BOWL (158 pts)</v>
+        <v>IND - AR (170 pts)</v>
       </c>
       <c r="C119" t="str">
-        <v>(158 pts)</v>
+        <v>(170 pts)</v>
       </c>
     </row>
     <row r="120">
@@ -1702,32 +1702,32 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>James Neesham</v>
+        <v>Mark Chapman</v>
       </c>
       <c r="B121" t="str">
-        <v>NZ - AR (136 pts)</v>
+        <v>NZ - BAT (142 pts)</v>
       </c>
       <c r="C121" t="str">
-        <v>(136 pts)</v>
+        <v>(142 pts)</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Reeza Hendricks</v>
+        <v>James Neesham</v>
       </c>
       <c r="B122" t="str">
-        <v>SA - BAT (135 pts)</v>
+        <v>NZ - AR (136 pts)</v>
       </c>
       <c r="C122" t="str">
-        <v>(135 pts)</v>
+        <v>(136 pts)</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Suryakumar Yadav</v>
+        <v>Reeza Hendricks</v>
       </c>
       <c r="B123" t="str">
-        <v>IND - BAT (135 pts)</v>
+        <v>SA - BAT (135 pts)</v>
       </c>
       <c r="C123" t="str">
         <v>(135 pts)</v>
@@ -1746,13 +1746,13 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Sam Curran</v>
+        <v>Usama Mir</v>
       </c>
       <c r="B125" t="str">
-        <v>ENG - AR (118 pts)</v>
+        <v>PAK - BOWL (158 pts)</v>
       </c>
       <c r="C125" t="str">
-        <v>(118 pts)</v>
+        <v>(158 pts)</v>
       </c>
     </row>
     <row r="126">
@@ -1812,112 +1812,112 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Temba Bavuma</v>
+        <v>Hasan Mahmud</v>
       </c>
       <c r="B131" t="str">
-        <v>SA - BAT (224 pts)</v>
+        <v>BAN - BOWL (90 pts)</v>
       </c>
       <c r="C131" t="str">
-        <v>(224 pts)</v>
+        <v>(90 pts)</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Dushmantha Chameera</v>
+        <v>Mohammad Nawaz</v>
       </c>
       <c r="B132" t="str">
-        <v>SL - BOWL (82 pts)</v>
+        <v>PAK - AR (182 pts)</v>
       </c>
       <c r="C132" t="str">
-        <v>(82 pts)</v>
+        <v>(182 pts)</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Dunith Wellalage</v>
+        <v>Dushmantha Chameera</v>
       </c>
       <c r="B133" t="str">
-        <v>SL - BOWL (79 pts)</v>
+        <v>SL - BOWL (82 pts)</v>
       </c>
       <c r="C133" t="str">
-        <v>(79 pts)</v>
+        <v>(82 pts)</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Shardul Thakur</v>
+        <v>Sam Curran</v>
       </c>
       <c r="B134" t="str">
-        <v>IND - BOWL (78 pts)</v>
+        <v>ENG - AR (118 pts)</v>
       </c>
       <c r="C134" t="str">
-        <v>(78 pts)</v>
+        <v>(118 pts)</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Andile Phehlukwayo</v>
+        <v>Shardul Thakur</v>
       </c>
       <c r="B135" t="str">
-        <v>SA - AR (77 pts)</v>
+        <v>IND - BOWL (78 pts)</v>
       </c>
       <c r="C135" t="str">
-        <v>(77 pts)</v>
+        <v>(78 pts)</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Sean Abbott</v>
+        <v>Andile Phehlukwayo</v>
       </c>
       <c r="B136" t="str">
-        <v>AUS - BOWL (74 pts)</v>
+        <v>SA - AR (77 pts)</v>
       </c>
       <c r="C136" t="str">
-        <v>(74 pts)</v>
+        <v>(77 pts)</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Saqib Zulfiqar</v>
+        <v>Sean Abbott</v>
       </c>
       <c r="B137" t="str">
-        <v>NED - AR (71 pts)</v>
+        <v>AUS - BOWL (74 pts)</v>
       </c>
       <c r="C137" t="str">
-        <v>(71 pts)</v>
+        <v>(74 pts)</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Ishan Kishan</v>
+        <v>Saqib Zulfiqar</v>
       </c>
       <c r="B138" t="str">
-        <v>IND - WK (63 pts)</v>
+        <v>NED - AR (71 pts)</v>
       </c>
       <c r="C138" t="str">
-        <v>(63 pts)</v>
+        <v>(71 pts)</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Nasum Ahmed</v>
+        <v>Ishan Kishan</v>
       </c>
       <c r="B139" t="str">
-        <v>BAN - BOWL (61 pts)</v>
+        <v>IND - WK (63 pts)</v>
       </c>
       <c r="C139" t="str">
-        <v>(61 pts)</v>
+        <v>(63 pts)</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Hasan Mahmud</v>
+        <v>Nasum Ahmed</v>
       </c>
       <c r="B140" t="str">
-        <v>BAN - BOWL (90 pts)</v>
+        <v>BAN - BOWL (61 pts)</v>
       </c>
       <c r="C140" t="str">
-        <v>(90 pts)</v>
+        <v>(61 pts)</v>
       </c>
     </row>
     <row r="141">
@@ -1944,21 +1944,21 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Ravichandran Ashwin</v>
+        <v>Chamika Karunaratne</v>
       </c>
       <c r="B143" t="str">
-        <v>IND - AR (37 pts)</v>
+        <v>SL - AR (39 pts)</v>
       </c>
       <c r="C143" t="str">
-        <v>(37 pts)</v>
+        <v>(39 pts)</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Dimuth Karunaratne</v>
+        <v>Ravichandran Ashwin</v>
       </c>
       <c r="B144" t="str">
-        <v>SL - BAT (37 pts)</v>
+        <v>IND - AR (37 pts)</v>
       </c>
       <c r="C144" t="str">
         <v>(37 pts)</v>
@@ -1966,13 +1966,13 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Mark Chapman</v>
+        <v>Dimuth Karunaratne</v>
       </c>
       <c r="B145" t="str">
-        <v>NZ - BAT (142 pts)</v>
+        <v>SL - BAT (37 pts)</v>
       </c>
       <c r="C145" t="str">
-        <v>(142 pts)</v>
+        <v>(37 pts)</v>
       </c>
     </row>
     <row r="146">
@@ -1988,76 +1988,76 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Ryan Klein</v>
+        <v>Dushan Hemantha</v>
       </c>
       <c r="B147" t="str">
-        <v>NED - BOWL (16 pts)</v>
+        <v>SL - AR (18 pts)</v>
       </c>
       <c r="C147" t="str">
-        <v>(16 pts)</v>
+        <v>(18 pts)</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Shariz Ahmad</v>
+        <v>Ryan Klein</v>
       </c>
       <c r="B148" t="str">
-        <v>NED - BOWL (10 pts)</v>
+        <v>NED - BOWL (16 pts)</v>
       </c>
       <c r="C148" t="str">
-        <v>(10 pts)</v>
+        <v>(16 pts)</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Ish Sodhi</v>
+        <v>Shariz Ahmad</v>
       </c>
       <c r="B149" t="str">
-        <v>NZ - BOWL (4 pts)</v>
+        <v>NED - BOWL (10 pts)</v>
       </c>
       <c r="C149" t="str">
-        <v>(4 pts)</v>
+        <v>(10 pts)</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Alex Carey</v>
+        <v>Ish Sodhi</v>
       </c>
       <c r="B150" t="str">
-        <v>AUS - WK (1 pts)</v>
+        <v>NZ - BOWL (4 pts)</v>
       </c>
       <c r="C150" t="str">
-        <v>(1 pts)</v>
+        <v>(4 pts)</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Dushan Hemantha</v>
+        <v>Alex Carey</v>
       </c>
       <c r="B151" t="str">
-        <v>SL - AR (18 pts)</v>
+        <v>AUS - WK (1 pts)</v>
       </c>
       <c r="C151" t="str">
-        <v>(18 pts)</v>
+        <v>(1 pts)</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Chamika Karunaratne</v>
+        <v>Anamul Haque</v>
       </c>
       <c r="B152" t="str">
-        <v>SL - AR (39 pts)</v>
+        <v>BAN - WK (0 pts)</v>
       </c>
       <c r="C152" t="str">
-        <v>(39 pts)</v>
+        <v>(0 pts)</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Ashton Agar</v>
+        <v>Jason Roy</v>
       </c>
       <c r="B153" t="str">
-        <v>AUS - AR (0 pts)</v>
+        <v>ENG - BAT (0 pts)</v>
       </c>
       <c r="C153" t="str">
         <v>(0 pts)</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Tom Blundell</v>
+        <v>Ashton Agar</v>
       </c>
       <c r="B154" t="str">
-        <v>NZ - WK (0 pts)</v>
+        <v>AUS - AR (0 pts)</v>
       </c>
       <c r="C154" t="str">
         <v>(0 pts)</v>
@@ -2076,10 +2076,10 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Axar Patel</v>
+        <v>Tom Blundell</v>
       </c>
       <c r="B155" t="str">
-        <v>IND - AR (0 pts)</v>
+        <v>NZ - WK (0 pts)</v>
       </c>
       <c r="C155" t="str">
         <v>(0 pts)</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Kyle Jamieson</v>
+        <v>Axar Patel</v>
       </c>
       <c r="B156" t="str">
-        <v>NZ - BOWL (0 pts)</v>
+        <v>IND - AR (0 pts)</v>
       </c>
       <c r="C156" t="str">
         <v>(0 pts)</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Binura Fernando</v>
+        <v>Kyle Jamieson</v>
       </c>
       <c r="B157" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>NZ - BOWL (0 pts)</v>
       </c>
       <c r="C157" t="str">
         <v>(0 pts)</v>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Sahan Arachchige</v>
+        <v>Binura Fernando</v>
       </c>
       <c r="B158" t="str">
-        <v>SL - BAT (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C158" t="str">
         <v>(0 pts)</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Brydon Carse</v>
+        <v>Sahan Arachchige</v>
       </c>
       <c r="B159" t="str">
-        <v>ENG - BOWL (0 pts)</v>
+        <v>SL - BAT (0 pts)</v>
       </c>
       <c r="C159" t="str">
         <v>(0 pts)</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Pramod Madushan</v>
+        <v>Brydon Carse</v>
       </c>
       <c r="B160" t="str">
-        <v>SL - BOWL (0 pts)</v>
+        <v>ENG - BOWL (0 pts)</v>
       </c>
       <c r="C160" t="str">
         <v>(0 pts)</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Prasidh Krishna</v>
+        <v>Pramod Madushan</v>
       </c>
       <c r="B161" t="str">
-        <v>IND - BOWL (0 pts)</v>
+        <v>SL - BOWL (0 pts)</v>
       </c>
       <c r="C161" t="str">
         <v>(0 pts)</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Afif Hossain</v>
+        <v>Prasidh Krishna</v>
       </c>
       <c r="B162" t="str">
-        <v>BAN - AR (0 pts)</v>
+        <v>IND - BOWL (0 pts)</v>
       </c>
       <c r="C162" t="str">
         <v>(0 pts)</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Riaz Hassan</v>
+        <v>Afif Hossain</v>
       </c>
       <c r="B163" t="str">
-        <v>AFG - BAT (0 pts)</v>
+        <v>BAN - AR (0 pts)</v>
       </c>
       <c r="C163" t="str">
         <v>(0 pts)</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Abdul Rahman</v>
+        <v>Riaz Hassan</v>
       </c>
       <c r="B164" t="str">
-        <v>AFG - BOWL (0 pts)</v>
+        <v>AFG - BAT (0 pts)</v>
       </c>
       <c r="C164" t="str">
         <v>(0 pts)</v>
@@ -2186,10 +2186,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Shamim Hossain</v>
+        <v>Abdul Rahman</v>
       </c>
       <c r="B165" t="str">
-        <v>BAN - BAT (0 pts)</v>
+        <v>AFG - BOWL (0 pts)</v>
       </c>
       <c r="C165" t="str">
         <v>(0 pts)</v>
@@ -2197,21 +2197,21 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Anamul Haque</v>
+        <v>Dunith Wellalage</v>
       </c>
       <c r="B166" t="str">
-        <v>BAN - WK (0 pts)</v>
+        <v>SL - BOWL (79 pts)</v>
       </c>
       <c r="C166" t="str">
-        <v>(0 pts)</v>
+        <v>(79 pts)</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Jason Roy</v>
+        <v>Mohammad Naim</v>
       </c>
       <c r="B167" t="str">
-        <v>ENG - BAT (0 pts)</v>
+        <v>BAN - BAT (0 pts)</v>
       </c>
       <c r="C167" t="str">
         <v>(0 pts)</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Mohammad Naim</v>
+        <v>Shamim Hossain</v>
       </c>
       <c r="B168" t="str">
         <v>BAN - BAT (0 pts)</v>
